--- a/data/berita_pr.xlsx
+++ b/data/berita_pr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4459,4002 +4459,6 @@
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01749672/jumlah-kasus-positif-covid-19-di-kota-tasikmalaya-bertambah-tujuh-orang</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Jumlah Kasus Positif Covid-19 di Kota Tasikmalaya Bertambah Tujuh Orang</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="n">
-        <v>44091.48333333333</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Data akumulasi pasien terkonfirmasiCovid-19di KotaTasikmalayahingga Kamis 17 September 2020 mencapai 69 kasus. Angka tersebut setelah hari kemarin Rabu 16 September 2020, kembali terjadi peningkatan pasienpositifCovid-19sebanyak tujuh pasien, sehingga mengakibatkan jumlah pasienpositifCovid-19kembali mengalami lonjakan peningkatan dibanding sehari sebelumnya. Sejumlah aktivitas masyarakat di KotaTasikmalayayang melibatkan massa banyak pengajian umum, pasar Kojengkang, Mambo Kuliner dan lainnya disinyalir penyebab bertambahnya kasus. Atas kondisi tersebut pemerintah KotaTasikmalayaberencana akan mengevaluasi kegiatan kegiatan tersebut dalam upaya pencegahan penyebaranCovid-19di KotaTasikmalaya. Baca Juga:Ribut dengan Alvaro Gonzalez, Neymar Dihukum Komisi Disiplin Cek Youtube Pikiran Rakyat  "Nah itu (keramaian di Reboan, Kojengkang, Mambo Kuliner dan lainnya, Red) akan kita evaluasi," ujar Wali KotaTasikmalaya, Budi Budiman. Dikatakan Budi, guna pencegahan penyebaran virus, pihaknya juga akan kembali mengevaluasi aktivitas warga lainnya seperti di ruas-ruas jalan protokol, pasar tradisional, padar moderen dan yang lainnya. Pasalnya ujar dia, penyebaran virusCovid-19kali ini lebih dahsyat dibanding sebelumnya. "Hari kemarin saja terjadi kenaikan 7 kasuspositif. Maka total kasusnya kini menjadi 69 kasus yang terkonfirmasi," katanya. PIKIRAN RAKYAT -Data akumulasi pasien terkonfirmasiCovid-19di KotaTasikmalayahingga Kamis 17 September 2020 mencapai 69 kasus. Angka tersebut setelah hari kemarin Rabu 16 September 2020, kembali terjadi peningkatan pasienpositifCovid-19sebanyak tujuh pasien, sehingga mengakibatkan jumlah pasienpositifCovid-19kembali mengalami lonjakan peningkatan dibanding sehari sebelumnya. Sejumlah aktivitas masyarakat di KotaTasikmalayayang melibatkan massa banyak pengajian umum, pasar Kojengkang, Mambo Kuliner dan lainnya disinyalir penyebab bertambahnya kasus. Atas kondisi tersebut pemerintah KotaTasikmalayaberencana akan mengevaluasi kegiatan kegiatan tersebut dalam upaya pencegahan penyebaranCovid-19di KotaTasikmalaya. Baca Juga:Ribut dengan Alvaro Gonzalez, Neymar Dihukum Komisi Disiplin Cek Youtube Pikiran Rakyat  "Nah itu (keramaian di Reboan, Kojengkang, Mambo Kuliner dan lainnya, Red) akan kita evaluasi," ujar Wali KotaTasikmalaya, Budi Budiman. Dikatakan Budi, guna pencegahan penyebaran virus, pihaknya juga akan kembali mengevaluasi aktivitas warga lainnya seperti di ruas-ruas jalan protokol, pasar tradisional, padar moderen dan yang lainnya. Pasalnya ujar dia, penyebaran virusCovid-19kali ini lebih dahsyat dibanding sebelumnya. "Hari kemarin saja terjadi kenaikan 7 kasuspositif. Maka total kasusnya kini menjadi 69 kasus yang terkonfirmasi," katanya.Baca Juga:Skuad Persib Kembali Jalani Rapid Test, Dokter Tim Ungkap Hasilnya "Karena sekarang terus naik kasusnya. Semua akan kita evaluasi bukan hanya Kojengkang, Mambo Kuliner dan Reboan. Tapi kegiatan lainnya juga," terang Budi menambahkan. Budi mengakui, peningkatan kasusCovid-19yang terjadi saat ini sudah tak tidak lagi klaster dari luar saja akantetapi sudah terjadi transmisi lokal. "Jadi, Tim Gugus Tugas akan segera melakukan evaluasi kegiatan yang melibatkan massa banyak," ucapnya. Baca Juga:Ingin Kalahkan Militer Tiongkok, Pentagon Kebut Penambahan Armada Laut AS Faskes Kembali Dibuka Sementara itu, berdasarka pantauan di lapangan, beberapa fasilitas kesehatan (Faskes) yang sempat ditutup beberapa hari lalu, kini telah kembali buka dan memberikan pelayanan kepada masyarakat. Seperti Rumah Sakit Ibu dan Anak (RSIA) Bunda Aisyah di Indihiang, hari ini telah kembali beraktivitas. Pengumuman kembali faskes tersebut, salah satunya diumumkan pihak manajemen RSIA melalui akun Instagramnya kemarin. Dalam akun instagram RSIA Bunda Aisyah dijelaskan, pihak manajemen menerangkan bahwa rumah sakit tersebut mulai kembali melayani pasien dengan tetap menerapkan protokol kesehatan dan langkah antisipatif seperti pembentukan Satgas RSIA Bunda Aisyah, Desinfeksi Ruangan, Swab-test seluruh pegawai dan Contact Tracing. Baca Juga:Polisi Tergeletak Tewas di Jalan dengan Luka-luka di Tubuhnya, Reskrim: Benar, Saya sedang Cek TKPDengan langkah langkah antisipasi tersebut, berdasarkan visitasi Dinas Kesehatan KotaTasikmalaya, RSIA Bunda Aisyah telah siap dan aman dalam memberikan pelayanan kesehatan. Adapun hingga siang ini total kasus terkonfirmasiCovid-19masih sebanyak 69 kasus. Rinciannya kasus terkonfirmasi hari ini adalah 16 kasus diketahui dari uji simptomatik dan 53 kasus dari asimptomatik. Dari 2 metode pengujian itu 7 pasien dari kasus simptomatik sudah sembuh dan 40 pasien lainnya dari asimptomatik juga telah sembuh. Sedangkan 5 pasien simptomatik masih dikarantina dan 4 pasiennya meninggal dunia. Sementara itu 13 pasien asimptomatik masih dikarantina dan 0 pasien yang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01741946/diduga-hilang-kendali-mobil-yaris-merah-ringsek-seruduk-pintu-ruko-di-mitrabatik-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Diduga Hilang Kendali, Mobil Yaris Merah Ringsek Seruduk Pintu Ruko di Mitrabatik Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="n">
-        <v>44088.56875</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Diduga lepas kendali, sebuah mobil ToyotaYariswarna merah bernopol D 1784 BG menyuruduk pintu rumah toko (ruko) PD Anugrah di Jalan Mitrabatik, Cipedes, KotaTasikmalaya, Jawa Barat, Senin 14 September 2020 dini hari sekitar pukul 02.55 WIB. Beruntung dalam insiden tersebut tidak sampai merenggut korban jiwa. Supir dan penumpang mobil tersebut hanya mengalami luka ringan walaupun bagian depan roda empat ituringsek. Kanit Laka Lantas Satlantas PolrestaTasikmalaya, Ipda Zezen Zaenal M membenarkan adanya kejadian kecelakaan lalu lintas tersebut. Baca Juga:Petani Tembakau Desak Pemerintah Tunda Kenaikan Cukai Rokok "Kerugian akibat insiden tersebut ditaksir Rp 10 juta," ujar Zezen melalui ponselnya, Senin pagi. Terang dia, korban yang luka ringan adalah pengemudiYaris, Chalid Nugraha (31), warga Antapani, Kota Bandung dan penumpangnya, Zacky Abdilah (17), warga Kawalu, KotaTasikmalaya. Baca Juga:Cita Citata Dikabarkan Sindir Ayu Ting Ting, Umi Kalsum Angkat Bicara Ungkap Fakta Sebenarnya "Hasil pantauan rekaman CCTV kendaraan yang melaju dari arah Gunung Sabeulah menuju Mitrabatik itu berkecepatan tinggi sehingga diduga sopir hilang kendali ke arah kiri sehinggamenabrakpintu pagarrukoPD Anugrah," ujarnya. "Kedua korban sudah kita bawa ke klinik terdekat untuk mendapatkan petolongan pertama. Dan proses evakuasi kendaraan sudah dilakukan," jelasnya menambahkan.*** PIKIRAN RAKYAT- Diduga lepas kendali, sebuah mobil ToyotaYariswarna merah bernopol D 1784 BG menyuruduk pintu rumah toko (ruko) PD Anugrah di Jalan Mitrabatik, Cipedes, KotaTasikmalaya, Jawa Barat, Senin 14 September 2020 dini hari sekitar pukul 02.55 WIB. Beruntung dalam insiden tersebut tidak sampai merenggut korban jiwa. Supir dan penumpang mobil tersebut hanya mengalami luka ringan walaupun bagian depan roda empat ituringsek. Kanit Laka Lantas Satlantas PolrestaTasikmalaya, Ipda Zezen Zaenal M membenarkan adanya kejadian kecelakaan lalu lintas tersebut. Baca Juga:Petani Tembakau Desak Pemerintah Tunda Kenaikan Cukai Rokok "Kerugian akibat insiden tersebut ditaksir Rp 10 juta," ujar Zezen melalui ponselnya, Senin pagi. Terang dia, korban yang luka ringan adalah pengemudiYaris, Chalid Nugraha (31), warga Antapani, Kota Bandung dan penumpangnya, Zacky Abdilah (17), warga Kawalu, KotaTasikmalaya. Baca Juga:Cita Citata Dikabarkan Sindir Ayu Ting Ting, Umi Kalsum Angkat Bicara Ungkap Fakta Sebenarnya "Hasil pantauan rekaman CCTV kendaraan yang melaju dari arah Gunung Sabeulah menuju Mitrabatik itu berkecepatan tinggi sehingga diduga sopir hilang kendali ke arah kiri sehinggamenabrakpintu pagarrukoPD Anugrah," ujarnya. "Kedua korban sudah kita bawa ke klinik terdekat untuk mendapatkan petolongan pertama. Dan proses evakuasi kendaraan sudah dilakukan," jelasnya menambahkan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01739844/1214-kasus-dbd-hingga-september-2020-di-kota-tasikmalaya-20-diantaranya-meninggal-dunia</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>1.214 Kasus DBD hingga September 2020 di Kota Tasikmalaya, 20 Diantaranya Meninggal Dunia</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="n">
-        <v>44087.68541666667</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamencatat sebanyak 21 orang masih dirawat akibat penyakit demam berdarah dengue (DBD) hingga Ahad 13 September 2020. Puluhan orang yang dirawat itu tersebar di sejumlah rumah sakit di KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, hingga saat ini akumulasi total kasusDBDdi wilayahnya sejak Awal Januari Hingga September 2020 mencapai 1.214 kasus dengan 20 kasus diantaranya berujung kematian. Menurut Uus, tingginya angka kematian pasienDBDdi KotaTasikmalayatersebut mayoritas terjadi pada outbreak sebelumnya, yaitu Juni-Juli 2020. Baca Juga:MotoGP 2020: Maverick Vinales Pamer Kekuatan Motor di Tikungan, Enggan Spekulasi Soal Persaingan "Saat ini sudah mulai tertangani dengan baik dan tinggal menyisakan pasien yang masih dirawat sebanyak 21 orang," kata Uus. Uus mengatakan, kasusDBDpada 2020 mengalami peningkatan signifikan dibanding tahun-tahun sebelumnya. Berdasarkan data yang diperoleh, selama tahun 2018 kasusDBDdi Kota Tasik hanya terdapat 223 kasus, sementara pada tahun 2019 tercatat 672 kasus. Sedangkan di tahun 2020, sejak Januari hingga September 2020 sudah lebih dari 1.200 kasusDBDdi KotaTasikmalaya. Lebih lanjut ujar Uus, pada kasusDBDtahun 2020, peningkatan juga terjadi pada angka kematian akibatDBD. Dinas Kesehatan KotaTasikmalayamencatat, kematian akibatDBDpada 2018 hanya terdapat dua kasus, lima kasus pada 2019, dan melonjak 20 kasus pada pada tahun 2020. Baca Juga:Besok PSBB Jakarta, Ini Lima Faktor yang Diatur oleh Pemprov DKI "Memang kasusDBDtahun ini meningkat dua kali lipat dari tahun lalu," kata Uus. PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamencatat sebanyak 21 orang masih dirawat akibat penyakit demam berdarah dengue (DBD) hingga Ahad 13 September 2020. Puluhan orang yang dirawat itu tersebar di sejumlah rumah sakit di KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, hingga saat ini akumulasi total kasusDBDdi wilayahnya sejak Awal Januari Hingga September 2020 mencapai 1.214 kasus dengan 20 kasus diantaranya berujung kematian. Menurut Uus, tingginya angka kematian pasienDBDdi KotaTasikmalayatersebut mayoritas terjadi pada outbreak sebelumnya, yaitu Juni-Juli 2020. Baca Juga:MotoGP 2020: Maverick Vinales Pamer Kekuatan Motor di Tikungan, Enggan Spekulasi Soal Persaingan "Saat ini sudah mulai tertangani dengan baik dan tinggal menyisakan pasien yang masih dirawat sebanyak 21 orang," kata Uus. Uus mengatakan, kasusDBDpada 2020 mengalami peningkatan signifikan dibanding tahun-tahun sebelumnya. Berdasarkan data yang diperoleh, selama tahun 2018 kasusDBDdi Kota Tasik hanya terdapat 223 kasus, sementara pada tahun 2019 tercatat 672 kasus. Sedangkan di tahun 2020, sejak Januari hingga September 2020 sudah lebih dari 1.200 kasusDBDdi KotaTasikmalaya. Lebih lanjut ujar Uus, pada kasusDBDtahun 2020, peningkatan juga terjadi pada angka kematian akibatDBD. Dinas Kesehatan KotaTasikmalayamencatat, kematian akibatDBDpada 2018 hanya terdapat dua kasus, lima kasus pada 2019, dan melonjak 20 kasus pada pada tahun 2020. Baca Juga:Besok PSBB Jakarta, Ini Lima Faktor yang Diatur oleh Pemprov DKI "Memang kasusDBDtahun ini meningkat dua kali lipat dari tahun lalu," kata Uus.Uus menjelaskan menjelaskan, hampir 50 persen kasusDBDyang terjadi pada 2020 menimpa anak berusia 15 tahun ke bawah. Dengan rincian satu persen balita berusia 1 tahun, 15 persen balita 1-4 tahun, dan 27 persen anak 5-14 tahun. Begitu pula untuk kasus kematian, dari 20 kasus kematian akibatDBD, enam persen adalah balita 1 tahun, 12 persen 1-4 tahun, dan 24 persen 5-14 tahun. Baca Juga:Jelang PSBB Total, Anies Baswedan Perbolehkan Kantor Swasta Buka Jika Penuhi Mekanisme Ini Ihwal sebaran wilayah kata Uus, Kecamatan Kawalu yang paling tinggi dengan 197 kasus, Mangkubumi 168 kasus, Bungursari 132 kasus, Cihideung 129 kasus, Tamansari 126 kasus, dan Cipedes 126 kasus. "Memang banyak di kawasan kota, karena semakin padat penduduk tingkat sebaran semakin tinggi," kata Uus. Ia menambahkan, pihaknya telah mengantisipasi dengan secara konsisten melakukan sosialisasi dan penyampaian informasi kepada masyarakat mengenaiDBD. Selain itu, kader-kader juga diminta terus mengkampanyekan 3M serta gerakan satu rumah satu jentik. "Kita juga aktifkan PSN di tingkat kader sampai ke rumah-rumah. Masyarakat juga jangan hanga mengandalkan fogging akan tetapi tetap mengedepankan pola hidup sehat" kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01739367/guru-yang-positif-covid-19-di-kota-tasikmalaya-diapresiasi-gugus-tugas</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Guru yang Positif Covid-19 di Kota Tasikmalaya Diapresiasi Gugus Tugas</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="n">
-        <v>44087.54166666666</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -DN (50) Seorang guru sebuah SMA Negeri diKota Tasikmalayayang dinyatakan positifCovid-19hasil swab test massal. DN mendapat apresiasiGugus Tugascovid Kota dalam penanganan kesehatannya."Kami mengapresiasi sikap ibu guru yang terkonfirmasi positifCovid-19itu, karena dengan kesadaran sendiri minta dirawat di ruang isolasi rumah sakit," ujar juru bicaraGugus TugasPercepatan PenangananCovid-19Kota Tasikmalaya, Uus Supangat, Minggu, 13 September 2020. Baca Juga:Tenaga Kesehatan di RS Bunda Aisyah Tasikmalaya Kena Covid-19, Kontak Erat dengan 37 OrangMenurut Uus, guru perempuan warga Kecamatan Indihiang ini, saat didatangi petugasGugus Tugasuntuk memberi tahu bahwa hasil swab test positif, langsung kooperatif. Bahkan dengan keinginan sendiri, guru yang berusia di atas 50 tahun ini meminta dirawat di rumah sakit agar lebih intensif perawatannya."Awalnya kami tawari mau isolasi mandiri atau di rumah sakit karena memang kondisi kesehatannya baik. Ternyata ia minta dirawat di rumah sakit walaupun harus diisoasi," ujar Uus. Baca Juga:13 Peserta Rising Star 2019 Rilis Album 'One Million Stars', Suguhkan 11 Lagu Indonesia Populer"Sikap guru tersebut sangat membantu petugasGugus Tugasdalam melaksanakan tugasnya bahkan perlu dicontoh oleh pasien lain," kata Uus.Setelah menyatakan bersedia dirawat di rumah sakit ujar Uus, ambulans didatangkan untuk menjemputnya. Petugas pun membawa guru tersebut ke RSU dr Soekardjo untuk mendapat perawatan di ruang isolasi.***PIKIRAN RAKYAT -DN (50) Seorang guru sebuah SMA Negeri diKota Tasikmalayayang dinyatakan positifCovid-19hasil swab test massal. DN mendapat apresiasiGugus Tugascovid Kota dalam penanganan kesehatannya."Kami mengapresiasi sikap ibu guru yang terkonfirmasi positifCovid-19itu, karena dengan kesadaran sendiri minta dirawat di ruang isolasi rumah sakit," ujar juru bicaraGugus TugasPercepatan PenangananCovid-19Kota Tasikmalaya, Uus Supangat, Minggu, 13 September 2020. Baca Juga:Tenaga Kesehatan di RS Bunda Aisyah Tasikmalaya Kena Covid-19, Kontak Erat dengan 37 OrangMenurut Uus, guru perempuan warga Kecamatan Indihiang ini, saat didatangi petugasGugus Tugasuntuk memberi tahu bahwa hasil swab test positif, langsung kooperatif. Bahkan dengan keinginan sendiri, guru yang berusia di atas 50 tahun ini meminta dirawat di rumah sakit agar lebih intensif perawatannya."Awalnya kami tawari mau isolasi mandiri atau di rumah sakit karena memang kondisi kesehatannya baik. Ternyata ia minta dirawat di rumah sakit walaupun harus diisoasi," ujar Uus. Baca Juga:13 Peserta Rising Star 2019 Rilis Album 'One Million Stars', Suguhkan 11 Lagu Indonesia Populer"Sikap guru tersebut sangat membantu petugasGugus Tugasdalam melaksanakan tugasnya bahkan perlu dicontoh oleh pasien lain," kata Uus.Setelah menyatakan bersedia dirawat di rumah sakit ujar Uus, ambulans didatangkan untuk menjemputnya. Petugas pun membawa guru tersebut ke RSU dr Soekardjo untuk mendapat perawatan di ruang isolasi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01737351/satu-guru-di-tasikmalaya-terkonfirmasi-positif-covid-19-pembelajaran-tatap-muka-ditunda</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Satu Guru di Tasikmalaya Terkonfirmasi Positif Covid-19, Pembelajaran Tatap Muka Ditunda</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="n">
-        <v>44086.62222222222</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Dinas KesehatanKota Tasikmalaya, Jawa Barat, mengonfirmasi terdapat satu orang guru diKota TasikmalayayangpositifCovid-19.Guruitu diketahui mengajar di salah satu SMA negeri di Kecamatan IndihiangKota Tasikmalaya. Berdasarkan informasi yang dihimpun dilapangan, guru yang tinggal di Kecamatan Indihiang,Kota Tasikmalaya, itu diketahui terkonfirmasipositifCovid-19pada Rabu 9 September 2020. Baru pada Kamis 10 September 2020 guru itu dijemput oleh petugas medis untuk menjalani perawatan di rumah sakit. Baca Juga:Liverpool vs Leeds United: Titah Klopp Tancap Gas di Laga Pembuka Liga Inggris "Iya benar ada saudara kita (guru, red) yangpositif(Covid-19)," kata Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat ketika dikonfirmasi, Sabtu, 11 September 2020. Saat ini ujar Uus, guru itu dirawat di RSUD dr Soekardjo. Menurut dia, kondisinya secara fisik baik dan tak memiliki gejala yang berat. Baca Juga:Ansutias Penonton MotoGP San Marino 2020 Dikatakan Valentino Rossi Mirip Konser Musik Uus belum bisa memastikan sumber penularan guru yang terkonfirmasipositifCovid-19itu. Saat ini pihaknya masih melakukan penelusuran. Ia mengingatkan, masyarakat untuk tetap menerapkan protokol kesehatan. Sebab, kasuspositifCovid-19diKota Tasikmalayaterus bertambah secara signifikan. Baca Juga:Nick Kyrgios Angkat Bicara Atas Perilaku Novak Djokovic di Adria Tour dan US Open PIKIRAN RAKYAT- Dinas KesehatanKota Tasikmalaya, Jawa Barat, mengonfirmasi terdapat satu orang guru diKota TasikmalayayangpositifCovid-19.Guruitu diketahui mengajar di salah satu SMA negeri di Kecamatan IndihiangKota Tasikmalaya. Berdasarkan informasi yang dihimpun dilapangan, guru yang tinggal di Kecamatan Indihiang,Kota Tasikmalaya, itu diketahui terkonfirmasipositifCovid-19pada Rabu 9 September 2020. Baru pada Kamis 10 September 2020 guru itu dijemput oleh petugas medis untuk menjalani perawatan di rumah sakit. Baca Juga:Liverpool vs Leeds United: Titah Klopp Tancap Gas di Laga Pembuka Liga Inggris "Iya benar ada saudara kita (guru, red) yangpositif(Covid-19)," kata Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat ketika dikonfirmasi, Sabtu, 11 September 2020. Saat ini ujar Uus, guru itu dirawat di RSUD dr Soekardjo. Menurut dia, kondisinya secara fisik baik dan tak memiliki gejala yang berat. Baca Juga:Ansutias Penonton MotoGP San Marino 2020 Dikatakan Valentino Rossi Mirip Konser Musik Uus belum bisa memastikan sumber penularan guru yang terkonfirmasipositifCovid-19itu. Saat ini pihaknya masih melakukan penelusuran. Ia mengingatkan, masyarakat untuk tetap menerapkan protokol kesehatan. Sebab, kasuspositifCovid-19diKota Tasikmalayaterus bertambah secara signifikan. Baca Juga:Nick Kyrgios Angkat Bicara Atas Perilaku Novak Djokovic di Adria Tour dan US OpenMenurut dia, jika penyebaranCovid-19tak bisa dikendalikan,Kota Tasikmalayaberpotensi kembali menjadi zona merah (risiko penularan tinggi). Saat ini,Kota Tasikmalayaberstatus sebagai zona oranye (sedang). *** </t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01736488/kota-tasikmalaya-berhasil-pertahankan-juara-iii-mtq-jabar-xxxvi-di-kabupaten-subang</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Kota Tasikmalaya Berhasil Pertahankan Juara III MTQ Jabar XXXVI di Kabupaten Subang</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="n">
-        <v>44086.35416666666</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Kota Tasikmalayaberhasil meraih juara umum III dalam ajang Musabaqah Tilawatil Qur’an (MTQ) tingkat ProvinsiJawa Barat(Jabar) XXXVI Tahun 2020 yang digelar di KabupatenSubang. Kota Tasikmalayameraih nilai 37 poin, di bawah Kota Bandung 78 poin dan Kabupaten Bandung 70 poin.WaliKota Tasikmalaya, Budi Budiman mengaku bangga dengan raihan yang dicapai para kalifah dartahnya yang berhasil berpartisipasi dalam ajang itu. Baca Juga:BLT Tahap 3 Tak Kunjung Masuk Rekening Anda? Simak Penyebab dan Penjelasannya Ia juga mengapresiasi kepada para kafilah, pembina, ofisial, pendamping, dan semua pihak yang turut mendukung, sehinggaKota Tasikmalayadapat mempertahankan juara umum IIIMTQTingkat ProvinsiJawa Barat.“Alhamdulillah, padaMTQXXXVI di KabupatenSubangini kita mendapatkan Juara Umum III. Ini merupakan prestasi yang membanggakan bagi kita semua. Kita tahu dalam masa pandemi Covid-19 ini tentu banyak keterbatasan, tapi alhamdulillah dapat memberikan sesuatu yang membahagiakan bagi masyarakatKota Tasikmalaya," kata dia, melalui keterangan resmi, Jumat, 11 September 2020. Baca Juga:Apindo Sebut 60 Persen Tenaga Kerja di Jakarta Warga Jabar, Soal PSBB Pengusaha Serba Salah BersikapBudi berharap, hasil yang diraih ini dapat memberikan keberkahan bagi masyarakatKota Tasikmalaya. Ia juga meminta para kalifah dapat meningkatkan prestasinya dalamMTQXXXVII yang akan datang."Sebagai penghargaan atas prestasi yang diraih, ujar Budi pihaknya siap memberikan uang kadedeuh atau pembinaan kepada para pahlawan kota Tasik di ajangMTQtersebut." Ya nanti ada lah," ujar Budi.***PIKIRAN RAKYAT -Kota Tasikmalayaberhasil meraih juara umum III dalam ajang Musabaqah Tilawatil Qur’an (MTQ) tingkat ProvinsiJawa Barat(Jabar) XXXVI Tahun 2020 yang digelar di KabupatenSubang. Kota Tasikmalayameraih nilai 37 poin, di bawah Kota Bandung 78 poin dan Kabupaten Bandung 70 poin.WaliKota Tasikmalaya, Budi Budiman mengaku bangga dengan raihan yang dicapai para kalifah dartahnya yang berhasil berpartisipasi dalam ajang itu. Baca Juga:BLT Tahap 3 Tak Kunjung Masuk Rekening Anda? Simak Penyebab dan Penjelasannya Ia juga mengapresiasi kepada para kafilah, pembina, ofisial, pendamping, dan semua pihak yang turut mendukung, sehinggaKota Tasikmalayadapat mempertahankan juara umum IIIMTQTingkat ProvinsiJawa Barat.“Alhamdulillah, padaMTQXXXVI di KabupatenSubangini kita mendapatkan Juara Umum III. Ini merupakan prestasi yang membanggakan bagi kita semua. Kita tahu dalam masa pandemi Covid-19 ini tentu banyak keterbatasan, tapi alhamdulillah dapat memberikan sesuatu yang membahagiakan bagi masyarakatKota Tasikmalaya," kata dia, melalui keterangan resmi, Jumat, 11 September 2020. Baca Juga:Apindo Sebut 60 Persen Tenaga Kerja di Jakarta Warga Jabar, Soal PSBB Pengusaha Serba Salah BersikapBudi berharap, hasil yang diraih ini dapat memberikan keberkahan bagi masyarakatKota Tasikmalaya. Ia juga meminta para kalifah dapat meningkatkan prestasinya dalamMTQXXXVII yang akan datang."Sebagai penghargaan atas prestasi yang diraih, ujar Budi pihaknya siap memberikan uang kadedeuh atau pembinaan kepada para pahlawan kota Tasik di ajangMTQtersebut." Ya nanti ada lah," ujar Budi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01736367/wacana-ikut-laksanakan-psbb-wali-kota-tasikmalaya-kita-tak-mau-kembali-ke-zona-merah</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Wacana Ikut Laksanakan PSBB, Wali Kota Tasikmalaya: Kita Tak Mau Kembali ke Zona Merah</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="n">
-        <v>44086.3125</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Melonjaknya kasus covid -19 di Kota Tasikmalaya secara signifikan dalam beberapa hari terakhir. Pemerintah Kota (Pemkot) Tasikmalaya mewacanakan untuk kembali menerapkan pembatasan sosial berskala besar (PSBB).Kepala Dinas Kesehatan Kota Tasikmalaya, Uus Supangat mengatakan, pihaknya telah menggelar rapat dengan beberapa pihak terkait pembahasan  kembali diterapkannyaPSBB. Nantinya, hasil rapat itu akan direkomendasikan kepada Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalaya. Baca Juga:Lowongan Kerja September 2020: PT Dua Kelinci Buka Posisi bagi Fresh Graduate"Konsekuensinya seperti kemarin, akan ada pembatasan. Namun kita baru rekomendasi, kebijakan ada di tangan pimpinan daerah," kata dia, Jumat, 11 September 2020.Saat ini, Kota Tasikmalaya berstatus zona oranye (risiko sedang) dalam penyebarabCovid-19. Di mana dalam sehari terakhir, terdapat enam penambahan kasus terkonfirmasi positifCovid-19.Sementara itu, Wali Kota Tasikmalaya, Budi Budiman belum mau bersikap mengenai wacana untuk kembali memberlakukanPSBB. Baca Juga:Tiga Laga Timnas Indoensia U-19 Kebobolan 13 Gol, Apakah Shin Tae-yong Tahu Kelemahan Skuadnya? Namun menurut dia, jika kondisi memandang perlu, tidak menutup kemungkinan untuk kembali menerapkanPSBB."Kemungkinan selalu ada. Karena kasus covid secara nasional juga terus meningkat. Tidak menutup kemungkinan untukPSBBdiberlakukan kembali," ujarnya.Kendati demikian, kata Budi, pihaknya tak berharapPSBBkembali dilakukan. Sebab, penerapanPSBBitu dianggap berat lantaran akan membatasi seluruh kegiatan masyarakat, mulai dari kegiatan ekonomi, agama, budaya, dan lainnya. Baca Juga:Lantik Pengurus Besar Paguyuban Pasundan, Didi Turmudzi Kukuhkan Prioritas, Salah Satunya UMKMKarena itu ujar Budi, ia meminta masyarakat jangan hanya mengandalkan Gugus Tugas dalam pengentasan penyebaranCovid-19. Masyarakat juga mesti ikut andil kuhususnya dalam menerapkan protokol kesehatan dengan maksimal."Kita tak mau kembali ke zona merah. Kunci semua adalah kepatuhan masyarakat terhadap protokol kesehatan. Kita berdoa, tapi juga harus dibarengi dengan ikhtiar. Mudah-mudhan kita diberikan kesehatan," kata dia.Berdasarkan data gugus tugas, hingga Jumat ini, secara akumulasi terdapat 59 kasus terkonfirmasi positif di Kota Tasikmalaya. Sebanyak 45 orang dinyatakan sembuh, 11 orang masih menjalani perawatan, dan tiga orang meninggal dunia.***PIKIRAN RAKYAT -Melonjaknya kasus covid -19 di Kota Tasikmalaya secara signifikan dalam beberapa hari terakhir. Pemerintah Kota (Pemkot) Tasikmalaya mewacanakan untuk kembali menerapkan pembatasan sosial berskala besar (PSBB).Kepala Dinas Kesehatan Kota Tasikmalaya, Uus Supangat mengatakan, pihaknya telah menggelar rapat dengan beberapa pihak terkait pembahasan  kembali diterapkannyaPSBB. Nantinya, hasil rapat itu akan direkomendasikan kepada Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalaya. Baca Juga:Lowongan Kerja September 2020: PT Dua Kelinci Buka Posisi bagi Fresh Graduate"Konsekuensinya seperti kemarin, akan ada pembatasan. Namun kita baru rekomendasi, kebijakan ada di tangan pimpinan daerah," kata dia, Jumat, 11 September 2020.Saat ini, Kota Tasikmalaya berstatus zona oranye (risiko sedang) dalam penyebarabCovid-19. Di mana dalam sehari terakhir, terdapat enam penambahan kasus terkonfirmasi positifCovid-19.Sementara itu, Wali Kota Tasikmalaya, Budi Budiman belum mau bersikap mengenai wacana untuk kembali memberlakukanPSBB. Baca Juga:Tiga Laga Timnas Indoensia U-19 Kebobolan 13 Gol, Apakah Shin Tae-yong Tahu Kelemahan Skuadnya? Namun menurut dia, jika kondisi memandang perlu, tidak menutup kemungkinan untuk kembali menerapkanPSBB."Kemungkinan selalu ada. Karena kasus covid secara nasional juga terus meningkat. Tidak menutup kemungkinan untukPSBBdiberlakukan kembali," ujarnya.Kendati demikian, kata Budi, pihaknya tak berharapPSBBkembali dilakukan. Sebab, penerapanPSBBitu dianggap berat lantaran akan membatasi seluruh kegiatan masyarakat, mulai dari kegiatan ekonomi, agama, budaya, dan lainnya. Baca Juga:Lantik Pengurus Besar Paguyuban Pasundan, Didi Turmudzi Kukuhkan Prioritas, Salah Satunya UMKMKarena itu ujar Budi, ia meminta masyarakat jangan hanya mengandalkan Gugus Tugas dalam pengentasan penyebaranCovid-19. Masyarakat juga mesti ikut andil kuhususnya dalam menerapkan protokol kesehatan dengan maksimal."Kita tak mau kembali ke zona merah. Kunci semua adalah kepatuhan masyarakat terhadap protokol kesehatan. Kita berdoa, tapi juga harus dibarengi dengan ikhtiar. Mudah-mudhan kita diberikan kesehatan," kata dia.Berdasarkan data gugus tugas, hingga Jumat ini, secara akumulasi terdapat 59 kasus terkonfirmasi positif di Kota Tasikmalaya. Sebanyak 45 orang dinyatakan sembuh, 11 orang masih menjalani perawatan, dan tiga orang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01735617/tingkat-kesadaran-masih-rendah-warga-tak-gunakan-masker-di-kota-tasikmalaya-diberi-sanksi-sosial</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Tingkat Kesadaran Masih Rendah, Warga Tak Gunakan Masker di Kota Tasikmalaya Diberi Sanksi Sosial</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="n">
-        <v>44085.86458333334</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Kepatuhan masyarakatKotaTasikmalayadalam melaksanakan protokol kesehatan seperti halnya menggunakan masker dinilai masih rendah. Hal tersebut terlihat dari banyaknya jumlah pelanggaran warga yang tak taat protokol kesehatan. Dari catatan tim Gugus Tugas Covid 19KotaTasikmalayaberdasarkan hasil patroli rutin, hanya dalam satu jam saja, sebanyak 24 pelanggar terjaring diKotaTasikmalaya. Para pelanggar tersebut umumnya tidak menggunakan masker sehingga petugas pun memberikan sanksi sosial terhadap mereka yang melakukan pelanggaran. Baca Juga:Terminal Pandeglang Masih Beroperasi di Tengah Penerapan PSBB, Koordinator Akui Belum dapat Edaran "Dalam waktu satu jam, tercatat sebanyak 24 pelanggar protokol kesehatan kebanyakan yang tidak menggunakan masker," ujar Perwira Pengendali Gugus TugasCovid-19KotaTasikmalaya, Inspektur Dua Ipan Faisal, disela patroli, Jumat 11 September 2020 siang. Menurutnya, patroli dilakukan di Jl. HZ. Mustofa,KotaTasikmalaya. Mereka pelanggar rata-rata tidak menggunakan masker saat aktivitas di luar rumah. "Seluruh pelanggar kami berikan penindakan sanksi sosial," ucapnya. Baca Juga:Tak Ingin Malammu Sepi? Berikut Jadwal Film Bioskop Trans TV Jumat 11 September 2020 Sementara itu data tercatat diKotaTasikmalaya, kasusCovid-19terus mengalami peningkatan. Hingga saat ini tercatat 59 kasus, dengan 11 pasien masih dikarantina. Terjadinya kenaikan tersebut, akibat kurang patuhnya masyarakat terhadap protokol kesehatan, seperti masih rendahnya kepatuhan masyarakat dalam penggunaan masker. PIKIRAN RAKYAT -Kepatuhan masyarakatKotaTasikmalayadalam melaksanakan protokol kesehatan seperti halnya menggunakan masker dinilai masih rendah. Hal tersebut terlihat dari banyaknya jumlah pelanggaran warga yang tak taat protokol kesehatan. Dari catatan tim Gugus Tugas Covid 19KotaTasikmalayaberdasarkan hasil patroli rutin, hanya dalam satu jam saja, sebanyak 24 pelanggar terjaring diKotaTasikmalaya. Para pelanggar tersebut umumnya tidak menggunakan masker sehingga petugas pun memberikan sanksi sosial terhadap mereka yang melakukan pelanggaran. Baca Juga:Terminal Pandeglang Masih Beroperasi di Tengah Penerapan PSBB, Koordinator Akui Belum dapat Edaran "Dalam waktu satu jam, tercatat sebanyak 24 pelanggar protokol kesehatan kebanyakan yang tidak menggunakan masker," ujar Perwira Pengendali Gugus TugasCovid-19KotaTasikmalaya, Inspektur Dua Ipan Faisal, disela patroli, Jumat 11 September 2020 siang. Menurutnya, patroli dilakukan di Jl. HZ. Mustofa,KotaTasikmalaya. Mereka pelanggar rata-rata tidak menggunakan masker saat aktivitas di luar rumah. "Seluruh pelanggar kami berikan penindakan sanksi sosial," ucapnya. Baca Juga:Tak Ingin Malammu Sepi? Berikut Jadwal Film Bioskop Trans TV Jumat 11 September 2020 Sementara itu data tercatat diKotaTasikmalaya, kasusCovid-19terus mengalami peningkatan. Hingga saat ini tercatat 59 kasus, dengan 11 pasien masih dikarantina. Terjadinya kenaikan tersebut, akibat kurang patuhnya masyarakat terhadap protokol kesehatan, seperti masih rendahnya kepatuhan masyarakat dalam penggunaan masker.Terkait 11 pasien positif, terkomfirmasi 4 positif dari uji simptomatik dan 7 positif dari asimpyomatik. Adapun dari 59 kasus itu, tiga diantaranya meninggal dunia dan sisanya berhasil sembuh. Kenaikan kasus ini terjadi sejak Selasa 8 September 2020 lalu. Dari jumlah terkonfirmasi positif 50 kasus, setiap harinya terus bertambah hingga akhirnya total menjadi 59 kasus.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01735467/tiga-faskes-di-kota-tasikmalaya-ditutup-usai-adanya-nakes-yang-terpapar-covid-19</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Tiga Faskes di Kota Tasikmalaya Ditutup Usai Adanya Nakes yang Terpapar Covid-19</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="n">
-        <v>44085.78472222222</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Terdapat tenaga kesehatan yang terkonfirmasipositifCovid-19,sebanyak tiga fasilitas kesehatan (faskes) di KotaTasikmalayadihentikan operasionalnya. Faskesyang pertama ditutup adalah sebuah klinik di Kecamatan Cibeureum, selanjutnya adalah Puskesmas Cihideung, dan Rumah Sakit Ibu dan Anak Bunda Aisyah KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, di masing-masing faskes itu terdapat satu orangnakesyang terkonfirmasipositifCovid-19. Karenanya, untuk mengantisipasi penyebaran yang lebih luas, faskes itu untuk sementara terpaksa ditutup. Baca Juga:Cara Pemerintah Taiwan Lawan Hoaks Covid-19: Pakai Meme! "Klinik dan puskesmas kita tutup selama tiga hari. Untuk rumah sakit, kita sesuaikan waktunya karena cakupannya luas," kata dia, Jumat 11 September 2020. Menurut dia, pasien yang berada di tiga faskes itu telah dipindahkan ke tempat lainnya. Selama penutupan, pihaknya akan melakukan sterilisasi ruangan dan pelacakan (tracing) kepada kontak erat pasien. Uus mengatakan, saat ini terdapat empat orangnakesyang terkonfirmasipositifCovid-19dan masih menjalani perawatan. Tiganakesberasal dari tiga faskes yang ditutup, sementara satunakesbertugas di luar daerah tetapi tinggal di KotaTasikmalaya.Ia belum bisa memastikan sumber awal paranakesitu terkonfirmasipositifCovid-19. Baca Juga:Bukan Cantik! Ini 10 Sifat Wanita yang Disukai Pria, Bersikap Apa Adanya Lebih Menarik? "Kita masih melakukan tracing," kata dia. PIKIRAN RAKYAT -Terdapat tenaga kesehatan yang terkonfirmasipositifCovid-19,sebanyak tiga fasilitas kesehatan (faskes) di KotaTasikmalayadihentikan operasionalnya. Faskesyang pertama ditutup adalah sebuah klinik di Kecamatan Cibeureum, selanjutnya adalah Puskesmas Cihideung, dan Rumah Sakit Ibu dan Anak Bunda Aisyah KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, di masing-masing faskes itu terdapat satu orangnakesyang terkonfirmasipositifCovid-19. Karenanya, untuk mengantisipasi penyebaran yang lebih luas, faskes itu untuk sementara terpaksa ditutup. Baca Juga:Cara Pemerintah Taiwan Lawan Hoaks Covid-19: Pakai Meme! "Klinik dan puskesmas kita tutup selama tiga hari. Untuk rumah sakit, kita sesuaikan waktunya karena cakupannya luas," kata dia, Jumat 11 September 2020. Menurut dia, pasien yang berada di tiga faskes itu telah dipindahkan ke tempat lainnya. Selama penutupan, pihaknya akan melakukan sterilisasi ruangan dan pelacakan (tracing) kepada kontak erat pasien. Uus mengatakan, saat ini terdapat empat orangnakesyang terkonfirmasipositifCovid-19dan masih menjalani perawatan. Tiganakesberasal dari tiga faskes yang ditutup, sementara satunakesbertugas di luar daerah tetapi tinggal di KotaTasikmalaya.Ia belum bisa memastikan sumber awal paranakesitu terkonfirmasipositifCovid-19. Baca Juga:Bukan Cantik! Ini 10 Sifat Wanita yang Disukai Pria, Bersikap Apa Adanya Lebih Menarik? "Kita masih melakukan tracing," kata dia.Berdasarkan data hingga Jumat pagi, secara akumulasi terdapat 59 kasus terkonfirmasipositifdi KotaTasikmalaya. Sebanyak 45 orang dinyatakan sembuh, 11 orang masih menjalani perawatan, dan tiga orang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01735081/jumlah-kasus-covid-19-di-kota-tasikmalaya-merangkak-naik</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Jumlah Kasus Covid-19 di Kota Tasikmalaya Merangkak Naik</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="n">
-        <v>44085.67152777778</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Jumlah kasus positifCovid-19terus mengalami lonjakan di KotaTasikmalayahingga Jumat 11 September 2020. Hingga hari itu, jumlahnya tercatat 59 kasus. Jumlah tersebut merujuk pada data Instagram Dinas Komunikasi dan Informatika KotaTasikmalayayang bersumber dari Dinas Kesehatan KotaTasikmalaya, Jumat 11 September 2020. ‎ Dari 59 kasus tersebut, 14 penderita masuk kategori simptomatik (bergejala) dan 45 asimptomatik (tanpa gejala). Sedangkan dari 14 penderita simptomatik, 7 dinyatakan sembuh, 4 karantina, 3 meninggal. Sementera penderita asimptomatik, 38 sembuh, 7 karantina, 0 meninggal. Baca Juga:Ungkap Alasannya Pensiun dari Voli, Aprilia Manganang: Karena Ingin Hidup Lebih Baik Sehari sebelumnya, atau Kamis 10 September 2020, jumlah kasus mencapai 53 kasus dengan 13 penderita simptomatik dan 40 asimptomatik. Pada Rabu 9 September 2020, kasusnya baru 51 kasus dengan 11 simptomatik dan 40 asimptomatik. Tak pelak, terjadi lonjakan dalam jumlah kasus corona di KotaTasikmalaya. Sebelumnya, Kementerian Sosial Republik Indonesia menyerahkan bantuan sosial kepada 130 Keluarga Penerima Manfaat (KPM) yang berasal dari 10 kecamatan di KotaTasikmalaya, Selasa 1 September 2020. Baca Juga:Berpeluang Kembali ke AS Roma, Chris Smalling Berlatih Terpisah dengan Tim Utama Manchester United Penyerahan bansos berlangsung di Aula DPRD KotaTasikmalayadengan dihadiri Wakil Wali KotaTasikmalayaMuhammad Yusuf. Yusuf sangat mengapresiasi bantuan tersebut. Nilai bantuan untuk masing-masing keluarga mencapai Rp500 ribu, Yusuf berharap dana tersebut bisa digunakan dengan baik. PIKIRAN RAKYAT -Jumlah kasus positifCovid-19terus mengalami lonjakan di KotaTasikmalayahingga Jumat 11 September 2020. Hingga hari itu, jumlahnya tercatat 59 kasus. Jumlah tersebut merujuk pada data Instagram Dinas Komunikasi dan Informatika KotaTasikmalayayang bersumber dari Dinas Kesehatan KotaTasikmalaya, Jumat 11 September 2020. ‎ Dari 59 kasus tersebut, 14 penderita masuk kategori simptomatik (bergejala) dan 45 asimptomatik (tanpa gejala). Sedangkan dari 14 penderita simptomatik, 7 dinyatakan sembuh, 4 karantina, 3 meninggal. Sementera penderita asimptomatik, 38 sembuh, 7 karantina, 0 meninggal. Baca Juga:Ungkap Alasannya Pensiun dari Voli, Aprilia Manganang: Karena Ingin Hidup Lebih Baik Sehari sebelumnya, atau Kamis 10 September 2020, jumlah kasus mencapai 53 kasus dengan 13 penderita simptomatik dan 40 asimptomatik. Pada Rabu 9 September 2020, kasusnya baru 51 kasus dengan 11 simptomatik dan 40 asimptomatik. Tak pelak, terjadi lonjakan dalam jumlah kasus corona di KotaTasikmalaya. Sebelumnya, Kementerian Sosial Republik Indonesia menyerahkan bantuan sosial kepada 130 Keluarga Penerima Manfaat (KPM) yang berasal dari 10 kecamatan di KotaTasikmalaya, Selasa 1 September 2020. Baca Juga:Berpeluang Kembali ke AS Roma, Chris Smalling Berlatih Terpisah dengan Tim Utama Manchester United Penyerahan bansos berlangsung di Aula DPRD KotaTasikmalayadengan dihadiri Wakil Wali KotaTasikmalayaMuhammad Yusuf. Yusuf sangat mengapresiasi bantuan tersebut. Nilai bantuan untuk masing-masing keluarga mencapai Rp500 ribu, Yusuf berharap dana tersebut bisa digunakan dengan baik."Bagi yang sudah mandiri dan punya usaha tetap harus bekerja maksimal," ucapnya dalam unggahan Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya. Seperti diketahui, para penerima bantuan tersebut sudah masuk kategori graduasi atau mandiri karena memiliki usaha dan tak masuk lagi Program Keluarga Harapan. Namun, mereka ikut terdampak pandemiCovid-19.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01734444/menyusul-status-darurat-covid-19-psbb-disiapkan-untuk-berlaku-di-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Menyusul Status Darurat Covid-19, PSBB Disiapkan untuk Berlaku di Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="n">
-        <v>44085.51388888889</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Imbas dari meningkatnya klaster baru covid -19 di Bandung dan Jakarta, sejak beberapa hari terakhir di KotaTasikmalaya, terjadi lonjakan kasus covid-19 yang cukup banyak.Hal itu disampaikan Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat, Jumat, 11 September 2020. Namun kata Uus, pihaknya belum bisa menyebut jumlah pastinya karena sampai sekarang masih diverifikasi oleh petugas lapangan terkait berapa berstatus terkonfirmasi swab atau suspect rapid test-nya. Baca Juga:Sengaja Bersin di Depan Petugas Keamaan, Seorang Wanita Asal Taiwan Dipenjara"Hari ini ada penambahan yang cukup signifikan. Penambahannya tidak satu dua kasus. Hasilnya belum, jumlah pastinya nanti kita sampaikan karena sekarang akan diverifikasi dulu. Yang jelas hari ini penambahannya cukup banyak," ujar Uus.Dengan kondisi tersebut ujar Uus, pihaknya menyebutkan KotaTasikmalayakembali darurat covid. Bahkan lanjut Uus, penambahan kasus sejak sehari kemarin sampai malam tadi, berimbas pada penutupan salah satu fasilitas kesehatan yang ditutup adalah Puskesmas Cihideung, KotaTasikmalaya. Puskesmas Cihideung Kota Tasik ditutup Baca Juga:Bersiap Lanjutkan Proses Syuting Film 'Red Notice' yang Sempat Tertunda, Gal Gadot Jalani Tes SwabSaat ini ujar dia, pihaknya pun sedang berkomunikasi dengan gugus tugas dan kepala daerah tentang langkah selanjutnya untuk mengantisipasi darurat covid-19 kedua kalinya. "Kita kemungkinan besar akan merekomendasikan untukPSBBlagi, tapi sekarang masih dievaluasi secara keseluruhan terkait kondisi darurat covid-19 di KotaTasikmalaya. Tapi, tetap nanti yang memutuskanPSBBatau tidak adalah gugus tugas dan kewenangan kepala daerah," tambah Uus.Uus juga memastikan, Faskes yang disinyalir terdapat konfirmasi positif akan segera ditutup untuk meminimalisasi penyebaran covid-19. Baca Juga:Nella Kharisma Umumkan Pernikahan, Begini Nasib Cak Malik yang Sempat Dikabarkan Jadi Suaminya Pihaknya pun akan segera menyiapkan salah satu rumah sakit swasta yang akan dijadikan pusat perawatan khusus covid-19. "Kalau yang sudah pasti Puskesmas Cihideung akan ditutup. Kemungkinan lainnya dari pasien terkonfirmasi di tiap fasilitas kesehatan akan dialihkan ke rumah sakit swasta yang menjadi pusat perawatan khusus. Tapi, saya akan cek dulu," tambahnya.Lebih lanjut kata dia, hasil koordinasi dengan gugus tugas tentang langkah apa yang akan diberlakukan nantinya, akan langsung segera diterapkan karena terdapat pergeseran pasien positif dari luar daerah yang cukup tinggi.PIKIRAN RAKYAT -Imbas dari meningkatnya klaster baru covid -19 di Bandung dan Jakarta, sejak beberapa hari terakhir di KotaTasikmalaya, terjadi lonjakan kasus covid-19 yang cukup banyak.Hal itu disampaikan Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat, Jumat, 11 September 2020. Namun kata Uus, pihaknya belum bisa menyebut jumlah pastinya karena sampai sekarang masih diverifikasi oleh petugas lapangan terkait berapa berstatus terkonfirmasi swab atau suspect rapid test-nya. Baca Juga:Sengaja Bersin di Depan Petugas Keamaan, Seorang Wanita Asal Taiwan Dipenjara"Hari ini ada penambahan yang cukup signifikan. Penambahannya tidak satu dua kasus. Hasilnya belum, jumlah pastinya nanti kita sampaikan karena sekarang akan diverifikasi dulu. Yang jelas hari ini penambahannya cukup banyak," ujar Uus.Dengan kondisi tersebut ujar Uus, pihaknya menyebutkan KotaTasikmalayakembali darurat covid. Bahkan lanjut Uus, penambahan kasus sejak sehari kemarin sampai malam tadi, berimbas pada penutupan salah satu fasilitas kesehatan yang ditutup adalah Puskesmas Cihideung, KotaTasikmalaya. Puskesmas Cihideung Kota Tasik ditutup Baca Juga:Bersiap Lanjutkan Proses Syuting Film 'Red Notice' yang Sempat Tertunda, Gal Gadot Jalani Tes SwabSaat ini ujar dia, pihaknya pun sedang berkomunikasi dengan gugus tugas dan kepala daerah tentang langkah selanjutnya untuk mengantisipasi darurat covid-19 kedua kalinya. "Kita kemungkinan besar akan merekomendasikan untukPSBBlagi, tapi sekarang masih dievaluasi secara keseluruhan terkait kondisi darurat covid-19 di KotaTasikmalaya. Tapi, tetap nanti yang memutuskanPSBBatau tidak adalah gugus tugas dan kewenangan kepala daerah," tambah Uus.Uus juga memastikan, Faskes yang disinyalir terdapat konfirmasi positif akan segera ditutup untuk meminimalisasi penyebaran covid-19. Baca Juga:Nella Kharisma Umumkan Pernikahan, Begini Nasib Cak Malik yang Sempat Dikabarkan Jadi Suaminya Pihaknya pun akan segera menyiapkan salah satu rumah sakit swasta yang akan dijadikan pusat perawatan khusus covid-19. "Kalau yang sudah pasti Puskesmas Cihideung akan ditutup. Kemungkinan lainnya dari pasien terkonfirmasi di tiap fasilitas kesehatan akan dialihkan ke rumah sakit swasta yang menjadi pusat perawatan khusus. Tapi, saya akan cek dulu," tambahnya.Lebih lanjut kata dia, hasil koordinasi dengan gugus tugas tentang langkah apa yang akan diberlakukan nantinya, akan langsung segera diterapkan karena terdapat pergeseran pasien positif dari luar daerah yang cukup tinggi.Baca Juga:Tak Hanya Klaim Dilecehkan Lawan Paslon, Afifah Alia: Saya Dibully Mengenai Wajah Terlebih lonjakan kasus di Bandung dan Jakarta selama ini sangat berimbas sekali pengaruhnya terhadap kenaikan kasus covid-19 di KotaTasikmalaya."Soalnya, selama ini sering sekali mobilisasi warga dari kota besar keTasikmalayadan sebaliknya. Jika nantinya diberlakukan lagiPSBBdi KotaTasikmalaya, konsekuensinya akan diterapkan kembali sepertiPSBBpertama kemarin," ujarnya.Kalau normal itu, tercatat dari armada bus saja yang besar-besar, tiap harinya ada sekitar 8.000 orang mobilisasi warga dariTasikmalayake Bandung, Jakarta, dan sebaliknya. Baca Juga:Perpanjang PSBMK di Kota Bogor, Bima Arya Sebut Masih Tunggu Kebijakan Anies Baswedan "Hari ini, kita akan selesaikan dan cek kembali berapa kenaikan signifikannya dan kemungkinan antisifasi bahaya ke depannya seperti apa," terang Uus.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01734266/tren-covid-19-tasikmalaya-belum-menurun-seorang-dokter-turut-terpapar-corona</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Tren Covid-19 Tasikmalaya Belum Menurun, Seorang Dokter Turut Terpapar Corona</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="n">
-        <v>44085.46319444444</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Penyebaran virusCovid-19diKota Tasikmalaya, Jawa Barat, belum berakhir. Bahkan saat ini tren pasien terkonfirmasi covid -19 diKota Tasikmalayacenderung mengalami kenaikan. Hingga Kamis, 11 September 2020 kemarin sore, jumlah warga yang positif covid -19  bertambah tiga orang. Baca Juga:Ronald Koeman Bawa 'Gerbong' ke Barcelona, Menarget Wijnaldum dari Liverpool Satu di antaranya seorang dokter.Dengan begitu, total wargaKota Tasikmalayayang positif Covid -19 hingga  Jumat, menjadi 53 orang. Dengan rincian 7 orang di antaranya masih mendapatkan perawatan itensif di ruang isolasi beberapa rumah sakit yang tersebar diKota Tasikmalaya. Baca Juga:Imbas PSBB Total, IHSG Anjlok hingga Waketum Gerindra Singgung Jabatan Anies BaswedanTingginya angka penambahan pasien positifCovid-19ini dibenarkan Kepala Dinas Kesehatan (Kadinkes)Kota Tasikmalaya, Uus Supangat yang dihubungi melalui ponselnya. “Ya memang hari ini ada penambahan pasien positif yang diketahui dari hasil pemeriksaan mandiri. Kemudian konfirmasi ke kita dan sekarang telah dirawat, sisanya sedang kita tracing,” ujar Uus.Uus juga membenarkan,  di antara yang positif itu adalah tenaga medis yang berprofesi sebagai dokter. Baca Juga:Pariwisatanya Terdampak Pandemi, Maladewa Impor Keramba Jaring Apung Bandung Barat Sekarang yang bersangkutan sudah kita kirim ke Rumah Sakit Hasan Sadikin (RSHS) Bandung terkait dengan penurunan kondisi kesehatannya.Terang Uus, dokter yang positif Covid ini berjenis kelamin laki-laki. Sedangkan dua pasien positif lainnya adalah warga umum. Mereka diketahui positif Covid dari pemeriksaan pribadi.PIKIRAN RAKYAT -Penyebaran virusCovid-19diKota Tasikmalaya, Jawa Barat, belum berakhir. Bahkan saat ini tren pasien terkonfirmasi covid -19 diKota Tasikmalayacenderung mengalami kenaikan. Hingga Kamis, 11 September 2020 kemarin sore, jumlah warga yang positif covid -19  bertambah tiga orang. Baca Juga:Ronald Koeman Bawa 'Gerbong' ke Barcelona, Menarget Wijnaldum dari Liverpool Satu di antaranya seorang dokter.Dengan begitu, total wargaKota Tasikmalayayang positif Covid -19 hingga  Jumat, menjadi 53 orang. Dengan rincian 7 orang di antaranya masih mendapatkan perawatan itensif di ruang isolasi beberapa rumah sakit yang tersebar diKota Tasikmalaya. Baca Juga:Imbas PSBB Total, IHSG Anjlok hingga Waketum Gerindra Singgung Jabatan Anies BaswedanTingginya angka penambahan pasien positifCovid-19ini dibenarkan Kepala Dinas Kesehatan (Kadinkes)Kota Tasikmalaya, Uus Supangat yang dihubungi melalui ponselnya. “Ya memang hari ini ada penambahan pasien positif yang diketahui dari hasil pemeriksaan mandiri. Kemudian konfirmasi ke kita dan sekarang telah dirawat, sisanya sedang kita tracing,” ujar Uus.Uus juga membenarkan,  di antara yang positif itu adalah tenaga medis yang berprofesi sebagai dokter. Baca Juga:Pariwisatanya Terdampak Pandemi, Maladewa Impor Keramba Jaring Apung Bandung Barat Sekarang yang bersangkutan sudah kita kirim ke Rumah Sakit Hasan Sadikin (RSHS) Bandung terkait dengan penurunan kondisi kesehatannya.Terang Uus, dokter yang positif Covid ini berjenis kelamin laki-laki. Sedangkan dua pasien positif lainnya adalah warga umum. Mereka diketahui positif Covid dari pemeriksaan pribadi.“Yang dokter kena Covid itu tak ada penutupan tempat praktiknya. Karena sebetulnya yang bersangkutan sudah sakit, jadi tak aktif memberikan pelayanan (tak praktik, Red),” terangnya. Baca Juga:Gelaran MTQ ke-XXXVI Provinsi Jabar Tahun 2020 Resmi di Tutup, Berikut Daftar PemenangnyaTambah Uus, dengan meningkatkan lagi jumlah warga yang terkonfirmasi positif Covid,  pihaknya akan menambah ruangan isolasi di RSUD dr Soekarjdo. Hal ini pun sudah dirapatkan dengan pihak RSUD. “Memang kami akui kasus positif ini di kita cukup naik signifikan dalam 3 hari terakhir ini. Nah untuk antisipasi ya tadi saya sudah ketemu dirut RSUD akan menambah ruang isolasi,” kata Uus.Selain itu, jelas dia, pihaknya juga akan bekerjasama lagi dengan Rumah Sakit Yarsi agar kembali dijadikan lokasi isolasi darurat Covid. “Tadi juga sudah ada persetujuan dari pihak Yarsi untuk kerjasama lagi. Kami juga akan segera rapat untuk melakukan langkah antisipasi dan membuat crisis center di Dinkes untukCovid-19yang akan memberikan masukan dan saran kepada Gugus Tugas,” jelasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01732656/dinas-kesehatan-mencatat-ruang-perawatan-pasien-covid-19-di-kota-tasikmalaya-mulai-penuh</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Dinas Kesehatan Mencatat Ruang Perawatan Pasien Covid -19 di Kota Tasikmalaya Mulai Penuh</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="n">
-        <v>44084.77847222222</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamencatat ruang perawatan untuk menangani pasienCovid-19di sejumlahrumahsakitdi KotaTasikmalayamulai terisi penuh. Bahkan saat ini, perawatan pasienCovid-19di KotaTasikmalayatak hanya difokuskan di RSUD dr Soekardjo saja, melainkan juga di beberaparumahsakitswasta lainnya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, penuhnya ruang perawatan pasienCovid-19dirumahsakitdi wilayahnya disebabkan tidak hanya merawat pasien dari daerah KotaTasikmalayasaja melainkan terdapat juga beberapa pasienCovid-19dari luar KotaTasikmalaya. "Pelayananrumahsakityang ada di Kota Tasik ini tak hanya pasien setempat, tapi juga ada pasien yang dari luar daerah. Sehingga beberaparumahsakitsekarang memang mulai penuh," kata dia, Kamis 10 September 2020. Baca Juga:Syarat dan Cara Daftar Kartu Prakerja Gelombang 8: Dibuka Hari Ini, Jangan Sampai Ketinggalan! Kendati demikian, Uus mengatakan, pihaknya akan melakukan antisipasi penuhnya ruang perawatan untuk pasienCovid-19. Apalagi, menurut dia, ada kemungkinan kasusCovid-19akan melonjak lagi, sehingga ruang perawatan lainnya akan sangat dibutuhkan. Termasuk ujar Uus, pihaknya telah berkoordinasi dengan Direktur RSUD dr Soekardjo untuk menambah ruang isolasi. Dimana lanjut Uus, berdasarkan data terakhir, terdapat 13 ruang isolasi di RSUD dr Soekardjo. Selain itu, Dinas Kesehatan akan kembali melakukan aktivasi ruang isolasi di Rumah Sakit Islam YarsiTasikmalaya. Baca Juga:Bek Persib Henhen Herdiana Akui Fisiknya Sempat Keteteran di Laga Uji Tanding "Kita sudah dapat persetujuan dari Yarsi, tinggal ditindaklanjuti dengan perjanjian kerja samanya," kata dia. PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamencatat ruang perawatan untuk menangani pasienCovid-19di sejumlahrumahsakitdi KotaTasikmalayamulai terisi penuh. Bahkan saat ini, perawatan pasienCovid-19di KotaTasikmalayatak hanya difokuskan di RSUD dr Soekardjo saja, melainkan juga di beberaparumahsakitswasta lainnya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, penuhnya ruang perawatan pasienCovid-19dirumahsakitdi wilayahnya disebabkan tidak hanya merawat pasien dari daerah KotaTasikmalayasaja melainkan terdapat juga beberapa pasienCovid-19dari luar KotaTasikmalaya. "Pelayananrumahsakityang ada di Kota Tasik ini tak hanya pasien setempat, tapi juga ada pasien yang dari luar daerah. Sehingga beberaparumahsakitsekarang memang mulai penuh," kata dia, Kamis 10 September 2020. Baca Juga:Syarat dan Cara Daftar Kartu Prakerja Gelombang 8: Dibuka Hari Ini, Jangan Sampai Ketinggalan! Kendati demikian, Uus mengatakan, pihaknya akan melakukan antisipasi penuhnya ruang perawatan untuk pasienCovid-19. Apalagi, menurut dia, ada kemungkinan kasusCovid-19akan melonjak lagi, sehingga ruang perawatan lainnya akan sangat dibutuhkan. Termasuk ujar Uus, pihaknya telah berkoordinasi dengan Direktur RSUD dr Soekardjo untuk menambah ruang isolasi. Dimana lanjut Uus, berdasarkan data terakhir, terdapat 13 ruang isolasi di RSUD dr Soekardjo. Selain itu, Dinas Kesehatan akan kembali melakukan aktivasi ruang isolasi di Rumah Sakit Islam YarsiTasikmalaya. Baca Juga:Bek Persib Henhen Herdiana Akui Fisiknya Sempat Keteteran di Laga Uji Tanding "Kita sudah dapat persetujuan dari Yarsi, tinggal ditindaklanjuti dengan perjanjian kerja samanya," kata dia.Uus juga mengatakan, Dinas Kesehatan KotaTasikmalayaakan melakukan rapat kordinasi guna membahas langkah antisipasi ketika terjadi lonjakan kasusCovid-19di KotaTasikmalayayang akan dilaksanakan pada hari Jumat 11 September 2020. Hasil rapat itu kata dia, akan disampaikan kepada Gugus Tugas Percepatan PenangananCovid-19KotaTasikmalayasebagai bentuk rekomendasi penanggulangan kasusCovid-19.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01727621/kasus-covid-19-alami-kenaikan-status-kota-tasikmalaya-kini-berubah</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Kasus Covid-19 Alami Kenaikan, Status Kota Tasikmalaya Kini Berubah</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="n">
-        <v>44082.77777777778</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Data terbaruCovid-19di KotaTasikmalayamenunjukan kenaikan.Bahkan saat ini statusCovid-19di KotaTasikmalayayang tadinya berada di zona kuning, kini turun ke zona oranye. Hal tersebut disampaikan Kepala Dinas Kesehatan KotaTasikmalayaUus Supangat, Selasa 8 September 2020. "Kondisi inilah yang harus menjadi perhatian kita semua, artinya kita harus lebih siap dan sigap lagi didalam penangananCovid-19ini," ujar Uus. Baca Juga:Barca Siap-siap Gigit Jari, Jawaban Memphis Depay saat Ditanya Tawaran Barcelona Dengan berubahnya setatus dari zona kuning ke zona oranye ujar Uus, secara zona di KotaTasikmalayamenandakan terjadinya penurunan. "Kita pernah berada di zona hijau, kita juga pernah di zona kuning dan sekarang turun menjadi zona oranye. Jika tidak segera diantisipasi, tidak menutup kemungkinan kita bisa menjadi zona merah bahkan zona hitam. Dan itu jangan sampai terjadi," katanya. Peningkatan kasusCovid-19di KotaTasikmalayacukup signifikan. Ujar Uus, terjadi selama Bulan Agustus 2020. Selama Bulan tersebut ujar dia, di periode 1 Agustus hingga 31 Agustus 2020, terjadi penambahan kasusCovid-19sebanyak 12 kasus. Sehingga dengan penambahan kasus tersebut, secara akumulatif kasus terkonfirmasiCovid-19di KotaTasikmalayamenjadi 50 kasus dengan rincian 10 kasus simtomatik dan sebanyak 40 kasus asimtomatik. Baca Juga:Kabur Karena Cinta Tak Direstui, Dara Asal Salopa Kabupaten Tasikmalaya Akhirnya Ditemukan Sedangkan yang masih dalam perawatan sebanyak 4 orang yang kini dirawat di rumah sakit dr. Sorkardjo dan ada yang dirumah sakit swasta. PIKIRAN RAKYAT -Data terbaruCovid-19di KotaTasikmalayamenunjukan kenaikan.Bahkan saat ini statusCovid-19di KotaTasikmalayayang tadinya berada di zona kuning, kini turun ke zona oranye. Hal tersebut disampaikan Kepala Dinas Kesehatan KotaTasikmalayaUus Supangat, Selasa 8 September 2020. "Kondisi inilah yang harus menjadi perhatian kita semua, artinya kita harus lebih siap dan sigap lagi didalam penangananCovid-19ini," ujar Uus. Baca Juga:Barca Siap-siap Gigit Jari, Jawaban Memphis Depay saat Ditanya Tawaran Barcelona Dengan berubahnya setatus dari zona kuning ke zona oranye ujar Uus, secara zona di KotaTasikmalayamenandakan terjadinya penurunan. "Kita pernah berada di zona hijau, kita juga pernah di zona kuning dan sekarang turun menjadi zona oranye. Jika tidak segera diantisipasi, tidak menutup kemungkinan kita bisa menjadi zona merah bahkan zona hitam. Dan itu jangan sampai terjadi," katanya. Peningkatan kasusCovid-19di KotaTasikmalayacukup signifikan. Ujar Uus, terjadi selama Bulan Agustus 2020. Selama Bulan tersebut ujar dia, di periode 1 Agustus hingga 31 Agustus 2020, terjadi penambahan kasusCovid-19sebanyak 12 kasus. Sehingga dengan penambahan kasus tersebut, secara akumulatif kasus terkonfirmasiCovid-19di KotaTasikmalayamenjadi 50 kasus dengan rincian 10 kasus simtomatik dan sebanyak 40 kasus asimtomatik. Baca Juga:Kabur Karena Cinta Tak Direstui, Dara Asal Salopa Kabupaten Tasikmalaya Akhirnya Ditemukan Sedangkan yang masih dalam perawatan sebanyak 4 orang yang kini dirawat di rumah sakit dr. Sorkardjo dan ada yang dirumah sakit swasta."Mudah mudahan dalam seminggu kedepan yang masih dirawat ini dapat segera sembuh," kata Uus. Lebih lanjut ujar Uus, kondisi itu juga akan berdampak pada rencana pelaksanaan pembelajaran tatap muka di KotaTasikmalayadimana salah satu syarat daerah yang melakukan PTM yaitu daerah yang dalam status zona kuning. "Sekarang kan status kotaTasikmalayamenjadi zona oranye sehingga secara otomatis pembelajaran tatap muka baik ditingkat SMA hingga Taman Kanak-kanak tidak bisa dilaksanakan," katanya. Baca Juga:Inggris vs Denmark di UEFA Nations League, Gareth Southgate Minta Jangan Remehkan Sterling Untuk itu lanjut Uus, pihaknya kembali meminta kepada masyarakat KotaTasikmalayatermasuk para pelaku usaha agar jangan mengabaikan protokol kesehatanCovid-19. "Patuhilah setiap himbauan pemerintah terkait protokol kesehatanCovid-19. Karena virus ini belum selesai buktinya kemarin kita sempat nol atau zero covid, sekarang malah nambah cukup signifikan," ujar Uus. Mudah mudahan kata Uus, kondisi ini menjadi perhatian bersama. Baca Juga:Mantan Menhan Timor Leste Sentil Denny Siregar soal Sindirannya di Twitter "Marilah kita secara bersama-sama memutus mata rantai penyebaranCovid-19. Karena pemutusan mata rantai penyebaranCovid-19bisa berjalan dengan baik apabila seluruh stakeholder baik masyarakat maupun pemerintah secara bersama-sama melakukan kedisiplinan dalam mematuhi protokol kesehatan sehingga upaya memutus penyebaranCovid-19bisa berjalan dengan baik," katanya. Apalagi lanjut Uus, hingga kini adanya paksin untukCovid-19ini belum ada kepastian termasuk kapan vaksin itu akan disuntikkan untuk mencegahCovid-19juga hingga saat ini belum ada kepastian.Untuk itu sekali lagi ujar Uus, selama pelaksanaan fase kebiasaan baruCovid-19ini, masyarakat diharapkan menjalankan fase kebiasaan baru dengan baik dan benar. "Semua sektor baik swasta, pemerintah dan masyarakat umum wajib menerapkan kedisiplinan terhadap protokol kesehatan, kalau penangananCovid-19di Kota Tasik ingin bisa segera tuntas," ujar Uus.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01723259/komisi-iv-dprd-kota-tasikmalaya-pertanyakan-kebijakan-pemkot-pangkas-bantuan-covid-19-19</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Komisi IV DPRD Kota Tasikmalaya Pertanyakan Kebijakan Pemkot Pangkas Bantuan Covid-19-19</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="n">
-        <v>44080.82569444444</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Komisi IVDPRD Kota Tasikmalaya mengkritisi kebijakan Pemkot yang mengurangi besaran jumlah bantuan sosial Covid-19 bagi warga terdampak pandemi. Semula (Tahap I), bantuan Pemkot sebesar Rp 500 ribu, kini bantuan tersebut menurut KetuaKomisi IVDPRD Dede Muhamad Muharam, dikurangi atau dipangkas menjadi hanya Rp 300 ribu.Dede mengatakan, pihaknya mempertanyakan alasan Pemkot Tasikmalaya dalam hal ini tim Gugus Tugas Covid-19 Tasik, memangkas jumlah bantuan sosial Covid untuk warga. Baca Juga:Strategi Juventus Boyong Luis Suarez dari Barcelona, Opsi Lain Sudah Disiapkan Padahal ujar Dede, pihaknya sudah jelas kita sepakat menganggarkan Rp 42 Miliar, untuk bantuan tersebut.Berdasarkan laporan penyaluran bantuan tahap satu kata Dede, mencapai 97,7 persen, atau sekitar 16.609 kepala keluarga dipastikan sudah menerima bantuan tersebut, dengan jumlah anggaran sebesar Rp 8,3 Miliar.Kabarnya, kini bantuan tahap II dan III sudah mulai dibagikan, namun yang jadi persoalan, kenapa jumlah bantuan menjadi Rp 300 ribu, kan anggaran untuk itu sudah jelas alokasinya, kenapa harus dikurangi," tegas Dede. Ketua Komisi IV DPRD Dede Muhamad MuharamLebih lanjut, Dede mengatakan, menurut informasi, jumlah penerima bantuan tahap II dan III ini sebanyak 15.851 kepala keluarga. Jika anggaran yang dibagikan tersebut jumlahnya Rp 300 ribu per KK jelas dia, maka anggaran yang terserap hanya Rp 9,3 Miliar.Untuk itu lanjut Dede, jika dijumlah, anggaran pada tahap I sebesar 8,3 Miliar, serta tahap II dan III yang hanya 9,3 Miliar, maka dari jumlah besaran anggaran bantuan pemkot sebesar 42 Miliar itu, baru terserap 17,6 Miliar. "Lalu sisa anggaran kemana, dan untuk apa?” tanyanya.Atas kebijakan tersebut lanjut dia, pihaknya jelas tidak setuju, dan akan mempertanyakan apa alasan anggaran bansos tersebut dipotong. Baca Juga:Sebagian Anggaran BLT Usaha Mikro Sudah Disalurkan, Menkop Teten: Akhir September 100 Persen "Kalau toh untuk meng-cover warga yang tidak mendapat bantuan dari provinsi, sebaiknya jangan langsung main potong, pastikan dulu data warga yang tidak ter-cover itu, benar-benar tidak mendapat bantuan dari provinsi," tandasnya. ***PIKIRAN RAKYAT -Komisi IVDPRD Kota Tasikmalaya mengkritisi kebijakan Pemkot yang mengurangi besaran jumlah bantuan sosial Covid-19 bagi warga terdampak pandemi. Semula (Tahap I), bantuan Pemkot sebesar Rp 500 ribu, kini bantuan tersebut menurut KetuaKomisi IVDPRD Dede Muhamad Muharam, dikurangi atau dipangkas menjadi hanya Rp 300 ribu.Dede mengatakan, pihaknya mempertanyakan alasan Pemkot Tasikmalaya dalam hal ini tim Gugus Tugas Covid-19 Tasik, memangkas jumlah bantuan sosial Covid untuk warga. Baca Juga:Strategi Juventus Boyong Luis Suarez dari Barcelona, Opsi Lain Sudah Disiapkan Padahal ujar Dede, pihaknya sudah jelas kita sepakat menganggarkan Rp 42 Miliar, untuk bantuan tersebut.Berdasarkan laporan penyaluran bantuan tahap satu kata Dede, mencapai 97,7 persen, atau sekitar 16.609 kepala keluarga dipastikan sudah menerima bantuan tersebut, dengan jumlah anggaran sebesar Rp 8,3 Miliar.Kabarnya, kini bantuan tahap II dan III sudah mulai dibagikan, namun yang jadi persoalan, kenapa jumlah bantuan menjadi Rp 300 ribu, kan anggaran untuk itu sudah jelas alokasinya, kenapa harus dikurangi," tegas Dede. Ketua Komisi IV DPRD Dede Muhamad MuharamLebih lanjut, Dede mengatakan, menurut informasi, jumlah penerima bantuan tahap II dan III ini sebanyak 15.851 kepala keluarga. Jika anggaran yang dibagikan tersebut jumlahnya Rp 300 ribu per KK jelas dia, maka anggaran yang terserap hanya Rp 9,3 Miliar.Untuk itu lanjut Dede, jika dijumlah, anggaran pada tahap I sebesar 8,3 Miliar, serta tahap II dan III yang hanya 9,3 Miliar, maka dari jumlah besaran anggaran bantuan pemkot sebesar 42 Miliar itu, baru terserap 17,6 Miliar. "Lalu sisa anggaran kemana, dan untuk apa?” tanyanya.Atas kebijakan tersebut lanjut dia, pihaknya jelas tidak setuju, dan akan mempertanyakan apa alasan anggaran bansos tersebut dipotong. Baca Juga:Sebagian Anggaran BLT Usaha Mikro Sudah Disalurkan, Menkop Teten: Akhir September 100 Persen "Kalau toh untuk meng-cover warga yang tidak mendapat bantuan dari provinsi, sebaiknya jangan langsung main potong, pastikan dulu data warga yang tidak ter-cover itu, benar-benar tidak mendapat bantuan dari provinsi," tandasnya. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01721056/berlarian-ke-jalan-usai-ada-suara-benturan-keras-warga-heboh-temukan-pemotor-asal-tanah-abang-tewas</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Berlarian ke Jalan Usai Ada Suara Benturan Keras, Warga Heboh Temukan Pemotor Asal Tanah Abang Tewas</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="n">
-        <v>44079.69652777778</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT- Kecelakaan tunggal di Jalan Ahmad Yani, tepatnya di depan Pala Noer Spa, Sukamanah, Cipedes,Kota Tasikmalaya, Jawa Barat, Sabtu, 5 September 2020 membuat seorang pemotor tewas di tempat kejadian.Saat itu arus kendaraan di lokasi kejadian sebenarnya tidak terlalu padat bahkan relatif lengang. Namun tiba-tiba, warga sekitar lokasi dikagetkan dengan suarabenturanyang cukup keras. Baca Juga:Gagal Dapatkan Andrea Dovizioso untuk MotoGP 2021, Direktur KTM : Sedikit Menyakitkan Melihat Ini Warga sekitar lokasi pun mendadak heboh ketika melihat disekitar itu terjadi kecelakaan.Sesaat kemudian warga mendapati seorang pria terkapar tak bernyawa di tengah jalan. Warga pun tak mengetahui seperti apa detil kecelakaan yang menyebabkan si pengendara motor itu meninggal dunia. Baca Juga:Disebut Lakukan Pelecehan Terhadap Wakil Wali Kota Tangsel, Cipta Panca: Biarin Saja "Saya lagi di dalam rumah pas ada kejadian ini. Tiba tiba banyak warga lari ke jalan. Pas dilihat ada yang kecelakaan dan meninggal dunia," ujar Nunung (32) warga sekitar lokasi kejadian kepada wartawan.Nunung mengaku dia  kaget, karena hanya berselang satu menit setelah dia tiba di rumah tiba tiba terdengar suarabrakkkdi tengah jalan. Padahal, dia baru melintasi jalan itu menggunakan motornya. Baca Juga:Sejumlah Karyawannya Terpapar Covid-19, Tiga Hotel di Kawasan Cipanas Garut Ditutup "Kaget pisan. Baru juga sampai depan rumah terus parkir motor. Ada suara kaya motor jatuh. Pas dilihat ada kecelakaan dan korbannya meninggal dunia," terangnya.Terpisah, Kanit Lakalantas Satlantas Polresta Tasikmalaya, Ipda Zezen Zaenal M menuturkan, korban yang meninggal dunia dalam kecelakaan tunggal itu adalah Acep Suparman (52), warga Karet Tengsin, Tanah Abang, Jakarta Pusat."Jadi hasil olah TPK kejadian korban saat itu mengendarai sepeda motor Honda Vario bernopol Z 6068 LG. Korban melaju dari arah Cador menuju Pancasila," tuturnya kepada wartawan yang dihubungi melalui ponselnya.PIKIRAN RAKYAT- Kecelakaan tunggal di Jalan Ahmad Yani, tepatnya di depan Pala Noer Spa, Sukamanah, Cipedes,Kota Tasikmalaya, Jawa Barat, Sabtu, 5 September 2020 membuat seorang pemotor tewas di tempat kejadian.Saat itu arus kendaraan di lokasi kejadian sebenarnya tidak terlalu padat bahkan relatif lengang. Namun tiba-tiba, warga sekitar lokasi dikagetkan dengan suarabenturanyang cukup keras. Baca Juga:Gagal Dapatkan Andrea Dovizioso untuk MotoGP 2021, Direktur KTM : Sedikit Menyakitkan Melihat Ini Warga sekitar lokasi pun mendadak heboh ketika melihat disekitar itu terjadi kecelakaan.Sesaat kemudian warga mendapati seorang pria terkapar tak bernyawa di tengah jalan. Warga pun tak mengetahui seperti apa detil kecelakaan yang menyebabkan si pengendara motor itu meninggal dunia. Baca Juga:Disebut Lakukan Pelecehan Terhadap Wakil Wali Kota Tangsel, Cipta Panca: Biarin Saja "Saya lagi di dalam rumah pas ada kejadian ini. Tiba tiba banyak warga lari ke jalan. Pas dilihat ada yang kecelakaan dan meninggal dunia," ujar Nunung (32) warga sekitar lokasi kejadian kepada wartawan.Nunung mengaku dia  kaget, karena hanya berselang satu menit setelah dia tiba di rumah tiba tiba terdengar suarabrakkkdi tengah jalan. Padahal, dia baru melintasi jalan itu menggunakan motornya. Baca Juga:Sejumlah Karyawannya Terpapar Covid-19, Tiga Hotel di Kawasan Cipanas Garut Ditutup "Kaget pisan. Baru juga sampai depan rumah terus parkir motor. Ada suara kaya motor jatuh. Pas dilihat ada kecelakaan dan korbannya meninggal dunia," terangnya.Terpisah, Kanit Lakalantas Satlantas Polresta Tasikmalaya, Ipda Zezen Zaenal M menuturkan, korban yang meninggal dunia dalam kecelakaan tunggal itu adalah Acep Suparman (52), warga Karet Tengsin, Tanah Abang, Jakarta Pusat."Jadi hasil olah TPK kejadian korban saat itu mengendarai sepeda motor Honda Vario bernopol Z 6068 LG. Korban melaju dari arah Cador menuju Pancasila," tuturnya kepada wartawan yang dihubungi melalui ponselnya.Baca Juga:Horor, Inilah Penampakan Video Viral Motor Bebek Jalan Sendiri di Tengah Gelap MalamDiduga, jelas Zezen, korban memacu motornya dengan kecepatan tinggi sehingga hilang kendali, dan terjatuh di lokasi kejadian. "Ya memang benar, korban meninggal dunia. Saat ini jenazah dan motornya telah kita evakuasi. Jasad korban telah dibawa ke kamar mayat RSUD dr Soekardjo," jelasnya."Ini menjadi pengingat bagi warga yang kerap berkendara di jalan raya agar tetap meningkatkan kewaspadaanya. Karena jika lengah bisa saja ajal pun datang menjemput," katanya menambahkan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01718211/rotasi-dan-mutasi-jabatan-tetap-dilakukan-di-tengah-covid-19-begini-kata-wali-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Rotasi dan Mutasi Jabatan Tetap Dilakukan di Tengah Covid-19, Begini Kata Wali Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="n">
-        <v>44078.40208333333</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Pemerintah KotaTasikmalayakembali melantik dan mengambil sumpahpejabattinggi pratama dan Administrator, Kepala UPTD Puskesmas di lingkungan PemkotTasikmalayapada kegiatan rotasi dan mutasi yang dilakukan di halaman Gedung BKPSDMTasikmalaya, Kamis 3 September 2020. Selain dihadiri WalikotaTasikmalaya, kegiatan pelantikan dan sumpahjabatanASNterseut dihadiri juga Sekda PemkotTasikmalayaIvan Dicksan, Pejabat Porkopinda PemkotTasikmalaya, Unsur DPRD, Muspida serta tamu undangan lainnya. Dalam kegiatan tersebut, walikotaTasikmalayamelantik dan mengambil sumpah sebanyak 160 eselon (3a.4), 17 Kepala Sekolah, 1 Kepala UPTD Puskesmas. Baca Juga:Kasus Covid-19 di KBB Terus Bertambah, Diyakini Akibat Lakukan Perjalanan ke Luar Daerah Untuk Pejabat eselon IIIA,pejabatyang dilantik diantaranya yaitu Encu Darsiwa denganjabatansebagai Sekretaris Dinas Pengendalian Penduduk, Keluarga Berencana, Pemberdayaan Perempuan dan Perlindungan Anak, A.Jamaludinjabatanbaru Sekretaris Dinas Kesehatan, Budi Tirmadijabatanbaru sebagai Wakil Direktur Pelayanan pada RSUD dr. Soekardjo dan yang lainnya. Wali KotaTasikmalayaBudi Budiman mengatakan, kegiatan pelantikan jajaranpejabatdi setiap intansi pemerintah adalah bagian dari kehidupan dan kebutuhan organisasi dalam rangka meningkatkan kapasitas kelembagaan dan pola pembinaan karier pegawai. "Walau ditengah pandemiCovid-19, kita tetap melakukan rotasi dan mutasipejabatdalam upaya lebih memperlancar pelaksanaan tugas-tugas pemerintah dan pelayanan publik terutama padajabatan-jabatanyang belum terisi," katanya. Baca Juga:Cegah Disusupi Paham Radikal, Program Penceramah Bersertifikat Kembali Disiapkan Kemenag Pelaksanaan mutasi atau rotasipejabatstuktural di lingkungan Pemerintahan kata Budi, juga merupakan konsekuensi yang harus dilakukan dalam upaya memberikan penyegaran sekaligus untuk memotivasi kinerja organisasi agar lebih baik, baik dalam pengelolaan administrasi maupun pelayanan kepada masyarakat. PIKIRAN RAKYAT -Pemerintah KotaTasikmalayakembali melantik dan mengambil sumpahpejabattinggi pratama dan Administrator, Kepala UPTD Puskesmas di lingkungan PemkotTasikmalayapada kegiatan rotasi dan mutasi yang dilakukan di halaman Gedung BKPSDMTasikmalaya, Kamis 3 September 2020. Selain dihadiri WalikotaTasikmalaya, kegiatan pelantikan dan sumpahjabatanASNterseut dihadiri juga Sekda PemkotTasikmalayaIvan Dicksan, Pejabat Porkopinda PemkotTasikmalaya, Unsur DPRD, Muspida serta tamu undangan lainnya. Dalam kegiatan tersebut, walikotaTasikmalayamelantik dan mengambil sumpah sebanyak 160 eselon (3a.4), 17 Kepala Sekolah, 1 Kepala UPTD Puskesmas. Baca Juga:Kasus Covid-19 di KBB Terus Bertambah, Diyakini Akibat Lakukan Perjalanan ke Luar Daerah Untuk Pejabat eselon IIIA,pejabatyang dilantik diantaranya yaitu Encu Darsiwa denganjabatansebagai Sekretaris Dinas Pengendalian Penduduk, Keluarga Berencana, Pemberdayaan Perempuan dan Perlindungan Anak, A.Jamaludinjabatanbaru Sekretaris Dinas Kesehatan, Budi Tirmadijabatanbaru sebagai Wakil Direktur Pelayanan pada RSUD dr. Soekardjo dan yang lainnya. Wali KotaTasikmalayaBudi Budiman mengatakan, kegiatan pelantikan jajaranpejabatdi setiap intansi pemerintah adalah bagian dari kehidupan dan kebutuhan organisasi dalam rangka meningkatkan kapasitas kelembagaan dan pola pembinaan karier pegawai. "Walau ditengah pandemiCovid-19, kita tetap melakukan rotasi dan mutasipejabatdalam upaya lebih memperlancar pelaksanaan tugas-tugas pemerintah dan pelayanan publik terutama padajabatan-jabatanyang belum terisi," katanya. Baca Juga:Cegah Disusupi Paham Radikal, Program Penceramah Bersertifikat Kembali Disiapkan Kemenag Pelaksanaan mutasi atau rotasipejabatstuktural di lingkungan Pemerintahan kata Budi, juga merupakan konsekuensi yang harus dilakukan dalam upaya memberikan penyegaran sekaligus untuk memotivasi kinerja organisasi agar lebih baik, baik dalam pengelolaan administrasi maupun pelayanan kepada masyarakat."Pelaksanaan mutasi rotasi ini sekaligus merupakan bentuk evaluasi terhadap kinerja yang selama ini telah dilakukan," ujarnya. Budi berpesan, parapejabatyang baru saja dilantik dan diambil sumpahnya agar dapat menerima keputusan pengangkatan dalamjabatantersebut dimanapun mereka ditempatkan. Baca Juga:Sisa Material akibat Banjir Bandang Belum Tersentuh, Pemda Luwu Utara Didesak Lakukan Normalisasi "Walau-pun menurut saudara kurang tepat, tetapi menurut pandangan Allah itu mungkin yang terbaik menurut saudara," ujar Budi. Sementara Sekretaris Daerah (Sekda) PemkotTasikmalayaIvan Dicksan mengatakan, kegiatan rotasi mutasi di lingkungan PemkotTasikmalayatersebut dalam rangka mengisi kekosongan pegawai di lingkungan PemkotTasikmalaya. "Kita juga ingin menempatkan pegawai yang pas menurut versi pimpinan dengan mempertimbangkan baik keahliannya, latar belakang pendidikannya, termasuk treck recordjabatandan kepemimpinnnya," ujar Ivan. Baca Juga:Usai Hengkang dari Kerajaan, Meghan Markle Kini Diisukan akan Maju Capres AS 2024 Diharapkan lanjut Ivan, dengan penempatanjabatanbaru yang dilakukan di tahun 2020 ini, bisa menjadi penyemangat untuk bagaimana menunjukan kinerja yang baik. "Pegawai jangan hanya jalan di tempat, akan tetapi harus bisa berinovasi, meningkatkan prestasi dan mampu menjadi leader dilingkungan kerjanya sehingga bisa dicontoh oleh pegawai lainnya, terutama meningkatkan pelayanan terhadap kepentingan masyarakat," ujarnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01717896/mulai-hari-ini-puskesmas-urug-kawalu-kota-tasikmalaya-kembali-buka-pelayanan-kesehatan</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Mulai Hari Ini Puskesmas Urug Kawalu Kota Tasikmalaya Kembali Buka Pelayanan Kesehatan</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="n">
-        <v>44078.30277777778</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamemastikan bahwaPuskesmasUrug Kecamatan Kawalu KotaTasikmalayasudah beroperasi kembali mulai Jumat 4 September 2020. Dengan begitu,PuskesmasUrug yang sebelumnya sempat ditutup sementara akibat adanya tenaga medis yang terkonfirmasipositifCovid-19, kembali bisa menerima pelayanan kesehatan. "Untuk puskesmas urug hari ini terakhir tidak memberikan pelayanan. Besok insyaallah sudah dapat memberikan pelayanan lagi," ujar Kepala Dinas Kesehatan KotaTasikmalayadr Uus Supangat, Kamis 3 September 2020. Baca Juga:Kerap Dijadikan Guyonan di Tingkat Jabar, Kabupaten Tasikmalaya Ternyata Tak Punya Traffic Light Dikatakan Uus, sebelum dibuka kembali, guna memastikan bahwaPuskesmasUrug dalam kondisi aman bagi pelaksanaan pelayanan, termasuk bagi keamanan tenaga medis lainya, pihaknya telah melakukan tarcking untuk 50 orang khusunya bagi orang yang sudah kontak erat dengan tenaga medis yang terkonfirmasipositifCovid-19baik di lingkungan puskesmas maupun tempat tinggal pasien. "Setelah ada yang terkonfirmasipositif, kita sudah melakukan tes swab kepada kontak erat baik ke seluruh karyawan puskesmas dan juga ke keluarga pasien. Total ada sekira 50 orang yang dilakukan tracing. Hasilnya tes sudah keluar, dan alhamdulilah seluruhnya dinyatakan negatif," katanya. Melihat kondisi hasil swab tes negatif ujar Uus, pelayananPuskesmasUrug dibuka kembali. Baca Juga:Bisa Memasok Air Bersih ke Ratusan Ribu Jiwa, Pemkab Indramayu Akhirnya Bangun SPAM Cirebon Raya "Karena hasilnya sudah dinyatakan aman atau negatif semua, insyaallahPuskesmasUrug besok Jumat sudah bisa memberikan pelayanan kembali,"kata dia. PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamemastikan bahwaPuskesmasUrug Kecamatan Kawalu KotaTasikmalayasudah beroperasi kembali mulai Jumat 4 September 2020. Dengan begitu,PuskesmasUrug yang sebelumnya sempat ditutup sementara akibat adanya tenaga medis yang terkonfirmasipositifCovid-19, kembali bisa menerima pelayanan kesehatan. "Untuk puskesmas urug hari ini terakhir tidak memberikan pelayanan. Besok insyaallah sudah dapat memberikan pelayanan lagi," ujar Kepala Dinas Kesehatan KotaTasikmalayadr Uus Supangat, Kamis 3 September 2020. Baca Juga:Kerap Dijadikan Guyonan di Tingkat Jabar, Kabupaten Tasikmalaya Ternyata Tak Punya Traffic Light Dikatakan Uus, sebelum dibuka kembali, guna memastikan bahwaPuskesmasUrug dalam kondisi aman bagi pelaksanaan pelayanan, termasuk bagi keamanan tenaga medis lainya, pihaknya telah melakukan tarcking untuk 50 orang khusunya bagi orang yang sudah kontak erat dengan tenaga medis yang terkonfirmasipositifCovid-19baik di lingkungan puskesmas maupun tempat tinggal pasien. "Setelah ada yang terkonfirmasipositif, kita sudah melakukan tes swab kepada kontak erat baik ke seluruh karyawan puskesmas dan juga ke keluarga pasien. Total ada sekira 50 orang yang dilakukan tracing. Hasilnya tes sudah keluar, dan alhamdulilah seluruhnya dinyatakan negatif," katanya. Melihat kondisi hasil swab tes negatif ujar Uus, pelayananPuskesmasUrug dibuka kembali. Baca Juga:Bisa Memasok Air Bersih ke Ratusan Ribu Jiwa, Pemkab Indramayu Akhirnya Bangun SPAM Cirebon Raya "Karena hasilnya sudah dinyatakan aman atau negatif semua, insyaallahPuskesmasUrug besok Jumat sudah bisa memberikan pelayanan kembali,"kata dia.Uus menambahkan, tenaga medis atau pasien yangpositifCovid-19, kemungkinan besar terpapar di luar daerah. Karena pasien tenaga medis tersebut beberapa hari sebelumnya baru berkunjung ke daerah zona merah. Akhirnya pulang kembali ke KotaTasikmalayadan atas inisiatif sendiri mengikuti pemeriksaanCovid-19. "Dan hasilnya memangpositif, makanya kemungkinan besar pasien terpapar di luar daerah," katanya. Baca Juga:Sempat Jadi Barang Mewah, Kini Mobil Mewah Asal Korea Selatan Harganya Setara LCGC Sampai saat ini kata Uus, setelah dilakukan isolasi kondisi pasien membaik dan mulai bisa diisolasi secara mandiri. "Secara umum sudah sangat membaik. Mudah-mudahan pekan depan sudah bisa kembali ke rumahnya untuk isolasi mandiri," ujar Uus Namun untuk memastikannya kata Uus, pihaknya tetap akan melakukan kembali Swab dalam dua hari kedepan. Karena kondisinya saat ini sudah negatif. "Dalam dua hari ke depan yang bersangkutan kita akan tes swab ulang." katanya. Baca Juga:Menit-menit Akhir Jelang Pendaftaran Jadi Salah Satu Kategori Kerawanan di Pilkada Tasikmalaya Berkaca dari kasus tersebut kata Uus, pihaknya menghimbau bagi masyarakat KotaTasikmalayayang memiliki riwayat berpergian ke luar daerah khusunya Zona merah, agar melaksanakan pemeriksaan kesehatan ke Puskemas. "Saya minta masyarakat yang baru pulang dari luar daerah, apalagi dari zona merah, untuk melaporkan diri ke puskesmas untuk diperiksa. Nanti akan diberikan rekomendasi oleh puskesmas," pintanya.Pemeriksaan itu kata dia, guna kepentingan seluruh masyarakat KotaTasikmalaya. "Jangan sampai gara-gara satu orang terpapar malah menjadikan madarat bagi orang lain. Itu untuk kepentingan bersama. Jadi semua harus sadar diri, walaupun sekarang sudah tak ada lagi penyekatan di perbatasan," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01713598/sebanyak-130-keluarga-penerima-manfaat-di-kota-tasikmalaya-terima-bansos-kemensos</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Sebanyak 130 Keluarga Penerima Manfaat di Kota Tasikmalaya Terima Bansos Kemensos</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="n">
-        <v>44076.43055555555</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Kementerian Sosial Republik Indonesia menyerahkan bantuan sosial kepada 130 Keluarga Penerima Manfaat (KPM) yang berasal dari 10 kecamatan diKotaTasikmalaya, Selasa 1 September 2020. Penyerahanbansosberlangsung di Aula DPRDKotaTasikmalayadengan dihadiri Wakil WaliKotaTasikmalayaMuhammad Yusuf. Yusuf sangat mengapresiasi bantuan tersebut. Nilai bantuan untuk masing-masing keluarga mencapai Rp500 ribu, Yusuf berharap dana tersebut bisa digunakan dengan baik. "Bagi yang sudah mandiri dan punya usaha tetap harus bekerja maksimal," ucapnya dalam unggahan Instagram Dinas Komunikasi dan InformatikaKotaTasikmalaya. Baca Juga:Diklaim Rentan Rusak Moral Anak, Begini Asal Usul Kata Anjay yang Dipermasalahkan Lutfi Agizal Seperti diketahui, para penerima bantuan tersebut sudah masuk kategori graduasi atau mandiri karena memiliki usaha dan tak masuk lagi Program Keluarga Harapan. Namun, mereka ikut terdampak pandemi Covid-19. Sebelumnya, ‎ Badan Nasional Penanggulangan Bencana menyerahkan bantuan 2500 alat test PCR kepada PemerintahKotaTasikmalayadi BalaiKotaTasikmalaya, Jalan Letnan Harun, Sabtu 29 Agustus 2020. WaliKotaTasikmalayaBudi Budiman mengatakan, pemberian bantuan tersebut sesuai dengan permintaan yang diajukan Pemkot kepada BNPB. Bantuan tersebut juga mendukung program Pemkot dalam menanggulangi penyebaran Covid-19. Baca Juga:Simulasi Piala Thomas Hari Pertama: Jonatan Christie Bocorkan Cara Bikin Lawan Kalah Sendiri "Melalui Dinas Kesehatan, (Pemkot) akan mengajak masyarakatKotaTasikmalayauntuk melakukan tes Swab massal seperti di pusat keramaian, pusat perkantoran dan pusat pendidikan," kata Budi dalam unggahan di Instagram Dinas Komunikasi dan InformatikaKotaTasikmalaya. PIKIRAN RAKYAT -Kementerian Sosial Republik Indonesia menyerahkan bantuan sosial kepada 130 Keluarga Penerima Manfaat (KPM) yang berasal dari 10 kecamatan diKotaTasikmalaya, Selasa 1 September 2020. Penyerahanbansosberlangsung di Aula DPRDKotaTasikmalayadengan dihadiri Wakil WaliKotaTasikmalayaMuhammad Yusuf. Yusuf sangat mengapresiasi bantuan tersebut. Nilai bantuan untuk masing-masing keluarga mencapai Rp500 ribu, Yusuf berharap dana tersebut bisa digunakan dengan baik. "Bagi yang sudah mandiri dan punya usaha tetap harus bekerja maksimal," ucapnya dalam unggahan Instagram Dinas Komunikasi dan InformatikaKotaTasikmalaya. Baca Juga:Diklaim Rentan Rusak Moral Anak, Begini Asal Usul Kata Anjay yang Dipermasalahkan Lutfi Agizal Seperti diketahui, para penerima bantuan tersebut sudah masuk kategori graduasi atau mandiri karena memiliki usaha dan tak masuk lagi Program Keluarga Harapan. Namun, mereka ikut terdampak pandemi Covid-19. Sebelumnya, ‎ Badan Nasional Penanggulangan Bencana menyerahkan bantuan 2500 alat test PCR kepada PemerintahKotaTasikmalayadi BalaiKotaTasikmalaya, Jalan Letnan Harun, Sabtu 29 Agustus 2020. WaliKotaTasikmalayaBudi Budiman mengatakan, pemberian bantuan tersebut sesuai dengan permintaan yang diajukan Pemkot kepada BNPB. Bantuan tersebut juga mendukung program Pemkot dalam menanggulangi penyebaran Covid-19. Baca Juga:Simulasi Piala Thomas Hari Pertama: Jonatan Christie Bocorkan Cara Bikin Lawan Kalah Sendiri "Melalui Dinas Kesehatan, (Pemkot) akan mengajak masyarakatKotaTasikmalayauntuk melakukan tes Swab massal seperti di pusat keramaian, pusat perkantoran dan pusat pendidikan," kata Budi dalam unggahan di Instagram Dinas Komunikasi dan InformatikaKotaTasikmalaya.Ia juga berharap masyarakat selalui mematuhi protokol kesehatan. ‎Sebelumnya, Korps Bhayangkara KabupatenTasikmalayaterus menyosialisasikan pentingnya mematuhi protokol kesehatan guna menanggulangi penyebaran wabah Covid-19. Salah satu daerah yang menjadi sasaran sosialisasi adalah wilayah Cipatujah yang belakangan ini menjadi klaster baru penyebaran pandemi di Tatar Sukapura.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01713379/bpbd-kota-tasikmalaya-sebut-ada-empat-wilayah-yang-rawan-kekeringan</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>BPBD Kota Tasikmalaya Sebut Ada Empat Wilayah yang Rawan Kekeringan</t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="n">
-        <v>44076.38194444445</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Memasuki musim kemarau, Badan Penanggulangan Bencana Daerah (BPBD), KotaTasikmalaya, mewaspadai potensi kekeringan di empat kecamatan di wilayahnya. Kepala Pelaksana BPBD KotaTasikmalayaUcu Anwar menjelaskan, empat kecamatan tersebut adalah Kecamatan Kawalu, Kecamatan Cibeureum, Kecamatan Purbaratu, dan Kecamatan Tamansari. "Meski belum menyeluruh, dari empat wilayah tersebut,wargadi dua kecamatan yakni, Kecamatan Kawalu dan Kecamatan Cibereum, sudah melaporkan kekurangan air bersih," ujar Ucu, Selasa 1 September 2020. Baca Juga:Satpol PP Sumedang Tegaskan Tidak Pandang Bulu dalam Penertiban Warung Liar di Cisoka Untuk memenuhi kebutuhan air bersihwargadi dua wilayah tersebut lanjut Ucu, pihaknya sudah mulai mengirimkan bantuan air bagiwarga. "Kami kirimkan bantuan air bersih kepadawargatersebut sesuai permintaan," ucapnya. Sementara itu terkait dengan upaya yang dilakukan oleh BPBD KotaTasikmalayadalam menghadapi musim kemarau saat ini Ucu menuturkan, pihaknya telah menyiagakan sejumlah tempat penampungan air untuk menampung cadangan air. Baca Juga:Anji Temukan Hal Unik di Balik Arti Kata Anjay, Singgung Nama Orang di Indonesia "BPBD tinggal menyalurkan cadangan air jika masyarakat membutuhkan," katanya. PIKIRAN RAKYAT -Memasuki musim kemarau, Badan Penanggulangan Bencana Daerah (BPBD), KotaTasikmalaya, mewaspadai potensi kekeringan di empat kecamatan di wilayahnya. Kepala Pelaksana BPBD KotaTasikmalayaUcu Anwar menjelaskan, empat kecamatan tersebut adalah Kecamatan Kawalu, Kecamatan Cibeureum, Kecamatan Purbaratu, dan Kecamatan Tamansari. "Meski belum menyeluruh, dari empat wilayah tersebut,wargadi dua kecamatan yakni, Kecamatan Kawalu dan Kecamatan Cibereum, sudah melaporkan kekurangan air bersih," ujar Ucu, Selasa 1 September 2020. Baca Juga:Satpol PP Sumedang Tegaskan Tidak Pandang Bulu dalam Penertiban Warung Liar di Cisoka Untuk memenuhi kebutuhan air bersihwargadi dua wilayah tersebut lanjut Ucu, pihaknya sudah mulai mengirimkan bantuan air bagiwarga. "Kami kirimkan bantuan air bersih kepadawargatersebut sesuai permintaan," ucapnya. Sementara itu terkait dengan upaya yang dilakukan oleh BPBD KotaTasikmalayadalam menghadapi musim kemarau saat ini Ucu menuturkan, pihaknya telah menyiagakan sejumlah tempat penampungan air untuk menampung cadangan air. Baca Juga:Anji Temukan Hal Unik di Balik Arti Kata Anjay, Singgung Nama Orang di Indonesia "BPBD tinggal menyalurkan cadangan air jika masyarakat membutuhkan," katanya.Sementara itu, Kepala BPBD KotaTasikmalayaIvan Dicksan membenarkan, bahwa saat ini KotaTasikmalaya sudah masuk musim kemarau. Sehingga kata Ivan pihaknya akan melakukan langkah langkah antisivasi termasuk antisivasi kekeringan. "Saat ini memang sudah ada perubahan iklim dari hujan ke musim panas. Sehingga kita mulai melakukan langkah-langkah antisivasi diantaranya menyangkut potensi kekeringan yang akan terjadi," ujar Ivan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01713370/nakes-positif-covid-19-dinkes-kota-tasikmalaya-tutup-puskesmas-urug-selama-tiga-hari</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Nakes Positif Covid-19, Dinkes Kota Tasikmalaya Tutup Puskesmas Urug Selama Tiga Hari</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="n">
-        <v>44076.375</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamemutuskan untuk menghentikan operasionalPuskesmasUrug di Kecamatan Kawalu, sejak Selasa 1 September 2020. Sebabnya, satu tenaga medis (nakes) di puskesmas tersebut dilaporkan terkonfirmasipositifCovid-19. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan,PuskesmasUrug akan ditutup selama tiga hari. Untuk sementara, masyarakat yang hendak berobat diminta beralih ke puskesmas atau klinik terdekat lainnya. "Kita off selama tiga hari karena ada satunakesterkonfirmasi, tehitung hari ini," kata dia, Selasa 1 September 2020. Baca Juga:Satpol PP Sumedang Tegaskan Tidak Pandang Bulu dalam Penertiban Warung Liar di Cisoka Selama operasionalPuskesmasUrug dihentikan sementara, Dinas Kesehatan akan melakukan sterilisasi di tempat itu. Jika dinyatakan aman, operasional pukesmas akan kembali berjalan normal. Sementara itu, tenaga kesehatan (nakes) dariPuskesmasUrug yang terkonfirmasipositiftelah mendapatkan perawatan medis. "Saat ini, pasien dirawat diRSUDdr Soekardjo KotaTasikmalaya," kstanya. Baca Juga:Anji Temukan Hal Unik di Balik Arti Kata Anjay, Singgung Nama Orang di Indonesia Uus menyebutkan, hingga saat ini total kasus terkonfirmasi di KotaTasikmalayaberjumlah 49 orang. Sebanyak 39 orang telah dinyatakan sembuh, tujuh orang masih menjalani isolasi, dan tiga orang meninggal dunia. PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamemutuskan untuk menghentikan operasionalPuskesmasUrug di Kecamatan Kawalu, sejak Selasa 1 September 2020. Sebabnya, satu tenaga medis (nakes) di puskesmas tersebut dilaporkan terkonfirmasipositifCovid-19. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan,PuskesmasUrug akan ditutup selama tiga hari. Untuk sementara, masyarakat yang hendak berobat diminta beralih ke puskesmas atau klinik terdekat lainnya. "Kita off selama tiga hari karena ada satunakesterkonfirmasi, tehitung hari ini," kata dia, Selasa 1 September 2020. Baca Juga:Satpol PP Sumedang Tegaskan Tidak Pandang Bulu dalam Penertiban Warung Liar di Cisoka Selama operasionalPuskesmasUrug dihentikan sementara, Dinas Kesehatan akan melakukan sterilisasi di tempat itu. Jika dinyatakan aman, operasional pukesmas akan kembali berjalan normal. Sementara itu, tenaga kesehatan (nakes) dariPuskesmasUrug yang terkonfirmasipositiftelah mendapatkan perawatan medis. "Saat ini, pasien dirawat diRSUDdr Soekardjo KotaTasikmalaya," kstanya. Baca Juga:Anji Temukan Hal Unik di Balik Arti Kata Anjay, Singgung Nama Orang di Indonesia Uus menyebutkan, hingga saat ini total kasus terkonfirmasi di KotaTasikmalayaberjumlah 49 orang. Sebanyak 39 orang telah dinyatakan sembuh, tujuh orang masih menjalani isolasi, dan tiga orang meninggal dunia.Sebelumnya, Wali KotaTasikmalayaBudi Budiman mengatakan, adanya penambahan kasus itu membuktikan KotaTasikmalayabelum bebas pandemiCovid-19. Karena itu, ia mengingatkan, masyarakat harus terus menerapkan protokol kesehatan. "Sampai belum ada vaksin, kita harus waspada. Jangan lengah. Apalagi secara nasional penambahan kasus terus tinggi," kata dia. Baca Juga:Ramalan Zodiak 2 September 2020, Hari Ini Cancer akan Dapat Rezeki hingga Sagitarius Jadi Romantis Ia menambahkan, Gugus Tugas Percepatan PenangananCovid-19juga terus bekerja, mulai melakukan patroli pengawasan penerapan protokol kesehatan di kalangan masyarakat, melakukan penelusuran kasus, dan lain-lain. Karena itu, ia meminta masyarakat untuk sadar menerapkan protokol kesehatan, khususnya mengenakan masker.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01709608/identitas-mayat-wanita-muda-terapung-di-kota-tasikmalaya-berhasil-diungkap-polisi-ini-hasilnya</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Identitas Mayat Wanita Muda Terapung di Kota Tasikmalaya Berhasil Diungkap Polisi, Ini Hasilnya</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="n">
-        <v>44074.51944444444</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Satuan Reskrim PolrestaTasikmalayaakhirnya berhasil menemukan identitas mayat yang ditemukan mengambang dikolamikan di Kampung Cihandiwung, Kelurahan Sukamaju Kaler, Kecamatan Indihiang, KotaTasikmalaya. Korban berinisial KA alias Dede Risna asal Cilembang, Kecamatan Cihideung, KotaTasikmalaya. Namun polisi belum bisa memastikan usiakorban, karena sejauh ini belum masuk dalam database kependudukan. Polisi juga belum bisa menjelaskan terkait kematiankorban, karena masih mununggu laboratorium hasil autopsi. "Alhamdulillah, berkat dukungan masyarakat juga media, akhirnya setelah bekerja keras lebih dari satu bulan kami berhasil menemukan identitaskorban," kata Kepala Satreskrim PolrestaTasikmalaya, AKP. Yusuf Ruhiman kepada wartawan, Senin 31 Agustus 2020. Baca Juga:Anggaran Ada Tapi Belum Dicairkan, Insentif Petugas Pemulasaraan Jenazah Covid-19 Terganjal Regulasi Menurutnya, pihaknya telah bertemu dengan keluargakorbandan meyakinikorbanadalah anggota keluarganya. Korban berinisial KA alias Dede Risna asal Cilembang, Kecamatan Cihideung, KotaTasikmalaya. Saat ini pihaknya masih terus bekerja keras, guna mengetahui penyebab kematiankorbandan menunggu hasil autopsi. Selain itu pihaknya masih melakukan pendalaman terkait identitaskorban, karena sejauh ini belum ada dokumen resmi terkait identitaskorban. "Usianya belum bisa dipastikan, karena memang belum menemukan dokumen resmi berkaitan identitaskorban. Perkiraan hasil forensik,korbandiperkirakan berusia 17 hingga 25 tahun," tuturnya. Baca Juga:Ngebet Pengen Viral, Rider India ini Bakar Motor Bajaj Pulsar agar Nampak Seperti Ghost Rider Dikatakan Yusuf,korbanasli KotaTasikmalaya, namun sempat diantarkan oleh ibu angkatnya ke Cirebon. Selanjutnya, oleh ibu kandungnya diantarkan lagi ke KotaTasikmalaya. PIKIRAN RAKYAT -Satuan Reskrim PolrestaTasikmalayaakhirnya berhasil menemukan identitas mayat yang ditemukan mengambang dikolamikan di Kampung Cihandiwung, Kelurahan Sukamaju Kaler, Kecamatan Indihiang, KotaTasikmalaya. Korban berinisial KA alias Dede Risna asal Cilembang, Kecamatan Cihideung, KotaTasikmalaya. Namun polisi belum bisa memastikan usiakorban, karena sejauh ini belum masuk dalam database kependudukan. Polisi juga belum bisa menjelaskan terkait kematiankorban, karena masih mununggu laboratorium hasil autopsi. "Alhamdulillah, berkat dukungan masyarakat juga media, akhirnya setelah bekerja keras lebih dari satu bulan kami berhasil menemukan identitaskorban," kata Kepala Satreskrim PolrestaTasikmalaya, AKP. Yusuf Ruhiman kepada wartawan, Senin 31 Agustus 2020. Baca Juga:Anggaran Ada Tapi Belum Dicairkan, Insentif Petugas Pemulasaraan Jenazah Covid-19 Terganjal Regulasi Menurutnya, pihaknya telah bertemu dengan keluargakorbandan meyakinikorbanadalah anggota keluarganya. Korban berinisial KA alias Dede Risna asal Cilembang, Kecamatan Cihideung, KotaTasikmalaya. Saat ini pihaknya masih terus bekerja keras, guna mengetahui penyebab kematiankorbandan menunggu hasil autopsi. Selain itu pihaknya masih melakukan pendalaman terkait identitaskorban, karena sejauh ini belum ada dokumen resmi terkait identitaskorban. "Usianya belum bisa dipastikan, karena memang belum menemukan dokumen resmi berkaitan identitaskorban. Perkiraan hasil forensik,korbandiperkirakan berusia 17 hingga 25 tahun," tuturnya. Baca Juga:Ngebet Pengen Viral, Rider India ini Bakar Motor Bajaj Pulsar agar Nampak Seperti Ghost Rider Dikatakan Yusuf,korbanasli KotaTasikmalaya, namun sempat diantarkan oleh ibu angkatnya ke Cirebon. Selanjutnya, oleh ibu kandungnya diantarkan lagi ke KotaTasikmalaya.Terkait dengan dugaan kematiankorban, pihaknya sudah mengarah kepada dugaan pembunuhan dan mencurigai pelakunya. Namun untuk pastinya, pihaknya masih mendalami dan menunggu hasil autopsi. "Sehingga mohon bersabar, karena anggota saat ini terus bekerja keras. Tunggu satu hingga dua hari lagi informasinya," ungkapnya. Baca Juga:Akui Ingin Kembali ke Inggris, Pangeran Harry: Saya Pasti Sudah Kembali Jika Bukan Karena Covid Seperti diketahui, jenazahkorbanditemukan dengan kondisi sudah tewas dikolamikan di Kelurahan Sukamaju Kaler, Kecamatan Indihiang, KotaTasikmalaya, Minggu 26 Juli 2020 lalu. Jasad tersebut mengambang dalam posisi telungkup dikolamikan yang terletak di pinggir jalur rel kereta api. Ketika ditemukan mengenakan kaos berwarna hijau dan celana jins. Korban juga membawa beberapa pakaian lain di dalam tas kresek. Saat ditemukan, mayat itu telah mengeluarkan bau tak sedap. Setelah lebih dari seminggu dan usai dilakukan autopsi,jasadwanitamuda itu akhirnya dimakamkan tim Pemulasaran RSUD dr Soekardjo di Tempat Pemakaman Umum Asha Rasyida, Kecamatan Kawalu.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01709569/masih-menunggu-keputusan-pusat-pemkot-tasikmalaya-belum-jadwalkan-buka-bioskop</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Masih Menunggu Keputusan Pusat, Pemkot Tasikmalaya Belum Jadwalkan Buka Bioskop</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="n">
-        <v>44074.50347222222</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Walau di beberapa daerah operasionalbioskopsudah ada yang dibuka,PemerintahKota (Pemkot)Tasikmalayamasih belum menjadwalkan membuka operasionalbioskopdi wilayahya. Regulasi soal pembukaanbioskopdi KotaTasikmalayamasih menunggu aturan dari pemerintah pusat. Sekretaris Daerah (Sekda) KotaTasikmalaya, Ivan Dikcsan mengatakan, pihaknya masih menunggu aturan dari pemerintah pusat terkait pembukaanbioskop. Jika pemerintah pusat mengizinkan, pihaknya akan segera mengizinkanbioskopberoperasi. "Di pusat itu masih diperimbangkan. Kalau pusat sudah oke, kita bisa," kata dia, Senin 31 Agustus 2020. Baca Juga:Jamal 'Preman Pensiun' Ajukan Rehabilitasi, Polisi Sebut Ada Sejumlah Syarat Menurut dia, regulasi dari pemerintah pusat itu juga akan mengatur protokol kesehatan di dalambioskop. Sebab, meskipunbioskopsudah diizinkan beroperasi, protokol kesehatan juga harus tetap dijalankan. Saat ini, Ivan mengatakan, PemkotTasikmalayasedang mengevaluasi aturan untuk membuka operasi tempat permainan anak yang ada di pasar modern. Sesuai arahan Gubernur Jawa Barat (Jabar), seluruh kepala daerah harus membuat kegiatan yang dapat membahagiakan masyarakat agar imunitas meningkat. "Kita akan pilih tempat permainan anak yang siap menerapkan protokol kesehatan, lalu akan dibuka bertahap. Tidak sekaligus dibuka semua," kata dia. Ivan juga mengatakan, sejumlah pelaku usaha permainan anak sudah mengajukan surat untuk dapat kembali beroperasi. Namun, pihaknya masih harus melakukan verifikasi terlebih dahulu untuk mengecek penerapan protokol kesehatan.*** PIKIRAN RAKYAT -Walau di beberapa daerah operasionalbioskopsudah ada yang dibuka,PemerintahKota (Pemkot)Tasikmalayamasih belum menjadwalkan membuka operasionalbioskopdi wilayahya. Regulasi soal pembukaanbioskopdi KotaTasikmalayamasih menunggu aturan dari pemerintah pusat. Sekretaris Daerah (Sekda) KotaTasikmalaya, Ivan Dikcsan mengatakan, pihaknya masih menunggu aturan dari pemerintah pusat terkait pembukaanbioskop. Jika pemerintah pusat mengizinkan, pihaknya akan segera mengizinkanbioskopberoperasi. "Di pusat itu masih diperimbangkan. Kalau pusat sudah oke, kita bisa," kata dia, Senin 31 Agustus 2020. Baca Juga:Jamal 'Preman Pensiun' Ajukan Rehabilitasi, Polisi Sebut Ada Sejumlah Syarat Menurut dia, regulasi dari pemerintah pusat itu juga akan mengatur protokol kesehatan di dalambioskop. Sebab, meskipunbioskopsudah diizinkan beroperasi, protokol kesehatan juga harus tetap dijalankan. Saat ini, Ivan mengatakan, PemkotTasikmalayasedang mengevaluasi aturan untuk membuka operasi tempat permainan anak yang ada di pasar modern. Sesuai arahan Gubernur Jawa Barat (Jabar), seluruh kepala daerah harus membuat kegiatan yang dapat membahagiakan masyarakat agar imunitas meningkat. "Kita akan pilih tempat permainan anak yang siap menerapkan protokol kesehatan, lalu akan dibuka bertahap. Tidak sekaligus dibuka semua," kata dia. Ivan juga mengatakan, sejumlah pelaku usaha permainan anak sudah mengajukan surat untuk dapat kembali beroperasi. Namun, pihaknya masih harus melakukan verifikasi terlebih dahulu untuk mengecek penerapan protokol kesehatan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01709012/ironis-ekonomi-masyarakat-serba-sulit-toko-modern-malah-menjamur-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Ironis, Ekonomi Masyarakat Serba Sulit, Toko Modern Malah Menjamur di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="n">
-        <v>44074.30486111111</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Ironis, di tengah kondisi perekonomian masyarakat yang serba sulit dengan adanya pandemiCovid-19,tokomodernwaralaba justru kembali menjamur diKotaTasikmalaya. Berdasarkan pantauan di lapangan, hanya dalam kurun waktu satu bulan lebih duatokomodernwaralaba baru yang buka diKotaTasikmalaya. Padahal diKotaTasikmakaya sendiri jumlahtokomodernwaralaba sudah sangat menjamur bahkan sudah tidak sesuai dengan aturan keberadaantokomoderen yang ditetapkan pemerintah. Baca Juga:Kabupaten Garut Terus Alami Penambahan Kasus Covid-19 Setiap Harinya Bahkan pemerintah sempat menyegel dan menutup sejumlahtokomodernyang beroperasi dengan sistem waralaba atau franchise dengan alasan kuotatokomoderndiKotaTasikmalayasudah penuh sehingga pemerintahKotaTasikmalayatidak lagi mengeluarkan izin untuk operasionaltokomodernjenis itu. Merespon terkait itu, salah satu pemerhati politik, sosial dan ekonomiKotaTasikmalayaAsep Tamam mengatakan, pemerintah perlu mencermati kondisi di lapangan terkait kembali bermunculannyatokomodernsistem franchise. Apalagi ujar Asep jika memang pemerintah tidak lagi mengeluarkan izin dengan alasan kuota izin untuk pasar moderen tersebut sudah habis maka dipastikan pasar moderen baru itu tidak memiliki izin. Baca Juga:Dituding Sebagai Pelatih 'Influencer' Pendukung Pemerintah, Yosi 'Project Pop': Itu Kesalahpahaman "Nah jika tidak memiliki izin, ya harus diterbitkan karena perizinan nomor satu," ujar Asep. PIKIRAN RAKYAT -Ironis, di tengah kondisi perekonomian masyarakat yang serba sulit dengan adanya pandemiCovid-19,tokomodernwaralaba justru kembali menjamur diKotaTasikmalaya. Berdasarkan pantauan di lapangan, hanya dalam kurun waktu satu bulan lebih duatokomodernwaralaba baru yang buka diKotaTasikmalaya. Padahal diKotaTasikmakaya sendiri jumlahtokomodernwaralaba sudah sangat menjamur bahkan sudah tidak sesuai dengan aturan keberadaantokomoderen yang ditetapkan pemerintah. Baca Juga:Kabupaten Garut Terus Alami Penambahan Kasus Covid-19 Setiap Harinya Bahkan pemerintah sempat menyegel dan menutup sejumlahtokomodernyang beroperasi dengan sistem waralaba atau franchise dengan alasan kuotatokomoderndiKotaTasikmalayasudah penuh sehingga pemerintahKotaTasikmalayatidak lagi mengeluarkan izin untuk operasionaltokomodernjenis itu. Merespon terkait itu, salah satu pemerhati politik, sosial dan ekonomiKotaTasikmalayaAsep Tamam mengatakan, pemerintah perlu mencermati kondisi di lapangan terkait kembali bermunculannyatokomodernsistem franchise. Apalagi ujar Asep jika memang pemerintah tidak lagi mengeluarkan izin dengan alasan kuota izin untuk pasar moderen tersebut sudah habis maka dipastikan pasar moderen baru itu tidak memiliki izin. Baca Juga:Dituding Sebagai Pelatih 'Influencer' Pendukung Pemerintah, Yosi 'Project Pop': Itu Kesalahpahaman "Nah jika tidak memiliki izin, ya harus diterbitkan karena perizinan nomor satu," ujar Asep.Selain itu ujar Asep, jenis usaha pasarmoderndengan sistem waralaba atau franchise tidak akan berdampak pada perekonomian masyarakat daerah. Yang ada kata dia, mereka hanya mengambil keuntungan dari daerah yang nantinya uangnya disetorkan ke pusat. "Kalau waralaba, biasanya segala sesuatunya ke pusat, jadi tidak ada perputaran uang di daerah, tidak seperti perusahaan lokal yang memberi kontribusi perputaran di daerah sehingga sedikitnya akan berdampak pada pertumbuhan ekonomi masyarakat di daerah," katanya. Baca Juga:Prediksi Indonesia akan Alami Resesi Bulan Depan, Mahfud MD: Tidak Berbahaya, Aman Permasalahan lainnya ujar Asep, diakui atau tidak, keberadaantokomodernseperti itu sejauh ini sangat berpengaruh terhadap usaha usaha warungan kecil kecilan di masyarakat termasuk pedagang pasar tradisional. "Sehingga kalau dibiarkan terus menjamur maka bukan tidak mungkin usaha warungan masyarakat kecil banyak yang gulung tikar," ujarnya. Disinggung terkait apakah keberadaan pasarmoderntersebut bisa membantu pemerintah dalam hal pengentasan pengangguran atau penyerapan tenaga kerja, Asep membenarkan hal itu. Namun kata dia, penyerapan tenaga kerja tersebut tidak signifikan sehingga dianggap tidak sebanding dengan dampak yang ditimbulkan. Baca Juga:Kembali Lanjutkan Tren Positifnya, Lewis Hamilton Menangkan Balapan F1 Belgian Grand Prix 2020 "Ya ada sih tenaga kerja yang terserap, tapi kan tidak banyak paling dari satutokomodernhanya tiga atau empat," katanya. Yang jelas lanjut Asep, yang paling penting sekarang adalah lihat regulasi keberadaan pasarmodernseperti itu. "Kalau memang dalam regulasinya pemerintah sudah tidak lagi mengeluarkan izin, dipastikan keberadaantokomodernseperti itu khususnya yang baru baru mereka tidak berizin dan itu harus ada tindakan dari pemerintah, jangan dibiarkan," ujar Asep.Baca Juga:31 Kecamatan Zona Merah di Kabupaten Bogor, GTPPC: 19 Tambahan Kasus Terkonfirmasi Positif Covid-19 Diwawancara terpisah sekretaris daerah (Sekda) PemkotTasikmalayaIvan Dicksan mengatakan, memang ada perwalkot baru terkait regulasi keberadaan pasarmoderndiKotaTasikmalayayang disesuikan dengan jumlah penduduk diKotaTasikmalaya. "Datanya dan penyebarannya saat ini seperti apa, adanya di Dinas PerindagKotaTasikmalaya. Sebenarnya kemarin kita sudah minta ke indag sejauh mana perkembangannya namun belum diterima," katanya. Yang jelas kata Ivan, jika memang keberadaantokomodernsistem franchise tersebut menyalahi aturan apalagi tidak berizin harus segera ditertibkan. "Ya harus ada izin, kalau tidak ada izin kita tertibkan," kata Ivan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01707584/pekan-ini-mesin-pcr-covid-19-sudah-tiba-di-kota-tasikmalaya-budi-bantu-percepat-pencapaian-target</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Pekan ini, Mesin PCR Covid-19 Sudah Tiba di Kota Tasikmalaya, Budi: Bantu Percepat Pencapaian Target</t>
-        </is>
-      </c>
-      <c r="C226" s="2" t="n">
-        <v>44073.45208333333</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Setelah menunggu sekian lama Pemerintah Kota (Pemkot)Tasikmalayaakhirnya memiliki Polymerase Chain Reaction (PCR) guna penanganan pasienCovid-19di KotaTasikmalaya, Jawa Barat. Hal itu setelah Pemerintah KotaTasikmalayamendapatkan bantuan set untuk pendukung Polymerase Chain Reaction (PCR) tes dari Badan Nasional Penaggulangan Bencana (BNPB) pusat, kemarin 29 Agustus 2020. Bantuan tersebut berupa alat test untukPCRyakni viral transport medium (VTM) 2500 dan Ragen 2500 yang rencananya alatPCRtersebut baru akan diterima Minggu depan. Baca Juga:LINK Live Streaming F1 Belgia 2020: Lewis Hamilton Catat 150 Kali Start Terdepan di Formula 1 Wali KotaTasikmalaya, Budi Budiman mengatakan, bantuan ini sangat dibutuhkan untuk mendukung program pemerintah daerah dalam melaksanakan penangananCovid-19khususnyaswabmassal. Pasalnya ujar Budi, sesuaitargetKotaTasikmalayaharus melaksanakanswabtest massal sebanyak 1 persen dari total keseluruhan jumlah penduduk yang ada di Kota Tasik. "Ini bisa representatif mewakili seluruh masyarakat kota Tasik. Karena sesuaitargetWHO dan Juga Permenkes," ujar Budi kepada wartawan, Minggu 30 Agustus 2020. Baca Juga:Anggota DPRD DKI Jakarta Umi Kulsum Meninggal Dunia, Anies Baswedan Ungkap Pesan Duka Dikatakan Budi, warga KotaTasikmalayasaat ini kurang lebih sebanyak 750 ribu penduduk. Bila harus 1 persen ujar dia, maka jumlah warga KotaTasikmalayayang di tesswabyakni sebanyak 7000 penduduk. PIKIRAN RAKYAT- Setelah menunggu sekian lama Pemerintah Kota (Pemkot)Tasikmalayaakhirnya memiliki Polymerase Chain Reaction (PCR) guna penanganan pasienCovid-19di KotaTasikmalaya, Jawa Barat. Hal itu setelah Pemerintah KotaTasikmalayamendapatkan bantuan set untuk pendukung Polymerase Chain Reaction (PCR) tes dari Badan Nasional Penaggulangan Bencana (BNPB) pusat, kemarin 29 Agustus 2020. Bantuan tersebut berupa alat test untukPCRyakni viral transport medium (VTM) 2500 dan Ragen 2500 yang rencananya alatPCRtersebut baru akan diterima Minggu depan. Baca Juga:LINK Live Streaming F1 Belgia 2020: Lewis Hamilton Catat 150 Kali Start Terdepan di Formula 1 Wali KotaTasikmalaya, Budi Budiman mengatakan, bantuan ini sangat dibutuhkan untuk mendukung program pemerintah daerah dalam melaksanakan penangananCovid-19khususnyaswabmassal. Pasalnya ujar Budi, sesuaitargetKotaTasikmalayaharus melaksanakanswabtest massal sebanyak 1 persen dari total keseluruhan jumlah penduduk yang ada di Kota Tasik. "Ini bisa representatif mewakili seluruh masyarakat kota Tasik. Karena sesuaitargetWHO dan Juga Permenkes," ujar Budi kepada wartawan, Minggu 30 Agustus 2020. Baca Juga:Anggota DPRD DKI Jakarta Umi Kulsum Meninggal Dunia, Anies Baswedan Ungkap Pesan Duka Dikatakan Budi, warga KotaTasikmalayasaat ini kurang lebih sebanyak 750 ribu penduduk. Bila harus 1 persen ujar dia, maka jumlah warga KotaTasikmalayayang di tesswabyakni sebanyak 7000 penduduk."Sampai hari ini di kita kurang lebih baru 2000 orang yang sudah diswab, sisanya sekitar 5000 penduduk lagi. Alhamdulilah ini sudah ada alat yang cukup membantu," terangnya. Dengan adanya bantuan alat tersebut lanjut Budi, Dinas kesehatan KotaTasikmalayadalam waktu dekat akan langsung melakukanswabtest massal. Sasaran pertama dengan mengundang warga sebanyak 500 orang yang akan mengikutiswabitu. Baca Juga:Armada Penangkap Ikan Peringatkan AS Setelah Rusia Lakukan Latihan Militer di Lepas Pantai Alaska "Untuk waktu dan tempat pelaksanaan akan ditentukan oleh Dinkes. Sisanya akan kami laksanakan di tempat-tempat keramaian seperti perkantoran, sekolah, pesantren dan lainnya," terangnya. Sementara itu Kepala Dinas Kesehatan (Kadinkes) Kota Tasik, Uus Supangkat menuturkan, bantuan ini merupakan alat set pendukung pelaksanaanswabtest diantaranya viral transport medium (VTM) 2500 dan Ragen 2500. Baca Juga:Picu Kerusuhan Gara-gara Bakar dan Tendang Alquran, Tiga Orang Ditahan Polisi "Alat lengkapnya minggu depan kita terima, sehingga program pemeriksaantarget7000 sample itu bisa diselesaikan secepatnya," tuturnya. Uus juga menjelaskan, pihaknya kini tinggal menunggu mesin utamaPCR-nya saja. "Mudah-mudahan secepatnya kami terima, sehingga testswabini bisa kita laksanakan secara mandiri, sehingga hasilnya lebih cepat keluar," jelasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01704303/sanksi-diterapkan-kesadaran-masyarakat-kota-tasikmalaya-meningkat-hingga-80-persen</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Sanksi Diterapkan, Kesadaran Masyarakat Kota Tasikmalaya Meningkat hingga 80 Persen</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="n">
-        <v>44071.61805555555</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Gugus Tugas Percepatan Penanganan Covid-19 Provinsi Jawa Barat (Jabar) melakukan pemantauan langsung penerapan adaptasi kebiasaan baru (AKB) diKotaTasikmalaya, Jumat 28 Agustus 2020. Berdasarkan hasil pemantauan itu, Gugus Tugas Percepatan Penanganan Covid-19 Provinsi Jawa Barat menilai kesadaran masyarakat diTasikmalayadalam penerapanprotokolkesehatan, khususnya menggunakan masker sudah cukup baik. Sekretaris Gugus Tugas Covid-19 Provinsi Jabar, Daud Achmad mengatakan, kesadaran masyarakatKotaTasikmalayadalam mengenakan masker sudah di atas 80 persen. Baca Juga:Gerindra Hampir Pasti Berikan Dukungan untuk Pasangan Juara di Pilkada Pangandaran Menurut dia, peningkatan kesadaran itu salahsatunya merupakan efek dari penerapan sanksi kepada para pelanggarprotokolkesehatan yang dilakukan gugus tugas penanganan Covid-19KotaTasikmalaya. "Kita apresiasi PemkotTasikmalayadan Gugus Tugasnya yang terus melakukan sosialisasi dan terus melakukan pengawasan penerapanprotokolkesehatan," katanya. PemkotTasikmalayasendiri sejauh ini telah menerapkan sanksi denda kepada para pelanggarprotokolkesehatan yang berlaku efektif sejak 10 Agustus 2020. Penerapan sanksi itu merupakan turunan dari Peraturan Gubernur (Pergub) Nomor 60 Tahun 2020 tentang Sanksi Administratif terhadap Pelanggaran TertibKesehatandalam PSBB dan AKB. Baca Juga:KPK Panggil 3 Saksi dari Unsur Karyawan Swasta dan Mahasiswa Terkait Kasus Suap Perkara MA Daud mengatakan, penerapan sanksi denda itu merupakan upaya untuk meningkatkan kesadaran masyarakat dalam menggunakan masker. Sebab ujar dia, tidak menutup mata, masih ada masyarakat yang abai menerapkanprotokolkesehatan. Namun, sejak penerapan sanksi diberlakukan, kesadaran masyarakat Jabar dalam menggunakan masker cenderung meningkat. PIKIRAN RAKYAT -Gugus Tugas Percepatan Penanganan Covid-19 Provinsi Jawa Barat (Jabar) melakukan pemantauan langsung penerapan adaptasi kebiasaan baru (AKB) diKotaTasikmalaya, Jumat 28 Agustus 2020. Berdasarkan hasil pemantauan itu, Gugus Tugas Percepatan Penanganan Covid-19 Provinsi Jawa Barat menilai kesadaran masyarakat diTasikmalayadalam penerapanprotokolkesehatan, khususnya menggunakan masker sudah cukup baik. Sekretaris Gugus Tugas Covid-19 Provinsi Jabar, Daud Achmad mengatakan, kesadaran masyarakatKotaTasikmalayadalam mengenakan masker sudah di atas 80 persen. Baca Juga:Gerindra Hampir Pasti Berikan Dukungan untuk Pasangan Juara di Pilkada Pangandaran Menurut dia, peningkatan kesadaran itu salahsatunya merupakan efek dari penerapan sanksi kepada para pelanggarprotokolkesehatan yang dilakukan gugus tugas penanganan Covid-19KotaTasikmalaya. "Kita apresiasi PemkotTasikmalayadan Gugus Tugasnya yang terus melakukan sosialisasi dan terus melakukan pengawasan penerapanprotokolkesehatan," katanya. PemkotTasikmalayasendiri sejauh ini telah menerapkan sanksi denda kepada para pelanggarprotokolkesehatan yang berlaku efektif sejak 10 Agustus 2020. Penerapan sanksi itu merupakan turunan dari Peraturan Gubernur (Pergub) Nomor 60 Tahun 2020 tentang Sanksi Administratif terhadap Pelanggaran TertibKesehatandalam PSBB dan AKB. Baca Juga:KPK Panggil 3 Saksi dari Unsur Karyawan Swasta dan Mahasiswa Terkait Kasus Suap Perkara MA Daud mengatakan, penerapan sanksi denda itu merupakan upaya untuk meningkatkan kesadaran masyarakat dalam menggunakan masker. Sebab ujar dia, tidak menutup mata, masih ada masyarakat yang abai menerapkanprotokolkesehatan. Namun, sejak penerapan sanksi diberlakukan, kesadaran masyarakat Jabar dalam menggunakan masker cenderung meningkat.Berdasarkan laporan yang diterima Gugus Tugas Covid-19 Jabar, sebelum ada sanksi bagi pelanggarprotokolkesehatan, tingkat kedisiplinan masyarakat dalam mengenakan masker hanya 70 persen. Angka itu meningkat setelah ada sanksi diberlakukan, menjadi 80 persen. "Secara umum masyarakat (Jabar) sudah 70 persen disiplinprotokolkesehatan," kata dia. Baca Juga:Warga Rusunami Jardin Tagih Sertifikat Hak Milik pada Pengembang, Padahal Sudah 5 Tahun Dilunasi Kendati demikian, Daud mengatakan, pihaknya akan terus melakukan sosialisasi kepada masyarakat terkait penggunaan masker. Sebab, masih banyak masyarakat yang belum sadar dengan penggunaan masker. Padahal masker itu sangat ampuh untuk bisa memutus rantai penularan Covid-19. "Harapan kita, masyarakat yang masih melanggarprotokolkesehatan bisa disiplin dan mentaatiprotokolkesehatan," kata dia. Ia mengingatkan, terdapat tiga hal yang bisa dilakukan diri sendiri dalam memutus rantai penularan Covid-19. Tiga hal itu adalah memakai masker, mencuci tangan dengan sabun, dan menjaga jarak. "Khusus menggunakan masker, itu sangat mudah dilakukan. Itu sebagai bentuk kepedulian kita terhadap kesehatan diri sendiri dan orang lain," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01702538/kasus-konsinyasi-jalan-lingkar-utara-wali-kota-tasikmalaya-kena-somasi</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Kasus Konsinyasi Jalan Lingkar Utara, Wali Kota Tasikmalaya Kena Somasi</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="n">
-        <v>44070.69930555556</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman mendapat somasi atau peringatan terkait belum dilakukannya pengembalian hak atastanahyang terkena pembebasan lahan proyek jalan lingkar utara yang terbelit kasus penyelewengan uang konsinyasi. "‎Kami menyampaikan peringatan (somasi) kepada Bapak WalikotaTasikmalayauntuk segera mengembalikan hak atastanahSHM No 00444/Sukaasih/seb (obyek pengadaantanah) seluas 422 m² kepada klien kami selambat-lambatnya tujuh hari kalender sejak surat ini diterbitkan atau sampai dengan tanggal 1 September 2020," kata Taufiq Rahman, kuasa hukum H Maman Ahmad Farohat selaku pemilik lahan dalam keterangan tertulis, Kamis 27 Agustus 2020. Taufiq menegaskan, tim kuasa hukum ‎‎bakal menempuh jalur hukum sesuai dengan peraturan perundang-undangan yang berlaku. Somasi dilakukan setelah upaya serupa melalui peringatan secara lisan dilakukan kepada jajaran pejabat PemkotTasikmalayadalam sejumlah pertemuan atau audiensi. Baca Juga:Tak Mampu Bayar Listrik dan Makan Seadanya, Kisah Nelangsa Vanessa Angel Ihwal persoalan muncul selepas terbitnya surat dari Kepala BPN KotaTasikmalayaNomor : 76/12-32.78/1/2018 pada 24 Januari 2019. Dalam surat itu, Kepala BPN KotaTasikmalayatelah melakukan tindakan pemutusan hubungan hukum antara klien Taufiq dengan sebidangtanahhak milik SHM No. 00444/Sukaasih/seb (obyek pengadaantanah) seluas 422 m². Kasus tersebut bahkan berlanjut ke Pengadilan Tipikor Bandung. Dalam sejumlah kesaksian, tutur Taufiq, diduga dalam proses pemutusan hubungan hukum tersebut belum ada penetapan akhir dari Pengadilan NegeriTasikmalayayang memerintahkan Penitipan uang ganti rugi. "Dan patut diduga Berita Acara Nomor : 06/Pdt.P.Cons/2017/PN.Tsm yang pada pokoknya berisi tentang Berita Acara Serah Terima Uang Konsinyasi terkait Hak atastanahklien kami adalah palsu," ujarnya. Baca Juga:Dirilis Besok, Selena Gomez dan BLACKPINK Bagikan Teaser Video Klip Ice Cream ‎Dalam berita acara yang diduga palsu tersebut, uang konsinyasi diserahkan justru diserahkan dan disimpan Panitera PNTasikmalayaRaden Dharmi Setiani‎ sebesar Rp. 3.251.592.000 pada 21 Juli 2017. Perkara itu membuat Dharmi divonis Hakim Pengadilan Tindak Pidana Korupsi (Tipikor) Bandung dengan pidana 7 tahun dan 6 bulan penjara, denda Rp200 juta subsidair 3 bulan kurungan, Senin 15 April 2019 lalu. PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman mendapat somasi atau peringatan terkait belum dilakukannya pengembalian hak atastanahyang terkena pembebasan lahan proyek jalan lingkar utara yang terbelit kasus penyelewengan uang konsinyasi. "‎Kami menyampaikan peringatan (somasi) kepada Bapak WalikotaTasikmalayauntuk segera mengembalikan hak atastanahSHM No 00444/Sukaasih/seb (obyek pengadaantanah) seluas 422 m² kepada klien kami selambat-lambatnya tujuh hari kalender sejak surat ini diterbitkan atau sampai dengan tanggal 1 September 2020," kata Taufiq Rahman, kuasa hukum H Maman Ahmad Farohat selaku pemilik lahan dalam keterangan tertulis, Kamis 27 Agustus 2020. Taufiq menegaskan, tim kuasa hukum ‎‎bakal menempuh jalur hukum sesuai dengan peraturan perundang-undangan yang berlaku. Somasi dilakukan setelah upaya serupa melalui peringatan secara lisan dilakukan kepada jajaran pejabat PemkotTasikmalayadalam sejumlah pertemuan atau audiensi. Baca Juga:Tak Mampu Bayar Listrik dan Makan Seadanya, Kisah Nelangsa Vanessa Angel Ihwal persoalan muncul selepas terbitnya surat dari Kepala BPN KotaTasikmalayaNomor : 76/12-32.78/1/2018 pada 24 Januari 2019. Dalam surat itu, Kepala BPN KotaTasikmalayatelah melakukan tindakan pemutusan hubungan hukum antara klien Taufiq dengan sebidangtanahhak milik SHM No. 00444/Sukaasih/seb (obyek pengadaantanah) seluas 422 m². Kasus tersebut bahkan berlanjut ke Pengadilan Tipikor Bandung. Dalam sejumlah kesaksian, tutur Taufiq, diduga dalam proses pemutusan hubungan hukum tersebut belum ada penetapan akhir dari Pengadilan NegeriTasikmalayayang memerintahkan Penitipan uang ganti rugi. "Dan patut diduga Berita Acara Nomor : 06/Pdt.P.Cons/2017/PN.Tsm yang pada pokoknya berisi tentang Berita Acara Serah Terima Uang Konsinyasi terkait Hak atastanahklien kami adalah palsu," ujarnya. Baca Juga:Dirilis Besok, Selena Gomez dan BLACKPINK Bagikan Teaser Video Klip Ice Cream ‎Dalam berita acara yang diduga palsu tersebut, uang konsinyasi diserahkan justru diserahkan dan disimpan Panitera PNTasikmalayaRaden Dharmi Setiani‎ sebesar Rp. 3.251.592.000 pada 21 Juli 2017. Perkara itu membuat Dharmi divonis Hakim Pengadilan Tindak Pidana Korupsi (Tipikor) Bandung dengan pidana 7 tahun dan 6 bulan penjara, denda Rp200 juta subsidair 3 bulan kurungan, Senin 15 April 2019 lalu.Klaim adanya konsinyasi membuat warga juga kehilangan lahan-lahannya kendati proses titipan uang di pengadilan tersandungperkarapenyelewengan. Tak hanyaWali Kota, Kepala Badan Pertanahan Nasional KotaTasikmalayajuga kena somasi Taufiq. Persoalan konsinyansi juga membuat sejumlah warga dan mahasiswa menggeruduk Kantor Kejaksaan Negeri KotaTasikmalayadalam momen peringatan Hari Antikorupsi Sedunia, Senin 9 Desember 2019. Baca Juga:Uu Klaim Seluruh Wilayah Jabar Siap Sekolah Tatap Muka, Wali Kota Cimahi: Saya Tidak Mau Coba-coba Mereka menyoroti kisruh pengadaantanahuntuk pembangunan Jalan Lingkar Utara yang terbelit kasus penyelewengan uang konsinyasi dan dugaan pemalsuan dokumen-dokumen pengadaantanah. Massa yang berasal dari wilayah terdampak proyek pembebasantanahdari wilayah Cibeureum, Purbaratu serta Koaliasi Mahasiswa dan RakyatTasikmalaya(KMRT) menyambangi Kantor Kejari KotaTasikmalayadi Jalan RE Martadinata, Senin pagi. Sebagian dari massa sempat berorasi dan membentangkan spanduk bertuliskan desakan untuk membongkar kasus penyelewengan dana pembebasan lahan Lingkar Utara di depan gerbang Gedung Korps Adhiyaksa KotaTasikmalaya. Mereka akhirnya diterima dan beraudiensi dengan Kepala Kejari KotaTasikmalayaLila Agustina di kantornya saat itu. Menanggapi persoalan itu, Lila Agustina menyatakan bakal mempelajarinya sedetail mungkin. "Kami terima masukan-masukannya dan kami berusaha untuk semaksimal mungkin menyelesaikannya," ujar Lila. Ia meminta, warga percaya terhadap Kejari dalam menuntaskanperkaratersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01702411/gong-perebutan-kursi-ketua-dpd-golkar-kota-tasikmalaya-dimulai</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Gong Perebutan Kursi Ketua DPD Golkar Kota Tasikmalaya Dimulai</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="n">
-        <v>44070.65763888889</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Gong perebutan kursi ketuaDPDGolkarKotaTasikmalayaperiode 2020-2025 dimulai. KetuaDPDGolkarperiode 2015-2020, HM Yusuf dipastikan akan bertarung melawan rivalnya yaitu SekretarisDPDGolkarperiode yang sama, Nurul Awalin pada Musda yang dilaksanakan besok, Jumat 28 Agustus 2020 di Kota Bandung. Informasi yang dihimpun, Kamis pagi 27 Agustus 2020 sekitar pukul 08.30 WIB, Nurul telah mengembalikan formulir pendaftaran pencalonan dirinya. Kemudian disusul siangnya sekitar pukul 10.00 WIB, Muhammad Yusuf yang juga mengembalikan formulir pencalonan dirinya. Yusuf mengatakan, pelaksanaan Musda sendiri akan dihelat di Kota Bandung. Alasannya kata dia, pihaknya ingin tetap menjaga protokol kesehatan di masa pandemi Covid-19. Baca Juga:Hamas Digempur Israel, Qatar Beri Bantuan "Musda ini pasti melibatkan massa banyak sehingga kami lebih memilih dilaksanakan di Kota Bandung karena dianggap lebih aman," kata Yusuf usai menyerahkan pengembalian formulir di KantorDPDGolkarKotaTasikmalaya, Kamis 27 Agustus 2020. Karena kata dia, jika dihelat di Bandung yakni di KantorDPDGolkarProvinsi Jawa Barat , protokol kesehatan akan tetap terjaga. Apalagi kondisi KotaTasikmalayasendiri saat ini belum aman Covid-19 dimana masih ada 6 pasien positif yang masih dikarantina. "Tadinya akan dihelat di Kota Tasik. Tapi kami dapat surat dari Gugus Tugas dan kita layangkan keDPDJabar. Maka diputuskan Musdanya di sana seperti daerah lain juga Musdanya dilaksanakan diDPDProvinsi," ujar Yusuf. Baca Juga:Polemik Nasab Keraton Kasepuhan Cirebon, Dewan Famili Kesultanan: Perlu Adanya Sikap Saling Legowo Lebih lanjut kata Yusuf, dirinya ikut mencalonkan kembali menjadi KetuaDPDGolkarKotaTasikmalayakarena terpanggil untuk terus mengabdi membesarkanGolkar. PIKIRAN RAKYAT -Gong perebutan kursi ketuaDPDGolkarKotaTasikmalayaperiode 2020-2025 dimulai. KetuaDPDGolkarperiode 2015-2020, HM Yusuf dipastikan akan bertarung melawan rivalnya yaitu SekretarisDPDGolkarperiode yang sama, Nurul Awalin pada Musda yang dilaksanakan besok, Jumat 28 Agustus 2020 di Kota Bandung. Informasi yang dihimpun, Kamis pagi 27 Agustus 2020 sekitar pukul 08.30 WIB, Nurul telah mengembalikan formulir pendaftaran pencalonan dirinya. Kemudian disusul siangnya sekitar pukul 10.00 WIB, Muhammad Yusuf yang juga mengembalikan formulir pencalonan dirinya. Yusuf mengatakan, pelaksanaan Musda sendiri akan dihelat di Kota Bandung. Alasannya kata dia, pihaknya ingin tetap menjaga protokol kesehatan di masa pandemi Covid-19. Baca Juga:Hamas Digempur Israel, Qatar Beri Bantuan "Musda ini pasti melibatkan massa banyak sehingga kami lebih memilih dilaksanakan di Kota Bandung karena dianggap lebih aman," kata Yusuf usai menyerahkan pengembalian formulir di KantorDPDGolkarKotaTasikmalaya, Kamis 27 Agustus 2020. Karena kata dia, jika dihelat di Bandung yakni di KantorDPDGolkarProvinsi Jawa Barat , protokol kesehatan akan tetap terjaga. Apalagi kondisi KotaTasikmalayasendiri saat ini belum aman Covid-19 dimana masih ada 6 pasien positif yang masih dikarantina. "Tadinya akan dihelat di Kota Tasik. Tapi kami dapat surat dari Gugus Tugas dan kita layangkan keDPDJabar. Maka diputuskan Musdanya di sana seperti daerah lain juga Musdanya dilaksanakan diDPDProvinsi," ujar Yusuf. Baca Juga:Polemik Nasab Keraton Kasepuhan Cirebon, Dewan Famili Kesultanan: Perlu Adanya Sikap Saling Legowo Lebih lanjut kata Yusuf, dirinya ikut mencalonkan kembali menjadi KetuaDPDGolkarKotaTasikmalayakarena terpanggil untuk terus mengabdi membesarkanGolkar.Apalagi, di masa kepemimpinannya,Golkartelah berhasil mengantarkan ketuaDPD-nya menjadi Wakil Wali Kota di Pilkada 2017-2022. "Jadi tidak benar soal isu bahwa pengurusDPDtak diurus ketua (dirinya, Red). Itu bohong sama sekali dan tidak benar. Karena kami selama periode ini telah berjalan dan roda mesin partai terus berjalan," terangnya. Baca Juga:Niat Puasa Tasu'a dan Asyura, Mari Ibadah Sunnah Mulai Jumat 28 Agustus 2020 Besok Apalagi di Pileg lalu, beber Yusuf, suaraGolkardi Kota Tasik naik. Hanya saja nasib yang membuatGolkartak menduduki jabatan utama di unsur pimpinan DPRD walaupun raihan kursinya tetap sama, 5 kursi. "Tapi kita masih bertahan dengan 5 kursi dan kurang sedikit untuk bisa menduduki kursi pimpinan DPRD. Tapi kita kan terus berjalan. Apalagi di Pilkada kursi Wakil Wali Kota diduduki calonGolkar," bebernya. Dia berharap suasana dinamika politikGolkarkedepan lebih baik lagi. Karena targetGolkarselanjutnya adalah mengantarkan kader terbaiknya di Pilkada 2022 menjadi Wali KotaTasikmalayaselanjutnya. Baca Juga:Baru 3 Bulan Menjabat, Bos TikTok Mundur Gara-gara Donald Trump "Kedepan kita lebih baik lagi dan lebih besar. Sehingga untuk merebut kekuasaan dari partaiGolkarlebih berpeluang. Apalagi saat ini kekuasaan sudah ada di tangan Wakil Wali Kota dan DPRD," ujarnya. Sedangkan terkait sekretarisnya, Nurul Awalin yang malah maju menjadi pesaingnya di Musda nanti menurut dia, itu adalah hal biasa atau dinamika politik. "Intinya atmosfir suasana MusdaGolkarkali ini memang berbeda dibandingkan Musda terdahulu. Memang kompetitor saya ada. Saya sudah kompromi dengannya (Nurul Awalin) waktu itu. Tapi ya beliau bilang akan tetap maju. Ya sudah kalau begitu mah kita bersaing," tukasnya.Baca Juga:Giring Ganesha Maju Capres Dongkrak Pamor PSI, Survei Tunjukkan PDIP Belum Tergoyahkan Sementara itu Nurul Awalin sempat yang sempat menggelar pers konfrens usai pengembalian berkas formulir. Ia mengaku mencalonkan sebagai ketua di Musda besok, karena lillahi ta'ala.Dia pun optimis di Musda besok bisa mengguli Yusuf. "Kami siap lahir batin maju bukan untuk melawan lawan, tapi membelaGolkar. Persoalan yang pentingGolkarbesar jaya dan manfaat bagi masyarakat. Kita ingin Pilkada dan di Pileg nantiGolkarberjaya," tuturnya. "Karena ini rumah kita, niat saya juga ingin besarkan partai. Bersaing di satu rumah tak perlu ada hal aneh. Tak jadi persoalan dimana pun lokasi Musda asal aturan main sesuai, terpenuhi dan alasannya jelas," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01702077/penuhi-syarat-verifikasi-kbm-tatap-muka-puluhan-guru-sman-5-kota-tasikmalaya-jalani-tes-swab</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Penuhi Syarat Verifikasi KBM Tatap Muka, Puluhan Guru SMAN 5 Kota Tasikmalaya Jalani Tes Swab</t>
-        </is>
-      </c>
-      <c r="C230" s="2" t="n">
-        <v>44070.55833333333</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatan Kota Tasikmalaya melakukan tes usap (swab) kepada puluhan karyawan di SMAN 5 Kota Tasikmalaya, Kamis 27 Agustus 2020. Puluhan karyawan yang menjalani tesswabtersebut seperti para guru, karyawan tata usaha, hingga petugas keamanan sekolah. Kepala Seksi Survailans Imunisasi, Dinas Kesehatan Kota Tasikmalaya, Siti Mulyati mengatakan, pelaksanaan tesswabkali ini bisa diikuti oleh 90 orang pegawai sekolah, terutama para guru. Menurut dia, pelaksanaan tesswabtersebut sebagai upaya melakukan deteksi dini penyebaranCovid-19, khususnya di lingkungan sekolah. "Sejauh ini kita sudah melaksanakan sekira 2.000 sampel dari target 7.000 tesswab. Nanti akan terus dilakukan untuk skrining," kata dia, Kamis 27 Agustus 2020. Baca Juga:Seorang Karyawan Meninggal, Bagian dari Klaster PT LG Electronic Indonesia di Bekasi Siti mengatakan, pelaksanaan tesswabdi SMAN 5 Kota Tasikmalaya merupakan yang pertama kali dilakukan di lingkungan sekolah. Menurut dia, hasil tesswabitu nantinya dapat dimanfaatkan pihak sekolah untuk persyaratan persiapan menggelar kegiatan belajar mengajar (KBM) tatap muka. "Sebab, pelaksanaan tesswabkepada guru merupakan salah satu syaratKBMtatap muka," katanya. Pelaksanaan tesswabmassal di SMAN 5 ujar dia, karena pihak sekolah sudah mendaftarkan diri ke Dinas Kesehatan untuk kegiatan itu. Sementara sekolah yang belum mendapat jatah tesswabmassal akan dilakukan selanjutnya. Baca Juga:Rencana Bali Dibuka Lagi untuk Wisatawan Internasional Batal, Gubernur: Tunda Sampai Kondusif Namun, ia mengatakan, Dinas Kesehatan Kota Tasikmalaya tak bisa melakukan tesswabkepada seluruh guru di Kota Tasikmalaya. Sebab, jumlah guru di wilayah itu sangat banyak sementara ketersediaan peralatan tesswabterbatas. PIKIRAN RAKYAT -Dinas Kesehatan Kota Tasikmalaya melakukan tes usap (swab) kepada puluhan karyawan di SMAN 5 Kota Tasikmalaya, Kamis 27 Agustus 2020. Puluhan karyawan yang menjalani tesswabtersebut seperti para guru, karyawan tata usaha, hingga petugas keamanan sekolah. Kepala Seksi Survailans Imunisasi, Dinas Kesehatan Kota Tasikmalaya, Siti Mulyati mengatakan, pelaksanaan tesswabkali ini bisa diikuti oleh 90 orang pegawai sekolah, terutama para guru. Menurut dia, pelaksanaan tesswabtersebut sebagai upaya melakukan deteksi dini penyebaranCovid-19, khususnya di lingkungan sekolah. "Sejauh ini kita sudah melaksanakan sekira 2.000 sampel dari target 7.000 tesswab. Nanti akan terus dilakukan untuk skrining," kata dia, Kamis 27 Agustus 2020. Baca Juga:Seorang Karyawan Meninggal, Bagian dari Klaster PT LG Electronic Indonesia di Bekasi Siti mengatakan, pelaksanaan tesswabdi SMAN 5 Kota Tasikmalaya merupakan yang pertama kali dilakukan di lingkungan sekolah. Menurut dia, hasil tesswabitu nantinya dapat dimanfaatkan pihak sekolah untuk persyaratan persiapan menggelar kegiatan belajar mengajar (KBM) tatap muka. "Sebab, pelaksanaan tesswabkepada guru merupakan salah satu syaratKBMtatap muka," katanya. Pelaksanaan tesswabmassal di SMAN 5 ujar dia, karena pihak sekolah sudah mendaftarkan diri ke Dinas Kesehatan untuk kegiatan itu. Sementara sekolah yang belum mendapat jatah tesswabmassal akan dilakukan selanjutnya. Baca Juga:Rencana Bali Dibuka Lagi untuk Wisatawan Internasional Batal, Gubernur: Tunda Sampai Kondusif Namun, ia mengatakan, Dinas Kesehatan Kota Tasikmalaya tak bisa melakukan tesswabkepada seluruh guru di Kota Tasikmalaya. Sebab, jumlah guru di wilayah itu sangat banyak sementara ketersediaan peralatan tesswabterbatas."Sisanya nanti mungkin akan melakukan secara mandiri," kata dia. Di tempat yang sama, Kepala SMAN 5 Kota Tasikmalaya, Aam Abdullah Mahmud mengatakan, pelaksanaanswabkepada tenaga pengajar merupakan salah satu syarat sekolah untuk melakukanKBMtatap muka. Karena itu, pihaknya mengajukan permintaan pelaksanaan tesswabke Dinas Kesehatan Kota Tasikmalaya. Baca Juga:BLT Cair Hari Ini, Pemerintah Komit Bantu Rakyat dengan Banyak Program Stimulus Ekonomi "Kebetulan di dinas ada program tesswabmassal. Jadilah tesswabdilakukan di sini," ujarnya. Menurut dia, pelaksanaan tesswabkepada para karyawan sekolah itu merupakan salah satu langkah verifikasi internal untuk kembali membukaKBMtatap muka. Setelah itu, pihak sekolah baru akan mengajukan surat pernyataaan ke orang tua siswa untuk mengizinkan anaknya kembali belajar di sekolah. Ketika sudah ada pernyataan dari orang tua lanjut Aam, baru sekolah akan melakukan verifikasi eksternal dengan melibatkan Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalaya. "Diharapkan 1 Oktober bisa dibuka," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01693918/janji-insentif-bagi-petugas-pemulasaraan-jenazah-covid-rsud-soekardjo-tasikmalaya-belum-terwujud</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Janji Insentif bagi Petugas Pemulasaraan Jenazah Covid RSUD Soekardjo Tasikmalaya Belum Terwujud</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="n">
-        <v>44070.42291666667</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Janji pihak Rumah Sakit Umum Daerah (RSUD) dr. Soekardjo, untuk segera mencairkan upah daninsentifpetugas pemulasaraan jenazah baru sebatas isapan jempol belaka. Faktanya hingga hari ini Kamis, 27 Agustus 2020, para petugas pemulasaraan jenazah pasien Covid-19 diRSUD dr Soekardjo, KotaTasikmalayamasih belum menerimainsentif, atas pekerjaan mereka selama masa pandemi.Padahal sesuai yang disampaikan Kepala Dinas Kesehatan KotaTasikmalayaUus Supangat, Insentif para  petugas pemulasaraan jenazah tersebut, sedianya akan dibayarkan pada Senin, 24 Agustus 2020. Baca Juga:Makin Banyak Memakan Korban, Mauritius Dituntut Gelar Investigasi Soal Tumpahan Minyak Kapal JepangPihak rumah sakit berdalih, keterlambatan pembayaran upah daninsentiftersebut, dikarenakan  masalah administrasi yang belum tuntas.Menanggapi hal itu, Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatkan, pihaknya menerima laporan dari manajemen RSUD dr Soekardjo yang menyampaikan belum bisa menyalurkaninsentifkepada petugas pemulasaraan. Alasannya kata Uus pihak RSUD harus menyiapkan payung hukum untuk pencarianinsentifterlebih dahulu. Baca Juga:Berikut Profesi yang Sering Dicari Perusahaan di Tahun 2020 Beserta Keterampilan yang Harus Dimiliki"Pihak rumah sakit tak ingin mengeluarkan anggaran dengan serampangan. Karena itu harus ada legal standing-nya untuk mekanisme dan besaraninsentifyang diberikan. Jadi ada penundaan dari semula dibayar Senin," kata dia, Kamis.Uus juga mengatakan,  penundaan ini terjadi semata-mata karena alasan administrasi. Sebab kata dia, harus dipastikan terlebih dahulu orang yang berhak menerina dan besaraninsentifyang akan diberikan. Baca Juga:Motor Ojol di Jakbar Raib, Kena Hipnotis Penumpang dengan Modus Beli Silet dan Beri Minyak WangiDitambahkan Uus, Dinas Kesehatan KotaTasikmalayaakan terus berkoordinasi dengan manajemen RSUD dr Soekardjo agar aturannya dapat cepat diselesaikan. "Kita harap minggu ini sudah selesai, sehingga bisa cepat cair dan tidak ada masalah di kemudian hari nanti terkait pembayarannya," katanya.Menurut Uus,insentifuntuk petugas pemulasaraan jenazah Covid-19 RSUD dr Soekardjo awalnya akan diambil dari anggaran manajemen rumah sakit. Baca Juga:Sebelum Meluncur Model Baru, Yuk Simak Sejarah Toyota Hilux Namun ada juga rencana untuk dianggarkan dari biaya tak terduga (BTT) APBD PemkotTasikmalaya.Dengan adanya penundaan pencairaninsentif, Uus meminta para petugas tetap menjalankan tugasnya dengan baik. Pihaknya akan terus berusaha agarinsentifitu dapat segera dicairkan."Kita inginnya minggu ini dapat terselesaikan. Namun, meski tertunda, ini sudah mendapat atensi khusus dari Wali Kota," kata dia.***PIKIRAN RAKYAT -Janji pihak Rumah Sakit Umum Daerah (RSUD) dr. Soekardjo, untuk segera mencairkan upah daninsentifpetugas pemulasaraan jenazah baru sebatas isapan jempol belaka. Faktanya hingga hari ini Kamis, 27 Agustus 2020, para petugas pemulasaraan jenazah pasien Covid-19 diRSUD dr Soekardjo, KotaTasikmalayamasih belum menerimainsentif, atas pekerjaan mereka selama masa pandemi.Padahal sesuai yang disampaikan Kepala Dinas Kesehatan KotaTasikmalayaUus Supangat, Insentif para  petugas pemulasaraan jenazah tersebut, sedianya akan dibayarkan pada Senin, 24 Agustus 2020. Baca Juga:Makin Banyak Memakan Korban, Mauritius Dituntut Gelar Investigasi Soal Tumpahan Minyak Kapal JepangPihak rumah sakit berdalih, keterlambatan pembayaran upah daninsentiftersebut, dikarenakan  masalah administrasi yang belum tuntas.Menanggapi hal itu, Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatkan, pihaknya menerima laporan dari manajemen RSUD dr Soekardjo yang menyampaikan belum bisa menyalurkaninsentifkepada petugas pemulasaraan. Alasannya kata Uus pihak RSUD harus menyiapkan payung hukum untuk pencarianinsentifterlebih dahulu. Baca Juga:Berikut Profesi yang Sering Dicari Perusahaan di Tahun 2020 Beserta Keterampilan yang Harus Dimiliki"Pihak rumah sakit tak ingin mengeluarkan anggaran dengan serampangan. Karena itu harus ada legal standing-nya untuk mekanisme dan besaraninsentifyang diberikan. Jadi ada penundaan dari semula dibayar Senin," kata dia, Kamis.Uus juga mengatakan,  penundaan ini terjadi semata-mata karena alasan administrasi. Sebab kata dia, harus dipastikan terlebih dahulu orang yang berhak menerina dan besaraninsentifyang akan diberikan. Baca Juga:Motor Ojol di Jakbar Raib, Kena Hipnotis Penumpang dengan Modus Beli Silet dan Beri Minyak WangiDitambahkan Uus, Dinas Kesehatan KotaTasikmalayaakan terus berkoordinasi dengan manajemen RSUD dr Soekardjo agar aturannya dapat cepat diselesaikan. "Kita harap minggu ini sudah selesai, sehingga bisa cepat cair dan tidak ada masalah di kemudian hari nanti terkait pembayarannya," katanya.Menurut Uus,insentifuntuk petugas pemulasaraan jenazah Covid-19 RSUD dr Soekardjo awalnya akan diambil dari anggaran manajemen rumah sakit. Baca Juga:Sebelum Meluncur Model Baru, Yuk Simak Sejarah Toyota Hilux Namun ada juga rencana untuk dianggarkan dari biaya tak terduga (BTT) APBD PemkotTasikmalaya.Dengan adanya penundaan pencairaninsentif, Uus meminta para petugas tetap menjalankan tugasnya dengan baik. Pihaknya akan terus berusaha agarinsentifitu dapat segera dicairkan."Kita inginnya minggu ini dapat terselesaikan. Namun, meski tertunda, ini sudah mendapat atensi khusus dari Wali Kota," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01691608/lakukan-kunjungan-kerja-habib-luthfi-berikan-pesan-khusus-untuk-generasi-muda-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Lakukan Kunjungan Kerja, Habib Luthfi Berikan Pesan Khusus untuk Generasi Muda di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="n">
-        <v>44069.83402777778</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Anggota Dewan Pertimbangan Presiden (Wantimpres)Habib Muhammad Luthfi Bin Yahyamelakukankunjungan kerja(Kunker) dan silaturahmi dengan alim ulama dan tokoh agama diKota Tasikmalaya, Jawa Barat, bertempat di Masjid AgungKota Tasikmalaya, Rabu 26 Agustus 2020. Dalam kunjungannya itu, Habib Luthfi berpesan kepada masyarakat dangenerasi mudakhususnya diKota Tasikmalayaagar tidak melupakan sejarah perjuangan para pendiri bangsa. "Kalau kita sering bercermin, insyaallah akan mengurangi pandangan yang kurang terpuji. Baca Juga:Nasab Sunan Gunung Jati Terputus, Keluarga Kesultanan Cirebon Tolak Jumenengan PR Luqman Zulkaedin Kitagenerasi mudatidak boleh melupakan sejarah itu," ujar Habib di halaman Masjid Agung Tasikmalaya, Rabu 26 Agustus 2020. Menurut dia, tugas masyarakat saat ini adalah mempertahankan kerukunan Bangsa Indonesia yang telah ada, serta terus mengajarkan kerukunan itu ke generasi selanjutnya. Habib menilai, jika kerukunan itu tetap dijaga, tidak akan ada kesempatan oknum yang ingin memecah belah bangsa ini. Baca Juga:5 Gejala Bipolar yang Mungkin Diabaikan, Salah Satunya Mudah Tersinggung Sementara itu, WaliKota Tasikmalaya, Budi Budiman menengatakan, pihaknya akan terus melakukanpesanHabib Luthfi dalam menjaga keutuhan bangsa, salah satunya agar menghormati perbedaan yang ada dengan berkaca pada sejarah. PIKIRAN RAKYAT- Anggota Dewan Pertimbangan Presiden (Wantimpres)Habib Muhammad Luthfi Bin Yahyamelakukankunjungan kerja(Kunker) dan silaturahmi dengan alim ulama dan tokoh agama diKota Tasikmalaya, Jawa Barat, bertempat di Masjid AgungKota Tasikmalaya, Rabu 26 Agustus 2020. Dalam kunjungannya itu, Habib Luthfi berpesan kepada masyarakat dangenerasi mudakhususnya diKota Tasikmalayaagar tidak melupakan sejarah perjuangan para pendiri bangsa. "Kalau kita sering bercermin, insyaallah akan mengurangi pandangan yang kurang terpuji. Baca Juga:Nasab Sunan Gunung Jati Terputus, Keluarga Kesultanan Cirebon Tolak Jumenengan PR Luqman Zulkaedin Kitagenerasi mudatidak boleh melupakan sejarah itu," ujar Habib di halaman Masjid Agung Tasikmalaya, Rabu 26 Agustus 2020. Menurut dia, tugas masyarakat saat ini adalah mempertahankan kerukunan Bangsa Indonesia yang telah ada, serta terus mengajarkan kerukunan itu ke generasi selanjutnya. Habib menilai, jika kerukunan itu tetap dijaga, tidak akan ada kesempatan oknum yang ingin memecah belah bangsa ini. Baca Juga:5 Gejala Bipolar yang Mungkin Diabaikan, Salah Satunya Mudah Tersinggung Sementara itu, WaliKota Tasikmalaya, Budi Budiman menengatakan, pihaknya akan terus melakukanpesanHabib Luthfi dalam menjaga keutuhan bangsa, salah satunya agar menghormati perbedaan yang ada dengan berkaca pada sejarah.Sebab, menurut dia, perbedaan itu adalah kekayaan dan kebesaran bangsa Indonesia. Budi mengingatkan, perbedaan dimasyarakat adalah wajar dan tidak boleh menjadi permasalahan sosial. Baca Juga:Pakar Curiga Latihan Militer di Lepas Pantai Islandia Jadi Penyebab Puluhan Paus Terdampar dan Mati "Apalagi, saat ini bangsa ini sedang menghadapi pandemi Covid-19, di mana media sosial sangat sangat mudah diakses dan terkadang mengandungpesanprovokasi," Kata Budi Hal itu lanjut Budi harus diantisipasi agar Tasikmalaya tetap aman dan tentram. Baca Juga:Bacok Warga hingga Nekat Ceburkan Diri ke Kalimalang, Jambret di Bekasi Diamuk Massa "Inshaallah kerukunan umat beragama di Tasikmalaya akan tetap terjaga," kata dia. "Sekali lagipesanhabib tadi adalah dalam menjaga keutuhan bangsa, salah satunya agar masyarakat menghormati perbedaan yang ada. Karena perbedaan itu adalah kebesaran Bangsa Indonesia," kata Budi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01690564/tidak-pakai-masker-10-warga-kota-tasikmalaya-bayar-sanksi-denda-rp50-ribu</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Tidak Pakai Masker, 10 Warga Kota Tasikmalaya Bayar Sanksi Denda Rp50 Ribu</t>
-        </is>
-      </c>
-      <c r="C233" s="2" t="n">
-        <v>44069.47361111111</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Sejak diberlakukan sanksi denda Rp50.000 bagi warga KotaTasikmalayayang tidak bermasker saat beraktivitas di luar rumah per 10 Agustus lalu, hingga hari Rabu 26 Agustus 2020, Satpol PP Kota Tasik sebagai bagian Tim Gugus Tugas Percepatan PenangananCovid-19, mencatat terjadipelanggaransebanyak 630pelanggaran. Pelanggaran sebanyak itu, terjadi karena melanggar Peraturan Wali Kota (Perwalkot)TasikmalayaNomor 29 Tahun 2020 tentang Protokol Kesehatan yang berlaku efektif per tanggal 10 Agustus. "Mulai 10 Agustus hingga tanggal 23 Agustus kemarin kita sudah mendata lebih dari 630 pelanggar," ujar Kabid Trantibum Satpol PP Kota Tasik, Yogi Subarkah, Rabu 26 Agustus 2020. Baca Juga:Kedapatan Bawa Sabu untuk Suami di Tahanan, Wanita Berusia 39 Tahun Diamankan Polrestabes Palembang Dikatakan Yogi, rincian dari 630pelanggaranitu adalah 606 sanksi sosial, 10 sanksi administrasi denda berupa pembayaran uang, satu penyegelan minimarket dan sisanya berupa sanksi teguran kepada kafe dan minimarket. "Saksi teguran ini secara tertulis sebagai peringatan. Jika mereka melanggar maka akan kita tutup secara paksa operasionalnya," terangnya. Tambah Yogi,pelanggaranPeraturan Wali Kota (Perwalkot)TasikmalayaNomor 29 Tahun 2020paling banyak terjadi dipusat keramaian wilayah kota seperti di pasar, pusat pertokoan, dan lain sebagainya. Baca Juga:Dapatkan Hadiah Langsung bjb Poin, Yuk Daftar dan Tingkatkan Transaksi Digitalmu! "Rata-rata para pelanggar terjadi di pusat keramaian, alasannya lupa tak pakai masker dan ada yang bawa masker tapi tak dipakai secara benar," tambahnya. PIKIRAN RAKYAT -Sejak diberlakukan sanksi denda Rp50.000 bagi warga KotaTasikmalayayang tidak bermasker saat beraktivitas di luar rumah per 10 Agustus lalu, hingga hari Rabu 26 Agustus 2020, Satpol PP Kota Tasik sebagai bagian Tim Gugus Tugas Percepatan PenangananCovid-19, mencatat terjadipelanggaransebanyak 630pelanggaran. Pelanggaran sebanyak itu, terjadi karena melanggar Peraturan Wali Kota (Perwalkot)TasikmalayaNomor 29 Tahun 2020 tentang Protokol Kesehatan yang berlaku efektif per tanggal 10 Agustus. "Mulai 10 Agustus hingga tanggal 23 Agustus kemarin kita sudah mendata lebih dari 630 pelanggar," ujar Kabid Trantibum Satpol PP Kota Tasik, Yogi Subarkah, Rabu 26 Agustus 2020. Baca Juga:Kedapatan Bawa Sabu untuk Suami di Tahanan, Wanita Berusia 39 Tahun Diamankan Polrestabes Palembang Dikatakan Yogi, rincian dari 630pelanggaranitu adalah 606 sanksi sosial, 10 sanksi administrasi denda berupa pembayaran uang, satu penyegelan minimarket dan sisanya berupa sanksi teguran kepada kafe dan minimarket. "Saksi teguran ini secara tertulis sebagai peringatan. Jika mereka melanggar maka akan kita tutup secara paksa operasionalnya," terangnya. Tambah Yogi,pelanggaranPeraturan Wali Kota (Perwalkot)TasikmalayaNomor 29 Tahun 2020paling banyak terjadi dipusat keramaian wilayah kota seperti di pasar, pusat pertokoan, dan lain sebagainya. Baca Juga:Dapatkan Hadiah Langsung bjb Poin, Yuk Daftar dan Tingkatkan Transaksi Digitalmu! "Rata-rata para pelanggar terjadi di pusat keramaian, alasannya lupa tak pakai masker dan ada yang bawa masker tapi tak dipakai secara benar," tambahnya.Sedangkan untuk yang menerima sanksi teguran tertulis adalah minimarket dan kafe. Mereka kebanyakan melanggar jam operasional buka. Makanya, ada 1 minimarket yang sempat ditutup paksa pihak Gugus Tugas. "Untuk penerapan sanksi ini alhamdulilah tak ada kendala karena sosialisasi telah gencar kita lakukan. Ini hanya tinggal tingkat kesadaran masyarakat saja yang belum tumbuh karena masih banyak pelanggarannya," kata Yogi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01690302/direncanakan-awal-september-pemkot-tasikmalaya-sebut-belum-ada-sekolah-yang-siap-kbm-tatap-muka</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Direncanakan Awal September, Pemkot Tasikmalaya Sebut Belum Ada Sekolah yang Siap KBM Tatap Muka</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="n">
-        <v>44069.38125</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Rencana Pemerintah Kota (Pemkot)Tasikmalayauntuk memulai kegiatan belajar normal aliastatap mukadi masa pandemi Covid-19 ini, pada satu September 2020 akhirnya batal dilakukan. Pasalnya, hingga kini belum ada satu sekolah pun di KotaTasikmalayayang siap menghelat KBMtatap muka. Apalagi, hasil proses verifikasi hingga kini belum ada satu sekolahpun yang siap memenuhi semua persyaratan belajartatap muka. Wali KotaTasikmalaya, Budi Budiman membenarkan hal itu. Menurut Budi, berdasarkan informasi dari KCD Pendidikan SMA dan SMK di Kota Tasik belum siap menggelar belajartatap muka. Karena harus memenuhi beberapa persyaratan. Baca Juga:Arsenal vs Liverpool di Community Shield: Tantangan Selebrasi Kedua Meriam London di Wembley "Semalam kita evaluasi bersama Gugus Tugas, termasuk membahas kesiapan belajartatap mukauntuk SMA dan SMK yang ditangani KCD Pendidikan Provinsi Jawa Barat," ujar Budi kepada wartawan, Rabu 26 Agustus 2020. Tidak hanya SMA dan SMK kata Budi, "Termasuk sekolah yang berada di bawah kewenangan Dinas Pendidikan (Disdik) kita, SMP dan SD, juga ternyata belum siap," terangnya. Apalagi, tambah Budi, hingga hari ini belum ada satu sekolah pun yang mengusulkan untuk diverifikasi pihaknya agar segera melakukanpembelajarantatap muka. Baca Juga:Kemenag Sukabumi Imbau Sekolah untuk Koordinasi dengan GTPP Covid-19 Terkait Belajar Tatap Muka "Salah satu syarat melakukan belajartatap mukakan adalah diverifikasi kesiapan mereka.Nah karena belum ada yang mengusulkan untuk diverifikasi sampai hari ini, berarti di kita belum ada satu sekolahpun yang siap," tambahnya. PIKIRAN RAKYAT -Rencana Pemerintah Kota (Pemkot)Tasikmalayauntuk memulai kegiatan belajar normal aliastatap mukadi masa pandemi Covid-19 ini, pada satu September 2020 akhirnya batal dilakukan. Pasalnya, hingga kini belum ada satu sekolah pun di KotaTasikmalayayang siap menghelat KBMtatap muka. Apalagi, hasil proses verifikasi hingga kini belum ada satu sekolahpun yang siap memenuhi semua persyaratan belajartatap muka. Wali KotaTasikmalaya, Budi Budiman membenarkan hal itu. Menurut Budi, berdasarkan informasi dari KCD Pendidikan SMA dan SMK di Kota Tasik belum siap menggelar belajartatap muka. Karena harus memenuhi beberapa persyaratan. Baca Juga:Arsenal vs Liverpool di Community Shield: Tantangan Selebrasi Kedua Meriam London di Wembley "Semalam kita evaluasi bersama Gugus Tugas, termasuk membahas kesiapan belajartatap mukauntuk SMA dan SMK yang ditangani KCD Pendidikan Provinsi Jawa Barat," ujar Budi kepada wartawan, Rabu 26 Agustus 2020. Tidak hanya SMA dan SMK kata Budi, "Termasuk sekolah yang berada di bawah kewenangan Dinas Pendidikan (Disdik) kita, SMP dan SD, juga ternyata belum siap," terangnya. Apalagi, tambah Budi, hingga hari ini belum ada satu sekolah pun yang mengusulkan untuk diverifikasi pihaknya agar segera melakukanpembelajarantatap muka. Baca Juga:Kemenag Sukabumi Imbau Sekolah untuk Koordinasi dengan GTPP Covid-19 Terkait Belajar Tatap Muka "Salah satu syarat melakukan belajartatap mukakan adalah diverifikasi kesiapan mereka.Nah karena belum ada yang mengusulkan untuk diverifikasi sampai hari ini, berarti di kita belum ada satu sekolahpun yang siap," tambahnya.Maka dari itu jelas Budi, dipastikan pada awal bulan September nanti belum ada sekolah di KotaTasikmalayayang memulai belajar dengan sistemtatap mukadan masih menerapkan sistem pembelaran daring (jarak jauh). "Jadi kenyataannya memang begitu. Maka pada 1 September nanti kita pastikan semua sekolah di KotaTasikmalayabelum bisa melaksanakan pendidikantatap muka," jelasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01685034/manasix-mengajak-veteran-bernostalgia-lihat-monumen-perjuangan-dengan-keliling-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Manasix Mengajak Veteran Bernostalgia Lihat Monumen Perjuangan dengan Keliling Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C235" s="2" t="n">
-        <v>44066.71527777778</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT- Perkumpulan MantanNarapidanaTasikmalayaatau yang lebih dikenal dengan Manasix memeriahkan momen peringatan Hari Kemerdekaan Indonesia dengan cara yang berbeda. Mereka mengajak paraveterandi wilayah itu untuk keliling KotaTasikmalayamenaiki bus wisata Nguriling Kota Tasik (Ngulisik).Ketua Manasix, Asep Ugar mengatakan, kegiatan itu dilakukan didasari lantaran saat ini banyak orang yang mulai lupa dengan peran para pejuang merebut kemerdekaan Indonesia dari penjajah. Baca Juga:Tiongkok Sebut Filipina Melanggar Kedaulatan dengan Kirim Pesawat Militer ke Laut China Selatan Menurut dia, euforia perayaan peringatan Hari Kemerdekaan Indonesia saat ini lebih banyak yang diisi oleh hiburan tanpa esensi mengingat jasa para pejuang yang ada.Alhasil, paraveteranyang ada di KotaTasikmalayapun tak banyak mendapat perhatian, sekalipun pada momen 17 Agustus-an. "Karena itu, dalam momen Agustusan kali ini kita ingin mengajakveterandan orang tua keliling kotaTasikmalaya. Agar mereka bisa juga menikmati euforia momen Agustu-an. Ini sebagai kado spesial lah untuk mereka," kata Asep, 23 Agustus 2020. Baca Juga:Plt Bupati Sidoarjo Meninggal Dunia, Khofifah Sebut Tiga Nama PenggantinyaIa menambahkan, melalui kegiatan itu, Manasix sekaligus juga ingin menampilkan paraveterandi tengah masyarakat. Tujuannya, agar anak-anak muda saat ini tahu bahwa diTasikmalayaterdapat paraveteran. Ia juga ingin anak-anak muda saat ini dapat mencontoh semangat paraveteran.Menurut Asep, kegiatan tersebut adalah yang kali pertama dilakukan Manasix. Ia ingin, kegiatan mengajakveteranberkeliking kota menjadi kegiatan rutin setiap tahunnya saat momen 17 Agustus. Baca Juga:Bantu Pembelajaran Jarak Jauh Koramil di Jajaran Korem 063 SGJ Sediakan Wifi Gratis "Ke depan insyaallah menjadi kegiatan rutin. Kita juga akan melibatkan pihak lainnya agar semakin meriah," kata dia.Berdasarkan pantauan, terdapat belasanveteranyang mengikuti kegiatan itu. Selain paraveteran, sejumlah orang tua juga diajak dalam konvoi itu. "Kita denganveteranbernostalgia melihatmonumen perjuanganyang ada di KotaTasikmalaya.Pertama itu yang di Karangresik, lalu markas cikal bakal Peta di Jalan Veteran, dan tempat-tempat lainnya," ujar Asep.PIKIRAN RAKYAT- Perkumpulan MantanNarapidanaTasikmalayaatau yang lebih dikenal dengan Manasix memeriahkan momen peringatan Hari Kemerdekaan Indonesia dengan cara yang berbeda. Mereka mengajak paraveterandi wilayah itu untuk keliling KotaTasikmalayamenaiki bus wisata Nguriling Kota Tasik (Ngulisik).Ketua Manasix, Asep Ugar mengatakan, kegiatan itu dilakukan didasari lantaran saat ini banyak orang yang mulai lupa dengan peran para pejuang merebut kemerdekaan Indonesia dari penjajah. Baca Juga:Tiongkok Sebut Filipina Melanggar Kedaulatan dengan Kirim Pesawat Militer ke Laut China Selatan Menurut dia, euforia perayaan peringatan Hari Kemerdekaan Indonesia saat ini lebih banyak yang diisi oleh hiburan tanpa esensi mengingat jasa para pejuang yang ada.Alhasil, paraveteranyang ada di KotaTasikmalayapun tak banyak mendapat perhatian, sekalipun pada momen 17 Agustus-an. "Karena itu, dalam momen Agustusan kali ini kita ingin mengajakveterandan orang tua keliling kotaTasikmalaya. Agar mereka bisa juga menikmati euforia momen Agustu-an. Ini sebagai kado spesial lah untuk mereka," kata Asep, 23 Agustus 2020. Baca Juga:Plt Bupati Sidoarjo Meninggal Dunia, Khofifah Sebut Tiga Nama PenggantinyaIa menambahkan, melalui kegiatan itu, Manasix sekaligus juga ingin menampilkan paraveterandi tengah masyarakat. Tujuannya, agar anak-anak muda saat ini tahu bahwa diTasikmalayaterdapat paraveteran. Ia juga ingin anak-anak muda saat ini dapat mencontoh semangat paraveteran.Menurut Asep, kegiatan tersebut adalah yang kali pertama dilakukan Manasix. Ia ingin, kegiatan mengajakveteranberkeliking kota menjadi kegiatan rutin setiap tahunnya saat momen 17 Agustus. Baca Juga:Bantu Pembelajaran Jarak Jauh Koramil di Jajaran Korem 063 SGJ Sediakan Wifi Gratis "Ke depan insyaallah menjadi kegiatan rutin. Kita juga akan melibatkan pihak lainnya agar semakin meriah," kata dia.Berdasarkan pantauan, terdapat belasanveteranyang mengikuti kegiatan itu. Selain paraveteran, sejumlah orang tua juga diajak dalam konvoi itu. "Kita denganveteranbernostalgia melihatmonumen perjuanganyang ada di KotaTasikmalaya.Pertama itu yang di Karangresik, lalu markas cikal bakal Peta di Jalan Veteran, dan tempat-tempat lainnya," ujar Asep.Baca Juga:Efektif Tidaknya PJJ di Kota Cirebon, Hediyana : Rabu Besok Baru Akan Rapat EvaluasiKetua Legiun Veteran Republik Indonesia (LVRI)Tasikmalaya, Jojo Ruskandi mengatakan, melalui kegiatan tersebut dirinya kembali teringat ketika masa kecilnya, ketika keluarganya ikut berjuang mempertahankan kemerdekaan Indonesia yang masih baru. Ia berkisah, ketika usianya masih 10 tahun, dirinya harus ikut merasakan perjuangan mempertahankan kemerdekaan. Meski tak ikut langsung angkat senjata, tapi ia tahu rasanya hidup dalam ketegangan militer."Saya waktu 10 tahun ikut orang tua yang menjadi laskar rakyat. Saya juga dulu mengungsi karena Belanda sudah masukTasikmalaya," kata lelaki yang pensiun dari militer dengan pangkat Kapten itu. Baca Juga:Link Pengumuman UNPAD: Hasil Seleksi Ujian Mandiri Bisa Dilihat Hari IniMenurut dia, dahulu para pejuang ikut angkat senjata tanpa memikirkan upah. Mereka berkorban harta, bahkan nyawa untuk mempertahankan Indonesia yang merdeka.Setelah kita merdeka, ia mengatakan, keinginan para pejuang adalah generasi selanjutnya terus melanjutkan perjuangan, dengan pembangunan. Sebab, kemerdekaan tak akan berarti apapun tanpa adanya pembangunan untuk rakyat.Selain itu, ia mengingatkan generasi saat ini juga tak boleh sampai melupakan sejarah. "Kita saat ini bisa sebebas sekarang atas perjuangan pejuang. Tolong hargai para pejuang itu," kata dia. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01678927/viral-petugas-kamar-mayat-rsud-dr-soekardjo-keluhkan-insentif-tak-cair-ini-dalih-manajemen-rs</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Viral Petugas Kamar Mayat RSUD dr Soekardjo Keluhkan Insentif Tak Cair, Ini Dalih Manajemen RS</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="n">
-        <v>44063.55763888889</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Adanya curahan hati para pekerja petugas instalasi pemulasaraan jenazahnyaRSUD dr Soekardjo, yang meminta upah dan insentifnya segera dicairkan, langsung mendapatkan tanggapan. Pihak manajemenRSUD dr SoekardjoTasikmalayaberdalih, danainsentifcovid-19 bagi para petugas instalasi pemulasaraan jenazah dari Kementerian Kesehatan RI tak kunjung cair.Padahal, secara keseluruhan oleh pihak rumah sakit pengajuan dokumen pencairaninsentifbagi tenaga medis dan nonmedis, termasuk bagi petugaskamar mayattelah diajukan. Baca Juga:Terbang Selama 25 Tahun, Pesawat Karya ke-3 B.J Habibie Diistirahatkan di Museum TNI AU Yogyakarta Namun, anggaran yang cair dari pusat selama ini hanyainsentifbagi para perawat saja dan tidak ada alokasi pencairan buat petugas pemulsaraan jenazah covid-19."Kalau dari anggaran PemkotTasikmalayauntuk covid-19 memang adainsentifper jenazah untuk petugas pemulasaraan jenazah tapi diluar tim dari RSUD," jelas Wakil Direktur RSUD Soekardjo KotaTasikmalaya, Deni Diyana, Kamis, 20 Agustus 2020 siang.Namun selama ini kata Deni, selama ini memang hampir seluruhnya pengurusan jenazah covid-19 oleh tim dari RSUD. "Bahkan, jenazah covid-19 asal KabupatenTasikmalayajuga sering diprosesnya oleh tim dari kami," katanya. Baca Juga:PSG vs Bayern Munchen Final Liga Champions: Begini Rencana Hansi Flick Hadapi Les ParisiensDeni menambahkan, selama ini pihaknya terus mengupayakan pencairan danainsentifbagi para petugas pemulasaraan jenazah meski dari Kemenkes tidak cair. Salah satunya, mencari pos alokasi anggaran lainnya yang dimungkinkan bisa dialihkan untuk pembayaraninsentif.Hanya saja ujar dia, selama ini pihak manajemen rumah sakit masih kebingungan pos alokasi anggaran covid-19 yang mana yang bisa dialihkan. "Dari pusat memang tidak ada buat tim pemulsaraan jenazah. Hanya ada cairinsentifuntuk perawat saja," tambahnya. Baca Juga:Hubungan dengan India Memanas, Tiongkok Kirim Jet Tempur Siluman ke Wilayah Perbatasan HimalayaDeni juga mengaku, selama ini belum mengetahui berapa jumlahinsentifyang akan dibayarkan untuk mereka nantinya. Akan tetapi ujar dia, pihaknya akan terus berupaya memberikan intensif yang layak bagi petugas pemulasaraan jenazah. Apalagi ujar dia, mereka selama ini merupakan petugas garda terdepan yang memiliki risiko tinggi karena langsung kontak dengan pasien covid-19."Kita juga bingung kenapa dari pusat tidak keluar (cair) buat mereka. Seharusnya ada sharing segera antara pusat dengan PemkotTasikmalayasolusi untuk mereka," ujar dia.lanjut Deni, pihaknya berharap kepada Kementerian Kesehatan RI,  untuk tidak memandang sebelah mata para petugas pemulsaraan jenazah. Mereka sejatinya adalah petugas utama selama ini dalam memerangi pandemi corona di tiap-tiap daerahnya. Baca Juga:Pepet Rusia, AS Bocorkan Informasi Mengenai Tiongkok yang Diduga Miliki Gudang Senjata Nuklir"Itu kekecewaan mereka, saya paham. Kita manajemen bukan hanya memprioritaskan petugas medis saja, petugas pemulasaraan jenazah harus juga diperhatikan bahkan diprioritaskan oleh pemerintah pusat," katanya.Diberitakan sebelumnya, Timkamar mayatRSUD Seokardjo KotaTasikmalayamendadak viral karena mereka memakai hazmat atau alat pelindung diri (APD) bertuliskan kerja tanpa upah saat memproses pemulasaraan jenazah di ruang khusus covid-19, Kamis, 20 Agustus 2020 dini hari tadi.Mereka kompak menuliskan kata-kata protes di pakaian bagian punggungnya karena selama ini pembayaraninsentifkhusus covid-19 bagi mereka tak kunjung cair. Para petugas pemulasaraan jenazah itu sengaja menuliskan protes haknya belum cair saat mengurus mayat covid-19 karena sedang diliput oleh para awak media.***PIKIRAN RAKYAT -Adanya curahan hati para pekerja petugas instalasi pemulasaraan jenazahnyaRSUD dr Soekardjo, yang meminta upah dan insentifnya segera dicairkan, langsung mendapatkan tanggapan. Pihak manajemenRSUD dr SoekardjoTasikmalayaberdalih, danainsentifcovid-19 bagi para petugas instalasi pemulasaraan jenazah dari Kementerian Kesehatan RI tak kunjung cair.Padahal, secara keseluruhan oleh pihak rumah sakit pengajuan dokumen pencairaninsentifbagi tenaga medis dan nonmedis, termasuk bagi petugaskamar mayattelah diajukan. Baca Juga:Terbang Selama 25 Tahun, Pesawat Karya ke-3 B.J Habibie Diistirahatkan di Museum TNI AU Yogyakarta Namun, anggaran yang cair dari pusat selama ini hanyainsentifbagi para perawat saja dan tidak ada alokasi pencairan buat petugas pemulsaraan jenazah covid-19."Kalau dari anggaran PemkotTasikmalayauntuk covid-19 memang adainsentifper jenazah untuk petugas pemulasaraan jenazah tapi diluar tim dari RSUD," jelas Wakil Direktur RSUD Soekardjo KotaTasikmalaya, Deni Diyana, Kamis, 20 Agustus 2020 siang.Namun selama ini kata Deni, selama ini memang hampir seluruhnya pengurusan jenazah covid-19 oleh tim dari RSUD. "Bahkan, jenazah covid-19 asal KabupatenTasikmalayajuga sering diprosesnya oleh tim dari kami," katanya. Baca Juga:PSG vs Bayern Munchen Final Liga Champions: Begini Rencana Hansi Flick Hadapi Les ParisiensDeni menambahkan, selama ini pihaknya terus mengupayakan pencairan danainsentifbagi para petugas pemulasaraan jenazah meski dari Kemenkes tidak cair. Salah satunya, mencari pos alokasi anggaran lainnya yang dimungkinkan bisa dialihkan untuk pembayaraninsentif.Hanya saja ujar dia, selama ini pihak manajemen rumah sakit masih kebingungan pos alokasi anggaran covid-19 yang mana yang bisa dialihkan. "Dari pusat memang tidak ada buat tim pemulsaraan jenazah. Hanya ada cairinsentifuntuk perawat saja," tambahnya. Baca Juga:Hubungan dengan India Memanas, Tiongkok Kirim Jet Tempur Siluman ke Wilayah Perbatasan HimalayaDeni juga mengaku, selama ini belum mengetahui berapa jumlahinsentifyang akan dibayarkan untuk mereka nantinya. Akan tetapi ujar dia, pihaknya akan terus berupaya memberikan intensif yang layak bagi petugas pemulasaraan jenazah. Apalagi ujar dia, mereka selama ini merupakan petugas garda terdepan yang memiliki risiko tinggi karena langsung kontak dengan pasien covid-19."Kita juga bingung kenapa dari pusat tidak keluar (cair) buat mereka. Seharusnya ada sharing segera antara pusat dengan PemkotTasikmalayasolusi untuk mereka," ujar dia.lanjut Deni, pihaknya berharap kepada Kementerian Kesehatan RI,  untuk tidak memandang sebelah mata para petugas pemulsaraan jenazah. Mereka sejatinya adalah petugas utama selama ini dalam memerangi pandemi corona di tiap-tiap daerahnya. Baca Juga:Pepet Rusia, AS Bocorkan Informasi Mengenai Tiongkok yang Diduga Miliki Gudang Senjata Nuklir"Itu kekecewaan mereka, saya paham. Kita manajemen bukan hanya memprioritaskan petugas medis saja, petugas pemulasaraan jenazah harus juga diperhatikan bahkan diprioritaskan oleh pemerintah pusat," katanya.Diberitakan sebelumnya, Timkamar mayatRSUD Seokardjo KotaTasikmalayamendadak viral karena mereka memakai hazmat atau alat pelindung diri (APD) bertuliskan kerja tanpa upah saat memproses pemulasaraan jenazah di ruang khusus covid-19, Kamis, 20 Agustus 2020 dini hari tadi.Mereka kompak menuliskan kata-kata protes di pakaian bagian punggungnya karena selama ini pembayaraninsentifkhusus covid-19 bagi mereka tak kunjung cair. Para petugas pemulasaraan jenazah itu sengaja menuliskan protes haknya belum cair saat mengurus mayat covid-19 karena sedang diliput oleh para awak media.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01678321/hanya-10-sekolah-setingkat-sma-di-kota-tasikmalaya-yang-siap-melakukan-kbm-tatap-muka</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Hanya 10 Sekolah Setingkat SMA di Kota Tasikmalaya yang Siap Melakukan KBM Tatap Muka</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="n">
-        <v>44063.34097222222</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Sebanyak 10 tingkatSMA/SMKdi wilayah kerja Kantor Cabang Dinas (KCD) Wilayah XII Tasikmalaya direncanakan akan melakukan kegiatan belajar mengajar (KBM) tatap muka mulai awal September 2020. "Kalau semua persiapannya sudah selesai sesuai jadwal, maka awal September 2020 nanti 10sekolahitu sudah bisa melaksanakan KBM tatap muka," ujar Pengawas dariKCDWilayah XII Tasikmalaya, Dadang AP, Kamis 18 Agustus 2020. Dadang menegaskan, hingga saat ini belum adaSMAmaupunSMKbaik negeri maupun swasta di wilayahKCDXII yang sudah melaksanakan KMB tatap muka. Baca Juga:Refleksi 75 Tahun Provinsi Jawa Barat "Tidak ada yang berani buka. Semua menunggu instruksiKCD. Kalau pun buka hanya 10sekolah. Itu pun nanti awal September jika persiapannya sudah selesai seratus persen," ujar Dadang. Sikap kehati-hatianKCD, lanjut Dadang, beralasan karena hal ini menyangkut keselamatan ribuan siswa dari paparanCovid-19. Adapun Ke-10sekolahyang direncanakan akan melaksanakan KBM tatap muka awal September 2020, yakni SMAN 1 Singaparna, SMAN 1 Karangnunggal, SMAN 1 Ciawi, SMAN Taraju, SMAN 1 Cineam,SMATunas Nusantara,SMAAl Mukrom, SMKN 1 Tasikmalaya, SMKN SPP Tasikmalaya dan SMAN 2 Tasikmalaya. Baca Juga:Mazda Jualan Mobil Secara Online, Tawarkan Promo Beli Sekarang Bayar Tahun Depan "Semuasekolahlanjutan tingkat atas ini berada di zona hijau. Persiapannya hingga kini masih terus berlangsung, termasuk melakukan swab test terhadap para guru yang akan mengajar, dengan usia dibatasi 45 tahun," kata Dadang.*** PIKIRAN RAKYAT -Sebanyak 10 tingkatSMA/SMKdi wilayah kerja Kantor Cabang Dinas (KCD) Wilayah XII Tasikmalaya direncanakan akan melakukan kegiatan belajar mengajar (KBM) tatap muka mulai awal September 2020. "Kalau semua persiapannya sudah selesai sesuai jadwal, maka awal September 2020 nanti 10sekolahitu sudah bisa melaksanakan KBM tatap muka," ujar Pengawas dariKCDWilayah XII Tasikmalaya, Dadang AP, Kamis 18 Agustus 2020. Dadang menegaskan, hingga saat ini belum adaSMAmaupunSMKbaik negeri maupun swasta di wilayahKCDXII yang sudah melaksanakan KMB tatap muka. Baca Juga:Refleksi 75 Tahun Provinsi Jawa Barat "Tidak ada yang berani buka. Semua menunggu instruksiKCD. Kalau pun buka hanya 10sekolah. Itu pun nanti awal September jika persiapannya sudah selesai seratus persen," ujar Dadang. Sikap kehati-hatianKCD, lanjut Dadang, beralasan karena hal ini menyangkut keselamatan ribuan siswa dari paparanCovid-19. Adapun Ke-10sekolahyang direncanakan akan melaksanakan KBM tatap muka awal September 2020, yakni SMAN 1 Singaparna, SMAN 1 Karangnunggal, SMAN 1 Ciawi, SMAN Taraju, SMAN 1 Cineam,SMATunas Nusantara,SMAAl Mukrom, SMKN 1 Tasikmalaya, SMKN SPP Tasikmalaya dan SMAN 2 Tasikmalaya. Baca Juga:Mazda Jualan Mobil Secara Online, Tawarkan Promo Beli Sekarang Bayar Tahun Depan "Semuasekolahlanjutan tingkat atas ini berada di zona hijau. Persiapannya hingga kini masih terus berlangsung, termasuk melakukan swab test terhadap para guru yang akan mengajar, dengan usia dibatasi 45 tahun," kata Dadang.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01677795/wali-kota-tasikmalaya-jika-merasa-sehat-guru-tidak-wajib-rapid-test</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Wali Kota Tasikmalaya: Jika Merasa Sehat, Guru Tidak Wajib Rapid Test</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="n">
-        <v>44062.86111111111</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Pemerintah Kota Tasikmalaya tidak mewajibkan setiap guru untuk melakukanrapid testterkait akan dilaksanakannya Kegiatan Belajar Mengajar (KBM) tatap muka asal dalam keadaan sehat.Pernyataan tersebut disampaikan langsung Wali Kota Tasikmalaya yang juga Ketua Gugus Tugas Percepatan Penanganan Covid -19Budi Budiman, Rabu, 19 Agustus 2020.Dikatakan Budi, pihaknya terus mempersiapkan secara matang mengenai rencana pembukaan pembelajaran tatap muka yang akan mulai dilaksanakan pada 1 September 2020 mendatang. Baca Juga:Mocca Obati Rindu dengan Virtual Secret Show, Begini Cara Dapatkan TiketnyaLanjut Budi, rencana pembukaan pembelajaran tatap muka terus dipersiapkan bahkan saat ini pihaknya terus melaksanakan assesment. "Pembukaan itu tidak begitu saja, akan tetapi dengan segala persyaratan yang harus ditempuh terutama dalam hal penerapan Protokol kesehatan saat proses pembelajaran tatap muka nanti," katanya.Persyaratan lain ujar Budi,  dalam pelaksanaan pembelajaran tatap muka nanti harus ada surat penyataan dari masing-masing sekolah mengenai kesiapan penerapan protokol kesehatan. Baca Juga:Pawai Tahun Baru Islam di Ciamis Dibolehkan, Bupati Sampaikan Sejumlah Syarat "Itu nanti akan dicek oleh tim mengenai kesiapan itu," kata dia.Sehingga kata dia, pada pelaksanan pembelajarannya nanti, guru dan siswa harus betul-betul sehat dengan menerapkan protokol kesehatan. "Termasuk siswa yang boleh belajar itu hanya 50 persen dari kapasitas kelas, itu bisa dilaksanakan secara bergilir," katanya. Baca Juga:Mappilu PWI Resmi Dibentuk, Suprapto: Wujudkan Pemilu Berkualitas dan BermartabatDi samping itu, guru yang boleh memberikan pembelajaran guru yang sehat dan tidak memiliki riwayat penyakit penyerta. "Itu sangat penting termasuk jam pelajaran diperpendek hanya empat jam dan tidak ada istirahat termasuk tidak ada kantin yang buka," kata dia.Menurut Budi, pada pelaksanan pembelajaran tatap muka yang direncanakan pada 1 September mendatang tidak semua sekolah melaksanakannya. Sekolah yang bisa membuka pembelajaran tatap muka itu sekolah yang memang betul-betul siap dalam penerapan protokol kesehatan. "Yang tidak siap itu, ya sudah tidak oleh melaksanakannya," ujar Budi.Saat ditanya mengenai, salah satu syarat guru harus melaksanakan rapid tes, sayarat itu tidak diwajibkan asalkan guru betul-betul sehat.PIKIRAN RAKYAT -Pemerintah Kota Tasikmalaya tidak mewajibkan setiap guru untuk melakukanrapid testterkait akan dilaksanakannya Kegiatan Belajar Mengajar (KBM) tatap muka asal dalam keadaan sehat.Pernyataan tersebut disampaikan langsung Wali Kota Tasikmalaya yang juga Ketua Gugus Tugas Percepatan Penanganan Covid -19Budi Budiman, Rabu, 19 Agustus 2020.Dikatakan Budi, pihaknya terus mempersiapkan secara matang mengenai rencana pembukaan pembelajaran tatap muka yang akan mulai dilaksanakan pada 1 September 2020 mendatang. Baca Juga:Mocca Obati Rindu dengan Virtual Secret Show, Begini Cara Dapatkan TiketnyaLanjut Budi, rencana pembukaan pembelajaran tatap muka terus dipersiapkan bahkan saat ini pihaknya terus melaksanakan assesment. "Pembukaan itu tidak begitu saja, akan tetapi dengan segala persyaratan yang harus ditempuh terutama dalam hal penerapan Protokol kesehatan saat proses pembelajaran tatap muka nanti," katanya.Persyaratan lain ujar Budi,  dalam pelaksanaan pembelajaran tatap muka nanti harus ada surat penyataan dari masing-masing sekolah mengenai kesiapan penerapan protokol kesehatan. Baca Juga:Pawai Tahun Baru Islam di Ciamis Dibolehkan, Bupati Sampaikan Sejumlah Syarat "Itu nanti akan dicek oleh tim mengenai kesiapan itu," kata dia.Sehingga kata dia, pada pelaksanan pembelajarannya nanti, guru dan siswa harus betul-betul sehat dengan menerapkan protokol kesehatan. "Termasuk siswa yang boleh belajar itu hanya 50 persen dari kapasitas kelas, itu bisa dilaksanakan secara bergilir," katanya. Baca Juga:Mappilu PWI Resmi Dibentuk, Suprapto: Wujudkan Pemilu Berkualitas dan BermartabatDi samping itu, guru yang boleh memberikan pembelajaran guru yang sehat dan tidak memiliki riwayat penyakit penyerta. "Itu sangat penting termasuk jam pelajaran diperpendek hanya empat jam dan tidak ada istirahat termasuk tidak ada kantin yang buka," kata dia.Menurut Budi, pada pelaksanan pembelajaran tatap muka yang direncanakan pada 1 September mendatang tidak semua sekolah melaksanakannya. Sekolah yang bisa membuka pembelajaran tatap muka itu sekolah yang memang betul-betul siap dalam penerapan protokol kesehatan. "Yang tidak siap itu, ya sudah tidak oleh melaksanakannya," ujar Budi.Saat ditanya mengenai, salah satu syarat guru harus melaksanakan rapid tes, sayarat itu tidak diwajibkan asalkan guru betul-betul sehat."Itu tidak wajib, asalkan guru betul-betul sehat. Karena itu akan sangat memberatkan sekolah. Yang pentingnya disini yakni penerapan protokol kesehatan ketat," kata dia.Sementar Kepala Dinas Pendidikan Budiaman Sanusi mengatakan, bagi guru yang udianya di latas 45 tahun, akan disesuaikan dengan kondisi kesehatan. Kalau memang guru usia 45 tahun sehat, ya tetap bisa melaksanakan KBM tatap muka. Kalau pun tidak bisa melaksanakan pembelajaran tatap muka, yang bersangkutan bisa memberikan tugas atau pembelajaran daring, untuk sementara sekekemanya seperti itu," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/pendidikan/pr-01675414/pemkot-tasikmalaya-permudah-persyaratan-sekolah-untuk-belajar-tatap-muka-kadisdik-ungkap-alasannya</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Pemkot Tasikmalaya Permudah Persyaratan Sekolah untuk Belajar Tatap Muka, Kadisdik Ungkap Alasannya</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="n">
-        <v>44061.72708333333</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Agar tidak terbebani persyaratan, Pemerintah Kota (Pemkot) Tasikmalaya akan mempermudah sejumlah persyaratan untuksekolahagar bisa menggelar kegaiatan belajar (KBM) secara tatap muka. Kepala Dinas Pendidikan Kota Tasikmalaya, Budiaman Sanusi mengatakan, sampai saat ini Pemkot Tasikmalaya masih terus mematangkan teknis agarsekolahdapat kembali menggelar KBM tatap muka. Aturan teknis itu nantinya akan disosialisasikan ke setiapsekolahagar mempersiapkan diri, terutama terkait sarana dan prasarana protokol kesehatan. Baca Juga:Setelah Microsoft, Oracle Nyatakan Tertarik dan Serius Beli Operasi TikTok di AS "Kalau persiapan sudah selesai, insyaallah September akan mulai KBM. Yang butuh waktu itu adalah proses pengecekansekolah. Sekolah mengajukan, kita verifikasi," kata dia, Selasa, 18 Agustus 2020.Dalam melakukan verifikasi kesiapansekolah, Dinas Pendidikan juga akan melibatkan Gugus Tugas Covid-19. Artinya, verifikasi akan dilakukan secara hati-hati.  Kita akan melibatkan gugus tugas hingga tingkat kelurahan. Hanyasekolahyang memenuhi syarat, yang dapat diizinkan kembali menggelar KBM tatap muka. Baca Juga:Pemerintah Rencanakan Salurkan Insentif untuk Membeli Produk Pendidikan Vokasi pada 2021Kendati demikian, Budiaman mengatakan, Pemkot Tasikmalaya akan mempermudah sejumlah syarat untuksekolahyang ingin menggelar KBM tatap muka. Ia mencontohkan, syarat yang akan dipermudah adalah terkait uji usap (swab test) kepada para tenaga pengajar. "Kalau (aturan) dari provinsi kan harus diswab, tapi kita hanya akan rapid test," kata dia.Pelonggaran syarat itu diberikan agarsekolahtak terbebani. Dinas Pendidikan juga telah berkoordinasi dengan Dinas Kesehatan Kota Tasikmalaya untuk melakukan rapid test kepada para guru. Baca Juga:Ungkap Perjuangan Ani Yudhoyono Lahirkan AHY, SBY: Air Ketubannya Pecah di Kendaraan MiliterMenurut Budiaman, Dinas Kesehatan Kota Tasikmalaya telah menyanggupi untuk melakukan rapid test kepada para guru. "Kita juga akan mengajukan ke provinsi agar bisa dibantu," kata dia.Selain itu, pelonggaran aturan juga akan diberikan terkait usia maksimal guru yang dapat mengajar. Berdasarkan aturan dari Dinas Pendidikan Jawa Barat (Jabar), hanya guru berusia di bawah 45 tahun yang boleh mengajar KBM tatap muka di masa pandemi Covid-19. Namun, Pemkot Tasikmalaya akan memberikan toleransi.Budiaman mengatakan, jika aturan itu diberlakukan secara mutlak, akan banyak guru di Tasikmalaya yang tak bisa mengajar. "Syaratnya kita permudah. Tak harus di bawah 45 tahun, asal guru itu sehat," kata dia. Baca Juga:'Positivity Rate' di Sumbar Naik 2-3 Persen, dr. Andani: akan Berkontribusi Terhadap KematianDiwawancara terpisah, Kepala Dinas Kesehatan Kota Tasikmalaya, Uus Supangat mengingatkan, dalam proses KBM tatap muka yang nantinya akan dilaksanakan, protokol kesehatan harus dijaga secara ketat. Sekolah juga harus memperhatikan daya tampung dan zona di wilayahnya masing-masing."Kita tak ingin tidak terjadi paparan baru terkait Covid-19 disekolah. Namun tetap ada potensi. Intinya, protokol kesehatan harus dilakukan secara konsisten," kata dia.Ihwal pengecekan kesehatan kepada para tenaga pengajar, Dinas Kesehatan merekomendasi para guru hanya menjalani rapid test. Sebab, untuk melakukan tes swab kepada seluruh guru diperlukan waktu yang lama dan biaya yang besar.***PIKIRAN RAKYAT –Agar tidak terbebani persyaratan, Pemerintah Kota (Pemkot) Tasikmalaya akan mempermudah sejumlah persyaratan untuksekolahagar bisa menggelar kegaiatan belajar (KBM) secara tatap muka. Kepala Dinas Pendidikan Kota Tasikmalaya, Budiaman Sanusi mengatakan, sampai saat ini Pemkot Tasikmalaya masih terus mematangkan teknis agarsekolahdapat kembali menggelar KBM tatap muka. Aturan teknis itu nantinya akan disosialisasikan ke setiapsekolahagar mempersiapkan diri, terutama terkait sarana dan prasarana protokol kesehatan. Baca Juga:Setelah Microsoft, Oracle Nyatakan Tertarik dan Serius Beli Operasi TikTok di AS "Kalau persiapan sudah selesai, insyaallah September akan mulai KBM. Yang butuh waktu itu adalah proses pengecekansekolah. Sekolah mengajukan, kita verifikasi," kata dia, Selasa, 18 Agustus 2020.Dalam melakukan verifikasi kesiapansekolah, Dinas Pendidikan juga akan melibatkan Gugus Tugas Covid-19. Artinya, verifikasi akan dilakukan secara hati-hati.  Kita akan melibatkan gugus tugas hingga tingkat kelurahan. Hanyasekolahyang memenuhi syarat, yang dapat diizinkan kembali menggelar KBM tatap muka. Baca Juga:Pemerintah Rencanakan Salurkan Insentif untuk Membeli Produk Pendidikan Vokasi pada 2021Kendati demikian, Budiaman mengatakan, Pemkot Tasikmalaya akan mempermudah sejumlah syarat untuksekolahyang ingin menggelar KBM tatap muka. Ia mencontohkan, syarat yang akan dipermudah adalah terkait uji usap (swab test) kepada para tenaga pengajar. "Kalau (aturan) dari provinsi kan harus diswab, tapi kita hanya akan rapid test," kata dia.Pelonggaran syarat itu diberikan agarsekolahtak terbebani. Dinas Pendidikan juga telah berkoordinasi dengan Dinas Kesehatan Kota Tasikmalaya untuk melakukan rapid test kepada para guru. Baca Juga:Ungkap Perjuangan Ani Yudhoyono Lahirkan AHY, SBY: Air Ketubannya Pecah di Kendaraan MiliterMenurut Budiaman, Dinas Kesehatan Kota Tasikmalaya telah menyanggupi untuk melakukan rapid test kepada para guru. "Kita juga akan mengajukan ke provinsi agar bisa dibantu," kata dia.Selain itu, pelonggaran aturan juga akan diberikan terkait usia maksimal guru yang dapat mengajar. Berdasarkan aturan dari Dinas Pendidikan Jawa Barat (Jabar), hanya guru berusia di bawah 45 tahun yang boleh mengajar KBM tatap muka di masa pandemi Covid-19. Namun, Pemkot Tasikmalaya akan memberikan toleransi.Budiaman mengatakan, jika aturan itu diberlakukan secara mutlak, akan banyak guru di Tasikmalaya yang tak bisa mengajar. "Syaratnya kita permudah. Tak harus di bawah 45 tahun, asal guru itu sehat," kata dia. Baca Juga:'Positivity Rate' di Sumbar Naik 2-3 Persen, dr. Andani: akan Berkontribusi Terhadap KematianDiwawancara terpisah, Kepala Dinas Kesehatan Kota Tasikmalaya, Uus Supangat mengingatkan, dalam proses KBM tatap muka yang nantinya akan dilaksanakan, protokol kesehatan harus dijaga secara ketat. Sekolah juga harus memperhatikan daya tampung dan zona di wilayahnya masing-masing."Kita tak ingin tidak terjadi paparan baru terkait Covid-19 disekolah. Namun tetap ada potensi. Intinya, protokol kesehatan harus dilakukan secara konsisten," kata dia.Ihwal pengecekan kesehatan kepada para tenaga pengajar, Dinas Kesehatan merekomendasi para guru hanya menjalani rapid test. Sebab, untuk melakukan tes swab kepada seluruh guru diperlukan waktu yang lama dan biaya yang besar.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01675251/setoran-retribusi-parkir-naik-dua-kali-lipat-ratusan-petugas-di-kota-tasikmalaya-mengeluh</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Setoran Retribusi Parkir Naik Dua Kali Lipat, Ratusan Petugas di Kota Tasikmalaya Mengeluh</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="n">
-        <v>44061.66736111111</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Sejumlah petugasparkirdiKota Tasikmalayamengeluhkan naiknya  setoranretribusiparkiroleh Unit Pelakdana Teknis Dinas (UPTD)parkir, hingga mencapai dua kali lipat mulai Senin, 18 Agustus 2020.Sebelumnya petugas pengelolaparkirdiKota Tasikmalayadibebankan setoran sebesar Rp550.000 per bulan. Sejak kenaikan tersebut, beban setoranparkiroleh pengelolaparkirmenjadi Rp1.100.000 per bulan. Baca Juga:Intensitas Latihan Persib Semakin Meningkat, Geoffrey Castillion Belum BergabungKenaikanretribusipelayananparkirtersebut tertuang di dalam peraturan WaliKota Tasikmalayanomer 1 tahun 2020, tentang perubahan tarifretribusipelayanan di tepi jalan umum.Dengan kenaikanretribusiparkirtersebut, para petugasparkirdi Kota Tasikalaya mengaku tidak sanggup lagi untuk memenuhi setoran. Apalagi saat ini masih dalam masa pandemi Covid -19 di mana jumlah pengguna jasaparkirjauh mengalami penurunan dibanding sebelum masa pandemi. Baca Juga:Soroti Seruan AS Larang TikTok, Asia Tenggara Dikabarkan Was-was terhadap Keputusan Trump"Sepinya pengguna jasaparkirsemasapandemi Covid-19masih dirasakan sampai sekarang. Untuk bisa mengejar setoran sudah susah  apalagi untuk dibawa ke rumah guna kebutuhan makan sehari hari seperti membeli beras dan kebutuhan lauk pauk," ujar salah seorang petugasparkiryang tidak bersedia disebutkan namanya, Selasa, 18 Agustus 2020 siang.Apalagi ujar dia, sekarang  setoran naik hampir dua kali lipat setelah pemerintah melalui UPTD Pengelola Parkir mengharuskan pengelola atau petugasparkirsetor Rp 1.100.000  perbulan  atau naik hampir dua kali lipat dari sebelumnya yang hanya Rp 550.000 per bulan.Dia menerangkan, berkurangnya kendaraan yangparkirdi tepi jalan saat masapandemi Covid-19berdampak pada penghasilan harian mereka. Apalagi sekolah sekolah masih tutup sehingga jumlah kendaraan yangparkirsangat minim. Baca Juga:Seru dan Bertabur Hadiah, Yuk Daftar bjb Cycling DigiCash V-Ride Series 2 "Sekarang saja baru mendapat Rp 5.000, bagaimana untuk setor dan ke rumah. Kami hanya mengandalkan parkiran kendaraan di lokasi pedagang yang buka," terangnya.Dikonfirmasi terpisah, Kepala UPTD Pengelola Parkir Dishub Kota Tasik, Hamzah Diningrat menuturkan, kenaikan setoran itu tidak diberlakukan secara merata untuk semua lokasiparkir. Sehingga ada yang nilai kenaikannya sesuai ketentuan dan ada juga yang naiknya cuman sedikit disesuaikan dengan lokasi.Hamzah mengatakan, sebelum membuat sebuah keputusan termasuk menentukan targetparkir, pihaknya telah melakukan uji petik dulu secara diam-diam tanpa diketahui petugasparkir." Setiap keputusan kita lakukan melalui berbagai pengkajian dan uji petik dilapangan," katanya. Baca Juga:Playoff Wilayah Timur NBA, Denver Nuggets Raih Kemenangan Libas Utah JazzMaka, tambah dia, setelah dilakukan uji petik, hasilnya akan muncul kesimpulan termasuk masalah angka yang selanjutnya dijadikan bahan untuk mengambil sebuah kebijakan. Penentuan kenaikan tarifparkirujar Hamzah masih ada ruang komunikasi alias masih bisa didiskusikan."Itu pun masih ada ruang untuk komunikasi. Karena tarifparkiritu bukan harga BBM dan kalau diumumkan hari itu tanggal itu per jam sekian harus segitu. Tapi kita juga tetap mengedepankan sisi kemanusiaan. Tak saklek harus langsung segitu," tambahnya.Sehingga ujar dia, muncul angka kenaikan setoran bulanan dariparkiryang berbeda-beda di tiap lokasi. "Ada ruang komunikasi untuk naik turun. Saya kira petugasparkirlebih paham soal ini," jelasnya.***PIKIRAN RAKYAT –Sejumlah petugasparkirdiKota Tasikmalayamengeluhkan naiknya  setoranretribusiparkiroleh Unit Pelakdana Teknis Dinas (UPTD)parkir, hingga mencapai dua kali lipat mulai Senin, 18 Agustus 2020.Sebelumnya petugas pengelolaparkirdiKota Tasikmalayadibebankan setoran sebesar Rp550.000 per bulan. Sejak kenaikan tersebut, beban setoranparkiroleh pengelolaparkirmenjadi Rp1.100.000 per bulan. Baca Juga:Intensitas Latihan Persib Semakin Meningkat, Geoffrey Castillion Belum BergabungKenaikanretribusipelayananparkirtersebut tertuang di dalam peraturan WaliKota Tasikmalayanomer 1 tahun 2020, tentang perubahan tarifretribusipelayanan di tepi jalan umum.Dengan kenaikanretribusiparkirtersebut, para petugasparkirdi Kota Tasikalaya mengaku tidak sanggup lagi untuk memenuhi setoran. Apalagi saat ini masih dalam masa pandemi Covid -19 di mana jumlah pengguna jasaparkirjauh mengalami penurunan dibanding sebelum masa pandemi. Baca Juga:Soroti Seruan AS Larang TikTok, Asia Tenggara Dikabarkan Was-was terhadap Keputusan Trump"Sepinya pengguna jasaparkirsemasapandemi Covid-19masih dirasakan sampai sekarang. Untuk bisa mengejar setoran sudah susah  apalagi untuk dibawa ke rumah guna kebutuhan makan sehari hari seperti membeli beras dan kebutuhan lauk pauk," ujar salah seorang petugasparkiryang tidak bersedia disebutkan namanya, Selasa, 18 Agustus 2020 siang.Apalagi ujar dia, sekarang  setoran naik hampir dua kali lipat setelah pemerintah melalui UPTD Pengelola Parkir mengharuskan pengelola atau petugasparkirsetor Rp 1.100.000  perbulan  atau naik hampir dua kali lipat dari sebelumnya yang hanya Rp 550.000 per bulan.Dia menerangkan, berkurangnya kendaraan yangparkirdi tepi jalan saat masapandemi Covid-19berdampak pada penghasilan harian mereka. Apalagi sekolah sekolah masih tutup sehingga jumlah kendaraan yangparkirsangat minim. Baca Juga:Seru dan Bertabur Hadiah, Yuk Daftar bjb Cycling DigiCash V-Ride Series 2 "Sekarang saja baru mendapat Rp 5.000, bagaimana untuk setor dan ke rumah. Kami hanya mengandalkan parkiran kendaraan di lokasi pedagang yang buka," terangnya.Dikonfirmasi terpisah, Kepala UPTD Pengelola Parkir Dishub Kota Tasik, Hamzah Diningrat menuturkan, kenaikan setoran itu tidak diberlakukan secara merata untuk semua lokasiparkir. Sehingga ada yang nilai kenaikannya sesuai ketentuan dan ada juga yang naiknya cuman sedikit disesuaikan dengan lokasi.Hamzah mengatakan, sebelum membuat sebuah keputusan termasuk menentukan targetparkir, pihaknya telah melakukan uji petik dulu secara diam-diam tanpa diketahui petugasparkir." Setiap keputusan kita lakukan melalui berbagai pengkajian dan uji petik dilapangan," katanya. Baca Juga:Playoff Wilayah Timur NBA, Denver Nuggets Raih Kemenangan Libas Utah JazzMaka, tambah dia, setelah dilakukan uji petik, hasilnya akan muncul kesimpulan termasuk masalah angka yang selanjutnya dijadikan bahan untuk mengambil sebuah kebijakan. Penentuan kenaikan tarifparkirujar Hamzah masih ada ruang komunikasi alias masih bisa didiskusikan."Itu pun masih ada ruang untuk komunikasi. Karena tarifparkiritu bukan harga BBM dan kalau diumumkan hari itu tanggal itu per jam sekian harus segitu. Tapi kita juga tetap mengedepankan sisi kemanusiaan. Tak saklek harus langsung segitu," tambahnya.Sehingga ujar dia, muncul angka kenaikan setoran bulanan dariparkiryang berbeda-beda di tiap lokasi. "Ada ruang komunikasi untuk naik turun. Saya kira petugasparkirlebih paham soal ini," jelasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01668536/kpaid-kota-tasikmalaya-menilai-pembelajaran-tatap-muka-di-zona-kuning-berisiko</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>KPAID Kota Tasikmalaya Menilai Pembelajaran Tatap Muka di Zona Kuning Berisiko</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="n">
-        <v>44057.78888888889</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Proses belajar mengajar secara langsung atau tatap muka di sekolah yang akan mulai diterapkan bagi daerah yang dinyatakan zona kuning dinilai berpotensi risiko penyebaranCovid-19. Ketua Komisi Perlindungan Anak Indonesia Daerah (KPAID)KotaTasikmalayaEki Sirozul Baehaqi menyebut, pembelajaran tatap muka pada zona kuningCovid-19sangat berisiko. "Akan sangat beresiko, belum semua sekolah di daerah zona kuning siap melaksanakan pembelajaran sistem tatap muka saat ini," kata Eki, Jumat 14 Agustus 2020. Baca Juga:Kaget Rans Entertainment Ditawar Eko Patrio Rp400 Miliar, Raffi Ahmad: Kirain Cuma Lihat Aset Doang Dikatakan Eki, untuk memutuskan dimulainyaKBMtatap muka disaat pandemiCovid-19sangatlah berisiko. Pemerintah harus betul-betul mempersiapkan segala sesuatunya dengan matang dan benar. "Ini jangan dianggap main-main, taruhannya adalah anak-anak selaku generasi bangsa. Lebih baik kalau belum betul-betul siap jangan bilang siap," ujar Eki. Lebih lanjut ujar dia, pihaknya melihat bahwa hak hidup dan hak sehat bagi anak-anak adalah yang lebih utama di masa pandemi saat ini. Baca Juga:Maju Pilkada Indramayu, Daniel Minta Restu Ketua PBNU Said Aqil Siradj "Jangan hanya karena desakan dari beberapa pihak saja, lantas walaupun belum siap tetap dipaksakan. Dikhawatirkan nantinya sekolah akan menjadi claster baru penyebaran Covid -19," paparnya. PIKIRAN RAKYAT -Proses belajar mengajar secara langsung atau tatap muka di sekolah yang akan mulai diterapkan bagi daerah yang dinyatakan zona kuning dinilai berpotensi risiko penyebaranCovid-19. Ketua Komisi Perlindungan Anak Indonesia Daerah (KPAID)KotaTasikmalayaEki Sirozul Baehaqi menyebut, pembelajaran tatap muka pada zona kuningCovid-19sangat berisiko. "Akan sangat beresiko, belum semua sekolah di daerah zona kuning siap melaksanakan pembelajaran sistem tatap muka saat ini," kata Eki, Jumat 14 Agustus 2020. Baca Juga:Kaget Rans Entertainment Ditawar Eko Patrio Rp400 Miliar, Raffi Ahmad: Kirain Cuma Lihat Aset Doang Dikatakan Eki, untuk memutuskan dimulainyaKBMtatap muka disaat pandemiCovid-19sangatlah berisiko. Pemerintah harus betul-betul mempersiapkan segala sesuatunya dengan matang dan benar. "Ini jangan dianggap main-main, taruhannya adalah anak-anak selaku generasi bangsa. Lebih baik kalau belum betul-betul siap jangan bilang siap," ujar Eki. Lebih lanjut ujar dia, pihaknya melihat bahwa hak hidup dan hak sehat bagi anak-anak adalah yang lebih utama di masa pandemi saat ini. Baca Juga:Maju Pilkada Indramayu, Daniel Minta Restu Ketua PBNU Said Aqil Siradj "Jangan hanya karena desakan dari beberapa pihak saja, lantas walaupun belum siap tetap dipaksakan. Dikhawatirkan nantinya sekolah akan menjadi claster baru penyebaran Covid -19," paparnya.Walaupun ujar Eki, pihaknya menyadari anak-anak sudah mulai jenuh dengan pembelajaran sistem daring yang juga dinilai sejauh ini tidak efektif. Akan tetapi lanjut dia, berdasarkan hasil pengamatanKPAIDTasikmalayadi lapangan, walaupunKotaTasikmalayaini sudah masuk zona kuning, namun untuk memulai pembelajaran tatap muka diKotaTasikmalayabelum siap karena keterbatasan anggaran dan sumber daya. "Saya sudah berkordinasi ke dua dinas terkait yaitu Dinas Kesehatan dan Dinas PendidikanKotaTasikmalaya, ternyata mereka mengatakan belum siap khususnya menyangkut anggaran," ujarnya. Baca Juga:DPR Pastikan Pembahasan RUU Cipta Kerja Tetap Dilakukan Jikapun tetap dipaksakan lanjut dia, tim gugus tugasCovid-19KotaTasikmalayaharus terlibat langsung dalam memberikan dukungan pencegahan dan pengawasan termasuk penyiapan sarana dan prasarana baik itu untuk sterilisasi sekolah, physical distancing, hand sanitizer, sarana cuci tangan, alat pengukur suhu tubuh. "Termasuk masker untuk anak, jangan dibebankan ke orang tua, kasian karena untuk satu orang siswa saja untuk keperluan masker itu tidak cukup satu, minimal tiga lah. Mendingan kalau yang sekolahnya satu, kalau dua apalagi tiga, akan repot orang tua," ujarnya. Setelah itu ujar Eki, gugus tugas juga harus betul-betul melakukan pengawasan sejauh mana ketaatan sekolah-sekolah dalam menerapkan protokol kesehatan. Baca Juga:Berkat XL7, Ekspor Suzuki Melejit Hingga Lebih dari 300 Persen Lanjut dia, pihak dinas pendidikan termasuk departemen agama yang membawahi madrasah agar mensosialisasikan dengan benar terkait rencana pelaksanaan sekolah tatap muka tersebut jauh-jauh hari sebelum dilaksanakan. "Jangan ujug-ujug diberlakukan seperti itu, sementara banyak sekolah yang belum siap," katanya. Yang tak kalah pentingnya lanjut dia, pemerintah harus membuat regulasi atau instrumen terkait dibukanya kembali sekolah sistem tatap muka."Ya misalnya wali kota membuat perwalkot terkait pelaksanaan sistem belajar tatap muka dimasa covid, atau minimal surat keputusan bersama antara dinas terkait tujuannya agar ada sebuah aturan atau payung hukum dalam menerapkan kebijakan sekolah tatap muka dimasa pandemi. IntinyaKPAIDtidak ingin anak anak menjadi korban," ujarnya Eki.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01666494/sekolah-di-tasikmalaya-buka-awal-september-2020-guru-di-atas-45-tahun-dilarang-mengajar</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Sekolah di Tasikmalaya Buka Awal September 2020, Guru di Atas 45 Tahun Dilarang Mengajar</t>
-        </is>
-      </c>
-      <c r="C242" s="2" t="n">
-        <v>44056.76875</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Kepastian kapan bakal dimulai proses pembelajaran tatap muka diKota Tasikmalayakini mulai ada kejelasan. Hal itu setelah pemerintahKota Tasikmalayamelakukan konsultasi ke Pemprov Jabar Selasa, 11 Agustus 2020.PemerintahKota Tasikmalayamemastikan penerapan pembelajaran  atau Proses Kegiatan Belajar Mengajar (KBM) sistem tatap muka untuk sekolah tingkat Sekolah Dasar (SD) dan Sekolah Menegah Pertama (SMP) diKota Tasikmalayaakan dimulai pada awal September nanti. Baca Juga:3 Cara Memilih Foundation agar Hasil Makeup Terlihat SempurnaKepala Dinas Pendidikan (Kadisdik)Kota Tasikmalaya, Budiaman Sanusi mengatakan, untuk pembelajaran tatap muka ini pihaknya sudah melakukan konsultasi ke Disdik Jawa Barat. "Kota Tasik inizona kuning. Kita diberikan izin tatap muka sekolah di kecamatan yang zona hijau," katanya, Kamis, 13 Agustus 2020.Dalam artian ujar dia, bila tingkat kotanyazona kuning, berarti tingkat kecamatannya harus zona hijau sehingga bisa melaksanakan pembelajaran tatap muka. Baca Juga:Sinopsis Film: Shark Night Namun demikian lanjut dia, meski sekolahnya di tingkat kecamatan atau di zona hijau, namun pihak sekolah harus tetap menerapkan protokol kesehatan yang sangat ketat."Termasuk bila ada siswa yang tempat tinggalnya berasal darizona kuningmaka siswa tersebut tidak boleh mengikuti proses belajar tatap muka, akan tetapi masih harus menggunakan sistem daring," terangnya.Tambah dia, sebelum dibukanya sekolah tatap muka akan ada asisment terlebih dahulu terhadap setiap sekolah. Baca Juga:Di Tengah Kenaikan Kasus Covid-19, Pemkab Purwakarta Akan Izinkan Belajar Tatap Muka Nantinya akan ditentukan sekolah mana saja yang sudah memenuhi syarat atau bisa memulai pembelajaran tatap muka dan mana yang belum."Termasuk guru yang boleh mengajar di sistem tatap muka nanti maksimal harus usia 45 tahun sehingga diatas usia itu tidak boleh mengajar. Termasuk setiap guru yang akan mengajar harus rapid tes dulu. Itu sedang kita ajukan mudah-mudahan pemerintah provinsi membantu kita dalam pelaksanaannya," terang Budiaman.Lebih lanjut kata dia, saat ini pihaknya telah memulai pendataan serta melakukan asesment untuk sekolah yang bisa melaksanakan proses pembelajaran tatap muka diKota Tasikmalaya. Baca Juga:5 Cara Ubah Warna Foundation yang Terlalu Gelap pada Kulit"Saat ini kami terus melakukan persiapan bahkan dikebut agar dalam waktu dekat ini sudah ada sekolah yang siap melaksanakan pembelajaran tatap muka. Target kami awal September ini sudah ada sekolah yang mulai tatap muka," jelasnya.***PIKIRAN RAKYAT –Kepastian kapan bakal dimulai proses pembelajaran tatap muka diKota Tasikmalayakini mulai ada kejelasan. Hal itu setelah pemerintahKota Tasikmalayamelakukan konsultasi ke Pemprov Jabar Selasa, 11 Agustus 2020.PemerintahKota Tasikmalayamemastikan penerapan pembelajaran  atau Proses Kegiatan Belajar Mengajar (KBM) sistem tatap muka untuk sekolah tingkat Sekolah Dasar (SD) dan Sekolah Menegah Pertama (SMP) diKota Tasikmalayaakan dimulai pada awal September nanti. Baca Juga:3 Cara Memilih Foundation agar Hasil Makeup Terlihat SempurnaKepala Dinas Pendidikan (Kadisdik)Kota Tasikmalaya, Budiaman Sanusi mengatakan, untuk pembelajaran tatap muka ini pihaknya sudah melakukan konsultasi ke Disdik Jawa Barat. "Kota Tasik inizona kuning. Kita diberikan izin tatap muka sekolah di kecamatan yang zona hijau," katanya, Kamis, 13 Agustus 2020.Dalam artian ujar dia, bila tingkat kotanyazona kuning, berarti tingkat kecamatannya harus zona hijau sehingga bisa melaksanakan pembelajaran tatap muka. Baca Juga:Sinopsis Film: Shark Night Namun demikian lanjut dia, meski sekolahnya di tingkat kecamatan atau di zona hijau, namun pihak sekolah harus tetap menerapkan protokol kesehatan yang sangat ketat."Termasuk bila ada siswa yang tempat tinggalnya berasal darizona kuningmaka siswa tersebut tidak boleh mengikuti proses belajar tatap muka, akan tetapi masih harus menggunakan sistem daring," terangnya.Tambah dia, sebelum dibukanya sekolah tatap muka akan ada asisment terlebih dahulu terhadap setiap sekolah. Baca Juga:Di Tengah Kenaikan Kasus Covid-19, Pemkab Purwakarta Akan Izinkan Belajar Tatap Muka Nantinya akan ditentukan sekolah mana saja yang sudah memenuhi syarat atau bisa memulai pembelajaran tatap muka dan mana yang belum."Termasuk guru yang boleh mengajar di sistem tatap muka nanti maksimal harus usia 45 tahun sehingga diatas usia itu tidak boleh mengajar. Termasuk setiap guru yang akan mengajar harus rapid tes dulu. Itu sedang kita ajukan mudah-mudahan pemerintah provinsi membantu kita dalam pelaksanaannya," terang Budiaman.Lebih lanjut kata dia, saat ini pihaknya telah memulai pendataan serta melakukan asesment untuk sekolah yang bisa melaksanakan proses pembelajaran tatap muka diKota Tasikmalaya. Baca Juga:5 Cara Ubah Warna Foundation yang Terlalu Gelap pada Kulit"Saat ini kami terus melakukan persiapan bahkan dikebut agar dalam waktu dekat ini sudah ada sekolah yang siap melaksanakan pembelajaran tatap muka. Target kami awal September ini sudah ada sekolah yang mulai tatap muka," jelasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01663519/tutup-paksa-kafe-dan-mini-market-gerombolan-mobil-pun-dibubarkan-tim-gugus-tugas-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Tutup Paksa Kafe dan Mini Market, Gerombolan Mobil pun Dibubarkan Tim Gugus Tugas Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C243" s="2" t="n">
-        <v>44055.38194444445</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Selain terus melakukan razia masker, tim gugus tugas Covid-19KotaTasikmalayajuga terus memantau jam operasional pelaku usaha diKotaTasikmalaya, Jawa Barat. Meski masa pandemi Covid-19 diKotaTasikmalayatelah memasuki Adaptasi Kebiasaan Baru (AKB), pemberlakukan jam malam operasional tempat usaha diKotaTasik tetap diberlakukan. Apalagi pantauan di lapangan masih sering terjadi para pelaku usaha sepertikafedanmini marketyang melebihi jam buka operasionalnya yang ditetapkan oleh pemerintah di masa pandemi Covid-19. Tak heran jikaTim Gugus TugasCovid-19 sering menutup paksa tempat usaha yang melanggar jam malam tersebut. Baca Juga:Hamili dan Culik Anak Gadis Tetangga, Wawan Diburu, Polisi: Kaget, Sedang Dicari, hingga ke Sukabumi Bahkan saat melakukan patroli, tim gugus tugas juga sering membubarkan anak-anak muda yang asyik berkerumun dan nongkrong di pinggir jalan. "Termasuk tadi malam kita juga membubarkan paksagerombolanmobil yang sedang nongkrong di sekitar Jalur Panyerutan, Cihideung pada pukul 00.30 WIB," ujar Kasi Dalops Satpol PP, Sandi Asugih, Rabu 13 Agustus 2020 pagi. Untuk itu kata Sandi, hampir setiapTim Gugus Tugasbeserta anggotanya dan aparat TNI, BPBD dan Dishub terus melakukan patroli ke beberapa titik lokasi keramaian diKotaTasik seperti Jalan HZ, Jalan Siliwangi, Jalan Cilolohan dan sejumlah titik yang lainnya. Baca Juga:Semifinal Piala Eropa: Sevilla Tantang Man United, Inter Sial Ladeni Shakhtar Donetsk Jelas Sandi, dalam patroli Selasa malam kemarin, pihaknya juga sempat menegur sebuahmini marketyang masih buka hingga pukul 23.00, cafe yang masih buka lebih dari jam 22.00 WIB dan sebuah GOR yang hingga pukul 00.00 WIB masih melaksanakan olahraga bulu tangkis.*** PIKIRAN RAKYAT- Selain terus melakukan razia masker, tim gugus tugas Covid-19KotaTasikmalayajuga terus memantau jam operasional pelaku usaha diKotaTasikmalaya, Jawa Barat. Meski masa pandemi Covid-19 diKotaTasikmalayatelah memasuki Adaptasi Kebiasaan Baru (AKB), pemberlakukan jam malam operasional tempat usaha diKotaTasik tetap diberlakukan. Apalagi pantauan di lapangan masih sering terjadi para pelaku usaha sepertikafedanmini marketyang melebihi jam buka operasionalnya yang ditetapkan oleh pemerintah di masa pandemi Covid-19. Tak heran jikaTim Gugus TugasCovid-19 sering menutup paksa tempat usaha yang melanggar jam malam tersebut. Baca Juga:Hamili dan Culik Anak Gadis Tetangga, Wawan Diburu, Polisi: Kaget, Sedang Dicari, hingga ke Sukabumi Bahkan saat melakukan patroli, tim gugus tugas juga sering membubarkan anak-anak muda yang asyik berkerumun dan nongkrong di pinggir jalan. "Termasuk tadi malam kita juga membubarkan paksagerombolanmobil yang sedang nongkrong di sekitar Jalur Panyerutan, Cihideung pada pukul 00.30 WIB," ujar Kasi Dalops Satpol PP, Sandi Asugih, Rabu 13 Agustus 2020 pagi. Untuk itu kata Sandi, hampir setiapTim Gugus Tugasbeserta anggotanya dan aparat TNI, BPBD dan Dishub terus melakukan patroli ke beberapa titik lokasi keramaian diKotaTasik seperti Jalan HZ, Jalan Siliwangi, Jalan Cilolohan dan sejumlah titik yang lainnya. Baca Juga:Semifinal Piala Eropa: Sevilla Tantang Man United, Inter Sial Ladeni Shakhtar Donetsk Jelas Sandi, dalam patroli Selasa malam kemarin, pihaknya juga sempat menegur sebuahmini marketyang masih buka hingga pukul 23.00, cafe yang masih buka lebih dari jam 22.00 WIB dan sebuah GOR yang hingga pukul 00.00 WIB masih melaksanakan olahraga bulu tangkis.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01662734/kegiatan-belajar-mengajar-tatap-muka-di-kota-tasikmalaya-masih-belum-jelas</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Kegiatan Belajar Mengajar Tatap Muka di Kota Tasikmalaya Masih Belum Jelas</t>
-        </is>
-      </c>
-      <c r="C244" s="2" t="n">
-        <v>44054.77638888889</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Keputusan pemberlakuan pembelajarantatap mukadi KotaTasikmalayakepastiannya masih belum jelas. "Bahkan pak WalikotaTasikmalayatermasuk pak kadis hari ini memenuhi penggilan pemerintah provinsi untuk membahas keputusan pembelajaran sistemtatap mukatersebut," ujar sekretaris Dinas Pendidikan KotaTasikmalayaMohammad Dani, Selasa 11 Agustus 2020. Yang jelas ujar Dani, kalaupun pembelajarantatap mukatersebut mulai diberlakukan, akan dilakukan secara berjenjang dengan syarat untuk wilayah yang zona hijau dan kuning boleh melakukan KBMtatap mukatetapi dengan protokol kesehatan yang ketat. Baca Juga:Rawan Konflik, KNPI Dorong Pemerintah Siapkan Ruang Pesepeda "Misalnya di zona hijau, kelas diisi hanya 50 persen dari jumlah siswa. Sementara untuk di zona kuning diisi 30 persen dari jumlah siswa," katanya. Namun sampai saat ini tegas Dani, di KotaTasikmalayabelum ada sekolah yang memulai KBMtatap muka. Namun demikian lanjut Dani, pihaknya telah mensosialisasikan kemungkinan mulai diberlakukannya KBMtatap mukadi KotaTasikmalaya. Baca Juga:Sebut Niat Hati Hadi Pranoto Bantu Masyarakat Lewat Herbalnya, Kuasa Hukum: Beliau Terpukul, Sedih "Kami sudah lakukan sosialisasi ke seluruh sekolah terkait masalah ini. Mereka mulai diminta untuk memperisiapkan penyelenggaraan KBMtatap muka," ujarnya. PIKIRAN RAKYAT -Keputusan pemberlakuan pembelajarantatap mukadi KotaTasikmalayakepastiannya masih belum jelas. "Bahkan pak WalikotaTasikmalayatermasuk pak kadis hari ini memenuhi penggilan pemerintah provinsi untuk membahas keputusan pembelajaran sistemtatap mukatersebut," ujar sekretaris Dinas Pendidikan KotaTasikmalayaMohammad Dani, Selasa 11 Agustus 2020. Yang jelas ujar Dani, kalaupun pembelajarantatap mukatersebut mulai diberlakukan, akan dilakukan secara berjenjang dengan syarat untuk wilayah yang zona hijau dan kuning boleh melakukan KBMtatap mukatetapi dengan protokol kesehatan yang ketat. Baca Juga:Rawan Konflik, KNPI Dorong Pemerintah Siapkan Ruang Pesepeda "Misalnya di zona hijau, kelas diisi hanya 50 persen dari jumlah siswa. Sementara untuk di zona kuning diisi 30 persen dari jumlah siswa," katanya. Namun sampai saat ini tegas Dani, di KotaTasikmalayabelum ada sekolah yang memulai KBMtatap muka. Namun demikian lanjut Dani, pihaknya telah mensosialisasikan kemungkinan mulai diberlakukannya KBMtatap mukadi KotaTasikmalaya. Baca Juga:Sebut Niat Hati Hadi Pranoto Bantu Masyarakat Lewat Herbalnya, Kuasa Hukum: Beliau Terpukul, Sedih "Kami sudah lakukan sosialisasi ke seluruh sekolah terkait masalah ini. Mereka mulai diminta untuk memperisiapkan penyelenggaraan KBMtatap muka," ujarnya.Berdasarkan hasil sosialisasi tersebut kata Dani, pada prinsipnya, semua jenjang sekolah di KotaTasikmalayasiap melakukan KBMtatap muka. Namun untuk melaksanakannya, sekolah baru diberikan izin kalau protokol kesehatan dilakukan dengan baik. "Misalnya ada alat pengukur suhu tubuh disesuaikan dengsn jumlah siswa, ada tempat cuci tangan per kelas, pengaturan jarak, dan selalu menggunakan masker.Nanti akan dicek, kalau dinyatakan layak, baru akan dibuka," ujarnya. Baca Juga:Kurang dari Sepekan Belajar Tatap Muka di Sukabumi, Dua Warga Meninggal Positif Covid-19 Termasuk lanjut Dani, pihaknya juga akan melakukan cek kesehatan para pengajar. "Kalau diswab itu kan biaya terlalu mahal. Mungkin akan dirapid test, Itu pun baru rencana. Karena biaya untuk melaksanakan itu biayanya cukup mahal sementara anggaran sekolah juga terbatas," ucap Dani Sekali lagi ujar dia, kepastian pelaksanaan pembelajarantatap mukadi KotaTasikmalayahingga hari ini belum pasti. "Kalau secara mental kita siaptatap muka. Mungkin teknisnya saja yang perlu disiapkan," ujar Dani.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01660658/dianggap-tak-berikan-contoh-baik-5-pns-kota-tasikmalaya-dapat-sanksi-sosial</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Dianggap Tak Berikan Contoh Baik, 5 PNS Kota Tasikmalaya Dapat Sanksi Sosial</t>
-        </is>
-      </c>
-      <c r="C245" s="2" t="n">
-        <v>44053.70069444444</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Lima Pegawai Negeri Sipil (PNS) di Lingkungan Kantor Wali KotaTasikmalaya(Bale Kota) terkena razia masker oleh tim gugus tugas gabungan Satpol PP, TNI dan Polri pada Senin 10 Agustus 2020 siang. Mereka kedapatan tak mengenakan masker saat bekerja di kantornya dan langsung disanksi kerja sosial yakni menyapu sampah sampai bersih di Lingkungan Bale KotaTasikmalaya. Selain lima pegawai bersetatusPNS, tim gugus tugas juga mendapati tiga orang pegawai magang yang juga tidak menggunakan masker. Para pegawai pemerintah tersebut dinilai tak memberikan contoh baik dengan tidak memakai masker. Padahal Peraturan Wali KotaTasikmalayaNomor 29 Tahun 2020 tentang Penerapan Protokol Kesehatan pada Tempat dan Fasilitas Umum dalam Masa PandemiCovid-19telah diberlakukan. Baca Juga:Kota Bogor Alami Lonjakan Kasus Covid-19 dalam Tiga Hari Terakhir Dalam Pasal 11 ayat 2 peraturan daerah tersebut, tertulis setiap masyarakat yang tak mengenakan masker di tempat umum akan dikenakan sanksi berupa teguran, kerja sosial, atau denda Rp50.000. "Kita bersama tim gabungan Satpol PP, TNI dan Polri, sengaja merazia masker ke wilayah Kantor Wali KotaTasikmalayadan perkantoran lainnya supaya bisa memberikan contoh yang baik kepada masyarakat, jelas Kepala Bidang Ketertiban Umum dan Ketentraman Masyarakat Polisi Pamong Praja KotaTasikmalaya, Yogi Subarkah, kepada wartawan, Senin sore. Sementara kata dia, baru 5 orangPNSyang terkena razia. Mereka diberi sanksi kerja sosial. Baca Juga:60 Persen Koperasi Jabar Terdampak Covid-19, Sebagian Mulai Pulih Yogi juga mengatakan, razia bagi masyarakat tak mengenakan masker akan dilakukan secara kontinyu ke beberapa tempat dan bukan hanya lingkungan pemerintah saja.Semua tempat keramaian ujar dia akan diperiksa demi menegakkan aturan Perwalkot yang bertujuan untuk kepentingan kesehatan secara bersama. PIKIRAN RAKYAT -Lima Pegawai Negeri Sipil (PNS) di Lingkungan Kantor Wali KotaTasikmalaya(Bale Kota) terkena razia masker oleh tim gugus tugas gabungan Satpol PP, TNI dan Polri pada Senin 10 Agustus 2020 siang. Mereka kedapatan tak mengenakan masker saat bekerja di kantornya dan langsung disanksi kerja sosial yakni menyapu sampah sampai bersih di Lingkungan Bale KotaTasikmalaya. Selain lima pegawai bersetatusPNS, tim gugus tugas juga mendapati tiga orang pegawai magang yang juga tidak menggunakan masker. Para pegawai pemerintah tersebut dinilai tak memberikan contoh baik dengan tidak memakai masker. Padahal Peraturan Wali KotaTasikmalayaNomor 29 Tahun 2020 tentang Penerapan Protokol Kesehatan pada Tempat dan Fasilitas Umum dalam Masa PandemiCovid-19telah diberlakukan. Baca Juga:Kota Bogor Alami Lonjakan Kasus Covid-19 dalam Tiga Hari Terakhir Dalam Pasal 11 ayat 2 peraturan daerah tersebut, tertulis setiap masyarakat yang tak mengenakan masker di tempat umum akan dikenakan sanksi berupa teguran, kerja sosial, atau denda Rp50.000. "Kita bersama tim gabungan Satpol PP, TNI dan Polri, sengaja merazia masker ke wilayah Kantor Wali KotaTasikmalayadan perkantoran lainnya supaya bisa memberikan contoh yang baik kepada masyarakat, jelas Kepala Bidang Ketertiban Umum dan Ketentraman Masyarakat Polisi Pamong Praja KotaTasikmalaya, Yogi Subarkah, kepada wartawan, Senin sore. Sementara kata dia, baru 5 orangPNSyang terkena razia. Mereka diberi sanksi kerja sosial. Baca Juga:60 Persen Koperasi Jabar Terdampak Covid-19, Sebagian Mulai Pulih Yogi juga mengatakan, razia bagi masyarakat tak mengenakan masker akan dilakukan secara kontinyu ke beberapa tempat dan bukan hanya lingkungan pemerintah saja.Semua tempat keramaian ujar dia akan diperiksa demi menegakkan aturan Perwalkot yang bertujuan untuk kepentingan kesehatan secara bersama.Aturan yang dibuat oleh Wali KotaTasikmalayatersebut lanjut Yogi, untuk kepentingan masyarakat sendiri supaya tak tertular virusCovid-19di masa pandemi corona saat ini. "Sejatinya, aturan ini dibuat adalah untuk kepentingan mereka sendiri supaya tak tertularCovid-19. Baca Juga:Perluas Pasar, Mitsubishi Resmikan 4 Dealer Baru di Indonesia Hal sama diungkapkan, Perwira Pengendali (Padal) Pengawas ProtokolCovid-19Kapten (chb) Agus Rackhmat, pelaksanaan kegiatan tersebut akan terus ditingkatkan sampai nanti diterapkan kepada pelanggar sanksi denda sebesar Rp50.000 sesuai Perwalkot yang berlaku. Sanksi tersebut akan berlaku bagi seluruh masyarakat KotaTasikmalayabukan hanya dari unsur pemerintahan saja. Namun ujar dia, maksud kegiatan pertama di Lingkungan BalekotaTasikmalaya, supaya memberikan contoh yang baik bagi seluruh masyarakat terkait wajib mengenakan masker saat AKB. "Sengaja kita kenakan rompi hijau, dan diminta kerja sosial bagi pelanggar tak pakai masker. Kalau berulang lagi melakukan kesalahan sama nantinya, mereka wajib bayar denda Rp50.000 ke kas daerah," pungkasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01660590/disdik-kota-tasikmalaya-masih-mengkaji-dibolehkannya-belajar-tatap-muka-di-zona-hijau-dan-kuning</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Disdik Kota Tasikmalaya Masih Mengkaji Dibolehkannya Belajar Tatap Muka di Zona Hijau dan Kuning</t>
-        </is>
-      </c>
-      <c r="C246" s="2" t="n">
-        <v>44053.67916666667</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Kementerian Pendidikan dan Kebudayaan (Kemendikbud) telah menetapkan sekolah di kabupaten atau kota yang masuk zona hijau dan kuning bisa kembali melakukan kegiatanbelajarmengajar secara tatap muka. Daerah zona hijau dan kuning sendiri masuk pada katagori zona potensi penyebaran Covid-19 rendah dan sedang sehingga diperbolehkan kembali melakukan kegiatanbelajarmengajar secara tatap muka sambil menerapkan protokol kesehatan. Dinas Pendidikan (Disdik) Jabar pun telah menyebarkan informasi itu ke Disdik di daerah sehingga pada 18 Agustus nanti bisa diputuskan sekolah mana saja yang sudah memenuhi syarat untuk melakukan pembelajaran tatap muka. Baca Juga:Kemnaker Genjot Balai Latihan Kerja Putus Penyebaran Covid-19 Di Kota Tasikmalaya, kebijakan itu masih dalam tahap pembahasan. Kadisdik Kota Tasikmalaya, Budiaman Sanusi mengatakan pihaknya hingga kini masih mempelajari kebijakan tersebut agar pembelajaran tatap muka bisa segera dihelat. "Iya kita sudah mendapatkan informasi itu bahwa daerah zona kuning bisa menggelar tatap muka. Pak wali juga sudah memerintahkan ke kami untuk mempelajari protokol kesehatannya seperti apa," ujarnya kepada wartawan, Senin 10 Agustus 2020 siang. Terang dia yang dihubungi melalui ponselnya, pihaknya saat ini sedang menyusun dan menelaah protokol tatap muka sambil mempertimbangkan baik dan buruknya. Baca Juga:Gara-gara Terlambat 5 Menit, Seorang Pria Berhasil Selamat dari Kecelakaan Air India Express "Ya, memang ada desakan para orang tua dan guru soal pembelajaran tatap muka ini. Tapi ya kita harus lihat kondisi apakah sekolahnya memadai? Kan harus mengikuti protokol kesehatan," terangnya. PIKIRAN RAKYAT -Kementerian Pendidikan dan Kebudayaan (Kemendikbud) telah menetapkan sekolah di kabupaten atau kota yang masuk zona hijau dan kuning bisa kembali melakukan kegiatanbelajarmengajar secara tatap muka. Daerah zona hijau dan kuning sendiri masuk pada katagori zona potensi penyebaran Covid-19 rendah dan sedang sehingga diperbolehkan kembali melakukan kegiatanbelajarmengajar secara tatap muka sambil menerapkan protokol kesehatan. Dinas Pendidikan (Disdik) Jabar pun telah menyebarkan informasi itu ke Disdik di daerah sehingga pada 18 Agustus nanti bisa diputuskan sekolah mana saja yang sudah memenuhi syarat untuk melakukan pembelajaran tatap muka. Baca Juga:Kemnaker Genjot Balai Latihan Kerja Putus Penyebaran Covid-19 Di Kota Tasikmalaya, kebijakan itu masih dalam tahap pembahasan. Kadisdik Kota Tasikmalaya, Budiaman Sanusi mengatakan pihaknya hingga kini masih mempelajari kebijakan tersebut agar pembelajaran tatap muka bisa segera dihelat. "Iya kita sudah mendapatkan informasi itu bahwa daerah zona kuning bisa menggelar tatap muka. Pak wali juga sudah memerintahkan ke kami untuk mempelajari protokol kesehatannya seperti apa," ujarnya kepada wartawan, Senin 10 Agustus 2020 siang. Terang dia yang dihubungi melalui ponselnya, pihaknya saat ini sedang menyusun dan menelaah protokol tatap muka sambil mempertimbangkan baik dan buruknya. Baca Juga:Gara-gara Terlambat 5 Menit, Seorang Pria Berhasil Selamat dari Kecelakaan Air India Express "Ya, memang ada desakan para orang tua dan guru soal pembelajaran tatap muka ini. Tapi ya kita harus lihat kondisi apakah sekolahnya memadai? Kan harus mengikuti protokol kesehatan," terangnya."Yang penting kita pelajari dulu dan merumuskan semacam SPM. Nanti telaahnya disampaikan ke Pak Wali Kota minta pendapat pimpinan. Kalau memang diizinkan maka sekolah harus sudah harus siap untuk penyediaan sarana protokol kesehatan pencegahan Covid," sambungnya. Dia menambahkan protokol kesehatan yang harus ditaati pihak sekolah itu contohnya apakah tempat cuci tangan telah memadai di area sekolah, kemudian tersedia handsanitizer, dan sebagainya. Baca Juga:Momen Pembaptisannya Jadi Pertanyaan, Marsha Aruan Beri Penjelasan "Itu kan harus dievaluasi dulu apakah memenuhi protokol atau tidak. Baru nanti diputuskan boleh tatap muka atau tetapbelajardaring," tambahnya. Jelas dia, jika tidak terpenuhi hal itu maka pihaknya akan menahan dulu proses pembelajaran tatap muka. "Karena jangan sampai nanti merugikan anak-anak dan orang tua," jelasnya. DisdikJawa Baratsendiri telah mengumumkan belum lama ini bahwa terdapat 17 kabupaten dan kota yang masuk zona kuning dan dinyatakan oleh Kemendikbud dapat menggelar sekolah tatap muka. Daerah itu adalah Kabupaten Cianjur, Kabupaten Ciamis, Kota Cirebon, Kota Banjar, Kabupaten Sukabumi, Kabupaten Garut, Kabupaten Kuningan, Kabupaten Majalengka, Kota Tasikmalaya, Kabupaten Tasikmalaya, Kabupaten Cirebon, Kabupaten Sumedang, Kabupaten Pangandaran, Kota Sukabumi, Kota Cimahi, Kabupaten Indramayu, dan Kabupaten Karawang.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01659243/geng-motor-berulah-hampir-bentrok-dengan-warga-di-kota-tasikmalaya-tanpa-masalah-yang-jelas</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Geng Motor Berulah, Hampir Bentrok dengan Warga di Kota Tasikmalaya Tanpa Masalah yang Jelas</t>
-        </is>
-      </c>
-      <c r="C247" s="2" t="n">
-        <v>44052.84305555555</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Entah dipicu masalah apa, ratusan gerombolan kendaraan bermotor hampir saja bentrok dengan warga Jalan Cihideung Balong, Kelurahan Nagarawangi, Kecamatan Cihideung,Kota Tasikmalaya, Minggu, 9 Agustus 2020 sore.Informasi yang berhasil dihimpun di lapangan, sekitar pukul 16.00 WIB massa salah satu kelompok gerombolan bermotor melintasi jalan tersebut. H Ahmad Fudoli salah seorang  tokoh pemuda setempat,  mengatakan, awalnya ratusan motor itu melintasi lokasi, tempat  pemuda setempat sedang nongkrong. Baca Juga:Bansos Presiden Siap Didistribusikan untuk 1.500-an Korban PHK di Bekasi Diduga salah seorang pemotor itu meludahi mereka sambil melontarkan kata-kata tak senonoh sehingga menimbulkan kemarahan warga."Katanya begitu. Mereka (gerombolan bermotor, Red) saat melintasi para pemuda yang sedang nongkrong tiba tiba  meludahi mereka dan melontarkan kata-kata binatang serta kasar," ujarnya.Terang dia, atas insiden tersebut, suasana pun semakin memanas. Salah seorang pengendara motor pun sambil meraungkan knalpot motornya ada yang berusaha menyerang warga. Namun nahas, pengendara motor itu malah terjatuh. Baca Juga:dr. Tirta Ungkap Alasan Ambil S2, Kenang Pengalamannya Bicara di Depan Sri Sultan HB X dan Mahfud MD Karena sempat mau diburu warga, dia berusaha kabur sbelum ada kontak fisik walaupun terpaksa meninggalkan motor Honda Beat warna merah muda di lokasi."Jadi rombongan motor itu melaju dari pertigaan Veteran Gang Gurame menuju pertigaan Cihideung Balong. Lalu usai itu rombongan kembali memutar kayanya mau ngambil motor itu," bebernya.Dia menambahkan, karena dianggap menganggu kenyamanan, warga menghalau rombongan sepeda motor tersebut sehingha akhirnya, rombongan motor yang memakai knalpot bising pun hanya sampai ke pertigaan Veteran dan tak masuk ke Jalan Cihideung Balong. Baca Juga:Menag: Madrasah dan Pesantren Bisa KBM Tatap Muka JIka Penuhi 4 Syarat"Pas warga pada keluar rumah semua, rombongan motor itu akhirnya tak jadi masuk ke jalan sini. Tapi sempat berhenti sambil berteriak-teriak dan langsung pergi ke arah Pasar Wetan," tambahnya.Dia pun memastikan bahwa gerombolan bermotor itu salah satu kelompokgeng motor. Karena membawa atribut bendera dan gampar tempel salah satugeng motor. Saat ini kondisi di lokasi sudah kembali aman. Aparat Kepolisian dari Polsek Cihideung, Polresta Tasikmalaya pun terlihat masih bersiaga di lokasi kejadian.Sedangkan motor salah satu gerombolan bermotor yang jatuh di lokasi, Honda Beat bernopol Z 3662 KI telah diamankan pihak kepolisian ke Mapolresta Tasik.***PIKIRAN RAKYAT –Entah dipicu masalah apa, ratusan gerombolan kendaraan bermotor hampir saja bentrok dengan warga Jalan Cihideung Balong, Kelurahan Nagarawangi, Kecamatan Cihideung,Kota Tasikmalaya, Minggu, 9 Agustus 2020 sore.Informasi yang berhasil dihimpun di lapangan, sekitar pukul 16.00 WIB massa salah satu kelompok gerombolan bermotor melintasi jalan tersebut. H Ahmad Fudoli salah seorang  tokoh pemuda setempat,  mengatakan, awalnya ratusan motor itu melintasi lokasi, tempat  pemuda setempat sedang nongkrong. Baca Juga:Bansos Presiden Siap Didistribusikan untuk 1.500-an Korban PHK di Bekasi Diduga salah seorang pemotor itu meludahi mereka sambil melontarkan kata-kata tak senonoh sehingga menimbulkan kemarahan warga."Katanya begitu. Mereka (gerombolan bermotor, Red) saat melintasi para pemuda yang sedang nongkrong tiba tiba  meludahi mereka dan melontarkan kata-kata binatang serta kasar," ujarnya.Terang dia, atas insiden tersebut, suasana pun semakin memanas. Salah seorang pengendara motor pun sambil meraungkan knalpot motornya ada yang berusaha menyerang warga. Namun nahas, pengendara motor itu malah terjatuh. Baca Juga:dr. Tirta Ungkap Alasan Ambil S2, Kenang Pengalamannya Bicara di Depan Sri Sultan HB X dan Mahfud MD Karena sempat mau diburu warga, dia berusaha kabur sbelum ada kontak fisik walaupun terpaksa meninggalkan motor Honda Beat warna merah muda di lokasi."Jadi rombongan motor itu melaju dari pertigaan Veteran Gang Gurame menuju pertigaan Cihideung Balong. Lalu usai itu rombongan kembali memutar kayanya mau ngambil motor itu," bebernya.Dia menambahkan, karena dianggap menganggu kenyamanan, warga menghalau rombongan sepeda motor tersebut sehingha akhirnya, rombongan motor yang memakai knalpot bising pun hanya sampai ke pertigaan Veteran dan tak masuk ke Jalan Cihideung Balong. Baca Juga:Menag: Madrasah dan Pesantren Bisa KBM Tatap Muka JIka Penuhi 4 Syarat"Pas warga pada keluar rumah semua, rombongan motor itu akhirnya tak jadi masuk ke jalan sini. Tapi sempat berhenti sambil berteriak-teriak dan langsung pergi ke arah Pasar Wetan," tambahnya.Dia pun memastikan bahwa gerombolan bermotor itu salah satu kelompokgeng motor. Karena membawa atribut bendera dan gampar tempel salah satugeng motor. Saat ini kondisi di lokasi sudah kembali aman. Aparat Kepolisian dari Polsek Cihideung, Polresta Tasikmalaya pun terlihat masih bersiaga di lokasi kejadian.Sedangkan motor salah satu gerombolan bermotor yang jatuh di lokasi, Honda Beat bernopol Z 3662 KI telah diamankan pihak kepolisian ke Mapolresta Tasik.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01657770/anak-jalanan-berdandanan-punk-tewas-terlindas-truk-yang-akan-ditumpangi-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Anak Jalanan Berdandanan Punk Tewas Terlindas Truk yang Akan Ditumpangi di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C248" s="2" t="n">
-        <v>44051.84513888889</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Perilaku anak jalanan yang kerap memberhentikan kendaraan seenaknya kembali memakan korban jiwa. Kali ini seorang anak berpakaian nyentrik ala dandananpunktewas terlindas kendaraantrukyang akan ditumpanginya. Peristiwa tersebut terjadi di Jalan Ir. H. Juanda tepatnya Bunderan Linggajaya, Kelurahan Linggajaya, Kecamatan Mangkubumi,Kota Tasikmalaya, Sabtu, 8 Agustus 2020 siang. Baca Juga:Soal Belajar Tatap Muka, Nadiem Makarim: Tidak Ada Kegiatan Kantin, Berkumpul, dan EkstrakurikulerKorban diketahui bernama Rifki Saepul Nilah (16) warga Kampung Sumberjaya, Desa Sukasetia, Kecamatan Cihaurbeuti, Kabupaten Ciamis. Korban yang masih berstatus pelajar itu tewas di lokasi kejadian karena terlindasRendi salah seorang rekan korban  mengatakan, saat itu dirinya bersama rekan-rekan termasuk korban baru pulang dari Pangandaran dengan beberapa kali menumpang kendaraan yang melintas atau papalidan. Baca Juga:Prediksi Bayern Munchen vs Chelsea di Liga Champions: Perang Terbuka di Allianz Arena Saat itu ujar dia, dirinya bersama teman temannya termasuk korban  berjalan kaki sambi menunggu kendaraan bak yang melintas.Tepat di lokasi kejadian, ada kendaraan jenis Mitsubishi Light Truck Dump dengan nomor polisi Z 9127 NC melintas dari arah Cisumur Kawalu  menuju Linggajaya. "Kendaraan itu diberhentikan, namun ketika hendak menaiki kendaraan tersebut, korban terpeleset hingga terjatuh ke kolong mobil sementara kendaraan mulai jalan kembali," ucapnya. Baca Juga:6 Fakta Hilangnya Wisatawan Pantai Goa Cemara Bantul, Kronologi hingga Adanya Korban Balita Korban akhirnya terlindas kendaraantrukyang akan dinaikinya," katanya menambahkan.Insiden tersebut langsung ditangani Unit Lakalantas Satlantas Polresta Tasikmalaya. Jenazah korban dievakuasi dan dibawa ke kamar mayat RSUD dr. Soekardjo.PIKIRAN RAKYAT –Perilaku anak jalanan yang kerap memberhentikan kendaraan seenaknya kembali memakan korban jiwa. Kali ini seorang anak berpakaian nyentrik ala dandananpunktewas terlindas kendaraantrukyang akan ditumpanginya. Peristiwa tersebut terjadi di Jalan Ir. H. Juanda tepatnya Bunderan Linggajaya, Kelurahan Linggajaya, Kecamatan Mangkubumi,Kota Tasikmalaya, Sabtu, 8 Agustus 2020 siang. Baca Juga:Soal Belajar Tatap Muka, Nadiem Makarim: Tidak Ada Kegiatan Kantin, Berkumpul, dan EkstrakurikulerKorban diketahui bernama Rifki Saepul Nilah (16) warga Kampung Sumberjaya, Desa Sukasetia, Kecamatan Cihaurbeuti, Kabupaten Ciamis. Korban yang masih berstatus pelajar itu tewas di lokasi kejadian karena terlindasRendi salah seorang rekan korban  mengatakan, saat itu dirinya bersama rekan-rekan termasuk korban baru pulang dari Pangandaran dengan beberapa kali menumpang kendaraan yang melintas atau papalidan. Baca Juga:Prediksi Bayern Munchen vs Chelsea di Liga Champions: Perang Terbuka di Allianz Arena Saat itu ujar dia, dirinya bersama teman temannya termasuk korban  berjalan kaki sambi menunggu kendaraan bak yang melintas.Tepat di lokasi kejadian, ada kendaraan jenis Mitsubishi Light Truck Dump dengan nomor polisi Z 9127 NC melintas dari arah Cisumur Kawalu  menuju Linggajaya. "Kendaraan itu diberhentikan, namun ketika hendak menaiki kendaraan tersebut, korban terpeleset hingga terjatuh ke kolong mobil sementara kendaraan mulai jalan kembali," ucapnya. Baca Juga:6 Fakta Hilangnya Wisatawan Pantai Goa Cemara Bantul, Kronologi hingga Adanya Korban Balita Korban akhirnya terlindas kendaraantrukyang akan dinaikinya," katanya menambahkan.Insiden tersebut langsung ditangani Unit Lakalantas Satlantas Polresta Tasikmalaya. Jenazah korban dievakuasi dan dibawa ke kamar mayat RSUD dr. Soekardjo.Polisi juga melakukan olah Tempat Kejadian Perkara (TKP), dan memintai keterangan saksi-saksi yang merupakan teman-teman korban. Baca Juga:Ahli Psikologi Forensik: Kasus Gilang 'Bungkus' Bukan Tentang Fetish, tapi Pelecehan SeksualTermasuk pengemuditrukyang diketahui bernama Adin (35) warga Kecamatan Cikatomas, Kabupaten Tasikmalaya turut dimintai keterangan polisi.Dari keterangan saksi polisi menyimpulkan, kejadian bermula saat korban bersama beberapa rekannya yang berpenampilan nyentrik sengaja menunggu mobiltrukyang melintas. Saat ada kendaraantrukyang dikemudikan Adin melintas, mereka langsung menyetop dan berusaha menumpang.Tragisnya, saat korban hendak naik dari samping kanan, korban terpeleaet hingga korban terjatuh. Akibatnya, korban terlindastruktersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01655776/ungkap-identitas-polisi-sebar-rilis-wajah-mayat-bocah-bercelana-seragam-sd-tergeletak-di-terminal</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Ungkap Identitas, Polisi Sebar Rilis Wajah Mayat Bocah Bercelana Seragam SD Tergeletak di Terminal</t>
-        </is>
-      </c>
-      <c r="C249" s="2" t="n">
-        <v>44050.63402777778</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Guna mengungkap identitas, PolsekIndihiangdan Satuan Reskrim Polresta Tasikmalaya menyebar rilis wajah sesosokmayatbocah bercelana seragam sekolah dasar (SD) yang ditemukan Kamis, 6 Agustus 2020 pagi. Mayat bocah tersebut mengeluarkan busa dari mulut, ditemukan di Terminal Tipe AKota Tasikmalaya, Jawa Barat.Upaya penyebaran informasi via media sosial dan gambar pada kertas oleh polisi, bertujuan untuk mencari identitas korban serta diharapkan ada masyarakat yang mengenalinya. Baca Juga:Diduga Bunuh Majikan, WNI Asal Siantar di Malaysia Terancam Hukuman Mati"Sampai sekarang belum ada kepastian penyebab kematian korban. Kita baru merilis wajah korban untuk disebarkan dengan harapan ada warga yang mengenali wajahnya," jelas KapolsekIndihiang, Polresta Tasikmalaya, Kompol Didik Rohim Hadi, kepada wartawan, Jumat siang.Didik menambahkan, selama ini pihaknya bersama Satrekrim Polresta Tasikmalaya telah memeriksa tiga saksi mata terkait kasusmayatbocah bercelana seragam SD itu.Termasuk ujar Didik, semua keterangan para saksi yang telah diperiksa, belum ada yang mengarah ke pengungkapan identitas korban. Baca Juga:Sekretariat Kabinet Rilis Kegiatan Presiden Jokowi selama Rangkaian Acara Peringatan HUT RI ke-75 "Meski demikian, kita terus berupaya mengungkap kasus penyebab kematian korban dan identitas korban selama ini. Hasil pemeriksaan dan penyelidikan kita sampai sekarang belum ada temuan yang mengarah ke kasus ini," tutur Didik.Adapun hasil visum, tambah Didik, pihaknya belum bisa memastikan penyebab pasti kematian korban selama ini. Meski sebelumnya terdapat temuan sisa minuman keras jenis tuak di sisimayatkorban saat dievakuasi di lokasi kejadian. "Tapi, kita belum bisa memastikan kematian korban meski ada temuan itu. Kita tunggu hasil pemeriksaan dan penyelidikan supaya jelas," ungkapnya. Baca Juga:Peringati HUT RI ke-75 Kemenparekraf Adakan Lomba Tebak Busana Adat Jokowi dan Iriana, Simak CaranyaDidik pun masih menunggu hasil koordinasi antara Satreskrim Polresta Tasikmalaya dengan PolsekIndihiangapakahmayatkorban akan diotopsi atau tidak."Kalau autopsi, kita masih menunggu hasil koordinasi dengan pihak Satreskrim. Nanti kita informasikan lagi," ungkapnya.Sementara itu, Kepala Satuan Reskrim Polresta Tasikmalaya, AKP Yusuf Ruhiman, mengaku belum bisa memberikan keterangan lebih lanjut kasus ini karena masih proses penyelidikan. Baca Juga:Memanas, Perdana Menteri Australia Nyatakan Kemungkinan Perang dengan Tiongkok Yusuf pun belum bisa memberikan keterangan jelas apakahmayatanak itu sebagai korban kekerasan atau kecelakaan. "Belum ya, nanti kita kabari lagi. Sekarang kita masih proses penyelidikan. Nanti sudah jelas kita kabari lagi. singkat Yusuf.Diberitakan sebelumnya, sesosokmayatanak tanpa identitas berusia sekitar 12.Penemuanmayatanak bercelana seragam SD tersebut sempat menggegerkan warga sekitar karena lokasinya persis di pinggir jalan raya samping Pasar dan Terminal Tipe AIndihiangyang setiap paginya berkerumun aktifitas warga.Hingga saat ini petugas belum menemukan identitasmayatanak tersebut.***PIKIRAN RAKYAT -Guna mengungkap identitas, PolsekIndihiangdan Satuan Reskrim Polresta Tasikmalaya menyebar rilis wajah sesosokmayatbocah bercelana seragam sekolah dasar (SD) yang ditemukan Kamis, 6 Agustus 2020 pagi. Mayat bocah tersebut mengeluarkan busa dari mulut, ditemukan di Terminal Tipe AKota Tasikmalaya, Jawa Barat.Upaya penyebaran informasi via media sosial dan gambar pada kertas oleh polisi, bertujuan untuk mencari identitas korban serta diharapkan ada masyarakat yang mengenalinya. Baca Juga:Diduga Bunuh Majikan, WNI Asal Siantar di Malaysia Terancam Hukuman Mati"Sampai sekarang belum ada kepastian penyebab kematian korban. Kita baru merilis wajah korban untuk disebarkan dengan harapan ada warga yang mengenali wajahnya," jelas KapolsekIndihiang, Polresta Tasikmalaya, Kompol Didik Rohim Hadi, kepada wartawan, Jumat siang.Didik menambahkan, selama ini pihaknya bersama Satrekrim Polresta Tasikmalaya telah memeriksa tiga saksi mata terkait kasusmayatbocah bercelana seragam SD itu.Termasuk ujar Didik, semua keterangan para saksi yang telah diperiksa, belum ada yang mengarah ke pengungkapan identitas korban. Baca Juga:Sekretariat Kabinet Rilis Kegiatan Presiden Jokowi selama Rangkaian Acara Peringatan HUT RI ke-75 "Meski demikian, kita terus berupaya mengungkap kasus penyebab kematian korban dan identitas korban selama ini. Hasil pemeriksaan dan penyelidikan kita sampai sekarang belum ada temuan yang mengarah ke kasus ini," tutur Didik.Adapun hasil visum, tambah Didik, pihaknya belum bisa memastikan penyebab pasti kematian korban selama ini. Meski sebelumnya terdapat temuan sisa minuman keras jenis tuak di sisimayatkorban saat dievakuasi di lokasi kejadian. "Tapi, kita belum bisa memastikan kematian korban meski ada temuan itu. Kita tunggu hasil pemeriksaan dan penyelidikan supaya jelas," ungkapnya. Baca Juga:Peringati HUT RI ke-75 Kemenparekraf Adakan Lomba Tebak Busana Adat Jokowi dan Iriana, Simak CaranyaDidik pun masih menunggu hasil koordinasi antara Satreskrim Polresta Tasikmalaya dengan PolsekIndihiangapakahmayatkorban akan diotopsi atau tidak."Kalau autopsi, kita masih menunggu hasil koordinasi dengan pihak Satreskrim. Nanti kita informasikan lagi," ungkapnya.Sementara itu, Kepala Satuan Reskrim Polresta Tasikmalaya, AKP Yusuf Ruhiman, mengaku belum bisa memberikan keterangan lebih lanjut kasus ini karena masih proses penyelidikan. Baca Juga:Memanas, Perdana Menteri Australia Nyatakan Kemungkinan Perang dengan Tiongkok Yusuf pun belum bisa memberikan keterangan jelas apakahmayatanak itu sebagai korban kekerasan atau kecelakaan. "Belum ya, nanti kita kabari lagi. Sekarang kita masih proses penyelidikan. Nanti sudah jelas kita kabari lagi. singkat Yusuf.Diberitakan sebelumnya, sesosokmayatanak tanpa identitas berusia sekitar 12.Penemuanmayatanak bercelana seragam SD tersebut sempat menggegerkan warga sekitar karena lokasinya persis di pinggir jalan raya samping Pasar dan Terminal Tipe AIndihiangyang setiap paginya berkerumun aktifitas warga.Hingga saat ini petugas belum menemukan identitasmayatanak tersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01652774/dinilai-hina-habib-rizieq-ratusan-umat-islam-tasikmalaya-gelar-aksi-minta-penjarakan-budi-djarot</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Dinilai Hina Habib Rizieq, Ratusan Umat Islam Tasikmalaya Gelar Aksi Minta Penjarakan Budi Djarot</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="n">
-        <v>44048.73055555556</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Setelah sebelumnya tuntut penjarakanDenny Siregar, ratusan massa yang tergabung dalam Masyarakat MuslimTasikmalayamelalukan aksi tuntut penjarakan Budi Jarot. Aksi tersebut dilakukan di sekitar Taman, Masjid Agung KotaTasikmalaya, Rabu 5 Agustus 2020 siang. Dalam aksi tersebut massa menyerukan tiga tutuntutan yang disampaikan yaitu penjarakanBudi Djarot, batalkanRUU HIP, dan tangkap serta penjarakanDenny Siregar. Koordinator lapangan aksi, Wawan Rustiawan mengatakan, aksi tersebut guna meminta polisi segera menindaklanjuti laporan terkait perusakan posterHabib Rizieq ShihabolehBudi Djarotdan kawanannya. Baca Juga:Sempat Nihil Kasus Covid-19, Sumedang Kembali Catat Penambahan Pasien Positif Menurutnya, tindakanBudi Djarotsudah sangat amoral dan melecehkan umat Islam.Budi Djarotdianggap telah menghina Imam Besar FPI Rizieq Shihab saat berorasi dalam aksi demonstrasi di depan Gedung DPR/MPR pada Senin 27 Juli 2020 lalu. "Kami mengecam keras apa yang dilakukanBudi Djarotbersama antek anteknya. Tapi kamipun paham negara kita di negara hukum, sehingga kasus ini kita percayakan ke aparat kepolisian. Kita harap polisi bertindak cepat, jangan sampai kita yang bertindak sendiri," ujar Wawan. Selain itu, massa aksi juga menyuarakan menolakRUU HIP. Terakhir, massa juga menuntut polisi cepat menuntaskan kasusDenny Siregaryang telah menghina santri dan pesantren diTasikmalaya. Baca Juga:Tanda Tanya Besar, Unggahan Tentara Israel Soal Ledakan Lebanon Ini Picu Kecurigaan "Kalau aksi ini tidak didengar dan polisi tidak bergerak menangkapBudi Djarotcs danDenny Siregarjangan salahkan jika kita umat Islam yang bertindak," terangnya. PIKIRAN RAKYAT -Setelah sebelumnya tuntut penjarakanDenny Siregar, ratusan massa yang tergabung dalam Masyarakat MuslimTasikmalayamelalukan aksi tuntut penjarakan Budi Jarot. Aksi tersebut dilakukan di sekitar Taman, Masjid Agung KotaTasikmalaya, Rabu 5 Agustus 2020 siang. Dalam aksi tersebut massa menyerukan tiga tutuntutan yang disampaikan yaitu penjarakanBudi Djarot, batalkanRUU HIP, dan tangkap serta penjarakanDenny Siregar. Koordinator lapangan aksi, Wawan Rustiawan mengatakan, aksi tersebut guna meminta polisi segera menindaklanjuti laporan terkait perusakan posterHabib Rizieq ShihabolehBudi Djarotdan kawanannya. Baca Juga:Sempat Nihil Kasus Covid-19, Sumedang Kembali Catat Penambahan Pasien Positif Menurutnya, tindakanBudi Djarotsudah sangat amoral dan melecehkan umat Islam.Budi Djarotdianggap telah menghina Imam Besar FPI Rizieq Shihab saat berorasi dalam aksi demonstrasi di depan Gedung DPR/MPR pada Senin 27 Juli 2020 lalu. "Kami mengecam keras apa yang dilakukanBudi Djarotbersama antek anteknya. Tapi kamipun paham negara kita di negara hukum, sehingga kasus ini kita percayakan ke aparat kepolisian. Kita harap polisi bertindak cepat, jangan sampai kita yang bertindak sendiri," ujar Wawan. Selain itu, massa aksi juga menyuarakan menolakRUU HIP. Terakhir, massa juga menuntut polisi cepat menuntaskan kasusDenny Siregaryang telah menghina santri dan pesantren diTasikmalaya. Baca Juga:Tanda Tanya Besar, Unggahan Tentara Israel Soal Ledakan Lebanon Ini Picu Kecurigaan "Kalau aksi ini tidak didengar dan polisi tidak bergerak menangkapBudi Djarotcs danDenny Siregarjangan salahkan jika kita umat Islam yang bertindak," terangnya.Berdasarkan pantauan di lapangan, terdapat ratusan orang yang berasal dari berbagai elemen masyarakat, mulai dari organisasi masyarakat (ormas) Islam, pesantren, dan para simpatisan turut serta dalam aksi tersebut Aksi yang digelar sekitar pukul 13.00 WIB tersebut berjalan kondusif. Rencananya, setelah melakukan aksi di sekitaran Taman KotaTasikmalaya, massa juga melakukan aksi konvoi keliling KotaTasikmalayamenuju gedung DPRD Kota Tasik guna menyerukan tiga tuntutan tersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01652367/status-zero-kasus-baru-kota-tasikmalaya-hanya-bertahan-sepekan-dinkes-dua-orang-positif-covid-19</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Status Zero Kasus Baru Kota Tasikmalaya Hanya Bertahan Sepekan, Dinkes: Dua Orang Positif Covid-19</t>
-        </is>
-      </c>
-      <c r="C251" s="2" t="n">
-        <v>44048.57430555556</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Predikat zero pasienpositifCovid-19di KotaTasikmalayatak bertahan lama. Setelah hampir sepekan, status zero pasienpositifCovid-19akhirnya rontok setelah Rabu 5 Agustus 2020 siang pasienpositifCovid-19bertambah dua orang. Data di Dinas Kesehatan KotaTasikmalayamelalui akun instagram Diskominfo KotaTasikmalaya, pasien terkonfirmasipositifCovid-19hingga Rabu 5 Agustus 2020 totalnya sudah mencapai 63 pasien. Dengan rincian 38 pasien terkonfirmasi dari hasil test PCR, dan 25 pasien RDTpositif. Lalu, dari jumlah 36 test PCR itu, 33 pasien kini telah sembuh, 2 meninggal dunia dan 3 masih aktif. Sedangkan dari 25 pasien yang diketahui dari RDT kini statusnya 24 pasien telah negatif, proses 0, dan meninggal dunia 1 orang. Baca Juga:Pertumbuhan Ekonomi Indonesia Minus hingga 5,32 Persen, Kepala BPS: Pandemi Menimbulkan Efek Domino Sedangkan untuk kategori Pasien Dalam Pengawasan (PDP), kini totalnya sebanyak 54 orang, dengan rincian 46 telah selesai perawatan, 2 pasien masih dalam pengawasan serta 6 orang meninggal dunia. Sedangkan untuk Orang Dalam Pemantauan (ODP) totalnya totalnya sebanyak 1.366 orang, dengan rincian 1.340 telah selesai dan 26 masih dipantau (proses). Sementara itu untuk Orang Tanpa Gejala (OTG) dalam data tersebut totalnya 692 orang dengan rincian 674 telah selesai dan 18 orang masih dalam pemantauan. Baca Juga:Masa AKB, Ridwan Kamil: Tak Masuk Zona Merah, Kesadaran Masyarakat Gunakan Masker Masih 50 Persen Kepala Dinas Kesehatan KotaTasikmalayadr. Uus Supangat membenarkan adanya penambahan pasien terkonfirmasipositifdi KotaTasikmalaya. PIKIRAN RAKYAT- Predikat zero pasienpositifCovid-19di KotaTasikmalayatak bertahan lama. Setelah hampir sepekan, status zero pasienpositifCovid-19akhirnya rontok setelah Rabu 5 Agustus 2020 siang pasienpositifCovid-19bertambah dua orang. Data di Dinas Kesehatan KotaTasikmalayamelalui akun instagram Diskominfo KotaTasikmalaya, pasien terkonfirmasipositifCovid-19hingga Rabu 5 Agustus 2020 totalnya sudah mencapai 63 pasien. Dengan rincian 38 pasien terkonfirmasi dari hasil test PCR, dan 25 pasien RDTpositif. Lalu, dari jumlah 36 test PCR itu, 33 pasien kini telah sembuh, 2 meninggal dunia dan 3 masih aktif. Sedangkan dari 25 pasien yang diketahui dari RDT kini statusnya 24 pasien telah negatif, proses 0, dan meninggal dunia 1 orang. Baca Juga:Pertumbuhan Ekonomi Indonesia Minus hingga 5,32 Persen, Kepala BPS: Pandemi Menimbulkan Efek Domino Sedangkan untuk kategori Pasien Dalam Pengawasan (PDP), kini totalnya sebanyak 54 orang, dengan rincian 46 telah selesai perawatan, 2 pasien masih dalam pengawasan serta 6 orang meninggal dunia. Sedangkan untuk Orang Dalam Pemantauan (ODP) totalnya totalnya sebanyak 1.366 orang, dengan rincian 1.340 telah selesai dan 26 masih dipantau (proses). Sementara itu untuk Orang Tanpa Gejala (OTG) dalam data tersebut totalnya 692 orang dengan rincian 674 telah selesai dan 18 orang masih dalam pemantauan. Baca Juga:Masa AKB, Ridwan Kamil: Tak Masuk Zona Merah, Kesadaran Masyarakat Gunakan Masker Masih 50 Persen Kepala Dinas Kesehatan KotaTasikmalayadr. Uus Supangat membenarkan adanya penambahan pasien terkonfirmasipositifdi KotaTasikmalaya."Laporannya baru masuk memang hari ini ada dua pasienpositifsehingga kita masukan ke data dan secara akumulatif jumlahnya menjadi 63 pasienpositif," katanya. Uus menambahkan, pasienpositiftersebut terkonfirmasi dari hasil PCR. Pasien tersebut merupakan warga KotaTasikmalayayang beraktivitas di Kabupaten KotaTasikmalaya. Baca Juga:Saking Dahsyatnya Ledakan di Lebanon, Korban Selamat: Aku Tidak Percaya Aku Masih Hidup "Sehingga sekarangpun yang bersangkutan dirawatnya di RS MSC Kabupaten Tasik," ujar Uus. Sementara data yang terkonfirmasipositifsatu lagi kata Uus merupakan warga Bandung yang kebetulan sedang ada di Tasik sehingga ketika diperiksa hasilnyapositifCovid -19 langsung dimasukan data. "Saat ini kedua orang tersebut dalam proses penyembuhan sehingga mudah mudahan dalam dua atau tiga hari kedepan sudah sembuh kembali," katanya.*** </t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01650756/peningkatan-kasus-positif-covid-19-kembali-terjadi-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Peningkatan Kasus Positif Covid-19 Kembali Terjadi di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="n">
-        <v>44047.72916666666</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Hingga Selasa 4 Agustus 2020, terjadi kembali peningkatan kasuspositifCovid-19di KotaTasikmalaya. Berdasarkan ‎data Instagaram Dinas Komunikasi dan Informatika yang merujuk Dinas Kesehatan KotaTasikmalaya, ‎tercatat ada 61 kasus di hari itu. Jumlah tersebut terkonfirmasi dari tes laboratorium/PCR sebanyak 36 kasus dengan 33 sembuh, 1 aktif (terjangkit) dan 2 meninggal. Jumlah lain yang terkonfirmasi melalu tes rapid sebanyak 25 kasus dengan 24 negatif, 0 proses dan 1 meninggal. Sementara pada Senin 3 Agustus 2020 atau selang sehari sebelumnya, jumlahpositifcorona masih‎ 60 kasus dengan 35 warga terkonfirmasipositifmelalui tes laboratorium atau PCR dan 25 t‎es rapid. Mereka yang terkonfirmasi via PCR, sebanyak 33 telah sembuh, 0 aktif dan 2 meninggal. Baca Juga:Berharap Jessica Iskandar Beri Izin, Richard Kyle Tak Ingin Hilang dari Hidup El Barack Sedangkan yang terkonfirmasi dari tes rapid, 24 dinyatakan negatif, 0 proses (terjangkit) dan 1 meninggal. ‎Tak pelak, terdapat penambahan satu kasus baru saat ini yang terkonfirmasi melalui PCR. Pemerintah KotaTasikmalayamemastikan bakal menutup tempat-tempat usaha yang tak menerapkan protokol kesehatan selepas terbitnya Peraturan Wali Kota Nomor 29/2020 yang mengatur tentang pemberian sanksi bagi para pelanggarnya. "Apabila tidak melaksanakan protokol kesehatan seperti tidak menggunakan masker dan jaga jarak akan langsung ditindak tegas dengan menutup tempat tersebut, tidak usah ditunggu lama-lama," kata Wakil Wali KotaTasikmalayaMuhammad Yusuf dalam unggahan Instagram Dinas Komunikasi dan Informatika padarapat evaluasi penerapan protokol kesehatan dan implementasi Perwal tersebut di Aula Balai KotaTasikmalaya, Jalan Letnan Harun, Senin 3 Agustus 2020. Baca Juga:Perwal Terbit, Pemkot Tasikmalaya Pastikan Tutup Tempat Usaha yang Langgar Protokol Kesehatan Penutupan tempat usaha dilakukan ‎kepada para pengusaha toko, kafe, dan tempat hiburan yang sebelumnya telah membuat pernyataan akan menerapkan protokol kesehatan di masa pandemi. Hal senada dikemukakan Wali Kota Budi Budiman. PIKIRAN RAKYAT -Hingga Selasa 4 Agustus 2020, terjadi kembali peningkatan kasuspositifCovid-19di KotaTasikmalaya. Berdasarkan ‎data Instagaram Dinas Komunikasi dan Informatika yang merujuk Dinas Kesehatan KotaTasikmalaya, ‎tercatat ada 61 kasus di hari itu. Jumlah tersebut terkonfirmasi dari tes laboratorium/PCR sebanyak 36 kasus dengan 33 sembuh, 1 aktif (terjangkit) dan 2 meninggal. Jumlah lain yang terkonfirmasi melalu tes rapid sebanyak 25 kasus dengan 24 negatif, 0 proses dan 1 meninggal. Sementara pada Senin 3 Agustus 2020 atau selang sehari sebelumnya, jumlahpositifcorona masih‎ 60 kasus dengan 35 warga terkonfirmasipositifmelalui tes laboratorium atau PCR dan 25 t‎es rapid. Mereka yang terkonfirmasi via PCR, sebanyak 33 telah sembuh, 0 aktif dan 2 meninggal. Baca Juga:Berharap Jessica Iskandar Beri Izin, Richard Kyle Tak Ingin Hilang dari Hidup El Barack Sedangkan yang terkonfirmasi dari tes rapid, 24 dinyatakan negatif, 0 proses (terjangkit) dan 1 meninggal. ‎Tak pelak, terdapat penambahan satu kasus baru saat ini yang terkonfirmasi melalui PCR. Pemerintah KotaTasikmalayamemastikan bakal menutup tempat-tempat usaha yang tak menerapkan protokol kesehatan selepas terbitnya Peraturan Wali Kota Nomor 29/2020 yang mengatur tentang pemberian sanksi bagi para pelanggarnya. "Apabila tidak melaksanakan protokol kesehatan seperti tidak menggunakan masker dan jaga jarak akan langsung ditindak tegas dengan menutup tempat tersebut, tidak usah ditunggu lama-lama," kata Wakil Wali KotaTasikmalayaMuhammad Yusuf dalam unggahan Instagram Dinas Komunikasi dan Informatika padarapat evaluasi penerapan protokol kesehatan dan implementasi Perwal tersebut di Aula Balai KotaTasikmalaya, Jalan Letnan Harun, Senin 3 Agustus 2020. Baca Juga:Perwal Terbit, Pemkot Tasikmalaya Pastikan Tutup Tempat Usaha yang Langgar Protokol Kesehatan Penutupan tempat usaha dilakukan ‎kepada para pengusaha toko, kafe, dan tempat hiburan yang sebelumnya telah membuat pernyataan akan menerapkan protokol kesehatan di masa pandemi. Hal senada dikemukakan Wali Kota Budi Budiman.Ia mengatakan, sanksi dalam Perwal tersebut berupa teguran, tindakan sosial sepert membersihkan lingkungan hingga denda Rp50 ribu. "Untuk tindakan kepada pelanggaran, akan ada petugas lapangan yang akan menentukan sanksi apa yang cocok untuk pelanggar serta tidak semuanya mendapatkan sanksi dennda administrasi," ucapnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01649314/sultan-di-kota-tasikmalaya-ini-jualan-onde-onde-ingin-beli-handphone-agar-bisa-belajar-online</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>'Sultan' di Kota Tasikmalaya Ini Jualan Onde-onde, Ingin Beli Handphone agar Bisa Belajar Online</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="n">
-        <v>44046.85416666666</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Namanya tidak semulus nasibnya, seorang anak bernamaSultandi KotaTasikmalayaterpaksa jualan kueonde-ondekeliling demi hasratnya untuk memiliki handphone yang dia butuhkan salahsatunya untukbelajarsistem daring selamabelajarpada masa pandemi Covid-19. Kepada wartawan,SultanZihan (15), yang bersetatus pelajar kelas IX di SMPN Salopa KabupatenTasikmalayatetsebut mengatakan, dirinya nekat berjualan keliling supaya bisa mengumpulkan uang untuk membeli handphone. Sultanmengaku handphone yang dimilikinya nanti akan digunakan untuk dipakaibelajardaring atau sistem online. Baca Juga:Bocorkan Lagu Berbahasa Inggris, BTS Siap Memasuki Era Baru Lewat Dynamite Karena kata dia, selama ini untuk bisabelajarsistem daring, dirinya terpaksa harus menumpang di teman-temannya yang memiliki ponsel pribadi. Apalagi kataSultansebentar lagi dirinya akan menghadapi ujian akhir di sekolahnya dan bercita-cita ingin melanjutkan sekolah ke SMK diTasikmalaya. "Saya berjualanonde-ondekeliling di KotaTasikmalayaberjalan kaki. Saya berangkat dari Salopa menumpang pakai motor teman saya. Motor disimpan di parkiran Dadaha, lalu saya berjalan kaki berjualanondeke toko-toko dan warga kota," ujarSultansaat menawarkanondekepada para wartawan di kantor PWITasikmalaya, Senin 3 Agustus 2020. Sultanmengaku, hampir dua bulan dirinya menjajakan kueondedengan cara berkeliling ke setiap tempat. Dia mengaku setiap harinya rata-rata dia membawa 200 buahondedari rumahnya untuk dijual. Baca Juga:Diperbolehkan Tinggalkan Rumah Sakit, Berikut Kabar Terbaru Pelatih Legendari Persib Indra Thohir Baru sore harinya, dirinya bisa kembali ke rumahnya di Salopa dengan waktu tempuh sekitar 2 jam dengan menggunakan sepeda motor. PIKIRAN RAKYAT -Namanya tidak semulus nasibnya, seorang anak bernamaSultandi KotaTasikmalayaterpaksa jualan kueonde-ondekeliling demi hasratnya untuk memiliki handphone yang dia butuhkan salahsatunya untukbelajarsistem daring selamabelajarpada masa pandemi Covid-19. Kepada wartawan,SultanZihan (15), yang bersetatus pelajar kelas IX di SMPN Salopa KabupatenTasikmalayatetsebut mengatakan, dirinya nekat berjualan keliling supaya bisa mengumpulkan uang untuk membeli handphone. Sultanmengaku handphone yang dimilikinya nanti akan digunakan untuk dipakaibelajardaring atau sistem online. Baca Juga:Bocorkan Lagu Berbahasa Inggris, BTS Siap Memasuki Era Baru Lewat Dynamite Karena kata dia, selama ini untuk bisabelajarsistem daring, dirinya terpaksa harus menumpang di teman-temannya yang memiliki ponsel pribadi. Apalagi kataSultansebentar lagi dirinya akan menghadapi ujian akhir di sekolahnya dan bercita-cita ingin melanjutkan sekolah ke SMK diTasikmalaya. "Saya berjualanonde-ondekeliling di KotaTasikmalayaberjalan kaki. Saya berangkat dari Salopa menumpang pakai motor teman saya. Motor disimpan di parkiran Dadaha, lalu saya berjalan kaki berjualanondeke toko-toko dan warga kota," ujarSultansaat menawarkanondekepada para wartawan di kantor PWITasikmalaya, Senin 3 Agustus 2020. Sultanmengaku, hampir dua bulan dirinya menjajakan kueondedengan cara berkeliling ke setiap tempat. Dia mengaku setiap harinya rata-rata dia membawa 200 buahondedari rumahnya untuk dijual. Baca Juga:Diperbolehkan Tinggalkan Rumah Sakit, Berikut Kabar Terbaru Pelatih Legendari Persib Indra Thohir Baru sore harinya, dirinya bisa kembali ke rumahnya di Salopa dengan waktu tempuh sekitar 2 jam dengan menggunakan sepeda motor.Tiap 1 buahondeujar dia, dihargai Rp2.000 dan dari tiap satu buahonde, dirinya mendapatkan keuntungan Rp1.000. "Kalau terjual semua, dalam sehari saya Alhamdulillah bisa dapat Rp200.000 keuntungannya dipotong buat beli bensin dan buat makan," katanya. Baca Juga:Pelibatan TNI dalam Mengatasi Terorisme Dianggap Kemunduran Demokrasi Selain ingin beli hp untukbelajardaring, hasil usahanya tersebut dia berikan ke orang tuanya untuk membantu kebutuhan hidup sehari hari keluarganya.Sultanmengaku, sang ibu nya pun kesehariannya sama berpropesi sebagai penjualondetapi dijual di wilayah berbeda. Sedangkan, ayahnya selama ini ujar dia berprofesi sebagai penjual gassoline atau pemantik api secara eceran di wilayah Terminal Salopa. "Sama, bapak sama mamah juga berjualanondedan gas api buat rokok. Jadi, saya coba membantu kedua orang tua saya untuk bisa membeli Hp buatbelajaronline," katanya. Baca Juga:1.659 Mahasiswa Baru Unisba Ikut Pesantren secara Daring, Rektor: Sifatnya Sama dengan Mata Kuliah "Sekarang kan pak, sudah beberapa bulan belajarnya tidak di kelas tapi online di Hp. Kalau sinyal bagus, cuma saya belum punya Hp-nya. Mudah-mudahan saya berjualanondedi kota bisa mampu beli," ujarSultanmenambahkan. BahkanSultanmengaku, saat sebelum atau sesudah berjualan, saat dirumah dirinya pun selalu membantu ibunya untuk menyiapkan keseharian makan adik-adiknya.Sultankecil ini pun memang bercita-cita ingin menjadi orang yang sukses seperti layaknya predikat sultan. "Kalau saya sudah sukses dengan berjualanonde. Saya mau bantu yang susah sesuai nama sayaSultanZihan. Untuk bisa seperti itu saya akan terus berusaha dan giatbelajar, daripada bermain gak jelas pak," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01649087/hingga-awal-agustus-2020-pemkot-tasikmalaya-catat-60-kasus-covid-19-di-wilayahnya</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Hingga Awal Agustus 2020, Pemkot Tasikmalaya Catat 60 Kasus Covid-19 di Wilayahnya</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="n">
-        <v>44046.69444444445</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Hingga awal Agustus 2020, jumlah kasusCovid-19di KotaTasikmalayamencapai 60 kasus. Dari 60 kasus tersebut, sebanyak 35 warga terkonfirmasi positif melalui tes laboratorium atau PCR dan 25 t‎es rapid. Mereka yang terkonfirmasi via PCR, sebanyak 33 telah sembuh, 0 aktif dan 2 meninggal. Sedangkan yang terkonfirmasi dari tes rapid, 24 dinyatakan negatif, 0 proses (terjangkit) dan 1 meninggal. Demikian data Instagaram Dinas Komunikasi dan Informatika yang merujuk Dinas Kesehatan KotaTasikmalaya, Senin 3 Agustus 2020. Baca Juga:BPTJ Putuskan Kurangi Layanan Bus Gratis bagi Pengguna Kereta Komuter Secara Bertahap Untuk Pasien Dalam Pengawasan (PDP), jumlahnya 54 kasus dengan 46 selesai pengawasan, 3 dalam pengawasan dan 5 meninggal. Sedangkan Orang Dalam Pemantauan (ODP), 1366 kasus dengan 1340 selesai pemantauan dan 26 dalam pemantauan. Orang Tanpa Gejala (OTG), 692 kasus dengan 674 selesai pemantauan dan 18 dalam pemantauan. Langkah menanggulangi wabah terus dilakukan PemkotTasikmalaya. Salah satunya dengan menerbitkan Peraturan Wali KotaTasikmalayaNo 29/2020.‎ Aturan itu menetapkan sanksi denda Rp 50 ribu kepada warga yang tak mengenakan masker di tempat umum.‎ "Mohon dimaklumi semua disiplin protokol kesehatanCovid-19dan keselamatan jiwa adalah segalanya," tulis Wali Kota Budi Budiman dalam media sosialnya terkait penerapan aturan itu.***‎ PIKIRAN RAKYAT -Hingga awal Agustus 2020, jumlah kasusCovid-19di KotaTasikmalayamencapai 60 kasus. Dari 60 kasus tersebut, sebanyak 35 warga terkonfirmasi positif melalui tes laboratorium atau PCR dan 25 t‎es rapid. Mereka yang terkonfirmasi via PCR, sebanyak 33 telah sembuh, 0 aktif dan 2 meninggal. Sedangkan yang terkonfirmasi dari tes rapid, 24 dinyatakan negatif, 0 proses (terjangkit) dan 1 meninggal. Demikian data Instagaram Dinas Komunikasi dan Informatika yang merujuk Dinas Kesehatan KotaTasikmalaya, Senin 3 Agustus 2020. Baca Juga:BPTJ Putuskan Kurangi Layanan Bus Gratis bagi Pengguna Kereta Komuter Secara Bertahap Untuk Pasien Dalam Pengawasan (PDP), jumlahnya 54 kasus dengan 46 selesai pengawasan, 3 dalam pengawasan dan 5 meninggal. Sedangkan Orang Dalam Pemantauan (ODP), 1366 kasus dengan 1340 selesai pemantauan dan 26 dalam pemantauan. Orang Tanpa Gejala (OTG), 692 kasus dengan 674 selesai pemantauan dan 18 dalam pemantauan. Langkah menanggulangi wabah terus dilakukan PemkotTasikmalaya. Salah satunya dengan menerbitkan Peraturan Wali KotaTasikmalayaNo 29/2020.‎ Aturan itu menetapkan sanksi denda Rp 50 ribu kepada warga yang tak mengenakan masker di tempat umum.‎ "Mohon dimaklumi semua disiplin protokol kesehatanCovid-19dan keselamatan jiwa adalah segalanya," tulis Wali Kota Budi Budiman dalam media sosialnya terkait penerapan aturan itu.***‎</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01647554/perwal-yang-atur-denda-rp50000-bagi-warga-tak-pakai-masker-di-kota-tasikmalaya-dinilai-cacat</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Perwal yang Atur Denda Rp50.000 bagi Warga Tak Pakai Masker di Kota Tasikmalaya Dinilai Cacat</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="n">
-        <v>44045.70694444444</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Terbitnya Peraturan WaliKota TasikmalayaNo 29/2020 yang menerapkan sanksidendaRp 50.000 bagi warga yang tak menggunakan masker di tempat umum dinilai cacat. Kritik dilontarkan Eki Sirojul Baehaqi, Dosen Sekolah Tinggi Agama Islam Nahdlatul Ulama Tasikmalaya. "Secara normatif, pengaturan sanksi pada level Perwal itu kurang tepat, sanksi hanya bisa dinormakan minimal pda tingkat Perda," kata Eki dalam pesan WhatsApp, Minggu, 2 Agustus 2020. Baca Juga:Akun Twitter Persib Dikritik Bobotoh Akibat Kesalahan Penulisan Struktur Bahasa Menurutnya, pengaturan sanksi di level Perwal tak dikenal. Soalnya, Perwal hanyalah norma jabaran dari setingkat Perda. "Mestinya dibuat dulu Perda-nya kalau mau," ujarnya. Terkait penerapanya efektif atau tidak, ia menilai perlu kajian yang matang. "Jangan selalu mengedepankan sanksi, semestinya pemerintah mengoptimalkan peran pencegahan, apalagi dengan dana yang cukup besar itu mestinya cukup," ucap Eki. Bahkan, ia menyatakan Perwal tersebut bisa disebut cacat formil dan materil. Baca Juga:Perwal Protokol Kesehatan Terbit, Warga Kota Tasikmalaya Tak Pakai Masker Disanksi Denda Rp50.000 ‎ "Perwal itu turunan dari Perda sebenarnya, jadi penerapan sanksi idealnya diatur oleh setingkat Perda. Yang boleh mengatur sanksi itu UU/ Perppu, Perda," tuturnya. Perwal pun tak boleh mengatur sanksi pidana. Eki berpendapat Perwal itu harus dibatalkan atau dicabut karena tak akan efektif jika tetap diteruskan.PIKIRAN RAKYAT –Terbitnya Peraturan WaliKota TasikmalayaNo 29/2020 yang menerapkan sanksidendaRp 50.000 bagi warga yang tak menggunakan masker di tempat umum dinilai cacat. Kritik dilontarkan Eki Sirojul Baehaqi, Dosen Sekolah Tinggi Agama Islam Nahdlatul Ulama Tasikmalaya. "Secara normatif, pengaturan sanksi pada level Perwal itu kurang tepat, sanksi hanya bisa dinormakan minimal pda tingkat Perda," kata Eki dalam pesan WhatsApp, Minggu, 2 Agustus 2020. Baca Juga:Akun Twitter Persib Dikritik Bobotoh Akibat Kesalahan Penulisan Struktur Bahasa Menurutnya, pengaturan sanksi di level Perwal tak dikenal. Soalnya, Perwal hanyalah norma jabaran dari setingkat Perda. "Mestinya dibuat dulu Perda-nya kalau mau," ujarnya. Terkait penerapanya efektif atau tidak, ia menilai perlu kajian yang matang. "Jangan selalu mengedepankan sanksi, semestinya pemerintah mengoptimalkan peran pencegahan, apalagi dengan dana yang cukup besar itu mestinya cukup," ucap Eki. Bahkan, ia menyatakan Perwal tersebut bisa disebut cacat formil dan materil. Baca Juga:Perwal Protokol Kesehatan Terbit, Warga Kota Tasikmalaya Tak Pakai Masker Disanksi Denda Rp50.000 ‎ "Perwal itu turunan dari Perda sebenarnya, jadi penerapan sanksi idealnya diatur oleh setingkat Perda. Yang boleh mengatur sanksi itu UU/ Perppu, Perda," tuturnya. Perwal pun tak boleh mengatur sanksi pidana. Eki berpendapat Perwal itu harus dibatalkan atau dicabut karena tak akan efektif jika tetap diteruskan.Seperti diketahui, PemerintahKota Tasikmalayamenerbitkan Peraturan WaliKota TasikmalayaNo 29/2020 tentang penerapan protokol kesehatan di masa pandemi Covid-19. Baca Juga:Daftar Mobil Toyota yang Kena Recall di Indonesia, Mulai Kijang Innova hingga Fortuner Beleid tersebut juga menetapkan sanksidendaRp 50 ribu kepada warga yang tak mengenakan masker di tempat umum. Namun aturan itu menuai kritik lantaran dinilai cacat. Pemberlakuan Perwal mencuat dalam unggahan Instagram Dinas Komunikasi dan Informatika serta Wali Kota Budi Budiman dalam instagramnya. "Mohon dimaklumi semua disiplin protokol kesehatan Covid-19 dan keselamatan jiwa adalah segalanya," tulis Budi. Baca Juga:3 Zodiak yang Diprediksi akan Beruntung pada Bulan Agustus 2020, Leo Salah Satunya Perwal tersebut merupakan perubahan atas Perwal No 24/2020.‎ Sekretaris DaerahKota TasikmalayaIvan Dicksan mengamini penerapan Perwal tersebut. Terkait sanksi berupadendaRp 50 ribu yang tertuang dalam pasal pasal 11 aturan tersebut, Ivan menyebutkan Pemkot masih melakukan sosialisasi terlebih dahulu. "Sanksi dikenakan secara bertahap, mulai dari teguran sampai dengan dengandenda," kata Ivan dalam pesan WhatsApp kepada Pikiran-rakyat.com. Ivan menambahkan, masa sosialisasi berlangsung sekitar sepekan. Dalam masa itu, petugas hanya menegur warga yang kedapatan tak menggunakan masker di tempat umum. "Kalau melanggar lagi nanti bisa dikenakandenda," ujarnya. Sebelumnya, terbitnya Perwal juga merupakan respons keluarnya Peraturan Gubernur Jawa Barat Nomor 60/2020 terkait sanksi pelanggar protokol kesehatan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01647528/perwal-protokol-kesehatan-terbit-warga-kota-tasikmalaya-tak-pakai-masker-disanksi-denda-rp50000</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Perwal Protokol Kesehatan Terbit, Warga Kota Tasikmalaya Tak Pakai Masker Disanksi Denda Rp50.000</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="n">
-        <v>44045.69791666666</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –PemerintahKota Tasikmalayamenerbitkan Peraturan WaliKota TasikmalayaNo 29/2020 tentang penerapan protokol kesehatan di masa pandemi Covid-19. Beleid tersebut juga menetapkan sanksidendaRp 50.000 kepada warga yang tak mengenakan masker di tempat umum. Namun aturan itu menuai kritik lantaran dinilai cacat. Pemberlakuan Perwal mencuat dalam unggahan Instagram Dinas Komunikasi dan Informatika serta Wali Kota Budi Budiman dalam instagramnya. Baca Juga:Daftar Mobil Toyota yang Kena Recall di Indonesia, Mulai Kijang Innova hingga Fortuner "Mohon dimaklumi semua disiplin protokol kesehatan Covid-19 dan keselamatan jiwa adalah segalanya," tulis Budi. Perwal tersebut merupakan perubahan atas Perwal No 24/2020.‎ Sekretaris DaerahKota TasikmalayaIvan Dicksan mengamini penerapan Perwal tersebut. Terkait sanksi berupadendaRp 50.000 yang tertuang dalam pasal pasal 11 aturan tersebut, Ivan menyebutkan Pemkot masih melakukan sosialisasi terlebih dahulu. "Sanksi dikenakan secara bertahap, mulai dari teguran sampai dengan dengandenda," kata Ivan dalam pesan WhatsApp kepada Pikiran-rakyat.com, pada Minggu, 2 Agustus 2020. Baca Juga:3 Zodiak yang Diprediksi akan Beruntung pada Bulan Agustus 2020, Leo Salah Satunya Ivan menambahkan, masa sosialisasi berlangsung sekitar sepekan. Dalam masa itu, petugas hanya menegur warga yang kedapatan tak menggunakan masker di tempat umum. "Kalau melanggar lagi nanti bisa dikenakandenda," ujarnya. Sebelumnya, terbitnya Perwal juga merupakan respon keluarnya Peraturan Gubernur Jawa Barat Nomor 60/2020 terkait sanksi pelanggar protokol kesehatan.PIKIRAN RAKYAT –PemerintahKota Tasikmalayamenerbitkan Peraturan WaliKota TasikmalayaNo 29/2020 tentang penerapan protokol kesehatan di masa pandemi Covid-19. Beleid tersebut juga menetapkan sanksidendaRp 50.000 kepada warga yang tak mengenakan masker di tempat umum. Namun aturan itu menuai kritik lantaran dinilai cacat. Pemberlakuan Perwal mencuat dalam unggahan Instagram Dinas Komunikasi dan Informatika serta Wali Kota Budi Budiman dalam instagramnya. Baca Juga:Daftar Mobil Toyota yang Kena Recall di Indonesia, Mulai Kijang Innova hingga Fortuner "Mohon dimaklumi semua disiplin protokol kesehatan Covid-19 dan keselamatan jiwa adalah segalanya," tulis Budi. Perwal tersebut merupakan perubahan atas Perwal No 24/2020.‎ Sekretaris DaerahKota TasikmalayaIvan Dicksan mengamini penerapan Perwal tersebut. Terkait sanksi berupadendaRp 50.000 yang tertuang dalam pasal pasal 11 aturan tersebut, Ivan menyebutkan Pemkot masih melakukan sosialisasi terlebih dahulu. "Sanksi dikenakan secara bertahap, mulai dari teguran sampai dengan dengandenda," kata Ivan dalam pesan WhatsApp kepada Pikiran-rakyat.com, pada Minggu, 2 Agustus 2020. Baca Juga:3 Zodiak yang Diprediksi akan Beruntung pada Bulan Agustus 2020, Leo Salah Satunya Ivan menambahkan, masa sosialisasi berlangsung sekitar sepekan. Dalam masa itu, petugas hanya menegur warga yang kedapatan tak menggunakan masker di tempat umum. "Kalau melanggar lagi nanti bisa dikenakandenda," ujarnya. Sebelumnya, terbitnya Perwal juga merupakan respon keluarnya Peraturan Gubernur Jawa Barat Nomor 60/2020 terkait sanksi pelanggar protokol kesehatan.Seperti diketahui, persoalan kedisplinan penerapan protokol kesehatan guna menanggulang pandemi Covid-19 memang masih menjadi permasalahan diKota Tasikmalaya. Pelanggaran kasat mata warga seperti tak memakai masker di tempat umum gampang terlihat di jalan-jalan kota itu. Baca Juga:Bek Persib Fabiano Siap Kembali Ke Lapangan Setelah Kembali dari Brasil Pantauan "PR" beberapa hari lalu, pelanggaran protokol kesehatan penanggulangan Covid-19 banyak didominasi oleh ketidakpatuhan menggunakan masker di ruang publik. Pelanggaran jenis itu gampang ditemui sejumlah ruas jalan yang menjadi pusat keramaianKota Tasikmalaya. Di Jalan KHZ Mustafa misalnya, sejumlah pengendara sepeda motor dan pejalan kaki yang melintasi ruas itu kedapatan tak memakai masker. Padahal, ruas jalan itu merupakan salah satu pusat perbelanjaan diKota Tasikmalaya. ‎ Pelanggaran serupa terlihat di Jalan Sutisna Senjaya dan Otto Iskandar Dinata. Pengguna sepeda motor, juru parkir, tukang becak tampak leluasa tak menggunakan masker.‎ Beberapa warga lain memang terlihat mengenakan masker. Baca Juga:Media Asing Soroti Kebijakan Indonesia Terkait Covid-19, Sebut Iis Dahlia hingga Kalung Anticorona Tetapi masker itu pun tak menutup hidung dan mulutnya alias hanya terpasang di bagian leher. "Lagi merokok," kata Kokon, 70 tahun, tukang becak yang tengah mangkal di Jalan Sutisna Senjaya beralasan saat ditanya kenapa tak menggunakan masker. Maskersebenarnya menempel di lehernya. Namun, Kokon tak menggunakannya saat itu. Meski demikian, ia mengaku memakai masker saat sedang menggenjot becaknya. Menurutnya, masih banyak pengguna jalan yang tak memakai masker karena cuaca yang panas. Kondisi cuaca tersebut membuatnya merasa sesak ketika mengenakan masker. Di Jalan KHZ Mustafa, terdapat pula juru parkir yang kepergok "PR" tak menggunakan masker.***‎</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01640546/pergub-terbit-pelanggaran-protokol-kesehatan-masih-terjadi-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Pergub Terbit, Pelanggaran Protokol Kesehatan Masih Terjadi di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="n">
-        <v>44041.67083333333</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Meskipun Peraturan GubernurJawa BaratNomor 60/2020 terkait sanksi pelanggar protokol kesehatan telah terbit, sejumlah pelanggaran aturan tersebut masih terjadi di KotaTasikmalaya. Di sisi lain, Pemerintah KotaTasikmalayatengah menyiapkan Peraturan Wali Kota sebagai tindak lanjut Pergub. Pantauan "PR" pelanggaran protokol kesehatan penanggulangan Covid-19 banyak didominasi oleh ketidakpatuhan menggunakan masker di ruang publik. Pelanggaran jenis itu gampang ditemui sejumlah ruas jalan yang menjadi pusat keramaian KotaTasikmalaya. Di Jalan KHZ Mustafa misalnya, sejumlah pengendara sepeda motor dan pejalan kaki yang melintasi ruas itu kedapatan tak memakai masker. Padahal, ruas jalan itu merupakan salah satu pusat perbelanjaan di KotaTasikmalaya. Baca Juga:Simak Bocoran Spesifikasi Toyota Corolla Cross Sebelum Resmi Meluncur di Indonesia Pelanggaran serupa terlihat di Jalan Sutisna Senjaya dan Otto Iskandar Dinata. Pengguna sepeda motor, juru parkir, tukang becak tampak leluasa tak menggunakan masker.‎ Beberapa warga lain memang terlihat mengenakan masker. Tetapi masker itu pun tak menutup hidung dan mulutnya alias hanya terpasang di bagian leher. "Lagi merokok," kata Kokon, 70 tahun, tukang becak yang tengah mangkal di Jalan Sutisna Senjaya beralasan saat ditanya kenapa tak menggunakan masker, Rabu 29 Juli 2020. Maskersebenarnya menempel di lehernya. Namun, Kokon tak menggunakannya saat itu. Baca Juga:Berkat Teknologi ini, Bawa Honda CBR250RR Bisa Terasa Seperti Motor Balap MotoGP Meski demikian, ia mengaku memakai masker saat sedang menggenjot becaknya. Menurutnya, masih banyak pengguna jalan yang tak memakai masker karena cuaca yang panas. Kondisi cuaca tersebut membuatnya merasa sesak ketika mengenakan masker. PIKIRAN RAKYAT -Meskipun Peraturan GubernurJawa BaratNomor 60/2020 terkait sanksi pelanggar protokol kesehatan telah terbit, sejumlah pelanggaran aturan tersebut masih terjadi di KotaTasikmalaya. Di sisi lain, Pemerintah KotaTasikmalayatengah menyiapkan Peraturan Wali Kota sebagai tindak lanjut Pergub. Pantauan "PR" pelanggaran protokol kesehatan penanggulangan Covid-19 banyak didominasi oleh ketidakpatuhan menggunakan masker di ruang publik. Pelanggaran jenis itu gampang ditemui sejumlah ruas jalan yang menjadi pusat keramaian KotaTasikmalaya. Di Jalan KHZ Mustafa misalnya, sejumlah pengendara sepeda motor dan pejalan kaki yang melintasi ruas itu kedapatan tak memakai masker. Padahal, ruas jalan itu merupakan salah satu pusat perbelanjaan di KotaTasikmalaya. Baca Juga:Simak Bocoran Spesifikasi Toyota Corolla Cross Sebelum Resmi Meluncur di Indonesia Pelanggaran serupa terlihat di Jalan Sutisna Senjaya dan Otto Iskandar Dinata. Pengguna sepeda motor, juru parkir, tukang becak tampak leluasa tak menggunakan masker.‎ Beberapa warga lain memang terlihat mengenakan masker. Tetapi masker itu pun tak menutup hidung dan mulutnya alias hanya terpasang di bagian leher. "Lagi merokok," kata Kokon, 70 tahun, tukang becak yang tengah mangkal di Jalan Sutisna Senjaya beralasan saat ditanya kenapa tak menggunakan masker, Rabu 29 Juli 2020. Maskersebenarnya menempel di lehernya. Namun, Kokon tak menggunakannya saat itu. Baca Juga:Berkat Teknologi ini, Bawa Honda CBR250RR Bisa Terasa Seperti Motor Balap MotoGP Meski demikian, ia mengaku memakai masker saat sedang menggenjot becaknya. Menurutnya, masih banyak pengguna jalan yang tak memakai masker karena cuaca yang panas. Kondisi cuaca tersebut membuatnya merasa sesak ketika mengenakan masker.Di Jalan KHZ Mustafa, terdapat pula juru parkir yang kepergok "PR" tak menggunakan masker. Salah satunya Nunang, 61 tahun. Sebagaimana Kokon, masker sebenarnya sudah melingkar di lehernya. Namun, masker itu tak menutup bagian hidung Nanung. Ia beralasan tak mengenakan masker dengan benar karena mesti membunyikan peluit kala mengatur kendaraan yang parkir. Di luar itu, Nunang mengaku mengikuti aturan penggunaan masker. Baca Juga:Ratusan Pedagang Kecil Terdampak Covid-19 di Pangandaran Terima Uang Zakat Sementara itu, Sekretaris Daerah KotaTasikmalayaIvan Dicksan mengaku Pemkot tengat menyiapkan Perwal sebagai tindak lanjut Pergub mengenai sanksi pelanggar protokol kesehatan. "Sesuai arahan Pak Wali Kota pada rapat gugus tugas Senin kemarin, di Kota Tasik direncanakan (penerapan) mulai tanggal 1 Agustus, saat ini Perwal-nya sedang disiapkan oleh Asda 1, bagian hukum dan lain-lain," kata Ivan dalam pesan WhatsApp kepada "PR". Ia menambahkan, pengecekan protokol kesehatan di berbagai tempat terus dilaksanakan oleh tim patroli dan OPD terkait.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01640339/sudah-nihil-kasus-covid-19-kota-tasikmalaya-ancang-ancang-terapkan-sanksi-bagi-pelanggar</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Sudah Nihil Kasus Covid-19, Kota Tasikmalaya Ancang-ancang Terapkan Sanksi Bagi Pelanggar</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="n">
-        <v>44041.59583333333</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Pemerintah Kota (Pemkot)Tasikmalayaberencana memberlakukan sanksi denda untuk warga yang tidak memakai masker pada 1 Agustus 2020 dengan besaran denda yang ditentukan adalah sebesar Rp50 ribu.Wali KotaTasikmalaya, Budi Budiman mengatakan, sanksi denda itu telah dirancang sejak Gubernur Jawa Barat (Jabar) Ridwan Kamil mewacanakan mengenai hal itu. Sanksi diterapkan agar warga tetap menjalani protokol kesehatan, yaitu menggunakan masker ketika keluar rumah selama pandemiCovid-19masih terjadi."Bukan masalah uang, tapi kita ingin semua masyarakat tetap disiplin. Ini demi keselamatan kita semua," kata dia, Rabu 29 Juli 2020. Baca Juga:Kesal Sekolah Tak Kunjung Dibuka, Jadi Motif Awal Pria di Garut Hina Profesi Guru Lewat FacebookBudi juga mengatakan, sanksi denda tak akan sembarangan dilakukan, akan tetapi melalui tahapan proses seperti proses peringatan terlebih dahulu sebelum pelanggar dikenai sanksi denda.Budi berharap, dengan adanya sanksi denda, pengendalian kasusCovid-19di KotaTasikmalayadapat terus dijaga. Apalagi, ia menyebut, saat ini tak ada kasus terkonfirmasi positifCovid-19di KotaTasikmalayayang masih dirawat.Berdasarkan data Dinas Keaehatan KotaTasikmalayahingga Rabu pagi, tercatat total kasus terkonfirmasi positifCovid-19sebanyak 60 orang, 35 orang terkonfirmasi melalui uji usap (swab test) dan 25 orang melalui uji cepat (rapid test). Dari total kasus itu, 57 orang dinyatakan sembuh dan tiga orang meninggal dunia. Baca Juga:Demi Bisa Berkurban, Bocah di Palembang Rela Bongkar Celengan untuk Beli 1 Ekor Kambing"Kita bersyukur hari ini tak ada dirawat, zeropasienCovid-19. Itu harus dijaga," kata Budi.Menurut dia, mempertahankan itu lebih berat daripada mengobati. Karena itu, ia mengingatkan masyarakat untuk tetap menerapkan protokol kesehatan.*** PIKIRAN RAKYAT -Pemerintah Kota (Pemkot)Tasikmalayaberencana memberlakukan sanksi denda untuk warga yang tidak memakai masker pada 1 Agustus 2020 dengan besaran denda yang ditentukan adalah sebesar Rp50 ribu.Wali KotaTasikmalaya, Budi Budiman mengatakan, sanksi denda itu telah dirancang sejak Gubernur Jawa Barat (Jabar) Ridwan Kamil mewacanakan mengenai hal itu. Sanksi diterapkan agar warga tetap menjalani protokol kesehatan, yaitu menggunakan masker ketika keluar rumah selama pandemiCovid-19masih terjadi."Bukan masalah uang, tapi kita ingin semua masyarakat tetap disiplin. Ini demi keselamatan kita semua," kata dia, Rabu 29 Juli 2020. Baca Juga:Kesal Sekolah Tak Kunjung Dibuka, Jadi Motif Awal Pria di Garut Hina Profesi Guru Lewat FacebookBudi juga mengatakan, sanksi denda tak akan sembarangan dilakukan, akan tetapi melalui tahapan proses seperti proses peringatan terlebih dahulu sebelum pelanggar dikenai sanksi denda.Budi berharap, dengan adanya sanksi denda, pengendalian kasusCovid-19di KotaTasikmalayadapat terus dijaga. Apalagi, ia menyebut, saat ini tak ada kasus terkonfirmasi positifCovid-19di KotaTasikmalayayang masih dirawat.Berdasarkan data Dinas Keaehatan KotaTasikmalayahingga Rabu pagi, tercatat total kasus terkonfirmasi positifCovid-19sebanyak 60 orang, 35 orang terkonfirmasi melalui uji usap (swab test) dan 25 orang melalui uji cepat (rapid test). Dari total kasus itu, 57 orang dinyatakan sembuh dan tiga orang meninggal dunia. Baca Juga:Demi Bisa Berkurban, Bocah di Palembang Rela Bongkar Celengan untuk Beli 1 Ekor Kambing"Kita bersyukur hari ini tak ada dirawat, zeropasienCovid-19. Itu harus dijaga," kata Budi.Menurut dia, mempertahankan itu lebih berat daripada mengobati. Karena itu, ia mengingatkan masyarakat untuk tetap menerapkan protokol kesehatan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01639360/kabar-baik-di-kota-tasikmalaya-tak-ada-lagi-pasien-covid-19</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Kabar Baik, di Kota Tasikmalaya Tak Ada Lagi Pasien Covid-19</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="n">
-        <v>44040.85555555556</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamencatat, tidak ada lagipasienCovid-19yang menjalani perawatan di rumah sakit, baikpasiendalam pengawasan (PDP) maupunpasienterkonfirmasipositifCovid-19. SeluruhpasienCovid-19yang sebelumnya dirawat di sejumlah rumah sakit di KotaTasikmalayaseluruhnya sudah selesai menjalani perawatan.Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, terakhir terdapat tigapasienCovid-19yang menjalani perawatan di rumah sakit. Salah satu di antarapasienitu berasal dari Jawa Timur. "Alhamdulillah sekarang sudah tidak ada yang dirawat. Satu di antaranya warga Jawa Timur, sudah dibawa pulang juga ke tempat asalnya," ujar Uus, Selasa 28 Juli 2020. Baca Juga:BUMD Lokomotif Kebangkitan Ekonomi JabarSementara itu, untuk duapasienpositifCovid-19dari KotaTasikmalaya, Uus mengatakan, keduanya telah melewati masa isolasi dan pemeriksaan medis. Menurut dia, oleh dokter penanggung jawabpasien, kedua orang itu dinyatakan sehat dan diizinkan pulang. "Jadi sekarang nol atau tidak lagi yang dirawat," kata dia.Uus menilai, dengan tidak adanya lagipasienyang dirawat di rumah sakit, kasusCovid-19di KotaTasikmalayamulai dapat dikendalikan. Kendati demikian, ia meminta masyarakat tetap waspada dengan menjaga pola hidup bersih dan sehat (PHBS) serta selalu menerapkan protokol kesehatan. Baca Juga:Rusuh Saat Amankan Pelaku Penghina Profesi Guru, Oknum Perwira Polisi: Saya Tembak Kamu SiahBerdasarkan data Dinas Kesehatan KotaTasikmalaya, hingga saat ini tercatat 60 kasus terkonfirmasipositifCovid-19. Sebanyak 35 orang terkonfirmasi melalui uji usap (swab test) dan 25 orang melalui uji cepat (rapid test). Dari total 60 kasus, 57 orang dinyatakan sembuh dan tiga orang meninggal dunia.*** PIKIRAN RAKYAT -Dinas Kesehatan KotaTasikmalayamencatat, tidak ada lagipasienCovid-19yang menjalani perawatan di rumah sakit, baikpasiendalam pengawasan (PDP) maupunpasienterkonfirmasipositifCovid-19. SeluruhpasienCovid-19yang sebelumnya dirawat di sejumlah rumah sakit di KotaTasikmalayaseluruhnya sudah selesai menjalani perawatan.Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, terakhir terdapat tigapasienCovid-19yang menjalani perawatan di rumah sakit. Salah satu di antarapasienitu berasal dari Jawa Timur. "Alhamdulillah sekarang sudah tidak ada yang dirawat. Satu di antaranya warga Jawa Timur, sudah dibawa pulang juga ke tempat asalnya," ujar Uus, Selasa 28 Juli 2020. Baca Juga:BUMD Lokomotif Kebangkitan Ekonomi JabarSementara itu, untuk duapasienpositifCovid-19dari KotaTasikmalaya, Uus mengatakan, keduanya telah melewati masa isolasi dan pemeriksaan medis. Menurut dia, oleh dokter penanggung jawabpasien, kedua orang itu dinyatakan sehat dan diizinkan pulang. "Jadi sekarang nol atau tidak lagi yang dirawat," kata dia.Uus menilai, dengan tidak adanya lagipasienyang dirawat di rumah sakit, kasusCovid-19di KotaTasikmalayamulai dapat dikendalikan. Kendati demikian, ia meminta masyarakat tetap waspada dengan menjaga pola hidup bersih dan sehat (PHBS) serta selalu menerapkan protokol kesehatan. Baca Juga:Rusuh Saat Amankan Pelaku Penghina Profesi Guru, Oknum Perwira Polisi: Saya Tembak Kamu SiahBerdasarkan data Dinas Kesehatan KotaTasikmalaya, hingga saat ini tercatat 60 kasus terkonfirmasipositifCovid-19. Sebanyak 35 orang terkonfirmasi melalui uji usap (swab test) dan 25 orang melalui uji cepat (rapid test). Dari total 60 kasus, 57 orang dinyatakan sembuh dan tiga orang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01638415/pengendara-motor-di-kota-tasikmalaya-tewas-terlindas-truk-tronton-usai-bersenggolan-dengan-yang-lain</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Pengendara Motor di Kota Tasikmalaya Tewas Terlindas Truk Tronton Usai Bersenggolan dengan yang Lain</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="n">
-        <v>44040.38402777778</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Kecelakaan lalu lintas hingga merenggut korban jiwa kembali terjadi di wilayah hukum PolrestaTasikmalaya. Senin 27 Juli 2020 sekira pukul 21.00 WIB, seorangpengendaramotortewasterlindastruktronton setelah sebelumnya bersenggolan dengan sepedamotorlainnya. Kejadian yang merengut korban jiwa tersebut terjadi di Jalan RE Martadinata, tepatnya di depan Asrama Yapapin, Kampung Panunggal, Kel Ciepdes, Kecamatan Cipedes,KotaTasikmalaya, Jawa Barat. Kanit Laka Satlantas PolrestaTasikmalaya, Ipda Zezen Zaenal membenarkan kejadian tersebut. Kata dia, korban yang meninggal dunia adalah Azis Munawar (29), buruh warga Cineam, KabupatenTasikmalaya, Jawa Barat. Baca Juga:Tarik Perhatian Dunia Terkait Athena, Tom Hanks dan Rita Wilson Jadi Warga Negara Kehormatan Yunani Kronologinya, korban saat itu mengendaraimotorYamaha Jupiter Mx tanpa nopol melaju dari arah barat (Jati), menuju ke arah timur (Mitra Batik) ketika mendahului kendaraantruktronton Hino bernopol Z 9791 MM. "Jadimotorkorban awalnya menyaliptruktronton di depannya," ujar Zezen, Selasa 28 Juli 2020 pagi. Baca Juga:Orang Tua Terjebak Lockdown, Atta Halilintar Beri Bocoran Tanggal Pernikahan dengan Aurel Hermansyah Terang Zezen, kemudian saat menyalip itu korban menabrak sepedamotormatic yang sedang berbelok ke arah selatan (Panunggal). "Lalu sepedamotorkorban terjatuh ke arah kiri dan masuk ke bawah kendaraan yang sedang didahuluinya (truktronton) hinggaterlindas," terangnya. PIKIRAN RAKYAT- Kecelakaan lalu lintas hingga merenggut korban jiwa kembali terjadi di wilayah hukum PolrestaTasikmalaya. Senin 27 Juli 2020 sekira pukul 21.00 WIB, seorangpengendaramotortewasterlindastruktronton setelah sebelumnya bersenggolan dengan sepedamotorlainnya. Kejadian yang merengut korban jiwa tersebut terjadi di Jalan RE Martadinata, tepatnya di depan Asrama Yapapin, Kampung Panunggal, Kel Ciepdes, Kecamatan Cipedes,KotaTasikmalaya, Jawa Barat. Kanit Laka Satlantas PolrestaTasikmalaya, Ipda Zezen Zaenal membenarkan kejadian tersebut. Kata dia, korban yang meninggal dunia adalah Azis Munawar (29), buruh warga Cineam, KabupatenTasikmalaya, Jawa Barat. Baca Juga:Tarik Perhatian Dunia Terkait Athena, Tom Hanks dan Rita Wilson Jadi Warga Negara Kehormatan Yunani Kronologinya, korban saat itu mengendaraimotorYamaha Jupiter Mx tanpa nopol melaju dari arah barat (Jati), menuju ke arah timur (Mitra Batik) ketika mendahului kendaraantruktronton Hino bernopol Z 9791 MM. "Jadimotorkorban awalnya menyaliptruktronton di depannya," ujar Zezen, Selasa 28 Juli 2020 pagi. Baca Juga:Orang Tua Terjebak Lockdown, Atta Halilintar Beri Bocoran Tanggal Pernikahan dengan Aurel Hermansyah Terang Zezen, kemudian saat menyalip itu korban menabrak sepedamotormatic yang sedang berbelok ke arah selatan (Panunggal). "Lalu sepedamotorkorban terjatuh ke arah kiri dan masuk ke bawah kendaraan yang sedang didahuluinya (truktronton) hinggaterlindas," terangnya.Baca Juga:Terduga Pasien Covid-19 Korea Utara Ternyata Buron di Korsel, Nekat Kabur Lewat Selokan dan Lautan Kemudian, tambah Zezen, akibat insiden tersebut korban meninggal dunia di tempat kejadian. Sedangkan sepedamotormatic yang diduga terlibat kejadian itu langsung kabur tancap gas. Sopir TrukTronton, Deni (41) menuturkan, saat itu dirinya melihat korban mengendarai motornya menyalip kendaraan yang dikemudikannya. Baca Juga:Terduga Pasien Covid-19 Korea Utara Ternyata Buron di Korsel, Nekat Kabur Lewat Selokan dan Lautan "Lalu usai menyaliptruksaya tiba-tiba banyak yang teriak ibu-ibu. Ternyata korban menabrakmotormatic dan masuk ke kolong mobil hinggaterlindas," tukasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01637633/sampah-berceceran-truk-sampah-terguling-di-jalan-sewaka-mangkubumi-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Sampah Berceceran, Truk Sampah Terguling di Jalan Sewaka Mangkubumi Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C261" s="2" t="n">
-        <v>44039.70347222222</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Truk bermuatansampahmilik Dinas Lingkungan Hidup (DLH)Kota Tasikmalayamengalami kecelakaan di Jalan Sewaka,  Kecamatan Mangkubumi, Senin, 27 Juli 2020 siang, sekitar pukul 12.00 WIB. Truk bermuatansampahpenuh tersebut terbalik di lokasi kejadian akibat setir bermasalah sehingga pengemudi tidak bisa mengendalikan kendaraannya saat melintas di Jalan Sewaka yang tekstur jalannya menurun dan berbelok.Untungnya dalam kejadian ini tak sampai menimbulkan korban jiwa. Hanya saja, selain truk tersebut terguling,sampahyang dimuatnya tercecer di jalan. Baca Juga:Cara Inggris Tekan Kematian Covid-19, Minta Warganya Tak Banyak Makan hingga Larang Iklan Junk FoodKanit Lakalantas Satlantas Polresta Tasikmalaya, Ipda Zenzen Zaenal membenarkan adanya kecelakaan tunggal tersebut. Kata dia saat ini proses evakuasisampahyang berceceran masih dilakukan."Jadi awalnya kami menerima laporan telah terjadi kecelakaan tunggal di Jalan Sewaka, yaitu kendaraan dari Dinas Lingkungan Hidup (DLH) Kota Tasik," ujar Zenzen.Terang Zenzen, truk tersebut terguling diduga setirnya mengalami masalah yaitu mendadak terkunci alias macet. Maka, sang sopir tak dapat mengendalikan laju truk tersebut. Baca Juga:Penyerang Legendaris Persib Ungkap Ucapan Indra Thohir di Laga Final Liga Indonesia 1994/1995"Kendraan truk ini melaju dari arah Linggajaya ke Cisumur. Di mana di tempat kejadian, setir dari kendaraan dinas mengalami permasalahan yaitu terkunci mendadak," terangnya."Sehingga kendaraan mengarah ke arah kanan kemudian ban depan sebelah kanan naik ke trotoar. Lalu kendaraan tumpah ke sebelah kiri," sambungnya.Dia menambahkan, truk tersebut belum dievakuasi karena sedang mengangkutsampahyang tercecer. Jikasampahsudah diangkut pihaknya akan mengevakuasi dengan diderek supaya tak mengganggu kelancaran arus lalu lintas. Baca Juga:Tiga Desa Lockdown Menyusul Lonjakan Infeksi Covid-19 di Kabupaten Cirebon"Untuk arus lalu lintas cukup terjadi kepadatan karena di siang hari saat jam isetirahat. Namun anggota Satlantas turun langsung melakukan pengaturan sehingga tidak terjadi antrian kendaraan yang panjang," tambahnya.Dia mengimbau agar para pengendara tetap ekstra hati-hati saat berkendara dan rutin mengecek kendaraannya agar kejadian serupa tak terulang di kemudian hari."Kami imbau pengendara tetap hati-hati dan siaga ketika berkendara. Serta jangan lupa selalu rutin memeriksakan kendaraannya agar meminimalisir kejadian yang tidak dinginkan seperti kecelakaan lalu lintas," katanya.***PIKIRAN RAKYAT -Truk bermuatansampahmilik Dinas Lingkungan Hidup (DLH)Kota Tasikmalayamengalami kecelakaan di Jalan Sewaka,  Kecamatan Mangkubumi, Senin, 27 Juli 2020 siang, sekitar pukul 12.00 WIB. Truk bermuatansampahpenuh tersebut terbalik di lokasi kejadian akibat setir bermasalah sehingga pengemudi tidak bisa mengendalikan kendaraannya saat melintas di Jalan Sewaka yang tekstur jalannya menurun dan berbelok.Untungnya dalam kejadian ini tak sampai menimbulkan korban jiwa. Hanya saja, selain truk tersebut terguling,sampahyang dimuatnya tercecer di jalan. Baca Juga:Cara Inggris Tekan Kematian Covid-19, Minta Warganya Tak Banyak Makan hingga Larang Iklan Junk FoodKanit Lakalantas Satlantas Polresta Tasikmalaya, Ipda Zenzen Zaenal membenarkan adanya kecelakaan tunggal tersebut. Kata dia saat ini proses evakuasisampahyang berceceran masih dilakukan."Jadi awalnya kami menerima laporan telah terjadi kecelakaan tunggal di Jalan Sewaka, yaitu kendaraan dari Dinas Lingkungan Hidup (DLH) Kota Tasik," ujar Zenzen.Terang Zenzen, truk tersebut terguling diduga setirnya mengalami masalah yaitu mendadak terkunci alias macet. Maka, sang sopir tak dapat mengendalikan laju truk tersebut. Baca Juga:Penyerang Legendaris Persib Ungkap Ucapan Indra Thohir di Laga Final Liga Indonesia 1994/1995"Kendraan truk ini melaju dari arah Linggajaya ke Cisumur. Di mana di tempat kejadian, setir dari kendaraan dinas mengalami permasalahan yaitu terkunci mendadak," terangnya."Sehingga kendaraan mengarah ke arah kanan kemudian ban depan sebelah kanan naik ke trotoar. Lalu kendaraan tumpah ke sebelah kiri," sambungnya.Dia menambahkan, truk tersebut belum dievakuasi karena sedang mengangkutsampahyang tercecer. Jikasampahsudah diangkut pihaknya akan mengevakuasi dengan diderek supaya tak mengganggu kelancaran arus lalu lintas. Baca Juga:Tiga Desa Lockdown Menyusul Lonjakan Infeksi Covid-19 di Kabupaten Cirebon"Untuk arus lalu lintas cukup terjadi kepadatan karena di siang hari saat jam isetirahat. Namun anggota Satlantas turun langsung melakukan pengaturan sehingga tidak terjadi antrian kendaraan yang panjang," tambahnya.Dia mengimbau agar para pengendara tetap ekstra hati-hati saat berkendara dan rutin mengecek kendaraannya agar kejadian serupa tak terulang di kemudian hari."Kami imbau pengendara tetap hati-hati dan siaga ketika berkendara. Serta jangan lupa selalu rutin memeriksakan kendaraannya agar meminimalisir kejadian yang tidak dinginkan seperti kecelakaan lalu lintas," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01636518/mayat-perempuan-ditemukan-mengambang-di-kolam-ikan-terlihat-luka-di-3-titik-dan-akan-diautopsi</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Mayat Perempuan Ditemukan Mengambang di Kolam Ikan, Terlihat Luka di 3 Titik dan Akan Diautopsi</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="n">
-        <v>44038.80486111111</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Mayat perempuan muda yang ditemukan di sebuah kolam di Kelurahan Sukamaju Kaler, Kecamatan Indihiang,Kota Tasikmalaya, Minggu, 26 Juli 2020 sore, akan diautopsi di RSUD dr. Soekardjo,Kota Tasikmalaya.Kasat Reskrim Polresta Tasikmalaya, AKP Yusuf Ruhiman saat datang ke kamar mayat RSUD dr. Soekardjo mengatakan, ada luka di bagian tangan, wajah, dan kepala korban. Namun sejauh ini belum bisa disimpulkan luka tersebut. Baca Juga:Lima Tambahan Kasus Positif Covid-19 Cimahi Diduga Kontak dengan Pasien di Secapa AD Pihaknya juga belum mengetahui identitas korban, karena tidak ditemukan identitas korban. Usia korban pun masih didalami, namun diperkirakan berusia 18 tahun."Secara visual memang ditemukan tanda-tanda luka di kepala, wajah dan tangannya. Namun untuk lebih jelasnya, kita tunggu saja hasilautopsi," ucapnya.Menurut Yusuf, terkait waktu otopsi memang masih dikoordinasikan dengan dokternya. Bisa sajaautopsidilakukan malam ini, atau bisa juga besok tergantung dari kesiapan tim dokternya. Baca Juga:Banyak Mahasiswa Ajukan Penyesuaian UKT Selama Pandemi Covid-19, Ini Sikap Unpad dan ITBKondisi mayat memang sudah membusuk dan mengeluarkan bau. Sehingga untuk melakukan identifikasi membutuhkan yang teliti. Adapun di sekitar lokasi tidak ditemukan bukti-bukti yang berkaitan dengan korban selain dari pakaian."Kita tunggu saja hasilautopsi. Diharapkan bisa menghasilkan keterangan terkait identitas korban dan penyebab kematiannya," ungkapnya.Seperti diketahui warga di Kelurahan Sukamaju Kaler, Kecamatan Indihiang,Kota Tasikmalayadigegerkan dengan ditemukannya sesosok mayat di kolam, Minggu sore. Baca Juga:SEDANG BERLANGSUNG Live Streaming MotoGP 2020 Andalusia, Membayangkan Balapan tanpa Marc MarquezMayat tersebut berjenis kelamin perempuan dengan usia sekitar belasan tahun. Dari mayat perempuan muda yang belum diketahui identitasnya itu sudah mengeluarkan bau tak sedap.Mendapatkan laporan adanya temuan mayat, petugas dari Polsek Indihiang, Polresta Tasikmalaya langsung menuju ke lokasi. Bersama tim Inafis Polresta Tasikmalaya, melakukan identifikasi. Selanjutnya mayat perempuan tersebut dievakuasi dan dibawa ke kamar mayat RSUD dr. Soekarjo,Kota Tasikmalaya.***PIKIRAN RAKYAT -Mayat perempuan muda yang ditemukan di sebuah kolam di Kelurahan Sukamaju Kaler, Kecamatan Indihiang,Kota Tasikmalaya, Minggu, 26 Juli 2020 sore, akan diautopsi di RSUD dr. Soekardjo,Kota Tasikmalaya.Kasat Reskrim Polresta Tasikmalaya, AKP Yusuf Ruhiman saat datang ke kamar mayat RSUD dr. Soekardjo mengatakan, ada luka di bagian tangan, wajah, dan kepala korban. Namun sejauh ini belum bisa disimpulkan luka tersebut. Baca Juga:Lima Tambahan Kasus Positif Covid-19 Cimahi Diduga Kontak dengan Pasien di Secapa AD Pihaknya juga belum mengetahui identitas korban, karena tidak ditemukan identitas korban. Usia korban pun masih didalami, namun diperkirakan berusia 18 tahun."Secara visual memang ditemukan tanda-tanda luka di kepala, wajah dan tangannya. Namun untuk lebih jelasnya, kita tunggu saja hasilautopsi," ucapnya.Menurut Yusuf, terkait waktu otopsi memang masih dikoordinasikan dengan dokternya. Bisa sajaautopsidilakukan malam ini, atau bisa juga besok tergantung dari kesiapan tim dokternya. Baca Juga:Banyak Mahasiswa Ajukan Penyesuaian UKT Selama Pandemi Covid-19, Ini Sikap Unpad dan ITBKondisi mayat memang sudah membusuk dan mengeluarkan bau. Sehingga untuk melakukan identifikasi membutuhkan yang teliti. Adapun di sekitar lokasi tidak ditemukan bukti-bukti yang berkaitan dengan korban selain dari pakaian."Kita tunggu saja hasilautopsi. Diharapkan bisa menghasilkan keterangan terkait identitas korban dan penyebab kematiannya," ungkapnya.Seperti diketahui warga di Kelurahan Sukamaju Kaler, Kecamatan Indihiang,Kota Tasikmalayadigegerkan dengan ditemukannya sesosok mayat di kolam, Minggu sore. Baca Juga:SEDANG BERLANGSUNG Live Streaming MotoGP 2020 Andalusia, Membayangkan Balapan tanpa Marc MarquezMayat tersebut berjenis kelamin perempuan dengan usia sekitar belasan tahun. Dari mayat perempuan muda yang belum diketahui identitasnya itu sudah mengeluarkan bau tak sedap.Mendapatkan laporan adanya temuan mayat, petugas dari Polsek Indihiang, Polresta Tasikmalaya langsung menuju ke lokasi. Bersama tim Inafis Polresta Tasikmalaya, melakukan identifikasi. Selanjutnya mayat perempuan tersebut dievakuasi dan dibawa ke kamar mayat RSUD dr. Soekarjo,Kota Tasikmalaya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01635216/kasus-dbd-melonjak-dprd-kota-tasikmalaya-angkat-bicara</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Kasus DBD Melonjak, DPRD Kota Tasikmalaya Angkat Bicara</t>
-        </is>
-      </c>
-      <c r="C263" s="2" t="n">
-        <v>44037.66111111111</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Terus meningkatnya kasus Demam Berdarah Dengue (DBD) di KotaTasikmalaya, DPRD KotaTasikmalayaangkat bicara. DPRD meminta, kasusDBDharus menjadi perhatian serius pemerintah sehingga kasusDBDbisa cepat dikendalikan terutama jangan sampai ada kasus yang meninggal. Ketua Komisi IV DPRD KotaTasikmalayaDede Muharam menilai, terus meningkatnya kasus Demam Berdarah Dengue (DBD) di KotaTasikmalayaharus menjadi perhatian yang lebih serius dari Pemerintah KotaTasikmalayadalam hal ini Dinas Kesehatan. Termasuk dijadikan sebuah bahan evaluasi untuk tahun 2021 mendatang. "Sampai saat ini untuk program pencegahanDBDini belum terlihat," katanya. Baca Juga:Kota Cirebon akan Gelar Salat Idul Adha, Difokuskan pada Satu Tempat, Ini Imbauan untuk Warga Dede menjelaskan, selama ini terkesan masalah pencegahan selalu terkendala dengan anggaran. Dengan begitu dalam halDBDini Wali KotaTasikmalayaharus memberikan perhatian lebih. "Pencegahan preventif ini harus lebih ditingkatkan dibandingkan kurative," ungkap dia. Melihat kondisi saat ini ujar dia, kasusDBDyang terus merangkak naik hingga mendekati 1000 kasus, harus ada penekanan atau penurunan kasus. Baca Juga:8.800 Meter Kabel PJU di 22 Titik Pekanbaru Dicuri, Dishub Imbau Warga Jaga Fasilitas Umum "Kasus itu harus betul-betul ditekan jangan sampai akhir tahun nanti lebih dari 1000 kasus," kata dia. Sebetulnya, kata dia KasusDBDini bisa ditekan dengan adanya keberpihakan anggaran dari pemerintah. Melihat kasusDBDini merupakan kasus yang terjadi setiap tahun.PIKIRAN RAKYAT -Terus meningkatnya kasus Demam Berdarah Dengue (DBD) di KotaTasikmalaya, DPRD KotaTasikmalayaangkat bicara. DPRD meminta, kasusDBDharus menjadi perhatian serius pemerintah sehingga kasusDBDbisa cepat dikendalikan terutama jangan sampai ada kasus yang meninggal. Ketua Komisi IV DPRD KotaTasikmalayaDede Muharam menilai, terus meningkatnya kasus Demam Berdarah Dengue (DBD) di KotaTasikmalayaharus menjadi perhatian yang lebih serius dari Pemerintah KotaTasikmalayadalam hal ini Dinas Kesehatan. Termasuk dijadikan sebuah bahan evaluasi untuk tahun 2021 mendatang. "Sampai saat ini untuk program pencegahanDBDini belum terlihat," katanya. Baca Juga:Kota Cirebon akan Gelar Salat Idul Adha, Difokuskan pada Satu Tempat, Ini Imbauan untuk Warga Dede menjelaskan, selama ini terkesan masalah pencegahan selalu terkendala dengan anggaran. Dengan begitu dalam halDBDini Wali KotaTasikmalayaharus memberikan perhatian lebih. "Pencegahan preventif ini harus lebih ditingkatkan dibandingkan kurative," ungkap dia. Melihat kondisi saat ini ujar dia, kasusDBDyang terus merangkak naik hingga mendekati 1000 kasus, harus ada penekanan atau penurunan kasus. Baca Juga:8.800 Meter Kabel PJU di 22 Titik Pekanbaru Dicuri, Dishub Imbau Warga Jaga Fasilitas Umum "Kasus itu harus betul-betul ditekan jangan sampai akhir tahun nanti lebih dari 1000 kasus," kata dia. Sebetulnya, kata dia KasusDBDini bisa ditekan dengan adanya keberpihakan anggaran dari pemerintah. Melihat kasusDBDini merupakan kasus yang terjadi setiap tahun."Makanya anggaran dan rencananya harus betul-betul matang, keberpihakan anggaran harus ditingkatkan, jangan sampai seperti saat ini tidak ada anggaran," jelas Politisi PKS itu. Baca Juga:Salat Jumat Perdana Digelar di Hagia Sophia, Warga di Yunani Protes dan Lakukan Unjuk Rasa Pria yang juga menjabat Ketua Komisi IV itu, menilai bila anggaran untuk pencegahan dan penangananDBDitu tidak dipersiapkan pada tahun 2021 kasusDBDdi khawatirkan akan semakin meningkat. "Itu akan sangat mungkin terjadi bila tidak ada persiapan dari segi anggaran dan tenaga dalam pencegahan," ungkap Dede. Menurut dia, untuk saat ini karena kasus itu sudah terjadi, harus disikapi oleh semua pihak agar kasus itu tidak semakin banyak begitupun yang meninggal dunia. "Saat ini pemerintah harus bersikap agar kasusnya tidak terus naik," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01635118/gerebek-pabrik-miras-polsek-indihiang-kota-tasikmalaya-ingatkan-warga</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Gerebek Pabrik Miras, Polsek Indihiang Kota Tasikmalaya Ingatkan Warga</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="n">
-        <v>44037.60902777778</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Polsek Indihiang, PolrestaTasikmalayamenggerebek pabrik pembuatanmirasrumah dari dua lokasi yang berbeda, Jumat 24 Juli 2020 malam. Dari hasil penggerebekan tersebut petugas berhasil menggalkan percobaan peredaran ribuan liter minuman keras jenis tuak di wilayah KotaTasikmalaya. "Keberhasilan mengungkap peredaran minuman keras ini berkat informasi dari warga yang menyampaikan adanya rumah yang dicurigai memproduksimiras," kata Kapolsek Indihiang, Kompol. H. Didik Rohim Hadi kepada wartawan. Menurutnya, atas informasi tersebut, pihaknya langsung melakukan razia ke dua lokasi. Lokasi pertama di Kampung Ciroyom, Kelurahan Parakanyasag, Kecamatan Indihiang, dan lokasi kedua berada di Kampung Cinehel, Kelurahan Panyingkiran, Kecamatan Indihiang. Baca Juga:Video Catherine Wilson Diduga Dalam Pengaruh Obat di Acara Talk Show Viral, Sule: Jadikan Pelajaran Dari dua lokasi tersebut polisi berhasil mengamankan ribuan litermirasjenis tuak siap edar. "Didugamirastersebut akan diedarkan pada malam takbiran Idul Adha dan malam akhir pekan," tuturnya. Dikatakan Didik, ribuanmirasdiamankan ke Mako Polsek Indihiang. Adapun pemilikmirassendiri masih menjalani pemeriksaan guna pengembangan kasusnya. Jika diminum kata Didik, jika diminum, minuman keras ini dampaknya sangat buruk, karena bisa memicukriminalitas, bahkan tidak sedikit dari kasus kejahatan yang awalnya akibat terpengaruh alkohol. Hal tersebut karena akal sehat pengkonsumsinya terganggu dan nekat melakukan tindakan kejahatan. "Kami imbau kepada masyarakat jangan coba-coba mengkonsumsi minuman keras. Karena dampaknya akan menciptakan situasi gangguan Kamtibmas. Sebab berbagai tindakankriminalitasyang terjadi di latar belakangi olehmiras," ungkapnya.*** PIKIRAN RAKYAT -Polsek Indihiang, PolrestaTasikmalayamenggerebek pabrik pembuatanmirasrumah dari dua lokasi yang berbeda, Jumat 24 Juli 2020 malam. Dari hasil penggerebekan tersebut petugas berhasil menggalkan percobaan peredaran ribuan liter minuman keras jenis tuak di wilayah KotaTasikmalaya. "Keberhasilan mengungkap peredaran minuman keras ini berkat informasi dari warga yang menyampaikan adanya rumah yang dicurigai memproduksimiras," kata Kapolsek Indihiang, Kompol. H. Didik Rohim Hadi kepada wartawan. Menurutnya, atas informasi tersebut, pihaknya langsung melakukan razia ke dua lokasi. Lokasi pertama di Kampung Ciroyom, Kelurahan Parakanyasag, Kecamatan Indihiang, dan lokasi kedua berada di Kampung Cinehel, Kelurahan Panyingkiran, Kecamatan Indihiang. Baca Juga:Video Catherine Wilson Diduga Dalam Pengaruh Obat di Acara Talk Show Viral, Sule: Jadikan Pelajaran Dari dua lokasi tersebut polisi berhasil mengamankan ribuan litermirasjenis tuak siap edar. "Didugamirastersebut akan diedarkan pada malam takbiran Idul Adha dan malam akhir pekan," tuturnya. Dikatakan Didik, ribuanmirasdiamankan ke Mako Polsek Indihiang. Adapun pemilikmirassendiri masih menjalani pemeriksaan guna pengembangan kasusnya. Jika diminum kata Didik, jika diminum, minuman keras ini dampaknya sangat buruk, karena bisa memicukriminalitas, bahkan tidak sedikit dari kasus kejahatan yang awalnya akibat terpengaruh alkohol. Hal tersebut karena akal sehat pengkonsumsinya terganggu dan nekat melakukan tindakan kejahatan. "Kami imbau kepada masyarakat jangan coba-coba mengkonsumsi minuman keras. Karena dampaknya akan menciptakan situasi gangguan Kamtibmas. Sebab berbagai tindakankriminalitasyang terjadi di latar belakangi olehmiras," ungkapnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01634341/jumlah-pasien-dbd-di-kota-tasikmalaya-tertinggi-di-jawa-barat-dinkes-952-kasus-dengan-19-meninggal</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Jumlah Pasien DBD di Kota Tasikmalaya Tertinggi di Jawa Barat, Dinkes: 952 Kasus dengan 19 Meninggal</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="n">
-        <v>44037.29513888889</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Serangan nyamukAedes AegyptidiKota Tasikmalayaterus mengganas. Hari ini Jumat 24 juli 2020 seorang wargaKota Tasikmalayakembalimeninggaldunia akibat serangan nyamukAedes Aegyptipenyebab penyakit Demam Berdarah Dengue (DBD). Dengan kasus tersebut, hingga Jumat 24 Juli 2020, 19 jiwa diKota Tasikmalayameninggalakibat keganasan nyamuk tersebut. Tragisnya lagi dari jumlah korban jiwa tersebut, 13 diantaranya adalah usia dibawah umur atau anak anak. Bahkan angka kasus kematianDBDakibat serangan nyamukAedes AegyptidiKota Tasikmalayatersebut, menjadi angka kasus kematiantertinggisecara nasional. Selain kasus kematian, akibat serangan nyamuk tersebut telah mengakibatkan angka kasusDBDdiKota Tasikmalayadengan jumlah 952 kasus merupakantertinggise-Jawa Barat. Baca Juga:Tidak Kenakan Masker di Kota Cirebon, Bakal Dikenakan Sanksi Sosial dan Denda hingga Rp150 Ribu Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat mengatakan, kasus kematian akibatDBDdi Kota diKota Tasikmalayauntuk sekarang ini kembali bertambah hingga mencapai 19 orang dan kebanyakan anak di bawah umur. Berdasarkan data terakhir sejak Januari hingga Juli 2020 telah tercatat 952 kasusDBDdi wilayahnya. Namun demikian Pemerintah Kota (Pemkot) Tasikmalaya belum juga menerapkan status kejadian luar biasa (KLB) Demam Berdarah Dengue (DBD). PadahalDinas KesehatanKota Tasikmalayamencatat, pasien demam berdarah dengue (DBD) di wilayahKota Tasikmalayasejak Januari 2020mendekati angka 1000 kasus. Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat mengatakan, KasusDBDdiwilayahnya terus menunjukan kenaikan yang cukup signifikan. Jadi semua harus waspada," kata Uus, Jumat 24 Juli 2020. Baca Juga:28 Santri Pondok Gontor 2 Positif Covid-19, Bupati: Sumbang Angka Kasus Terbesar di Ponorogo Menurut dia, kasusDBDbisa dicegah melalui pola hidup bersih dan sehat (PHBS) dan melakukan pemberantasan sarang nyamuk (PSN). Ia menambahkan, pemberantasan harus dilakukan secara mandiri dengan menguras, menutup, dan mengubur (3M), tempat-tempat yang berpotensi menjadi sarang nyamuk. PIKIRAN RAKYAT- Serangan nyamukAedes AegyptidiKota Tasikmalayaterus mengganas. Hari ini Jumat 24 juli 2020 seorang wargaKota Tasikmalayakembalimeninggaldunia akibat serangan nyamukAedes Aegyptipenyebab penyakit Demam Berdarah Dengue (DBD). Dengan kasus tersebut, hingga Jumat 24 Juli 2020, 19 jiwa diKota Tasikmalayameninggalakibat keganasan nyamuk tersebut. Tragisnya lagi dari jumlah korban jiwa tersebut, 13 diantaranya adalah usia dibawah umur atau anak anak. Bahkan angka kasus kematianDBDakibat serangan nyamukAedes AegyptidiKota Tasikmalayatersebut, menjadi angka kasus kematiantertinggisecara nasional. Selain kasus kematian, akibat serangan nyamuk tersebut telah mengakibatkan angka kasusDBDdiKota Tasikmalayadengan jumlah 952 kasus merupakantertinggise-Jawa Barat. Baca Juga:Tidak Kenakan Masker di Kota Cirebon, Bakal Dikenakan Sanksi Sosial dan Denda hingga Rp150 Ribu Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat mengatakan, kasus kematian akibatDBDdi Kota diKota Tasikmalayauntuk sekarang ini kembali bertambah hingga mencapai 19 orang dan kebanyakan anak di bawah umur. Berdasarkan data terakhir sejak Januari hingga Juli 2020 telah tercatat 952 kasusDBDdi wilayahnya. Namun demikian Pemerintah Kota (Pemkot) Tasikmalaya belum juga menerapkan status kejadian luar biasa (KLB) Demam Berdarah Dengue (DBD). PadahalDinas KesehatanKota Tasikmalayamencatat, pasien demam berdarah dengue (DBD) di wilayahKota Tasikmalayasejak Januari 2020mendekati angka 1000 kasus. Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat mengatakan, KasusDBDdiwilayahnya terus menunjukan kenaikan yang cukup signifikan. Jadi semua harus waspada," kata Uus, Jumat 24 Juli 2020. Baca Juga:28 Santri Pondok Gontor 2 Positif Covid-19, Bupati: Sumbang Angka Kasus Terbesar di Ponorogo Menurut dia, kasusDBDbisa dicegah melalui pola hidup bersih dan sehat (PHBS) dan melakukan pemberantasan sarang nyamuk (PSN). Ia menambahkan, pemberantasan harus dilakukan secara mandiri dengan menguras, menutup, dan mengubur (3M), tempat-tempat yang berpotensi menjadi sarang nyamuk.Uus juga mengingatkan, mayarakat tak bisa mengandalkan pengasapan (fogging) dalam pencegahanDBD. Sebab, fogging hanya bisa membunun nyamuk dewasa. Sementara jentik atau sarang nyamuk tidak hilang dengan dilakukannya fogging. "Jadi masyarakat tolong laksanakan PSN dengan baik. Jangan hanya mengandalkan fogging," katanya. Baca Juga:Layanan GPS Garmin Tumbang Lebih dari 20 Jam, Diduga Kena Serangan Ransomware Uus menjelaskan, kasusDBDsaat ini lebih tinggi dibandingkan kasusDBDpada tahun-tahun sebelumnya. Menurut dia, berdasarkan grafik pola minimum maksimum kasusDBDpada tahun ini menunjukkan bahwaKota Tasikmalayasejak Januari sampai dengan Juni sudah melampaui batas aman. Bahkan pada Maret sampai dengan Mei sudah melampaui batas waspada. Kendati demikian, hingga saat ini belum ada penetapan status KLB. Ia mengatakan, penetapan status KLB harus melalui kepala daerah. Selain itu, penetapan KLB juga harus mempertimbangkan banyak faktor. Baca Juga:Diperiksa Terkait Laporan Medina Zein Soal Penggelapan Uang, Irwansyah Awalnya Mengaku akan Buat SIM "Meski tak KLB, kita sudah bergerak. Pertama kita amati epidemologi dan workshop di setiap kecamatan, lalu kita kuatkan seluruh stakeholder untuk turun ke lapangan mengatasi penyebaranDBD," kata dia. Sementara itu, WaliKota Tasikmalaya, Budi Budiman mengatakan, tingginya kasusDBDharus menjadi perhatian semua pihak. Namun, ia menyebut kondisiDBDdiKota Tasikmalayabarus memasuki pra-KLB. “Melihat tinggi nya kasusmeninggalakibatDBD, ini menjadikan sesuatu yang luar biasa. Ini pra KLB. Jangan sampai kita menetapkan KLB. Saya minta hari ini tim kesehatan dan semua instansi terkait, upaya sosialisasi dan edukasiDBDkepada masyarakat menjadi sangat penting," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01631301/jalan-tol-bandung-cilacap-sepanjang-2066-kilometer-akan-habiskan-anggaran-rp57-triliun</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Jalan Tol Bandung-Cilacap Sepanjang 206,6 Kilometer Akan Habiskan Anggaran Rp57 Triliun</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="n">
-        <v>44034.84236111111</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Proyek pembangunan Jalan Tol Bandung - Tasikmalaya - Cilacap terus dibahas. Pemerintah menargetkan pada Desember 2020, proses penentuan lokasi (Penlok) sudah rampung.Wali Kota Tasikmalaya, Budi Budiman mengatakan, kaitan perencanaan pembangunan Tol Bandung-Tasikmalaya-Cilacap terus dipersiapkan pihak Pemprov Jabar dan Kementerian PUPR."Saat ini kita masih membahas perencanaan penlok. Diharapkan sudah bisa tuntas  Desember ini. Maka targetnya di tahun 2021 sudah mulai pembebasan lahan dan tahun 2022 sudah dimulai pembangunannya," ujar Budi usai kegiatan pembahasan progres pembangunan Jalan Tol Bandung - Tasik - Cilacap bertempat  di Hotel Horison Kota Tasikmalaya, Rabu, 22 Juli 2020. Baca Juga:AS Tuduh Hacker Mata-Mata Tiongkok Meretas Perusahaan Pengembangan Vaksin Virus CoronaDalam kegiatan yang juga dihadiri Asda satu Pemprov Jabar tersebutdibahas  pula titik lokasi jalan Tol di Kota Tasikmalaya yang melintasi empat kecamatan yaitu Kecamatan Mangkubumi, Kecamatan Kawalu, Kecamatan Cibeureum dan Kecamatan Mangkubumi serta 16 kelurahan yang berada di empat kecamatan tersebut.Terang Budi, pihaknya siap  membantu pihak Pemprov dan Kementerian PUPR untuk secepat mungkin dalam hal penyelesaian berkas-berkas adiminstrasi agar penlok dapat segera tuntas. "Kita selaku pemerintah sangat mendukung hal ini karena menjadi harapan kita semua agar jalan tol segera terwujud, dan tak hanya harapan masyarakat Kota Tasik saja melainkan harapan warga Priangan Timur," ujar Budi. Baca Juga:Vaksin Covid-19 Sinovac dari Tiongkok akan Diuji Klinis Terhadap Manusia di 6 Tempat di Kota BandungBudi juga menegaskan kecepatan pembangunan tol tersebut tergantung dari dukungan semua masyarakat termasuk membantu pemerintah dalam hal menyelesaikan administrasi administrasinya."Makanya kita undang  pihak lurah-lurah khususnya yang wilayahnya tergerus tol untuk mengikuti pertemuan pembahasan ini agar nantinya bisa membantu proses administrasi ditingkat kelurahan," ujarnya.Selanjutnya ujar Budi, pihak lurah dimasing masing wilayah yang akan terkena tol agar segera melakukan pendekatan kepada masyarakat dan administrasinya disiapkan karena sangat penting. Administrasi tersebut  tambah Budi, seperti lokasi tanahnya punya siapa, statusnya bagaimana dan lain sebagainya agar jelas semuanya untuk proses penlok. Baca Juga:Terdata 247 Orang Pengungsi Korban Banjir Luwu Utara Terserang Ispa, Dinkes Terus Gencarkan EdukasiWaaupun kata Budi, penlok sendiri merupakan kewenangan Gubernur Jabar yang merupakan hal penting sebagai dasar dari pembebasan lahan. "Jadi saya minta para lurah segera menginformasikan hal ini kepada masyarakat," jelasnya.Adapun lanjut dia, jarak tol di wilayah Kota Tasikmalaya  kurang lebih sepanjang 13,40 kilometer. "Kalau penetapan penlok nanti sekaligus dari mulai Bandung sampai Pangandaran," katanya.Ditempat yang sama, Pejabat Pembuat Komitmen (PPK) pembangunan Jalan Tol Bandung - Cilacap Ade Sudrajat membenarkan progres pembangunan Jalan Tol Bandung Cilacap sedang dalam tahapan untuk penlok. "Kemarin kita mulai dari Bandung, Soreang, Garut, Tasik, Ciamis hingga Pangandaran trus membahas terkait penlok yang ditargetkan selesai Desember tahun ini. Dan sampai tadi, sudah tidak ada kendala," katanya. Baca Juga:Berhentikan Bupati Faida, DPRD Jember Ungkap Alasannya hingga akan Uji Materil Lanjutan ke MAUntuk bidang yang terambil pembangunan Tol  untuk Jabar ada sekira 13 ribu bidang di 32 kecamatan, tujuh kabupaten/kota.Dengan totalnya panjangnya sekitar 206,6 km yang estimasi total biayanya sebesar 57 triliun."Yang paling penting kan pembebasan lahan. Seperti yang kita tahu, biasanya proses lama itu di pembebasan lahan. Kalau fisik mah 2 tahun juga selesai. Tapi target tetap tidak berubah dimana tahun 2024 tol ini sudah bisa dioperasikan" katanya.Disinggung nama untuk Jalan Tol Bandung - Cilacap kata Ade hingga kini belum ada nama. "Nama Itu baru akan ada saat pembangunan selesai. Gubernur nanti yang mengusulkan nama, selanjutnya kementerian yang menentukan," jelas Ade.***PIKIRAN RAKYAT -Proyek pembangunan Jalan Tol Bandung - Tasikmalaya - Cilacap terus dibahas. Pemerintah menargetkan pada Desember 2020, proses penentuan lokasi (Penlok) sudah rampung.Wali Kota Tasikmalaya, Budi Budiman mengatakan, kaitan perencanaan pembangunan Tol Bandung-Tasikmalaya-Cilacap terus dipersiapkan pihak Pemprov Jabar dan Kementerian PUPR."Saat ini kita masih membahas perencanaan penlok. Diharapkan sudah bisa tuntas  Desember ini. Maka targetnya di tahun 2021 sudah mulai pembebasan lahan dan tahun 2022 sudah dimulai pembangunannya," ujar Budi usai kegiatan pembahasan progres pembangunan Jalan Tol Bandung - Tasik - Cilacap bertempat  di Hotel Horison Kota Tasikmalaya, Rabu, 22 Juli 2020. Baca Juga:AS Tuduh Hacker Mata-Mata Tiongkok Meretas Perusahaan Pengembangan Vaksin Virus CoronaDalam kegiatan yang juga dihadiri Asda satu Pemprov Jabar tersebutdibahas  pula titik lokasi jalan Tol di Kota Tasikmalaya yang melintasi empat kecamatan yaitu Kecamatan Mangkubumi, Kecamatan Kawalu, Kecamatan Cibeureum dan Kecamatan Mangkubumi serta 16 kelurahan yang berada di empat kecamatan tersebut.Terang Budi, pihaknya siap  membantu pihak Pemprov dan Kementerian PUPR untuk secepat mungkin dalam hal penyelesaian berkas-berkas adiminstrasi agar penlok dapat segera tuntas. "Kita selaku pemerintah sangat mendukung hal ini karena menjadi harapan kita semua agar jalan tol segera terwujud, dan tak hanya harapan masyarakat Kota Tasik saja melainkan harapan warga Priangan Timur," ujar Budi. Baca Juga:Vaksin Covid-19 Sinovac dari Tiongkok akan Diuji Klinis Terhadap Manusia di 6 Tempat di Kota BandungBudi juga menegaskan kecepatan pembangunan tol tersebut tergantung dari dukungan semua masyarakat termasuk membantu pemerintah dalam hal menyelesaikan administrasi administrasinya."Makanya kita undang  pihak lurah-lurah khususnya yang wilayahnya tergerus tol untuk mengikuti pertemuan pembahasan ini agar nantinya bisa membantu proses administrasi ditingkat kelurahan," ujarnya.Selanjutnya ujar Budi, pihak lurah dimasing masing wilayah yang akan terkena tol agar segera melakukan pendekatan kepada masyarakat dan administrasinya disiapkan karena sangat penting. Administrasi tersebut  tambah Budi, seperti lokasi tanahnya punya siapa, statusnya bagaimana dan lain sebagainya agar jelas semuanya untuk proses penlok. Baca Juga:Terdata 247 Orang Pengungsi Korban Banjir Luwu Utara Terserang Ispa, Dinkes Terus Gencarkan EdukasiWaaupun kata Budi, penlok sendiri merupakan kewenangan Gubernur Jabar yang merupakan hal penting sebagai dasar dari pembebasan lahan. "Jadi saya minta para lurah segera menginformasikan hal ini kepada masyarakat," jelasnya.Adapun lanjut dia, jarak tol di wilayah Kota Tasikmalaya  kurang lebih sepanjang 13,40 kilometer. "Kalau penetapan penlok nanti sekaligus dari mulai Bandung sampai Pangandaran," katanya.Ditempat yang sama, Pejabat Pembuat Komitmen (PPK) pembangunan Jalan Tol Bandung - Cilacap Ade Sudrajat membenarkan progres pembangunan Jalan Tol Bandung Cilacap sedang dalam tahapan untuk penlok. "Kemarin kita mulai dari Bandung, Soreang, Garut, Tasik, Ciamis hingga Pangandaran trus membahas terkait penlok yang ditargetkan selesai Desember tahun ini. Dan sampai tadi, sudah tidak ada kendala," katanya. Baca Juga:Berhentikan Bupati Faida, DPRD Jember Ungkap Alasannya hingga akan Uji Materil Lanjutan ke MAUntuk bidang yang terambil pembangunan Tol  untuk Jabar ada sekira 13 ribu bidang di 32 kecamatan, tujuh kabupaten/kota.Dengan totalnya panjangnya sekitar 206,6 km yang estimasi total biayanya sebesar 57 triliun."Yang paling penting kan pembebasan lahan. Seperti yang kita tahu, biasanya proses lama itu di pembebasan lahan. Kalau fisik mah 2 tahun juga selesai. Tapi target tetap tidak berubah dimana tahun 2024 tol ini sudah bisa dioperasikan" katanya.Disinggung nama untuk Jalan Tol Bandung - Cilacap kata Ade hingga kini belum ada nama. "Nama Itu baru akan ada saat pembangunan selesai. Gubernur nanti yang mengusulkan nama, selanjutnya kementerian yang menentukan," jelas Ade.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01630724/bukan-cuma-rekening-listrik-warga-kota-tasikmalaya-keluhkan-kenaikan-tagihan-pdam-hingga-500-persen</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Bukan Cuma Rekening Listrik, Warga Kota Tasikmalaya Keluhkan Kenaikan Tagihan PDAM hingga 500 Persen</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="n">
-        <v>44034.5625</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Dalam masa pandemi Covid-19, masyarakatKota Tasikmalaya, Jawa Barat tidak hanya dipusingkan dengantagihanrekening listrik yang membengkak khususnya padatagihanbulan Juni dan Juli 2020. Masyarakat pun dipusingkan dengantagihanairPDAMyang juga naiknya berkali lipat. MasyarakatpelangganairPDAMmengaku, untuktagihanbulan Juni dan Juli, nilaitagihanair melonjak drastis dibandingtagihanbulan-bulan sebelumnya. Terkait itu, banyakpelangganPDAMdiKota Tasikmalayayang mendatangi sejumlah kantor unitPDAMuntuk mempertanyakan kenaikan nilaitagihanpemakaian air yang mereka anggap tidak masuk akal tersebut. Baca Juga:Liverpool Akan Angkat Trofi Premier League, Lampard: Pemain Chelsea Tak Perlu Sakit Hati Mella salah seorangpelangganairPDAMasal Cieunteung Kecamatan CihideungKota Tasikmalaya, Jawa Barat, mengatakan, pada rekeningtagihanairPDAMBulan Juni dan Juli 2020, tiba tiba saja nilai tagihannya membengkak hingga hingga melebihi angka Rp1 Juta. Padahal ujar dia, bulan-bulan sebelumnya rata ratatagihanairPDAMhanya di kisaran Rp 200 hingga Rp 250 ribu per bulan. "Waktu ada petugasPDAMyang meriksa meteran air bulan Juni, katanyatagihanair saya sudah Rp 600 ribu lebih, terus kemarin pas pemeriksaan bulan Juli, katanya angka tagihannya sudah mencapai satu juta lebih," ujar Mella, Rabu 22 Juli 2020. Baca Juga:57.000 Ton Emas Dijarah Inggris saat Perang, Pewaris Sultan HB II Minta Jokowi Kembalikan Hartanya Terkait itu lanjut Mella, petugas pencatat meteran menganjurkan untuk memeriksa saluran airPDAMkarena dikhawatirkan ada yang bocor. Namun setelah diperiksa, sama sekali tidak ada kebocoran saluran air di rumahnya. "Saya langsung periksa dengan cara menutup semua keran air dan ketika dilihat meteran tidak berputar, kalau bocor kan walaupun kran air semua ditutup, meterannya pasti berputar," jelasnya. PIKIRAN RAKYAT- Dalam masa pandemi Covid-19, masyarakatKota Tasikmalaya, Jawa Barat tidak hanya dipusingkan dengantagihanrekening listrik yang membengkak khususnya padatagihanbulan Juni dan Juli 2020. Masyarakat pun dipusingkan dengantagihanairPDAMyang juga naiknya berkali lipat. MasyarakatpelangganairPDAMmengaku, untuktagihanbulan Juni dan Juli, nilaitagihanair melonjak drastis dibandingtagihanbulan-bulan sebelumnya. Terkait itu, banyakpelangganPDAMdiKota Tasikmalayayang mendatangi sejumlah kantor unitPDAMuntuk mempertanyakan kenaikan nilaitagihanpemakaian air yang mereka anggap tidak masuk akal tersebut. Baca Juga:Liverpool Akan Angkat Trofi Premier League, Lampard: Pemain Chelsea Tak Perlu Sakit Hati Mella salah seorangpelangganairPDAMasal Cieunteung Kecamatan CihideungKota Tasikmalaya, Jawa Barat, mengatakan, pada rekeningtagihanairPDAMBulan Juni dan Juli 2020, tiba tiba saja nilai tagihannya membengkak hingga hingga melebihi angka Rp1 Juta. Padahal ujar dia, bulan-bulan sebelumnya rata ratatagihanairPDAMhanya di kisaran Rp 200 hingga Rp 250 ribu per bulan. "Waktu ada petugasPDAMyang meriksa meteran air bulan Juni, katanyatagihanair saya sudah Rp 600 ribu lebih, terus kemarin pas pemeriksaan bulan Juli, katanya angka tagihannya sudah mencapai satu juta lebih," ujar Mella, Rabu 22 Juli 2020. Baca Juga:57.000 Ton Emas Dijarah Inggris saat Perang, Pewaris Sultan HB II Minta Jokowi Kembalikan Hartanya Terkait itu lanjut Mella, petugas pencatat meteran menganjurkan untuk memeriksa saluran airPDAMkarena dikhawatirkan ada yang bocor. Namun setelah diperiksa, sama sekali tidak ada kebocoran saluran air di rumahnya. "Saya langsung periksa dengan cara menutup semua keran air dan ketika dilihat meteran tidak berputar, kalau bocor kan walaupun kran air semua ditutup, meterannya pasti berputar," jelasnya.Dengan kondisi tersebut ujar dia, dirinya sangat keberatan dengan pihakPDAMyang menaikan angka tagihannya lebih dari 500 persen. Baca Juga:Siap-Siap, Honda Civic terbaru Siap Meluncur Pertengahan 2021 "Itu kan tidak masuk akal. Pada saat keadaan susah, masyarakat justru dibuat lebih susah dengantagihanseperti ini, ya listrik ya air semua alasannya menaikan harga karena Covid-19, aneh saya," katanya. Hal yang sama juga dirasakan olehwargalainnya. Abe (48)wargaPerum Bumi Asri Leuwidahu Kec CipedesKota Tasikmalayayang juga mengalami hal yang sama dimana nilaitagihanpemakaian maksimal air dirumahnya yang biasa dikisaran Rp 300 ribu, kini menjadi Rp 1 juta lebih. "Tagihan membengkak, padahal sejak Covid-19 pemakaian minim sekali, malah banyak tutupnya. Dan sudah dicek ga ada kebocoran," kata dia. Baca Juga:Sultan Sepuh XIV PRA Arif Natadiningrat Meninggal, Wali Kota Cirebon: Beliau adalah Panutan, Sahabat Abe mengaku, dirinya cukup kaget ketikatagihanairPDAMmelonjak drastis. "Katanya tetep suruh bayar segitu, tapi boleh dicicil. Tadi ngobrol sama petugas, ada beberapa kemungkinantagihanairnaik. Bisa karena pemakaian berlebih atau ada kebocoran. Masa iya, kebocoran bisa serentak, hampir semuapelanggankan tagihannya sekarang semuanaik" ucap Abe. Di komfirmasi terkait itu, Kasie Inpormasi dan Publikasi Perusahaan Daerah Air Minum (PDAM) Tirta Sukapura, Asep Saefullah, selaku perusahaan air penyalur air bersih diKota Tasikmalaya, Jawa Barat mengatakan, alasan kemungkinan terjadi kenaikan tersebut yaitu ada kebocoran dan penggunaan air yang berlebih saat masyarakat dianjurkan dirumah ketikaKota Tasikmalayamenerapkan PSBB bulan April dan Mei lalu. "Ya saya anjurkan saja ke masyarakatpelangganjangan jangan dirumahnya terjadi kebocoran," ujarnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01629743/pns-di-tasikmalaya-jadi-korban-modus-pecah-kaca-uang-rp35-juta-untuk-bayar-sekolah-anaknya-raib</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>PNS di Tasikmalaya Jadi Korban Modus Pecah Kaca, Uang Rp35 Juta untuk Bayar Sekolah Anaknya Raib</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="n">
-        <v>44033.88611111111</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Pegawai Negeri Sipil asal KotaTasikmalayajadi korban aksi modus pecah kaca di area parkir Puskesmas Tinewati, Kecamatan Singaparna, KabupatenTasikmalaya, Selasa 21 Juli 2020 siang. Kabarnya, Rani Sri Rahayu (34) menyimpan uang senilai Rp35 juta tersebut dibawah jok mobilnya. "Kejadiannya itu sekitar pukul 11.24 WIB, aksi pelaku sangat singkat sekali," ungkap Hendra Koswara, salah satu petugas Puskemas Tinewati, saat dilokasi kejadian. Baca Juga:10 Daftar Provider Internet Tercepat Indonesia Menurut Steam Dikatakannya, saat kejadian pembobolan mobil korban tersebut, di lokasi parkiran keadaan tengah sepi, di kawasan itu tidak ada penjagaan parkir karena tidak ada satpam khusus di puskesmas tersebut. Pelaku aksi pencurian itu dengan memecah kaca mobil korban sebelah kanan bagian belakang. Pelaku membawa kabur uang senilai Rp35 juta. "Korban adalahPNSyang bertugas di sini, saat dia masuk kurang dari 5 menit kejadian itu terjadi. Kalau dilihat dari CCTV, kejadian itu dilakukan pelaku tidak seorang diri melainkan lebih dari satu orang, sebab pelaku kabur menggunakan mobil," katanya. Baca Juga:Produksi CPO di Indonesia Berkurang akibat Kemarau, Harga Kelapa Sawit di Riau Naik 3,45 Persen Suami korban, Abdul Gofur membenarkan telah terjadi pencurian. Uang yang dibawa istrinya tersebut untuk bayar sekolah anaknya, sementara sisanya untuk ditabung ke bank. PIKIRAN RAKYAT- Pegawai Negeri Sipil asal KotaTasikmalayajadi korban aksi modus pecah kaca di area parkir Puskesmas Tinewati, Kecamatan Singaparna, KabupatenTasikmalaya, Selasa 21 Juli 2020 siang. Kabarnya, Rani Sri Rahayu (34) menyimpan uang senilai Rp35 juta tersebut dibawah jok mobilnya. "Kejadiannya itu sekitar pukul 11.24 WIB, aksi pelaku sangat singkat sekali," ungkap Hendra Koswara, salah satu petugas Puskemas Tinewati, saat dilokasi kejadian. Baca Juga:10 Daftar Provider Internet Tercepat Indonesia Menurut Steam Dikatakannya, saat kejadian pembobolan mobil korban tersebut, di lokasi parkiran keadaan tengah sepi, di kawasan itu tidak ada penjagaan parkir karena tidak ada satpam khusus di puskesmas tersebut. Pelaku aksi pencurian itu dengan memecah kaca mobil korban sebelah kanan bagian belakang. Pelaku membawa kabur uang senilai Rp35 juta. "Korban adalahPNSyang bertugas di sini, saat dia masuk kurang dari 5 menit kejadian itu terjadi. Kalau dilihat dari CCTV, kejadian itu dilakukan pelaku tidak seorang diri melainkan lebih dari satu orang, sebab pelaku kabur menggunakan mobil," katanya. Baca Juga:Produksi CPO di Indonesia Berkurang akibat Kemarau, Harga Kelapa Sawit di Riau Naik 3,45 Persen Suami korban, Abdul Gofur membenarkan telah terjadi pencurian. Uang yang dibawa istrinya tersebut untuk bayar sekolah anaknya, sementara sisanya untuk ditabung ke bank."Tapi uang untuk bayar sekolah hilang dicuri," katanya saat melaporkan kejadian itu di PolresTasikmalayasebagaimana diberitakanGalamedianews.comsebelumnya dalam artikel "Aksi Pecah Kaca , Uang Rp35 Juta Milik PNS di Tasikmalaya Raib". Ia berharap pelaku dan uang yang dibawa maling tersebut secepatnya ditangkap oleh pihak berwajib. Sementara kasus ini masih ditangani PolresTasikmalayadan petugas tengah melakukan pengejaran.*** (Septian Danardi/Galamedianews.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01620613/berlaku-1-agustus-2020-tidak-pakai-masker-di-kota-tasikmalaya-disanksi-denda-rp-50000</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Berlaku 1 Agustus 2020, Tidak Pakai Masker di Kota Tasikmalaya Disanksi Denda Rp 50.000</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="n">
-        <v>44032.77708333333</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Mulai 1 Agustus 2020, masyarakat yang tidak menggunakan masker diluar rumah kenadendaRp 50.000. Hal itu setelah Pemerintah Kota (Pemkot) Tasikmalaya, Jawa Barat  memutuskan bakal menerapkan sanksidendaRp 50.000 untuk warganya yang keluar rumah tak bermasker.WaliKota Tasikmalaya, Budi Budiman mengatakan, keputusan tersebut telah dibahas dengan Tim Gugus Tugas Percepatan Penanganan Covid -19. Baca Juga:Beda Perlakuan dengan Putri Eugenie, Ibu Kandung Putri Beatrice Tak Unggah Foto Pernikahan "Kita mulai wajib masker ini pada 1 Agustus. SanksinyadendaRp 50.000. Diturunkan nilainya tak sama dengan kebijakan Pemprov Jabar," ujar Budi usai pertemuan dengan para ASN Kantor Kemenag, Senin, 20 Juli 2020. Lebih lanjut ujar Budi, nilai Rp 50.000 ini memang tidak sama dengan apa yang akan diberlakukan Pemprov Jabar sebesar Rp 100.000-150.000. Karena dalam Pergubnya nanti kebijakan ini dikembalikan dan disesuaikan dengan kondisi daerah masing-masing. Baca Juga:14 Tahun Steve Irwin Meninggal, sang Anak Tulis Pesan Haru di Hari Ulang Tahun Ibunya"Ya di kita Rp 50.000. Yang penting ada sanksi. Kenapa sanksi ini diberlakukan di Kota Tasik, yaitu untuk mendisiplinkan warga juga demi menyelamatkan masyarakat," terangnya.Sebab, tegas Budi, berdasarkan pantauan selama masa Adaptasi Kebiasaan Baru (AKB) ini, jika tak ada sanksi warga mulai terlihat banyak tidak pakai masker ketika beraktivitas di luar rumah."Covid-19 kan berisiko karena menyangkut keselamatan masyarakat. Jadi jangan dilihatdendaatau sanksinya. Kami  berharap sebenarnya dengan sanksidendaini jangan sampai ada masyarakat yang kenadenda. Kan selesai asalkan pakai masker saja," tegasnya. Baca Juga:Rayu Warga Penerima Bansos Covid-19 untuk Pasang Togel, Cimot dan Usman DiringkusBudi menambahkan, penerapan sanksidendaini jangan dikaitkan juga dengan kondisi ekonomi yang sedang sulit karena Covid."Justru ini untuk menyelamatkan itu. Biar kita cepat selesai pandemi Covidnya. Sehingga dirasa harus  ada diskresi kebijakan yang memang tak populer," tambahnya.Jelas Budi, tujuan akhir dari kebijakan tersebut adalah agar Kota Tasik segera masuk ke zona hijau. Karena kalau sudah masuk zona hijau maka semua aktivitas kembali normal."Kalau sudah normal kan tatanan hidul kembali ke normal juga. Jangan dikait-kaitkan dengan ekonomi. Justru kita harus melangkah seperti ini agar ekonomi tak terus seperti saat ini. Jadi masker wajib. Hanya sanksidendasaja dan di kita tidak ada sanksi tak pakai masker dibui," jelasnya.***PIKIRAN RAKYAT -Mulai 1 Agustus 2020, masyarakat yang tidak menggunakan masker diluar rumah kenadendaRp 50.000. Hal itu setelah Pemerintah Kota (Pemkot) Tasikmalaya, Jawa Barat  memutuskan bakal menerapkan sanksidendaRp 50.000 untuk warganya yang keluar rumah tak bermasker.WaliKota Tasikmalaya, Budi Budiman mengatakan, keputusan tersebut telah dibahas dengan Tim Gugus Tugas Percepatan Penanganan Covid -19. Baca Juga:Beda Perlakuan dengan Putri Eugenie, Ibu Kandung Putri Beatrice Tak Unggah Foto Pernikahan "Kita mulai wajib masker ini pada 1 Agustus. SanksinyadendaRp 50.000. Diturunkan nilainya tak sama dengan kebijakan Pemprov Jabar," ujar Budi usai pertemuan dengan para ASN Kantor Kemenag, Senin, 20 Juli 2020. Lebih lanjut ujar Budi, nilai Rp 50.000 ini memang tidak sama dengan apa yang akan diberlakukan Pemprov Jabar sebesar Rp 100.000-150.000. Karena dalam Pergubnya nanti kebijakan ini dikembalikan dan disesuaikan dengan kondisi daerah masing-masing. Baca Juga:14 Tahun Steve Irwin Meninggal, sang Anak Tulis Pesan Haru di Hari Ulang Tahun Ibunya"Ya di kita Rp 50.000. Yang penting ada sanksi. Kenapa sanksi ini diberlakukan di Kota Tasik, yaitu untuk mendisiplinkan warga juga demi menyelamatkan masyarakat," terangnya.Sebab, tegas Budi, berdasarkan pantauan selama masa Adaptasi Kebiasaan Baru (AKB) ini, jika tak ada sanksi warga mulai terlihat banyak tidak pakai masker ketika beraktivitas di luar rumah."Covid-19 kan berisiko karena menyangkut keselamatan masyarakat. Jadi jangan dilihatdendaatau sanksinya. Kami  berharap sebenarnya dengan sanksidendaini jangan sampai ada masyarakat yang kenadenda. Kan selesai asalkan pakai masker saja," tegasnya. Baca Juga:Rayu Warga Penerima Bansos Covid-19 untuk Pasang Togel, Cimot dan Usman DiringkusBudi menambahkan, penerapan sanksidendaini jangan dikaitkan juga dengan kondisi ekonomi yang sedang sulit karena Covid."Justru ini untuk menyelamatkan itu. Biar kita cepat selesai pandemi Covidnya. Sehingga dirasa harus  ada diskresi kebijakan yang memang tak populer," tambahnya.Jelas Budi, tujuan akhir dari kebijakan tersebut adalah agar Kota Tasik segera masuk ke zona hijau. Karena kalau sudah masuk zona hijau maka semua aktivitas kembali normal."Kalau sudah normal kan tatanan hidul kembali ke normal juga. Jangan dikait-kaitkan dengan ekonomi. Justru kita harus melangkah seperti ini agar ekonomi tak terus seperti saat ini. Jadi masker wajib. Hanya sanksidendasaja dan di kita tidak ada sanksi tak pakai masker dibui," jelasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01617139/diadukan-oleh-pelanggan-soal-tagihan-membengkak-begini-jawaban-pln-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Diadukan oleh Pelanggan Soal Tagihan Membengkak, Begini Jawaban PLN Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="n">
-        <v>44032.64861111111</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -PerusahaanListrikNegara (PLN) ULPTasikmalayaKota diadukan salah seorang pelanggannya ke Badan Penyelesaian Sengketa Konsumen (BPSK) terkaittagihanrekening listrik yang membengkak padatagihanBulan Juni dan Juli 2020.Sidang pengaduan sengketa konsumen terkait permasalahan tersebut dilakukan pada Senin 20 Juli 2020. Sidang tersebut dihadiri pengadu atas nama Firmansyah warga Perum Panglayungan Kecamatan Cipedes KotaTasikmalaya, pihak dariPLNselaku teradu dengan dipimpin majelis sidang antara lain Tesi Ekawati SH, Agus Rudianto SH, Jeni TugistanSH.MH.Firmansyah usai sidang kepada wartawan mengatakan, pengaduan tersebut dia lakukan setelah mendapatkantagihanrekening listrik pada Bulan Juni dan Bulan Juli 2020 yang besaran tagihanya mengalami kenaikan hanpir seratus persen daritagihanrekening listrik bulan bulan sebelumnya. Baca Juga:Dikritik karena Bawakan Lagu Hari Nasional Singapura, Penyanyi Keturunan Indonesia Beri Tanggapan "Rekeningtagihanlistrik rumah saya di bulan Juni mencapai dua juta delapan puluh ribu, padahal kalau melihat rata ratatagihanlistrik pada bulan sebelumnya paling tinggi diangka satu juta tiga ratus ribu," kata Firman.Termasuk rekening listrik pada Bulan Juli yang angka tagihannya naik hampir sama. "Padahal pemakaian listrik saya dirumah tidak ada yang berubah, perabotan rumah yang menggunakan listrik tidak nambah, trus dari pemakaian penerangan juga sama. Tapi kok kenaikannya sampai hampir 80 persen lebih, kalau 10 persen hingga 20 persen masih wajar," katanya. Baca Juga:Berhasil Bawa Real Madrid Juarai La Liga, Eden Hazard Sebut Ini Adalah Musim TerburuknyaSelain itu kata Firman, pihaknya mempertanyakan proses pembacaan kilo meter listrik yang dilakukan oleh petugas pembaca meteran  yang dianggap tidak valid. "Meteran saya itu diatas dan tertutup, sehingga jika dibaca dari bawah tanpa menggunakan tangga tidak akan terbaca. Sementara setiap petugas melakukan pembacaan, belum pernah terlihat ada yang menggunakan tangga dan membuka tutup meterannya ," katanya.Permasalahan lain kata Firman, pihaknya mengadukan perlakuan yang tidak menyenangkan yang dilakukan oleh pihakPLNyang telah memberikan surat pemutusan sementara. Padahal pihakPLNtahu bahwa saya sebagai konsumen sedang melakukan upaya hukum terkait permasalahan tersebut sehingga pihaknya merasa tidak nyaman. Baca Juga:Cuma Gara-gara Nyalakan Motor, Pria Palembang Ditusuk Tetangga Sendiri hingga Tewas "Atas ketidak nyamanan tersebut saya minta ganti rugi sebesar Rp100 juta rupiah," katanya.“Saya minta transparansi dari pihakPLNterkait perhitungan KWH listrik, dan sebagai pelanggan saya minta keadilan. Saya tau diluar sana banyak yang bernasib seperti saya hanya saja mungkin mereka tidak ada keberanian untuk melaporkannya," kata Firman."Kalau sudah ada transparansi, kalau memang itu merupakan kewajiban saya, saya akan ikuti," ujarnya menambahkan. Baca Juga:GoRide Kembali Layani Masyarakat Bandung dan Dukung Pemerintah Cegah Penyebaran Covid-19Sementara itu dari pihakPLNyang diwakili ManajerPLNULPTasikmalayaKota Wawan Gunawan berdalih, terkait dengan lonjakantagihanpada bulan Juni yang melonjak lebih dari 20% adalah karena pada bulan Maret hingga April pihaknya tidak melakukan pencatatan kWh meter melainkan melakukan perhitungan rata-rata penggunaan kWh dari pemakaian bulan sebelumnya, namun bulan Mei PTPLN(Persero) akan kembali melakukan pencatatan sesuai angka pemakaian pada kWh meter."Nah selama bulan Maret dan April atau ketika dilakukan perhitungan rata-rata pemakaian, terjadi anomali kenaikan penggunaan pemakaian listrik untuk pelanggan tarif rumahan akibat banyaknya aktifitas masyarakat dirumah saat pandemi Covid-19,” katanya.Terkait kelebihantagihanpada bulan Maret dan April tersebut akan ditagihkan pada bulan Mei, sehingga otomatistagihanrekening pada bulan Juni menjadi besar. Apalagi pada bulan Mei juga terjadi kenaikan penggunaan listrik hampir 40% termasuk penambahan 20% selama Bulan Ramadan. PIKIRAN RAKYAT -PerusahaanListrikNegara (PLN) ULPTasikmalayaKota diadukan salah seorang pelanggannya ke Badan Penyelesaian Sengketa Konsumen (BPSK) terkaittagihanrekening listrik yang membengkak padatagihanBulan Juni dan Juli 2020.Sidang pengaduan sengketa konsumen terkait permasalahan tersebut dilakukan pada Senin 20 Juli 2020. Sidang tersebut dihadiri pengadu atas nama Firmansyah warga Perum Panglayungan Kecamatan Cipedes KotaTasikmalaya, pihak dariPLNselaku teradu dengan dipimpin majelis sidang antara lain Tesi Ekawati SH, Agus Rudianto SH, Jeni TugistanSH.MH.Firmansyah usai sidang kepada wartawan mengatakan, pengaduan tersebut dia lakukan setelah mendapatkantagihanrekening listrik pada Bulan Juni dan Bulan Juli 2020 yang besaran tagihanya mengalami kenaikan hanpir seratus persen daritagihanrekening listrik bulan bulan sebelumnya. Baca Juga:Dikritik karena Bawakan Lagu Hari Nasional Singapura, Penyanyi Keturunan Indonesia Beri Tanggapan "Rekeningtagihanlistrik rumah saya di bulan Juni mencapai dua juta delapan puluh ribu, padahal kalau melihat rata ratatagihanlistrik pada bulan sebelumnya paling tinggi diangka satu juta tiga ratus ribu," kata Firman.Termasuk rekening listrik pada Bulan Juli yang angka tagihannya naik hampir sama. "Padahal pemakaian listrik saya dirumah tidak ada yang berubah, perabotan rumah yang menggunakan listrik tidak nambah, trus dari pemakaian penerangan juga sama. Tapi kok kenaikannya sampai hampir 80 persen lebih, kalau 10 persen hingga 20 persen masih wajar," katanya. Baca Juga:Berhasil Bawa Real Madrid Juarai La Liga, Eden Hazard Sebut Ini Adalah Musim TerburuknyaSelain itu kata Firman, pihaknya mempertanyakan proses pembacaan kilo meter listrik yang dilakukan oleh petugas pembaca meteran  yang dianggap tidak valid. "Meteran saya itu diatas dan tertutup, sehingga jika dibaca dari bawah tanpa menggunakan tangga tidak akan terbaca. Sementara setiap petugas melakukan pembacaan, belum pernah terlihat ada yang menggunakan tangga dan membuka tutup meterannya ," katanya.Permasalahan lain kata Firman, pihaknya mengadukan perlakuan yang tidak menyenangkan yang dilakukan oleh pihakPLNyang telah memberikan surat pemutusan sementara. Padahal pihakPLNtahu bahwa saya sebagai konsumen sedang melakukan upaya hukum terkait permasalahan tersebut sehingga pihaknya merasa tidak nyaman. Baca Juga:Cuma Gara-gara Nyalakan Motor, Pria Palembang Ditusuk Tetangga Sendiri hingga Tewas "Atas ketidak nyamanan tersebut saya minta ganti rugi sebesar Rp100 juta rupiah," katanya.“Saya minta transparansi dari pihakPLNterkait perhitungan KWH listrik, dan sebagai pelanggan saya minta keadilan. Saya tau diluar sana banyak yang bernasib seperti saya hanya saja mungkin mereka tidak ada keberanian untuk melaporkannya," kata Firman."Kalau sudah ada transparansi, kalau memang itu merupakan kewajiban saya, saya akan ikuti," ujarnya menambahkan. Baca Juga:GoRide Kembali Layani Masyarakat Bandung dan Dukung Pemerintah Cegah Penyebaran Covid-19Sementara itu dari pihakPLNyang diwakili ManajerPLNULPTasikmalayaKota Wawan Gunawan berdalih, terkait dengan lonjakantagihanpada bulan Juni yang melonjak lebih dari 20% adalah karena pada bulan Maret hingga April pihaknya tidak melakukan pencatatan kWh meter melainkan melakukan perhitungan rata-rata penggunaan kWh dari pemakaian bulan sebelumnya, namun bulan Mei PTPLN(Persero) akan kembali melakukan pencatatan sesuai angka pemakaian pada kWh meter."Nah selama bulan Maret dan April atau ketika dilakukan perhitungan rata-rata pemakaian, terjadi anomali kenaikan penggunaan pemakaian listrik untuk pelanggan tarif rumahan akibat banyaknya aktifitas masyarakat dirumah saat pandemi Covid-19,” katanya.Terkait kelebihantagihanpada bulan Maret dan April tersebut akan ditagihkan pada bulan Mei, sehingga otomatistagihanrekening pada bulan Juni menjadi besar. Apalagi pada bulan Mei juga terjadi kenaikan penggunaan listrik hampir 40% termasuk penambahan 20% selama Bulan Ramadan.Baca Juga:Geo Dipa Unit Patuha Perbaiki Akses Jalan Bagi 7.500 KKDisingung terkait adanya pengaduan dari masyarakat ujar Wawan, pihaknya siap untuk menghadapi setiap aduan. "Ya kalauPLNsiap siap saja karena memang dari sistemnya sudah seperti itu," katanya.Sementara itu dari pihakBPSKsendiri tidak mau memberikan statement apapun terkait permasalahan tersebut dengan alasan belum inkrah. "Permasalahan ini kan belum inkrah, secara aturan permasalahan yang belum inkrah tidak bisa di infirmasikan ke publik," ujar KepalaBPSKKota Tasik Tesi Ekawati SH, singkat.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01599403/kasus-dbd-di-kota-tasikmalaya-sentuh-angka-889-pemkot-beri-arahan-untuk-penanganan</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Kasus DBD di Kota Tasikmalaya Sentuh Angka 889, Pemkot Beri Arahan untuk Penanganan</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="n">
-        <v>44028.8875</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Jumlah kasus demam berdarah dengue (DBD) di KotaTasikmalayamencapai 889 kasus. Kewaspadaan warga pun harus ditingkatkan karena jumlah kasus yang terus merangkak naik. Dalam keterangan tertulis di Instagram Dinas Komunikasi dan Informatika KotaTasikmalayayang bersumber dari akun opendatatasik terjadi peningkatan lima kasus pada Kamis 16 Juli 2020 dengan 17 orang meninggal dunia. Wali KotaTasikmalayaBudi Budiman tak henti mengimbau warga menerapkan pola hidup bersih guna mengantisipasi penyebaranDBD. Baca Juga:Beredar Kabar Omas Meninggal Dunia, Dorce Gamalama: Selamat Jalan Mpok "Disiplin dan kesadaran masyarakat menjadi pencegahanDBDdanCovid-19,"‎ kata Budi dalam instagramnya. Pada‎ Jumat 10 Juli 2020, jumlah kasusDBDmencapai 829 kasus. Pemkot juga meminta warga melakukan kegiatan‎ menguras/menyikat, menutup tempat penampungan air serta memanfaatkan/mendaur ulang barang bekas. Sebelumnya,hingga Rabu 8 Juli 2020, jumlah kasusDBDbaru mencapai 794 kasus dengan 17 orang meninggal dunia. Data tersebut muncul dalam Instagram Dinas Komunikasi dan Informatika KotaTasikmalayayang bersumber dari akun opendatatasik. Baca Juga:Sekelompok Mahasiswa Mengecam Aksi Massa Kepung DPR RI untuk Tolak Omnibus Law Data tersebut juga menyajikan peta sebaran kasusDBDKotaTasikmalaya. Penyakit yang ditularkan dari gigitan nyamuk itu tersebar merata di 10 kecamatan. Di Kecamatan Indihiang, jumlah kasusnya mencapai 43 dengan 1 meninggal, Bungursari 72 kasus dengan 2 meninggal, Cihideung 88 kasus dengan 1 meninggal, Mangkubumi 116 kasus dengan 0 meninggal, Tawang 72 kasus dengan 1 meninggal, Kawalu 144 kasus dengan 6 meninggal, Purbaratu 38 kasus dengan 2 meninggal, Cipedes 76 kasus dengan 4 meninggal, Cibeureum 66 kasus dengan 0 meninggal dan Tamansari 79 kasus dengan 0 meninggal. PIKIRAN RAKYAT -Jumlah kasus demam berdarah dengue (DBD) di KotaTasikmalayamencapai 889 kasus. Kewaspadaan warga pun harus ditingkatkan karena jumlah kasus yang terus merangkak naik. Dalam keterangan tertulis di Instagram Dinas Komunikasi dan Informatika KotaTasikmalayayang bersumber dari akun opendatatasik terjadi peningkatan lima kasus pada Kamis 16 Juli 2020 dengan 17 orang meninggal dunia. Wali KotaTasikmalayaBudi Budiman tak henti mengimbau warga menerapkan pola hidup bersih guna mengantisipasi penyebaranDBD. Baca Juga:Beredar Kabar Omas Meninggal Dunia, Dorce Gamalama: Selamat Jalan Mpok "Disiplin dan kesadaran masyarakat menjadi pencegahanDBDdanCovid-19,"‎ kata Budi dalam instagramnya. Pada‎ Jumat 10 Juli 2020, jumlah kasusDBDmencapai 829 kasus. Pemkot juga meminta warga melakukan kegiatan‎ menguras/menyikat, menutup tempat penampungan air serta memanfaatkan/mendaur ulang barang bekas. Sebelumnya,hingga Rabu 8 Juli 2020, jumlah kasusDBDbaru mencapai 794 kasus dengan 17 orang meninggal dunia. Data tersebut muncul dalam Instagram Dinas Komunikasi dan Informatika KotaTasikmalayayang bersumber dari akun opendatatasik. Baca Juga:Sekelompok Mahasiswa Mengecam Aksi Massa Kepung DPR RI untuk Tolak Omnibus Law Data tersebut juga menyajikan peta sebaran kasusDBDKotaTasikmalaya. Penyakit yang ditularkan dari gigitan nyamuk itu tersebar merata di 10 kecamatan. Di Kecamatan Indihiang, jumlah kasusnya mencapai 43 dengan 1 meninggal, Bungursari 72 kasus dengan 2 meninggal, Cihideung 88 kasus dengan 1 meninggal, Mangkubumi 116 kasus dengan 0 meninggal, Tawang 72 kasus dengan 1 meninggal, Kawalu 144 kasus dengan 6 meninggal, Purbaratu 38 kasus dengan 2 meninggal, Cipedes 76 kasus dengan 4 meninggal, Cibeureum 66 kasus dengan 0 meninggal dan Tamansari 79 kasus dengan 0 meninggal.Kawalu menjadi kecamatan dengan kasus penyebaranDBDdan tingkat kematian tertinggi di KotaTasikmalaya. Dalam pemberitaan "PR belum lama ini, kasusDBDKotaTasikmalayabaru menyentuh 758 kasus dengan 16 orang meninggal dunia. Lonjakan yang terus menerus terjadi membuat‎ Pemerintah KotaTasikmalayatelah menetapkan status siaga darurat demam berdarah di wilayahnya. Upaya yang dilakukan Pemkot guna mencegah penyebaranDBDdilakukan dengan mengimbau warga menerapkan pola hidup bersih berupa menguras dan menutup penampungan air serta mengubur benda-benda yang bisa menjadi sarang nyamuk.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01599220/kota-tasikmalaya-tambah-kasus-positif-covid-19-hasil-swab-yang-lama-jadi-kendala</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Kota Tasikmalaya Tambah Kasus Positif Covid-19, Hasil Swab yang Lama Jadi Kendala</t>
-        </is>
-      </c>
-      <c r="C272" s="2" t="n">
-        <v>44028.78819444445</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Kasuspasienterkonfirmasi positifCovid-19di KotaTasikmalayakembali bertambah. Data dari tim gugus tugas penanganan dan percepatanCovid-19KotaTasikmalayapada Kamis 16 Juli 2020, jumlah akumulasipasienterkonfirmasiCovid-19di KotaTasikmalayasebanyak 57pasien. Kepala Dinas Kesehatan, Uus Supangat mengatakan, penambahan dua kasus itu merupakan tenaga kesehatan (nakes) yang bertugas menanggulangiCovid-19di Rumah Sakit (RS) IslamTasikmalaya. Menurutnya, dua nakes tersebut terkonfirmasi positifCovid-19setelah menjalani uji usap (swabtest) rutin ketika hendak memasuki masa istirahat, setelah bertugas menanganipasien. Baca Juga:Apakah Face Shield Lebih Baik daripada Masker? Simak Penjelasan Pakar Namun kata Uus, hasil data hasilswabitu baru diketahui setelah dua pekan kemudian yang hasilnya memang positifCovid-19. "Karena setelah 12 hari baru diketahui hasilnya, maka kita lakukanswabulang dan Alhamdulillah hasilnya negatif," kata dia saat dihubungi, Kamis 16 Juli 2020. Uus menjelaskan, kenapa hasilnya berubah lantaran hasilswabpertama diketahui setelah melewati masa inkubasi virus selama dua pekan. Sementara hasilswabkedua dapat diketahui dengan cepat karena pemeriksaannya menggunakan lembaga swasta. Baca Juga:Ulang Tahun Viking Persib Club Digelar Sederhana, Herru Djoko: Kita akan Membuat Sebuah Program "Jadi hasilswabpertama dan kedua bisa diketahui dalam waktu yang hampir bersamaaan," katanya. PIKIRAN RAKYAT -Kasuspasienterkonfirmasi positifCovid-19di KotaTasikmalayakembali bertambah. Data dari tim gugus tugas penanganan dan percepatanCovid-19KotaTasikmalayapada Kamis 16 Juli 2020, jumlah akumulasipasienterkonfirmasiCovid-19di KotaTasikmalayasebanyak 57pasien. Kepala Dinas Kesehatan, Uus Supangat mengatakan, penambahan dua kasus itu merupakan tenaga kesehatan (nakes) yang bertugas menanggulangiCovid-19di Rumah Sakit (RS) IslamTasikmalaya. Menurutnya, dua nakes tersebut terkonfirmasi positifCovid-19setelah menjalani uji usap (swabtest) rutin ketika hendak memasuki masa istirahat, setelah bertugas menanganipasien. Baca Juga:Apakah Face Shield Lebih Baik daripada Masker? Simak Penjelasan Pakar Namun kata Uus, hasil data hasilswabitu baru diketahui setelah dua pekan kemudian yang hasilnya memang positifCovid-19. "Karena setelah 12 hari baru diketahui hasilnya, maka kita lakukanswabulang dan Alhamdulillah hasilnya negatif," kata dia saat dihubungi, Kamis 16 Juli 2020. Uus menjelaskan, kenapa hasilnya berubah lantaran hasilswabpertama diketahui setelah melewati masa inkubasi virus selama dua pekan. Sementara hasilswabkedua dapat diketahui dengan cepat karena pemeriksaannya menggunakan lembaga swasta. Baca Juga:Ulang Tahun Viking Persib Club Digelar Sederhana, Herru Djoko: Kita akan Membuat Sebuah Program "Jadi hasilswabpertama dan kedua bisa diketahui dalam waktu yang hampir bersamaaan," katanya.Uus juga mengatakan, kenapa hasilswabtest pertama baru dikethaui dalam waktu yang lama lantaran spesimen harus diperiksa di Labkesda Bandung dikarenakan KotaTasikmalayahingga saat ini belum memiliki alat yang dapat memeriksa spesimenswabtestCovid-19. Menurut dia, pihaknya terus berkonsultasi untuk pengadaan alat pemeriksaan spesimenswabtest. Namun, hingga saat ini alat yang dibutuhkan masih belum tersedia. Baca Juga:Wakili Mahasiswa dan Buruh, 20 Orang Masuk Gedung DPR Audiensi RUU Omnibus Law Cipta Kerja "Kalau untuk anggaran kita siap. Tapi alat yang akan dibeli ini masih sulit. Ini yang menjadi kendala di kita," kata dia. Ia berharap, alat pemeriksaanswabtest untuk KotaTasikmalayabisa dapat segera tersedia. Apalagi, hingga saat ini belum ada kepastian hingga kapan pandemiCovid-19dapat teratasi. Sementara alat pemeriksaanswabtest sangat dibutuhkan agar penanganan dapat dilakukan dengan cepat. "Mudah mudahan secepatnya kita bisa memiliki alat tersebut," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01596399/pemijat-tunanetra-kota-tasikmalaya-sulit-terapkan-protokol-kesehatan-pendapatan-anjlok-80-persen</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Pemijat Tunanetra Kota Tasikmalaya Sulit Terapkan Protokol Kesehatan, Pendapatan Anjlok 80 Persen</t>
-        </is>
-      </c>
-      <c r="C273" s="2" t="n">
-        <v>44026.64166666667</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Pagebluk Covid-19 punya dampak lebih berat bagi parapenyandang disabilitasdari kalangan tunetra  yang berprofesi sebagai pemijat  diKota Tasikmalaya, Jawa Barat. Meskipun kehilangan pelanggan dan sepi order, mereka tetap bertahan dengan berbagai keterbatasan. Jika para tukang cukur bisa bekerja dengan menggunakan berbagai alat pelindung diri sehingga konsumen tetap mau memangkas rambutnya tanpa kekhawatiran tertular wabah, tak demikian dengan para penyandangtunanetrayang berprofesi sebagai pemijat itu. Bantuan APD untuk menunjang profesi pemijat begitu minim . Baca Juga:Rutan Salemba Potret Bobroknya Pengelolaan Lapas Indonesia, Solusinya Masih Hilang Timbul Koni Firman Suteja, 46 tahun, penyandangtunanetratersebut baru saja tiba di rumahnya setelah membeli kuota pulsa telefon genggamnya siang itu. Dengan didampingi anaknya yang berusia tujuh tahun,  Koni berjalan tersaruk-saruk memasuki rumahnya di Jalan Nusawangi Kulon, Kelurahan Nagarawangi, Kecamata Cihideung, Kota Tasimalaya, Rabu, 10 Juni 2020. Rumah yang didiaminya bersama sang isteri,  ‎Dede Rosita, 34 tahun, juga menjadi tempat praktik ‎Panti Pijat Tunanetra Hasrat Sehat yang dikelola pasanganpenyandang disabilitastersebut. Baca Juga:Babak Baru Kasus Sunda Empire, Nota Keberatan Ditolak Hakim, Sudah Masuk ke Pokok Perkara Siang itu, tak ada order atau panggilan memijat kepada Koni. Pasien yang mendatangi tempat pijatnya tersembunyi di permukiman padatKota Tasikmalayapun tak tampak. Sepi order dan pasien tambah sepi. Demikianlah kondisi Panti Pijat Hasrat Sehat selepas pagebluk Covid-19 mewabah pada Maret 2020. Koni mengaku pendapatannya dari memijat anjlok hingga 80 persen. PIKIRAN RAKYAT -Pagebluk Covid-19 punya dampak lebih berat bagi parapenyandang disabilitasdari kalangan tunetra  yang berprofesi sebagai pemijat  diKota Tasikmalaya, Jawa Barat. Meskipun kehilangan pelanggan dan sepi order, mereka tetap bertahan dengan berbagai keterbatasan. Jika para tukang cukur bisa bekerja dengan menggunakan berbagai alat pelindung diri sehingga konsumen tetap mau memangkas rambutnya tanpa kekhawatiran tertular wabah, tak demikian dengan para penyandangtunanetrayang berprofesi sebagai pemijat itu. Bantuan APD untuk menunjang profesi pemijat begitu minim . Baca Juga:Rutan Salemba Potret Bobroknya Pengelolaan Lapas Indonesia, Solusinya Masih Hilang Timbul Koni Firman Suteja, 46 tahun, penyandangtunanetratersebut baru saja tiba di rumahnya setelah membeli kuota pulsa telefon genggamnya siang itu. Dengan didampingi anaknya yang berusia tujuh tahun,  Koni berjalan tersaruk-saruk memasuki rumahnya di Jalan Nusawangi Kulon, Kelurahan Nagarawangi, Kecamata Cihideung, Kota Tasimalaya, Rabu, 10 Juni 2020. Rumah yang didiaminya bersama sang isteri,  ‎Dede Rosita, 34 tahun, juga menjadi tempat praktik ‎Panti Pijat Tunanetra Hasrat Sehat yang dikelola pasanganpenyandang disabilitastersebut. Baca Juga:Babak Baru Kasus Sunda Empire, Nota Keberatan Ditolak Hakim, Sudah Masuk ke Pokok Perkara Siang itu, tak ada order atau panggilan memijat kepada Koni. Pasien yang mendatangi tempat pijatnya tersembunyi di permukiman padatKota Tasikmalayapun tak tampak. Sepi order dan pasien tambah sepi. Demikianlah kondisi Panti Pijat Hasrat Sehat selepas pagebluk Covid-19 mewabah pada Maret 2020. Koni mengaku pendapatannya dari memijat anjlok hingga 80 persen."Dari yang asalnya tiap hari ada (pasien), sekarang kadang seminggu (baru) ada 1-2 (pasien)," kata Koni. Sebelum pandemi merebak, Koni bisa memperoleh tiga pasien dalam satu hari. Kini, ia bisa sama sekali tak mendapatkan order atau pasien. Saat kondisi normal atau belum pandemi, pasien Koni mencapai sekitar 35-45 orang dalam sebulan dengan penghasilan Rp 1.500.000. Dipotong biaya ojek dalam jaringan (daring) yang mengantarnya menemui pasien, penghasilan bersihnya mencapai sekitar Rp 1 juta. Baca Juga:Sempat Viral, Kasus Pegawai Dishub yang Hadang Ambulans Pembawa Pasien di Depok Berujung Damai Dua pekan selepas Lebaran, Koni  hanya bisa mendapat delapan pasien dengan penghasilan bersih Rp 300 ribu. Peningkatan pasien setelah Lebarang memang terjadi tetapi jumlahnya tak banyak. Ia tetap harus mengetatkan ikat pinggang keuangannya akibat sepinya order pijat. Untuk makanan, Koni terpaksa mengonsumsi mi instan, sarden sebagai lauk pauk. Turunnya order, diduga terkait dengan kekhawatiran warga menggunakan jasa pijattunanetra. Bila profesi lain seperti tukang cukur memiliki pilihan menggunakan jasanya karena tawaran lebih aman karena pemangkas memakai APD, hal itu tak berlaku bagi pemijat. Selain tak lazim menggunakan sarung tangan dan APD, pemijat dan konsumen pun tak memiliki jarak aman saat pijatan dilakukan. Baca Juga:Juventus Cari Hari Baik Scudetto Serie A 2019-2020, Tantangan Inter dan Lazio Rusak Pesta Si Nyonya Koni mengaku paling hanya menggunakan masker dan mencuci tangan sebelum memijat. Kondisi tersebut ditengarai berdampak munculnya kekhawatiran munculnya virus karena protokol kesehatan tak diterapkan sepenuhnya. Koni mencontohkan seorang pejabat di lingkungan dinas bina marga/PU PRKota Tasikmalayayang sama sekali tak lagi menggunakan jasanya saat pandemi merebak. Padahal, lanjutnya, sang pejabat dalam sebulan bisa dipijat 3-4 kali bersama keluarganya. Ia menduga, persoalan itu yang menjadi penyebab si pejabat tak lagi rutin memijat. Dede Rosita, isteri Koni yang punya profesi sama punya pendapat serupa. "Da sieuneun (karena pada takut menggunakan jasa pijattunanetra)," ucapnya. Keadaan mengenaskan itu juga dialami paratunanetrayang mata pencahariannya sebagai pemijat. Sebagai Dewa Syuro/Pembina ‎Ikatan Tunanetra Muslim Pengurus DaerahKota Tasikmalaya, Koni mengetahui 64 anggotanya yang berprofesi tukang piijat ikut terdampak pandemi."Ada yang lebih parah, (pemijat yang tinggal) di kampung-kampung seperti di Gobras dan Kawalu di pinggiran," ujarnya. Mereka, tuturnya, sama sekali tak mendapatkan order atau konsumen. Bantuan sosial dari pemerintah pun tak semua memperolehnya. Organisasi Konilah yang mengupayakan para anggotanya mendapat bantuan beras dari insitusi pemerintah seperti PLN atau Polres. Koni mengaku dirinya memang memperoleh bantuan dari Pemerintah Provinsi Jawa Barat berupa bahan pokok dan uang tunai. Namun, ia tak habis pikir dengan PemerintahKota Tasikmalayayang justru luput memberikan bantuan kepadapenyandang disabilitasseperti dirinya. "Kota Tasikmalayakunaon kurang paduli kanu disabilitas. Ari kahoyong abdimah hoyong aya nu menangani(bantuan) khusus disabilitas (kenapaKota Tasikmalayakurang perduli kepadapenyandang disabilitas. Saya ingingnya ada bagian yang menangani khusus bantuan disabilitas," ucapnya. Penyaluran bantuan melalui RT, RW, menurut Koni, justru tak menyentuhpenyandang disabilitasyang terdampak wabah. Alih-alih tersalurkan dengan benar, penyaluran menggunakan RT, RW malah memunculkan kecemburuan karena masih adanya warga yang menerima bantuan sosial ganda. Pikiran-Rakyat.com mencoba meminta keterangan dan tanggapan Sekretaris DaerahKota TasikmalayaIvan Dicksan, Minggu, 12 Juli 2020. Ia menyatakan, bantuan untukpenyandang disabilitasada dari Kementerian Sosial. "Kalau detailnya (bantuan), harus dengan dinas sosial," ucap Ivan dalam pesan WhatsApp. Dari nomor telefon Kepala Dinas SosialKota TasikmalayaNana Rosadi  yang diberikan Ivan, yang kami melalui WhatsApp. Nana mengungkapkan, parapenyandang disabilitasmemperoleh bantuan dari pemerintah provinsi dan pusat melalui lembaga kesejahteraan sosial (LKS). "Bantuan cukup banyak," ujar Nana, Senin, 13 Juli 2020. Baca Juga:4 Bulan Pandemi Covid-19, Gubernur Jawa Barat Ridwan Kamil Kehilangan 3 Sahabat Dekatnya Bantuan, lanjutnya, berupa bahan pokok, alat dan pelatihannya. Pemkot juga memberikan bantuan untuk sebagianpenyandang disabilitasdari APBD. Namun, ia tak menampik, para pemijat dari penyandangtunanetraikut kena dampak pandemi. "Untuk sementara ini memang betul belum bisa bekerja lagi,"ucapnya. Persoalan kelangsungan mata pencaharian para pemijat dari kalangantunanetraterkait bagaimana mereka bisa bekerja dengan aman dan tetap mematuhi protokol kesehatan begitu penting. Tanpa adanya upaya mencarikan solusi dalam urusan lahan mencari nafkah bagi penyandangtunanetratersebut, profesi dan usaha pijat mereka bisa terancam bangkrut. Dan bantuan pemerintah seharusnya menyasar pula kelangsungan gantungan hidup para  pekerja disabilitas tersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01595457/kota-tasikmalaya-masih-lakukan-kbm-secara-virtual-budi-budiman-itu-dilakukan-sesuai-instruksi</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Kota Tasikmalaya Masih Lakukan KBM Secara Virtual, Budi Budiman: Itu Dilakukan Sesuai Instruksi</t>
-        </is>
-      </c>
-      <c r="C274" s="2" t="n">
-        <v>44025.83333333334</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Hari pertama tahun pembelajaran 2020/2021 dilaksanakan pada Senin 13 Juli 2020. Namun karena masih dalam pandemi Covid-19 Kegiatan Belajar Mengajar (KBM) di beberapa daerah masih harus dilakukan secara online. Seperti di KotaTasikmalaya. Statusnya berada di zona biru, pembelajaran pun dilakukan secara virtual. Baca Juga:Semasa Aktif jadi Rekan Satu Tim, Luhut Pandjaitan dan Prabowo Subianto Sempat Dilatih Polisi Jerman Hal ini telah diungkapkan langsung olehWali KotaTasikmalayaBudi Budiman pada Senin, 13 Juli 2020. Budi menjelaskan bahwa keselamatan anak-anak dipertaruhkan maka dari itu pihaknya tidak mau mengambil risiko terjadinya pemaparan Covid-19 terhadap para siswa. "Anak sekolah paling rentan terkena serangan penyebaran Covid -19 kalau dipaksakan sekolah normal. Apalagi sampai sekarang zona KotaTasikmalayasama dengan wilayah KabupatenTasikmalayamasih berstatus zona biru pandemi corona," ujarnya. Baca Juga:Trik Mengetahui Siapa Saja Orang yang Sering Chatting dengan Pasangan Anda di WhatsApp Pihaknya, lanjut Budi, akan menunggu instruksi dari Gugus Tugas Jawa Barat dalam penerapan belajartatap muka. PIKIRAN RAKYAT- Hari pertama tahun pembelajaran 2020/2021 dilaksanakan pada Senin 13 Juli 2020. Namun karena masih dalam pandemi Covid-19 Kegiatan Belajar Mengajar (KBM) di beberapa daerah masih harus dilakukan secara online. Seperti di KotaTasikmalaya. Statusnya berada di zona biru, pembelajaran pun dilakukan secara virtual. Baca Juga:Semasa Aktif jadi Rekan Satu Tim, Luhut Pandjaitan dan Prabowo Subianto Sempat Dilatih Polisi Jerman Hal ini telah diungkapkan langsung olehWali KotaTasikmalayaBudi Budiman pada Senin, 13 Juli 2020. Budi menjelaskan bahwa keselamatan anak-anak dipertaruhkan maka dari itu pihaknya tidak mau mengambil risiko terjadinya pemaparan Covid-19 terhadap para siswa. "Anak sekolah paling rentan terkena serangan penyebaran Covid -19 kalau dipaksakan sekolah normal. Apalagi sampai sekarang zona KotaTasikmalayasama dengan wilayah KabupatenTasikmalayamasih berstatus zona biru pandemi corona," ujarnya. Baca Juga:Trik Mengetahui Siapa Saja Orang yang Sering Chatting dengan Pasangan Anda di WhatsApp Pihaknya, lanjut Budi, akan menunggu instruksi dari Gugus Tugas Jawa Barat dalam penerapan belajartatap muka."Kalau sudah aman, baru kita kembali ke sistem pembelajarantatap muka," katanya, sebagaimana diberitakanGalamedia.comsebelumnya dalam artikel "Masih Zona Biru, Pembelajaran Sekolah Di Kota Tasikmalaya Belum Boleh Tatap Muka", adapun pada hari pertama masuk sekolah pada tahun ajaran baru yang jatuh pada hari ini, Senin 13 Juli 2020. Baca Juga:Komet Neowise Terlihat Bulan Ini, Selanjutnya akan Tampak Lagi Hampir dalam 7.000 Tahun Mendatang Ada beberapa sekolah yang masuk, itu terkait proses pelaksanaan daftar ulang ajaran baru saja. Namun setelah itu, anak didik langsung disuruh kembali pulang kerumah masing-masing. "Langkahnya itu dilakukan sesuai instruksi Gugus Tugas Jawa Barat dan surat keputusan bersama (SKB) empat menteri yang melarang kegiatan belajartatap mukadi daerah dengan zona selain status hijau Covid-19," katanya. Pihaknya berharap orang tua siswa untuk bersabar menunggu sampai batas waktu yang belum bisa ditentukan demi keselamatan anak-anaknya.***(Septian Danardi/Galamedia.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01595125/momen-bersejarah-untuk-pertama-kalinya-pesawat-hercules-c-130-mendarat-di-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Momen Bersejarah, Untuk Pertama Kalinya Pesawat Hercules C-130 Mendarat di Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C275" s="2" t="n">
-        <v>44025.65277777778</v>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Pertama kali dalam sejarah, pesawatHerculestype C-130 HS/L-100-30 no pesawat A-1318 landing di landasan Lapangan Udara Wiriadinata Cibeureum KotaTasikmalaya, Senin 13 Juli 2020.Herculestype C-130 HS/L-100-30 no pesawat A-1318 tiba di Lanud Wiriadinata Cibeureum sekitar pukul 10:00 dengan pilot Penerbang Letkol Pnb Yulius Marvien dari Skadron 31 Lanud Halim Perdana Kusuma Jakarta.Pesawatlangsung disambut Wali KotaTasikmalayaBudi Budiman, Wakil Wali KotaTasikmalayaMuhammad Yusuf, Danlanud Wiriadinata Letnan Kolonel Nav Ali Sudirman Pasaribu SH, KapolrestaTasikmalayaAKBP Anom Pebrianto perwakilan dari DPRD, unsur Muspida serta pejabat lainnya. Baca Juga:Soal Hagia Sophia, Paus Fransiskus: Saya Sangat TertekanWali KotaTasikmalaya, Budi Budiman mengatakan, untuk pertama kalinya dalam sejarah pesawatHerculeslanding atau mendarat di Lanud WiriadinataTasikmalaya. "PesawatHerculesini merupakan pesawat pengangkut logistik dan evakuasi saat terjadi bencana. Kita sangat bangga, pesawat sekelas hercules telah bisa mendarat di Lapangan Udara (Lanud) Wiriadinata, Kecamatan Cibeureum, KotaTasikmalaya," katanya.Sehingga ujar Budi, kedepan tak hanya pesawat CN235 saja yang bisa mendarat di Wiriadinata. Namun pesawatHerculespun bisa. Baca Juga:Sidang Vonis Penyerangan Masjid di Selandia Baru Digelar Bulan Depan, Pelaku Ogah Didampingi Pengaca Uji coba pendaratan pesawatHerculessendiri lanjut Budi, merupakan hasil kajian dari pemerintah pusat untuk memastikan jika terjadi bencana alam di daerahTasikmalayatermasuk beberapa daerah di Priangan Timur, maka untuk proses evakuasi dan pengiriman logistik bisa menggunakan pesawatHercules."Kan daerah Priangan Timur ini rawan bencana. Dalam situasi bencana ini perlu evakuasi, dukungan logistik dan sebagainya. Dalam situasi darurat ini pesawat yang paling efektif. Karena berbicara waktu pesawat pasti lebah cepat," terangnya. "Alhamdulillah uji coba ini berjalan lancar sehingga kami tenang, walaupun kita tak berharap ada musibah segala macam," imbuh Budi. Baca Juga:Granada vs Real Madrid: Zinedine Zidane Tolak Utak-atik Angka, 'Kita Turunkan Semua Pemain' Hal senada disampaikan Danlanud Wiriadinata, Letnan Kolonel Nav Ali Sudirman Pasaribu SH. Danlanud mengatakan, sesuai dengan data yang ada, landingHerculesdi Lanud Wiriadinata Cibeureum KotaTasikmalayaini adalah yang pertama kalinya."Seperti kita ketahui, di Lanud Wiriadinata Tasik ini sudah dilakukan perpanjangan runway. Sehingga sangat memungkinkan untukHerculesmasuk ke Lanud. Apalagi wilayah Priangan Timur ini masuk daerah rawan bencana sehingga kita harus menyiapkan rencana kontijensi," tuturnya.Uji coba perdana pesawatHerculestipe C-130 A1318 tersebut yang menjadi pilot adalah Danskuadron Udara 31, Letkol Pnb Yulius Marvin dari Lanud Halim Perdana Kusumah, Jakarta.*** PIKIRAN RAKYAT -Pertama kali dalam sejarah, pesawatHerculestype C-130 HS/L-100-30 no pesawat A-1318 landing di landasan Lapangan Udara Wiriadinata Cibeureum KotaTasikmalaya, Senin 13 Juli 2020.Herculestype C-130 HS/L-100-30 no pesawat A-1318 tiba di Lanud Wiriadinata Cibeureum sekitar pukul 10:00 dengan pilot Penerbang Letkol Pnb Yulius Marvien dari Skadron 31 Lanud Halim Perdana Kusuma Jakarta.Pesawatlangsung disambut Wali KotaTasikmalayaBudi Budiman, Wakil Wali KotaTasikmalayaMuhammad Yusuf, Danlanud Wiriadinata Letnan Kolonel Nav Ali Sudirman Pasaribu SH, KapolrestaTasikmalayaAKBP Anom Pebrianto perwakilan dari DPRD, unsur Muspida serta pejabat lainnya. Baca Juga:Soal Hagia Sophia, Paus Fransiskus: Saya Sangat TertekanWali KotaTasikmalaya, Budi Budiman mengatakan, untuk pertama kalinya dalam sejarah pesawatHerculeslanding atau mendarat di Lanud WiriadinataTasikmalaya. "PesawatHerculesini merupakan pesawat pengangkut logistik dan evakuasi saat terjadi bencana. Kita sangat bangga, pesawat sekelas hercules telah bisa mendarat di Lapangan Udara (Lanud) Wiriadinata, Kecamatan Cibeureum, KotaTasikmalaya," katanya.Sehingga ujar Budi, kedepan tak hanya pesawat CN235 saja yang bisa mendarat di Wiriadinata. Namun pesawatHerculespun bisa. Baca Juga:Sidang Vonis Penyerangan Masjid di Selandia Baru Digelar Bulan Depan, Pelaku Ogah Didampingi Pengaca Uji coba pendaratan pesawatHerculessendiri lanjut Budi, merupakan hasil kajian dari pemerintah pusat untuk memastikan jika terjadi bencana alam di daerahTasikmalayatermasuk beberapa daerah di Priangan Timur, maka untuk proses evakuasi dan pengiriman logistik bisa menggunakan pesawatHercules."Kan daerah Priangan Timur ini rawan bencana. Dalam situasi bencana ini perlu evakuasi, dukungan logistik dan sebagainya. Dalam situasi darurat ini pesawat yang paling efektif. Karena berbicara waktu pesawat pasti lebah cepat," terangnya. "Alhamdulillah uji coba ini berjalan lancar sehingga kami tenang, walaupun kita tak berharap ada musibah segala macam," imbuh Budi. Baca Juga:Granada vs Real Madrid: Zinedine Zidane Tolak Utak-atik Angka, 'Kita Turunkan Semua Pemain' Hal senada disampaikan Danlanud Wiriadinata, Letnan Kolonel Nav Ali Sudirman Pasaribu SH. Danlanud mengatakan, sesuai dengan data yang ada, landingHerculesdi Lanud Wiriadinata Cibeureum KotaTasikmalayaini adalah yang pertama kalinya."Seperti kita ketahui, di Lanud Wiriadinata Tasik ini sudah dilakukan perpanjangan runway. Sehingga sangat memungkinkan untukHerculesmasuk ke Lanud. Apalagi wilayah Priangan Timur ini masuk daerah rawan bencana sehingga kita harus menyiapkan rencana kontijensi," tuturnya.Uji coba perdana pesawatHerculestipe C-130 A1318 tersebut yang menjadi pilot adalah Danskuadron Udara 31, Letkol Pnb Yulius Marvin dari Lanud Halim Perdana Kusumah, Jakarta.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01594094/kadis-kesehatan-sebut-penambahan-kasus-positif-covid-19-kota-tasikmalaya-nonklaster</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Kadis Kesehatan Sebut Penambahan Kasus Positif Covid-19 Kota Tasikmalaya Nonklaster</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="n">
-        <v>44024.71180555555</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –KepalaDinas KesehatanKota Tasikmalaya, Uus Supangat menyatakan, penambahan empat kasus baru Covid-19 diKota Tasikmalayabersifat nonklaster. "Dimungkinkan ada kontak dengan pasien positif. Nonklaster," ucap Uus dalam pesan WhatsApp, Minggu 12 Juli 2020 sore.‎ Uus juga mewanti-wanti terkait kontak dengan transmisi lokal. ‎ Baca Juga:Kasus Corona Terbaru Majalengka adalah Eks Pasien Covid-19 di RSPAD Gatot Subroto Jakarta "Kita harus waspada dengan transmisi lokal, tetapi yang penting pasien sudah menjalani isolasi dan sudah negatif, jadi sudah dinyatakan sembuh," ujarnya. Terkait kemungkinan rumah sakit sebagai klaster baru, Uus menampiknya. "Rumah sakit belum bisa dikatakan klaster baru karena tracing lainnnya negatif," ucapnya. Seperti diketahui, setelah sempat landai, terjadi empat penambahan kasus Covid-19 terjadi diKota Tasikmalayaselepas penerapan new normal atau Kenormalan baru. Baca Juga:Kunjungi Rumah Sakit Militer saat Pandemi, Donald Trump Akhirnya Pakai Masker untuk Pertama Kalinya Penambahan kasus terkuak dalam laporan yang dimuat dalam Instagram Dinas Komunikasi dan Informatika yang bersumber dari dataDinas KesehatanKota Tasikmalaya, Sabtu, 11 Juli 2020. Dalam data itu, jumlah kasus mencapai 55 dengan 30 terkonfirmasi dari PCR atau tes laboratorium dan 25 dari tes rapid.PIKIRAN RAKYAT –KepalaDinas KesehatanKota Tasikmalaya, Uus Supangat menyatakan, penambahan empat kasus baru Covid-19 diKota Tasikmalayabersifat nonklaster. "Dimungkinkan ada kontak dengan pasien positif. Nonklaster," ucap Uus dalam pesan WhatsApp, Minggu 12 Juli 2020 sore.‎ Uus juga mewanti-wanti terkait kontak dengan transmisi lokal. ‎ Baca Juga:Kasus Corona Terbaru Majalengka adalah Eks Pasien Covid-19 di RSPAD Gatot Subroto Jakarta "Kita harus waspada dengan transmisi lokal, tetapi yang penting pasien sudah menjalani isolasi dan sudah negatif, jadi sudah dinyatakan sembuh," ujarnya. Terkait kemungkinan rumah sakit sebagai klaster baru, Uus menampiknya. "Rumah sakit belum bisa dikatakan klaster baru karena tracing lainnnya negatif," ucapnya. Seperti diketahui, setelah sempat landai, terjadi empat penambahan kasus Covid-19 terjadi diKota Tasikmalayaselepas penerapan new normal atau Kenormalan baru. Baca Juga:Kunjungi Rumah Sakit Militer saat Pandemi, Donald Trump Akhirnya Pakai Masker untuk Pertama Kalinya Penambahan kasus terkuak dalam laporan yang dimuat dalam Instagram Dinas Komunikasi dan Informatika yang bersumber dari dataDinas KesehatanKota Tasikmalaya, Sabtu, 11 Juli 2020. Dalam data itu, jumlah kasus mencapai 55 dengan 30 terkonfirmasi dari PCR atau tes laboratorium dan 25 dari tes rapid.Hingga Minggu, data kasus baru tersebut tak berubah. Pada Jumat, 10 Juli 2020, jumlah kasus masih tercatat 51 dengan 26 terkonfirmasi PCR dan 25 tes rapid. Baca Juga:Berniat Selundupkan 36 Ekor Penyu, Nahkoda dan 6 ABK Diamankan Tim Subdit Gakkum Polda Bali Data itu menunjukkan, kenaikkan empat kasus positif corona terkonfirmasi melalui PCR. Dari data terbaru hingga Minggu pagi, Pasien Dalam Pengawasan (PDP) mencapai 51 orang dengan 45 selesai pengawasan, 1 dalam pengawasan, 5 meninggal. Orang Dalam Pemantauan (ODP) 1366 dengan 1312 selesai pemantauan, 54 dalam pemantauan. Orang Tanpa Gejala (0TG) 662 dengan 649 selesai pemantauan dan 13 dalam pemantauan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01594067/dekati-1000-kasus-lonjakan-dbd-kota-tasikmalaya-mengkhawatirkan</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Dekati 1.000 Kasus, Lonjakan DBD Kota Tasikmalaya Mengkhawatirkan</t>
-        </is>
-      </c>
-      <c r="C277" s="2" t="n">
-        <v>44024.6875</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PIKIRAN RAKYAT –Lonjakan kasus demam berdarah dengue (DBD) terus terjadi diKota Tasikmalaya, Jawa Barat. Hingga Minggu, 12 Juli 2020, jumlah kasusDBDtelah mencapai  850 kasus. Dalam  data di Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas KesehatanKota Tasikmalaya, peningkatan jumlah kasus sangat jelas terlihat. "Bertambah sebanyak 8 kasus," demikian keterangan tertulis Diskominfo. Dari jumlah total tersebut, 17 orang telah meninggal. ‎ Baca Juga:Dendam karena Dipecat Bos, Mantan Karyawan Berkomplot Curi Batu Alam Pada Sabtu, 11 Juli 2020, jumlah kasus tercatat masih 842 kejadian yang merupakan lonjakan 13 kasus dari Jumat, 10 Juli 2020. Dalam peta terbaru sebaranDBD, Kecamatan Kawalu menjadi wilayah dengan kejadian terbanyak dengan 155 kasus dan 6 meninggal. Mangkubumi menduduki urutan kedua kejadian terbanyak dengan 125 kasus dengan 0 meninggal. Beberapa kecamatan lain yakni Indihiang 46 kasus dengan 1 meninggal, Bungursari 82 kasus dengan 2 meninggal, Cihideung 92 kasus dengan 1 meninggal, Tawang 74 kasus dengan 1 meninggal, Purbaratu 41 kasus dengan 2 meninggal, Cipedes 81 kasus dengan 4 meninggal, Cibeureum 69 kasus 0 meninggal, Tamansari 85 kasus 0 meninggal. Baca Juga:Buka Soal Penyelewengan Uang Penanganan Covid-19, Ketua KPK: Saya Ingatkan Kepada Calon Koruptor Sementara itu, Kepala Dinas KesehatanKota TasikmalayaUus Supangat mengatakan, sejumlah upaya guna mengatasi dan menanggulangiDBDdilakukan Pemkot Tasi‎kmalaya seperti dengan penyuluhan dan terbitnya instruksi wali kota. Uus juga mengimbau warga menjaga kebersihan lingkungan dan tempat tinggalnya. "Tingkatkan gerakan 3 M," ucap Uus dalam pesan WhatsApp, Minggu sore. Gerakan itu berupa menguras dan menutup penampungan air serta mengubur benda-benda yang bisa menjadi sarang nyamuk.PIKIRAN RAKYAT –Lonjakan kasus demam berdarah dengue (DBD) terus terjadi diKota Tasikmalaya, Jawa Barat. Hingga Minggu, 12 Juli 2020, jumlah kasusDBDtelah mencapai  850 kasus. Dalam  data di Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas KesehatanKota Tasikmalaya, peningkatan jumlah kasus sangat jelas terlihat. "Bertambah sebanyak 8 kasus," demikian keterangan tertulis Diskominfo. Dari jumlah total tersebut, 17 orang telah meninggal. ‎ Baca Juga:Dendam karena Dipecat Bos, Mantan Karyawan Berkomplot Curi Batu Alam Pada Sabtu, 11 Juli 2020, jumlah kasus tercatat masih 842 kejadian yang merupakan lonjakan 13 kasus dari Jumat, 10 Juli 2020. Dalam peta terbaru sebaranDBD, Kecamatan Kawalu menjadi wilayah dengan kejadian terbanyak dengan 155 kasus dan 6 meninggal. Mangkubumi menduduki urutan kedua kejadian terbanyak dengan 125 kasus dengan 0 meninggal. Beberapa kecamatan lain yakni Indihiang 46 kasus dengan 1 meninggal, Bungursari 82 kasus dengan 2 meninggal, Cihideung 92 kasus dengan 1 meninggal, Tawang 74 kasus dengan 1 meninggal, Purbaratu 41 kasus dengan 2 meninggal, Cipedes 81 kasus dengan 4 meninggal, Cibeureum 69 kasus 0 meninggal, Tamansari 85 kasus 0 meninggal. Baca Juga:Buka Soal Penyelewengan Uang Penanganan Covid-19, Ketua KPK: Saya Ingatkan Kepada Calon Koruptor Sementara itu, Kepala Dinas KesehatanKota TasikmalayaUus Supangat mengatakan, sejumlah upaya guna mengatasi dan menanggulangiDBDdilakukan Pemkot Tasi‎kmalaya seperti dengan penyuluhan dan terbitnya instruksi wali kota. Uus juga mengimbau warga menjaga kebersihan lingkungan dan tempat tinggalnya. "Tingkatkan gerakan 3 M," ucap Uus dalam pesan WhatsApp, Minggu sore. Gerakan itu berupa menguras dan menutup penampungan air serta mengubur benda-benda yang bisa menjadi sarang nyamuk.Pemkot sebelumnya juga menggratiskan biaya foging atau pengasapan serta menggelar kegiatan Jumat Bersih (Jumsih). *** </t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01593280/sempat-positif-empat-perawat-ruang-isolasi-rsud-dr-soekardjo-kota-tasikmalaya-kini-negatif-covid-19</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Sempat Positif, Empat Perawat Ruang Isolasi RSUD Dr Soekardjo Kota Tasikmalaya Kini Negatif Covid-19</t>
-        </is>
-      </c>
-      <c r="C278" s="2" t="n">
-        <v>44023.88402777778</v>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Hasil uji lab (PCR) enam petugas Rumah sakit dr SoekardjoKota Tasikmalaya, Jawa Barat, negatif covid -19. Hal itu disampaikan Ketua Gugus Tugas Covid -19Kota TasikmalayaBudi Budiman. Ia mengatakan, berdasarkan hasil PCR di laboratorium Kimia Farma di Jakarta semuanya negatif. "Tadi malam hasilnya sudah datang dan  Alhamdulillah semuanya negatif," ujar Budi, Sabtu, 11 Juli 2020. Baca Juga:Tenaga Medis Gugur Saat Tangani Covid-19, Ahli Waris di Jateng Memperoleh Penghargaan dan SantunanDengan begitu lanjut Budi, walaupun secara akumulatif saat ini angka positif covid -19 diKota Tasikmalayamenjadi 55 pasien. Namun kata dia, pihaknya telah menyampaikan ke Gugus Tugas Jabar bahwa hasil PCR empat penambahan pasien positif covid -19 di Kota Tasik hasilnya negatif. "Karena kalau hasil PCR positif nanti akan dicatat di sana," kata Budi. Baca Juga:Sedang Berlangsung Live Streaming Liverpool vs LBurnleyPenambahan kasus positif covid -19 yang melibatkan petugas kamar isolasiRSUD dr Soekardjokata Budi, berawal dari pelaksanaan swab  massal di rumah sakit dan beberapa klinik yang ada di Kota Tasik. Karena Kota Tasik tidak memiliki  lab PCR, maka hasil swab massal tersebut  diceknya di Bandung.Setelah 12 hari lanjut Budi, dari seluruh sampel yang diperiksa di Bandung,  hasilnya ada yang positif yaitu  4 perawat khusus diruang isolasiRSUD. Dengan adanya kasus positif tersebut, kemudian dilakukan isolasi dan setelah 12 hari dilakukan swab kembali. Baca Juga:Sedang Berlangsung Live Streaming Liverpool vs LBurnley"Saat itu juga ketika kita tahu bahwa empat orang perawat  yang bekerja diruang isolasiterkonfirmasi positif,  kita lakukan perawatan dan setelah 12 dilakukan swab yang kedua kali." ujarnya.Karena setelah 12 hari hasil tes swab kedua dari lab di Bandung belum keluar hasilnya, hasil tes swab kedua keempat perawat itu kemudian dibawa sampelnya ke laboratorium Kimia Farma di Jakarta. "Hasilnya tadi malam sudah diterima Tim Gugus Tugas Percepatan Penanganan Covid-19 Kota Tasik," katanya. Karena hasilnya negatif, terang Budi,para perawat itu bisa pulang kembali dan tak perlu diisolasi.PIKIRAN RAKYAT -Hasil uji lab (PCR) enam petugas Rumah sakit dr SoekardjoKota Tasikmalaya, Jawa Barat, negatif covid -19. Hal itu disampaikan Ketua Gugus Tugas Covid -19Kota TasikmalayaBudi Budiman. Ia mengatakan, berdasarkan hasil PCR di laboratorium Kimia Farma di Jakarta semuanya negatif. "Tadi malam hasilnya sudah datang dan  Alhamdulillah semuanya negatif," ujar Budi, Sabtu, 11 Juli 2020. Baca Juga:Tenaga Medis Gugur Saat Tangani Covid-19, Ahli Waris di Jateng Memperoleh Penghargaan dan SantunanDengan begitu lanjut Budi, walaupun secara akumulatif saat ini angka positif covid -19 diKota Tasikmalayamenjadi 55 pasien. Namun kata dia, pihaknya telah menyampaikan ke Gugus Tugas Jabar bahwa hasil PCR empat penambahan pasien positif covid -19 di Kota Tasik hasilnya negatif. "Karena kalau hasil PCR positif nanti akan dicatat di sana," kata Budi. Baca Juga:Sedang Berlangsung Live Streaming Liverpool vs LBurnleyPenambahan kasus positif covid -19 yang melibatkan petugas kamar isolasiRSUD dr Soekardjokata Budi, berawal dari pelaksanaan swab  massal di rumah sakit dan beberapa klinik yang ada di Kota Tasik. Karena Kota Tasik tidak memiliki  lab PCR, maka hasil swab massal tersebut  diceknya di Bandung.Setelah 12 hari lanjut Budi, dari seluruh sampel yang diperiksa di Bandung,  hasilnya ada yang positif yaitu  4 perawat khusus diruang isolasiRSUD. Dengan adanya kasus positif tersebut, kemudian dilakukan isolasi dan setelah 12 hari dilakukan swab kembali. Baca Juga:Sedang Berlangsung Live Streaming Liverpool vs LBurnley"Saat itu juga ketika kita tahu bahwa empat orang perawat  yang bekerja diruang isolasiterkonfirmasi positif,  kita lakukan perawatan dan setelah 12 dilakukan swab yang kedua kali." ujarnya.Karena setelah 12 hari hasil tes swab kedua dari lab di Bandung belum keluar hasilnya, hasil tes swab kedua keempat perawat itu kemudian dibawa sampelnya ke laboratorium Kimia Farma di Jakarta. "Hasilnya tadi malam sudah diterima Tim Gugus Tugas Percepatan Penanganan Covid-19 Kota Tasik," katanya. Karena hasilnya negatif, terang Budi,para perawat itu bisa pulang kembali dan tak perlu diisolasi.Baca Juga:Link Live Streaming Liverpool vs Burnley: Preview, Head To Head dan Susunan PemainDemikian pula ujar Budi, pihaknya tidak akan metutup operasional RSUD dr.Soekardjo atas kasus tersebut. Apalagi kejadiannya hanya diruang isolasisaja dan tak bersentuhan dengan pelayanan masyarakat diseluruh ruangan rumah sakit."Jika para perawat yang kemarin sempat dinyatakan positif bertugas di lokasi pelayanan masyarakat, maka RSUD dr Soekarjdo ditutup.  Namun karena perawat itu kerjanya diruang isolasijadi Alhamdullah aman, apalagi kan hasilnya negatif semua, "ujarnya.Namun demikian lanjut Budi, berdasarkan beberapa kali pihaknya melakukan swab dan rapid massal di banyak tempat dan lokasi pelayana kesehatan, Kota Tasik belum dinyatakan aman covid -19 sehingga masyarakat harus tetap meningkatkan kewaspadaan. Baca Juga:Diduga Diserang Hiu saat Berselancar, Seorang Remaja Tewas dengan Luka di KakinyaSehingga lanjut Budi, protokol kesehatan harus terus dilakukan. Untuk itu kata Budi wajib memakai masker ketika di luar rumah tetap berlaku. "Apalagi Gubernur Jabar, Ridwan Kamil sudah membuat pergub berkaitan wajib menggunakan wajib masker diluar rumah bahkan ada sanksinya," terang Budi.Terkait itu lanjut Budi, pihaknya akan segera membuat regulasi wajib masker untuk tingkat kota. Karena ini harus diutamakan.Sebelumnya diberitakan, sejumlah petugas medis diRSUD dr SoekardjoKota Tasikmalayaterindikasi positif Covid-19. Dinas KesehatanKota Tasikmalayaterus melakukan pemeriksaan untuk memastikan kondisi para petugas medis tersebut.Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat saat dihubungi belum memberikan kepastian secara gamblang mengenai informasi tersebut. Uus hanya mengatakan, pihaknya masih terus melakukan pemeriksaan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01592868/wagub-jabar-dukung-pelatihan-manajerial-koperasi-dan-umkm-pesantren</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Wagub Jabar Dukung Pelatihan Manajerial Koperasi dan UMKM Pesantren</t>
-        </is>
-      </c>
-      <c r="C279" s="2" t="n">
-        <v>44023.57361111111</v>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wakil Gubernur Jawa BaratUu Ruzhanul Ulummewakili Gubernur Jabar mendampingi kunjungan kerja Menteri Koperasi danUMKMRepublik Indonesia (RI) dalam agenda Pembukaan Pelaksanaan Pelatihan SDM Koperasi danUMKMKementerianKoperasi dan UKMRI di Hotel Horison, KotaTasikmalaya, Jumat 10 Juli 2020. Dalam sambutannya, Kang Uu mengapresiasi pelatihan bagi 340 pegiat koperasi danUMKMdi Kabupaten dan KotaTasikmalayayang diberikan oleh KementerianKoperasi dan UKMRI. Hal ini dinilai mampu meningkatkan kemampuan teknis dan manajerial para peserta. Baca Juga:Video Detik-detik Azan Pertama di Hagia Sophia, Disambut Meriah Warga Turki Selain itu, Kang Uu mengapresiasi program-program pemerintah termasuk KementerianKoperasi dan UKMyang kini sudah menjadikan pondok pesantren atau santri sebagai target sasaran. "Santri dulu hanya dikenal mengaji alias bergerak di tarbiyah (pendidikan). Tapi kini pesantren sedikit demi sedikit diajak dalam bidang muamalah (bisnis). Ini membanggakan komunitas pesantren di Jabar," ucap Kang Uu. "Karena perkembangan Islam kalau didukung tiga elemen tarbiyah, siyasah (politik), dan muamalah akan hebat. Dan hari ini santri diajak bicara ekonomi, saya ucapkan terima kasih," tambahnya. Adapun terdapat sembilan jenis pelatihan SDM koperasi danUMKMyang digelar KementerianKoperasi dan UKMRI di Hotel Horison dan tiga hotel lain, antara lain pelatihan manajemen kewirausahaan bagi santri, pelatihan perkoperasian syariah bagi pondok pesantren, serta pelatihan kewirausahaan bagi masyarakat perkebunan/pertanian dan peternakan/perikanan. Baca Juga:Kekasih Editor Metro TV Sempat Komunikasi via Telepon di Malam Sebelum Yodi Prabowo Ditemukan Tewas PIKIRAN RAKYAT- Wakil Gubernur Jawa BaratUu Ruzhanul Ulummewakili Gubernur Jabar mendampingi kunjungan kerja Menteri Koperasi danUMKMRepublik Indonesia (RI) dalam agenda Pembukaan Pelaksanaan Pelatihan SDM Koperasi danUMKMKementerianKoperasi dan UKMRI di Hotel Horison, KotaTasikmalaya, Jumat 10 Juli 2020. Dalam sambutannya, Kang Uu mengapresiasi pelatihan bagi 340 pegiat koperasi danUMKMdi Kabupaten dan KotaTasikmalayayang diberikan oleh KementerianKoperasi dan UKMRI. Hal ini dinilai mampu meningkatkan kemampuan teknis dan manajerial para peserta. Baca Juga:Video Detik-detik Azan Pertama di Hagia Sophia, Disambut Meriah Warga Turki Selain itu, Kang Uu mengapresiasi program-program pemerintah termasuk KementerianKoperasi dan UKMyang kini sudah menjadikan pondok pesantren atau santri sebagai target sasaran. "Santri dulu hanya dikenal mengaji alias bergerak di tarbiyah (pendidikan). Tapi kini pesantren sedikit demi sedikit diajak dalam bidang muamalah (bisnis). Ini membanggakan komunitas pesantren di Jabar," ucap Kang Uu. "Karena perkembangan Islam kalau didukung tiga elemen tarbiyah, siyasah (politik), dan muamalah akan hebat. Dan hari ini santri diajak bicara ekonomi, saya ucapkan terima kasih," tambahnya. Adapun terdapat sembilan jenis pelatihan SDM koperasi danUMKMyang digelar KementerianKoperasi dan UKMRI di Hotel Horison dan tiga hotel lain, antara lain pelatihan manajemen kewirausahaan bagi santri, pelatihan perkoperasian syariah bagi pondok pesantren, serta pelatihan kewirausahaan bagi masyarakat perkebunan/pertanian dan peternakan/perikanan. Baca Juga:Kekasih Editor Metro TV Sempat Komunikasi via Telepon di Malam Sebelum Yodi Prabowo Ditemukan TewasKang Uu berujar, pelatihan ini merupakan salah satu upaya strategis untuk mendorong kegiatan koperasi dan UKM sekaligus meningkatkan kesejahteraan masyarakat. "Setelah ini, harapannya pesantren, koperasi, danUMKMharus diberi akses dalam segala hal. Jangan hanya pelatihan tanpa diberi akses menjual, mendapat bahan baku, dan lainnya. Begitu juga kami (Pemda Provinsi Jabar) memberi peluang misalnya melalui program OPOP (One Pesantren One Product) dan OVOC (One Village One Company)," kata Kang Uu. "Selamat kepada peserta pelatihan, semoga bermanfaat dan berkah. Juga saya ucapkan terima kasih kepada MenteriKoperasi dan UKMyang memberikan perhatian kepada Jabar," tambahnya. Baca Juga:Ridwan Kamil Lantik 572 Kepala Sekolah Sementara itu, MenteriKoperasi dan UKMRI Teten Masduki menjelaskan bahwa Pelatihan SDM Koperasi danUMKMdari KementerianKoperasi dan UKMRI bertujuan meningkatkan kemampuan teknis dan manajerial pelaku koperasi dan UKM khususnya di bidang branding dan reaktualisasi koperasi pondok pesantren. Pelatihan juga dilakukan dalam rangka percepatan pemulihan ekonomi nasional pada masa adaptasi kebiasaan baru. Adapun acara digelar berkoordinasi dengan Pemerintah Daerah Kabupaten dan KotaTasikmalayadan Dinas Kesehatan serta mendapat izin untuk melakukan kegiatan dengan protokol kesehatan. "Di saat pandemi (Covid-19) ini justruUMKMkita yang paling terdampak dari segi supply maupun demand. Ada alokasi sekitar Rp124 triliun untukUMKMdan masih akan terus dievaluasi untuk program tambahan," ucap Teten. Baca Juga:Antar Persib Juara, Firman Utina Kenang Masa-Masa Indah "Program (pemerintah) terutama membantu masalah pembiayaan, di antaranya untuk pembayaran cicilan atau pembiayaan baru. Selain itu, pemerintah juga cari solusi lain dari sisi demand agar tidak terjadi kredit macet. Presiden sudah menginstruksikan untuk prioritaskan belanja produkUMKM, termasuk jasa," tuturnya.Selain itu, lanjut Teten, pemerintah pusat telah menggelontorkan berbagai program bantuan sosial (bansos) untuk mendorong daya beli masyarakat. "Jadi ketika ekonomi lesu, dunia usaha lesu, dinamika digerakan oleh belanja pemerintah dan konsumsi masyarakat," kata Teten. Meski begitu, dirinya menjelaskan bahwa tidak semuaUMKMdi Indonesia terdampak pandemi Covid-19. Ada dua hal yang dimilikiUMKMyang mampu bertahan dan bahkan tumbuh, yakni pertama para pelaku yang sudah terhubung dengan marketplace online. Baca Juga:Inilah 5 Fakta Tentang Kawasaki Ninja ZX-25R, Nomor 3 Bikin Girang Para Penggemar Balap "Bulan lalu penjualan online naik 18 persen. (Faktor) kedua, yakniUMKMyang melakukan adaptasi dan inovasi bisnis sesuai permintaan baru (selama pandemi)," ujar Teten. "Jadi semoga pelatihan yang diberikan ini bisa menggerakan ekonomi diTasikmalaya," tambahnya. Menurut Wali KotaTasikmalayaBudi Budiman, hampir 70 persen ekonomi Priangan Timur termasukTasikmalayabergerak di bidangUMKMsehingga pelatihan dari KementerianKoperasi dan UKMRI ini menjadi momentum untuk menghidupkan kembali ekonomi yang terdampak pandemi. "Sembilan pelatihan yang disampaikan ini sangat bermanfaat agar koperasi danUMKMdiTasikmalayapunya daya saing yang sangat kuat. Percuma permodalan saja tanpa kemampuan manajerial. Jadi (pelatihan) ini harus dimanfaatkan pegiat koperasi danUMKMdiTasikmalaya," ucap Budi. Baca Juga:Gong Yoo Ultah ke 41, Berikut Daftar Wanita yang Dikabarkan Pernah Dekat dengannya Agenda pembukaan Pelatihan SDM Koperasi danUMKMini digelar dengan protokol kesehatan, antara lain memakai masker atau face shield dan social distancing. Dalam acara ini, dilakukan juga penyematan dan penyerahan program strategis KementerianKoperasi dan UKMRI, penyerahan sertifikat Hak Kekayaan Intelektual, serta penyerahan Kredit Usaha Rakyat (KUR).Turut hadir dalam acara ini antara lain Deputi Bidang Pengembangan SDM KementerianKoperasi dan UKMRI Arif Rahman Hakim, Direktur Utama Lembaga Pengelola Dana Bergulir Koperasi Usaha Mikro Kecil dan Menengah (LPDB-KUMKM) Supomo, BupatiTasikmalayaAde Sugianto, dan ForkopimdaTasikmalaya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01591524/beberapa-petugas-medis-di-rsud-dr-soekardjo-kota-tasikmalaya-terindikasi-positif-covid-19</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Beberapa Petugas Medis di RSUD dr Soekardjo Kota Tasikmalaya Terindikasi Positif Covid-19</t>
-        </is>
-      </c>
-      <c r="C280" s="2" t="n">
-        <v>44022.4625</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Sejumlahpetugas medisdiRSUD dr SoekardjoKota TasikmalayaterindikasipositifCovid-19. Dinas KesehatanKota Tasikmalayaterus melakukan pemeriksaan untuk memastikan kondisi parapetugas medistersebut. Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat saat dihubungi belum memberikan kepastian secara gamblang mengenai informasi tersebut. Uus hanya mengatakan, pihaknya masih terus melakukan pemeriksaan. Baca Juga:Ketahuan Masih Ada yang Cemari Sungai Bengawan Solo, Ganjar Pranowo: Tetap Nekat maka Pabrik Ditutup "Kita masih nunggu laporan lengkapnya," kata dia ketika dikonfirmasi melalui pesan singkat, Kamis 9 Juli 2020 malam. Uus menjelaskan, pihaknya telah melakukan tahapan pemeriksaan sesuai prosedur. Namun demikian, ia belum mau berspekulasi mengenai kondisi parapetugas medisdi RSUD dr. Soekardjo tersebut. Baca Juga:Warga Asing Leluasa Produksi Film Porno di Jakarta, 305 ABG jadi Korban dengan Rayuan jadi Model Kendati demikian Uus menambahkan, pihaknya telah melakukan penanganan kepada parapetugas medisdiRSUD dr Soekardjoyang terindikasipositifCovid-19itu. Bahkan kata Uus, sebagai langkah antisipatif, saat ini parapetugas medisitu sudah dikarantina. "Sementara ini untuk langkah antisipasi petugas sudah kita karantina, sambil menunggu hasil akhir. Mudah-mudahan hari Sabtu sudah keluar (hasilnnya)," kata dia. Baca Juga:Polemik TNI vs Pemkot Magelang, Anggota Pasangi Papan Nama, Ganjar Pranowo: Tak Usah Dulu Urus Itu PIKIRAN RAKYAT- Sejumlahpetugas medisdiRSUD dr SoekardjoKota TasikmalayaterindikasipositifCovid-19. Dinas KesehatanKota Tasikmalayaterus melakukan pemeriksaan untuk memastikan kondisi parapetugas medistersebut. Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat saat dihubungi belum memberikan kepastian secara gamblang mengenai informasi tersebut. Uus hanya mengatakan, pihaknya masih terus melakukan pemeriksaan. Baca Juga:Ketahuan Masih Ada yang Cemari Sungai Bengawan Solo, Ganjar Pranowo: Tetap Nekat maka Pabrik Ditutup "Kita masih nunggu laporan lengkapnya," kata dia ketika dikonfirmasi melalui pesan singkat, Kamis 9 Juli 2020 malam. Uus menjelaskan, pihaknya telah melakukan tahapan pemeriksaan sesuai prosedur. Namun demikian, ia belum mau berspekulasi mengenai kondisi parapetugas medisdi RSUD dr. Soekardjo tersebut. Baca Juga:Warga Asing Leluasa Produksi Film Porno di Jakarta, 305 ABG jadi Korban dengan Rayuan jadi Model Kendati demikian Uus menambahkan, pihaknya telah melakukan penanganan kepada parapetugas medisdiRSUD dr Soekardjoyang terindikasipositifCovid-19itu. Bahkan kata Uus, sebagai langkah antisipatif, saat ini parapetugas medisitu sudah dikarantina. "Sementara ini untuk langkah antisipasi petugas sudah kita karantina, sambil menunggu hasil akhir. Mudah-mudahan hari Sabtu sudah keluar (hasilnnya)," kata dia. Baca Juga:Polemik TNI vs Pemkot Magelang, Anggota Pasangi Papan Nama, Ganjar Pranowo: Tak Usah Dulu Urus ItuBerdasarkan data hingga Kamis pagi,kasus terkonfirmasipositifCovid-19diKota Tasikmalayaberjumlah 51 orang. Sebanyak 26 terkonfirmasi melalui uji usap (swab test) dan 25 orang melalui uji cepat (rapid test). Dari total kasus itu, 46 orang telah dinyatakan sembuh, dua orang masih menjalani perawatan, dan tiga orang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01588251/sempat-landai-dua-pekan-lebih-kota-tasikmalaya-catat-kenaikan-kasus-positif-covid-19</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Sempat Landai Dua Pekan Lebih, Kota Tasikmalaya Catat Kenaikan Kasus Positif Covid-19</t>
-        </is>
-      </c>
-      <c r="C281" s="2" t="n">
-        <v>44019.68958333333</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Jumlah kasus positifCovid-19diKota Tasikmalayamencapai 51 kasus hingga Selasa, 7 Juli 2020. Dari jumlah itu, terdapat satu kenaikkan kasus setelah sempat landai lebih dari dua pekan. Hal tersebut mengemuka dalam‎ data Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas KesehatanKota Tasikmalayapada Selasa pagi. Baca Juga:Disbudpar Kota Bandung Tinjau Kesiapan Tempat Hiburan Terapkan Protokol Kesehatan Dari 51 kasus, sebanyak 26 terkonfirmasi melalui tes PCR dan 25 melalui tes rapid. Dari 26 kasus terkonfirmasi PCR, sebanyak 22 orang sembuh, 2 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 25 kasus terkonfirmasi tes rapid, 24 negatif, 0 proses dan 1 meninggal. Terdapat satu kenaikkan kasus saat ini hingga jumlah totalnya mencapai 51 kasus. Padahal,penambahan kasus coronaKota Tasikmalayasempat landai atau tak mengalami penambahan dari Jumat, 19 Juni 2020 lalu sampai Senin, 5 Juli 2020. Baca Juga:Tol Trans-Sumatera dan Tol Cisumdawu Dipercepat, untuk Dorong Pemulihan Ekonomi Nasional Dalam kurun waktu itu, tak terjadi penambahan kasus. Jumlah kasus tertahan di 50 kasus. Sedangkan data Pasien Dalam Pengawasan dalam data terbarunya mencapai 50 orang dengan 44 selesai pengawasan, 1 dalam pengawasan, 5 meninggal. Orang Dalam Pemantauan 1366 orang dengan 1299 selesai pemantauan, 67 dalam pemantauan. Orang Tanpa Gejala 661 orang dengan 643 selesai pemantauan dan 18 dalam pemantauan.PIKIRAN RAKYAT -Jumlah kasus positifCovid-19diKota Tasikmalayamencapai 51 kasus hingga Selasa, 7 Juli 2020. Dari jumlah itu, terdapat satu kenaikkan kasus setelah sempat landai lebih dari dua pekan. Hal tersebut mengemuka dalam‎ data Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas KesehatanKota Tasikmalayapada Selasa pagi. Baca Juga:Disbudpar Kota Bandung Tinjau Kesiapan Tempat Hiburan Terapkan Protokol Kesehatan Dari 51 kasus, sebanyak 26 terkonfirmasi melalui tes PCR dan 25 melalui tes rapid. Dari 26 kasus terkonfirmasi PCR, sebanyak 22 orang sembuh, 2 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 25 kasus terkonfirmasi tes rapid, 24 negatif, 0 proses dan 1 meninggal. Terdapat satu kenaikkan kasus saat ini hingga jumlah totalnya mencapai 51 kasus. Padahal,penambahan kasus coronaKota Tasikmalayasempat landai atau tak mengalami penambahan dari Jumat, 19 Juni 2020 lalu sampai Senin, 5 Juli 2020. Baca Juga:Tol Trans-Sumatera dan Tol Cisumdawu Dipercepat, untuk Dorong Pemulihan Ekonomi Nasional Dalam kurun waktu itu, tak terjadi penambahan kasus. Jumlah kasus tertahan di 50 kasus. Sedangkan data Pasien Dalam Pengawasan dalam data terbarunya mencapai 50 orang dengan 44 selesai pengawasan, 1 dalam pengawasan, 5 meninggal. Orang Dalam Pemantauan 1366 orang dengan 1299 selesai pemantauan, 67 dalam pemantauan. Orang Tanpa Gejala 661 orang dengan 643 selesai pemantauan dan 18 dalam pemantauan.Kota Tasikmalayamemang terus menggencarkan pelaksanaan tesCovid-19di era kenormalan baru yang dicanangkan pemerintah pusat. Sebelumnya, pelaksanaan tes swab berlangsung di pusat-pusat perbelanjaanKota Tasikmalaya. ‎ Baca Juga:Bergaya Bak Model, Thalia Putri Onsu Dijuluki Jennie BLACKPINK Versi Indonesia Pelaksanaan tes berlangsung di Yogya Departemen Store,Kota Tasikmalaya, Rabu, 17 Juni 2020. Wali Kota Budi Budiman meninjau langsung pelaksanaannya beserta Wakil Wali Kota Muhammad Yusuf dan Kepala Dinas Kesehatan Uus Supangat. Budi mengatakan, penyelenggaraan tes-tes di pusat perbelanjaan diharapkan bisa memutus rantai penyebaran corona. "Kota Tasikmalayatelah memasuki zona biru dengan nilai 7, tinggal satu langkah lagi menuju zona hijau," ucap Budi dalam keterangan tertulis Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Para pegawai pun bisa menjadi duta kesehatan dalam penanggulanganCovid-19di tempatnya bekerja. Dengan demikian, masyarakat tak perlu khawatir saat berbelanja. Masyarakat tetap pula dihimbau menerapkan protokol kesehatan saat berada di luar rumah dengan mencuci tangan menggunakan sabun, memakai masker dan menjaga jarak.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01586995/hendak-pulang-usai-berdagang-di-kota-tasikmalaya-warga-jakarta-malah-positif-terinfeksi-covid-19</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Hendak Pulang Usai Berdagang di Kota Tasikmalaya, Warga Jakarta Malah Positif Terinfeksi Covid-19</t>
-        </is>
-      </c>
-      <c r="C282" s="2" t="n">
-        <v>44018.6625</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT-Kota Tasikmalayaterancam kembali berstatus zona biru usai temuan pasien terkonfirmasipositifCovid-19lagi. Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalayamenyebut, penambahan satu kasus terkonfirmasipositifdi wilayahnya berasal dari luar daerah, di mana yang bersangkutan sedang beraktivitas diKota Tasikmalayadan dinyatakanpositifCovid-19. WaliKota Tasikmalaya, Budi Budiman mengatakan, satu kasuspositifCovid-19itu adalah wargaJakartaUtara yang sedangberdagangdi daerah Tasikmalaya. Baca Juga:Misteri Hilangnya Pendaki Gunung Guntur, Lenyap saat Pagi dan Ditemukan Tak Pakai Baju di Mata Air Pasien melakukan uji usap (swab test)Covid-19secara mandiri ketika hendak pulang keJakarta. Hasilnya, pasien dinyatakanpositif. "Hasilnyapositif. Akhirnya dijemput oleh tim kita," kata dia, Senin 6 Juli 2020. Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat mengatakan, pasienCovid-19yang baru terkonfirmasi itu bukan merupakan wargaKota Tasikmalaya. Baca Juga:Breaking News: Update Kasus Virus Corona Indonesia Senin 6 Juli 2020, Total 64.958 Positif Namun, karena ditemukan diKota Tasikmalaya, penanganannya dilakukan oleh Dinas KesehatanKota Tasikmalaya. PIKIRAN RAKYAT-Kota Tasikmalayaterancam kembali berstatus zona biru usai temuan pasien terkonfirmasipositifCovid-19lagi. Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalayamenyebut, penambahan satu kasus terkonfirmasipositifdi wilayahnya berasal dari luar daerah, di mana yang bersangkutan sedang beraktivitas diKota Tasikmalayadan dinyatakanpositifCovid-19. WaliKota Tasikmalaya, Budi Budiman mengatakan, satu kasuspositifCovid-19itu adalah wargaJakartaUtara yang sedangberdagangdi daerah Tasikmalaya. Baca Juga:Misteri Hilangnya Pendaki Gunung Guntur, Lenyap saat Pagi dan Ditemukan Tak Pakai Baju di Mata Air Pasien melakukan uji usap (swab test)Covid-19secara mandiri ketika hendak pulang keJakarta. Hasilnya, pasien dinyatakanpositif. "Hasilnyapositif. Akhirnya dijemput oleh tim kita," kata dia, Senin 6 Juli 2020. Kepala Dinas KesehatanKota Tasikmalaya, Uus Supangat mengatakan, pasienCovid-19yang baru terkonfirmasi itu bukan merupakan wargaKota Tasikmalaya. Baca Juga:Breaking News: Update Kasus Virus Corona Indonesia Senin 6 Juli 2020, Total 64.958 Positif Namun, karena ditemukan diKota Tasikmalaya, penanganannya dilakukan oleh Dinas KesehatanKota Tasikmalaya.Menurut dia, adanya kasus dari luar daerah itu harus menjadi perhatian bagi seluruh masyarakat. Apalagi, banyak orang Tasikmalaya yang beraktivitas diJakartaatau sebaliknya. Baca Juga:Ledakan di Menteng Tak Perlu Bikin Panik, Polisi: Ledakan Kecil seperti Petasan, Tak Ada Korban Jiwa Ia menyebutkan, dari penambahan dua kasus terakhir, yang terkonfirmasi keduanya adalah warga dari luar daerah. Karena itu, penanganannya dilakukan diKota Tasikmalaya. "Kalau dipulangkan dalam kondisipositifitu sangat riskan. Takutnya selama perjalanan justru menularkan ke yang lain," kata dia. Baca Juga:F2 Austria 2020 : Pembalap Indonesia, Sean Gelael Gagal Capai Garis Finis Hingga saat ini, tercatat ada 51 kasuspositifdiKota Tasikmalaya. Sebanyak 26 orang terkonfirmasi melalui swab test dan 24 orang melalui rapid test. Dari 51 orang, 46 orang telah dinyatakan sembuh, dua orang masih dalam perawatan, dan tiga orang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01586928/16-warga-telah-meninggal-akibat-dbd-pemkot-tasikmalaya-galakkan-jumsih</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>16 Warga Telah Meninggal Akibat DBD, Pemkot Tasikmalaya Galakkan Jumsih</t>
-        </is>
-      </c>
-      <c r="C283" s="2" t="n">
-        <v>44018.61527777778</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Pemerintah Kota Tasikmalaya telah menetapkan status siaga darurat demam berdarah di wilayahnya. Upaya mengatasi penyebaran  demam berdarah dilakukan dengan melaksanakan kegiatan Jumat Bersih (Jumsih). Wali Kota Budi Budiman mengatakan, status siaga darurat diterapkan lantaran lonjakan jumlah kasus demam berdarah sepanjang 2020. Baca Juga:Kecewa dengan Anies Baswedan Soal Reklamasi, Pendukung: Itu yang Membuatnya Jadi Gubernur, Ingat "Sudah 758 kasusDBDdan 16 orang meninggal dunia," kata Budi dalam keterangan di Instagramnya belum lama ini. Di seluruh kecamatan di Kota Tasikmalaya pun ditemukan adanya kasus demam berdarah. Untuk itu, kegiatan Jumsih dilakukan mulai pada Jumat, 3 Juli 2020. Baca Juga:Nyaris 1.000 Hektare Terbakar Tahun Lalu, Petugas Antisipasi Kebakaran Hutan TNG Ciremai Terulang Kegiatan tersebut menjadi sarana sosialisasi pencegahan demam berdarah melalui menguras dan menutup penampungan air serta mengubur benda-benda yang bisa menjadi sarang nyamuk. Budi juga menekankan pentingnya gerakan Jumsih di Kota Tasikmalaya.PIKIRAN RAKYAT -Pemerintah Kota Tasikmalaya telah menetapkan status siaga darurat demam berdarah di wilayahnya. Upaya mengatasi penyebaran  demam berdarah dilakukan dengan melaksanakan kegiatan Jumat Bersih (Jumsih). Wali Kota Budi Budiman mengatakan, status siaga darurat diterapkan lantaran lonjakan jumlah kasus demam berdarah sepanjang 2020. Baca Juga:Kecewa dengan Anies Baswedan Soal Reklamasi, Pendukung: Itu yang Membuatnya Jadi Gubernur, Ingat "Sudah 758 kasusDBDdan 16 orang meninggal dunia," kata Budi dalam keterangan di Instagramnya belum lama ini. Di seluruh kecamatan di Kota Tasikmalaya pun ditemukan adanya kasus demam berdarah. Untuk itu, kegiatan Jumsih dilakukan mulai pada Jumat, 3 Juli 2020. Baca Juga:Nyaris 1.000 Hektare Terbakar Tahun Lalu, Petugas Antisipasi Kebakaran Hutan TNG Ciremai Terulang Kegiatan tersebut menjadi sarana sosialisasi pencegahan demam berdarah melalui menguras dan menutup penampungan air serta mengubur benda-benda yang bisa menjadi sarang nyamuk. Budi juga menekankan pentingnya gerakan Jumsih di Kota Tasikmalaya."Gerakan Jumsih akan mampu memutus mata rantai demam berdarah," katanya. Gerakan itu pun harus menjadi kebiasaan masyarakat di Kota Santri. Selain Jumsih, Dinas Kesehatan Kota Tasikmalaya juga membiayai sepenuhnya kegiatanpengasapan atau foging demam berdarah di wilayahnya. Lonjakan kasus  demam berdarah memang terus terjadi di tengah merebaknya pandemi Covid-19. Kepala Dinas Kesehatan Kota Tasikmalaya Uus Supangat beberapa waktu lalu mengungkapkan, jumlah kasus demam berdarah dalam kurun Januari-April 2020 mencapai 264 kasus. "Jumlah kematian di tahun 2020 (akibat)DBDini ada enam orang," ucap Uus saat itu. Kini, kasus kematian akibat penyakit yang ditularkan oleh nyamuk tersebut telah mencapai 16 orang dengan 758 kasus. Angka itu meningkat tajam bila dibandingkan dengan kasus pada awal 2020, jumlah yang mengidap demam berdarah baru 127 orang/kasus. Rinciannya, Januari sebanyak 35 laki-laki, 43 perempuan. Pada Februari, 22 laki-laki dan 27 perempuan. Di luar jumlah total tersebut, dua warga telah meninggal akibat demam berdarah. Nila selaku Pengelola ProgramDBDDinkes Kota Tasikmalaya mengatakan, dua korban demam berdarah itu masih berusia sekira empat tahun. Kedua anak perempuan itu masing-masing bernama Nadira Khoerunisa asal Kampung Sengkol Kulon, RT 2 RW 5, Kelurahan Kersamenak, Kecamatan Kawalu dan  Siti Maryam Izatunnisa, Jalan Letjen Haji Mashudi Nomor 3, Kampung Babakan Tengah, RT 01 RW 03, Kelurahan Kersamenak, Kecamat Kawalu. Siti yang meninggal pada Februari sempat menjalani perawatan di Rumah Sakit Jasa Kartini. Di hari kelima perawatan, Siti pulang ke rumah bergantian dengan neneknya yang masuk dan dirawat di rumah sakit karena penyakit serupa.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01586039/penting-untuk-daftar-sekolah-hingga-bantuan-16657-anak-kota-tasikmalaya-belum-punya-akta-kelahiran</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Penting untuk Daftar Sekolah Hingga Bantuan, 16.657 Anak Kota Tasikmalaya Belum Punya Akta Kelahiran</t>
-        </is>
-      </c>
-      <c r="C284" s="2" t="n">
-        <v>44017.69375</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Sebanyak 16.657 anak di Kota Tasikmalaya, Jawa Barat, belum memilikiakta kelahiran. Kondisi tersebut mempersulit pemenuhan hak-hak anak. Demikian diungkapkan Ketua Komisi Perlindungan Anak Daerah Kota Tasikmalaya Eki Sirojul Baehaqi. Angka tersebut merupakan tujuh persen  dari jumlah total 238.503 anak di Kota Tasikmalaya. Eki menegaskan, memilikiakta kelahiransangat penting bagi anak terutama di tengah pandemi Covid-19. Baca Juga:Bersepeda Lagi Tren, Pemkot Cimahi Berencana Buat Jalur Khusus "Akta kelahiran dapat dikatakan fondasi/ modal dasar untuk mengakses hak-hak anak lainnya," kata Eki saat dihubungi, Minggu, 5 Juli 2020. ‎Untuk masuk sekolah, lanjutnya, anak pun harus punyaakta kelahiran. Demikian pula untuk memperolehbantuansosial. "Maka itu sangat penting, jangan sampai saat anak membutuhkan layanan terhambat oleh hal yang sifatnya administrasi sepertiakta kelahiran," ucapnya. Beberapa wilayah di Kota Tasikmalaya cukup menonjol lantaran banyaknya anak yang masih tak memilikiakta kelahiran.‎ "Kecamatan Cipedes  sampai 4.115 anak belum punya akta lahir," ujarnya. Eki pun berharap para orang tua‎ dapat memahami dan menyadari akta lahir merupakan suatu hak yang wajib dimiliki anak. Baca Juga:Manajer Sebut Andrea Dovizioso Buka Peluang Absen di MotoGP 2021 "Jangan sampai saat perlu dan mendesak baru berpikir untuk membuat. Harus ada antisipsi sejak awal bahkan sejak lahir kalau bisa harus segera diurus," katanya. Eki menilai, ‎minimnya kesadaran warga dan mekanisme administratif menjadi permasalahan masih adanya anak yang tak punyaakta kelahiran.PIKIRAN RAKYAT -Sebanyak 16.657 anak di Kota Tasikmalaya, Jawa Barat, belum memilikiakta kelahiran. Kondisi tersebut mempersulit pemenuhan hak-hak anak. Demikian diungkapkan Ketua Komisi Perlindungan Anak Daerah Kota Tasikmalaya Eki Sirojul Baehaqi. Angka tersebut merupakan tujuh persen  dari jumlah total 238.503 anak di Kota Tasikmalaya. Eki menegaskan, memilikiakta kelahiransangat penting bagi anak terutama di tengah pandemi Covid-19. Baca Juga:Bersepeda Lagi Tren, Pemkot Cimahi Berencana Buat Jalur Khusus "Akta kelahiran dapat dikatakan fondasi/ modal dasar untuk mengakses hak-hak anak lainnya," kata Eki saat dihubungi, Minggu, 5 Juli 2020. ‎Untuk masuk sekolah, lanjutnya, anak pun harus punyaakta kelahiran. Demikian pula untuk memperolehbantuansosial. "Maka itu sangat penting, jangan sampai saat anak membutuhkan layanan terhambat oleh hal yang sifatnya administrasi sepertiakta kelahiran," ucapnya. Beberapa wilayah di Kota Tasikmalaya cukup menonjol lantaran banyaknya anak yang masih tak memilikiakta kelahiran.‎ "Kecamatan Cipedes  sampai 4.115 anak belum punya akta lahir," ujarnya. Eki pun berharap para orang tua‎ dapat memahami dan menyadari akta lahir merupakan suatu hak yang wajib dimiliki anak. Baca Juga:Manajer Sebut Andrea Dovizioso Buka Peluang Absen di MotoGP 2021 "Jangan sampai saat perlu dan mendesak baru berpikir untuk membuat. Harus ada antisipsi sejak awal bahkan sejak lahir kalau bisa harus segera diurus," katanya. Eki menilai, ‎minimnya kesadaran warga dan mekanisme administratif menjadi permasalahan masih adanya anak yang tak punyaakta kelahiran.Walaupun sudah aplikasi guna mengurusnya, Eki menilai penggunanya harus lebih cepat dan efektif. Baca Juga:Syarief Hasan Sebut Target Demokrat Menang di Pilkada 2020 60 Persen ‎"Di lapangan masih ditemukan kendala-kendala teknis karena volume permohonan yang banyak hanya ditampung lewat WhatsApp," tuturnya. Untuk itu, KPAD pun menyambangi ‎Kantor Dinas Kependudukan dan Pencatatan sipil Kota Tasikmalay‎a, Jumat, 3 Juli 2020 lalu. Dalam pertemuan dengan Kadisdukcapil  Imih Misbahul Munir‎, KPAD menyampaikkan rekomendasi terkait dukungan pembuatan akta lahir agar memenuhi target 100 persen. Imih, tutur Eki, menyambut baik dukungan KPAD. Baca Juga:Pemkot Bogor Kaji Pembangunan Monumen Panglima Jenderal Sudirman "Motivasi buat kami agar terpenuhinya dokumen kependudukan bagi masyarakat, agar sistem dan layanan bisa berjalan lebih optimal lagi," ucap Eki menirukan tanggapan sang Kadis.‎ KPAD juga mendorong Disdukcapil membuat strategi percepatan pembuatan dan distribusi akta lahir hingga 100 persen sebagai wujud pemenuhan hak sipil anak secara utuh dan menyeluruh. Tak hanya itu, Disdukcapil juga mesti meningkatkan efektifitas dan efisiensi implementasi sistem pelayanan kependudukan dan pencatatan sipil terkait pembuatanakta kelahirananak dengan tetap memperhatikan protokol kesehatan dalam situasi pandemi Covid-19. Sebelumnya, ‎ laporan terkait permasalahan anak yang masuk dan ditangani Komisi Perlindungan Anak Daerah Kota Tasikmalaya mengalami penurunan sepanjang 2019. KPAD Kota Tasikmalaya hanya menerima dan menangani laporan 30 kasus anak dari awal 2019 hingga saat ini. Persoalan sengketa hak asuh anak menjadi kasus paling dominan. "Secara kuantitas berdasarkan laporan yang masuk ke KPAD berkurang dibanding tahun lalu. Tahun lalu sampai 40 kasus," kata Eki beberapa waktu lalu. Penanganan yang dilakukan KPAD, tuturnya, berupa penelaahan kasus dan mediasi. Perkara dominan sepanjang 2019 yakni saling rebut hak asuh anak dengan jumlah 8 kasus. Posisi kedua dan ketiga ditempati perkara kekerasan fisik dan psikis (5 kasus) dan pelecehan seksual (4 kasus).Saling rebut hak asuh anak, tutur Eki, disebabkan perceraian orang tuanya. Kasus itu juga terjadi saat pihak orang tua masih dalam proses perceraian. KPAD pun melakukan mediasi untuk mempertemukan dua pihak yang bersengketa tersebut guna mencari solusi terbaik bagi sang anak. Terkait kasus kekerasan terhadap anak, Eki memaparkan sejumlah penyebabnya. ‎ "Minimnya pemahaman masyarakat terhadap hak-hak anak, pengasuhan yg tidak baik , faktor ekonomi sehingga memicu stres, sebagian terjadi di sekolah karena lemahnya pengawasan guru," ujarnya. Ke depan, KPAD melakukan upaya-upaya guna mengatasi persoalan yang menimpa anak-anak di Kota Tasikmalaya. Eki berharap, KPAD bisa membuat titik percontohan komunitas atau kampung ramah anak di tingkat kecamatan tahun depan.‎***</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01585930/hasil-tes-swab-massal-di-mal-pasar-dan-perumahan-kota-tasikmalaya-melegakan</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Hasil Tes Swab Massal di Mal, Pasar, dan Perumahan Kota Tasikmalaya Melegakan</t>
-        </is>
-      </c>
-      <c r="C285" s="2" t="n">
-        <v>44017.61041666667</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Berdasarkan hasil uji laboratorium Dinkes Provinsi Jawa Barat, hasiltes swab500 an masal di sejumlah tempat diKota Tasikmalayadinyatakan negatif. Sebelumnya tim Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalaya, melalu Dinas Kesehatan (Dinkes), melakukan test swab massal disejumlah tempat sepertimal, toserba, pasar modern dan tradisional termasuk pondok pesantren.“Alhamdulillah hasiltes swabmassal sudah keluar,” ujar Kepala Dinkes (Kadinkes) Kota Tasik, Uus Supangat, Minggu, 5 Juli 2020. Baca Juga:4 Bulan Parkir, Bus Sakoci Kembali Mengaspal untuk Wisata Kota CimahiDikatakan Uus, hasil tersebut yaitu hasil tes yang dilakukan di Asia Plaza, Asia Toserba, Yogya Toserba, salah satu perumahan sebagai tracking, dan Pasar Gegernoong dengan total 500 sampel. Uus mengatakan, dari target sebanyak 1.200 sampeltes swabmassal diKota Tasikmalayakini tinggal sekitar 200-an lagi.Karena, pihaknya sudah mengumpulkan 1.000-an sample swab warga Kota Tasik. Dari target 1.200 swab, kata Uus, sekarang sudah hampir 1.000-an yang di swab atau tinggal 200-an lagi. Baca Juga:Gugus Tugas Covid-19 Sisir Tiga Titik di Banyuwangi, Ratusan ABG Terjaring Operasi Tertib Masker “Insya Allah selesai di Juli ini,” terangnya.Uus menambahkan, sebanyak 200 sample swab test massal sisanya akan dilakukan di terminal, pesantren dan beberapa kelompok resiko. Sekitar 200-an uji swab massal ini mungkin tak akan cukup. Sehingga akan diberikan kuota tambahan.Yang penting kata Uus, sample dari tempat-tempat strategis yang dianggap penting tersebut bisa kita yakinkan bahwa Covid di Kota Tasik bisa terkendali. Baca Juga:Jadwal &amp; Live Streaming Premier League Hari Ini: Duel Demi Zona Eropa Hingga Liverpool hadapi Villa “Meski demikian dengan telah terkumpul 1.000 sample dengan hasil 500-an negatif,  sudah membuat kita semua lega," katanya.Namun tetap saja, tegas Uus, masyarakat harus tetap waspada dengan Covid. “Karena Kota Tasik sample diPriangan Timur, tempat di mana orang dari berbagai daerah berbisnis dan perjalanan wisata. Karena kita daerah penyangga. Tapi tetap covid harus diwaspadai dan tetap taat protokol kesehatan, walaupun kondisi Covid mulai membaik," ujar Uus.***PIKIRAN RAKYAT –Berdasarkan hasil uji laboratorium Dinkes Provinsi Jawa Barat, hasiltes swab500 an masal di sejumlah tempat diKota Tasikmalayadinyatakan negatif. Sebelumnya tim Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalaya, melalu Dinas Kesehatan (Dinkes), melakukan test swab massal disejumlah tempat sepertimal, toserba, pasar modern dan tradisional termasuk pondok pesantren.“Alhamdulillah hasiltes swabmassal sudah keluar,” ujar Kepala Dinkes (Kadinkes) Kota Tasik, Uus Supangat, Minggu, 5 Juli 2020. Baca Juga:4 Bulan Parkir, Bus Sakoci Kembali Mengaspal untuk Wisata Kota CimahiDikatakan Uus, hasil tersebut yaitu hasil tes yang dilakukan di Asia Plaza, Asia Toserba, Yogya Toserba, salah satu perumahan sebagai tracking, dan Pasar Gegernoong dengan total 500 sampel. Uus mengatakan, dari target sebanyak 1.200 sampeltes swabmassal diKota Tasikmalayakini tinggal sekitar 200-an lagi.Karena, pihaknya sudah mengumpulkan 1.000-an sample swab warga Kota Tasik. Dari target 1.200 swab, kata Uus, sekarang sudah hampir 1.000-an yang di swab atau tinggal 200-an lagi. Baca Juga:Gugus Tugas Covid-19 Sisir Tiga Titik di Banyuwangi, Ratusan ABG Terjaring Operasi Tertib Masker “Insya Allah selesai di Juli ini,” terangnya.Uus menambahkan, sebanyak 200 sample swab test massal sisanya akan dilakukan di terminal, pesantren dan beberapa kelompok resiko. Sekitar 200-an uji swab massal ini mungkin tak akan cukup. Sehingga akan diberikan kuota tambahan.Yang penting kata Uus, sample dari tempat-tempat strategis yang dianggap penting tersebut bisa kita yakinkan bahwa Covid di Kota Tasik bisa terkendali. Baca Juga:Jadwal &amp; Live Streaming Premier League Hari Ini: Duel Demi Zona Eropa Hingga Liverpool hadapi Villa “Meski demikian dengan telah terkumpul 1.000 sample dengan hasil 500-an negatif,  sudah membuat kita semua lega," katanya.Namun tetap saja, tegas Uus, masyarakat harus tetap waspada dengan Covid. “Karena Kota Tasik sample diPriangan Timur, tempat di mana orang dari berbagai daerah berbisnis dan perjalanan wisata. Karena kita daerah penyangga. Tapi tetap covid harus diwaspadai dan tetap taat protokol kesehatan, walaupun kondisi Covid mulai membaik," ujar Uus.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01584898/pencuri-di-kota-tasikmalaya-berhasil-ditangkap-warga-polisi-hukuman-maksimal-5-tahun-penjara</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Pencuri di Kota Tasikmalaya Berhasil Ditangkap Warga, Polisi: Hukuman Maksimal 5 Tahun Penjara</t>
-        </is>
-      </c>
-      <c r="C286" s="2" t="n">
-        <v>44016.57222222222</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Pada Jumat dini hari, 3 Juli 2020, telah terjadi aksipencuriandi Perum Sirnagalih Kencana di KecamatanIndihiang, Kota Tasikmalay, Jawa Barat. Pencuri yang merupakan seorang lelaki yang berinisial R (46), telah diamankan oleh PolsekIndihiang, PolrestaTasikmalaya. Menurut informasi, pelaku merupakan seorang warga dari KecamatanCihideung, KotaTasikmalaya, Jawa Barat. Baca Juga:Sidak 3 Sekolah Negeri, Ganjar Pranowa akan Tindak Tegas Peserta PPDB yang Manipulasi Data Lewat aksinya tersebut, pelaku menggondol 1 unit laptop, 2 unit ponsel, uang dolar, satu mesin bor, dan satu tas gendong. Pelaku lalu berhasil ditangkap saat tengah mencuri sebuah payung dari rumah warga yang ada di pinggir jalan. KapolsekIndihiangKompol. H. Didik Rohim Hadi membenarkan adanya penangkapan seorang pencuri di Perum Sirnagalih Kencana yang kedapatan mencuri payung. Baca Juga:Chelsea Bersiap Hadapi Watford, Frank Lampard Berharap Kepada Willian Saat ditangkap warga dan digeledah, ternyata pelaku membawa sejumlah barang di dalam tas yang diduga hasilpencurian. PIKIRAN RAKYAT- Pada Jumat dini hari, 3 Juli 2020, telah terjadi aksipencuriandi Perum Sirnagalih Kencana di KecamatanIndihiang, Kota Tasikmalay, Jawa Barat. Pencuri yang merupakan seorang lelaki yang berinisial R (46), telah diamankan oleh PolsekIndihiang, PolrestaTasikmalaya. Menurut informasi, pelaku merupakan seorang warga dari KecamatanCihideung, KotaTasikmalaya, Jawa Barat. Baca Juga:Sidak 3 Sekolah Negeri, Ganjar Pranowa akan Tindak Tegas Peserta PPDB yang Manipulasi Data Lewat aksinya tersebut, pelaku menggondol 1 unit laptop, 2 unit ponsel, uang dolar, satu mesin bor, dan satu tas gendong. Pelaku lalu berhasil ditangkap saat tengah mencuri sebuah payung dari rumah warga yang ada di pinggir jalan. KapolsekIndihiangKompol. H. Didik Rohim Hadi membenarkan adanya penangkapan seorang pencuri di Perum Sirnagalih Kencana yang kedapatan mencuri payung. Baca Juga:Chelsea Bersiap Hadapi Watford, Frank Lampard Berharap Kepada Willian Saat ditangkap warga dan digeledah, ternyata pelaku membawa sejumlah barang di dalam tas yang diduga hasilpencurian.Artikel ini sebelumnya telah tayang diGalamedia.comdengan judul "Gara-gara Payung, Residivis Ditangkap Warga" Warga yang curiga, akhirnya mengintrogasi pelaku terkait barang yang dibawanya. Awalnya pelaku tidak mengakui. Setelah terus didesak, akhirnya pelaku mengakui bahwa barang tersebut hasil curian. Menurutnya, aksi pelaku juga terekam CCTV. Pelaku melakukan tindak pidanapencuriandengan pemberatan karena saat alsinya pelaku memajat ke lantai dua dengan menggunakan tangga. Setelah berada di lantai dua, pelaku masuk ke dalam rumah melalui pintu yang tidak terkunci. Baca Juga:Lagu Avenue Beat Bertajuk 'Fuck 2020', Ungkap Kekacauan yang Dirasakan akibat Adanya Pandemi Selanjutnya tersangka turun ke lantai satu melalui tangga. Disitulah pelaku melakukan aksinya, mengacak-ngacak setiap kamar di rumah tersebut. Pelaku berhasil membawa 1 buah tas gendong yang berisikan laptop, uang dolar senilai Rp 500.000 dan 1 unit mesin bor portable. Pelaku keluar melalui jalan yang sama. Saat pelaku beraksi, pemilik rumah sedang terlelap tidur sehingga pelaku dengan leluasa melakukan aksinya tanpa diketahui pemiliknya. Baca Juga:Zona Kuning Wisata di Pangandaran Minta Tetap Dibuka,Agus: Kasus Baru Mayoritas Kalangan Tokoh Agama "Pelaku berhasil kabur. Namun karena saat itu posisi hujan, di jalan pelaku mencuri payung dari halaman rumah warga. Disitulah, pelaku berhasil ditangkap warga," tuturnya. Dikatakan Didik, pelaku yang merupakan residivis dapat diamankan setelah kepergok oleh warga setelah melakukanpencurian.  Bahkan pelaku mengakui melakukanpencuriandi lokasi lain yakni di Perum Bumi EndahIndihiang."Atas perbuatannya itu, pelaku dijerat pasal 363 KUHPidana tentangpencuriandisertai dengan pemberatan dengan ancaman hukuman maksimal 5 tahun penjara," ungkapnya.***(Dadang Setiawan/Galamedia.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01584647/curi-payung-karena-hujan-usai-gondol-uang-dolar-nasib-nahas-r-malah-kepergok-dan-ditangkap-warga</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Curi Payung karena Hujan Usai Gondol Uang Dolar, Nasib Nahas R Malah Kepergok dan Ditangkap Warga</t>
-        </is>
-      </c>
-      <c r="C287" s="2" t="n">
-        <v>44016.32013888889</v>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Kedapatan melakukanpencurian, seorang lelaki berinisial R (46)wargaKecamatan Cihideung,Kota Tasikmalaya, Jawa Barat diamankan Polsek Indihiang, Polresta Tasikmalaya. Pelaku melakukan aksinya di Perum Sirnagalih Kencana, Kecamatan Indihiang,Kota Tasikmalaya, Jawa Barat Jumat 3 Juli 2020 dini hari. Dari aksinya tersebut, pelaku berhasil menggondol 1 unit laptop, tas gendong, mesinbor, 2 unit hape dan uangdolar. Nahas pelaku berhasil ditangkapwargajustru saat mencuri sebuah payung dari rumahwargadi pinggir jalan. Baca Juga:Genap 100 Tahun ITB, Jokowi: Sangat Mewarnai Perjalanan Besar Sejarah Indonesia Kapolsek Indihiang, Polresta Tasikmalaya, Kompol. H. Didik Rohim Hadi membenarkan adanya kejadian penangkapanpencuriandi Perum Sirnagalih Kencana dan diamankan dariwargakarena kedapatan mencuri payung. Saat ditangkapwargadan digeledah, ternyata pelaku membawa sejumlah barang di dalam tas yang diduga hasilpencurian. Baca Juga:Baru Melahirkan, Zaskia Adya Mecca Terpaksa Harus Dipisah dengan Anak Kelimanya Warga yang curiga, akhirnya mengintrogasi pelaku terkait barang yang dibawanya. Awalnya pelaku tidak mengakui. Setelah terus didesak, akhirnya pelaku mengakui bahwa barang tersebut hasil curian. "Pelaku diamankan dariwargasetelah ditangkapwargakarena mencuri payung untuk digunakannya, karena saat itu kondisi hujan. Namun begitu diinterogasi, ternyata pelaku mengakui telah melakukanpencurian," ucapnya. PIKIRAN RAKYAT- Kedapatan melakukanpencurian, seorang lelaki berinisial R (46)wargaKecamatan Cihideung,Kota Tasikmalaya, Jawa Barat diamankan Polsek Indihiang, Polresta Tasikmalaya. Pelaku melakukan aksinya di Perum Sirnagalih Kencana, Kecamatan Indihiang,Kota Tasikmalaya, Jawa Barat Jumat 3 Juli 2020 dini hari. Dari aksinya tersebut, pelaku berhasil menggondol 1 unit laptop, tas gendong, mesinbor, 2 unit hape dan uangdolar. Nahas pelaku berhasil ditangkapwargajustru saat mencuri sebuah payung dari rumahwargadi pinggir jalan. Baca Juga:Genap 100 Tahun ITB, Jokowi: Sangat Mewarnai Perjalanan Besar Sejarah Indonesia Kapolsek Indihiang, Polresta Tasikmalaya, Kompol. H. Didik Rohim Hadi membenarkan adanya kejadian penangkapanpencuriandi Perum Sirnagalih Kencana dan diamankan dariwargakarena kedapatan mencuri payung. Saat ditangkapwargadan digeledah, ternyata pelaku membawa sejumlah barang di dalam tas yang diduga hasilpencurian. Baca Juga:Baru Melahirkan, Zaskia Adya Mecca Terpaksa Harus Dipisah dengan Anak Kelimanya Warga yang curiga, akhirnya mengintrogasi pelaku terkait barang yang dibawanya. Awalnya pelaku tidak mengakui. Setelah terus didesak, akhirnya pelaku mengakui bahwa barang tersebut hasil curian. "Pelaku diamankan dariwargasetelah ditangkapwargakarena mencuri payung untuk digunakannya, karena saat itu kondisi hujan. Namun begitu diinterogasi, ternyata pelaku mengakui telah melakukanpencurian," ucapnya.Baca Juga:Kiper Chelsea Yakini The Blues Bisa Bersaing Dapatkan Gelar Premier League di Masa Mendatang Menurut dia, aksi pelaku juga terekam CCTV. Pelaku melakukan tindak pidanapencuriandengan pemberatan karena saat aksinya pelaku memajat ke lantai dua dengan menggunakan tangga. Setelah berada di lantai dua, pelaku masuk ke dalam rumah melalui pintu yang tidak terkunci. Selanjutnya tersangka turun ke lantai satu melalui tangga. Disitulah pelaku melakukan aksinya, mengacak-ngacak setiap kamar di rumah tersebut. Pelaku berhasil membawa 1 buah tas gendong yang berisikan laptop, uang senilai Rp 500.000 dan 1 unit mesinborportable. Pelaku keluar melalui jalan yang sama. Baca Juga:Premier League: Jadwal dan Live Streaming Malam Ini, Manchester United dan Liverpool Tancap Gas! Saat pelaku beraksi, pemilik rumah sedang terlelap tidur sehingga pelaku dengan leluasa melakukan aksinya tanpa diketahui pemiliknya. "Pelaku berhasil kabur. Namun karena saat itu posisi hujan, di jalan pelaku mencuri payung dari halaman rumahwarga. Disitulah, pelaku berhasil ditangkapwarga," tuturnya. Baca Juga:Bumi Berada di Titik Terjauh dari Matahari, 3 Pulau di Indonesia Bakal Rasakan Suhu Dingin Hari Ini Dikatakan Didik, pelaku yang merupakanresidivisdapat diamankan setelahkepergokolehwargasetelah melakukanpencurian. Bahkan pelaku mengakui melakukanpencuriandi lokasi lain yakni di Perum Bumi Endah Indihiang. "Atas perbuatannya itu, pelaku dijerat pasal 363 KUHPidana tentangpencuriandisertai dengan pemberatan dengan ancaman hukuman maksimal 5 tahun penjara," ungkapnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01583036/angka-kematian-dbd-tertinggi-skala-nasional-kota-tasikmalaya-siaga-satu</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Angka Kematian DBD Tertinggi Skala Nasional, Kota Tasikmalaya Siaga Satu</t>
-        </is>
-      </c>
-      <c r="C288" s="2" t="n">
-        <v>44014.63541666666</v>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT- ANGKA kasuskematianyang disebabkan serangan wabah demam berdarah dengue (DBD) di KotaTasikmalayasaat ini, merupakan angka kasuskematiantertinggi skala nasional. Termasuk, angka kasusDBDtertinggi diJawa Barat.Berdasarkan data Dinas Kesehatan KotaTasikmalaya, jumlah kasuskematianyang disebabkan wabahDBD, selama kurun waktu Januari hingga Juni 2020, mencapai 17 kasus. Sedangkan untuk angka kasusnya sendiri dalam kurun waktu yang sama mencapai 756 kasus.Dengan kondisi tersebut, pemerintah KotaTasikmalayamenetapkan  saat ini KotaTasikmalayasudah berstatus siaga satuDemam Berdarah Dengue(DBD).Hal itu disampaikan WalikotaTasikmalayaBudi Budiman usai memberikan pemaparan pada kegiatan penatalaksanaan kegawatdaruratan penyakitDBDuntuk layanan kesehatan bertempat Grand Metro Hotel, Kamis 2 Juli 2020. Baca Juga:Diklaim Sembuhkan Covid-19, Asap Cair Buatan Kelompok Pemuda di Cirebon Merupakan Warisan Leluhur"Jumlah kasusDBDtahun ini yang telah mencapai 757 kasus dengankematiansebanyak 17 orang, menetapkan KotaTasikmalayasiaga satu atau masa kedaruratanDBD," ujar Budi.Bahkan, lanjutnya, angka tersebut jauh meningkat dibanding Bulan Mei 2020 lalu yang angkanya sebanyak 672 kasus. Untuk itu, lanjut Budi, pihaknya meminta semua pihak bergerak secara masif melakukan penanggulanganDBDdi KotaTasikmalaya."Juli ini saya minta jangan lagi ada kasuskematianyang disebabkanDBD. Kasusnya juga  harus turun. Dengan cara melakukan  pencegahanDBDsecara ekstra," katanya. Baca Juga:BPKSDM Kabupaten Bandung Segera Rumuskan Sanksi Bagi ASN yang Tidak Netral dalam Tahapan PilkadaTermasuk, lanjut Budi, Pemerintah KotaTasikmalaya akan menggratiskan setiap pelaksanana fooging (pengasapan), yang awalnya setiap satu rumah harus mengeluarkan Rp 10.000 sesuai regulasi yang mengaturnya. "Pengasapan ini adalah sebagai salah satu langkah mengantisipasi menjamurnya kasusDBD," ujarnya.Sementara itu Kepala Dinas Kesehatan Uus Supangat menuturkan, secara teknis penanggulanganDBDdi KotaTasikmalaya, pihaknya telah melakukan 3T, 3P, dan 3M. 3 T itu kata dia adalah Temukan kasusnya, TesDBDyang difasilitasi pemerintah di puskesmas, dan TreatmentDBD. Baca Juga:Oded Turut Berduka, Mantan Pjs Wali Kota Bandung M Solihin Tinggalkan Kesan MendalamSedangkan 3P, adalah Penyuluhan, Pencatatan pelaporan berjenjang, Pemberantasan. “Lalu yang terakhir adalah 3M, yaitu mengkampanyekan secara masif Menguras, Mengubur, dan Menutup barang bekas yang jadi genangan air, serta sumber lainnya yang bisa jadi sarang nyamuk Aedes Aegypti.“Kita berharap di Bulan Juli ini sesuai permintaan pak Walikota, kasusDBDbisa diturunkan secara signifikan. Makanya penguatan ini harus kita lakukan secara maksimal,” kata Uu. ***PIKIRAN RAKYAT- ANGKA kasuskematianyang disebabkan serangan wabah demam berdarah dengue (DBD) di KotaTasikmalayasaat ini, merupakan angka kasuskematiantertinggi skala nasional. Termasuk, angka kasusDBDtertinggi diJawa Barat.Berdasarkan data Dinas Kesehatan KotaTasikmalaya, jumlah kasuskematianyang disebabkan wabahDBD, selama kurun waktu Januari hingga Juni 2020, mencapai 17 kasus. Sedangkan untuk angka kasusnya sendiri dalam kurun waktu yang sama mencapai 756 kasus.Dengan kondisi tersebut, pemerintah KotaTasikmalayamenetapkan  saat ini KotaTasikmalayasudah berstatus siaga satuDemam Berdarah Dengue(DBD).Hal itu disampaikan WalikotaTasikmalayaBudi Budiman usai memberikan pemaparan pada kegiatan penatalaksanaan kegawatdaruratan penyakitDBDuntuk layanan kesehatan bertempat Grand Metro Hotel, Kamis 2 Juli 2020. Baca Juga:Diklaim Sembuhkan Covid-19, Asap Cair Buatan Kelompok Pemuda di Cirebon Merupakan Warisan Leluhur"Jumlah kasusDBDtahun ini yang telah mencapai 757 kasus dengankematiansebanyak 17 orang, menetapkan KotaTasikmalayasiaga satu atau masa kedaruratanDBD," ujar Budi.Bahkan, lanjutnya, angka tersebut jauh meningkat dibanding Bulan Mei 2020 lalu yang angkanya sebanyak 672 kasus. Untuk itu, lanjut Budi, pihaknya meminta semua pihak bergerak secara masif melakukan penanggulanganDBDdi KotaTasikmalaya."Juli ini saya minta jangan lagi ada kasuskematianyang disebabkanDBD. Kasusnya juga  harus turun. Dengan cara melakukan  pencegahanDBDsecara ekstra," katanya. Baca Juga:BPKSDM Kabupaten Bandung Segera Rumuskan Sanksi Bagi ASN yang Tidak Netral dalam Tahapan PilkadaTermasuk, lanjut Budi, Pemerintah KotaTasikmalaya akan menggratiskan setiap pelaksanana fooging (pengasapan), yang awalnya setiap satu rumah harus mengeluarkan Rp 10.000 sesuai regulasi yang mengaturnya. "Pengasapan ini adalah sebagai salah satu langkah mengantisipasi menjamurnya kasusDBD," ujarnya.Sementara itu Kepala Dinas Kesehatan Uus Supangat menuturkan, secara teknis penanggulanganDBDdi KotaTasikmalaya, pihaknya telah melakukan 3T, 3P, dan 3M. 3 T itu kata dia adalah Temukan kasusnya, TesDBDyang difasilitasi pemerintah di puskesmas, dan TreatmentDBD. Baca Juga:Oded Turut Berduka, Mantan Pjs Wali Kota Bandung M Solihin Tinggalkan Kesan MendalamSedangkan 3P, adalah Penyuluhan, Pencatatan pelaporan berjenjang, Pemberantasan. “Lalu yang terakhir adalah 3M, yaitu mengkampanyekan secara masif Menguras, Mengubur, dan Menutup barang bekas yang jadi genangan air, serta sumber lainnya yang bisa jadi sarang nyamuk Aedes Aegypti.“Kita berharap di Bulan Juli ini sesuai permintaan pak Walikota, kasusDBDbisa diturunkan secara signifikan. Makanya penguatan ini harus kita lakukan secara maksimal,” kata Uu. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01581993/ungkap-pembunuhan-siswi-smp-yang-tewas-di-gorong-gorong-polresta-tasikmalaya-raih-penghargaan</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Ungkap Pembunuhan Siswi SMP yang Tewas di Gorong-gorong, Polresta Tasikmalaya Raih Penghargaan</t>
-        </is>
-      </c>
-      <c r="C289" s="2" t="n">
-        <v>44013.61319444444</v>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -WaliKota Tasikmalaya, Budi Budiman memberikan penghargaan kepada jajaran Polresta Tasikmalaya, atas keberhasilan mengungkap kasus pembunuhan ayah terhadap anak kandungnya sendiri. Seperti diketahui, awal 2020, geger tewasnya Delis Sulistina, siswa SMP yang ditemukan digorong-gorong, warga Kelurahan Cilembang Kecamatan, CihideungKota Tasikmalaya, Jawa Barat.Prosesi penyerahan penghargaan itu dilakukan langsung oleh  Budi Budiman saat suukuran peringatan Hari Bhayangkara ke-74 di Mapolresta, Rabu, 1 Juli 2020 pagi. Baca Juga:PT LIB: Opsi Yogyakarta Tuan Rumah Liga 1 2020, Begini komentar KlubBudi mengatakan, pemberian penghargaan ini sangatlah berarti sebagai bentuk apresiasi atas kerja keras yang telah dilakukan seluruh jajaran anggota Polresta yang telah mengungkap tuntas kasus Delis. Kata Budi, penghargaan  disampaikan dalam bentuk piagam penghargaaan yang didasari keputusan Wali Kota Tasik Nomor 163.2/Kep/231 –Pem/2020 tentang Penghargaan kepada Anggota Polresta.Hal itu kata Budi,  juga mengacu pada peraturan Kepolisian Negara RI Nomor 3 tahun 2011 tentang Pemberian Penghargaan di lingkungan Polri. Baca Juga:Viral Video Badak Jawa Berguling di Lumpur, Menteri LHK Sebut Biasa Dilakukan untuk Penuhi Mineral "Penghargaan ini diberikan atas jasa serta prestasi dalam mengungkap kasus kekerasan pada anak yang mengakibatkan meninggal dunia,” ucap dia.Sementara itu Kapolres Tasikmalaya, AKBP Anom Karibianto menuturkan, sesuai tugas,  pihaknya akan tetap mengayomi serta memberikan perlindungan dan pelayanan kepada masyarakat. Maka dari itu, dengan penghargaan tersebut,  dia berharap semua pihak di Mapolresta agar terus meningkatkan kinerjanya.“Kami berharap, selain kepada anggota untuk bekerja lebih baik, juga meminta kepada masyarakat untuk selalu waspada apalagi dengan situasi pandemi Corona ini banyak kerawanan di tengah kita. Kita juga berharap masyarakat berpartisipasi aktif dalam menjaga kondusifitas,” ucapnya. Baca Juga:Unpad Mulai KKN Virtual, 2.560 Mahasiswa Dilepas ke Cimahi dan Jatinangor SumedangSebelumnya, kasus pembunuhan siswi SMPN 6Kota Tasikmalaya, Delis Sulistina (13) sempat membuat heboh masyarakat khususnyaKota Tasikmalaya. Apalagi, pembunuhnya tak lain adalah ayah kandung.Kasusnya sendiri terjadi pada awal tahun 2020. Tim gabungan Polresta Tasik yang terdiri Reskrim, Intel dan Polsek melakukan penyelidikan. Tepat sebulan, polisi berhasil mengungkap serta menangkap pelaku pembunuhannya.***PIKIRAN RAKYAT -WaliKota Tasikmalaya, Budi Budiman memberikan penghargaan kepada jajaran Polresta Tasikmalaya, atas keberhasilan mengungkap kasus pembunuhan ayah terhadap anak kandungnya sendiri. Seperti diketahui, awal 2020, geger tewasnya Delis Sulistina, siswa SMP yang ditemukan digorong-gorong, warga Kelurahan Cilembang Kecamatan, CihideungKota Tasikmalaya, Jawa Barat.Prosesi penyerahan penghargaan itu dilakukan langsung oleh  Budi Budiman saat suukuran peringatan Hari Bhayangkara ke-74 di Mapolresta, Rabu, 1 Juli 2020 pagi. Baca Juga:PT LIB: Opsi Yogyakarta Tuan Rumah Liga 1 2020, Begini komentar KlubBudi mengatakan, pemberian penghargaan ini sangatlah berarti sebagai bentuk apresiasi atas kerja keras yang telah dilakukan seluruh jajaran anggota Polresta yang telah mengungkap tuntas kasus Delis. Kata Budi, penghargaan  disampaikan dalam bentuk piagam penghargaaan yang didasari keputusan Wali Kota Tasik Nomor 163.2/Kep/231 –Pem/2020 tentang Penghargaan kepada Anggota Polresta.Hal itu kata Budi,  juga mengacu pada peraturan Kepolisian Negara RI Nomor 3 tahun 2011 tentang Pemberian Penghargaan di lingkungan Polri. Baca Juga:Viral Video Badak Jawa Berguling di Lumpur, Menteri LHK Sebut Biasa Dilakukan untuk Penuhi Mineral "Penghargaan ini diberikan atas jasa serta prestasi dalam mengungkap kasus kekerasan pada anak yang mengakibatkan meninggal dunia,” ucap dia.Sementara itu Kapolres Tasikmalaya, AKBP Anom Karibianto menuturkan, sesuai tugas,  pihaknya akan tetap mengayomi serta memberikan perlindungan dan pelayanan kepada masyarakat. Maka dari itu, dengan penghargaan tersebut,  dia berharap semua pihak di Mapolresta agar terus meningkatkan kinerjanya.“Kami berharap, selain kepada anggota untuk bekerja lebih baik, juga meminta kepada masyarakat untuk selalu waspada apalagi dengan situasi pandemi Corona ini banyak kerawanan di tengah kita. Kita juga berharap masyarakat berpartisipasi aktif dalam menjaga kondusifitas,” ucapnya. Baca Juga:Unpad Mulai KKN Virtual, 2.560 Mahasiswa Dilepas ke Cimahi dan Jatinangor SumedangSebelumnya, kasus pembunuhan siswi SMPN 6Kota Tasikmalaya, Delis Sulistina (13) sempat membuat heboh masyarakat khususnyaKota Tasikmalaya. Apalagi, pembunuhnya tak lain adalah ayah kandung.Kasusnya sendiri terjadi pada awal tahun 2020. Tim gabungan Polresta Tasik yang terdiri Reskrim, Intel dan Polsek melakukan penyelidikan. Tepat sebulan, polisi berhasil mengungkap serta menangkap pelaku pembunuhannya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01581687/dua-minggu-berlalu-hasil-swab-test-di-sejumlah-pasar-kota-tasikmalaya-tak-kunjung-keluar</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Dua Minggu Berlalu, Hasil Swab Test di Sejumlah Pasar Kota Tasikmalaya Tak Kunjung Keluar</t>
-        </is>
-      </c>
-      <c r="C290" s="2" t="n">
-        <v>44013.39861111111</v>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Hasil swab test di pasar tradisional dan modern yang digelar diKotaTasikmalayamasih belum keluar hasilnya. Padahal swab test sendiri pelaksanaannya sudah hampir dua minggu lalu. Kondisi tersebut tentu saja menimbulkan kekhawatiran di tengah upaya PemkotTasikmalayamelanjutkan penerapan menuju adaptasi kebiasaan baru (AKB) setelah tidak lagi memperpanjang Pembatasan Sosial Berskala Besar (PSBB). "Sudah hampir dua minggu belum ada hasilnya dari Labkes di Pemprov Jabar. Saya sudah secara resmi menanyakan melalui surat. Bahkan melalui telepon. Tapi memang belum ada," ujar WaliKotaTasikmalayaBudi Budiman, Rbu 1 Juli 2020. Baca Juga:Pilkada Siap Digelar, Ketua Komisi II DPR RI Peringatkan Ada Tiga Indikator yang Harus Dijaga Hasil swab test tersebut, kata Budi, diperlukan karena akan menjadi acuan untuk menentukan langkah Gugus Tugas Percepatan PenangananCovid-19KotaTasikmakaya selanjutnya. "Kami berharap dari jumlah ratusan warga yang menjalani swab test hasilnya semua negatif. Jika ada yang positif, tentu saja harus melakukan langkah penyelamatan," kata Budi. Sementara itu Kepala Dinas KesehatanKota, Uus Supangat, menambahkan, pihaknya bahkan melakukan jemput bola menanyakan hasil dari pelaksanaan swab tes. Baca Juga:Pandemi Covid-19, Iuran Peserta Mandiri Kelas 3 Dibantu Pemerintah "Tampaknya banyak dan jadi antre, karena swab test kemarin dilakukan serentak se-Jawa Barat," ujarnya. PIKIRAN RAKYAT -Hasil swab test di pasar tradisional dan modern yang digelar diKotaTasikmalayamasih belum keluar hasilnya. Padahal swab test sendiri pelaksanaannya sudah hampir dua minggu lalu. Kondisi tersebut tentu saja menimbulkan kekhawatiran di tengah upaya PemkotTasikmalayamelanjutkan penerapan menuju adaptasi kebiasaan baru (AKB) setelah tidak lagi memperpanjang Pembatasan Sosial Berskala Besar (PSBB). "Sudah hampir dua minggu belum ada hasilnya dari Labkes di Pemprov Jabar. Saya sudah secara resmi menanyakan melalui surat. Bahkan melalui telepon. Tapi memang belum ada," ujar WaliKotaTasikmalayaBudi Budiman, Rbu 1 Juli 2020. Baca Juga:Pilkada Siap Digelar, Ketua Komisi II DPR RI Peringatkan Ada Tiga Indikator yang Harus Dijaga Hasil swab test tersebut, kata Budi, diperlukan karena akan menjadi acuan untuk menentukan langkah Gugus Tugas Percepatan PenangananCovid-19KotaTasikmakaya selanjutnya. "Kami berharap dari jumlah ratusan warga yang menjalani swab test hasilnya semua negatif. Jika ada yang positif, tentu saja harus melakukan langkah penyelamatan," kata Budi. Sementara itu Kepala Dinas KesehatanKota, Uus Supangat, menambahkan, pihaknya bahkan melakukan jemput bola menanyakan hasil dari pelaksanaan swab tes. Baca Juga:Pandemi Covid-19, Iuran Peserta Mandiri Kelas 3 Dibantu Pemerintah "Tampaknya banyak dan jadi antre, karena swab test kemarin dilakukan serentak se-Jawa Barat," ujarnya.Seorang peserta swab test, Bayu Adji, mengaku terbawa sugesti jadi agak khawatir dengan belum keluarnya hasil swab test. "Saya sebenarnya sehat-sehat saja. Tapi dengan belum keluarnya hasil swab test jadi khawatir juga. Kan ada yang tanpa gejala sebenarnya tiba-tiba ternyata positif," ujar Bayu.*** </t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01581229/kisah-mayor-utarya-menjadi-nama-jalan-di-kota-tasikmalaya-dan-gugur-dibacok-kuduknya</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Kisah Mayor Utarya, Menjadi Nama Jalan di Kota Tasikmalaya dan Gugur Dibacok Kuduknya</t>
-        </is>
-      </c>
-      <c r="C291" s="2" t="n">
-        <v>44013.24652777778</v>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Ruas jalan di pusat keramaian dan deretan perkantoran diKota Tasikmalayapunya kisah terkait nama yang disandangnya. Namun, tak banyak warga mengetahui kiprah sosok pejuang yang gugur dalam pergolakan perjuangan kemerdekaan saat negara ini masih berusia dini. Pikiran-rakyat.com mengupasnya. Terentang di antara Jalan Tentara Pelajar, KHZ Mustafa, ruas jalan itu menyimpan cerita. Warga mengenalnya dengan nama Jalan Mayor Utarya. Baca Juga:Isuzu Nyatakan Komitmennya di Segmen Kendaraan Niaga Di dekatnya, berdiri bangunan-bangunan aset Kabupaten Tasikmalaya yang tersisa diKota Tasikmalaya, yakni Kantor Dinas Kependudukan dan Pencatatan Sipil,  Dinas Koperasi  UKM dan Tenaga Kerja. Lalu siapa Mayor Utarya? Kenapa nama itu dilekatkan menjadi nama ruas jalan di pusat perkotaan dan kawasan Masjd AgungKota Tasikmalaya?  Kendati memakai nama salah satu pejuang kemerdekaan , kisahnya justru terlupakan. "Kirang uninga(tidak tahu)" kata Budi, 56 tahun, juru parkir saat ditanya siapakah Mayor Utarya, Sabtu, 27 Juni 2020. Baca Juga:Libya Sudah Rencana Produksi, Harga Minyak Justru Kembali Turun Padahal Budi bekerja dan bermukim di sekitar ruas jalan yang berada di Kelurahan Empangsari, Kecamatan Tawang tersebut. Meski demikian, tuturnya, Jalan Mayor Utarya sudah ada sejak lama. Kiprah Mayor Utarya bisa ditemukan dalam Buku Siliwangi Dari Masa Ke Masa. Utarya gugur dalam pergolakan perlawanan Darul Islam/Tentara Islam Indonesia (DI/TII) di Tasikmalaya puluhan tahun lalu.PIKIRAN RAKYAT –Ruas jalan di pusat keramaian dan deretan perkantoran diKota Tasikmalayapunya kisah terkait nama yang disandangnya. Namun, tak banyak warga mengetahui kiprah sosok pejuang yang gugur dalam pergolakan perjuangan kemerdekaan saat negara ini masih berusia dini. Pikiran-rakyat.com mengupasnya. Terentang di antara Jalan Tentara Pelajar, KHZ Mustafa, ruas jalan itu menyimpan cerita. Warga mengenalnya dengan nama Jalan Mayor Utarya. Baca Juga:Isuzu Nyatakan Komitmennya di Segmen Kendaraan Niaga Di dekatnya, berdiri bangunan-bangunan aset Kabupaten Tasikmalaya yang tersisa diKota Tasikmalaya, yakni Kantor Dinas Kependudukan dan Pencatatan Sipil,  Dinas Koperasi  UKM dan Tenaga Kerja. Lalu siapa Mayor Utarya? Kenapa nama itu dilekatkan menjadi nama ruas jalan di pusat perkotaan dan kawasan Masjd AgungKota Tasikmalaya?  Kendati memakai nama salah satu pejuang kemerdekaan , kisahnya justru terlupakan. "Kirang uninga(tidak tahu)" kata Budi, 56 tahun, juru parkir saat ditanya siapakah Mayor Utarya, Sabtu, 27 Juni 2020. Baca Juga:Libya Sudah Rencana Produksi, Harga Minyak Justru Kembali Turun Padahal Budi bekerja dan bermukim di sekitar ruas jalan yang berada di Kelurahan Empangsari, Kecamatan Tawang tersebut. Meski demikian, tuturnya, Jalan Mayor Utarya sudah ada sejak lama. Kiprah Mayor Utarya bisa ditemukan dalam Buku Siliwangi Dari Masa Ke Masa. Utarya gugur dalam pergolakan perlawanan Darul Islam/Tentara Islam Indonesia (DI/TII) di Tasikmalaya puluhan tahun lalu.Mayor Utarya merupakan Perwira Territorial Brigade XIV atau Brigade C Divisi Siliwangi yang kembali ke Jawa Barat setelah terjadinya agresi militer kedua Belanda pada 19 Desember 1948. Utarya bertanggung jawab menyusun dan membangun Wehrkreise (kantong perlawanan) di Priangan Timur dan sekitarnya. Baca Juga:Sektor Wisata Terimbas Pandemi, Edy Rahmayadi Ungkap Upaya Perbaikan yang Dilakukan Pemprov Sumut "Adapun penempatan Mayor Utarya menjadi Perwira Territorial di daerah itu ialah atas dasar pertimbangan bahwa ia dahulunya adalah bekas Komandan Resimen Perjuangan dan sudah mengenal dengan baik tokoh-tokoh pimpinanDI-TII/SMK (Darul Islam Tentara Islam Indonesia Sekar MaridjanKartosoewirjo)." Demikian penjelasan dalam buku tersebut. Sebagai perwira teritorial, Utarya pun mempersiapkan segenap potensi perjuagan di daerah tugasnya. Salah satu caranya adalah berusaha menemui pimpinan DI/TII SMKartosoewirjo. Ia pun mendatangi rumah Bupati DI Tasikmalaya Ateng Jaelani di Cikeusal untuk berunding. Selepas berunding, Utarya menuju kedudukan sang Imam DI/TII di Kampung Cipanganten, kawasan Cidugaleun Cigalontang. Di kampung itu, ia bertemu dengan pimpinan DI lainnya, yakni Adah Jaelani serta menyaksikan banyak anggota pasukan Siliwangi dari Batalyon Akhmad Wiranatakusumah yang ditawan di sana. Baca Juga:Persib Berlakukan Protokol Ketat, Siapa Saja yang Bisa ke GBLA saat Maung Bandung Latihan? Dari perbincangan dengan Adah, Utarya kembali meneruskan perjalanan  menemuiKartosoewirjodi Cisampang yang makan waktu hingga empat hari. "Di Cisampang, Mayor Utarya kemudian mengadakan pembicaraan dengan SMKartosoewirjoyang didampingi Oni dan Saifullah. Perundingan tersebut gagal dan regu pengawal Mayor Utarya dilucuti dan ditawan guna menunggu perkembangan serta penyelesaian lebih lanjut. Dari hari itu, anggota regu pengawal itu tak pernah melihat lagi Utarya lagi. Siliwangi Dari Masa Ke Masa juga mengupas isi perundingan yang tak menemui kesepakatan itu. Utarya memang mengajak DI/TII untuk bersatu dengan Pemerintah Republik Indonesia melawan Belanda. Jika perlawanan menghadapi Belanda selesai, barulah dibuat perundingan lebih lanjut. Usulan Utarya menuai penolakan Oni dari DI/TII. "Hai Utarya! kamu belum tahu bahwa Jawa Barat ini telah merupakan Negara Islam? Kalau begitu kamu masih berjiwa Republikein. Kaum Republikein itu tidak ada hak lagi untuk kembali ke Jawa Barat, karena Jawa Barat ini telah dijual oleh Sukarno, dengan alasan hijrah ke Jawa Tengah," ucap Oni.Atas perintahnya, dua anak buah Oni bernama Eman dan Komar menawan Utarya serta membawanya ke sebuah rumah dengan kondisi hanya menggunakan celana dalam. Selepas ditawan 2 hari 2 malam, Abdul Hamid selaku Komandan Kompi I Batalyon I DI/TII memerintahkan Eman dan Komar membunuh Utarya. Baca Juga:Meluncur Bulan Depan, Inilah Mobil Baru Morris Garage Calon Pesaing Honda CR-V "Mayor Utarya gugur setelah dibacok kuduknya oleh Eman dan Komar di depan lubang yang telah disediakan terlebih dahulu, dalam keadaan lengannya diikat dengan tali ijuk." Kampung Cisampang di DesaCidugaleun, Kecamatan Cigalontang, Kabupaten Tasikmalayamemang pernah menjadi markasKartosoewirjo. Dalam penelusuran Pikiran-rakyat.com, Maret 2020, proklamasi pertama DI/TII juga berlangsung di sana. Saat disinggung mengenai peristiwa pembunuhan Utarya, Hadri, 77 tahun, warga Cisampang mengaku tak mengetahuinya.  Namun, ia menyatakan Cisampang kerap kena dobrakan atau serangan dari TNI dari arah Garut.‎ "Ada dua kali dobrakan," katanya. Rumah-rumah warga  Cidugaleun pun kerap dibakar saat pertempuran meletus. Hadri yang saat itu bocah sempat di bawa orang tuanya mengungsi ke Dinding Ari, salah satu puncak Galunggung guna mengungsi. Jejak lain keberadaan markas sang Iman DI/TII yang ada di lokasi itu berupa kuburan yang disebut warga sebagai makam anak dariKartosoewirjo. Peristiwa kelam itu memang telah puluhan tahun berlalu. Ruas Jalan Mayor Utarya pun menjadi pengingat agar konflik berdarah sesama anak bangsa tersebut tak lagi terulang.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01579993/masa-akb-di-kota-tasikmalaya-objek-wisata-dibuka-dengan-pengawasan-ketat-dari-aparat-kepolisian</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Masa AKB di Kota Tasikmalaya, Objek Wisata Dibuka dengan Pengawasan Ketat dari Aparat Kepolisian</t>
-        </is>
-      </c>
-      <c r="C292" s="2" t="n">
-        <v>44011.4875</v>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Seiring dengan pemberlakuan Adaptasi Kebiasaan Baru (AKB) menuju New Normal Paska Pembatasan Sosial Bersekala Besar (PSBB) tahap IV tak diperpanjang, sejumlah obyek wisata diKota Tasikmalayasudah mulai dibuka. Meski demikian, walau dibuka, pengelola dan pengunjung tempat wisata harus mematuhi protokol kesehatan. Bahkan dalam memasuki Adaptasi Kebiasaan Baru (AKB) menuju New Normal, setiap tempat wisata mendapat pengawasan ketat dari aparat kepolisian. Seperti halnya di salah satu lokasi obyek wisata Mutiara Aboh, Kecamatan Indihiang,Kota Tasikmalaya, Jajaran petugas dari Polsek Indihiang, Polresta Tasikmalaya terlihat melakukan penjagaan ketat sebagai upaya mencegah penyebaran Covid-19. Baca Juga:Puluhan Ibu Hamil Derita Hepatitis B, Dinkes: Meningkat Luar Biasa, Cepat Menular dan Mematikan "Memasuki AKB, kami tetap melakukan pengawasan terhadap sejumlah lokasi yang berpotensi terjadi kerumunan massa. Dimana kami mengingatkan agar waspada penyebaran Covid-19 dengan menjalankan protokol kesehatan," kata Kapolsek Indihiang, Polresta Tasikmalaya, Kompol. Dikdik Rohim Hadi kepada wartawan, Senin 29 Juni 2020. Menurutnya, pihaknya terus memberikan imbauan agar masyarakat mematuhi apa yang menjadi kebijakan pemerintah dalam upaya penanganan wabah Covid-19, dengan memperhatikan protokol kesehatan. Baca Juga:Menang di Kandang Parma, Asisten Pelatih Inter Milan: Masih Ada Kekurangan di Lini Tengah Selain itu, upayakan untuk selalu menggunakan masker demi memutus mata rantai penyebaran virus yang belum ada obatnya tersebut. "Seperti halnya sekarang, anggota menyambangi lokasi taman wisata Mutiara Aboh dalam rangka pengontrolan penerapan protokol kesehatan di lingkungan taman wisata," ucapnya. PIKIRAN RAKYAT- Seiring dengan pemberlakuan Adaptasi Kebiasaan Baru (AKB) menuju New Normal Paska Pembatasan Sosial Bersekala Besar (PSBB) tahap IV tak diperpanjang, sejumlah obyek wisata diKota Tasikmalayasudah mulai dibuka. Meski demikian, walau dibuka, pengelola dan pengunjung tempat wisata harus mematuhi protokol kesehatan. Bahkan dalam memasuki Adaptasi Kebiasaan Baru (AKB) menuju New Normal, setiap tempat wisata mendapat pengawasan ketat dari aparat kepolisian. Seperti halnya di salah satu lokasi obyek wisata Mutiara Aboh, Kecamatan Indihiang,Kota Tasikmalaya, Jajaran petugas dari Polsek Indihiang, Polresta Tasikmalaya terlihat melakukan penjagaan ketat sebagai upaya mencegah penyebaran Covid-19. Baca Juga:Puluhan Ibu Hamil Derita Hepatitis B, Dinkes: Meningkat Luar Biasa, Cepat Menular dan Mematikan "Memasuki AKB, kami tetap melakukan pengawasan terhadap sejumlah lokasi yang berpotensi terjadi kerumunan massa. Dimana kami mengingatkan agar waspada penyebaran Covid-19 dengan menjalankan protokol kesehatan," kata Kapolsek Indihiang, Polresta Tasikmalaya, Kompol. Dikdik Rohim Hadi kepada wartawan, Senin 29 Juni 2020. Menurutnya, pihaknya terus memberikan imbauan agar masyarakat mematuhi apa yang menjadi kebijakan pemerintah dalam upaya penanganan wabah Covid-19, dengan memperhatikan protokol kesehatan. Baca Juga:Menang di Kandang Parma, Asisten Pelatih Inter Milan: Masih Ada Kekurangan di Lini Tengah Selain itu, upayakan untuk selalu menggunakan masker demi memutus mata rantai penyebaran virus yang belum ada obatnya tersebut. "Seperti halnya sekarang, anggota menyambangi lokasi taman wisata Mutiara Aboh dalam rangka pengontrolan penerapan protokol kesehatan di lingkungan taman wisata," ucapnya.Baca Juga:Masuk Top Three Bersama Ganjar Pranowo, Ridwan Kamil Susul Anies Baswedan Dalam Bursa Capres 2024 Dikatakan dia, setiap pengunjung yang akan masuki area kolam renang wajib dilakukan pemeriksaan suhu tubuh di pintu masuk menuju lokasi wisata.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01579988/puluhan-ibu-hamil-derita-hepatitis-b-dinkes-meningkat-luar-biasa-cepat-menular-dan-mematikan</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Puluhan Ibu Hamil Derita Hepatitis B, Dinkes: Meningkat Luar Biasa, Cepat Menular dan Mematikan</t>
-        </is>
-      </c>
-      <c r="C293" s="2" t="n">
-        <v>44011.48333333333</v>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Tercatat oleh Dinas Kesehatan (Dinkes)Kota Tasikmalayadalam rentang waktu sejak Januari hingga Mei 2020, puluhanibu hamildiKota TasikmalayaterseranghepatitisB. Data tersebut menunjukkan peningkatan luar biasa pada kasus penyakithepatitisB padaibu hamildiKota Tasikmalayatersebut. "Harus cepat ditangani secara serius karena yang terseranghepatitisB cairan tubuhnya terinfeksi," ujar Kepala Bidang Pencegahan Penanggulangan dan Penyakit (P2P) pada Dinas KesehatanKota Tasikmalaya, Suryaningsih, Senin 29 Juni 2020. Baca Juga:Masuk Top Three Bersama Ganjar Pranowo, Ridwan Kamil Susul Anies Baswedan Dalam Bursa Capres 2024 Suryaningsih menjelaskan penyakithepatitisB diKota Tasikmalayasejak awal Bulan Januari hingga Mei 2020, paling banyak menyerang paraibu hamildengan jumlah 32 orang. Akibat penyakit tersebut, para penderita sudah terkena infeksi hati serius yang disebabkan virus dan disebarkan melalui cairan tubuh terinfeksi. Baca Juga:Dewi Persik Curhat, Menangis Usai Tahu Jadi Bahan Pembicaran di Belakang Keluarga "Orang yang telah terkenahepatitisB biasanya akibat pemakaian jarum yang tidak steril, melalui hubungan seks vaginal dan seks anal tanpa alat pengaman tetmasuk dari ibu ke bayi dalam proses mengandung atau menyesui. Adapun gejala yang dirasakan penderitahepatitisjenisnya beragam mulai kuningnya mata, sakit perut, dan urine keruh. PIKIRAN RAKYAT- Tercatat oleh Dinas Kesehatan (Dinkes)Kota Tasikmalayadalam rentang waktu sejak Januari hingga Mei 2020, puluhanibu hamildiKota TasikmalayaterseranghepatitisB. Data tersebut menunjukkan peningkatan luar biasa pada kasus penyakithepatitisB padaibu hamildiKota Tasikmalayatersebut. "Harus cepat ditangani secara serius karena yang terseranghepatitisB cairan tubuhnya terinfeksi," ujar Kepala Bidang Pencegahan Penanggulangan dan Penyakit (P2P) pada Dinas KesehatanKota Tasikmalaya, Suryaningsih, Senin 29 Juni 2020. Baca Juga:Masuk Top Three Bersama Ganjar Pranowo, Ridwan Kamil Susul Anies Baswedan Dalam Bursa Capres 2024 Suryaningsih menjelaskan penyakithepatitisB diKota Tasikmalayasejak awal Bulan Januari hingga Mei 2020, paling banyak menyerang paraibu hamildengan jumlah 32 orang. Akibat penyakit tersebut, para penderita sudah terkena infeksi hati serius yang disebabkan virus dan disebarkan melalui cairan tubuh terinfeksi. Baca Juga:Dewi Persik Curhat, Menangis Usai Tahu Jadi Bahan Pembicaran di Belakang Keluarga "Orang yang telah terkenahepatitisB biasanya akibat pemakaian jarum yang tidak steril, melalui hubungan seks vaginal dan seks anal tanpa alat pengaman tetmasuk dari ibu ke bayi dalam proses mengandung atau menyesui. Adapun gejala yang dirasakan penderitahepatitisjenisnya beragam mulai kuningnya mata, sakit perut, dan urine keruh.Ia mengungkapkan, penyebaran penyakithepatitissangat perlu diwaspadai karena bisamenulardisebabkan mulai dari air liur dan keringat. Baca Juga:Pep Guardiola Ingin Manchester City Juarai Piala FA sebelum Berlaga di Liga Champions "Penyakit ini memang bisa cepatmenulardan bisamematikan," ujarnya Namun demikian kata Suryaninhsih, untuk pencegahannya atau meminimalkan risiko penularanhepatitis, dinas kesehatan sudah memberikan vaksinasi Hb 0, imunoglobulinhepatitisB (HBIG) dan vitamin. Lebih lanjut ujar dia, untuk penanganan penyakithepatitisyang terjadi saat ini, pihak Dinas Kesehatan telah melakukan berbagai penanganan. Baca Juga:Apa Itu Subak? Sistem Irigasi Tradisional Bali yang Jadi Google Doodle Hari Ini "Termasuk mereka atau penderita yang telah dirawat, mereka ditempatkan di ruang isolasi khusus supaya tidak ada menyerang pasien lainnya," ujarnya . Menurutnya, di Kota Tasimalaya kasus penyakit hepatitas B yang terjadi sejak awal Januari hingga Mei 2020, tersebar di 10 Kecamatan dan paling banyak di Kecamatan Kawalu dengan jumlah kasus sebanyak tujuh kasus, Mangkubumi enam kasus, Tawang dan Bungursari empat kasus, Cihideung dan Indihiang tiga kasus, Cibeureum dan Cipedes dua kasus dan Tamansari satu kasus. Baca Juga:Istri Curhat Ingin Pisah, Suami Dewi Persik Menangis: Aku Ingin Seperti Suami Lain "Untuk di Kecamatan Purbaratu alhamdulilah sekarang masih bebas dari penyakit tersebut dan mereka juga tentu harus tetap waspada."kata SuryaningsihTerkait itu lanjut dia, Dinas KesehatanKota Tasikmalayaberupaya menyosialisasikan secara bertahap berkaitan dengan penyakithepatitisB supaya warga harus lebih waspada terutamanya dalam penggunaan jarum suntik, melalui hubungan seks dan alat pengaman. "Termasuk, bagi penderita penyakithepatitisB semuanya harus steril. Seperti gelas, sendok, piring yang telah digunakannya jangan dipakai oleh yang lain. Harus diwaspadai juga penularan melalui batuk penderita," ucapnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01579957/32-ibu-hamil-di-kota-tasikmalaya-terserang-hepatitis-b-suryaningsih-menular-bisa-dari-keringat</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>32 Ibu Hamil di Kota Tasikmalaya Terserang Hepatitis B, Suryaningsih : Menular Bisa dari Keringat</t>
-        </is>
-      </c>
-      <c r="C294" s="2" t="n">
-        <v>44011.46180555555</v>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT- DINAS  Kesehatan Kota Tasiklamaya mencatat, sejak Januari hingga Mei 2020, puluhanibu hamildiKota TasikmalayaterseranghepatitisB. Kepala Bidang Pencegahan Penanggulangan danPenyakit(P2P) pada Dinas KesehatanKota Tasikmalaya, Suryaningsih mengatakan, penyakithepatitisB diKota Tasikmalayasaat ini mengalami peningkatan luar biasa, hingga Dinas Kesehatan secara langsung bergerak untuk menangani masalah kasushepatitisB padaibu hamil. "Harus cepat ditangani secara serius karena yang terseranghepatitisB cairan tubuhnya terinfeksi," ujar  Suryaningsih, Minggu 28 Juni 2020. Lebih lanjut, ujar dia, penyakithepatitisB diKota Tasikmalaya, sejak awal Bulan Januari hingga Mei 2020, paling banyak  menyerangibu hamildengan jumlah 32 orang. Akibat penyakit tersebut, para penderita sudah terkena infeksi hati serius yang disebabkan virus dan disebarkan melalui cairan tubuh terinfeksi. Baca Juga:Elektabilitas Ganjar Pranowo Melesat, Lima Gubernur Lain Menyusul Ramaikan Bursa Calon Presiden 2024 "Orang yang telah terkenahepatitisB biasanya akibat pemakaian jarum yang tidak steril, melalui hubungan seks vaginal, dan seks anal tanpa alat pengaman, termasuk dari ibu ke bayi dalam proses mengandung atau menyusui. Adapun Gejala yang dirasakan penderitahepatitisjenisnya beragam, mulai kuningnya mata, sakit perut, dan urine keruh. Ia mengungkapkan, penyebaran penyakithepatitissangat perlu diwaspadai karena bisamenulardisebabkan mulai dariair liurdankeringat. "Penyakitini memang bisa cepatmenulardan bisa mematikan," ujarnya. Baca Juga:Pasien Positif Covid-19 Jadi Penumpang Pesawat Garuda Jakarta-Sorong, Dirut: Entah Kenapa Bisa Lolos Namun demikian, kata Suryaningsih, untuk pencegahannya atau meminimalkan risiko penularanhepatitis, dinas kesehatan sudah memberikan vaksinasi Hb 0, imunoglobulinhepatitisB (HBIG), dan vitamin. Untuk penanganan penyakithepatitisyang terjadi saat ini, katanya, Dinas Kesehatan telah melakukan berbagai penanganan. "Termasuk mereka atau penderita yang telah dirawat, mereka ditempatkan di ruang isolasi khusus supaya tidak ada menyerang pasien lainnya," ujarnya. Baca Juga:Demi 1 Juta Akseptor, BKKBN Jawa Barat Kerahkan Semua KekuatanPIKIRAN RAKYAT- DINAS  Kesehatan Kota Tasiklamaya mencatat, sejak Januari hingga Mei 2020, puluhanibu hamildiKota TasikmalayaterseranghepatitisB. Kepala Bidang Pencegahan Penanggulangan danPenyakit(P2P) pada Dinas KesehatanKota Tasikmalaya, Suryaningsih mengatakan, penyakithepatitisB diKota Tasikmalayasaat ini mengalami peningkatan luar biasa, hingga Dinas Kesehatan secara langsung bergerak untuk menangani masalah kasushepatitisB padaibu hamil. "Harus cepat ditangani secara serius karena yang terseranghepatitisB cairan tubuhnya terinfeksi," ujar  Suryaningsih, Minggu 28 Juni 2020. Lebih lanjut, ujar dia, penyakithepatitisB diKota Tasikmalaya, sejak awal Bulan Januari hingga Mei 2020, paling banyak  menyerangibu hamildengan jumlah 32 orang. Akibat penyakit tersebut, para penderita sudah terkena infeksi hati serius yang disebabkan virus dan disebarkan melalui cairan tubuh terinfeksi. Baca Juga:Elektabilitas Ganjar Pranowo Melesat, Lima Gubernur Lain Menyusul Ramaikan Bursa Calon Presiden 2024 "Orang yang telah terkenahepatitisB biasanya akibat pemakaian jarum yang tidak steril, melalui hubungan seks vaginal, dan seks anal tanpa alat pengaman, termasuk dari ibu ke bayi dalam proses mengandung atau menyusui. Adapun Gejala yang dirasakan penderitahepatitisjenisnya beragam, mulai kuningnya mata, sakit perut, dan urine keruh. Ia mengungkapkan, penyebaran penyakithepatitissangat perlu diwaspadai karena bisamenulardisebabkan mulai dariair liurdankeringat. "Penyakitini memang bisa cepatmenulardan bisa mematikan," ujarnya. Baca Juga:Pasien Positif Covid-19 Jadi Penumpang Pesawat Garuda Jakarta-Sorong, Dirut: Entah Kenapa Bisa Lolos Namun demikian, kata Suryaningsih, untuk pencegahannya atau meminimalkan risiko penularanhepatitis, dinas kesehatan sudah memberikan vaksinasi Hb 0, imunoglobulinhepatitisB (HBIG), dan vitamin. Untuk penanganan penyakithepatitisyang terjadi saat ini, katanya, Dinas Kesehatan telah melakukan berbagai penanganan. "Termasuk mereka atau penderita yang telah dirawat, mereka ditempatkan di ruang isolasi khusus supaya tidak ada menyerang pasien lainnya," ujarnya. Baca Juga:Demi 1 Juta Akseptor, BKKBN Jawa Barat Kerahkan Semua KekuatanMenurutnya, di Kota Tasimalaya kasus penyakit hepatitas B yang terjadi sejak awal Januari hingga Mei 2020, tersebar di 10 Kecamatan dan paling banyak di Kecamatan Kawalu dengan jumlah kasus sebanyak 7 kasus, Mangkubumi 6 kasus, Tawang dan Bungursari 4 kasus, Cihideung dan Indihiang 3 kasus, Cibeureum, Cipedes 2 kasus, dan Tamansari 1 kasus. "Untuk di Kecamatan Purbaratu, Alhamdulilah sekarang masih bebas dari penyakit tersebut dan mereka juga tentu harus tetap waspada" kata Suryaningsih. Baca Juga:PSSI Minta Klub Tidak Lakukan Pemotongan Gaji di Atas 50 Persen Terkait itu, lanjut dia, Dinas KesehatanKota Tasikmalayaberupaya menyosialisasikan secara bertahap berkaitan dengan penyakithepatitisB, supaya warga lebih waspada. "Termasuk, bagi penderita penyakithepatitisB semuanya harus steril. Seperti gelas, sendok, piring yang telah digunakannya jangan dipakai oleh yang lain. Harus diwaspadai juga penularan melalui batuk penderita," ucapnya. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/ekonomi/pr-01579624/pandemi-berkecamuk-usaha-konveksi-pakaian-kota-tasikmalaya-terpuruk</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Pandemi Berkecamuk, Usaha Konveksi Pakaian Kota Tasikmalaya Terpuruk</t>
-        </is>
-      </c>
-      <c r="C295" s="2" t="n">
-        <v>44010.82430555556</v>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PIKIRAN RAKYAT -Pandemi Covid-19 memukul kelangsungan usahakonveksipakaian diKota Tasikmalaya, Jawa Barat. Kondisi terpuruk dialamikonveksipakaian ‎Rumah Jahit Aria, Jalan Bojong Tengah, Kelurahan/Kecamatan Cipedes,Kota Tasikmalaya. Konveksi yang biasa memproduksi dan memasok seragam acara perpisahan di pesantren dan pakaian pagar ayu pernikahan itu kini kesusahan memperoleh order. Baca Juga:Musisi Senior Bagoes AA Meninggal Dunia, Ria HD: Karyamu akan Selalu Kita Kenang "Orderan teu aya pisan (dapat pesanan sulit sekali)," kata ‎Isma Maryan, 26 tahun, pengelola Galeri Rumah Jahit Aria, Kamis, 25 Juni 2020. Pesanan pun banyak yang dibatalkan konsumen. Dari omzet per bulan mencapai Rp 12-30 juta saat kondisi normal, selepas pandemi anjlok hingga 80 persen. Meski demikian, Isma juga berusaha tak mengurangi  pekerjanya yang berjumlah tiga orang. Ia menyiasatinya dengan hanya mengerjakan pesananan yang telah memberikan uang muka. Baca Juga:Kelompok yang Segel Keraton Kasepuhan Cirebon Angkat Bicara Mengenai Upaya Kudeta Sultan Sepuh XIV Isma merintis usahanya sejak 2017. Ketika wabah belum mendera, ia bisa memproduksi dan mejual 300-400 potong pakaian. Konsumen biasanya membawa sendiri bahan kain untuk diproduksi dikonveksiIsma.PIKIRAN RAKYAT -Pandemi Covid-19 memukul kelangsungan usahakonveksipakaian diKota Tasikmalaya, Jawa Barat. Kondisi terpuruk dialamikonveksipakaian ‎Rumah Jahit Aria, Jalan Bojong Tengah, Kelurahan/Kecamatan Cipedes,Kota Tasikmalaya. Konveksi yang biasa memproduksi dan memasok seragam acara perpisahan di pesantren dan pakaian pagar ayu pernikahan itu kini kesusahan memperoleh order. Baca Juga:Musisi Senior Bagoes AA Meninggal Dunia, Ria HD: Karyamu akan Selalu Kita Kenang "Orderan teu aya pisan (dapat pesanan sulit sekali)," kata ‎Isma Maryan, 26 tahun, pengelola Galeri Rumah Jahit Aria, Kamis, 25 Juni 2020. Pesanan pun banyak yang dibatalkan konsumen. Dari omzet per bulan mencapai Rp 12-30 juta saat kondisi normal, selepas pandemi anjlok hingga 80 persen. Meski demikian, Isma juga berusaha tak mengurangi  pekerjanya yang berjumlah tiga orang. Ia menyiasatinya dengan hanya mengerjakan pesananan yang telah memberikan uang muka. Baca Juga:Kelompok yang Segel Keraton Kasepuhan Cirebon Angkat Bicara Mengenai Upaya Kudeta Sultan Sepuh XIV Isma merintis usahanya sejak 2017. Ketika wabah belum mendera, ia bisa memproduksi dan mejual 300-400 potong pakaian. Konsumen biasanya membawa sendiri bahan kain untuk diproduksi dikonveksiIsma.Isma hanya membeli kain 1-2 rol kain (1 rol memiliki panjang 36 meter) di toko-toko Jalan KHZ Mustafa guna menambal konsumen yang kekurangan bahan. ‎ Kini, Isma paling banter hanya bisa memproduksil 10 potong pakaian perbulan. "Itu pun kebanyakan belum diambil," ucapnya. Ia juga mengaku memiliki cicilan pinjaman modal usaha dari bank. Beruntung selama enam bulan, Isma mendapat keringanan dari pihak bank hanya membayar bunganya saja senilai Rp 1 juta setiap bulan. Selepas enam bulan, ia pun mesti kembali melunasi pinjaman modal usaha senilai Rp 3 juta per bulan. Untuk itu, Isma berharap pemerintah memberikan bantuan modal agar para pengusahakonveksimasih bisa bertahan di tengah pandemi. "Biar normal lagi pasarnya," kata Isma.*** </t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01579543/berdasarkan-survei-kasus-covid-19-di-kota-tasikmalaya-mulai-landai</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Berdasarkan Survei, Kasus Covid-19 di Kota Tasikmalaya Mulai Landai</t>
-        </is>
-      </c>
-      <c r="C296" s="2" t="n">
-        <v>44010.76388888889</v>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Pemerintah Kota (Pemkot)Tasikmalayamemutuskan untuk mengakhiri masa pembatasan sosial berskala besar (PSBB) yang sudah diterapkan sejak dua bulan terakhir. Keputusan itu didukung oleh Pemerintah Provinsi (Pemprov) Jawa Barat (Jabar) yang menyerahkan kebijakan penangananCovid-19disesuaikan oleh daerah masing-masing.Wali KotaTasikmalaya, Budi Budiman mengatakan, berdasarkan hasil evaluasi Gugus Tugas Percepatan PenangananCovid-19KotaTasikmalaya, kasus positif di wilayah itu mulai melandai. Karena itu, diputuskan penerapanPSBBtak diperpanjang. Baca Juga:Data KPK 16 Tahun Terakhir: Jabar Jadi Provinsi Tertinggi Korupsi dengan Total 101 Kasus"Jadi kita sudah sepakat tidak melanjutkanPSBBkarena kasusCovid-19di KotaTasikmalayalandai. Ini harus kita jaga," kata dia, Minggu 28 Juni 2020.Menurut Budi, saat ini pihaknya sedang menyusun Peraturan Wali Kota (Perwalkot) tentang Protokol Kesehatan. Peraturan itu nantinya akan menjadi acuan untuk organisasi perangkat daerah (OPD) dan instansi lainnya membuat kebijakan. "Artinya, selamaCovid-19di Indonesia belum bisa ditangani secara keseluruhan, protokol kesehatan harus tetap dijalankan. Kita ingin AKB menuju new normal disikapi dengan penuh kewaspadaan. Jangan terlena," kata dia. Baca Juga:Sempat Bisa Jual Ribuan Kilogram per Minggu, Pabrik Teh Rakyat di Tasikmalaya Kini TerpurukBudi menambahkan, Gugus TugasCovid-19KotaTasikmalayajuga akan terus melakukan patroli. Itu dilakukan untuk memgingatkan agar warga tetap memakai masker, menjaga jarak, dan menerapkan pola hidup bersih dan sehat (PHBS). Dengan begitu, gelombang kedua penyebaranCovid-19di KotaTasikmalayabisa diantisipasi.Menurut Budi, saat ini masih ada satupasienpositifCovid-19di KotaTasikmalayayang masih menjalani perawatan. Namun, ia berharappasienitu dapat segera sembuh dan kembali ke rumahnya.Berdasarkan data Dinas Kesehatan KotaTasikmalayahingga Ahad 28 Juni 2020 secara total terdapat 50 kasuspasienpositif. Sebanyak 25 orang terkonfirmasi melalui tes usap (swab) dan 25 orang melalui uji cepat (rapid test). Dari 50 kasus yang tercatat, 46 orang telah dinyatakan sembuh atau negatif, satu orang masih dalam perawatan, dan tiga orang meninggal dunia.*** PIKIRAN RAKYAT -Pemerintah Kota (Pemkot)Tasikmalayamemutuskan untuk mengakhiri masa pembatasan sosial berskala besar (PSBB) yang sudah diterapkan sejak dua bulan terakhir. Keputusan itu didukung oleh Pemerintah Provinsi (Pemprov) Jawa Barat (Jabar) yang menyerahkan kebijakan penangananCovid-19disesuaikan oleh daerah masing-masing.Wali KotaTasikmalaya, Budi Budiman mengatakan, berdasarkan hasil evaluasi Gugus Tugas Percepatan PenangananCovid-19KotaTasikmalaya, kasus positif di wilayah itu mulai melandai. Karena itu, diputuskan penerapanPSBBtak diperpanjang. Baca Juga:Data KPK 16 Tahun Terakhir: Jabar Jadi Provinsi Tertinggi Korupsi dengan Total 101 Kasus"Jadi kita sudah sepakat tidak melanjutkanPSBBkarena kasusCovid-19di KotaTasikmalayalandai. Ini harus kita jaga," kata dia, Minggu 28 Juni 2020.Menurut Budi, saat ini pihaknya sedang menyusun Peraturan Wali Kota (Perwalkot) tentang Protokol Kesehatan. Peraturan itu nantinya akan menjadi acuan untuk organisasi perangkat daerah (OPD) dan instansi lainnya membuat kebijakan. "Artinya, selamaCovid-19di Indonesia belum bisa ditangani secara keseluruhan, protokol kesehatan harus tetap dijalankan. Kita ingin AKB menuju new normal disikapi dengan penuh kewaspadaan. Jangan terlena," kata dia. Baca Juga:Sempat Bisa Jual Ribuan Kilogram per Minggu, Pabrik Teh Rakyat di Tasikmalaya Kini TerpurukBudi menambahkan, Gugus TugasCovid-19KotaTasikmalayajuga akan terus melakukan patroli. Itu dilakukan untuk memgingatkan agar warga tetap memakai masker, menjaga jarak, dan menerapkan pola hidup bersih dan sehat (PHBS). Dengan begitu, gelombang kedua penyebaranCovid-19di KotaTasikmalayabisa diantisipasi.Menurut Budi, saat ini masih ada satupasienpositifCovid-19di KotaTasikmalayayang masih menjalani perawatan. Namun, ia berharappasienitu dapat segera sembuh dan kembali ke rumahnya.Berdasarkan data Dinas Kesehatan KotaTasikmalayahingga Ahad 28 Juni 2020 secara total terdapat 50 kasuspasienpositif. Sebanyak 25 orang terkonfirmasi melalui tes usap (swab) dan 25 orang melalui uji cepat (rapid test). Dari 50 kasus yang tercatat, 46 orang telah dinyatakan sembuh atau negatif, satu orang masih dalam perawatan, dan tiga orang meninggal dunia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01578117/ribuan-orang-turun-aksi-muslim-kota-tasikmalaya-minta-konseptor-dan-inisiator-ruu-hip-ditangkap</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Ribuan Orang Turun Aksi, Muslim Kota Tasikmalaya Minta Konseptor dan Inisiator RUU HIP Ditangkap</t>
-        </is>
-      </c>
-      <c r="C297" s="2" t="n">
-        <v>44009.28125</v>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Menolak pembahasan Rancangan Undang-Undang (RUU) Haluan IdeologiPancasila(HIP), ribuan umatmuslimKota Tasikmalaya yang tergabung dalam beberapa ormas Islam dan ormas lainnya dibawah Almumtaz kembali melakukan aksi turun ke jalan, Jumat 26 Juni 2020 siang. Dengan dikawal aparat kepolisian dari Polresta Tasikmalaya, usai Salat Jumat,massaAliansi Aktivis dan Masyarakat Muslim Tasikmalaya (Almumtaz) itu langsung berkumpul di area Batu Andesit Taman Kota, depan Masjid Agung. Selanjutnya perwakilan para aktivitis melakukan orasi secara bergantian. Aksi tersebut terkait tindak lanjut dari audiensi Almumtaz, Jumat 19 Juni 2020 lalu ke DPRD Kota Tasikmalaya yang menuntut agar menghentikan serta menghapus pembahasan Rancangan Undang-Undang (RUU) Haluan IdeologiPancasila(HIP). Baca Juga:Sempat Dijodoh-jodohkan dengan Baim Wong, Wulan Guritno: Semua Orang Pengen Kita Jadian "Alhamdulillah hari ini kita bisa berkumpul dan bersama-sama melakukan aksi damai menolak serta hapuskanRUU HIP," ujar Pembina Almumtaz, KH Aminudin Bustomi, saat aksi. Terang dia,RUU HIPsudah melenceng dari niatan awal dibuatPancasila. Para inisiatornya harus keluar dari Indonesia dan aparat hukum harus menangkapnya. Jangan sampaiRUU HIPdisahkan DPR RI. "Konseptor dan inisiatorRUU HIPharus ditangkap. Jangan sampai dibiarkan. Itu musuh negara karena ingin mengubahPancasila," tegas KH Amin. Baca Juga:Mantan Insinyur Intel Ungkap Keputusan Apple Membuat Prosesor Sendiri di Komputer Mac Koordinator aksi, Hilmi Afwan Hilmawan mengatakan, aksi ini adalah reaksi spontan para umat Islam Tasikmalaya, menolak keras akan adanya sebuah Rancangan Undang-Undang Haluan IdeologiPancasila(RUU HIP). PIKIRAN RAKYAT -Menolak pembahasan Rancangan Undang-Undang (RUU) Haluan IdeologiPancasila(HIP), ribuan umatmuslimKota Tasikmalaya yang tergabung dalam beberapa ormas Islam dan ormas lainnya dibawah Almumtaz kembali melakukan aksi turun ke jalan, Jumat 26 Juni 2020 siang. Dengan dikawal aparat kepolisian dari Polresta Tasikmalaya, usai Salat Jumat,massaAliansi Aktivis dan Masyarakat Muslim Tasikmalaya (Almumtaz) itu langsung berkumpul di area Batu Andesit Taman Kota, depan Masjid Agung. Selanjutnya perwakilan para aktivitis melakukan orasi secara bergantian. Aksi tersebut terkait tindak lanjut dari audiensi Almumtaz, Jumat 19 Juni 2020 lalu ke DPRD Kota Tasikmalaya yang menuntut agar menghentikan serta menghapus pembahasan Rancangan Undang-Undang (RUU) Haluan IdeologiPancasila(HIP). Baca Juga:Sempat Dijodoh-jodohkan dengan Baim Wong, Wulan Guritno: Semua Orang Pengen Kita Jadian "Alhamdulillah hari ini kita bisa berkumpul dan bersama-sama melakukan aksi damai menolak serta hapuskanRUU HIP," ujar Pembina Almumtaz, KH Aminudin Bustomi, saat aksi. Terang dia,RUU HIPsudah melenceng dari niatan awal dibuatPancasila. Para inisiatornya harus keluar dari Indonesia dan aparat hukum harus menangkapnya. Jangan sampaiRUU HIPdisahkan DPR RI. "Konseptor dan inisiatorRUU HIPharus ditangkap. Jangan sampai dibiarkan. Itu musuh negara karena ingin mengubahPancasila," tegas KH Amin. Baca Juga:Mantan Insinyur Intel Ungkap Keputusan Apple Membuat Prosesor Sendiri di Komputer Mac Koordinator aksi, Hilmi Afwan Hilmawan mengatakan, aksi ini adalah reaksi spontan para umat Islam Tasikmalaya, menolak keras akan adanya sebuah Rancangan Undang-Undang Haluan IdeologiPancasila(RUU HIP).Sebagai umat Islam ujar Hilmi, sangat menentang akan hadirnya RUU tersebut. “Kita juga akan berjuang untuk mengawalnya, kalau perlu kita akan datang ke Jakarta untuk menolakRUU HIP," katanya. Anggota DPRD Kota Tasikmalaya, Ishak Farid dalam orasinya ikut mendukung dengan dihentikannya pembahasan serta dihapuskanRUU HIPsesuai desakanmassa. KarenaPancasiladianggap final menjadi payung bagi seluruh bangsa Indonesia. Baca Juga:Berasal dari Bantuan Sukarela Pegawai, 7 RS di Enam Kota Besar Indonesia Dapat Bantuan Ribuan APD "Makanya bagi siapa pun yang ingin mengubahPancasilaberarti sudah keluar dari kesepakatan NKRI. Maka dari itu sikap saya menyatakan, yang melakukan itu harus keluar dari Indonesia," tuturnya. Sementara itu Ketua DPRD Kota Tasikmalaya, Aslim, yang juga turut berorasi menambahkan, penolakanRUU HIPsudah ditandatangi pihaknya dan sudah disampaikan ke DPRI. Hal itu tindak lanjut dari aksi Almumtaz Jumat 19 Juni 2020 lalu. "Maka dari itu kita memang usulkan sesuai kenginan masyarakat agarRUU HIPitu dihentikan dan dihapus. Kita tidak iklas negara ini dirusak oleh yang menginisasi agar PKI bangkit lagi. Kami menolak hal itu," tegasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01577639/16-pasien-meninggal-wali-kota-tasikmalaya-masuk-pra-klb-dbd</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>16 Pasien Meninggal, Wali Kota : Tasikmalaya Masuk Pra KLB DBD</t>
-        </is>
-      </c>
-      <c r="C298" s="2" t="n">
-        <v>44008.45972222222</v>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Meningkatnya kasus penyakit menular khususnya Demam Berdarah Dengue (DBD) di KotaTasikmalayabeberapa bulan terakhir membuat pemerintah KotaTasikmalayamengambil langkah penanggulangan. Salah satunya Pemerintah KotaTasikmalayayang dihadiri langsung Wali KotaTasikmalayaDrs. H. Budi Budiman mengelar rapat koordinasi penanggulangan dan pengendalian penyakit menular yang dilaksanakan oleh Dinas Kesehatan KotaTasikmalayaguna membahas tentang perkembangan penyakit Demam Berdarah Dengue (DBD) yang terjadi di wilayah KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, dr. Uus Supangat Jumat 26 Juni 2020 mengatakan, bahwa pada tahun 2016 terjadi 759 kasusDBDdi KotaTasikmalaya, pada tahun 2017 dapat ditekan di angka 298 kasus, pada tahun 2018 sebanyak 223 kasus. Pada tahun 2019 terjadi kenaikan jumlah kasus sebanyak 672 kasus dan sampai dengan bulan Juni tahun 2020 sudah tercatat 673 kasus. Baca Juga:Baru Tahu, Ternyata ini Alasan Mengapa Lampu Sepeda Motor Harus Dinyalakan di Siang Hari Menurut Uus, berdasarkan grafik Pola Minimum Maksimum KasusDBD, pada tahun ini menunjukkan bahwa KotaTasikmalayasejak Januari sampai dengan Juni sudah melampaui batas aman. Bahkan ujar dia, pada Bulan Maret sampai dengan Mei sudah melampaui batas waspada. Kondisi tersebut ujar Uus, terbukti dari angka kematian akibatDBDmencapai 16 pasien meninggal. Sementara itu Wali KotaTasikmalayaBudi Budiman mengatakan, berdasarkan angka kasusDBDyang terjadi di setiap kecamatan dan angka kematian yang terjadi di beberapa kecamatan, kasusDBDyang terjadi saat ini harus menjadi perhatian semua pihak. Baca Juga:Merasa Baru di Liverpool, Kloop: Suporter yang Sudah Menanti 30 Tahun untuk Juara “Melihat tingginya kasus meninggal akibatDBD, ini menjadikan sesuatu yang luar biasa. Ini praKLB, jangan sampai kita menetapkanKLB. Saya minta hari ini tim kesehatan dan semua instansi terkait, upaya sosialisasi dan edukasi kepada masyarakat menjadi sangat penting,” ujar Budi. Lebih lanjut Budi menyampaikan pentingnya penanganan kasusDBDyang terjadi di seluruh wilayah kecamatan di KotaTasikmalayaini, bagaimana peranan dinas dalam hal preventif (pencegahan penyakit), promotif (promosi kesehatan) dan kuratif (pencegahan meluasnya penyakit melalui upaya pengobatan). PIKIRAN RAKYAT- Meningkatnya kasus penyakit menular khususnya Demam Berdarah Dengue (DBD) di KotaTasikmalayabeberapa bulan terakhir membuat pemerintah KotaTasikmalayamengambil langkah penanggulangan. Salah satunya Pemerintah KotaTasikmalayayang dihadiri langsung Wali KotaTasikmalayaDrs. H. Budi Budiman mengelar rapat koordinasi penanggulangan dan pengendalian penyakit menular yang dilaksanakan oleh Dinas Kesehatan KotaTasikmalayaguna membahas tentang perkembangan penyakit Demam Berdarah Dengue (DBD) yang terjadi di wilayah KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, dr. Uus Supangat Jumat 26 Juni 2020 mengatakan, bahwa pada tahun 2016 terjadi 759 kasusDBDdi KotaTasikmalaya, pada tahun 2017 dapat ditekan di angka 298 kasus, pada tahun 2018 sebanyak 223 kasus. Pada tahun 2019 terjadi kenaikan jumlah kasus sebanyak 672 kasus dan sampai dengan bulan Juni tahun 2020 sudah tercatat 673 kasus. Baca Juga:Baru Tahu, Ternyata ini Alasan Mengapa Lampu Sepeda Motor Harus Dinyalakan di Siang Hari Menurut Uus, berdasarkan grafik Pola Minimum Maksimum KasusDBD, pada tahun ini menunjukkan bahwa KotaTasikmalayasejak Januari sampai dengan Juni sudah melampaui batas aman. Bahkan ujar dia, pada Bulan Maret sampai dengan Mei sudah melampaui batas waspada. Kondisi tersebut ujar Uus, terbukti dari angka kematian akibatDBDmencapai 16 pasien meninggal. Sementara itu Wali KotaTasikmalayaBudi Budiman mengatakan, berdasarkan angka kasusDBDyang terjadi di setiap kecamatan dan angka kematian yang terjadi di beberapa kecamatan, kasusDBDyang terjadi saat ini harus menjadi perhatian semua pihak. Baca Juga:Merasa Baru di Liverpool, Kloop: Suporter yang Sudah Menanti 30 Tahun untuk Juara “Melihat tingginya kasus meninggal akibatDBD, ini menjadikan sesuatu yang luar biasa. Ini praKLB, jangan sampai kita menetapkanKLB. Saya minta hari ini tim kesehatan dan semua instansi terkait, upaya sosialisasi dan edukasi kepada masyarakat menjadi sangat penting,” ujar Budi. Lebih lanjut Budi menyampaikan pentingnya penanganan kasusDBDyang terjadi di seluruh wilayah kecamatan di KotaTasikmalayaini, bagaimana peranan dinas dalam hal preventif (pencegahan penyakit), promotif (promosi kesehatan) dan kuratif (pencegahan meluasnya penyakit melalui upaya pengobatan).Baca Juga:Ungkap Sikap Ashanty saat Nonton Drama Korea, Anang Hermansyah: Digusur Pakai Truk pun Nggak Mau "Kita ingin semua elemen bergerak, termasuk kesadaran masyarakat dalam hal menjaga kebersihan lingkungan. Saya minta PHBS terus ditingkatkan, jangan sampai ada lagi korban akibatDBD, apalagi korban diantara korban yang kena adalah anak anak," ujar Budi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01577190/kasus-dbd-terus-melonjak-pemkot-tasikmalaya-resmikan-kampung-tangguh-cegah-penyebaran-covid-19</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Kasus DBD Terus Melonjak, Pemkot Tasikmalaya Resmikan Kampung Tangguh Cegah Penyebaran Covid-19</t>
-        </is>
-      </c>
-      <c r="C299" s="2" t="n">
-        <v>44007.80486111111</v>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Wakil Wali KotaTasikmalayaMuhammad Yusuf menghadiri peresmiankampungtangguh di Kampung Cihandieung, Kelurahan Sukamaju Kaler, Kecamatan Indihiang, KotaTasikmalaya, Kamis 25 Juni 2020. Kampung tersebut diresmikan sebagai bagian dari upaya ‎menangkal penyebaranCovid-19di KotaTasikmalaya. Di sisi lain, kasus demam berdarah juga terus melonjak. Yusuf mengapresiasi kegiatan tersebut. "Semoga dengan adanyakampungtangguh di Kecamatan Indihiang dapat menjadi contoh untuk kecamatan lainnya," kata Yusuf dalam keterangan tertulis Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya. Baca Juga:27.000 KK di Kota Tasikmalaya Belum Terima BST, Budi Budiman Minta Warga Bersabar Saat ini, lanjutnya, KotaTasikmalayatelah masuk zona biru dengan presentasi nilai 7. Dengan demikian, wilayah itu dapat menerapkan adaptasi kebiasaan baru dengan selalu meningkatkan pola bersih hidup sehat. Ia juga berharap,kampungtangguh juga muncul dan dilaksanakan warga di wilayah lain. Dengan konsep itu, warga juga melaksanakan protokol kesehatan seperti mencuci tangan dengan sabun, selalu menggunakan masker dan menjaga jarak. Di tempat berbeda dan hari yang sama, PemkotTasikmalayamenggelar rapat koordinasi penanggulangan dan pengendalian penyakit menular. Baca Juga:Seluruh Pasien Positif Covid-19 di Purwakarta Sembuh, Pemkab Diapresiasi Kemenkopolhukam PIKIRAN RAKYAT -Wakil Wali KotaTasikmalayaMuhammad Yusuf menghadiri peresmiankampungtangguh di Kampung Cihandieung, Kelurahan Sukamaju Kaler, Kecamatan Indihiang, KotaTasikmalaya, Kamis 25 Juni 2020. Kampung tersebut diresmikan sebagai bagian dari upaya ‎menangkal penyebaranCovid-19di KotaTasikmalaya. Di sisi lain, kasus demam berdarah juga terus melonjak. Yusuf mengapresiasi kegiatan tersebut. "Semoga dengan adanyakampungtangguh di Kecamatan Indihiang dapat menjadi contoh untuk kecamatan lainnya," kata Yusuf dalam keterangan tertulis Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya. Baca Juga:27.000 KK di Kota Tasikmalaya Belum Terima BST, Budi Budiman Minta Warga Bersabar Saat ini, lanjutnya, KotaTasikmalayatelah masuk zona biru dengan presentasi nilai 7. Dengan demikian, wilayah itu dapat menerapkan adaptasi kebiasaan baru dengan selalu meningkatkan pola bersih hidup sehat. Ia juga berharap,kampungtangguh juga muncul dan dilaksanakan warga di wilayah lain. Dengan konsep itu, warga juga melaksanakan protokol kesehatan seperti mencuci tangan dengan sabun, selalu menggunakan masker dan menjaga jarak. Di tempat berbeda dan hari yang sama, PemkotTasikmalayamenggelar rapat koordinasi penanggulangan dan pengendalian penyakit menular. Baca Juga:Seluruh Pasien Positif Covid-19 di Purwakarta Sembuh, Pemkab Diapresiasi KemenkopolhukamWali Kota Budi Budiman dan Kepala Dinas Kesehatan KotaTasikmalayaUus Supangat menghadiri kegiatan yang berlangsung di Ballroom Grand Metro Hotel, Jalan KHZ Mustafa. Kadis Kesehatan Uus mengungkapkan, adanya peningkatan kasus demam berdarah di KotaTasikmalayasepanjang 2020. Sampai Juni 2020 sudah tercatat 673 kasus demam berdarah. Sedangkan jumlah warga yang meninggal karena penyakit tersebut mencapai 16 orang. Pada 2019, lanjut Uus, angka kasus demam berdarah juga mengalami kenaikan dengan mencapai 672 kasus. Pada 2018, 223 kasus dan 2017, 298 kasus. Sedangkan 2016, 759 kasus. Wali Kota Budi Budiman pun meminta persoalan itu jadi perhatian semua pihak. Baca Juga:Southampton vs Arsenal: Meriam London Lama tak 'Meledak' Ini Statistik Kedua Tim "Melihat tingginya kasus meninggal akibatDBD, ini menjadikan sesuatu yang luar biasa," tuturnya. Kendati telah memasuki praKLB (kejadian luar biasa), Budi berharap, Pemkot tak sampai menetapkannya menjadi KLB. "Saya minta hari ini tim kesehatan dan semua instansi terkait, upaya sosialisasi dan edukasi kepada masyarakat menjadi sangat penting," ucapnya. Acara tersebut ditutup dengan penandatanganan komitmen bersama penanggulangan dan pengendalian penyakit demam berdarah di KotaTasikmalayaoleh pesert rapat koordinasi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01577183/27000-kk-di-kota-tasikmalaya-belum-terima-bst-budi-budiman-minta-warga-bersabar</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>27.000 KK di Kota Tasikmalaya Belum Terima BST, Budi Budiman Minta Warga Bersabar</t>
-        </is>
-      </c>
-      <c r="C300" s="2" t="n">
-        <v>44007.79930555556</v>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT– Sebanyak 27.000  kepala keluarga (KK) diKota Tasikmalayabelum menerima bantuan sosial tunai (BST) dari Kementerian Sosial (Kemensos). Penyebabnya, kuota awal penerimaBSTyang diajukan sebesar 51.000 KK  Kemensos tak sesuai dengan realisasi.WaliKota Tasikmalaya, Budi Budiman mengatakan, pihaknya sudah menyampaikan langsung permasalahan ke Menteri Sosial (Mensos) Juliari P Batubara ketika berkunjung ke wilayahnya. Baca Juga:Southampton vs Arsenal: Meriam London Lama tak 'Meledak' Ini Statistik Kedua Tim Sebab, dari data awal 51.000 KK yang diajukan, realisasi dari Kemnsos hanya sekira untuk 11.000 KK diKota Tasikmalaya."Kita dapat kuota itu dari provinsi (Jawa Barat) 51.000 KK akan terimaBSTKemensos. Ternyata ada (yang) missed.Namun, realisasinya hanya kepada 11.000 KK diKota Tasikmalaya. Menurut dia, sekira 11.000 KK itu telah tiga kali mendapat bantuan dari Kemensos. Sementara sisanya, sekira 40.000 KK belum mendapatBSTsama sekali," kata dia, Kamis, 25 Juni 2020.Budi mengatakan, setelah diverifikasi, dari 40.000 sisa KK yang belum menerima, ternyata hanya sekira 27.000 KK yang berhak menerima. Karena masih banyak warga yang terdaftar sudah mendapatkan program PKH dan BPNT. Baca Juga:Seluruh Pasien Positif Covid-19 di Purwakarta Sembuh, Pemkab Diapresiasi KemenkopolhukamIhwal warga yang belum mendapatBSTKemensos, ia meminta untuk bersabar. Menurut dia, pihaknya sudah mengusulkan tambahanBSTuntuk 27.000 KK yang belum menerima."Jadi masyarakat bersabar agar menunggu keputusan. Kita juga sudah ada skenario apabila dari Jemensos tidak seluruhnya. Tapi kita berharap dari Kemensos bisa menyelesaikan seluruhnya," kata dia.Sementara itu, Kepala Dinas SosialKota Tasikmalaya, Nana Rosadi mengatakan, untuk sekira 11.000 KK sudah mendapatBSTKemensos sebanyak Rp 600.000 sebanyak tiga kali selama dalam gelombang pertama. Pada gelombang kedua, yaitu Juli-Desember 2020, besaran bantuan akan dikurangi menjadi Rp 300.000 per bulan. Baca Juga:Tokoh Ikonik Bintang 'RCTI Oke' di Era Tahun 90-an, Hj Noor Parida Meninggal DuniaUntuk sisanya ujar Nana, yang belum mendapatkanBST, akan dipenuhi selanjutnya. "Yang sisanya akan langsung dapat Rp 1,8 juta," kata dia.Menurut Nana, data kekurangan itu sudah disampaikan ke Kemensos dan sudah disetujui. Saat ini, lanjut dia, hanya menunggu realisasinya.Nana mengatakan, tak banyak kendala dalam penyaluranBSTdiKota Tasikmalaya. Hanya saja, penyalurannya ke masyarakat hampir selalu menimbulkan kerumunan.***PIKIRAN RAKYAT– Sebanyak 27.000  kepala keluarga (KK) diKota Tasikmalayabelum menerima bantuan sosial tunai (BST) dari Kementerian Sosial (Kemensos). Penyebabnya, kuota awal penerimaBSTyang diajukan sebesar 51.000 KK  Kemensos tak sesuai dengan realisasi.WaliKota Tasikmalaya, Budi Budiman mengatakan, pihaknya sudah menyampaikan langsung permasalahan ke Menteri Sosial (Mensos) Juliari P Batubara ketika berkunjung ke wilayahnya. Baca Juga:Southampton vs Arsenal: Meriam London Lama tak 'Meledak' Ini Statistik Kedua Tim Sebab, dari data awal 51.000 KK yang diajukan, realisasi dari Kemnsos hanya sekira untuk 11.000 KK diKota Tasikmalaya."Kita dapat kuota itu dari provinsi (Jawa Barat) 51.000 KK akan terimaBSTKemensos. Ternyata ada (yang) missed.Namun, realisasinya hanya kepada 11.000 KK diKota Tasikmalaya. Menurut dia, sekira 11.000 KK itu telah tiga kali mendapat bantuan dari Kemensos. Sementara sisanya, sekira 40.000 KK belum mendapatBSTsama sekali," kata dia, Kamis, 25 Juni 2020.Budi mengatakan, setelah diverifikasi, dari 40.000 sisa KK yang belum menerima, ternyata hanya sekira 27.000 KK yang berhak menerima. Karena masih banyak warga yang terdaftar sudah mendapatkan program PKH dan BPNT. Baca Juga:Seluruh Pasien Positif Covid-19 di Purwakarta Sembuh, Pemkab Diapresiasi KemenkopolhukamIhwal warga yang belum mendapatBSTKemensos, ia meminta untuk bersabar. Menurut dia, pihaknya sudah mengusulkan tambahanBSTuntuk 27.000 KK yang belum menerima."Jadi masyarakat bersabar agar menunggu keputusan. Kita juga sudah ada skenario apabila dari Jemensos tidak seluruhnya. Tapi kita berharap dari Kemensos bisa menyelesaikan seluruhnya," kata dia.Sementara itu, Kepala Dinas SosialKota Tasikmalaya, Nana Rosadi mengatakan, untuk sekira 11.000 KK sudah mendapatBSTKemensos sebanyak Rp 600.000 sebanyak tiga kali selama dalam gelombang pertama. Pada gelombang kedua, yaitu Juli-Desember 2020, besaran bantuan akan dikurangi menjadi Rp 300.000 per bulan. Baca Juga:Tokoh Ikonik Bintang 'RCTI Oke' di Era Tahun 90-an, Hj Noor Parida Meninggal DuniaUntuk sisanya ujar Nana, yang belum mendapatkanBST, akan dipenuhi selanjutnya. "Yang sisanya akan langsung dapat Rp 1,8 juta," kata dia.Menurut Nana, data kekurangan itu sudah disampaikan ke Kemensos dan sudah disetujui. Saat ini, lanjut dia, hanya menunggu realisasinya.Nana mengatakan, tak banyak kendala dalam penyaluranBSTdiKota Tasikmalaya. Hanya saja, penyalurannya ke masyarakat hampir selalu menimbulkan kerumunan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01576395/budi-budiman-malu-dan-kecewa-oknum-honorer-dishub-kota-tasikmalaya-jadi-kurir-narkotika</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Budi Budiman Malu dan Kecewa, Oknum Honorer Dishub Kota Tasikmalaya Jadi Kurir Narkotika</t>
-        </is>
-      </c>
-      <c r="C301" s="2" t="n">
-        <v>44006.84513888889</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman merasa malu sekaligus kecewa adanya tenaga harian lepas di Dinas Perhubungan (Dishub) KotaTasikmalayayang ditangkap polisi lantaran diduga menjadi kurir narkotika jenis sabu-sabu. Menurut dia, perbuatan itu sangat mencemarkan nama baikPemerintahKota (Pemkot)Tasikmalaya. "Saya atas nama pemerintah, meminta maaf kepada masyarakat atas kejadian ini. Ini sangat memalukan dan kita sama sekali tak mengharapkan hal itu bisa terjadi," kata dia, Rabu 24 Juni 2020. Baca Juga:Tuai Pujian Warganet, Penari Legendaris Didik Nini Thowok Turut Serta Tren Lathi Challenge Budi juga mengatakan, pemerintah bersama aparat hukum saat ini sedang gencar melakukan pemberantasan narkoba dan obat-obatan terlarang di KotaTasikmalaya. Namun di sisi lain, terdapat pegawai PemkotTasikmalayayang justru menjadi pengedar narkotika. Menurut dia, atas perbuatannya itu, PemkotTasikmalayalangsung mengambil sikap tegas. Budi mengaku, pihaknya telah memerintahkan Dishub KotaTasikmalayauntuk memberhentikan yang bersangkutan. Budi juga mengingatkan, para aparatur sipil negara (ASN) maupun tenaga harian lepas (THL) di lingkungan PemkotTasikmalayauntuk menjaga nama baik pemerintahan. Baca Juga:PPDB 2020, Orang Tua Tak Paham Proses Akibatkan Anak Tak Lolos "Karena kita (ASN) harus menjadi contoh kepada masyarakat. Saya berharap ini yang terakhir kali terjadi, kejadian ini sangat mencoreng nama baik pemerintah," kata dia. PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman merasa malu sekaligus kecewa adanya tenaga harian lepas di Dinas Perhubungan (Dishub) KotaTasikmalayayang ditangkap polisi lantaran diduga menjadi kurir narkotika jenis sabu-sabu. Menurut dia, perbuatan itu sangat mencemarkan nama baikPemerintahKota (Pemkot)Tasikmalaya. "Saya atas nama pemerintah, meminta maaf kepada masyarakat atas kejadian ini. Ini sangat memalukan dan kita sama sekali tak mengharapkan hal itu bisa terjadi," kata dia, Rabu 24 Juni 2020. Baca Juga:Tuai Pujian Warganet, Penari Legendaris Didik Nini Thowok Turut Serta Tren Lathi Challenge Budi juga mengatakan, pemerintah bersama aparat hukum saat ini sedang gencar melakukan pemberantasan narkoba dan obat-obatan terlarang di KotaTasikmalaya. Namun di sisi lain, terdapat pegawai PemkotTasikmalayayang justru menjadi pengedar narkotika. Menurut dia, atas perbuatannya itu, PemkotTasikmalayalangsung mengambil sikap tegas. Budi mengaku, pihaknya telah memerintahkan Dishub KotaTasikmalayauntuk memberhentikan yang bersangkutan. Budi juga mengingatkan, para aparatur sipil negara (ASN) maupun tenaga harian lepas (THL) di lingkungan PemkotTasikmalayauntuk menjaga nama baik pemerintahan. Baca Juga:PPDB 2020, Orang Tua Tak Paham Proses Akibatkan Anak Tak Lolos "Karena kita (ASN) harus menjadi contoh kepada masyarakat. Saya berharap ini yang terakhir kali terjadi, kejadian ini sangat mencoreng nama baik pemerintah," kata dia.Sebelumnya, seorang oknum pegawai Dishub KotaTasikmalayaberinisial RR (34 tahun) ditangkap aparat Satuan ReserseNarkobaPolrestaTasikmalayadi Jalan Stasiun, Kelurahan Tawangsari, Kecamatan Tawang, KotaTasikmalaya, pada Sabtu 20 Juni 2020. Lelaki yang diketahui sebagai pegawai honorer di Dishub KotaTasikmalayakedapatan membawa sabu-sabu.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01576215/di-tengah-covid-19-kasus-dbd-di-kota-tasikmalaya-lebih-dari-600-sejak-awal-tahun-2020</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Di Tengah Covid-19, Kasus DBD di Kota Tasikmalaya Lebih dari 600 Sejak Awal Tahun 2020</t>
-        </is>
-      </c>
-      <c r="C302" s="2" t="n">
-        <v>44006.71041666667</v>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dinas Kesehatanan KotaTasikmalayamencatat, hingga kini terdapat lebih dari 600 kasus demam berdarah dengue (DBD) di KotaTasikmalaya. Sebanyak 16 kasus diantaranya dinyatakan meninggal dunia akibatDBD. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, sejak awal tahun hingga Juni 2020 tercatat ada 634 kasusDBD. Angka itu mengalami peningkatakan jika dibandingkan dengan periode yang sama pada 2019, yang angkanya sebanyak 588 kasus. "Yang paling memprihatinkan, dari 16 orang yang meninggal, 11 orang diantaranya itu anak-anak," kata dia, Rabu 24 Juni 2020. Baca Juga:Rumah Miring dan Nyaris Ambruk, 39 Jiwa di Kampung Gandasoli Kabupaten Tasikmalaya Dilanda Kecemasan Berdasarkan data per wilayah ujar Uus, Kecamatan Kawalu merupakan wilayah paling tinggi mencatatkan kasusDBDdengan 118 penderita dan lima kasus kematian. Posisi kedua ditempati oleh Kecamatan Mangkubumi dengan 84 kasus, selanjutnya Kecamatan Tamansari 70 kasus, Cihideung 66 kasus, Cibereum 58 kasus, dan sisanya menyebar di kecamatan lain. Sementara kasus kematian akibatDBDselain di Kecamatan Kawalu dengan lima kasus, juga terjadi di Cipedes tiga kasus, Purbaratu, Bungursari, dan Cihideung, masing-masing dua kasus, serta Indihiang dan Tawang masing-masing satu kasus. Uus mengatakan, pihaknya terus melakukan penyuluhan kepada masyarakat untuk penanggulangan DBB. Pihaknya juga akan mengumpulkan para camat agar lebih menggerakan warganya dalam program pemberantasan sarang nyamuk (PSN) secara bersama-sama. Baca Juga:Sesak saat Mengenakan Masker Ketika Berolahraga? Under Armour Luncurkan Sportsmask "Karena faktor yang penting adalah PSN. Tidak bisa hanya mengandalkan fogging," kata dia. PIKIRAN RAKYAT -Dinas Kesehatanan KotaTasikmalayamencatat, hingga kini terdapat lebih dari 600 kasus demam berdarah dengue (DBD) di KotaTasikmalaya. Sebanyak 16 kasus diantaranya dinyatakan meninggal dunia akibatDBD. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat mengatakan, sejak awal tahun hingga Juni 2020 tercatat ada 634 kasusDBD. Angka itu mengalami peningkatakan jika dibandingkan dengan periode yang sama pada 2019, yang angkanya sebanyak 588 kasus. "Yang paling memprihatinkan, dari 16 orang yang meninggal, 11 orang diantaranya itu anak-anak," kata dia, Rabu 24 Juni 2020. Baca Juga:Rumah Miring dan Nyaris Ambruk, 39 Jiwa di Kampung Gandasoli Kabupaten Tasikmalaya Dilanda Kecemasan Berdasarkan data per wilayah ujar Uus, Kecamatan Kawalu merupakan wilayah paling tinggi mencatatkan kasusDBDdengan 118 penderita dan lima kasus kematian. Posisi kedua ditempati oleh Kecamatan Mangkubumi dengan 84 kasus, selanjutnya Kecamatan Tamansari 70 kasus, Cihideung 66 kasus, Cibereum 58 kasus, dan sisanya menyebar di kecamatan lain. Sementara kasus kematian akibatDBDselain di Kecamatan Kawalu dengan lima kasus, juga terjadi di Cipedes tiga kasus, Purbaratu, Bungursari, dan Cihideung, masing-masing dua kasus, serta Indihiang dan Tawang masing-masing satu kasus. Uus mengatakan, pihaknya terus melakukan penyuluhan kepada masyarakat untuk penanggulangan DBB. Pihaknya juga akan mengumpulkan para camat agar lebih menggerakan warganya dalam program pemberantasan sarang nyamuk (PSN) secara bersama-sama. Baca Juga:Sesak saat Mengenakan Masker Ketika Berolahraga? Under Armour Luncurkan Sportsmask "Karena faktor yang penting adalah PSN. Tidak bisa hanya mengandalkan fogging," kata dia.Uus juga mengingatkan, agar warga menjaga pola hidup bersih dan sehat (PHBS). Menurut dia, PSBH itu penting bukan hanya untuk menanggulangiCovid-19, tapi jugaDBD. Sebab,DBDdi KotaTasikmalayajuga berpotensi menjadi wabah.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01576002/pil-kuning-terlarang-banyak-dicari-pelajar-2-warga-jakarta-jadi-pengedar-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Pil Kuning Terlarang Banyak Dicari Pelajar, 2 Warga Jakarta Jadi Pengedar di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C303" s="2" t="n">
-        <v>44006.58194444444</v>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Terlibat kasus peredaranobat terlarangjenispil kuningatau Trihexyphenidyl,  dua warga asal Jakarta diciduk Satuan Narkoba Polresta Tasikmalaya. Keduanya dibekuk polisi di rumah kontrakannya di wilayah Kecamatan Bungursari,Kota Tasikmalaya, Jawa Barat, Senin, 22 Juni 2020 lalu. Dari tangan kedua pelaku, polisi berpakaian preman tersebut berhasil mengamankan barang bukti sebanyak 16.000 butirpil kuning. Baca Juga:Jadwal Premier League Malam Ini: Manchester United vs Sheffield United, Liverpool Selangkah Lagi?Kasat Narkoba Polresta Tasikmalaya, AKP Yaser kepada wartawan, Rabu, 24 Juni 2020 mengatakan, selama iniKota Tasikmalayakerap menjadi sasaran para pengedar narkoba, termasuk kedua tersangka yang baru diamankan. Kedua tersangka berinisial SI (30) dan AF (32) yang merupakan warga Jakarta ini kata Yaser, sengaja datang dari Jakarta dengan maksud mengedarkan pil haram jenisobat penenangdi Kota Tasik.Selama ini ujar Yaser, obat tersebut menjadi primadona kalangan muda terutama pelajar, dikarenakan harganya yang murah dengan harga eceran hanya Rp 3.000 hingga Rp 5.000 per butir. Baca Juga:Baru Satu Minggu, Brasil Hentikan WhatsApp Payment "Dari tangan kedua pelaku tersebut, petugas kami mengamankan 16.000 butirpil kuningyang tersimpan dalam 16 botol putih," ucapnya.Lebih lanjut ujar dia, keduanya berhasil diciduk setelah sebelumnya mendapatkan informasi dari warga yang merasa resah atas peredaran obat haram itu. Dari informasi tersebut, pihaknya melakukan penyelidikan hingga akhirnya tertuju pada orang yang dicurigai sebagai pengedar. Baca Juga:Masa Adaptasi Kebiasaan Baru, Guru Butuh Pelatihan Pembelajaran DaringTersangka yang pertama kali diamankan yakni, AF (32) diamankan didaerah Panyingkiran, Kecamatan Indihiang. Dari tangan AF, petugas mengamankan barang bukti berupa satu botolpil kuningberisikan 1.000 butir yang hendak diedarkan.Selanjutnya petugas mengembangkan kasus tersebut hingga tertuju pada tersangka SI. Dari tangan SI, petugas berhasil mengamankan barang bukti lebih banyak yakni 15 botol berisikan 15.000 butirpil kuningyang hendak diedarkan.PIKIRAN RAKYAT –Terlibat kasus peredaranobat terlarangjenispil kuningatau Trihexyphenidyl,  dua warga asal Jakarta diciduk Satuan Narkoba Polresta Tasikmalaya. Keduanya dibekuk polisi di rumah kontrakannya di wilayah Kecamatan Bungursari,Kota Tasikmalaya, Jawa Barat, Senin, 22 Juni 2020 lalu. Dari tangan kedua pelaku, polisi berpakaian preman tersebut berhasil mengamankan barang bukti sebanyak 16.000 butirpil kuning. Baca Juga:Jadwal Premier League Malam Ini: Manchester United vs Sheffield United, Liverpool Selangkah Lagi?Kasat Narkoba Polresta Tasikmalaya, AKP Yaser kepada wartawan, Rabu, 24 Juni 2020 mengatakan, selama iniKota Tasikmalayakerap menjadi sasaran para pengedar narkoba, termasuk kedua tersangka yang baru diamankan. Kedua tersangka berinisial SI (30) dan AF (32) yang merupakan warga Jakarta ini kata Yaser, sengaja datang dari Jakarta dengan maksud mengedarkan pil haram jenisobat penenangdi Kota Tasik.Selama ini ujar Yaser, obat tersebut menjadi primadona kalangan muda terutama pelajar, dikarenakan harganya yang murah dengan harga eceran hanya Rp 3.000 hingga Rp 5.000 per butir. Baca Juga:Baru Satu Minggu, Brasil Hentikan WhatsApp Payment "Dari tangan kedua pelaku tersebut, petugas kami mengamankan 16.000 butirpil kuningyang tersimpan dalam 16 botol putih," ucapnya.Lebih lanjut ujar dia, keduanya berhasil diciduk setelah sebelumnya mendapatkan informasi dari warga yang merasa resah atas peredaran obat haram itu. Dari informasi tersebut, pihaknya melakukan penyelidikan hingga akhirnya tertuju pada orang yang dicurigai sebagai pengedar. Baca Juga:Masa Adaptasi Kebiasaan Baru, Guru Butuh Pelatihan Pembelajaran DaringTersangka yang pertama kali diamankan yakni, AF (32) diamankan didaerah Panyingkiran, Kecamatan Indihiang. Dari tangan AF, petugas mengamankan barang bukti berupa satu botolpil kuningberisikan 1.000 butir yang hendak diedarkan.Selanjutnya petugas mengembangkan kasus tersebut hingga tertuju pada tersangka SI. Dari tangan SI, petugas berhasil mengamankan barang bukti lebih banyak yakni 15 botol berisikan 15.000 butirpil kuningyang hendak diedarkan.Baca Juga:Ayah dan Dua Anaknya di Cimahi Positif Covid-19, Terungkap Saat Tes untuk Pergi ke Kalimantan "Ketika dimintai keterangan, keduanya mengaku mendapatkan barang tersebut dari rekannya berinisial H di Jakarta. Namun saat dicek, ternyata keterangannya tidak terbukti," tuturnya.Dikatakan Yaser, dari barang bukti sebanyak itu tersangka mengaku bermodal Rp 300.000 per botol berisi 1.000 butir. Selanjutnya, pil itu dijual seharga Rp 800.000 per botol atau diecer seharga Rp 3.000 hingga Rp 5.000 per butirnya.Dari hasil penjualan tersebut,  tersangka mendapatkan keuntungan cukup besar. Baca Juga:1.600 Bantuan Paket Sembako dari MTP dan Yayasan PR untuk Warga Terdampak Covid-19 Terlebih diKota Tasikmalayapeminatnya cukup banyak sehingga keduanya sengaja datang dari Jakarta untuk membuka pasar baru diKota Tasikmalaya."Memang benar kedua pengedarpil kuningsudah kita tangkap. Mereka pendatang warga Jakarta. Sengaja baru ngontrak dan tinggal di Kota Tasikmalata mau memasarkanpil kuningtersebut ke kalangan pelajar," kata Yaser.Dijelaskan dia, keduanya dierat dengan Undang-Undang kesehatan yaitu pasal 196 jo 197 Undang-Undang nomor 36 tahun 2009 tentang Kesehatan dengan ancaman hukumannya maksimal 12 tahun penjara.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01575513/selain-covid-19-dan-dbd-penderita-dan-kematian-akibat-hivaids-di-tasikmalaya-juga-bertambah</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Selain Covid-19 dan DBD, Penderita dan Kematian Akibat HIV/AIDS di Tasikmalaya juga Bertambah</t>
-        </is>
-      </c>
-      <c r="C304" s="2" t="n">
-        <v>44006.27291666667</v>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT– Selain covid -19 dan Demam Berdarah Dengue (DBD),Kota Tasikmalayajuga dihadapkan pada permasalahan penyakit lain, yaitu meningkatnya penderita HIV/AIDS. Kota Tasikmalayasaat ini berada pada diurutan ke-13 penderita HIV/AIDS terbanyak se Jawa Barat, seiring bertambahnya kasus. Hingga Mei 2020, tetcatat jumlah kasus HIV diKota Tasikmalayasebanyak 758 kasus HIV, yang 51 di antaranya merupakan kasus baru. Baca Juga:Moon Ga Young Dilirik Jadi Tokoh Utama, Calon Pacar Cha Eun Woo di Drama Terbaru Dari jumlah kasus tersebut dua penderita diantaranya meninggal dunia."Sejak  tahun 2004 hingga Mei kasusnya mencapai 758 kasus. 51 di antaranya merupakan kasus baru berdasarkan hasil validasi yang dilakukannya Dinas KesehatanKota Tasikmalaya," ujar Pengelola Monev dan Logistik, Komisi Penanggulangan AIDS (KPA)Kota Tasikmalaya, Dendi Carniadi, Selasa, 23 Juni 2929.Dendi mengatakan, penderita HIV/AIDS yang ada diKota Tasikmalayasejak tahun 2010-2020 paling banyak ditemukan dari kasus penularan dari suami pelanggan PSK, penularan akibat hubungan sesama jenis antar laki-laki, hingga penularan dari penggunaan narkoba. Baca Juga:BTS Gelontorkan Uang Rp 14 Miliar untuk Kru Konser yang Terdampak Virus Corona"Untuk kasus baru di bulan Januari hingga Mei ditemukan sebanyak 51 kasus baru.Antara lain 30 kasus dari hubungan sesama jenis lelaki dengan lelaki (LSL), tujuh orang lelaki beresiko tinggi (HRM) dan satu orang wanita pekerja seks (WPS), sembilan orang perempuan resiko tinggi (risti), tiga orang biseksual dan satu orang anak," katanya.Dari sisi usia ujar Dendi, penularan HIP/AIDS diKota Tasikmalayamasih di dominasi usia produktif yaitu usia 30 tahun ke bawah.Sementara itu, Kepala Dinas KesehatanKota TasikmalayaUus Supangat mengatakan, sampai sekarang belum ada obat bagi penderitan penyakit mematikan tersebut. Baca Juga:Main ke Rumah Aleta Molly, Raffi Ahmad dan Nagita Slavina Dapat Cincin Berlian Cuma-cuma Akan tetapi ujar Uus, untuk memberikan kekebalan tubuh penderita dianjurkan agar mengonsumsi obat dan harus diminum secara kontinyu.Uus membenarkan, kasus HIV/AIDS diKota Tasikmalayasejak tahun 2004 hingga Desember 2019 tercatat sebanyak 707 kasus. Namun ujar dia, sejak awal Januari hingga Mei 2020, kasus bertambah sebnyak 51 kasus hingga jumlahnya mencapai 758 kasus."Untuk penderita paling banyak akibat perilaku seks menyimpang yaitu hubungan sesama jenis laki dan laki. Termasuk juga prilaku seks bebas "jajan" suami hingga menularkan ke Ibu Rumah Tangga (IRT), termasuk ibu penderita yang melahirkan sehingga anak yang dilahirkannya ikut terkena," katanya.***PIKIRAN RAKYAT– Selain covid -19 dan Demam Berdarah Dengue (DBD),Kota Tasikmalayajuga dihadapkan pada permasalahan penyakit lain, yaitu meningkatnya penderita HIV/AIDS. Kota Tasikmalayasaat ini berada pada diurutan ke-13 penderita HIV/AIDS terbanyak se Jawa Barat, seiring bertambahnya kasus. Hingga Mei 2020, tetcatat jumlah kasus HIV diKota Tasikmalayasebanyak 758 kasus HIV, yang 51 di antaranya merupakan kasus baru. Baca Juga:Moon Ga Young Dilirik Jadi Tokoh Utama, Calon Pacar Cha Eun Woo di Drama Terbaru Dari jumlah kasus tersebut dua penderita diantaranya meninggal dunia."Sejak  tahun 2004 hingga Mei kasusnya mencapai 758 kasus. 51 di antaranya merupakan kasus baru berdasarkan hasil validasi yang dilakukannya Dinas KesehatanKota Tasikmalaya," ujar Pengelola Monev dan Logistik, Komisi Penanggulangan AIDS (KPA)Kota Tasikmalaya, Dendi Carniadi, Selasa, 23 Juni 2929.Dendi mengatakan, penderita HIV/AIDS yang ada diKota Tasikmalayasejak tahun 2010-2020 paling banyak ditemukan dari kasus penularan dari suami pelanggan PSK, penularan akibat hubungan sesama jenis antar laki-laki, hingga penularan dari penggunaan narkoba. Baca Juga:BTS Gelontorkan Uang Rp 14 Miliar untuk Kru Konser yang Terdampak Virus Corona"Untuk kasus baru di bulan Januari hingga Mei ditemukan sebanyak 51 kasus baru.Antara lain 30 kasus dari hubungan sesama jenis lelaki dengan lelaki (LSL), tujuh orang lelaki beresiko tinggi (HRM) dan satu orang wanita pekerja seks (WPS), sembilan orang perempuan resiko tinggi (risti), tiga orang biseksual dan satu orang anak," katanya.Dari sisi usia ujar Dendi, penularan HIP/AIDS diKota Tasikmalayamasih di dominasi usia produktif yaitu usia 30 tahun ke bawah.Sementara itu, Kepala Dinas KesehatanKota TasikmalayaUus Supangat mengatakan, sampai sekarang belum ada obat bagi penderitan penyakit mematikan tersebut. Baca Juga:Main ke Rumah Aleta Molly, Raffi Ahmad dan Nagita Slavina Dapat Cincin Berlian Cuma-cuma Akan tetapi ujar Uus, untuk memberikan kekebalan tubuh penderita dianjurkan agar mengonsumsi obat dan harus diminum secara kontinyu.Uus membenarkan, kasus HIV/AIDS diKota Tasikmalayasejak tahun 2004 hingga Desember 2019 tercatat sebanyak 707 kasus. Namun ujar dia, sejak awal Januari hingga Mei 2020, kasus bertambah sebnyak 51 kasus hingga jumlahnya mencapai 758 kasus."Untuk penderita paling banyak akibat perilaku seks menyimpang yaitu hubungan sesama jenis laki dan laki. Termasuk juga prilaku seks bebas "jajan" suami hingga menularkan ke Ibu Rumah Tangga (IRT), termasuk ibu penderita yang melahirkan sehingga anak yang dilahirkannya ikut terkena," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01575441/dikendalikan-dari-lapas-oknum-pegawai-honorer-dishub-kota-tasikmalaya-jadi-kurir-sabu</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Dikendalikan dari Lapas, Oknum Pegawai Honorer Dishub Kota Tasikmalaya Jadi Kurir Sabu</t>
-        </is>
-      </c>
-      <c r="C305" s="2" t="n">
-        <v>44005.77916666667</v>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Oknum pegawai Dinas Perhubungan (Dishub)Kota Tasikmalayaberstatus honorer, diciduk petugas Satresnakoba Polresta Tasikmalaya, Senin, 22 Juni 2020.Pria berinisial RR (34), warga Kelurahan Lengkongsari, Kecamatan Tawang, yang bertugas menarik retribusi diterminalPasar Pancasila tersebut tertangkap tangan saat menempelkan narkoba jenis sabu di Jalan Stasiun, Kelurahan Tawangsari, Kecamatan Tawang.Saat diciduk, RR masih mengenakan pakaian kerja sambil menaiki motor pribadinya. Dari tas selempang yang dipakai tersangka, petugas mengamankan 25 paket sabu dibungkus sedotan siap edar. Baca Juga:5 Langkah Memasak Telur Ceplok Sempurna, Ada Tips Spesial Biar Terasa Lebih Nikmat "Pelaku ini kita amankan saat sedang menempelkan sabu di lokasi jalan yang jarang dilalui kendaraan alias sepi," ujar Kepala Sat Narkoba Yaser Arafat di Mapolresta, Selasa, 23 Juni 2020 sore.Terang dia, di dalam tas pelaku juga ditemukan timbangan digital, 2 bungkus plastik klip, 2 bungkus sedotan, dan hape merek Vivo. Total sabu di dalam 25 paket itu lebih dari 15,6 gram.Yaser menambahkan, pelaku ini menjadi pemakai dan juga kurir caranya dengan melakukan kesepakatan dengan si operator yang sedang mendekam di dalam Lapas. Baca Juga:2 Mahasiswa Positif Covid-19, Universitas Muhammadiyah Purwokerto dan Indekos Disterilisasi "Pelaku ini menjadi kurir juga pemakai sabu sejak tahun 2017 dengan operator utamanya dari sebuah Lapas di Jawa Barat. Dalam aksinya pelaku selalu menggunakan pakaian kerja guna mengelabui petugas," katanya.Adapun kata dia, dari setiap  menempelkan sabu di sepuluh titik, pelaku mendapat keuntungan Rp 1 juta lebih. "Atas informasi dari masyarakat, pelaku dapat kita amankan, katanya. Baca Juga:Campakkan Intel, Apple akan Pakai Prosesor Buatan Sendiri untuk Komputer Mac Atas perbuatannya tersebut Jelas Yaser, pelaku dijerat pasal 112 ayat 2, jo 114 ayat 2 Undang-Undang Nomor 35 tahun 2009 tentang Narkoba dengan hukum maksimal 20 tahun penjara."Dengan sabu yang kita amankan dari tangan tersangka ini, kita berhasil menyelamatkan 125 anak muda. Karena asumsinya 1 paket sabu itu digunakan 5 orang. Kita akan terus lakukan pengembangan dalam kasus ini," ucap dia.***PIKIRAN RAKYAT -Oknum pegawai Dinas Perhubungan (Dishub)Kota Tasikmalayaberstatus honorer, diciduk petugas Satresnakoba Polresta Tasikmalaya, Senin, 22 Juni 2020.Pria berinisial RR (34), warga Kelurahan Lengkongsari, Kecamatan Tawang, yang bertugas menarik retribusi diterminalPasar Pancasila tersebut tertangkap tangan saat menempelkan narkoba jenis sabu di Jalan Stasiun, Kelurahan Tawangsari, Kecamatan Tawang.Saat diciduk, RR masih mengenakan pakaian kerja sambil menaiki motor pribadinya. Dari tas selempang yang dipakai tersangka, petugas mengamankan 25 paket sabu dibungkus sedotan siap edar. Baca Juga:5 Langkah Memasak Telur Ceplok Sempurna, Ada Tips Spesial Biar Terasa Lebih Nikmat "Pelaku ini kita amankan saat sedang menempelkan sabu di lokasi jalan yang jarang dilalui kendaraan alias sepi," ujar Kepala Sat Narkoba Yaser Arafat di Mapolresta, Selasa, 23 Juni 2020 sore.Terang dia, di dalam tas pelaku juga ditemukan timbangan digital, 2 bungkus plastik klip, 2 bungkus sedotan, dan hape merek Vivo. Total sabu di dalam 25 paket itu lebih dari 15,6 gram.Yaser menambahkan, pelaku ini menjadi pemakai dan juga kurir caranya dengan melakukan kesepakatan dengan si operator yang sedang mendekam di dalam Lapas. Baca Juga:2 Mahasiswa Positif Covid-19, Universitas Muhammadiyah Purwokerto dan Indekos Disterilisasi "Pelaku ini menjadi kurir juga pemakai sabu sejak tahun 2017 dengan operator utamanya dari sebuah Lapas di Jawa Barat. Dalam aksinya pelaku selalu menggunakan pakaian kerja guna mengelabui petugas," katanya.Adapun kata dia, dari setiap  menempelkan sabu di sepuluh titik, pelaku mendapat keuntungan Rp 1 juta lebih. "Atas informasi dari masyarakat, pelaku dapat kita amankan, katanya. Baca Juga:Campakkan Intel, Apple akan Pakai Prosesor Buatan Sendiri untuk Komputer Mac Atas perbuatannya tersebut Jelas Yaser, pelaku dijerat pasal 112 ayat 2, jo 114 ayat 2 Undang-Undang Nomor 35 tahun 2009 tentang Narkoba dengan hukum maksimal 20 tahun penjara."Dengan sabu yang kita amankan dari tangan tersangka ini, kita berhasil menyelamatkan 125 anak muda. Karena asumsinya 1 paket sabu itu digunakan 5 orang. Kita akan terus lakukan pengembangan dalam kasus ini," ucap dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01575331/langgar-jam-operasional-masa-psbb-sejumlah-kafe-di-kota-tasikmalaya-ditutup-paksa-petugas</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Langgar Jam Operasional Masa PSBB, Sejumlah Kafe di Kota Tasikmalaya Ditutup Paksa Petugas</t>
-        </is>
-      </c>
-      <c r="C306" s="2" t="n">
-        <v>44005.67222222222</v>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Fase Pembatasan Sosial Berskala Besar (PSBB) tahap IVKota Tasikmalaya, Jawa Barat menuju adaptasi kebiasaan baru, telah banyak pelonggaran.Berdasarkan pantauan di lapangan, saat ini mulai banyak wargaKota Tasikmalayayang mulai abai terhadap aturan PSBB. Merasa sudah ada kelonggaran banyak jenis usaha yang tidak lagi taat aturan PSBB diantaranya dengan jam buka dan tutup usaha yang tidak lagi mengikuti ketentuan pemerintah selama PSBB. Baca Juga:Leicester City vs Brighton &amp; Hove Albion: Head to head, The Foxes tak Terkelahan dalam 5 Pertemuan Seperti terjadi pada beberapa kafe atau coffee shop (kedai kopi) di beberapa titik seperti di sekitar Jalan Sutisna Senjaya, Simpang Lima, Padayungan, dan lainnya melanggar jam tutup usaha.Terkait itu, sejumlah petugas dari Satpol PP Kota Tasik dan Tim Gugus Tugas Percepatan Penanganan Covid-19, melakukan penertiban terhadap jenis usaha yang melanggar tersebut, Senin, 22 Juni 2020, sekitar pukul 22.00 WIB. Sejumlah cafe dirazia petugas dengan diberikan teguran hingga menutup dengan melakukan penyegelan terhadap kafe yang telah lebih dari 3 kali diingatkan tetapi tetap membandel. Baca Juga:Menangis saat Rekaman Lagu 'Lathi', Sara Fajira: Aku Mencoba Posisikan Diri Jadi Korban"Kafe di Simpang Lima ada yang kita segel," ujar Kepala Bidang Ketertiban Umum dan Ketentraman Masyarakat (Trantibum) Satpol PP, Yogi Subarkah, Selasa, 23 Juni 2020 pagi.Dikatakan Yogi, pihaknya sengaja melakukan razia kafe di hampir belasan titik karena banyaknya informasi dari masyarakat bahwa aktivitasnya melebihi jam buka yang telah ditetapkan."Sesuai regulasi Perwalkot Nomor 19 tahun 2020, bahwa restoran, rumah makan, cafe atau usaha sejenis yang berdiri sendiri buka dari jam 10.00 WIB hingga 22.00 WIB. Maka dengan adanya aturan tersebut semua harus taat aturan," ucapnya. Baca Juga:Yoga Didukung SOKSI Jabar, Bursa Bacabup Bandung di Internal Golkar Makin Ketat Yogi menambahkan, dalam razia tersebut, selain yang disegel, terdapat 5 cafe lainnya yang  mendapatkan teguran ke-3. Jika mereka masih saja membandel, maka pihaknya tidak segan-segan untuk melakukan penyegelan alias menutup paksa."Yang di Simpang Lima karena sudah tiga kali kita tegur masih saja melanggar, dengan masih buka lewat jam sepuluh malam. Makanya terpaksa kita tutup paksa. Lima cafe lainnya baru sampe teguran ke-3," katanya.***PIKIRAN RAKYAT –Fase Pembatasan Sosial Berskala Besar (PSBB) tahap IVKota Tasikmalaya, Jawa Barat menuju adaptasi kebiasaan baru, telah banyak pelonggaran.Berdasarkan pantauan di lapangan, saat ini mulai banyak wargaKota Tasikmalayayang mulai abai terhadap aturan PSBB. Merasa sudah ada kelonggaran banyak jenis usaha yang tidak lagi taat aturan PSBB diantaranya dengan jam buka dan tutup usaha yang tidak lagi mengikuti ketentuan pemerintah selama PSBB. Baca Juga:Leicester City vs Brighton &amp; Hove Albion: Head to head, The Foxes tak Terkelahan dalam 5 Pertemuan Seperti terjadi pada beberapa kafe atau coffee shop (kedai kopi) di beberapa titik seperti di sekitar Jalan Sutisna Senjaya, Simpang Lima, Padayungan, dan lainnya melanggar jam tutup usaha.Terkait itu, sejumlah petugas dari Satpol PP Kota Tasik dan Tim Gugus Tugas Percepatan Penanganan Covid-19, melakukan penertiban terhadap jenis usaha yang melanggar tersebut, Senin, 22 Juni 2020, sekitar pukul 22.00 WIB. Sejumlah cafe dirazia petugas dengan diberikan teguran hingga menutup dengan melakukan penyegelan terhadap kafe yang telah lebih dari 3 kali diingatkan tetapi tetap membandel. Baca Juga:Menangis saat Rekaman Lagu 'Lathi', Sara Fajira: Aku Mencoba Posisikan Diri Jadi Korban"Kafe di Simpang Lima ada yang kita segel," ujar Kepala Bidang Ketertiban Umum dan Ketentraman Masyarakat (Trantibum) Satpol PP, Yogi Subarkah, Selasa, 23 Juni 2020 pagi.Dikatakan Yogi, pihaknya sengaja melakukan razia kafe di hampir belasan titik karena banyaknya informasi dari masyarakat bahwa aktivitasnya melebihi jam buka yang telah ditetapkan."Sesuai regulasi Perwalkot Nomor 19 tahun 2020, bahwa restoran, rumah makan, cafe atau usaha sejenis yang berdiri sendiri buka dari jam 10.00 WIB hingga 22.00 WIB. Maka dengan adanya aturan tersebut semua harus taat aturan," ucapnya. Baca Juga:Yoga Didukung SOKSI Jabar, Bursa Bacabup Bandung di Internal Golkar Makin Ketat Yogi menambahkan, dalam razia tersebut, selain yang disegel, terdapat 5 cafe lainnya yang  mendapatkan teguran ke-3. Jika mereka masih saja membandel, maka pihaknya tidak segan-segan untuk melakukan penyegelan alias menutup paksa."Yang di Simpang Lima karena sudah tiga kali kita tegur masih saja melanggar, dengan masih buka lewat jam sepuluh malam. Makanya terpaksa kita tutup paksa. Lima cafe lainnya baru sampe teguran ke-3," katanya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01574591/budi-budiman-masih-belum-yakin-kota-tasikmalaya-jadi-zona-hijau-covid-19</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Budi Budiman Masih Belum Yakin Kota Tasikmalaya Jadi Zona Hijau Covid-19</t>
-        </is>
-      </c>
-      <c r="C307" s="2" t="n">
-        <v>44004.79166666666</v>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -KasusCovid-19di KotaTasikmalayaterus bertambah. Terkahir, seorang aparatur sipil negara (ASN) terkonfirmasi positifCovid-19, sehingga menambah total terkonfirmasi positifCovid-19menjadi 50 kasus sejak pandemi terjadi. ] Dari jumlah tersebut, sebanyak 25 orang terkonfirmasi melalui tes swab dan 25 orang melalui uji cepat (rapid test)Covid-19. Wali KotaTasikmalayaBudi Budiman mengatakan, pihaknya belum mau berspekulasi mengenai kebijakan yang akan ditentukan ke depannya, mengingat saat ini penambahan kasusCovid-19masih terjadi. Baca Juga:Komisi III DPR RI Minta RKUHP dan RUU Pemasyarakatan Kembali Dibahas Hingga saat ini, KotaTasikmalayamasih menerapkan pembatasan sosial berskala besar (PSBB) tahap keempat hingga 26 Juni, dengan pendekatan adaptasi kebiasaan baru (AKB) menuju fase kenormalan baru (new normal). "Kita memang ada kasus baru satu dan itu langsung ditindaklanjuti melalui tim survailans. Sudah swab di lingkungan keluarga, kontak erat, dan sebagainya. Kita terus pantau," kata dia, Senin 22 Juni 2020. Namun, ia berharap, hingga PSBB berakhir tidak ada lagi penambahan kasusCovid-19. Sebab ujar Budi, pihaknya sudah terus melakukan persiapan untuk menyambut fase new normal. Di sisi lain, antisipasi penambahan kasus terus dilakukan dengan gencarnya pelaksanaan tes massal. Baca Juga:Selamatkan Nelayan yang Terombang-ambing 2 Hari di Laut Pangandaran, Inilah Profil Tim SAR Baracuda Menurut Budi, tes massal itu bertujuan untuk mengetahui peta penyebaran kasusCovid-19secara lebih detail. Semakin banyak tes dilakukan, data yang ditunjukkan akan semakin akurat. PIKIRAN RAKYAT -KasusCovid-19di KotaTasikmalayaterus bertambah. Terkahir, seorang aparatur sipil negara (ASN) terkonfirmasi positifCovid-19, sehingga menambah total terkonfirmasi positifCovid-19menjadi 50 kasus sejak pandemi terjadi. ] Dari jumlah tersebut, sebanyak 25 orang terkonfirmasi melalui tes swab dan 25 orang melalui uji cepat (rapid test)Covid-19. Wali KotaTasikmalayaBudi Budiman mengatakan, pihaknya belum mau berspekulasi mengenai kebijakan yang akan ditentukan ke depannya, mengingat saat ini penambahan kasusCovid-19masih terjadi. Baca Juga:Komisi III DPR RI Minta RKUHP dan RUU Pemasyarakatan Kembali Dibahas Hingga saat ini, KotaTasikmalayamasih menerapkan pembatasan sosial berskala besar (PSBB) tahap keempat hingga 26 Juni, dengan pendekatan adaptasi kebiasaan baru (AKB) menuju fase kenormalan baru (new normal). "Kita memang ada kasus baru satu dan itu langsung ditindaklanjuti melalui tim survailans. Sudah swab di lingkungan keluarga, kontak erat, dan sebagainya. Kita terus pantau," kata dia, Senin 22 Juni 2020. Namun, ia berharap, hingga PSBB berakhir tidak ada lagi penambahan kasusCovid-19. Sebab ujar Budi, pihaknya sudah terus melakukan persiapan untuk menyambut fase new normal. Di sisi lain, antisipasi penambahan kasus terus dilakukan dengan gencarnya pelaksanaan tes massal. Baca Juga:Selamatkan Nelayan yang Terombang-ambing 2 Hari di Laut Pangandaran, Inilah Profil Tim SAR Baracuda Menurut Budi, tes massal itu bertujuan untuk mengetahui peta penyebaran kasusCovid-19secara lebih detail. Semakin banyak tes dilakukan, data yang ditunjukkan akan semakin akurat."Jadi bisa menjadi tolok ukur kebijakan ke depannya," katanya. Kendati demikian ujar Budi, dirinya belum yakin KotaTasikmalayadapat mencapai status zona hijau, sebab untuk mencapai zona hijau, banyak penilaian yang harus dilalui. Saat ini, KotaTasikmalayamasih dilabeli sebagai daerah zona biru. Baca Juga:Pernyataan Gubernur Jabar Ridwan Kamil Soal Plkada Tuai Polemik Budi menyebutkan, faktor-faktor untuk menjadi zona hijau tak hanya dilihat dari jumlah kasus. Lebih dari itu, jumlah pasien sembuh, peningkatan pasien dalam pengawasan (PDP), dan banyaknya tes dilakukan, menjadi bahan pertimbangan suatu daerah menjadi zona hijau. Sementara di Jawa Barat (Jabar), kata dia, belum ada satu daerah pun yang mendapat predikat zona hijau. Namun, ia mengatakan, masyarakat tak perlu memikirkan mengenai zonasi itu. Menurut dia, yang paling penting adalah kesadaran kolektif untuk tetap disiplin protokol kesehatan. Ia tak ingin pandemiCovid-19terus berlarut, sementara vaksin belum ditemukan. Baca Juga:Manchester City vs Burnley: Pep Guardiola Ungkap Sosok Kunci The Citizen "Lebih baik jalani hidup dengan protokol kesehatan agar kehidupan bisa berjalan, ekonomi jalan. Tapi, kalau kita lepas kontrol, bisa bahaya. Masyarakat harus sadar untuk menerapkan protokol kesehatan," kata dia. Budi menambahkan, pihaknya juga terus menambah fasilitas kesehatan, khususnya ruang isolasi, untuk mengantisipasi gelombang keduaCovid-19. "Karena euforioa masyarakat menganggap saat ini sudah bebas. Ini yang kita khawatirkan. Jangan sampai ada gelombang kedua, sementara fasilitas kurang," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01574535/ada-asn-positif-covid-19-wali-kota-tasikmalaya-dia-tugasnya-di-luar-pulau-jawa</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Ada ASN Positif Covid-19, Wali Kota Tasikmalaya: Dia Tugasnya di Luar Pulau Jawa</t>
-        </is>
-      </c>
-      <c r="C308" s="2" t="n">
-        <v>44004.74166666667</v>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Wali KotaTasikmalaya, Budi Budiman mengakui, adanya penambahan jumlah kasus positif di wilayahnya setelah ada salah seorang Aparatur Sipil Negara (ASN) yang positifCovid-19(Corona). Ditemui di Bale Kota, Senin 22 Juni 2020 siang, Budi mengatakan, warga KotaTasikmalayayang terkonfirmasi positifCovid-19bersetatusASN. Akan tetapi ujar Budi, yang bersangkutan bertugas di luar KotaTasikmalaya. "Bahkan bertugas di luar pulau Jawa. Hanya sajaASNtersebut sedang mudik ke Kota Tasik karena dia aslinya orang Kota Tasik," ujarnya. Baca Juga:BPPTKG: Gempa Pacitan Tidak Ada Kaitan dengan Erupsi Merapi Terkait itu lanjut Budi, kasus penambahan kasus baruCovid-19sudah ditindak lanjuti oleh tim Dinkes dari tim survailent-nya. Di lingkungan rumahnya serta keluarganya juga sudah di swab test tadi pagi. "Betul memang ituASNyang tinggal di KotaTasikmalaya. Tapi yang bersangkutan dinasnya di luar pulau Jawa. Tapi bagaimanapun terus kita pantau. Karena harapan kami sampai PSBB tahap IV usai tak ada penambahan," kata Budi Budi menambahkan, pihak Gugus Tugas terus melakukan persiapan dan antisipasi dalam menuju new normal di KotaTasikmalaya. Namun euforia masyarakat hari ini yang terpantau pihaknya malah terlihat lebih bebas dan mulai tak taat protokol kesehatan. Baca Juga:Villarreal vs Sevilla: 5 Laga Terakhir Kedua Tim di La Liga, Tuan Rumah Incar Kemenangan ke-4 "Jangan sampai ada lonjakan kasus gelombang kedua. Itu yang kita khawatirkan. Ingat belum ada obatnyaCovid-19ini. Protokol kesehatan jangan diabaikan tapi terus ditaati yah," terangnya. PIKIRAN RAKYAT -Wali KotaTasikmalaya, Budi Budiman mengakui, adanya penambahan jumlah kasus positif di wilayahnya setelah ada salah seorang Aparatur Sipil Negara (ASN) yang positifCovid-19(Corona). Ditemui di Bale Kota, Senin 22 Juni 2020 siang, Budi mengatakan, warga KotaTasikmalayayang terkonfirmasi positifCovid-19bersetatusASN. Akan tetapi ujar Budi, yang bersangkutan bertugas di luar KotaTasikmalaya. "Bahkan bertugas di luar pulau Jawa. Hanya sajaASNtersebut sedang mudik ke Kota Tasik karena dia aslinya orang Kota Tasik," ujarnya. Baca Juga:BPPTKG: Gempa Pacitan Tidak Ada Kaitan dengan Erupsi Merapi Terkait itu lanjut Budi, kasus penambahan kasus baruCovid-19sudah ditindak lanjuti oleh tim Dinkes dari tim survailent-nya. Di lingkungan rumahnya serta keluarganya juga sudah di swab test tadi pagi. "Betul memang ituASNyang tinggal di KotaTasikmalaya. Tapi yang bersangkutan dinasnya di luar pulau Jawa. Tapi bagaimanapun terus kita pantau. Karena harapan kami sampai PSBB tahap IV usai tak ada penambahan," kata Budi Budi menambahkan, pihak Gugus Tugas terus melakukan persiapan dan antisipasi dalam menuju new normal di KotaTasikmalaya. Namun euforia masyarakat hari ini yang terpantau pihaknya malah terlihat lebih bebas dan mulai tak taat protokol kesehatan. Baca Juga:Villarreal vs Sevilla: 5 Laga Terakhir Kedua Tim di La Liga, Tuan Rumah Incar Kemenangan ke-4 "Jangan sampai ada lonjakan kasus gelombang kedua. Itu yang kita khawatirkan. Ingat belum ada obatnyaCovid-19ini. Protokol kesehatan jangan diabaikan tapi terus ditaati yah," terangnya.Maka dari itu tambah dia, Tim Gugus Tugas juga masih tetap terus waspada. Dinkes dan RSUD terus mempersiapkan ruang isolasi agar tak terjadi kasus baru. Swab massal dan rapid test massal terus dilakukan di lokasi keramaian. "Walaupun hasil tes swab massal di beberapa lokasi keramaian memang masih belum kita terima dari laboratorium di Dinkes Provinsi Jabar. Mungkin di sana ngantre," pungkasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01574433/diduga-stres-pemuda-bobol-toko-emas-di-kota-tasikmalaya-demi-biaya-menikah</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Diduga Stres, Pemuda Bobol Toko Emas di Kota Tasikmalaya Demi Biaya Menikah</t>
-        </is>
-      </c>
-      <c r="C309" s="2" t="n">
-        <v>44004.66388888889</v>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Fakta baru terungkap dari aksi nekat perampokan toko perhiasan yang dilakukan MNK (26) seorang pemuda yang diduga stres warga Kampung Cidoyang, Kelurahan Sirnagalih, Kecamatan IndihiangKota Tasikmalaya, Jawa Barat.Dari hasil pemeriksaan, polisi menemukan fakta baru bahwa pelaku nekat melakukanpencuriandiakibatkan ingin menikah dengan perempuan pujaan hatinya akan tetapi tidak memiliki biaya."Ada fakta baru dari aksipencurianperhiasan perak di sebuah toko di Jalan Cihideung,Kota Tasikmalaya, Minggu (21 Juni 2020). Dari pemeriksaan terbaru, ternyata tersangka nekat hendak mencuri perhiasan untuk biaya nikah," kata Kapolsek Cihideung, Kompol Setiyana, Senin, 22 Juni 2020. Baca Juga:Sambut Adaptasi Kebiasaan Baru, Pengawasan Pasar Tradisional di Indramayu DiperketatSaat itu tersangka MNK (26), warga Kecamatan Indihiang, mengambil sebuah helm lalu digunakan untuk memecahkan kaca etalase. Kemudian mengambil sejumlah perhiasan perak.Beruntung aksi MNK diketahui pelayan toko dan ia berteriak maling. Kontan tersangka dikepung warga dan akhirnya berhasil ditangkap. Sebelum diamankan petugas, tersangka sempat jadi bulan-bulanan massa.Adapaun ujar kapolsek, menurut pihak keluarga, tersangka memperlihatkan gejala stres sejak sebelum Ramadan 1441 H. "Ternyata penyebabnya tersangka ingin menikah tetapi tidak punya biaya," ujarnya. Baca Juga:Breaking News: Update Kasus Virus Corona di Indonesia per Senin 22 Juni 2020, 46.845 Orang PositifTersangka sendiri  minggat dari rumah, Sabtu, 20 Juni 2020. Karena khawatir,  keluarga sempat mencari tersangka ke berbagai tempat tetapi tidak berhasil ditemukan."Minggu sekitar pukul 09.00, tersangka berjalan di pertokoan Jalan Cihideung. Dia melihat toko perhiasan perak. Tanpa fikir panjang tersangka mengambil helm orang lain dan digunakan untuk memecahkan kaca etalase lalu mengambil sejumlah perhiasan perak," kata Setiyana.Dalam aksi tersebut ujar Setiyana, tersangka berhasil mengambil sembilan keping perhiasan perak seberat 20 gram dan saat ini dijadikan barang bukti, termasuk helm yang digunakan memecah kaca.Untuk mempertanggungjawabkan perbuatannya, tesangka dikenakan pasal 363 KUHP tentangpencuriandengan diancam hukuman maksimal 5 tahun penjara.***PIKIRAN RAKYAT -Fakta baru terungkap dari aksi nekat perampokan toko perhiasan yang dilakukan MNK (26) seorang pemuda yang diduga stres warga Kampung Cidoyang, Kelurahan Sirnagalih, Kecamatan IndihiangKota Tasikmalaya, Jawa Barat.Dari hasil pemeriksaan, polisi menemukan fakta baru bahwa pelaku nekat melakukanpencuriandiakibatkan ingin menikah dengan perempuan pujaan hatinya akan tetapi tidak memiliki biaya."Ada fakta baru dari aksipencurianperhiasan perak di sebuah toko di Jalan Cihideung,Kota Tasikmalaya, Minggu (21 Juni 2020). Dari pemeriksaan terbaru, ternyata tersangka nekat hendak mencuri perhiasan untuk biaya nikah," kata Kapolsek Cihideung, Kompol Setiyana, Senin, 22 Juni 2020. Baca Juga:Sambut Adaptasi Kebiasaan Baru, Pengawasan Pasar Tradisional di Indramayu DiperketatSaat itu tersangka MNK (26), warga Kecamatan Indihiang, mengambil sebuah helm lalu digunakan untuk memecahkan kaca etalase. Kemudian mengambil sejumlah perhiasan perak.Beruntung aksi MNK diketahui pelayan toko dan ia berteriak maling. Kontan tersangka dikepung warga dan akhirnya berhasil ditangkap. Sebelum diamankan petugas, tersangka sempat jadi bulan-bulanan massa.Adapaun ujar kapolsek, menurut pihak keluarga, tersangka memperlihatkan gejala stres sejak sebelum Ramadan 1441 H. "Ternyata penyebabnya tersangka ingin menikah tetapi tidak punya biaya," ujarnya. Baca Juga:Breaking News: Update Kasus Virus Corona di Indonesia per Senin 22 Juni 2020, 46.845 Orang PositifTersangka sendiri  minggat dari rumah, Sabtu, 20 Juni 2020. Karena khawatir,  keluarga sempat mencari tersangka ke berbagai tempat tetapi tidak berhasil ditemukan."Minggu sekitar pukul 09.00, tersangka berjalan di pertokoan Jalan Cihideung. Dia melihat toko perhiasan perak. Tanpa fikir panjang tersangka mengambil helm orang lain dan digunakan untuk memecahkan kaca etalase lalu mengambil sejumlah perhiasan perak," kata Setiyana.Dalam aksi tersebut ujar Setiyana, tersangka berhasil mengambil sembilan keping perhiasan perak seberat 20 gram dan saat ini dijadikan barang bukti, termasuk helm yang digunakan memecah kaca.Untuk mempertanggungjawabkan perbuatannya, tesangka dikenakan pasal 363 KUHP tentangpencuriandengan diancam hukuman maksimal 5 tahun penjara.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01573133/diduga-kecapean-saat-bersepeda-pensiunan-guru-di-kota-tasikmalaya-meninggal-di-tepi-jalan</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Diduga Kecapean Saat Bersepeda, Pensiunan Guru di Kota Tasikmalaya Meninggal di Tepi Jalan</t>
-        </is>
-      </c>
-      <c r="C310" s="2" t="n">
-        <v>44003.77916666667</v>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Diduga terjatuh saat bersepeda, seorang warga ditemukan tewas di pinggir jalan Khoer Afandi Kampung Ciherang wetan Rt 02 / 01 Kelurahan Ciakar Kec.Cibeureumtepat depan Gudang PusriCibeureumKotaTasikmalaya, Minggu 21 Juni 2020 sekitar pukul 08:00 pagi. Atas temuan orang meninggal dunia tersebut, anggota PolsekCibeureumlangsung mendatangi tempat kejadian dan langsung melakukan olah TKP. Berdasarkan olah TKP, diketahui korban bernama Lili Sumarli 64 tahun warga Kp.Kudang Kidul rt 02 / 03 Kelurahan Ciakar KecamatanCibeureumKotaTasikmalaya. KapolsekCibeureumAKP Suyinto mengatakan, berdasarkan informasi dari sejumlah saksi baik kerabat maupun keluarga korban, pada hari Minggu tanggal 21 Juni 2020 sekitar pukul 07.00 WIB, korban melaksanakan olahraga senam kemudian dilanjutkan batminton di sekitar tempat tinggalnya. Baca Juga:Cerita Hoaks Kiamat 21 Juni 2020, Awal Muncul, Penjelasan Astronom, hingga Akui Cuma Candaan Setelah senam dan bulutangkis kata dia, korban melanjutkan olahraga dengan bersepeda sendirian menuju arahCibeureumyang dari kampungnya berjarak kira kira mencapai 1/2 Kilo meter. Saat di TKP korban meminggirkan sepedanya dan terjatuh tidak sadarkan diri. Oleh petugas, korban dibawa Ke RS Jasa kartini dengan mengunakan kendaraan ambulans Puskesmas Kec.Cibeureumdan sesampainya di RS Kasa Kartini, korban sudah dinyatakan meninggal dunia. Setelah oleh pihak rumah sakit dinyatakan meninggal dunia, korban langsung dibawa pulang keluarganya untuk diurus dan dimakamkan sebagaimana Mestinya. Kartiman (52), Ketua Rt 01 Kp. Kudang Rt 01 / 03 Kel.Ciakar Kec.Cibeureummengatakan, korban sendiri memang dikenal sangat rajin berolahraga. Baca Juga:Satu Diantaranya Mengeluh Indra Penciuman Tak Berfungsi, Kasus Covid-19 di Banyumas Bertambah "Disela sela mengisi masa pensiun, pak Lili yang merupakan pensiunan guru memang sering mengisi kesehariannya dengan berolahraga," katanya. PIKIRAN RAKYAT -Diduga terjatuh saat bersepeda, seorang warga ditemukan tewas di pinggir jalan Khoer Afandi Kampung Ciherang wetan Rt 02 / 01 Kelurahan Ciakar Kec.Cibeureumtepat depan Gudang PusriCibeureumKotaTasikmalaya, Minggu 21 Juni 2020 sekitar pukul 08:00 pagi. Atas temuan orang meninggal dunia tersebut, anggota PolsekCibeureumlangsung mendatangi tempat kejadian dan langsung melakukan olah TKP. Berdasarkan olah TKP, diketahui korban bernama Lili Sumarli 64 tahun warga Kp.Kudang Kidul rt 02 / 03 Kelurahan Ciakar KecamatanCibeureumKotaTasikmalaya. KapolsekCibeureumAKP Suyinto mengatakan, berdasarkan informasi dari sejumlah saksi baik kerabat maupun keluarga korban, pada hari Minggu tanggal 21 Juni 2020 sekitar pukul 07.00 WIB, korban melaksanakan olahraga senam kemudian dilanjutkan batminton di sekitar tempat tinggalnya. Baca Juga:Cerita Hoaks Kiamat 21 Juni 2020, Awal Muncul, Penjelasan Astronom, hingga Akui Cuma Candaan Setelah senam dan bulutangkis kata dia, korban melanjutkan olahraga dengan bersepeda sendirian menuju arahCibeureumyang dari kampungnya berjarak kira kira mencapai 1/2 Kilo meter. Saat di TKP korban meminggirkan sepedanya dan terjatuh tidak sadarkan diri. Oleh petugas, korban dibawa Ke RS Jasa kartini dengan mengunakan kendaraan ambulans Puskesmas Kec.Cibeureumdan sesampainya di RS Kasa Kartini, korban sudah dinyatakan meninggal dunia. Setelah oleh pihak rumah sakit dinyatakan meninggal dunia, korban langsung dibawa pulang keluarganya untuk diurus dan dimakamkan sebagaimana Mestinya. Kartiman (52), Ketua Rt 01 Kp. Kudang Rt 01 / 03 Kel.Ciakar Kec.Cibeureummengatakan, korban sendiri memang dikenal sangat rajin berolahraga. Baca Juga:Satu Diantaranya Mengeluh Indra Penciuman Tak Berfungsi, Kasus Covid-19 di Banyumas Bertambah "Disela sela mengisi masa pensiun, pak Lili yang merupakan pensiunan guru memang sering mengisi kesehariannya dengan berolahraga," katanya.Bahkan kata dia, sebelum kejadian korban terlihat sehat dan bugar bahkan sempat olahraga senam dan bulu tangkis bersama warga setempat. "Kami memang tidak menyangka almarhum akan pulang secepat itu karena beliau sangat sehat," katanya. Sebelumnya masyarakat KotaTasikmalayaDihebohkan dengan seorang pria yang belum diketahui identitasnya tergeletak meninggal dunia di sebuah tempat tambal ban di Awipari, Kecamatan Cibereum KotaTasikmalaya, Minggu 21 Juni 2020 pagi Bahkan gambar pria yang tergeletak tak bernyawa tersebut sempat menghebohkan dunia maya karena foto-fotonya sempat viral baik di fb, IG maupun WA.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01568178/baznas-kota-tasikmalaya-serahkan-bantuan-pembangunan-masjid-di-kompleks-lanud-wiriadinata-cibeureum</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Baznas Kota Tasikmalaya Serahkan Bantuan Pembangunan Masjid di Kompleks Lanud Wiriadinata Cibeureum</t>
-        </is>
-      </c>
-      <c r="C311" s="2" t="n">
-        <v>44001.70486111111</v>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Badan Amal Zakat Nasional (Baznas)Kota Tasikmalayamenyerahkan  bantuan berupa uang tunai sebesar Rp 50 juta kepadaLanud WiriadinataCibeureumKota Tasikmalaya. Penyerahan bantuan tersebut secara simbolis diserahkan langsung WaliKota TasikmalayaBudi Budiman  kepada  KomandanLanud WiriadinataLetnan Kolonel Nav Ali Sudirman Pasaribu, S.H, bertempat di MakoLanud Wiriadinata, Jumat, 19 Juni 2020.Hadir dalam kegiatan tersebut KabagkesraKota TasikmalayaH. Nasihin, Kasubag Keagamaan H. Asep Budi serta dariBaznasKota TasikmalayaYudi Yusuf dan para pejabatLanud Wiriadinata. Baca Juga:Sekolah Swasta Mulai Bisa Raih Dana BOS Afirmasi dan Kinerja, Begini KriterianyaWaliKota TasikmalayaBudi Budiman mengatakan, bantuan tersebut merupakan bantuan biaya pembangunanMasjidyang akan dibangun yang berlokasi di MakoLanud Wiriadinata. “Alhamdulillah melalui dana yang ada diBaznaskita bisa membantu pembangunan masjid yang akan dibangun di komplekLanud Wiriadinataini," kata Budi.Danlanud Wiriadinata Letnan Kolonel Nav Ali Sudirman Pasaribu, S.H, mengatakan, pihaknya mengucapan terimakasih yang setinggi-tingginya, kepada WaliKota Tasikmalayabeserta jajarannya atas bantuan yang telah diberikan untuk pembangunanMasjid. Baca Juga:Jelang Berlaga Kontra Barcelona, Pelatih Sevilla Bicara soal Ancaman Lionel Messi “Semoga apa yang sudah dilakukan pada kegiatan hari ini, dapat dijadikan sebagai ladang amal ibadah bagi kita semua, Aamiin,” kata Danlanud.***PIKIRAN RAKYAT –Badan Amal Zakat Nasional (Baznas)Kota Tasikmalayamenyerahkan  bantuan berupa uang tunai sebesar Rp 50 juta kepadaLanud WiriadinataCibeureumKota Tasikmalaya. Penyerahan bantuan tersebut secara simbolis diserahkan langsung WaliKota TasikmalayaBudi Budiman  kepada  KomandanLanud WiriadinataLetnan Kolonel Nav Ali Sudirman Pasaribu, S.H, bertempat di MakoLanud Wiriadinata, Jumat, 19 Juni 2020.Hadir dalam kegiatan tersebut KabagkesraKota TasikmalayaH. Nasihin, Kasubag Keagamaan H. Asep Budi serta dariBaznasKota TasikmalayaYudi Yusuf dan para pejabatLanud Wiriadinata. Baca Juga:Sekolah Swasta Mulai Bisa Raih Dana BOS Afirmasi dan Kinerja, Begini KriterianyaWaliKota TasikmalayaBudi Budiman mengatakan, bantuan tersebut merupakan bantuan biaya pembangunanMasjidyang akan dibangun yang berlokasi di MakoLanud Wiriadinata. “Alhamdulillah melalui dana yang ada diBaznaskita bisa membantu pembangunan masjid yang akan dibangun di komplekLanud Wiriadinataini," kata Budi.Danlanud Wiriadinata Letnan Kolonel Nav Ali Sudirman Pasaribu, S.H, mengatakan, pihaknya mengucapan terimakasih yang setinggi-tingginya, kepada WaliKota Tasikmalayabeserta jajarannya atas bantuan yang telah diberikan untuk pembangunanMasjid. Baca Juga:Jelang Berlaga Kontra Barcelona, Pelatih Sevilla Bicara soal Ancaman Lionel Messi “Semoga apa yang sudah dilakukan pada kegiatan hari ini, dapat dijadikan sebagai ladang amal ibadah bagi kita semua, Aamiin,” kata Danlanud.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01567552/kampung-tangguh-kota-tasikmalaya-diresmikan-kapolresta-ketahanan-pangannya-komplet</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Kampung Tangguh Kota Tasikmalaya Diresmikan, Kapolresta: Ketahanan Pangannya Komplet</t>
-        </is>
-      </c>
-      <c r="C312" s="2" t="n">
-        <v>44000.80555555555</v>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Kapolresta Tasikmalaya, AKBP Anom Karibianto meninjau sekaligus meresmikan Kampung Tangguh di Kampung Sadalewih, Desa Puteran, Kecamatan Pagerageung, Kabupaten Tasikmalaya, Kamis, 18 Juni 2020.Turut hadir jajaran Muspika Pagerageung, para kepala desa, tokoh masyarakat, tokoh pemuda, Kelompok Wanita Tani dan masyarakat sekitar. Sebelum masuk lokasi kampung tangguh, dilakukan pemeriksaan suhu tubuh terlebih dulu, dan imbauan penerapan protokol kesehatan oleh Satgas Covid 19 kampung setempat. Baca Juga:Rutin Berolahraga hingga Pilih Lemak Sehat, Simak 3 Cara Tampil Cantik Memasuki Usia 30-anSesampainya di lokasi,Kapolresta TasikmalayaAKBP Anom Karibianto dan rombongan serta didampingi jajaran Muspika berkeliling meninjau Kampung Tangguh. Di lokasi tersebut Kapolres melihat budi daya singkong, ikan, durian dan berbagai jenis tanaman sayuran yang dikemas di polybag.Kapolresta Tasikmalaya, Anom Karibianto mengatakan, programKampung Tangguh merupakan program dari Kapolri. Baca Juga:Dinyatakan Sembuh Covid-19, 2 Anak di Batujajar Tetap Harus Jalani Isolasi Mandiri Menurutnya, atas program tersebut maka pihaknya membentuk Kampung Tangguh di seluruh kecamatan di wilayah Polresta Tasikmalaya.Sesuai dengan namanya, maka pihaknya berharap kepada masyarakat agar bisa memanfaatkan sumber daya secara maksimal seperti  memanfaatkan potensi pertanian, perkebunan, perikanan dan lainnya.Semoga ujar Anom, bersama Polri dan TNI potensi tersebut lebih bisa dikembangkan dan masyarakat produktif memanfaatkan lahan yang ada. Adapun budi daya yang dilakukan di Kampung Tangguh, diantaranya menanam bibit ikan, singkong, durian, dan lainnya yang cocok dengan lingkungannya. Baca Juga:Serupa Amerika Serikat dan Eropa Barat, Asia Selatan Catat Lonjakan Kasus Covid-19Kapolres sangat mengapresiasi dengan baik aktifitas masyarakat dalam menghadapi situasi covid-19. Semoga bisa memacu daerah lainnya untuk kembangkan potensi SDA dan SDM yang ada didaerahnya sehingga selain bisa penuhi kebutuhan sehari hari juga bisa untuk peningkatan pertumbuhan ekonomi masyarakat, ungkapnya.Sementara itu Camat Pagerageung, Uwem Sulaeman mengatakan,Kampung Tangguh Sadalewih merupakan kampung yang bisa menyediakan sendiri kebutuhan pangannya. Baca Juga:Imbas Pandemi Covid-19, Perusahaan Kesulitan Menyerap Tenaga Kerja Meski dalam masa pandemi Covid-19, namun ketersediaan berbagai pangan dan kebutuhan sehari hari tetap terjaga sehingga warga tak perlu kuatir akan kekurangan stok."Kampung Tangguh ini betul-betul komplit, selain dari ketahanan pangannya, didukung juga ternaknya seperti ternak ikan dan ayam pertelur, juga dilengkapi juga dengan segi UMKM dan produksi olahan pangan," ungkapnya.Di akhir acara AKBP Anom Karibianto menyerahkan santunan bagi jompo dan anak yatim.***PIKIRAN RAKYAT -Kapolresta Tasikmalaya, AKBP Anom Karibianto meninjau sekaligus meresmikan Kampung Tangguh di Kampung Sadalewih, Desa Puteran, Kecamatan Pagerageung, Kabupaten Tasikmalaya, Kamis, 18 Juni 2020.Turut hadir jajaran Muspika Pagerageung, para kepala desa, tokoh masyarakat, tokoh pemuda, Kelompok Wanita Tani dan masyarakat sekitar. Sebelum masuk lokasi kampung tangguh, dilakukan pemeriksaan suhu tubuh terlebih dulu, dan imbauan penerapan protokol kesehatan oleh Satgas Covid 19 kampung setempat. Baca Juga:Rutin Berolahraga hingga Pilih Lemak Sehat, Simak 3 Cara Tampil Cantik Memasuki Usia 30-anSesampainya di lokasi,Kapolresta TasikmalayaAKBP Anom Karibianto dan rombongan serta didampingi jajaran Muspika berkeliling meninjau Kampung Tangguh. Di lokasi tersebut Kapolres melihat budi daya singkong, ikan, durian dan berbagai jenis tanaman sayuran yang dikemas di polybag.Kapolresta Tasikmalaya, Anom Karibianto mengatakan, programKampung Tangguh merupakan program dari Kapolri. Baca Juga:Dinyatakan Sembuh Covid-19, 2 Anak di Batujajar Tetap Harus Jalani Isolasi Mandiri Menurutnya, atas program tersebut maka pihaknya membentuk Kampung Tangguh di seluruh kecamatan di wilayah Polresta Tasikmalaya.Sesuai dengan namanya, maka pihaknya berharap kepada masyarakat agar bisa memanfaatkan sumber daya secara maksimal seperti  memanfaatkan potensi pertanian, perkebunan, perikanan dan lainnya.Semoga ujar Anom, bersama Polri dan TNI potensi tersebut lebih bisa dikembangkan dan masyarakat produktif memanfaatkan lahan yang ada. Adapun budi daya yang dilakukan di Kampung Tangguh, diantaranya menanam bibit ikan, singkong, durian, dan lainnya yang cocok dengan lingkungannya. Baca Juga:Serupa Amerika Serikat dan Eropa Barat, Asia Selatan Catat Lonjakan Kasus Covid-19Kapolres sangat mengapresiasi dengan baik aktifitas masyarakat dalam menghadapi situasi covid-19. Semoga bisa memacu daerah lainnya untuk kembangkan potensi SDA dan SDM yang ada didaerahnya sehingga selain bisa penuhi kebutuhan sehari hari juga bisa untuk peningkatan pertumbuhan ekonomi masyarakat, ungkapnya.Sementara itu Camat Pagerageung, Uwem Sulaeman mengatakan,Kampung Tangguh Sadalewih merupakan kampung yang bisa menyediakan sendiri kebutuhan pangannya. Baca Juga:Imbas Pandemi Covid-19, Perusahaan Kesulitan Menyerap Tenaga Kerja Meski dalam masa pandemi Covid-19, namun ketersediaan berbagai pangan dan kebutuhan sehari hari tetap terjaga sehingga warga tak perlu kuatir akan kekurangan stok."Kampung Tangguh ini betul-betul komplit, selain dari ketahanan pangannya, didukung juga ternaknya seperti ternak ikan dan ayam pertelur, juga dilengkapi juga dengan segi UMKM dan produksi olahan pangan," ungkapnya.Di akhir acara AKBP Anom Karibianto menyerahkan santunan bagi jompo dan anak yatim.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01567299/direncanakan-sejak-20-tahun-lalu-pemkot-tasikmalaya-siapkan-lahan-untuk-relokasi-lapas</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Direncanakan Sejak 20 Tahun Lalu, Pemkot Tasikmalaya Siapkan Lahan untuk Relokasi Lapas</t>
-        </is>
-      </c>
-      <c r="C313" s="2" t="n">
-        <v>44000.57916666667</v>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Pemerintah Kota (Pemkot)Tasikmalayaakan menyediakan kurang lebih tiga hektare lahan untukrelokasiLembaga Pemasyarakatan Kelas II BTasikmalaya. Wali KotaTasikmalaya, Budi Budiman mengatakan, penyediaan lahan rencanarelokasilapas sudah sejak lama diwacanakan pemerintah KotaTasikmalayasejak tahun 2000 lalu. Sehingga kata dia, wacanarelokasilapas kelas IIBTasikmalayasudah dari 20 tahun lalu. "Sebetulnya sudah kami siapkan untuk tempatrelokasisekitar tiga hetare," kata Budi Kamis 18 Juni 2020. Baca Juga:Gagal Tekan Kematian, Penelitian Hidroksiklorokuin Sebagai Obat Corona Dihentikan Budi menerangkan, lapasTasikmalayamemang sejak lama sudah over kapasitas. Bahkan kapasitanya dirancang hanya menampung 88 orang warga binaan kini menampung 300 lebih warga binaan. "Artinya itu sudah 4 kali lipat dari kapasitas, sehingga sudah tidak manusiawi," terangnya. Sebetulnya, kata Budi, pemerintah KotaTasikmalayapernah mengusulkan ke Kementerian Hukum dan HAM Kanwil Provinsi Jawa Barat melalui lapasTasikmalayamengenairelokasilapas tersebut. Baca Juga:Alami Gelombang Kedua Covid-19, Beijing Batalkan 1.255 Jadwal Penerbangan di 2 Bandara Internasional "Bahkan kami sudah bertemu dengan kepala lapas dan meresponnya," bebernya. PIKIRAN RAKYAT -Pemerintah Kota (Pemkot)Tasikmalayaakan menyediakan kurang lebih tiga hektare lahan untukrelokasiLembaga Pemasyarakatan Kelas II BTasikmalaya. Wali KotaTasikmalaya, Budi Budiman mengatakan, penyediaan lahan rencanarelokasilapas sudah sejak lama diwacanakan pemerintah KotaTasikmalayasejak tahun 2000 lalu. Sehingga kata dia, wacanarelokasilapas kelas IIBTasikmalayasudah dari 20 tahun lalu. "Sebetulnya sudah kami siapkan untuk tempatrelokasisekitar tiga hetare," kata Budi Kamis 18 Juni 2020. Baca Juga:Gagal Tekan Kematian, Penelitian Hidroksiklorokuin Sebagai Obat Corona Dihentikan Budi menerangkan, lapasTasikmalayamemang sejak lama sudah over kapasitas. Bahkan kapasitanya dirancang hanya menampung 88 orang warga binaan kini menampung 300 lebih warga binaan. "Artinya itu sudah 4 kali lipat dari kapasitas, sehingga sudah tidak manusiawi," terangnya. Sebetulnya, kata Budi, pemerintah KotaTasikmalayapernah mengusulkan ke Kementerian Hukum dan HAM Kanwil Provinsi Jawa Barat melalui lapasTasikmalayamengenairelokasilapas tersebut. Baca Juga:Alami Gelombang Kedua Covid-19, Beijing Batalkan 1.255 Jadwal Penerbangan di 2 Bandara Internasional "Bahkan kami sudah bertemu dengan kepala lapas dan meresponnya," bebernya.Dia menambahkan,relokasilapas itu tidak mudah. Namuan Pemeritah akan terus berjuang termasuk membahasnya dengan DPRD untuk masalah anggarannya. "Apalagi rencana kedepan, lahan bekas lapas yang sekarang dipakai akan digunakan untuk kepentingan masyarakat," tambahnya. Baca Juga:Bima Arya Telusuri Faktor Penyebab RS Rujukan Bogor Jadi Sumber Penularan Virus Corona Dalam halrelokasilanjut Budi, pemerintah hanya menyiapkan lahan saja untukrelokasilapas tersebut, dan itu sudah disiapkannya seluas tiga hektare. "Kita cari lahan yang sesuai dengan tata ruang KotaTasikmalaya. Tentu saja yang tidak jauh dari Polres, Kejasaan dan Pengadilan. Lahan itu dengan perhitungan nanti lahan bekas lapas menjadi milik pemerintah Kota," jelasnya. Sedangkan lahan bekas lapas yang sekarang dipakai akan digunakan untuk kepentingan masyarakat salahsatunya tempat parkir. Baca Juga:Usai Bentrokan Berdarah Tujuh Jam, Citra Satelit Ungkap Kondisi di Perbatasan Tiongkok dan India "Intinya untuk pentingan umum, tidak untuk pertokoan dan perkantoran. Yang lebih cocok kayanya tempat parkir karena di pusat kota belum memiliki tempat parkir," tukasnya. Kesimpulannya, tandas dia, dalam halrelokasilapas, Pemerintah Kota akan segera menyiapkan lahan. "Agar warga binaan mendapatkan tempat pembinaan yang layak untuk menuju kehidupan lebih baik. Itu akan kami prioritaskan," tandasnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01566852/gugus-tugas-covid-19-lakukan-tes-swab-massal-lagi-di-kota-tasikmalaya-untuk-antisipasi-gelombang-2</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Gugus Tugas Covid-19 Lakukan Tes Swab Massal Lagi di Kota Tasikmalaya untuk Antisipasi Gelombang 2</t>
-        </is>
-      </c>
-      <c r="C314" s="2" t="n">
-        <v>43999.84583333333</v>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalayasaat ini terus melakukan tes swab massal. Tes swab massal ini dilakukan kepada masyarakat yang khususnya berada di tempat-tempat keramaian. Hal ini sengaja dilakukan sebagai antisipasi gelombang kedua penangananCovid-19diKota Tasikmalaya. Baca Juga:Hasil Survei BI, Masyarakat Jabar Kian Pesimistis akan Kondisi Ekonomi Gencarnya tes massal ini, baik itutes swabmaupun uji cepat (rapid test) yang dilakukan di sejumlah pusat keramaian ini, merupakan langkah untuk mengantisipasi gelombang keduaCovid-19. Hal ini dijelaskan langsung oleh Ketua Tim Gugus TugasCovid-19yang juga sebagai WaliKota Tasikmalaya, Budi budiman. Budi juga menjelaskan bahwa dirinya tak ingin kasusCovid-19diKota Tasikmalayakembali meningkat. Baca Juga:5 Fakta Bentrokan India-Tiongkok, Gunakan Pukulan Tangga Sampai Sebabkan 20 Orang Tewas "Kalau terjadi (gelombang kedua), nanti ada karantina lagi, semua ditutup lagi, ekonomi anjlok lagi. Itu jangan sampai terjadi," kata Budi pada Rabu, 17 Juni 2020. PIKIRAN RAKYAT- Gugus Tugas Percepatan PenangananCovid-19Kota Tasikmalayasaat ini terus melakukan tes swab massal. Tes swab massal ini dilakukan kepada masyarakat yang khususnya berada di tempat-tempat keramaian. Hal ini sengaja dilakukan sebagai antisipasi gelombang kedua penangananCovid-19diKota Tasikmalaya. Baca Juga:Hasil Survei BI, Masyarakat Jabar Kian Pesimistis akan Kondisi Ekonomi Gencarnya tes massal ini, baik itutes swabmaupun uji cepat (rapid test) yang dilakukan di sejumlah pusat keramaian ini, merupakan langkah untuk mengantisipasi gelombang keduaCovid-19. Hal ini dijelaskan langsung oleh Ketua Tim Gugus TugasCovid-19yang juga sebagai WaliKota Tasikmalaya, Budi budiman. Budi juga menjelaskan bahwa dirinya tak ingin kasusCovid-19diKota Tasikmalayakembali meningkat. Baca Juga:5 Fakta Bentrokan India-Tiongkok, Gunakan Pukulan Tangga Sampai Sebabkan 20 Orang Tewas "Kalau terjadi (gelombang kedua), nanti ada karantina lagi, semua ditutup lagi, ekonomi anjlok lagi. Itu jangan sampai terjadi," kata Budi pada Rabu, 17 Juni 2020.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Antisipasi Gelombang Kedua Covid-19, Tes Swab Massal di Tasikmalaya Terus Digencarkan" Menurut dia, sejak terjadi pandemiCovid-19, PemerintahKota Tasikmalayatelah mengeluarkan anggaran sekira Rp 66 miliar untuk penanganan. Dana itu digunakan untuk membeli ketersedian alat pelindung diri (APD) hingga jaring pengaman sosial untuk warga yang terdampak pandemiCovid-19. Ia mengatakan, jika terjadi gelombang keduaCovid-19, Pemkot Tasikmalaya akan kesulitan melakukan penanganan lanjutan. Sebab, anggaran yang ada sangat terbatas. Baca Juga:Ojek Online Boleh Kembali Angkut Penumpang, Syarat di Zona Kuning dan Hijau Harus Terpenuhi "Kalau tidak selesai, kita bingung mengatasinya bagaimana lagi," kata dia. Karena itu kata Budi, pihaknya meminta gotong royong semua pihak untuk tetap menerapkan protokol kesehatan selama vaksinCovid-19belum ditemukan. Menurut dia, hal itu untuk kepentingan semua agar pandemiCovid-19dapat cepat teratasi. "Semua juga sudah lelah menghadapi pandemi ini," kata dia. Baca Juga:Tolak Tawaran Main Film, Kartika Putri Ungkap Pesan dari Habib Usman Tes swab massal diKota Tasikmalayaditargetkan dapat dilakukan untuk 1.000 warga. Target itu akan diselesaikan sebelum Juni berakhir. "Dinas Kesehatan yang menentukan sampel tempatnya. Disesuaikan dengan zona berisiko. Insyaallah Juni sudah selesai," kata dia.Gugus Tugas Percepatan PenangananCovid-19kembali melakukantes swabmassal di pusat perbelanjaan Yogya Tasikmalaya pada Rabu, 17 Juni 2020. Baca Juga:Beijing Batalkan Ribuan Penerbangan dan Menutup Kembali Sekolah saat Jumlah Kasus Covid-19 Melonjak Sebelumnya, tes swab massal juga dilaksanakan di pusat perbanjaan Asia Toserba pada Selasa kemarin. Hingga saat ini, tes swab yang dilakukan diKota Tasikmalayasudah menyasar kepada sekira 300 orang.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01566019/kota-tasikmalaya-berpotensi-klb-akibat-penyakit-dbd-yang-sudah-mendekati-angka-500-kasus</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Kota Tasikmalaya Berpotensi KLB akibat Penyakit DBD yang Sudah Mendekati Angka 500 Kasus</t>
-        </is>
-      </c>
-      <c r="C315" s="2" t="n">
-        <v>43998.7625</v>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Belum berakhir pandemiCovid-19, kiniKota Tasikmalayaberpotensi mengalami Kejadian Luar Biasa (KLB) lainnya. Diketahui,KLByang mengancamKota Tasikmalayayaitu terkait penyakit Deman Berdarah Dengue (DBD). Hal ini diketahui karenaKota Tasikmalayatelah mengalami peningkatan jumlah kasusDBDyang cukup signifikan. Baca Juga:Bantuan Covid-19 dari Asosiasi Pengusaha Kawasan Berikat Diserahkan ke BNPB Berdasarkan data yang dilaporkan oleh Dinas KesehatanKota Tasikmalaya, diketahui sejak bulan Januari 2020 hingga Juni 2020 kasusDBDtelah mengalami jumlah kenaikan. Jumlah kenaikan kasusDBDdiKota Tasikmalayaini bahkan sudah mendekati angka 500 kasus. Dari jumlah tersebut, 11 kasusDBDKota Tasikmalayadi antaranya telah menyebabkan meninggal dunia. Baca Juga:Sudah Maafkan Kasus Serangan Air Keras, Novel Baswedan Minta Masyarakat Tak Hanya Diam Kepala DinasKota Tasikmalaya, Uus Supangat membenarkan meningkatnya kasusDBDdiKota Tasikmalaya. PIKIRAN RAKYAT- Belum berakhir pandemiCovid-19, kiniKota Tasikmalayaberpotensi mengalami Kejadian Luar Biasa (KLB) lainnya. Diketahui,KLByang mengancamKota Tasikmalayayaitu terkait penyakit Deman Berdarah Dengue (DBD). Hal ini diketahui karenaKota Tasikmalayatelah mengalami peningkatan jumlah kasusDBDyang cukup signifikan. Baca Juga:Bantuan Covid-19 dari Asosiasi Pengusaha Kawasan Berikat Diserahkan ke BNPB Berdasarkan data yang dilaporkan oleh Dinas KesehatanKota Tasikmalaya, diketahui sejak bulan Januari 2020 hingga Juni 2020 kasusDBDtelah mengalami jumlah kenaikan. Jumlah kenaikan kasusDBDdiKota Tasikmalayaini bahkan sudah mendekati angka 500 kasus. Dari jumlah tersebut, 11 kasusDBDKota Tasikmalayadi antaranya telah menyebabkan meninggal dunia. Baca Juga:Sudah Maafkan Kasus Serangan Air Keras, Novel Baswedan Minta Masyarakat Tak Hanya Diam Kepala DinasKota Tasikmalaya, Uus Supangat membenarkan meningkatnya kasusDBDdiKota Tasikmalaya.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Kasus Meningkat, Kota Tasikmalaya Sangat Berpotensi KLB Demam Berdarah Dengue" Bahkan ujar Uus, atas tingginya peningkatan kasusDBDtersebut, dirinya menyebutkanKota Tasikmalayasangat berpotensiKLBDBD. Dikatakan Uus, dibanding dengan waktu yang sama tahun sebelumnya, jumlah kasusDBDtahun ini lebih tinggi atau meningkat lebih dua kali lipat termasuk jumlah kasus kematiannya. Baca Juga:Tarif Angkot Cimahi Naik Imbas Wabah Corona, Dishub: Pendapatan Berkurang, Operasional Membengkak Uus juga mengatakan, dari kasus tersebut, jumlahDBDyang menyerang anak-anak cukup tinggi, yaitu antara 30 hingga 35 persen. "Secara umum kasusDBDini menyerang semua usia, tapi untuk kali ini anak anak yang kena cukup banyak," katanya. Terkait itu ujar Uus, pihaknya terus menghimbau agar warga tetap waspada terhadap serangan nyamukAedes Aegyptiapalagi di masa pandemiCovid-19yang terjadi selama ini. Baca Juga:Pertikaian 2 Desa Berujung Saling Serang dan Penjarahan, Brimob Bersenjata Lengkap Perketat Keamanan Bahkan ujar dia, masyarakat diminta melakukan PHBS terutama memanfaatkan waktu selama berasa di rumah untuk mencegah penyebaran jentik nyamuk dengan cara membersihkan lingkungannya. “Kami meminta agar masyarakat harus selalu membersihkan lingkungan, jika ada genangan air dan tetap harus menguras bak mandi agar jentik nyamuk tidak tumbuh menjadi dewasa."Karena, serangan nyamuk tersebut tidak kenal batas umur dan yang meninggal dunia paling banyak usia balita dan jika kesadaran tersebut belum dilakukan serangan nyamuk berpotensi bisa terus terjadi,” imbaunya.***(Asep M Saefuloh/Pikiranrakyat-Tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01400675/pedagang-dan-pengunjung-pasar-cikurubuk-kota-tasikmalaya-ikuti-rapid-test</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Pedagang dan Pengunjung Pasar Cikurubuk Kota Tasikmalaya Ikuti Rapid Test</t>
-        </is>
-      </c>
-      <c r="C316" s="2" t="n">
-        <v>43994.64722222222</v>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Guna memutus dan mencegah penyebaranCovid-19, Tim Gugus Tugas PenangananCovid-19Kota Tasikmalayamenggelar tes rapid diPasar Cikurubuk, Jumat, 12 Juni 2020. Tes yang dilaksanakan oleh Dinas Kesehatan tersebut melibatkan tenaga medis dari Puskesmas Sambongpari dan PSC 119Kota Tasikmalaya. Sebanyak 100 orang yang terdiri dari pedagang dan pengunjung ikut serta dalam tes itu. Dalam keterangan tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Wali Kota Budi Budiman menyatakan, kegiatan tersebut bertujuan guna memotong mata rantai penyebaran corona di wilayahnya. Budi berharap, tes itu memperoleh hasil negatif . Baca Juga:Khawatir Hadapi Epidemi Kemiskinan Pendidikan, Inggris Siapkan Protokol Belajar Baru Ia juga berpesan agar warga menjalankan protokol kesehatan dengan menggunakan masker, menjaga jarak dan mencuci tangan menggunakan sabun serta selalu membawa hand sanitizer. Sementara itu, Sofiati, pedagang Cikurubuk mengapresiasi pelaksanaan tes itu. Menurutnya, tes rapid tersebut membantu para pedagang yang beraktivitas di pasar. "Saya merasa tenang telah dirapid tes gratis dan semoga pedagang yang ada di pasar dapat mengikuti tes karena ini untuk kesehatan kita semua," ucapnya. Baca Juga:Kampanyekan Kesehatan Mental, Final Piala FA akan Diberi Nama 'Heads Up FA Cup Final' Sebelumnya, tes swab massal 100 orang di Kampung Buninagara, Kelurahan Nagarasari, Kecamatan Cipedes juga telah dilakukan beberapa waktu lalu. Tes bermula karena adanya satu warga Buninagara yang kedapatan positif corona saat bekerja di Ciamis. Respon cepat diberikan dengann pelaksanaan tes swab massal di kelurahan tersebut yang memiliki  riwayat kontak dengan penderita. "Mudah-mudahan semua warga yang mengikuti swab massal hasilnya negatif," kata WaliKota TasikmalayaBudi Budiman saat itu.PIKIRAN RAKYAT –Guna memutus dan mencegah penyebaranCovid-19, Tim Gugus Tugas PenangananCovid-19Kota Tasikmalayamenggelar tes rapid diPasar Cikurubuk, Jumat, 12 Juni 2020. Tes yang dilaksanakan oleh Dinas Kesehatan tersebut melibatkan tenaga medis dari Puskesmas Sambongpari dan PSC 119Kota Tasikmalaya. Sebanyak 100 orang yang terdiri dari pedagang dan pengunjung ikut serta dalam tes itu. Dalam keterangan tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Wali Kota Budi Budiman menyatakan, kegiatan tersebut bertujuan guna memotong mata rantai penyebaran corona di wilayahnya. Budi berharap, tes itu memperoleh hasil negatif . Baca Juga:Khawatir Hadapi Epidemi Kemiskinan Pendidikan, Inggris Siapkan Protokol Belajar Baru Ia juga berpesan agar warga menjalankan protokol kesehatan dengan menggunakan masker, menjaga jarak dan mencuci tangan menggunakan sabun serta selalu membawa hand sanitizer. Sementara itu, Sofiati, pedagang Cikurubuk mengapresiasi pelaksanaan tes itu. Menurutnya, tes rapid tersebut membantu para pedagang yang beraktivitas di pasar. "Saya merasa tenang telah dirapid tes gratis dan semoga pedagang yang ada di pasar dapat mengikuti tes karena ini untuk kesehatan kita semua," ucapnya. Baca Juga:Kampanyekan Kesehatan Mental, Final Piala FA akan Diberi Nama 'Heads Up FA Cup Final' Sebelumnya, tes swab massal 100 orang di Kampung Buninagara, Kelurahan Nagarasari, Kecamatan Cipedes juga telah dilakukan beberapa waktu lalu. Tes bermula karena adanya satu warga Buninagara yang kedapatan positif corona saat bekerja di Ciamis. Respon cepat diberikan dengann pelaksanaan tes swab massal di kelurahan tersebut yang memiliki  riwayat kontak dengan penderita. "Mudah-mudahan semua warga yang mengikuti swab massal hasilnya negatif," kata WaliKota TasikmalayaBudi Budiman saat itu.Hingga Jumat), jumlah kasusCovid-19diKota Tasikmalayamencapai 49 kasus sebagaimana tertera dalam data Instagram Diskominfo. Baca Juga:Di Kabupaten Cirebon, Jumlah Kematian DBD Jauh Melampaui Covid-19 Dari 49 kasus, 24 terkonfirmasi positif melalui tes PCR/swab dan 25 tes rapid. Untuk 24 tes PCR, 18 telah  sembuh, 4 aktif (terjangkit) dan 2 meninggal. Sedangkan 25 tes rapid, 24 negatif (tak terjangkit), 0 proses dan 1 meninggal. Sementara Pasien Dalam Pengawasan (PDP) 44 kasus dengan 35 selesai pengawasan, 4 dalam pengawasan dan 5 meninggal. Orang Dalam Pemantauan (ODP) 1279 kasus dengan 1134 selesai pemantauan, 145 dalam pemantauan. Orang Tanpa Gejala (OTG) 631 kasus dengan 563 selesai pemantauan dan 68 dalam pemantauan. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01400089/mata-air-unik-di-kota-tasikmalaya-rasa-asin-dan-benda-mengapung-di-muka-jadi-campuran-makanan</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Mata Air Unik di Kota Tasikmalaya, Rasa Asin dan Benda Mengapung di Muka Jadi Campuran Makanan</t>
-        </is>
-      </c>
-      <c r="C317" s="2" t="n">
-        <v>43994.33541666667</v>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Kawalu, wilayah di selatanKota Tasikmalayatersebut punya sumber mata air unik bernama Air Tanjung. Meskipun jauh dari laut, sumber air di Desa Tanjung, Kecamatan Kawalu itu unik karena mirip air garam. Ya, dengan rasa agak asin dengan serbuk atau kristal putih mengapung di permukaannya, Air Tanjung juga dipakai warga untuk sebagai bahan campuran pembuatan ketupat, lontong, dan gorengan. Baca Juga:Usai Cabut Kebijakan Lockdown, 3 Negara Bagian di AS Hadapi Gelombang Kedua Covid-19 Lebih dari itu, sumber air tersebut menjadi bukti lain dugaan Kawalu pernah digenangi laut dangkal jutaan tahun lalu. Pikiran-Rakyat.com menelusurinya. Dua tangki air atau toren berwarna oranye dan biru tersebut tak juga sepi dari kunjungan sejumlah warga meskipun terik matahari begitu terasa di Kampung Cukang, Desa Tanjung, Kamis, 11 Juni 2020. Baca Juga:Dorong Kesejahteraan dan Pembinaan Atlet, Komisi X Godok Usulan Revisi UU SKN Selesai satu warga selesai mengisi jeriken dari air dari dalam tangki, warga lain datang melakukan hal serupa. Iman Hermansyah, 40 tahun, Ketua RT 03 Kampung Cukang dengan telaten mengisikan berbagai jeriken yang mampir tersebut. Di dekatnya , sejumlah kolam yang memasok air ke dua tangki itu jelas terlihat. Beberapa tempat penampungan air tersebut tertutup genteng dan plastik.PIKIRAN RAKYAT –Kawalu, wilayah di selatanKota Tasikmalayatersebut punya sumber mata air unik bernama Air Tanjung. Meskipun jauh dari laut, sumber air di Desa Tanjung, Kecamatan Kawalu itu unik karena mirip air garam. Ya, dengan rasa agak asin dengan serbuk atau kristal putih mengapung di permukaannya, Air Tanjung juga dipakai warga untuk sebagai bahan campuran pembuatan ketupat, lontong, dan gorengan. Baca Juga:Usai Cabut Kebijakan Lockdown, 3 Negara Bagian di AS Hadapi Gelombang Kedua Covid-19 Lebih dari itu, sumber air tersebut menjadi bukti lain dugaan Kawalu pernah digenangi laut dangkal jutaan tahun lalu. Pikiran-Rakyat.com menelusurinya. Dua tangki air atau toren berwarna oranye dan biru tersebut tak juga sepi dari kunjungan sejumlah warga meskipun terik matahari begitu terasa di Kampung Cukang, Desa Tanjung, Kamis, 11 Juni 2020. Baca Juga:Dorong Kesejahteraan dan Pembinaan Atlet, Komisi X Godok Usulan Revisi UU SKN Selesai satu warga selesai mengisi jeriken dari air dari dalam tangki, warga lain datang melakukan hal serupa. Iman Hermansyah, 40 tahun, Ketua RT 03 Kampung Cukang dengan telaten mengisikan berbagai jeriken yang mampir tersebut. Di dekatnya , sejumlah kolam yang memasok air ke dua tangki itu jelas terlihat. Beberapa tempat penampungan air tersebut tertutup genteng dan plastik.Saat pandangan mata menyapu air di dalam kolam, kristal-kristal putih mengapung di permukaan airnya. Baca Juga:Saat Lockdown, Angka Kematian Akibat Kecelakaan di Malaysia Lebih Tinggi Dibanding Covid-19 Gelembung-gelembung air dari dasar bak pun tampak. Iman menyebut sumber air tersebut bernama Air Tanjung. Terdapat 5 sumber/mata air itu dengan 4 bak/kolam penampungannya. ‎ Pengelolaannya, tutur Iman, dilakukan oleh Karang Taruna Cukang. Uang hasil penjualan air pun masuk ke kas Desa Tanjung. Air Tanjung dikenal warga Tasikmalaya karena menjadi campuran guna membuat kupat, lontong dan gorengan. Iman menuturkan, kupat dan lontong yang pembuatannya menggunakan air tersebut lebih tahan lama. Baca Juga:AS Tuduh Tiongkok Paksa Inggris Tetap Pakai 5G Huawei "Tiga hari tidak basi," kata Iman saat ditemui di lokasi itu, Kamis. Jika jago mengolahnya, dua makanan khas tersebut bahkan bisa bertahan hingga seminggu. Untuk pembuatan kupat, warga cukup membersihkan beras dan menggodoknya dengan Air Tanjung selama tiga jam. Sedangkan lepeuet dengan diseupan atau diuapkan dengan air rebusannya. Air tersebut juga bisa dicampurkan dengan adonan terigu untuk pembuatan gorengan. "Jadi renyah rasanya," kata Iman. Para pembeli merupakan penjual kupat tahu dan gorengan di Tasikmalaya. Baca Juga:Putus Cinta karena Ikuti Amanah Almarhum Ayahnya, Nikita Willy: Kalau Ketemu Jodoh Lagsung Menikah"Malah ada yang suka membeli dengan membawa mobil, dalam seminggu dia membawa 80 jeriken," ucapnya.‎ Untuk jeriken dengan ukuran 25 liter, harga Air Tanjung mencapai Rp 5 ribu. Namun, harga itu akan naik saat Ramadan hingga Rp 15-20 ribu. Soalnya, banyak warga yang membeli untuk pembuatan ketupat Lebaran. Tingginya minat warga membuat Air Tanjung yang ditampung dalam kolam tandas. Saat menjelang Lebaran, pembeli bahkan berasal dari luar Tasikmalaya seperti Ciamis, Garut hingga Bogor. Baca Juga:CATL di Ningde Tiongkok Siap Produksi Baterai Mobil Listrik yang Tahan hingga 16 Tahun Dalam cerita warga, lanjut Iman, sumber air itu telah ditemukan sejak ratusan tahun lalu. Awalnya, warga mengetahuinya karena periaku sejumlah hewan yang mendatangi sumber air tersebut di musim kemarau untuk minum. Waktu itu, kawasan Cukang masih berupa hutan. Selain di Cukang, tutur Iman, mata air serupa berada di perbatasan Kampung Cukang dan Tanjung serta Cikedewul. Namun, Air Tanjung di Cukang lebih tinggi kadar asinnya. Dalam penelitian oleh Pemkot Tasikmalaya dan ITB, menurut Iman, air tersebut disebut merupakan pengawet alami. Lalu bagaimana musabab terjadinya Air Tanjung tersebut. Peneliti Geologi asal Tasikmalaya Irev Jundulloh berpendapat air tersebut merupakan air bikarbonat, yakni air yang terjebak di dalam pori batuan ketika terendapkan. Rasanya menjadi asin kemungkinan karena air lautlah yang terjebak pori batuan pada umur jutaan tahun lalu. "Mengingat di daerah Kawalu juga ada batu kapur (tepatnya di daerah Urug) yang memang batuan tersebut terbentuk di laut," kata Irev. Baca Juga:Bos Kia : Covid-19 Akan Mengubah Desain Mobil di Masa Depan Munculnya gelembung-gelembung gas pada sumber air berasal dari fragmen organik yang sangat umum dijumpai pada batuan yang terbentuk di rawa. "Jadi, air asin Tanjung Kawalu merembes melalui kantung-kantung gas biogenik," ucapnya.Bukti Kawalu sempat tergenang laut di masa lalu juga terkuak saat "PR" menelusuri Gua Sarongge di Kampung Nanjungsari, Kelurahan Urug beberapa waktu lalu. Fosil kerang bisa terlihat menempel di langit-langit gua. Fosil kerang serta terumbu karangjuga bisa didapati di Sungai Cibangbay di dekat Sarongge. Berbagai bukti itu semakin mempertegas Kawalu menyimpan jejak Tasikmalaya purba.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01398604/demi-tingkatkan-kesadaran-masyarakat-tim-gugus-tugas-covid-19-kota-tasikmalaya-buat-video-klip</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Demi Tingkatkan Kesadaran Masyarakat, Tim Gugus Tugas Covid-19 Kota Tasikmalaya Buat Video Klip</t>
-        </is>
-      </c>
-      <c r="C318" s="2" t="n">
-        <v>43992.31319444445</v>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Tim Gugus Tugas Penanganan dan PencegahanCovid-19Kota Tasikmalaya, terus bekerja keras dengan berbagai cara dalam melakukan penanganan virus corona. Hal ini dilakukannya agar masyarakat terus meningkatkan kesadarannya dalam melaksanakan protokol kesehatanCovid-19. Kali ini, Tim Gugus TugasCovid-19telah melakukan cara yang cukup menarik untuk penangananCovid-19terhadap kesadaran masyarakat. Baca Juga:Musim Tanam Padi di Tengah Pandemi Covid-19, Petani Gunakan Masker di Sawah Cara yang menarik ini yaitu membuatvideo klipmusik yang berisi tentang ajakan untuk meningkatkan kesadaran masyarakat dalam mematuhi aturan sesuai protokol kesehatan Covid 19 dalam menghadapi fase new normal atau Adaptasi Kebiasaan Baru (AKB). WaliKota Tasikmalaya, Budi Budiman, memimpin langsung tim Gugus TugasCovid-19dalamvideo klipmusik tersebut. Didampingi pula oleh Kapolres Tasikmalaya Kota, AKBP Anom Karibianto, Dandim 0612/Tasikmalaya, Letkol Inf Imam Wicaksana dan unsur muspida lainnya, bergaya layaknya anak band namun tetap berseragam sesuai dengan institusinya masing-masing. Baca Juga:Update Virus Corona di Dunia, Rabu 10 Juni 2020: Inggris Catat Lagi Lonjakan Kasus Baru Covid-19 Adapun dalamvideo kliptersebut, tim gugus  tugas penangananCovid-19mengedukasi masyarakat dalam memutus mata rantai virus corona, termasuk memperlihatkan kegiatan tentang kegiatan gugus tugas. PIKIRAN RAKYAT -Tim Gugus Tugas Penanganan dan PencegahanCovid-19Kota Tasikmalaya, terus bekerja keras dengan berbagai cara dalam melakukan penanganan virus corona. Hal ini dilakukannya agar masyarakat terus meningkatkan kesadarannya dalam melaksanakan protokol kesehatanCovid-19. Kali ini, Tim Gugus TugasCovid-19telah melakukan cara yang cukup menarik untuk penangananCovid-19terhadap kesadaran masyarakat. Baca Juga:Musim Tanam Padi di Tengah Pandemi Covid-19, Petani Gunakan Masker di Sawah Cara yang menarik ini yaitu membuatvideo klipmusik yang berisi tentang ajakan untuk meningkatkan kesadaran masyarakat dalam mematuhi aturan sesuai protokol kesehatan Covid 19 dalam menghadapi fase new normal atau Adaptasi Kebiasaan Baru (AKB). WaliKota Tasikmalaya, Budi Budiman, memimpin langsung tim Gugus TugasCovid-19dalamvideo klipmusik tersebut. Didampingi pula oleh Kapolres Tasikmalaya Kota, AKBP Anom Karibianto, Dandim 0612/Tasikmalaya, Letkol Inf Imam Wicaksana dan unsur muspida lainnya, bergaya layaknya anak band namun tetap berseragam sesuai dengan institusinya masing-masing. Baca Juga:Update Virus Corona di Dunia, Rabu 10 Juni 2020: Inggris Catat Lagi Lonjakan Kasus Baru Covid-19 Adapun dalamvideo kliptersebut, tim gugus  tugas penangananCovid-19mengedukasi masyarakat dalam memutus mata rantai virus corona, termasuk memperlihatkan kegiatan tentang kegiatan gugus tugas.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Tim Gugus Tugas Covid-19 Kota Tasikmalaya Bikin Video Klip Soal Bahaya Virus Corona" "Lokasi pengambilanvideo klipsendiri  dilakukan di halaman Bale kota Tasikmalaya," kata Kapolres Tasikmalaya Kota, AKBP Anom Karibianto pada Selasa, 9 Juni 2020. Menurutnya, pembuatanvideo kliptersebut dipimpin langsung Wali Kota Tasiknalaya, Budi Budiman. Baca Juga:Agar Pengguna Aman di Wilayah Covid-19, Google Maps Luncurkan Fitur Peringatan Prosesi pembuatanvideo klipitu juga diikuti para personel Badan Penanggulangan Bencana Daerah (BPBD), Asisten Admnistrasi Pemerintah, Kadis PerhubunganKota Tasikmalaya, Kajari, Danlanud, Damkar dan Satpol PP. Sementara itu Walikota Tasikmalaya Budi Budiman mengatakan, pihaknya terus melakukan berbagai terobosan untuk menyosialisasikan bahaya virus corona atauCovid-19ke masyarakat. "Kali ini, mengkreasikan sosialisasi melaluivideo klipmusik," katanya. Baca Juga:Selama Pandemi Covid-19, Ibu Hamil di Kabupaten Bekasi Mencapai 12.951 Video klip sosialisasi itu diperankan oleh tim Gugus Tugas Covid 19, untuk menyampaikan betapa pentingnya menjaga diri agar terhindar dariCovid-19yang mewabah di daerah ini. "Video klip ini sengaja kami buat untuk menyampaikan bahayaCovid-19, serta cara pencegahannya agar tidak tertular," tuturnya.Selain itu, dalam vidio klip tersebut disampaikan juga bahwa betapa pentingnya jaga jarak, dan melakukan physical distancing sebagai upaya untuk terhindar dariCovid-19.*** (Asep M Saefuloh/Pikiranrakyat-Tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01397971/awal-mula-penangkapan-suami-istri-bandar-sabu-di-vila-mewah-tasikmalaya-ada-yang-berniat-bunuh-diri</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Awal Mula Penangkapan Suami Istri Bandar Sabu di Vila Mewah Tasikmalaya, Ada yang Berniat Bunuh Diri</t>
-        </is>
-      </c>
-      <c r="C319" s="2" t="n">
-        <v>43991.50138888889</v>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Sepasang suami istri diketahui sebagai bandar narkoba jenis sabu, tertangkap tangan tengah melakukan transaksi di sebuah vila elit daerah kota Tasikmalaya. Tersangka suami istri ini diketahui berasal dari Kecamatan Mangkubumi,Kota Tasikmalaya, dengan inisial F (40) dan KR (32). Sebelum ditangkap, diketahui keduanya melakukanpesta sabudi sebuah kamar hotel. Baca Juga:Seorang Tersangka Kasus Narkoba Diamankan Polisi Kota Tasikmalaya di Vila Elit Usai melakukanpesta sabu, keduanya sempat menggegerkan petugas hotel karena bertengkar hingga sang istri seperti hendak melakukan bunuh diri. "Kami awalnya khawatir setelah melihat istrinya teriak-teriak histeris seperti hendak bunuh diri di lantai dua kamarnya. Perempuannya seperti hendak loncat berdiri di pagar lantai dua. Kami pun langsung lapor polisi," demikian bunyi keterangan dari salah seorang pegawai hotel yang namanya enggan disebutkan pada Senin malam, 8 Juni 2020. Setelah petugas datang ke lokasi, pasangan suami istri itu diamankan dan dilakukan pemeriksaan secara menyeluruh. Baca Juga:Update Virus Corona di Jawa Barat 9 Juni 2020, 952 Orang Dinyatakan Sembuh Polisi pun mendapati barang bukti sabu dan barang bukti lainnya seperti catatan pesanan sabu, buku tabungan,handphone, timbangan digital dan alat hisap bong. PIKIRAN RAKYAT- Sepasang suami istri diketahui sebagai bandar narkoba jenis sabu, tertangkap tangan tengah melakukan transaksi di sebuah vila elit daerah kota Tasikmalaya. Tersangka suami istri ini diketahui berasal dari Kecamatan Mangkubumi,Kota Tasikmalaya, dengan inisial F (40) dan KR (32). Sebelum ditangkap, diketahui keduanya melakukanpesta sabudi sebuah kamar hotel. Baca Juga:Seorang Tersangka Kasus Narkoba Diamankan Polisi Kota Tasikmalaya di Vila Elit Usai melakukanpesta sabu, keduanya sempat menggegerkan petugas hotel karena bertengkar hingga sang istri seperti hendak melakukan bunuh diri. "Kami awalnya khawatir setelah melihat istrinya teriak-teriak histeris seperti hendak bunuh diri di lantai dua kamarnya. Perempuannya seperti hendak loncat berdiri di pagar lantai dua. Kami pun langsung lapor polisi," demikian bunyi keterangan dari salah seorang pegawai hotel yang namanya enggan disebutkan pada Senin malam, 8 Juni 2020. Setelah petugas datang ke lokasi, pasangan suami istri itu diamankan dan dilakukan pemeriksaan secara menyeluruh. Baca Juga:Update Virus Corona di Jawa Barat 9 Juni 2020, 952 Orang Dinyatakan Sembuh Polisi pun mendapati barang bukti sabu dan barang bukti lainnya seperti catatan pesanan sabu, buku tabungan,handphone, timbangan digital dan alat hisap bong.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Bertengkar Usai Pesta Sabu di Villa Mewah Kota Tasik, Pasangan Bandar Sabu Digerebek Polisi" Kepada petugas mereka pun ternyata mengaku selama ini sebagai pengedar sabu dengan sistem tempel yang mendistribusikan di wilayah Tasikmalaya dan sekitarnya. "Saat dilakukan pemeriksaan, mereka ternyata mengaku habispesta sabu. Saat digeledah di tasnya, terdapat sabu yang sebagian telah berbentuk paket," terang Kepala Satuan ReserseNarkobaPolres Tasikmalaya Kota AKP Yaser Arafat, kepada wartawan di lokasi kejadian. Baca Juga:Kabar Baik, Kasus Covid-19 di Kabupaten Tasikmalaya Mulai Landai Sampai sekarang, lanjut Yaser, pihaknya masih mengembangkan penangkapan suami istri sebagai bandar narkoba jenis sabu tersebut. Pihaknya pun masih menyelidiki jaringan peredaran narkoba selama ini yang dijalankan oleh kedua tersangka. "Mereka mengaku meningap di hotel mewah tersebut sudah 7 hari 7 malam. Selama ini kedua pelaku mengatur pesanan di kamar hotel tersebut," terangnya. Baca Juga:Pantai Pangandaran Dibuka, Gubernur : Kuncinya, Logika Sesuai dengan Protokol Kesehatan Diberitakan sebelumnya, SatuanNarkoba, Satuan Intel dan Satuan Reserse Kriminal Polres Tasikmalaya Kota berhasil menangkap pasangan suami istri berinisal F (40) dan KR (32). Keduanya berasal dari Kecamatan Mangkubumi,Kota Tasikmalaya, dan ditangkap saat membawa sabu siap edar seberat 70 gram di sebuah kamar hotel mewah Kecamatan Cipedes,Kota Tasikmalaya, Senin, 8 Juni 2020 sore.Kini, kedua pelaku masih dimintai keterangan tim khusus Satnarkoba Polres Tasikmalaya Kota untuk penyelidikan selanjutnya.*** (Asep M Saefuloh/Pikiranrakyat-Tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01397942/seorang-tersangka-kasus-narkoba-diamankan-polisi-kota-tasikmalaya-di-vila-elit</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Seorang Tersangka Kasus Narkoba Diamankan Polisi Kota Tasikmalaya di Vila Elit</t>
-        </is>
-      </c>
-      <c r="C320" s="2" t="n">
-        <v>43991.46180555555</v>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalam penggerebekannya, sejumlah petugas sengaja menggunakan pakaian seperti seorang preman. Baca Juga:Update Virus Corona di Jawa Barat 9 Juni 2020, 952 Orang Dinyatakan Sembuh Petugas ini telah berhasil mengamankan tersangka di ruang lobivila, namun tak hanya itu, seorang perempuan yang diduga istri dari tersangka juga diamankan. Lalu, petugas langsung membawa tersangka masuk ke sebuah mobil dengan kedua tangan sudah diborgol. Sesaat kemudian, petugas lainnya membawa istri tersangka yang terlihat menangis dan dimasukkan ke mobil berbeda. Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Diduga Jadi Tempat Transaksi Narkoba, Sebuah Vila Mewah di Kota Tasikmalaya Digerebek Polisi" Rombongan petugas penggerebekan yang menggunakan sejumlah kendaraan roda empat kemudian meluncur ke Mapolres untuk melakukan pengembangan lebih lanjut. Belum ada konfirmasi terkait aksi penangkapan tersangka kasus narkoba tersebut. Namun dari pengamatan pantaunPikiranRakyat-Tasikmalaya.comdi lapangan, dalam aksi tersebut terlihat ada Kasatnarkoba, AKP Yaseer Arafat, Kasatintel AKP Dani Prastya, serta sejumlah kanit dari Satnarkoba dan Satreskrim serta anggota lainnya.***(Asep M Saefuloh/Pikiranrakyat-Tasikmalaya.com) Dalam penggerebekannya, sejumlah petugas sengaja menggunakan pakaian seperti seorang preman. Baca Juga:Update Virus Corona di Jawa Barat 9 Juni 2020, 952 Orang Dinyatakan Sembuh Petugas ini telah berhasil mengamankan tersangka di ruang lobivila, namun tak hanya itu, seorang perempuan yang diduga istri dari tersangka juga diamankan. Lalu, petugas langsung membawa tersangka masuk ke sebuah mobil dengan kedua tangan sudah diborgol. Sesaat kemudian, petugas lainnya membawa istri tersangka yang terlihat menangis dan dimasukkan ke mobil berbeda. Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Diduga Jadi Tempat Transaksi Narkoba, Sebuah Vila Mewah di Kota Tasikmalaya Digerebek Polisi" Rombongan petugas penggerebekan yang menggunakan sejumlah kendaraan roda empat kemudian meluncur ke Mapolres untuk melakukan pengembangan lebih lanjut. Belum ada konfirmasi terkait aksi penangkapan tersangka kasus narkoba tersebut. Namun dari pengamatan pantaunPikiranRakyat-Tasikmalaya.comdi lapangan, dalam aksi tersebut terlihat ada Kasatnarkoba, AKP Yaseer Arafat, Kasatintel AKP Dani Prastya, serta sejumlah kanit dari Satnarkoba dan Satreskrim serta anggota lainnya.***(Asep M Saefuloh/Pikiranrakyat-Tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01396761/setahun-lebih-tak-terdengar-begini-kata-kpk-soal-kasus-gratifikasi-wali-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Setahun Lebih Tak Terdengar, Begini Kata KPK Soal Kasus Gratifikasi Wali Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C321" s="2" t="n">
-        <v>43989.75694444445</v>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Komisi Pemberantasan Korupsi memastikan proses penyidikan kasus dugaangratifikasiDana Alokasi Khusus 2018 oleh Wali Kota Tasikmalaya Budi Budiman masih berjalan. Kendati telah setahun menyandang status tersangka, kasus Budi tak kunjung dilimpahkan ke pengadilan. "Berdasarkan info dari penyidikan perkara tersebut saat ini masih berproses penyidikan diKPK," kata Juru BicaraKPKAli Fikri dalam pesan WhatsApp kepadaPikiran-Rakyat.com,pada Minggu, 7 Juni 2020. Baca Juga:Protokol AKB Sektor Ketenagakerjaan Jabar Disusun Komprehensif Ali juga memastikan kelanjutan penyidikan Budi bakal tetap disampaikan Korps Antirasuah tersebut. "Perkembangan lebih lanjut nanti kami infokan," tuturnya. Terkait alasanKPKbelum melimpahkan perkara ke pengadilan meskipun kasus tersebut telah bergulir lebih dari setahun dan Budi telah menjadi tersangka, Ali tak menjawabnya. Baca Juga:Bisa Beri Efek Buruk, Ini 4 Alasan Mencukur Bulu Kaki Tak Boleh saat Kulit Kering Pikiran-Rakyat.combeberapa hari sebelumnya juga menanyakan perkembangan penyidikan perkara Wali Kota Tasikmalaya tersebut kepada Ali, namun yang bersangkutan meminta waktu untuk mengeceknya. Hingga pada Minggu pagi, Ali memberikan keterangan penyidikan masih berlanjut.KPKmenetapkan Budi sebagai tersangka dugaangratifikasipengucuran Dana Alokasi Khusus (DAK) tahun anggaran 2018.PIKIRAN RAKYAT –Komisi Pemberantasan Korupsi memastikan proses penyidikan kasus dugaangratifikasiDana Alokasi Khusus 2018 oleh Wali Kota Tasikmalaya Budi Budiman masih berjalan. Kendati telah setahun menyandang status tersangka, kasus Budi tak kunjung dilimpahkan ke pengadilan. "Berdasarkan info dari penyidikan perkara tersebut saat ini masih berproses penyidikan diKPK," kata Juru BicaraKPKAli Fikri dalam pesan WhatsApp kepadaPikiran-Rakyat.com,pada Minggu, 7 Juni 2020. Baca Juga:Protokol AKB Sektor Ketenagakerjaan Jabar Disusun Komprehensif Ali juga memastikan kelanjutan penyidikan Budi bakal tetap disampaikan Korps Antirasuah tersebut. "Perkembangan lebih lanjut nanti kami infokan," tuturnya. Terkait alasanKPKbelum melimpahkan perkara ke pengadilan meskipun kasus tersebut telah bergulir lebih dari setahun dan Budi telah menjadi tersangka, Ali tak menjawabnya. Baca Juga:Bisa Beri Efek Buruk, Ini 4 Alasan Mencukur Bulu Kaki Tak Boleh saat Kulit Kering Pikiran-Rakyat.combeberapa hari sebelumnya juga menanyakan perkembangan penyidikan perkara Wali Kota Tasikmalaya tersebut kepada Ali, namun yang bersangkutan meminta waktu untuk mengeceknya. Hingga pada Minggu pagi, Ali memberikan keterangan penyidikan masih berlanjut.KPKmenetapkan Budi sebagai tersangka dugaangratifikasipengucuran Dana Alokasi Khusus (DAK) tahun anggaran 2018.Budi disangkakan memberikan uang senilai Rp 400 juta kepada Yaya Purnomo, eks Kepala Seksi Pengembangan Pendanaan Kawasan Perumahan dan Permukiman, Direktorat Evaluasi Pengelolaan dan Informasi Keuangam Daerah, Direktorat Evaluasi Pengelolaan dan Informasi Keuangan Daerah, Direktorat Jenderal Perimbangan Keuangan, Kemententerian Keuangan. Gratifikasi tersebut diduga guna memuluskan penyaluran DAK ke wilayahnya. Baca Juga:Trump Tarik 9.500 Pasukan, Menlu Maas Sebut Hubungan Jerman-AS 'Ruwet' Konfirmasi status Budi Budiman sebagai tersangka diperoleh "PR" dari pesan WhatsApp Basaria Panjaitan saat masih menjabat Wakil  KetuaKPK, Rabu, 24 April 2019 malam. Hari itu,KPKmenggeledah Kantor Wali Kota Tasikmalaya di Jalan Letna Harun. Sehari kemudian,KPKmenggeledah ruang Direktur Rumah Sakit Umum Daerah dr Soekardjo di Jalan Rumah Sakit, Kantor Dinas Pekerjaan Umum dan Penataan Ruang di Jalan Nonoeng Tisnasaputra dan Dinas Kesehatan Kota Tasikmalaya di Jalan Juanda. Setahun selepas penggeledahan, perkembangan kasus itu tak terdengar lagi dan pimpinanKPKpun berganti. Baca Juga:Tanda-tanda Sudah Terlihat, Kini Sebagian Wilayah Kota Bandung Mulai Memasuki Musim Kemarau Sementara itu, sorotan terhadap kinerjaKPKdalam merampungkan kasus tersebut bermunculan. Penuntasan perkara penting demi adanya kepastian hukum dan pemberantasan korupsi di Kota Santri. Sekretaris Umum Himpunan Mahasiswa Islam (HMI) Cabang Tasikmalaya Yuda Yudistira mengibaratkan kasus tersebut seolah ditelan bumi. "Tentunya kasus ini harus segera dituntaskan berkas perkara mesti diproses dipengadilan supaya secara delik hukum bisa selesai terbukti atau tidaknya wali kota Tasikmalaya telah melanggar hukum," kata Yuda. Belum adanya kepastian hukum untuk Budi, membuatnya bisa dengan santai menjalankan tugasnya sebagai wali kota."Kami mendorong untuk kasus korupsi ini terus dilanjutkan untuk kebaikan Kota Tasikmalaya terhindar bukan hanya dari virus Covid-19 yang hingga saat ini masih melanda Indonesia umumnya, dan virus korupsi yang masih diderita oleh Kota Tasikmalaya," tuturnya. Hal senada dikemukakan, pegiat Pusat Studi Transparansi Kebijakan dan Advokasi Anggaran (Pustaka) Institute Ilham Syawalludin. "KPKwajib menuntaskan dugaangratifikasiWali Kota Tasikmalaya.KPKjuga harus terbuka kepada masyarakat Kota Tasikmalaya terkait perkembangan penyidikan kasus tersebut," ucap Ilham. Ia juga tak habis pikir dengan perkembangan kasus yang penetapan tersangkanya sudah lebih setahun tersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01396188/demi-masuk-kota-tasikmalaya-pengendara-mobil-nekat-kelabui-petugas-psbb-dengan-tutupi-plat-mobilnya</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Demi Masuk Kota Tasikmalaya, Pengendara Mobil Nekat Kelabui Petugas PSBB dengan Tutupi Plat Mobilnya</t>
-        </is>
-      </c>
-      <c r="C322" s="2" t="n">
-        <v>43988.88611111111</v>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Saat ini berbagai cara akan dilakukan para pengendara agar bisa lolos dari pemeriksaan petugas di masa pandemiCOVID-19. Salah satunya seorang pengendara di Tasikmalaya ini. Ia nekat mengelabui petugas karena ingin masuk ke dalam kota. Demi lolos dari pemeriksaan petugas di cek poin PSBB Karangresik,Kota Tasikmalaya, seorang pengemudi mobil 'mengubah' plat kendaraannya. Baca Juga:176 Warga Karangmekar Ikuti Karantina Mikro, Akses Lingkungan Dijaga Linmas Sang pengemudi menempel stiker di bagian huruf depan nomor polisinya, agar tidak kelihatan kendarannya berasal luar daerahKota Tasikmalaya. Petugas pun langsung melakukan pemeriksaan kepada pemilik kendaraan itu, hal ini dilakukan sebagai bagian dalam masa new normal pada Sabtu, 6 Juni 2020. Namun tipu daya sang pengemudi berhasil dilihat petugas yang berjaga. Ketika stiker dilepas, nomor polisi asli kendaraan itu terpampang jelas. Baca Juga:Kasus Positif Covid-19 di Papua Barat Didominasi Orang Non-Papua "Kendaraan ini diduga mencoba lolos dalam pemeriksaan saat akan memasuki wilayah kota Tasikmalaya dengan menempel stiker dipelat nomormobilnya," kata Danpos Cekc Point Karangresik, Kapten Inf Kardaya, pada Sabtu, 6 Juni 2020. PIKIRAN RAKYAT- Saat ini berbagai cara akan dilakukan para pengendara agar bisa lolos dari pemeriksaan petugas di masa pandemiCOVID-19. Salah satunya seorang pengendara di Tasikmalaya ini. Ia nekat mengelabui petugas karena ingin masuk ke dalam kota. Demi lolos dari pemeriksaan petugas di cek poin PSBB Karangresik,Kota Tasikmalaya, seorang pengemudi mobil 'mengubah' plat kendaraannya. Baca Juga:176 Warga Karangmekar Ikuti Karantina Mikro, Akses Lingkungan Dijaga Linmas Sang pengemudi menempel stiker di bagian huruf depan nomor polisinya, agar tidak kelihatan kendarannya berasal luar daerahKota Tasikmalaya. Petugas pun langsung melakukan pemeriksaan kepada pemilik kendaraan itu, hal ini dilakukan sebagai bagian dalam masa new normal pada Sabtu, 6 Juni 2020. Namun tipu daya sang pengemudi berhasil dilihat petugas yang berjaga. Ketika stiker dilepas, nomor polisi asli kendaraan itu terpampang jelas. Baca Juga:Kasus Positif Covid-19 di Papua Barat Didominasi Orang Non-Papua "Kendaraan ini diduga mencoba lolos dalam pemeriksaan saat akan memasuki wilayah kota Tasikmalaya dengan menempel stiker dipelat nomormobilnya," kata Danpos Cekc Point Karangresik, Kapten Inf Kardaya, pada Sabtu, 6 Juni 2020.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Kelabui Petugas, Seorang Pengendara Tutup Nomor Polisi Kendaraan dengan Stiker" Tidak hanya itu, dalam pemeriksaan kendaraan di cek point juga masih banyak kendaraan yang tidak menggunakan masker dan banyak penumpang kendaraan tidak sesuai dengan protokol kesehatan atau. Mereka yang tidak melakukan imbauanphysical distancingitupun terpaksa harus didata dan diberikan peringatan serta diberikan sanksi dengan melakukanpush up. Baca Juga:Tepergok Sedang Berupaya Mencuri Motor, Pelaku Todongkan Senjata ke Polisi Pemeriksaan kendaraan di cek point batas kota di Tasikmalaya sendiri akan terus diberlakukan dari 2 Juni hingga empat belas hari ke depan, sehingga dapat berdampak terhadap penurunan kasusCOVID-19.***(Asep M Saefuloh/Pikiranrakyat Tasikmalaya)</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01395920/wakil-ketua-komisi-v-dpr-sebut-kota-tasikmalaya-belum-memenuhi-2-syarat-pelaksanaan-new-normal</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Wakil Ketua Komisi V DPR Sebut Kota Tasikmalaya Belum Memenuhi 2 Syarat Pelaksanaan New Normal</t>
-        </is>
-      </c>
-      <c r="C323" s="2" t="n">
-        <v>43988.58888888889</v>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- KotaTasikmalayadinilai belum layak untuk memenuhi fase kenormalan baru atau new normal karena belum memenuhi syarat sesuai ketentuan Organisasi Kesehatan Dunia (WHO). Pernyataan tersebut disampaikan oleh Wakil Ketua Komisi V Dewan Perwakilan Rakyat (DPR), Nurhayati saat melakukan kunjungan kerja di KotaTasikmalaya. Nurhayati menjelaskan, untuk memasuki fase new normal ada dua syarat yang harus dipenuhi, seperti angka kasus Covid-19 di wilayah sudah di bawah satu persen dan ketersediaan tempat tidur dan tenaga medis di daerah untuk orang sakit. Baca Juga:Kekerasan Rasial karena Pandemi Naik, Tiongkok Peringatkan Warganya Hindari Berkunjung ke Australia MenurutWHO, kata Nurhayati, setiap 1.000 penduduk minimal harus tersedia 2,17 tempat tidur untuk orang sakit. Selain itu, Nurhayati menambahkan, penelusuran (tracing) kasus juga harus dilakukan secara massif. Mengacu pada aturanWHOujar dia satu dari 1.000 orang di suatu wilayah harus dites setiap minggunya. "KotaTasikmalayamemiliki jumlah penduduk sekira 900 ribu jiwa. Artinya, selama 12 minggu pandemiCOVID-19terjadi seharusnya sudah melakukan tes kepada minimal 10 ribu jiwa. Ini harus tes swab, bukan rapid test," kata dia. Baca Juga:Surili dan Lutung Jawa Dijual Secara Online, Pedagang Ditangkap di Garut dan Bandung Ia juga menyebutkan, proses tracing dapat juga dilakukan dengan dasar total kasus positif yang terkonfirmasi melalui tes swab. Dari setiap kasus yang terjadi, penulusuran minimal dilakukan kepada 20 orang lainnya yang memiliki risiko. PIKIRAN RAKYAT- KotaTasikmalayadinilai belum layak untuk memenuhi fase kenormalan baru atau new normal karena belum memenuhi syarat sesuai ketentuan Organisasi Kesehatan Dunia (WHO). Pernyataan tersebut disampaikan oleh Wakil Ketua Komisi V Dewan Perwakilan Rakyat (DPR), Nurhayati saat melakukan kunjungan kerja di KotaTasikmalaya. Nurhayati menjelaskan, untuk memasuki fase new normal ada dua syarat yang harus dipenuhi, seperti angka kasus Covid-19 di wilayah sudah di bawah satu persen dan ketersediaan tempat tidur dan tenaga medis di daerah untuk orang sakit. Baca Juga:Kekerasan Rasial karena Pandemi Naik, Tiongkok Peringatkan Warganya Hindari Berkunjung ke Australia MenurutWHO, kata Nurhayati, setiap 1.000 penduduk minimal harus tersedia 2,17 tempat tidur untuk orang sakit. Selain itu, Nurhayati menambahkan, penelusuran (tracing) kasus juga harus dilakukan secara massif. Mengacu pada aturanWHOujar dia satu dari 1.000 orang di suatu wilayah harus dites setiap minggunya. "KotaTasikmalayamemiliki jumlah penduduk sekira 900 ribu jiwa. Artinya, selama 12 minggu pandemiCOVID-19terjadi seharusnya sudah melakukan tes kepada minimal 10 ribu jiwa. Ini harus tes swab, bukan rapid test," kata dia. Baca Juga:Surili dan Lutung Jawa Dijual Secara Online, Pedagang Ditangkap di Garut dan Bandung Ia juga menyebutkan, proses tracing dapat juga dilakukan dengan dasar total kasus positif yang terkonfirmasi melalui tes swab. Dari setiap kasus yang terjadi, penulusuran minimal dilakukan kepada 20 orang lainnya yang memiliki risiko.Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "DPR Menilai, Kota Tasikmalaya Belum Layak Terapkan New Normal, Imbau Pemkot Tidak Tergesa-gesa" Apalagi kata dia, di KotaTasikmalayaterdapat 23 orang positif melalui tes swab. Sehingga harus ada 460 tes swab yang sudah dilakukan selama ini. Baca Juga:3 Tips Menjaga Bulu Mata agar Tetap Lentik Sepanjang Hari "Tapi kenyataannya, saat ini baru dilakukan tes swab kepada 130 orang di KotaTasikmalaya. Jadi belum layak untuk new normal," kata dia. Nurhayati mengimbau PemkotTasikmalayauntuk tidak tergesa-gesa melakukan pelonggaran PSBB memasuki fase new normal. Dengan pertimbangan yang salah, dikhawatirkan akan terjadi ledakan kasus baru. "Lalu saya ingatkan, yang berhak memberikan pelonggaran PSBB itu bukan pemda, tapi pusat melalui Kemenkes. Itu berdasarkan UU Karantina Kesehatan," kata dia.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/ekonomi/pr-01395351/lonjakan-harga-ayam-ras-dan-penjualan-mobil-sumbang-inflasi-kota-tasikmalaya-mei-2020</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Lonjakan Harga Ayam Ras dan Penjualan Mobil Sumbang Inflasi Kota Tasikmalaya Mei 2020</t>
-        </is>
-      </c>
-      <c r="C324" s="2" t="n">
-        <v>43987.68611111111</v>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Kenaikan harga daging ayam ras danpenjualan mobilberdampak pada tekananinflasiKotaTasikmalayaMei 2020. Hal tersebut mengemuka dalam siaran pers Kantor PerwakilanBank IndonesiaTasikmalaya, Kamis, 4 Juni 2020 malam. Kepala Perwakilan BITasikmalayaHeru Saptaji mengungkapkan, kenaikkan harga daging ayam ras sebesar 13,00% (mtm). Baca Juga:Di Tengah Pandemi, 28 Kepala Sekolah Kota Tasikmalaya Diambil Sumpah "Sama dengan kondisi nasional, kenaikkan harga daging ayam ras disebabkan kenaikan permintaan saat HBKN Idul Fitri. Namun harga diperkirakan akan kembali stabil pada bulan Juni," ucapnya dalam keterangan tertulis tersebut. Tekananinflasijuga terpantau berasal dari kenaikan harga mobil. Pasalnya, beberapa industri otomotif nasiona memang menaikan harga jual akibat kenaikan biaya produksi dan menyesuaikan dengan kenaikan tarif Bea Balik Nama (BBN) pada akhir tahun yang belum ditransmisikan pada harga jual kendaraan.‎ Selanjutnya, tutur Heru, kenaikkan harga aneka rokok turut terjadi sebagai dampak dari kenaikan cukai pada awal tahun yang dibebankan kepada konsumen secara bertahap. Baca Juga:Sempat Hadapi AC Milan, Mantan Pemain Persib Akui Bangga Secara umum pada Mei 2020,‎ Indeks Harga Konsumen (IHK) KotaTasikmalayatercatat mengalamiinflasi0,03% (mtm), lebih rendah dibandingkan bulan sebelumnya sebesar 0,13% (mtm). RealisasiinflasiKotaTasikmalayalebih rendah dibandingkaninflasinasional sebesar 0,07% (mtm), tetapi lebih tinggi dibandingkan Jawa Barat yang mengalami deflasi 0,11% (mtm).PIKIRAN RAKYAT -Kenaikan harga daging ayam ras danpenjualan mobilberdampak pada tekananinflasiKotaTasikmalayaMei 2020. Hal tersebut mengemuka dalam siaran pers Kantor PerwakilanBank IndonesiaTasikmalaya, Kamis, 4 Juni 2020 malam. Kepala Perwakilan BITasikmalayaHeru Saptaji mengungkapkan, kenaikkan harga daging ayam ras sebesar 13,00% (mtm). Baca Juga:Di Tengah Pandemi, 28 Kepala Sekolah Kota Tasikmalaya Diambil Sumpah "Sama dengan kondisi nasional, kenaikkan harga daging ayam ras disebabkan kenaikan permintaan saat HBKN Idul Fitri. Namun harga diperkirakan akan kembali stabil pada bulan Juni," ucapnya dalam keterangan tertulis tersebut. Tekananinflasijuga terpantau berasal dari kenaikan harga mobil. Pasalnya, beberapa industri otomotif nasiona memang menaikan harga jual akibat kenaikan biaya produksi dan menyesuaikan dengan kenaikan tarif Bea Balik Nama (BBN) pada akhir tahun yang belum ditransmisikan pada harga jual kendaraan.‎ Selanjutnya, tutur Heru, kenaikkan harga aneka rokok turut terjadi sebagai dampak dari kenaikan cukai pada awal tahun yang dibebankan kepada konsumen secara bertahap. Baca Juga:Sempat Hadapi AC Milan, Mantan Pemain Persib Akui Bangga Secara umum pada Mei 2020,‎ Indeks Harga Konsumen (IHK) KotaTasikmalayatercatat mengalamiinflasi0,03% (mtm), lebih rendah dibandingkan bulan sebelumnya sebesar 0,13% (mtm). RealisasiinflasiKotaTasikmalayalebih rendah dibandingkaninflasinasional sebesar 0,07% (mtm), tetapi lebih tinggi dibandingkan Jawa Barat yang mengalami deflasi 0,11% (mtm).Dengan perkembangan tersebut,inflasitahun berjalan KotaTasikmalayaMei 2020 tercatat 0,96% (ytd) daninflasitahunan 1,65% (yoy), lebih rendah dibandingkan rata-ratainflasiperiode Idul Fitri tahun-tahun sebelumnya. Baca Juga:Sempat Lenyap, Video Lagu Kekeyi Keke Bukan Boneka Hadir Lagi di YouTube "Terjaganya harga pada Ramadhan dan Idul Fitri didukung oleh tercukupinya pasokan, sementara permintaan relatif melambat dibandingkan Ramadhan dan Idul Fitri tahun-tahun sebelumnya karena penerapan physical distancing sebagai upaya mencegah penyebaran Covid-19," ucap Heru. Sama dengan bulan sebelumnya, tekananinflasiterutama tertahan oleh penurunan harga telur ayam ras, bawang putih, cabai rawit, dan cabai merah. Di luar bahan makanan, harga emas perhiasan mulai menunjukan penurunan 2,21% (mtm) setelah sebelumnya terus mengalami kenaikan harga sejak awal tahun. Baca Juga:Banting Setir Sejak Covid-19, Pengusaha Dekorasi Pernikahan Jajal Peruntungan Bisnis Peti Mati ‎Di tengah pandemi Covid-19, TPID KotaTasikmalayapun terus berupaya memenuhi kebutuhan masayarakat dengan harga terjangkau dan tetap menerapkan physical distancing atau aturan jaga jarak. Salah satu upaya yang dilakukan berupa menyelenggarakan pasar murah online sebanyak dua  kali pada Mei 2020. Pasar tersebut merupakan  pasar murah yang ditransaksikan melalui marketplace Tokopedia dan pengantaran barang dilakukan langsung ke lokasi pembeli. Ke depan, TPID KotaTasikmalayaakan kembali menyelenggarakan pasar murah online secara insidentil untuk memenuhi kebutuhan masyarakat sekaligus membiasakan penggunaan transaksi non-tunai. Belanja online dapat dilakukan secara mudah dengan pembayaran non tunai melalui transfer atau akun dompet digital sehingga lebih mudah, aman, dan nyaman bagi konsumen serta meminimalisir risiko perpindahan kuman/virus melalui uang tunai.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01395350/di-tengah-pandemi-28-kepala-sekolah-kota-tasikmalaya-diambil-sumpah</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Di Tengah Pandemi, 28 Kepala Sekolah Kota Tasikmalaya Diambil Sumpah</t>
-        </is>
-      </c>
-      <c r="C325" s="2" t="n">
-        <v>43987.68055555555</v>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman menghadiri pengambilan sumpah/janji jembatan kepala sekolah tingkatSekolahDasar danSekolahMenengah Pertama di halaman SMP Negeri 2 KotaTasikmalaya, Jumat 5 Juni 2020 di tengah pandemiCovid-19. Dalam sambutannya, Budi menyebut pengambilan sumpah kepala sekolah merupakan momen penting yang dapat dimaknai sebagai upaya memantapkan kualitas pendidikan di daerah. Demikian pernyataan Budi dalam keteranga tertulis Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya, Jumat siang. Jumlah total kepala sekolah yang diambil sumpahnya itu sebanyak 28 orang. Jumlah tersebut terdiri dari 2KepalaSMP dan 26KepalaSD. Baca Juga:Sempat Hadapi AC Milan, Mantan Pemain Persib Akui Bangga Budi berharap, para kepala sekolah tersebut bisa inovatif, kolaboratif dan mampu memecahkan masalah. Dengan demikian, tujuan organisasi sekolah dapat tercapai di tengah kondisi darurat pandemiCovid-19. Sebelumnya, Tim Gugus TugasCovid-19ProvinsiJawa Baratmelaksanakan  swab test ‎dan monitoring di Kelurahan Nagasari, Kecamatan Cipedes, KotaTasikmalaya, Selasa 2 Juni 2020. Sebanyak 100 warga menjalani tes itu. Kegiatan tersebut dihadiri Wali Kota Budi Budiman, unsur Forkopimda dan Dinas Kesehatan KotaTasikmalaya. Budi menuturkan, KotaTasikmalayamendapatkan kesempatan untuk diambil sampling kasusCovid-19di tingkat kelurahan dan desa seJawa Barat. Baca Juga:Sempat Lenyap, Video Lagu Kekeyi Keke Bukan Boneka Hadir Lagi di YouTube Demikian pernyataan Budi dalam keterangan tertulis instagra Dinas Komunikasi dan Informatika KotaTasikmalaya. Dengan adanya tambahan satu kasus/warga positif yang berasal dari kota lain dan berada di lingkungan Nagasari, Pemkot pun segera melaporkan ke tim gugus tugas provinsi melalui Pikobar. PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman menghadiri pengambilan sumpah/janji jembatan kepala sekolah tingkatSekolahDasar danSekolahMenengah Pertama di halaman SMP Negeri 2 KotaTasikmalaya, Jumat 5 Juni 2020 di tengah pandemiCovid-19. Dalam sambutannya, Budi menyebut pengambilan sumpah kepala sekolah merupakan momen penting yang dapat dimaknai sebagai upaya memantapkan kualitas pendidikan di daerah. Demikian pernyataan Budi dalam keteranga tertulis Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya, Jumat siang. Jumlah total kepala sekolah yang diambil sumpahnya itu sebanyak 28 orang. Jumlah tersebut terdiri dari 2KepalaSMP dan 26KepalaSD. Baca Juga:Sempat Hadapi AC Milan, Mantan Pemain Persib Akui Bangga Budi berharap, para kepala sekolah tersebut bisa inovatif, kolaboratif dan mampu memecahkan masalah. Dengan demikian, tujuan organisasi sekolah dapat tercapai di tengah kondisi darurat pandemiCovid-19. Sebelumnya, Tim Gugus TugasCovid-19ProvinsiJawa Baratmelaksanakan  swab test ‎dan monitoring di Kelurahan Nagasari, Kecamatan Cipedes, KotaTasikmalaya, Selasa 2 Juni 2020. Sebanyak 100 warga menjalani tes itu. Kegiatan tersebut dihadiri Wali Kota Budi Budiman, unsur Forkopimda dan Dinas Kesehatan KotaTasikmalaya. Budi menuturkan, KotaTasikmalayamendapatkan kesempatan untuk diambil sampling kasusCovid-19di tingkat kelurahan dan desa seJawa Barat. Baca Juga:Sempat Lenyap, Video Lagu Kekeyi Keke Bukan Boneka Hadir Lagi di YouTube Demikian pernyataan Budi dalam keterangan tertulis instagra Dinas Komunikasi dan Informatika KotaTasikmalaya. Dengan adanya tambahan satu kasus/warga positif yang berasal dari kota lain dan berada di lingkungan Nagasari, Pemkot pun segera melaporkan ke tim gugus tugas provinsi melalui Pikobar.Hasilnya, respon cepat diberikan denngann pelaksanaan tes swab massal kepada 100 orang hasil penelusuran riwayat kontak penderita di lingkungan tersebut. Budi berharap, hasil tes 100 wargannya itu negatif.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01395162/dukung-usaha-mikro-seluruh-asn-dan-anggota-dprd-tasikmalaya-harus-konsumsi-beras-dari-petani-lokal</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Dukung Usaha Mikro, Seluruh ASN dan Anggota DPRD Tasikmalaya Harus Konsumsi Beras dari Petani Lokal</t>
-        </is>
-      </c>
-      <c r="C326" s="2" t="n">
-        <v>43987.56805555556</v>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wakil Ketua Pansus Usaha Mikro, H. Murjani mengatakan bahwa seluruh pegawai negeri dan anggota DPRD di KotaTasikmalayaharus membeli dan mengkonsumsi beras dari petani lokal, minimal 5 sampai 10 kilogram setiap bulannya. Regulasi tersebut sengaja dimasukkan ke dalam Draf Raperda Usaha Mikro, semata-mata untuk menjamin nasib petani setelah panen dan memberikan kesempatan berusaha bagi tumbuhnya Usaha Mikro yang kelak bisa mendongkrak perekonomian. Murjani pun mengatakan, nantinya para petani padi lokal akan difasilitasi alat pengolahan pasca panen. Di samping itu, rancangan Peraturan Daerah ini juga mengatur jika semua perijinan untukusaha mikrodigratiskan. Baca Juga:Planet Mars Ternyata Pernah Punya Cincin Raksasa dan Bulan yang Lebih Besar Jika itu dipatuhi, ia yakin nasib petani padi bisa terdongkrak dan tidak lagi risau setelah panen. Serta perputaran ekonomi bernilai miliaran rupiah bisa bergerak di lingkungan petani. Regulasi itupun, kata dia, sebagai bentuk campur tangan pemerintah daerah dalam pengembangan sekaligus monitoring menumbuhkan iklim usaha serta memberikan perlindungan terhadapusaha mikro. Untuk teknis lebih detailnya, kata dia, harus segera dirumuskan dalam pembahasan Peraturan Walikota (Perwalkot) yang diatur sekurang kurangnya 6 bulan dan maksimal 1 tahun sudah rampung setelah draf ranperda itu jadi perda. Baca Juga:Planet Mars Ternyata Pernah Punya Cincin Raksasa dan Bulan yang Lebih Besar Sementara itu Sekretaris Dinas Koperasi, UMKM Perindag, Dian Danawiarsa, dalam rapat pembahasan terakhir mengaku siap untuk segera merumuskan Perwalkot-nya. PIKIRAN RAKYAT- Wakil Ketua Pansus Usaha Mikro, H. Murjani mengatakan bahwa seluruh pegawai negeri dan anggota DPRD di KotaTasikmalayaharus membeli dan mengkonsumsi beras dari petani lokal, minimal 5 sampai 10 kilogram setiap bulannya. Regulasi tersebut sengaja dimasukkan ke dalam Draf Raperda Usaha Mikro, semata-mata untuk menjamin nasib petani setelah panen dan memberikan kesempatan berusaha bagi tumbuhnya Usaha Mikro yang kelak bisa mendongkrak perekonomian. Murjani pun mengatakan, nantinya para petani padi lokal akan difasilitasi alat pengolahan pasca panen. Di samping itu, rancangan Peraturan Daerah ini juga mengatur jika semua perijinan untukusaha mikrodigratiskan. Baca Juga:Planet Mars Ternyata Pernah Punya Cincin Raksasa dan Bulan yang Lebih Besar Jika itu dipatuhi, ia yakin nasib petani padi bisa terdongkrak dan tidak lagi risau setelah panen. Serta perputaran ekonomi bernilai miliaran rupiah bisa bergerak di lingkungan petani. Regulasi itupun, kata dia, sebagai bentuk campur tangan pemerintah daerah dalam pengembangan sekaligus monitoring menumbuhkan iklim usaha serta memberikan perlindungan terhadapusaha mikro. Untuk teknis lebih detailnya, kata dia, harus segera dirumuskan dalam pembahasan Peraturan Walikota (Perwalkot) yang diatur sekurang kurangnya 6 bulan dan maksimal 1 tahun sudah rampung setelah draf ranperda itu jadi perda. Baca Juga:Planet Mars Ternyata Pernah Punya Cincin Raksasa dan Bulan yang Lebih Besar Sementara itu Sekretaris Dinas Koperasi, UMKM Perindag, Dian Danawiarsa, dalam rapat pembahasan terakhir mengaku siap untuk segera merumuskan Perwalkot-nya.Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Segera Disahkan, ASN dan DPRD Wajib Beli Beras Petani Lokal" Selain wajib beli beras petani lokal, draf Ranperda itu juga memuat klausal yang mengharuskan agar ASN dan DPRD memakai Batik KhasTasikmalayasetiap hari Selasa dan hari Jumat memakai koko borderTasikmalaya. Baca Juga:Puluhan Gembong Narkoba dengan Vonis Mati dan Napi Seumur Hidup Dipindahkan ke Lapas Super Maximum Ketua Kontak Tani dan Nelayan Andalan (KTNA) KotaTasikmalaya, Munir Setiawan sangat mengapresiasi kinerja pansus yang menyertakan regulasi untuk mengkonsumsi produk beras lokal. Akan tetapi ia mengingatkan, agar pasokan beras dari petani nantinya bisa merata menyerap produk petani dari berbagai wilayah penghasil padi yang ada di kotaTasikmalaya. Artinya, penyediaan beras harus bisa dikelola oleh gapoktan atau KTNA per kecamatan. Hal itu penting agar tidak ada peluang suplier beras dikuasai oleh pemodal besar yang kadang mencekik petani. Baca Juga:Peringati Hari Lahir Pancasila, Pemkab Banyuwangi Gelar Lomba Vlog untuk Generasi Milenial "Jadi saya harap ada inventarisir jumlah ASN per dinas atau instansi, kecamatan atau per kelurahan. Nantinya bisa saja diatur, asn/dprd di wilayah kecamatan Purbaratu misalnya, maka membeli berasnya dari gapoktan atau KTNA di Purbaratu," kata Munir. Atau opsi lain disediakan warung khusus yang dikelola gapoktan/KTNA di masing-masing wilayah atau di pasar-pasar yang tersebar di wilayah kotaTasikmalaya. Ia juga mengingatkan agar pemkot serius untuk melaksanakan Perda tersebut. Jangan seperti perda yang mengatur Harga Eceran terendah produk pertanian.*** (Aris Mohamad Fitrian/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01395008/wagub-jabar-tinjau-kesiapan-masjid-agung-kota-tasikmalaya-jelang-akb</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Wagub Jabar Tinjau Kesiapan Masjid Agung Kota Tasikmalaya Jelang AKB</t>
-        </is>
-      </c>
-      <c r="C327" s="2" t="n">
-        <v>43987.39861111111</v>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wakil Gubernur Jawa BaratUu Ruzhanul Ulummeninjau kesiapan new normal, atau di Jabar disebut sebagai Adaptasi Kebiasaan Baru (AKB), di Masjid Agung Kota Tasikmalaya, Kamis 04 Juni 2020. Di Jabar, AKB bisa dilakukan 15 daerah, salah satunya Kota Tasikmalaya, yang ditetapkan sebagai Zona Biru (Level 2) oleh Gugus Tugas Percepatan Penanggulangan COVID-19 Jabar setelah melalui kajian ilmiah berdasarkan sembilan indeks, di antaranya laju ODP, PDP, risiko geografis, dan angka reproduksi COVID-19. Nantinya, pemerintah daerah kabupaten/kota yang ingin menerapkan AKB harus lebih dulu mencabut status Pembatasan Sosial Berskala Besar (PSBB) saat mengajukan surat permohonan AKB kepada Kementerian Kesehatan Republik Indonesia (RI). Di Masjid Agung, Kang Uu didampingi Wali Kota Tasikmalaya Budi Budiman dan pengurus masjid mengecek koridor tempat salat yang sudah diberi penanda dengan jarak satu meter bagi setiap jemaah. Baca Juga:7 Minggu Dirawat, Pasien Covid-19 Alami Kebutaan Setelah Bangun dari Koma Selain itu, sesuai Surat Edaran Menteri Agama Republik Indonesia No. 15/2020, DKM Masjid Agung Kota Tasikmalaya pun melakukan pembersihan dan disinfeksi secara berkala, menyediakan fasilitas cuci tangan/hand sanitizer di pintu masuk dan keluar, tidak mengizinkan jemaah dengan suhu tubuh di atas 37,5 derajat Celcius untuk masuk, dan memasang imbauan/poster protokol kesehatan di berbagai area masjid. Bagi jemaah, mereka wajib memakai masker, menaati protokol kesehatan, menghindari kontak fisik, menjaga jarak minimal 1 meter, dan tidak berdiam lama di masjid. Sementara anak-anak dan lanjut usia tidak perkenankan ke masjid karena memiliki risiko tinggi tertular di tengah pandemi COVID-19 ini. Baca Juga:Transfer Foto dan Video Facebook Sudah Bisa ke Google Photos, Berikut Caranya PIKIRAN RAKYAT- Wakil Gubernur Jawa BaratUu Ruzhanul Ulummeninjau kesiapan new normal, atau di Jabar disebut sebagai Adaptasi Kebiasaan Baru (AKB), di Masjid Agung Kota Tasikmalaya, Kamis 04 Juni 2020. Di Jabar, AKB bisa dilakukan 15 daerah, salah satunya Kota Tasikmalaya, yang ditetapkan sebagai Zona Biru (Level 2) oleh Gugus Tugas Percepatan Penanggulangan COVID-19 Jabar setelah melalui kajian ilmiah berdasarkan sembilan indeks, di antaranya laju ODP, PDP, risiko geografis, dan angka reproduksi COVID-19. Nantinya, pemerintah daerah kabupaten/kota yang ingin menerapkan AKB harus lebih dulu mencabut status Pembatasan Sosial Berskala Besar (PSBB) saat mengajukan surat permohonan AKB kepada Kementerian Kesehatan Republik Indonesia (RI). Di Masjid Agung, Kang Uu didampingi Wali Kota Tasikmalaya Budi Budiman dan pengurus masjid mengecek koridor tempat salat yang sudah diberi penanda dengan jarak satu meter bagi setiap jemaah. Baca Juga:7 Minggu Dirawat, Pasien Covid-19 Alami Kebutaan Setelah Bangun dari Koma Selain itu, sesuai Surat Edaran Menteri Agama Republik Indonesia No. 15/2020, DKM Masjid Agung Kota Tasikmalaya pun melakukan pembersihan dan disinfeksi secara berkala, menyediakan fasilitas cuci tangan/hand sanitizer di pintu masuk dan keluar, tidak mengizinkan jemaah dengan suhu tubuh di atas 37,5 derajat Celcius untuk masuk, dan memasang imbauan/poster protokol kesehatan di berbagai area masjid. Bagi jemaah, mereka wajib memakai masker, menaati protokol kesehatan, menghindari kontak fisik, menjaga jarak minimal 1 meter, dan tidak berdiam lama di masjid. Sementara anak-anak dan lanjut usia tidak perkenankan ke masjid karena memiliki risiko tinggi tertular di tengah pandemi COVID-19 ini. Baca Juga:Transfer Foto dan Video Facebook Sudah Bisa ke Google Photos, Berikut CaranyaMenurut Kang Uu, secara umum Masjid Agung Kota Tasikmalaya sudah mematuhi aturan pemerintah pusat maupun provinsi. Dalam agenda tersebut, dirinya pun turut memasang salah satu penanda jarak di tempat salat laki-laki. "Saya mengontrol ketaatan dan kesigapan (tempat publik) Adaptasi Kebiasaan Baru. Di mana Kota Tasikmalaya termasuk wilayah Zona Biru sehingga fasilitas umum, tempat ibadah, perekonomian termasuk mal, boleh dibuka (dengan adaptasi)," kata Kang Uu. "Syarat (beradaptasi agar tetap aman dan produktif) ada tiga, yakni pakai masker, cuci tangan, dan jaga jarak. Setelah saya lihat (Masjid Agung Kota Tasikmalaya), alhamdulillah ada ketaatan dalam melaksanakan hal seperti itu," tambahnya. Baca Juga:Putri Didi Kempot akan Nyanyikan Lagu Ciptaan Dorce Gamalama, Yan Vellia: Papa Pasti Bangga Kang Uu yang juga Panglima Santri Jabar ini pun mengajak warga khususnya umat Muslim untuk tidak hanya melakukan ikhtiar dhohir atau duniawi, tapi juga ikhtiar batin. "Terus berdoa, meningkatkan iman dan takwa, dan membaca sholawat harus dilakukan," tuturnya. Kang Uu menambahkan, Pemerintah Daerah Provinsi Jabar memiliki tiga benteng pertahanan dalam penerapan AKB. Pertama, masyarakat harus menguatkan Perilaku Hidup Bersih dan Sehat (PHBS). Kedua, terus melaksanakan tes di berbagai daerah, termasuk Kota Tasikmalaya. Baca Juga:Viral: Sembah Berhala di PUBG, Netizen Sebut Game Haram"Ketiga, kecepatan dalam menangani masalah (COVID-19) sehingga tidak menyebar ke mana-mana. (Tiga benteng) itu, menurut Wali Kota, di Kota Tasikmalaya sudah dilakukan," kata Kang Uu. "Jabar pun termasuk (memiliki) penanganan COVID-19 terbaik tingkat nasional. Semua hasil kolaborasi provinsi dan kabupaten/kota. Kami ucapkan terima kasih," ucapnya. Selain meninjau Masjid Agung Kota Tasikmalaya, Kang Uu turut mengecek kesiapan pusat perbelanjaan Mall Asia Plaza. Di sana, Kang Uu menyaksikan sekaligus mematuhi beberapa protokol kesehatan bagi pengunjung seperti cuci tangan dan dicek suhu tubuh.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01393852/laju-penambahan-kasus-positif-covid-19-kembali-tertahan-selama-4-hari-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Laju Penambahan Kasus Positif Covid-19 Kembali Tertahan Selama 4 Hari di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C328" s="2" t="n">
-        <v>43985.71527777778</v>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Laju penambahan kasus baruCovid-19kembali mulai tertahan di KotaTasikmalayaselama empat hari terakhir. Meski demikian, penelusuran warga yang punya riwayat kontak dengan penderita virus tersebut tetap berlangsung. Berdasarkan data Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas Kesehatan KotaTasikmalaya, laju penambahan terlihat sejak Sabtu 30 Mei 2020-Rabu 3 Juni 2020. Pada Rabu 3 Juni 2020, jumlah kasus postif corona mencapai 48 kasus dengan 24 kasus terkonfirmasi melalui tes PCR dan 24 kasus Rapid Diagnostic Test (RDT). Dari 24 kasus PCR, 14 sembuh, 8 aktif (terjangkit) dan 2 meninggal. Sedangkan 24 kasus RDT, 23 negatif (tak terjangkit), 0 proses, 1 meninggal. Baca Juga:Jurnalis Menjadi Korban dalam Aksi Protes AS, Tingkatkan Kecemasan pada Media Jumlah 24 kasus tersebut bertahan atau tak mengalami perubahan sejak Sabtu 30 Mei 2020. Tambahan satu kasus terakhir terjadi di Kampung Buninagara, Kelurahan Nagarasari, Kecamatan Cipedes. Satu warga Buninagara tersebut kedapatan positif corona saat bekerja di Ciamis. Respon cepat diberikan dengann pelaksanaan tes swab massal kepada 100 orang di kelurahan tersebut yang memiliki  riwayat kontak dengan penderita. "Mudah-mudahan semua warga yang mengikuti swab massal hasilnya negatif," kata Wali KotaTasikmalayaBudi Budiman dalam Instagramnya, Rabu 3 Juni 2020. Baca Juga:Wajah Bertopeng‎ Dalam catatan "PR" laju penambahan warga yang positif juga sempat tertahan di angka 47 kasus selama 5 hari dari Jumat 22 Mei 2020 hingga Selasa 26 Mei 2020. PIKIRAN RAKYAT -Laju penambahan kasus baruCovid-19kembali mulai tertahan di KotaTasikmalayaselama empat hari terakhir. Meski demikian, penelusuran warga yang punya riwayat kontak dengan penderita virus tersebut tetap berlangsung. Berdasarkan data Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas Kesehatan KotaTasikmalaya, laju penambahan terlihat sejak Sabtu 30 Mei 2020-Rabu 3 Juni 2020. Pada Rabu 3 Juni 2020, jumlah kasus postif corona mencapai 48 kasus dengan 24 kasus terkonfirmasi melalui tes PCR dan 24 kasus Rapid Diagnostic Test (RDT). Dari 24 kasus PCR, 14 sembuh, 8 aktif (terjangkit) dan 2 meninggal. Sedangkan 24 kasus RDT, 23 negatif (tak terjangkit), 0 proses, 1 meninggal. Baca Juga:Jurnalis Menjadi Korban dalam Aksi Protes AS, Tingkatkan Kecemasan pada Media Jumlah 24 kasus tersebut bertahan atau tak mengalami perubahan sejak Sabtu 30 Mei 2020. Tambahan satu kasus terakhir terjadi di Kampung Buninagara, Kelurahan Nagarasari, Kecamatan Cipedes. Satu warga Buninagara tersebut kedapatan positif corona saat bekerja di Ciamis. Respon cepat diberikan dengann pelaksanaan tes swab massal kepada 100 orang di kelurahan tersebut yang memiliki  riwayat kontak dengan penderita. "Mudah-mudahan semua warga yang mengikuti swab massal hasilnya negatif," kata Wali KotaTasikmalayaBudi Budiman dalam Instagramnya, Rabu 3 Juni 2020. Baca Juga:Wajah Bertopeng‎ Dalam catatan "PR" laju penambahan warga yang positif juga sempat tertahan di angka 47 kasus selama 5 hari dari Jumat 22 Mei 2020 hingga Selasa 26 Mei 2020.Kenaikkan terjadi selepas Lebaran atau pada ‎Rabu 27 Mei 2020, jumlah warga positif corona mencapai 50 kasus dengan 23 terkonfirmasi melalui tes polymerase chain reaction (PCR) dan 27 rapid diagnostic test (RDT). Dari 23 yang terkonfirmasi positif melalui PCR, 10 orang/kasus sembuh, 11 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 27 kasus positif RDT, 20 negatif PCR, 6 menunggu hasil PCR/swab dan 1 meninggal. Angka tersebut menunjukkan adanya kenaikkan 3 kasus/orang yang positifCovid-19dibanding data sebelumnya. Pada Selasa 26 Mei 2020, data Diskomnfo menunjukkan jumlah warga positif mencapai 47 kasus dengan 23 terkonfirmasi dari tes PCR dan 24 RDT. Dari 23 yang terkonfirmasi PCR, 7 sembuh, 14 aktif, 2 meninggal. Untuk 24 RDT, 18 negatif, 5 proses (menunggu PCR) dan 1 meninggal. Dengan demikian, penambahan tiga kasus baru terkonfirmasi melalui rapid test.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01393252/kota-tasikmalaya-dipilih-jadi-pilot-project-ratusan-warga-buninagara-ikuti-tes-swab-massal</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Kota Tasikmalaya Dipilih Jadi Pilot Project, Ratusan Warga Buninagara Ikuti Tes Swab Massal</t>
-        </is>
-      </c>
-      <c r="C329" s="2" t="n">
-        <v>43984.825</v>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Tim Gugus TugasCOVID-19Provinsi Jawa Barat lakukan tesswabmassal pada Selasa, 2 Juni 2020. Tes ini juga diikuti oleh ratusan warga Kampung Buninagara Kelurahan Nagarasari Kecamatan CipedesKota Tasikmalaya. Ratusan warga yang pernah melakukan kontak dengan pasien positifCOVID-19di wilayah itu, dites oleh puluhan petugas kesehatan yang mengenakan Alat Pelindung Diri (APD) lengkap. Kegiatan tesswabmassal ini juga dihadiri oleh Budi Budiman ketua tim Gugus Tugas Covid-19Kota Tasikmalaya. Selain itu, turut dihadiri pula oleh Uus Supangat Kepala Dinas KesehatanKota Tasikmalaya, pihak kepolisian, TNI dan yang lainnya. Baca Juga:Ratusan Calon Jemaah Haji Kota Sukabumi Batal Berangkat ke Tanah Suci Kegiatan tesswabmassal itu merupakan program Pemerintah Provinsi (Pemprov) Jawa Barat (Jabar), danKota Tasikmalayadipilih sebagai salah satu pencontohan (pilot project) karantina mikro, kata Ketua tim Gugus Tugas Covid-19Kota Tasikmalaya. Budi, yang juga merupakan Wali WaliKota Tasikmalayamengatakan dan menjelaskan bahwa dalam dua hari ke belakang dari Kampung BuninagaraKota Tasikmalayaterdapat tambahan satu kasus positifCOVID-19. "Walaupun diduga terpapdi daerah lain, tapi dia tinggal di sini dan telah melakukan kontak dengan banyak orang," kata dia. Baca Juga:328 Calon Jemaah Haji di Kota Cirebon Gagal Berangkat akibat Pandemi COVID-19 Laporan penambahan kasus itu disampaikan dari Gugus Tugas Percepatan PenangananCOVID-19Kota Tasikmalayake Gugus TugasCOVID-19Provinsi Jabar. PIKIRAN RAKYAT- Tim Gugus TugasCOVID-19Provinsi Jawa Barat lakukan tesswabmassal pada Selasa, 2 Juni 2020. Tes ini juga diikuti oleh ratusan warga Kampung Buninagara Kelurahan Nagarasari Kecamatan CipedesKota Tasikmalaya. Ratusan warga yang pernah melakukan kontak dengan pasien positifCOVID-19di wilayah itu, dites oleh puluhan petugas kesehatan yang mengenakan Alat Pelindung Diri (APD) lengkap. Kegiatan tesswabmassal ini juga dihadiri oleh Budi Budiman ketua tim Gugus Tugas Covid-19Kota Tasikmalaya. Selain itu, turut dihadiri pula oleh Uus Supangat Kepala Dinas KesehatanKota Tasikmalaya, pihak kepolisian, TNI dan yang lainnya. Baca Juga:Ratusan Calon Jemaah Haji Kota Sukabumi Batal Berangkat ke Tanah Suci Kegiatan tesswabmassal itu merupakan program Pemerintah Provinsi (Pemprov) Jawa Barat (Jabar), danKota Tasikmalayadipilih sebagai salah satu pencontohan (pilot project) karantina mikro, kata Ketua tim Gugus Tugas Covid-19Kota Tasikmalaya. Budi, yang juga merupakan Wali WaliKota Tasikmalayamengatakan dan menjelaskan bahwa dalam dua hari ke belakang dari Kampung BuninagaraKota Tasikmalayaterdapat tambahan satu kasus positifCOVID-19. "Walaupun diduga terpapdi daerah lain, tapi dia tinggal di sini dan telah melakukan kontak dengan banyak orang," kata dia. Baca Juga:328 Calon Jemaah Haji di Kota Cirebon Gagal Berangkat akibat Pandemi COVID-19 Laporan penambahan kasus itu disampaikan dari Gugus Tugas Percepatan PenangananCOVID-19Kota Tasikmalayake Gugus TugasCOVID-19Provinsi Jabar.Alhasil,Kota Tasikmalayadipilih menjadipilot projectprogram karantina mikro. Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Ratusan Warga Buninagara Ikuti Tes Swab Massal, Kota Tasikmalaya Dipilih Jadi Pilot Project" Untuk memastikan kondisi warga yang sempat melakukan kontak erat dengan pasien positif Covid-19, Gugus Tugas melakukantes swabmassal kepada sekira 100 orang. Hasilnya akan diketahui dalam waktu cepat. Baca Juga:Tak Kunjung Ada Kejelasan AKB, Pemkab Purwakarta Pilih Lanjutkan PSBB Parsial "Mudah-mudahan denganswabini akan memudahkam kita memutus mata rantai Covid-19," kata dia. Lebih lanjut ujar Budi, saat ini ada sekira 30 warga di delapan rumah di Kampung Buninagara yang diisolasi. Isolasi itu menjadi bagian dari program karantina mikro. Pihaknya juga masih menunggu hasil tesswabuntuk menentukan langkah selanjutnya. Baca Juga:1.490 Calon Jemaah Haji Kabupaten Tasikmalaya Batal Berangkat akibat Penundaan hingga Tahun Depan "Jika ditemukan ada warga yang positif, karantina mikro akan diperluas. Artinya, lingkungan itu akan diisolasi secara penuh. Namun, jika hasilnya negatif, petugas medis tetap akan melakukan pemantauan selama 14 hari," katanya. Sementara itu, Koordinator kegiatan yang juga tim  Gugus Tugas Covid-19 Jawa Barat, Eti Kusmiati mengatakan, pelaksanaan tesswabmassal tersebut melibatkan Dinas Kesehatan Provinsi Jabar, Dinas KesehatanKota Tasikmalaya, dan petugas puskesmas setempat.Tesswabmassal itu dilakukan setelah Gugus Tugas Covid-19 Provinsi Jabar mendapat laporan penemuan kasus pasien positif baru di wilayah itu. Baca Juga:Di Tengah Pandemi Covid-19, Kasus DBD Melonjak di Kota Tasikmalaya "Setelah dapat laporan dari daerah kitatracinguntuk 100 orang. 100 orang itu kita tesswab," kata dia. Eti menyebutkan, hasil tesswabitu akan dapat diketahui dalam waktu dua hari. Namun, pengawasannya akan dilakukan selama 14 hari. Termasuk warga yang diisolasi mandiri. Setelah 14 hari, lanjut Eti, pihaknya akan melakukan tesswabulang kepada 100 orang tersebut. Tesswabulang itu dilakukan untuk memastikan tak ada tambahan kasus baru di wilayah itu. Baca Juga:Warga Positif Covid-19 Sebelum Idul Fitri, Satu Desa di Majalengka Diterapkan Lockdown Ia mengatakan, tesswabmassal ini merupakan bagian dari program karantina mikro Pemprov Jabar. Menurut dia, program itu dilakukan secara serentak di enam kabupaten/kota, termasukKota Tasikmalaya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01393180/di-tengah-pandemi-covid-19-kasus-dbd-melonjak-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Di Tengah Pandemi Covid-19, Kasus DBD Melonjak di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C330" s="2" t="n">
-        <v>43984.73055555556</v>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Di tengah merebaknya pandemi Covid-19, penyebaran penyakit demam berdarah dengue (DBD) dan tuberkulosis (TBC) juga mengancam wargaKota Tasikmalaya. Sebanyak enam warga pun meninggal akibat terjangkit demam berdarah. Kepala Dinas KesehatanKota TasikmalayaUus Supangat mengungkapkan, jumlah kasus demam berdarah dalam kurun Januari-April 2020 mencapai 264 kasus. Baca Juga:Pemkot Bandung Akan Undang KONI dan Dispora Bahas Keberlangsungan Kegiatan Olahraga "Jumlah kematian di tahun 2020 (akibat)DBDini ada enam orang," ucap Uus dalam tayangan Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Selasa, 2 Juni 2020. SedangkanTBCmencapai 345 kasus dengan persentase tingkat kematian yang tinggi. "Grafik kematiannya cukup tinggi bisa mencapai 40 persen, nah ini yaang harus menjadi perhatian kita," tuturnya. Meski demikian, Uus tak menjelaskan lebih detail jumlah warga yang meninggal karenaTBC. Sementara itu, WaliKota TasikmalayaBudi Budiman menghimbau warga menerapkan pola hidup sehat agar tak terjangkit penyakit-penyakit tersebut. ‎ Baca Juga:Minta Masyarakat Kulit Hitam untuk Tetap Tenang, Mantan Miss Universe Diserang Netizen Sosmed "Tetap jaga kesehatan di tengah pandemi Covid-19 dan waspada terhadap penyakit lainnya sepertiDBDdan penyakt menularTBC," kata Budi. Ia juga wanti-wanti agar masyarakat melakukan pemberantasan sarang nyamuk secara serentak dan berkala guna mencegahDBD. "‎Menguras membersihkan tempat penampungan air, menutup rapat-rapat serta menguburkan barang-barang bekas. Ingat di musim penghujan ini,DBDrentan terjadi di sekitar kita," ucapnya. Untuk pencegahan penularanTBC, Budi juga berbagi tips.PIKIRAN RAKYAT -Di tengah merebaknya pandemi Covid-19, penyebaran penyakit demam berdarah dengue (DBD) dan tuberkulosis (TBC) juga mengancam wargaKota Tasikmalaya. Sebanyak enam warga pun meninggal akibat terjangkit demam berdarah. Kepala Dinas KesehatanKota TasikmalayaUus Supangat mengungkapkan, jumlah kasus demam berdarah dalam kurun Januari-April 2020 mencapai 264 kasus. Baca Juga:Pemkot Bandung Akan Undang KONI dan Dispora Bahas Keberlangsungan Kegiatan Olahraga "Jumlah kematian di tahun 2020 (akibat)DBDini ada enam orang," ucap Uus dalam tayangan Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Selasa, 2 Juni 2020. SedangkanTBCmencapai 345 kasus dengan persentase tingkat kematian yang tinggi. "Grafik kematiannya cukup tinggi bisa mencapai 40 persen, nah ini yaang harus menjadi perhatian kita," tuturnya. Meski demikian, Uus tak menjelaskan lebih detail jumlah warga yang meninggal karenaTBC. Sementara itu, WaliKota TasikmalayaBudi Budiman menghimbau warga menerapkan pola hidup sehat agar tak terjangkit penyakit-penyakit tersebut. ‎ Baca Juga:Minta Masyarakat Kulit Hitam untuk Tetap Tenang, Mantan Miss Universe Diserang Netizen Sosmed "Tetap jaga kesehatan di tengah pandemi Covid-19 dan waspada terhadap penyakit lainnya sepertiDBDdan penyakt menularTBC," kata Budi. Ia juga wanti-wanti agar masyarakat melakukan pemberantasan sarang nyamuk secara serentak dan berkala guna mencegahDBD. "‎Menguras membersihkan tempat penampungan air, menutup rapat-rapat serta menguburkan barang-barang bekas. Ingat di musim penghujan ini,DBDrentan terjadi di sekitar kita," ucapnya. Untuk pencegahan penularanTBC, Budi juga berbagi tips."Kemudian untuk pencegahanTBC, yaitu dengan menggunakan masker dan menjaga jarak dari penderita, berikan imunisasi dengan vaksin BCG kepada bayi," ujarnya. Budi juga meminta penderitaTBCmelakukan pengobatan hingga tuntas. Baca Juga:Warga Positif Covid-19 Sebelum Idul Fitri, Satu Desa di Majalengka Diterapkan Lockdown Dalam catatan "PR" jumlah kasusDBDterbaru itu mengalami lonjakan jika dibandingkan dengan data pada Januari-Februari 2020. Dalam kurun itu, Jumlah yang mengidap demam berdarah baru 127 orang/kasus. Rinciannya, Januari sebanyak 35 laki-laki, 43 perempuan terjangkitDBD. Pada Februari, 22 laki-laki dan 27 perempuan. Di luar jumlah total tersebut, dua warga telah meninggal lantaran penyakit yang ditularkan melalui gigitan nyamuk tersebut. Nila selaku Pengelola ProgramDBDDinkesKota Tasikmalayamengatakan, dua korban demam berdarah itu masih berusia sekira empat tahun. Kedua anak perempuan itu masing-masing bernama Nadira Khoerunisa asal Kampung Sengkol Kulon, RT 2 RW 5, Kelurahan Kersamenak, Kecamatan Kawalu dan  Siti Maryam Izatunnisa, Jalan Letjen Haji Mashudi Nomor 3, Kampung Babakan Tengah, RT 01 RW 03, Kelurahan Kersamenak, Kecamat Kawalu. Baca Juga:860 Calon Jemaah Haji Asal Kabupaten Sumedang Batal Berangkat Siti yang meninggal pada Februari sempat menjalani perawatan di Rumah Sakit Jasa Kartini. Di hari kelima perawatan, Siti pulang ke rumah bergantian dengan neneknya yang masuk dan dirawat di rumah sakit karena penyakit serupa. "Di rumah hanya semalam, (Siti) masuk (lagi rumah sakit) langsung drop, masuk IGD," kata Nila di Kantor DinkesKota TasikmalayaJalan Ir H Juanda, saat itu. Bocah itu pun akhirnya mengembuskan napas terakhirnya setelah masuk rumah sakit untuk kedua kalinya. Sedangkan Nadira langsung dalam kondisi syok saat pertama kali masuk RSUD Dokter Soekardjo pada Januari 2020. Lima belas menit kemudian Nadira meninggal. Hingga Februari, Tamansari dan Kawalu merupakan dua kecamatan yang paling banyak kasus deman berdarahnya. Untuk Tamansari, jumlahnya mencapai 38 kasus dan Kawalu 39 kasus.Nila menuturkan, penyebab berjangkitnya demam berdarah karena masih kurangnya kesadaran warga dalam menjaga kebersihan di dalam dan luar rumahnya. Jentik-jentik nyamuk bisa ditemukan di lingkungan kediaman warga yang terserang penyakit itu. Ia mencontohkan, jentik nyamuk didapati di tempat penampungan dispenser galonair minum, pot-pot tanaman bahkan gelas yang menampung air. Untuk itu, Dinkes mengimbau warga membersihkan berbagai macam tempat penampungan seperti bak mandi, ember, pot, kolam hias seminggu satu kali untuk mencegak berkembang biaknya jentik nyamuk.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01392552/tim-gugus-tugas-pantau-kesiapan-kenormalan-baru-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Tim Gugus Tugas Pantau Kesiapan Kenormalan Baru di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C331" s="2" t="n">
-        <v>43983.83055555556</v>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Tim Gugus Tugas Percepatan Penanganan Covid-19Kota Tasikmalayamelakukan pemantauan kesiapan dan sosialisasi Pembatasan Sosial Berskala Besar (PSBB) ketiga atauKenormalan Barudi sejumah pusat perbelanjaan Minggu 31 Mei 2020. Tim menyambangi sejumlah pusat perbelanjaan sepertiPasar Cikurubuk, Mal Mega M, dan Mayasari Plaza. Tak hanya itu, Masjid Agung dan Gereja di wilayah Gunung Pereng turut dikunjungi. Baca Juga:Tiongkok Sebut Amerika Serikat Munafik karena Dukung Protes di Hong Kong ‎WaliKota TasikmalayaBudi Budiman mengatakan, wilayahnya telah dua kali menerapkan PSBB. Hasil evalusi Pemerintah Provinsi Jawa Barat menunjukkan,Kota Tasikmalayayang awalnya berada di level zona merah kini berada di zona biru. "AlhamdulillahKota Tasikmalayaakan melaksanakan PSBB ketiga yaitu new normal/Adaptasi Kebiasaan Baru (AKB)," kata Budi dalam keterangan tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Senin,  1 Juni 2020. Dengan memasuki tahapKenormalan Baru, Budi tetap menghimbau warga mengikuti protokol kesehatan seperti mencuci tangan dengan sabun, selalu membawa hand sanitizer, menggunakan masker, jagar jarak dan menggunakan sarung tangan. Baca Juga:Terungkap Kunci Sukses Tegal Tangani Corona hingga Dipilih Jadi Contoh Penerapan New Normal Dalam data Diskominfo yang bersumber dari Dinas KesehatanKota Tasikmalayaterkini, jumlah kasus/warga yang positif Covid-19 mencapai 48 kasus dengan masing-masing 24 terkonfirmasi melalui tes rapid dan PCR. Dari 24 yang terkonfirmasi PCR, 14 sembuh, 8 aktif (terjangkit) dan 2 meningal. Sedangan 24 tes rapid, 23 negatif, 0 proses, 1 meninggal. ***PIKIRAN RAKYAT –Tim Gugus Tugas Percepatan Penanganan Covid-19Kota Tasikmalayamelakukan pemantauan kesiapan dan sosialisasi Pembatasan Sosial Berskala Besar (PSBB) ketiga atauKenormalan Barudi sejumah pusat perbelanjaan Minggu 31 Mei 2020. Tim menyambangi sejumlah pusat perbelanjaan sepertiPasar Cikurubuk, Mal Mega M, dan Mayasari Plaza. Tak hanya itu, Masjid Agung dan Gereja di wilayah Gunung Pereng turut dikunjungi. Baca Juga:Tiongkok Sebut Amerika Serikat Munafik karena Dukung Protes di Hong Kong ‎WaliKota TasikmalayaBudi Budiman mengatakan, wilayahnya telah dua kali menerapkan PSBB. Hasil evalusi Pemerintah Provinsi Jawa Barat menunjukkan,Kota Tasikmalayayang awalnya berada di level zona merah kini berada di zona biru. "AlhamdulillahKota Tasikmalayaakan melaksanakan PSBB ketiga yaitu new normal/Adaptasi Kebiasaan Baru (AKB)," kata Budi dalam keterangan tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Senin,  1 Juni 2020. Dengan memasuki tahapKenormalan Baru, Budi tetap menghimbau warga mengikuti protokol kesehatan seperti mencuci tangan dengan sabun, selalu membawa hand sanitizer, menggunakan masker, jagar jarak dan menggunakan sarung tangan. Baca Juga:Terungkap Kunci Sukses Tegal Tangani Corona hingga Dipilih Jadi Contoh Penerapan New Normal Dalam data Diskominfo yang bersumber dari Dinas KesehatanKota Tasikmalayaterkini, jumlah kasus/warga yang positif Covid-19 mencapai 48 kasus dengan masing-masing 24 terkonfirmasi melalui tes rapid dan PCR. Dari 24 yang terkonfirmasi PCR, 14 sembuh, 8 aktif (terjangkit) dan 2 meningal. Sedangan 24 tes rapid, 23 negatif, 0 proses, 1 meninggal. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01392103/pemkot-tasikmalaya-gencar-lakukan-sosialisasi-ke-warga-bersiap-untuk-terapkan-new-normal</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Pemkot Tasikmalaya Gencar Lakukan Sosialisasi ke Warga, Bersiap untuk Terapkan New Normal</t>
-        </is>
-      </c>
-      <c r="C332" s="2" t="n">
-        <v>43983.41527777778</v>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wali KotaTasikmalaya, Budi Budiman yang juga selaku Ketua Gugus TugasCOVID-19KotaTasikmalayamengatakan, KotaTasikmalayatermasuk daerah yang mendapat rekomendasi melaksanakannew normal, baik dari Provinsi Jawa Barat maupun pemerintah pusat. Menurut Budi, fasenew normalini merupakan bagian yang tidak terpisahkan dengan penerapan Pembatasan Sosial Berskala Besar (PSBB). Rencananya fasenew normaldi KotaTasikmalayaakan mulai diterapkan pada Selasa, 2 Juni 2020. Baca Juga:Ramalan Zodiak Bulan Juni 2020, Kehidupan Cinta Leo akan Mulai Terbuka Jelas Selain itu, Gugus Tugas Percepatan PenangananCOVID-19KotaTasikmalayapun bersiap sosialisasikan terkait penerapan fase kenormalan baru atau yang disebut adaptasi kebiasaan baru (AKB). Budi mengatakan, tempat-tempat itu akan diperkenankan kembali beroperasi tapi tetap melaksanakan protokol kesehatan. "Dalam pelaksanaan kenormalan baru, protokol kesehatan harus tetap dilaksanakan," katanya. Budi menambahkan, seluruh pelaku usaha juga mesti berkomitmen memberlakukan protokol kesehatan. Jika tidak mengindahkan komitmen itu, pihaknya tidak segan memberikan sanksi dengan mencabut izin usahanya. Baca Juga:Soal New Normal, Wali Kota Tasikmalaya: Ini Jadi Fase Adaptasi Warga di Segala Kegiatan Sementara itu, petugas gabungan yang biasa menjaga di pos PSBB akan melakukan pengawasan langsung masuk ke objek perkumpulan massa. Seperti di pasar, pusat pertokoan, hingga mal, petugas akan mengawasi penerapan protokol kesehatan. "Nantinya, akan ada juga petugas yang berpatroli," ujarnya. PIKIRAN RAKYAT- Wali KotaTasikmalaya, Budi Budiman yang juga selaku Ketua Gugus TugasCOVID-19KotaTasikmalayamengatakan, KotaTasikmalayatermasuk daerah yang mendapat rekomendasi melaksanakannew normal, baik dari Provinsi Jawa Barat maupun pemerintah pusat. Menurut Budi, fasenew normalini merupakan bagian yang tidak terpisahkan dengan penerapan Pembatasan Sosial Berskala Besar (PSBB). Rencananya fasenew normaldi KotaTasikmalayaakan mulai diterapkan pada Selasa, 2 Juni 2020. Baca Juga:Ramalan Zodiak Bulan Juni 2020, Kehidupan Cinta Leo akan Mulai Terbuka Jelas Selain itu, Gugus Tugas Percepatan PenangananCOVID-19KotaTasikmalayapun bersiap sosialisasikan terkait penerapan fase kenormalan baru atau yang disebut adaptasi kebiasaan baru (AKB). Budi mengatakan, tempat-tempat itu akan diperkenankan kembali beroperasi tapi tetap melaksanakan protokol kesehatan. "Dalam pelaksanaan kenormalan baru, protokol kesehatan harus tetap dilaksanakan," katanya. Budi menambahkan, seluruh pelaku usaha juga mesti berkomitmen memberlakukan protokol kesehatan. Jika tidak mengindahkan komitmen itu, pihaknya tidak segan memberikan sanksi dengan mencabut izin usahanya. Baca Juga:Soal New Normal, Wali Kota Tasikmalaya: Ini Jadi Fase Adaptasi Warga di Segala Kegiatan Sementara itu, petugas gabungan yang biasa menjaga di pos PSBB akan melakukan pengawasan langsung masuk ke objek perkumpulan massa. Seperti di pasar, pusat pertokoan, hingga mal, petugas akan mengawasi penerapan protokol kesehatan. "Nantinya, akan ada juga petugas yang berpatroli," ujarnya.Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Pemkot Mulai Sosialisasikan New Normal di Tasikmalaya, Bakal Diberlakukan Serentak" Budi mengingatkan, penerapannew normalperlu dukungan semua pihak terutama adalah kedisiplinan masyarakat. "Kita ingin dan rindu kehidupan normal. Karena itu, semua harus bekerja sama mematuhi anjuran yang ada," katanya. Baca Juga:Ilmuwan NASA Sebut Kemunculan Flare Matahari Jadi Tanda Akhir dari Siklus Saat Ini Budi juga mengatakan, pihaknya belum bisa menentukan sampai kapan fasenew normalberlangung. Pasalnya, hingga saat ini vaksinCOVID-19belum ditemukan. Menurut dia, vaksinCOVID-19bisa saja ditemukan setahun atau dua tahun kemudian. Sementara, pemerintah tak mungkin terus menerapkan PSBB. "Ekonomi, pendidikan, agama, sosial, dan budaya, harus berjalan," kata dia. Budi mengatakan, saat ini KotaTasikmalayatelah termasuk ke dalam level 2 atau zona biru di Jabar. Dengan fasenew normal, ia berharap, KotaTasikmalayaakan menjadi level 1 zona hijau. Baca Juga:PSBB Secara Proporsional, Jadi Cara Pemkot Bandung Perketat Pengawasan Protokol Kesehatan "Kalau kita semua disiplin, kita bisa jadi zona hijau. Tapi kalau diabaikan, justru bisa kembali ke zona kuning atau merah," kata dia.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01392099/soal-new-normal-wali-kota-tasikmalaya-ini-jadi-fase-adaptasi-warga-di-segala-kegiatan</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Soal New Normal, Wali Kota Tasikmalaya: Ini Jadi Fase Adaptasi Warga di Segala Kegiatan</t>
-        </is>
-      </c>
-      <c r="C333" s="2" t="n">
-        <v>43983.39166666667</v>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- KotaTasikmalayadan sekitarnya akan mulai menerapkan fasenew normalmulai Selasa, 2 Juni 2020. Wali KotaTasikmalaya, Budi Budiman yang juga selaku Ketua Gugus TugasCOVID-19KotaTasikmalayamenuturkan bahwanew normalmerupakan suatu fase adaptasi warga untuk melakukan segala kegiatan dan tetap menerapkan protokol kesehatan. Budi pun menambahkan, selamanew normalsejumlah pos penyekatan di pusat kota tidak lagi beroperasi. Baca Juga:Saat Dihadapi 1,8 Juta Kasus Corona hingga Demonstrasi Besar, Trump Cuma Gerutu Lewat Twitter Selain itu, Gugus TugasCOVID-19KotaTasikmalayaakan tetap melakukan penyekatan di lima titik di batas kota. Lima titik itu di antaranya di wilayah Indihiang, Karangresik, Urug di Kawalu, Mangkubumi, dan Awipari. Budi juga mengatakan, setiap warga yang hendak masuk ke wilayah Kota Tasimalaya harus menunjukan surat keterangan sehat dan bukti hasil uji cepat (rapid test)COVID-19. "Karena kita ingin warga yang masuk itu tidak menjadi imported case," katanya. Baca Juga:Sumedang Bersiap Sambut New Normal, Dilaksanakan Mulai 2 Juni 2020 Hingga saat ini, tercatat 48 kasus positifCOVID-19di KotaTasikmalaya. Sebanyak 24 orang terkonfirmasi melalui tes swab dan 24 orang melalui uji cepat (rapid test). PIKIRAN RAKYAT- KotaTasikmalayadan sekitarnya akan mulai menerapkan fasenew normalmulai Selasa, 2 Juni 2020. Wali KotaTasikmalaya, Budi Budiman yang juga selaku Ketua Gugus TugasCOVID-19KotaTasikmalayamenuturkan bahwanew normalmerupakan suatu fase adaptasi warga untuk melakukan segala kegiatan dan tetap menerapkan protokol kesehatan. Budi pun menambahkan, selamanew normalsejumlah pos penyekatan di pusat kota tidak lagi beroperasi. Baca Juga:Saat Dihadapi 1,8 Juta Kasus Corona hingga Demonstrasi Besar, Trump Cuma Gerutu Lewat Twitter Selain itu, Gugus TugasCOVID-19KotaTasikmalayaakan tetap melakukan penyekatan di lima titik di batas kota. Lima titik itu di antaranya di wilayah Indihiang, Karangresik, Urug di Kawalu, Mangkubumi, dan Awipari. Budi juga mengatakan, setiap warga yang hendak masuk ke wilayah Kota Tasimalaya harus menunjukan surat keterangan sehat dan bukti hasil uji cepat (rapid test)COVID-19. "Karena kita ingin warga yang masuk itu tidak menjadi imported case," katanya. Baca Juga:Sumedang Bersiap Sambut New Normal, Dilaksanakan Mulai 2 Juni 2020 Hingga saat ini, tercatat 48 kasus positifCOVID-19di KotaTasikmalaya. Sebanyak 24 orang terkonfirmasi melalui tes swab dan 24 orang melalui uji cepat (rapid test).Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Sambut New Normal Kota Tasikmalaya, Budi Budiman: Bukan Berarti Semua Kegiatan Kembali Seperti Biasa" Dari 48 orang, 37 orang telah dinyatakan telah sembuh atau negatif, delapan orang masih dalam perawatan, dan tiga orang meninggal dunia. Baca Juga:Lagu Keke Bukan Boneka Diprotes Pencipta dan Penyanyi Asli, Kekeyi: Aku Buat Sendiri Seperti diberitakan sebelumnya oleh PikiranRakyat-Tasikmalaya.com, Gugus Tugas Percepatan PenangananCOVID-19KotaTasikmalayamemutuskan untuk menerapkan fase kenormalan baru (new normal) atau adaptasi kebiasaan baru (ALB) pada Selasa 2 Juni 2020. Hal itu dilakukan lantaran KotaTasikmalayasaat ini telah masuk ke dalam level 2 atau zona biru penyebaranCOVID-19di Provinsi Jawa Barat.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01391298/wali-kota-tasikmalaya-optimis-fase-new-normal-bisa-berjalan-di-tengah-pelaksanaan-psbb</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Wali Kota Tasikmalaya Optimis Fase New Normal Bisa Berjalan di Tengah Pelaksanaan PSBB</t>
-        </is>
-      </c>
-      <c r="C334" s="2" t="n">
-        <v>43981.74097222222</v>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wali Kota Tasikmalaya, Budi Budiman mengatakan tidak akan memperpanjang pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) di Kota Tasikmalaya. Diketahui, sebelumnya Pemerintah Provinsi Jawa Barat resmi mengeluarkan kebijakan untuk memperpanjang masa PSBB, melalui Surat Keputusan Gubernur Jawa Barat Nomor 443/kep.287-Hukham/2020 dan akan dibagi dua waktu perpanjangannya. Budi menuturkan bahwa dirinya optimis fasenew normalakan tetap diberlakukan mulai Senin, 1 Juni 2020. Baca Juga:Situasi Terkendali, RSHS Bandung Siap Buka Layanan Kesehatan Non COVID-19 Tentang bagaimana kepastian antara PSBB dan new normal, kata Budi, pihaknya akan mengadakanvideo conferencedengan Gubernur Jabar. "Jadi kepastiannya nanti setelah vicon dengan Bapak Gubernur. Mudah-mudahan hasilnya sesuai dengan harapan masyarakat," tambahnya. Menurutnya , fase new normal bisa berjalan di tengah PSBB karena di dalamnya tetap ada batasan-batasan, serta protokol kesehatan mencegah Covid-19 yang masih diberlakukan. Baca Juga:Rumah Ibadah akan Kembali Dibuka, Menag Ungkap 11 Kewajiban yang Harus Diperhatikan Petugas Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Tak Perpanjang Masa PSBB, Wali Kota Tasikmalaya Optimistis New Normal Tetap Diberlakukan 1 Juni" PIKIRAN RAKYAT- Wali Kota Tasikmalaya, Budi Budiman mengatakan tidak akan memperpanjang pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) di Kota Tasikmalaya. Diketahui, sebelumnya Pemerintah Provinsi Jawa Barat resmi mengeluarkan kebijakan untuk memperpanjang masa PSBB, melalui Surat Keputusan Gubernur Jawa Barat Nomor 443/kep.287-Hukham/2020 dan akan dibagi dua waktu perpanjangannya. Budi menuturkan bahwa dirinya optimis fasenew normalakan tetap diberlakukan mulai Senin, 1 Juni 2020. Baca Juga:Situasi Terkendali, RSHS Bandung Siap Buka Layanan Kesehatan Non COVID-19 Tentang bagaimana kepastian antara PSBB dan new normal, kata Budi, pihaknya akan mengadakanvideo conferencedengan Gubernur Jabar. "Jadi kepastiannya nanti setelah vicon dengan Bapak Gubernur. Mudah-mudahan hasilnya sesuai dengan harapan masyarakat," tambahnya. Menurutnya , fase new normal bisa berjalan di tengah PSBB karena di dalamnya tetap ada batasan-batasan, serta protokol kesehatan mencegah Covid-19 yang masih diberlakukan. Baca Juga:Rumah Ibadah akan Kembali Dibuka, Menag Ungkap 11 Kewajiban yang Harus Diperhatikan Petugas Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Tak Perpanjang Masa PSBB, Wali Kota Tasikmalaya Optimistis New Normal Tetap Diberlakukan 1 Juni"Sehari sebelumnya, Budi mengumumkan hasil rapat Gugus Tugas Percepatan PenangananCOVID-19bahwa PSBB tak diperpanjang, hanya sampai Jumat, 29 Mei 2020, sesuai jadwal sebelumnya dan bersiap memasuki fasenew normal. "Kita memutuskan tidak memperpanjang PSBB di Kota Tasikmalaya dan bersiap menyongsong fase kehidupan baru, yaitunew normal," tandas Budi.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01390767/pasien-sembuh-dapat-surat-sehat-di-tasikmalaya-positif-covid-19-tinggal-5-orang-di-rsud</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Pasien Sembuh Dapat Surat Sehat di Tasikmalaya, Positif COVID-19 Tinggal 5 Orang di RSUD</t>
-        </is>
-      </c>
-      <c r="C335" s="2" t="n">
-        <v>43980.75416666667</v>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Pada saat ini pasien positifCOVID-19diKota Tasikmalayatinggal lima orang, walaupun secara akumulatif pasien positifCOVID-19mencapai 47 orang. Dengan demikian, jumlah pasien positif yang sembuh dariCOVID-19sudah mencapai 39 orang dan yang meninggal dunia sebanyak tiga orang hingga Jumat, 29 Mei 2020. Pada saat ini, tiga ruangan isolasi khusus pasien positifCOVID-19diRSUDdr. Soekardjo Tasikmalaya semuanya sudah kosong atau tidak ada lagi pasien positif yang dirawat. Baca Juga:Evaluasi PSBB Jabar, Sudah Tidak Ada Zona Merah, Zona Biru Diizinkan Lakukan New Normal "Alhamdulillah kita bersyukur kondisi pasien positifCOVID-19diKota Tasikmalayasecara umum sudah membaik," kata Walikota Tasikmalaya Budi Budiman. "Bahkan diRSUDdr Soekardjo yang selama ini merawat 44 pasienCOVID-19baik yang sudah positif dan PDP. Sekarang sudah tak ada pasienCOVID-19yang dirawat atau nol," kata Budi usai menyerahkan surat sehat di aulaRSUDdr Soekarjdo kepada pasien virus corona yang telah dinyatakan sembuh setelah dirawat diRSUD. Mudah-mudahan, kata Budi, kondisi seperti itu bisa terus dipertahankan. WaliKota Tasikmalayaini juga berharap, pemberian surat sehat secara simbolis tersebut mudah-mudahan menjadi motivasi bagi pasien-pasien yang lain serta masyarakat agar tetap mengikuti protokol kesehatan. Baca Juga:Evaluasi PSBB Jabar, Sudah Tidak Ada Zona Merah, Zona Biru Diizinkan Lakukan New Normal "Mudah-mudahan mereka yang masih dirawat ini juga segera sembuh. Karena informasinya mereka juga secepatnya akan sembuh dan ini harus kita jaga," tegasnya. PIKIRAN RAKYAT- Pada saat ini pasien positifCOVID-19diKota Tasikmalayatinggal lima orang, walaupun secara akumulatif pasien positifCOVID-19mencapai 47 orang. Dengan demikian, jumlah pasien positif yang sembuh dariCOVID-19sudah mencapai 39 orang dan yang meninggal dunia sebanyak tiga orang hingga Jumat, 29 Mei 2020. Pada saat ini, tiga ruangan isolasi khusus pasien positifCOVID-19diRSUDdr. Soekardjo Tasikmalaya semuanya sudah kosong atau tidak ada lagi pasien positif yang dirawat. Baca Juga:Evaluasi PSBB Jabar, Sudah Tidak Ada Zona Merah, Zona Biru Diizinkan Lakukan New Normal "Alhamdulillah kita bersyukur kondisi pasien positifCOVID-19diKota Tasikmalayasecara umum sudah membaik," kata Walikota Tasikmalaya Budi Budiman. "Bahkan diRSUDdr Soekardjo yang selama ini merawat 44 pasienCOVID-19baik yang sudah positif dan PDP. Sekarang sudah tak ada pasienCOVID-19yang dirawat atau nol," kata Budi usai menyerahkan surat sehat di aulaRSUDdr Soekarjdo kepada pasien virus corona yang telah dinyatakan sembuh setelah dirawat diRSUD. Mudah-mudahan, kata Budi, kondisi seperti itu bisa terus dipertahankan. WaliKota Tasikmalayaini juga berharap, pemberian surat sehat secara simbolis tersebut mudah-mudahan menjadi motivasi bagi pasien-pasien yang lain serta masyarakat agar tetap mengikuti protokol kesehatan. Baca Juga:Evaluasi PSBB Jabar, Sudah Tidak Ada Zona Merah, Zona Biru Diizinkan Lakukan New Normal "Mudah-mudahan mereka yang masih dirawat ini juga segera sembuh. Karena informasinya mereka juga secepatnya akan sembuh dan ini harus kita jaga," tegasnya.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Kabar Baik, Positif Corona di Kota Tasikmalaya Tinggal 5 Orang, Pasien Sembuh Mendapat Surat Sehat" Lanjut Budi, pihaknya juga mengapresiasi tim medis, paramedis dan semua penunjang medis yang selama ini merawat pasienCOVID-19, baik yang positif maupun yang PDP. Budi juga menyampaikan, pasien yang positif masih dirawat tersisa 5 orang. Mereka dirawat di Rumah Sakit Yarsi serta kondisinya juga terus membaik. Baca Juga:Barista dan Wirausaha Kopi, Materi Pelatihan Pra Kerja yang Paling Diminati "Perlu kami sampaikan bahwa diKota Tasikmalayapasien yang positif COVID yang masih dirawat hanya menyisakan 5 pasien," katanya. Sedangkan untuk hal lainnya seperti ketersediaan Alat Pelindung Diri (APD), tambah dia, pihaknya sudah menyelesaikan masalah itu dan kondisi stoknya dipastikan aman. "Walaupun kita tetap menjaga dari hal yang tidak kita harapkan," tambahnya. Baca Juga:Ridwan Kamil: Jangan Euforia, New Normal 15 Daerah di Jawa Barat Diterapkan Bertahap Meskipun kondisi diRSUDsudah tak ada pasien corona yang dirawat, kata Budi, namun ruang isolasi khususCOVID-19akan ditambah menjadi 9 ruangan. Hal ini dilakukan guna mengantisipasi kemungkinan-kemungkinan yang bisa saja terjadi ke depannya "Dari awalnya 3 ruangan isolasi akan kita ditambah ruang khusus isolasinya jadi ada 9. Sekarang sedang kita bangun," jelasnya.Sekali lagi jata Budi, pihaknya sangat bersyukur bahwa kondisiKota Tasikmalayasaat ini sedang menuju kondisi pulih dariCOVID-19. Apalagi Kota Tasik sudah keluar dari zona merah dan masuk zona kuning. Baca Juga:Berjarak 2.500 Km dari Wuhan, Kota di Tiongkok Dilanda Wabah Virus Corona dengan Sumber Misterius "Alhamdulillah ini semua hasil kerja keras tim. Mudah-mudahan puncaknya sudah lewat. Tetapi bagaimanapun, kita harus tetap waspada dan menjaga pola hidup sehat," ujar Budi. Budi tetap mengingatkan masyarakat agar tetap menjaga pola hidup sehat dan terus mengaplikasikan protokol kesehatan. "Karena sampai hari ini vaksin corona belum ditemukan, dan kita pun harus terus berjalan jangan menunggu vaksin ada. Kita tetap terus jaga dengan menerapkan protokol kesehatan," katanya mengakhiri.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01390765/wali-kota-tasikmalaya-serahkan-surat-sembuh-pasien-covid-19-terakhir-di-rsud-dr-soekardjo</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Wali Kota Tasikmalaya Serahkan Surat Sembuh Pasien Covid-19 Terakhir di RSUD dr Soekardjo</t>
-        </is>
-      </c>
-      <c r="C336" s="2" t="n">
-        <v>43980.73958333334</v>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Wali Kota Budi Budiman menyerahkan surat keterangan sembuh kepada pasien Covid-19 terakhir di Rumah Sakit Umum Daerah dr Soekardjo, Jalan Rumah Sakit,Kota Tasikmalaya, Jumat, 29 Mei 2020. Penyerahan tersebut juga menandai sudah tidak ada lagi pasien corona yang dirawat di RSUD tersebut. Budi juga bersyukur lantaran pasien-pasien virus yang dirawat di sana telah sembuh. Baca Juga:Berikut Daftar 6 Armada Tempur Laut Kapal Selam Tercanggih di Dunia "Di RSUD dr Soekardjo yang selama ini merawat 44 pasien Covid-19 baik yang sudah positif dan PDP (pasien dalam pengawasan), sekarang sudah tidak ada pasien Covid yang dirawat. Nol," kata Budi dalam keterangan tertulis Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Budi pun berharap hal tersebut bisa dipertahankan ke depan. Ia juga memuji kinerja para tenaga medis yang terjun dalam penanggulangan pandemi. "Saya mengapresiasi dan mengucapkan terima kasih kepada tim medis, paramedis, dan semua penunjang medis yang telah berjuang dalam penanganan Covid-19," ucapnya. Baca Juga:Evaluasi PSBB Jabar, Sudah Tidak Ada Zona Merah, Zona Biru Diizinkan Lakukan New Normal Sementara itu, Diskominfo kembali menampilkan data warga/kasus yang positif corona dengan konfirmasi dari rapid diagnostic test (RDT) dalam laporan di Instagramnya. Sehari sebelumnya atau Kamis, 28 Mei 2020, data hasil rapid test raib. Diskominfo hanya memajang data positif Covid-19 hasil tes polymerase chain reaction (PCR).PIKIRAN RAKYAT –Wali Kota Budi Budiman menyerahkan surat keterangan sembuh kepada pasien Covid-19 terakhir di Rumah Sakit Umum Daerah dr Soekardjo, Jalan Rumah Sakit,Kota Tasikmalaya, Jumat, 29 Mei 2020. Penyerahan tersebut juga menandai sudah tidak ada lagi pasien corona yang dirawat di RSUD tersebut. Budi juga bersyukur lantaran pasien-pasien virus yang dirawat di sana telah sembuh. Baca Juga:Berikut Daftar 6 Armada Tempur Laut Kapal Selam Tercanggih di Dunia "Di RSUD dr Soekardjo yang selama ini merawat 44 pasien Covid-19 baik yang sudah positif dan PDP (pasien dalam pengawasan), sekarang sudah tidak ada pasien Covid yang dirawat. Nol," kata Budi dalam keterangan tertulis Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Budi pun berharap hal tersebut bisa dipertahankan ke depan. Ia juga memuji kinerja para tenaga medis yang terjun dalam penanggulangan pandemi. "Saya mengapresiasi dan mengucapkan terima kasih kepada tim medis, paramedis, dan semua penunjang medis yang telah berjuang dalam penanganan Covid-19," ucapnya. Baca Juga:Evaluasi PSBB Jabar, Sudah Tidak Ada Zona Merah, Zona Biru Diizinkan Lakukan New Normal Sementara itu, Diskominfo kembali menampilkan data warga/kasus yang positif corona dengan konfirmasi dari rapid diagnostic test (RDT) dalam laporan di Instagramnya. Sehari sebelumnya atau Kamis, 28 Mei 2020, data hasil rapid test raib. Diskominfo hanya memajang data positif Covid-19 hasil tes polymerase chain reaction (PCR).Dalam laporan yang bersumber dari data Dinas KesehatanKota Tasikmalayapada Jumat, jumlah kasus/warga yang positif Covid-19 mencapai 47 kasus dengan 23 terkonfirmasi PCR dan 24 RDT. Baca Juga:Anggota DPRD Pangandaran yang Bubarkan Tempat Isolasi Saat Malam Takbiran Dilaporkan ke Polisi Dari 23 hasil PCR, 13 dinyatakan sembuh, 8 aktif (masih terjangkit), 2 meninggal. Sedangkan 24 RDT, 23 negatif, 0 proses, 1 meninggal. Untuk PDP mencapai 40 kasus dengan 34 selesai pengawasan, 1 dalam pengawasan, 5 meninggal. Orang Dalam Pemantauan (ODP) 1223 kasus dengan 1007 selesai pemantauan dan 216 selesai pemantauan. Orang Tanpa Gejala (OTG) 572 kasus dengan 365 selesai pengawasan dan 207 dalam pemantauan. Pada Rabu 27 Mei 2020, jumlah warga positif corona sempat mencapai 50 kasus dengan 23 terkonfirmasi melalui tes polymerase chain reaction (PCR) dan 27 rapid diagnostic test (RDT). Dari 23 yang terkonfirmasi positif melalui PCR, 10 orang/kasus sembuh, 11 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 27 kasus positif RDT, 20 negatif PCR, 6 menunggu hasil PCR/swab dan 1 meninggal.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01390234/jelang-new-normal-data-kasus-positif-covid-19-hasil-rapid-test-di-kota-tasikmalaya-menghilang</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Jelang New Normal, Data Kasus Positif Covid-19 Hasil Rapid Test di Kota Tasikmalaya Menghilang</t>
-        </is>
-      </c>
-      <c r="C337" s="2" t="n">
-        <v>43979.83333333334</v>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Data terkait jumlah warga/kasus positif Covid-19 yang terkonfirmasi melalui rapid diagnostic test (RDT) menghilang di media sosial Dinas Komunikasi dan InformatikaKota Tasikmalaya. Data yang ditampilkan hanya jumlah warga positif corona berdasarkan tes polymerase chain reaction (PCR). Penghilangan tersebut pun menai pertanyaan warga. Dalam Instagram DiskominfoKota Tasikmalayapada Kamis, 28 Mei 2020, data terbaru Covid-19 yang bersumber dari DinkesKota Tasikmalayasudah tak memajang jumlah warga/kasus positif yang terkonfirmasi melalui tes rapid. Baca Juga:Tom Hanks Kembali Donasikan Plasma Darah untuk Pasien COVID-19 Diskominfo hanya menampilkan data warga positif yang terkonfirmasi dalam tes PCR sebanyak 23 orang dengan rincian 12 sembuh, 9 aktif (terjangkit) dan 2 meninggal. Padahal sehari sebelumnya, data RDT masih ditampilkan. Hari itu, jumlah warga/kasus positif Covid-19 mencapai 50 kasus berdasarkan data yang ditampilkan Diskominfo dengan 23 terkonfirmasi melalui tes polymerase chain reaction (PCR) dan 27 rapid diagnostic test (RDT). Dari 23 yang terkonfirmasi positif melalui PCR, 10 orang/kasus sembuh, 11 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 27 kasus positif RDT, 20 negatif PCR, 6 menunggu hasil PCR/swab dan 1 meninggal. Baca Juga:AS Kirim 2 Pesawat B-1B Lancer Bomber ke Laut China Selatan, Perpanas Tensi dengan Tiongkok Angka tersebut menunjukkan adanya kenaikkan 3 kasus/orang yang positif Covid-19 yang terkonfirmasi dalam tes rapid jika dibandingkan dengan data‎ pada Selasa 26 Mei 2020. Sontak, hilangnya data positif via rapid tes mengundang pertanyaan warga. Mereka mempertanyakannnya di Instagram Diskominfo.PIKIRAN RAKYAT -Data terkait jumlah warga/kasus positif Covid-19 yang terkonfirmasi melalui rapid diagnostic test (RDT) menghilang di media sosial Dinas Komunikasi dan InformatikaKota Tasikmalaya. Data yang ditampilkan hanya jumlah warga positif corona berdasarkan tes polymerase chain reaction (PCR). Penghilangan tersebut pun menai pertanyaan warga. Dalam Instagram DiskominfoKota Tasikmalayapada Kamis, 28 Mei 2020, data terbaru Covid-19 yang bersumber dari DinkesKota Tasikmalayasudah tak memajang jumlah warga/kasus positif yang terkonfirmasi melalui tes rapid. Baca Juga:Tom Hanks Kembali Donasikan Plasma Darah untuk Pasien COVID-19 Diskominfo hanya menampilkan data warga positif yang terkonfirmasi dalam tes PCR sebanyak 23 orang dengan rincian 12 sembuh, 9 aktif (terjangkit) dan 2 meninggal. Padahal sehari sebelumnya, data RDT masih ditampilkan. Hari itu, jumlah warga/kasus positif Covid-19 mencapai 50 kasus berdasarkan data yang ditampilkan Diskominfo dengan 23 terkonfirmasi melalui tes polymerase chain reaction (PCR) dan 27 rapid diagnostic test (RDT). Dari 23 yang terkonfirmasi positif melalui PCR, 10 orang/kasus sembuh, 11 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 27 kasus positif RDT, 20 negatif PCR, 6 menunggu hasil PCR/swab dan 1 meninggal. Baca Juga:AS Kirim 2 Pesawat B-1B Lancer Bomber ke Laut China Selatan, Perpanas Tensi dengan Tiongkok Angka tersebut menunjukkan adanya kenaikkan 3 kasus/orang yang positif Covid-19 yang terkonfirmasi dalam tes rapid jika dibandingkan dengan data‎ pada Selasa 26 Mei 2020. Sontak, hilangnya data positif via rapid tes mengundang pertanyaan warga. Mereka mempertanyakannnya di Instagram Diskominfo."Kalau RDT dihapus pernah enggak transparan berapa samplingnya, baik PCR atau RDT? Udah berapa spesimen yang dites? Semua berita baik tanpa metode yang jelas hanya akan menjadi bom waktu," tulis Gie_Budiman mengomentari hilangnya data jumlah kasus positif corona via tes rapid. Baca Juga:Perkembangan Kasus COVID-19 Kabupaten Bandung Kamis 28 Mei 2020, 30 Pasien Dinyatakan Sembuh "PR" pun menghubungi Kepala DinkesKota TasikmalayaUus Supangat melalui WhatsApp, Kamis sore. "Ada kesalahan dalam sistem data, Insya Allah sudah kami sampaikan ke Kominfo untuk revisi‎ sebagai informasi publik," kata Uus. Ia mengaku pembenahan data sudah dilakukan. "Over data dan akses mungkin," ucapnya terkait musabab permasalahan data itu. "Alhamdulillah selang setengah jam terkoreksi, cuma terlanjur ke upload," ujar Uus. Uus menyatakan kesalahan dalam penyajian data itu hanya terjadi hari ini saja. ‎ "Yang kemarin valid dan‎ bisa di pertanggungjawabkan," tuturnya. Ia juga memastikan data positif Covid-19 yang terkonfirmasi melalui RDT tetap bakal tetap ditampilkan ke depan. Uus juga menampik hilangnya data RDT merupakan bagian dari persiapanKota Tasikmalayamemasukinew normalatau kenormalan baru yang dicanangkan pemerintah pusat. Baca Juga:Singapura Rilis Aplikasi Khusus untuk Pantau Status Kesehatan Pekerja Migran di Masa Pandemi Corona Dalam penelisikkan"PR" penghilangan data warga positif corona melalui tes rapid membuat jumlah pengidap virus tersebut jadi terlihat lebih sedikit diKota Tasikmalaya. Padahal jika ditampilkan bersama-sama baik data PCR dan RDT bakal terlihat ada tidaknya penambahan kasus itu. Seperti pada Rabu 27 Mei 2020, terlihat ada peningkatan tiga orang positif melaui tes rapid. Hingga berita ini ditulis atau Kamis sore pukul 17.14 tak terlihat unggahan di Instagram Diskominfo yang menyajikan data positif yang terkonfirmasi tes rapid kendati Dinkes mengaku telah mengoreksi dan menyampaikannya ke dinas tersebut.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01389979/pemkot-tasikmalaya-diskusikan-kelanjutan-psbb-dan-new-normal-di-wilayahnya</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Pemkot Tasikmalaya Diskusikan Kelanjutan PSBB dan New Normal di Wilayahnya</t>
-        </is>
-      </c>
-      <c r="C338" s="2" t="n">
-        <v>43979.59583333333</v>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT– KotaTasikmalayatengah melaksanakan Pembatasan Sosial Berskala Besar (PSBB) yang akan berakhir Pada Jumat, 29 Mei 2020. Terkait dengan hal ini, Pemerintah KotaTasikmalayaakan mengadakan rapat Gugus TugasCOVID-19pada Kamis, 28 Mei 2020, untuk membahas kelanjutan pelaksanaanPSBB. Ivan Dicksan, Juru BicaraCOVID-19KotaTasikmalayamengatakan dalam rapat itu, pihaknya akan mengevaluasi pelaksanaanPSBByang telah dilakukan selama lebih dari tiga pekan ini. Baca Juga:Jawa Barat Bersiap Penyesuaian PSBB, Skenario Tatanan Normal Baru Terus Dimatangkan Rapat ini juga akan membahas arahan presiden yang berkaitan dengannew normal(kenormalan baru) dalam menghadapi situasi pandemiCOVID-19. “Arahan Presiden itu kannew normalakan berlaku di 25 kabupaten/kota dan empat provinsi. Salah satunya itu wilayah Provinsi Jabar. Artinya,Tasikmalayajuga termasuk,’ kata Ivan saat dihubungi pada Kamis, 28 Mei 2020. Menurut Ivan, aparat TNI/Polri juga sudah mendapat arahan dari pimpinannya masing-masing untuk melakukan simulasi penerapannew normal. Baca Juga:Mal di Jakarta Buka Mulai 5 Juni, Anies Baswedan: Itu Imajinasi Itu Fiksi, PSBB Bisa Diperpanjang Sementara itu, Pemerintah Kota (Pemkot)Tasikmalayajuga telah melakukan diskusi dengan kepala dinas dan para camat terkait kebijakan itu, agar bisa melakukan sosialisasi. PIKIRAN RAKYAT– KotaTasikmalayatengah melaksanakan Pembatasan Sosial Berskala Besar (PSBB) yang akan berakhir Pada Jumat, 29 Mei 2020. Terkait dengan hal ini, Pemerintah KotaTasikmalayaakan mengadakan rapat Gugus TugasCOVID-19pada Kamis, 28 Mei 2020, untuk membahas kelanjutan pelaksanaanPSBB. Ivan Dicksan, Juru BicaraCOVID-19KotaTasikmalayamengatakan dalam rapat itu, pihaknya akan mengevaluasi pelaksanaanPSBByang telah dilakukan selama lebih dari tiga pekan ini. Baca Juga:Jawa Barat Bersiap Penyesuaian PSBB, Skenario Tatanan Normal Baru Terus Dimatangkan Rapat ini juga akan membahas arahan presiden yang berkaitan dengannew normal(kenormalan baru) dalam menghadapi situasi pandemiCOVID-19. “Arahan Presiden itu kannew normalakan berlaku di 25 kabupaten/kota dan empat provinsi. Salah satunya itu wilayah Provinsi Jabar. Artinya,Tasikmalayajuga termasuk,’ kata Ivan saat dihubungi pada Kamis, 28 Mei 2020. Menurut Ivan, aparat TNI/Polri juga sudah mendapat arahan dari pimpinannya masing-masing untuk melakukan simulasi penerapannew normal. Baca Juga:Mal di Jakarta Buka Mulai 5 Juni, Anies Baswedan: Itu Imajinasi Itu Fiksi, PSBB Bisa Diperpanjang Sementara itu, Pemerintah Kota (Pemkot)Tasikmalayajuga telah melakukan diskusi dengan kepala dinas dan para camat terkait kebijakan itu, agar bisa melakukan sosialisasi.Artikel ini sebelumnya telah tayang diPikiranrakyat-Tasikmalaya.comdengan judul "Kelanjutan PSBB Kota Tasikmalaya Diputuskan Hari Ini, Sekaligus Pembahasan Terkait New Normal"ara Kendati demikian, Ivan belum bisa memastikan ihwal penerapanPSBBakan diperpanjang atau tidak. "Besok dibahas. Tapi kita pasti akan ke arahnew normal," kata dia. Menurut dia, dalam situasi seperti ini, mau tak mau kehidupan normal masyarakat akan berubah. Baca Juga:Imbas Wabah Corona, Pemda Tasikmalaya Rugi hingga Rp 1,1 Miliar Pasalnya, hingga saat ini belum ada kepastian pandemiCOVID-19akan berakhir. Sementara vaksinCOVID-19belum juga ditemukan. Namun di satu sisi, lanjut dia, kehidupan masyarkarat harus berjalan. Artinya, pemerintah tak mungkin terus melakukanPSBBterus karena dinilai akan terus menghambat laju perekonomian. "Kita harus bisa berperilaku yang beradaptasi dengan keadaan pandemiCOVID-19," kata dia.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01389544/selepas-lebaran-kenaikan-kasus-positif-covid-19-terjadi-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Selepas Lebaran, Kenaikan Kasus Positif Covid-19 Terjadi di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C339" s="2" t="n">
-        <v>43978.65208333333</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Selepas Lebaran, peningkatan kasus warga yang positif terjangkitCovid-19terjadi kembali diKotaTasikmalaya. Padahal nyaris sepekan, pambahan kasus baru sempat tertahan. Berdasarkan data dalam Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas KesehatanKotaTasikmalayapada Rabu 27 Mei 2020, jumlah warga positif corona mencapai 50 kasus dengan 23 terkonfirmasi melalui tes polymerase chain reaction (PCR) dan 27 rapid diagnostic test (RDT). Dari 23 yang terkonfirmasi positif melaluiPCR, 10 orang/kasus sembuh, 11 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 27 kasus positif RDT, 20 negatifPCR, 6 menunggu hasilPCR/swab dan 1 meninggal. Baca Juga:Gebrakan New Normal, Pos Indonesia Luncurkan Apps Video Conference dengan Kilobyte Rendah Angka tersebut menunjukkan adanya kenaikkan 3 kasus/orang yang positifCovid-19dibanding data sebelumnya. Pada Selasa 26 Mei 2020, data Diskomnfo menunjukkan jumlah warga positif mencapai 47 kasus dengan 23 terkonfirmasi dari tesPCRdan 24 RDT. Dari 23 yang terkonfirmasiPCR, 7 sembuh, 14 aktif, 2 meninggal. Untuk 24 RDT, 18 negatif, 5 proses (menungguPCR) dan 1 meninggal. Dengan demikian, penambahan tiga kasus baru terkonfirmasi melalui rapid test. Laju penambahan warga yang positif sempat tertahan di angka 47 kasus selama 5 hari dari Jumat 22 Mei 2020 hingga Selasa 26 Mei 2020. Tak pelak, penambahan kasus kembali terjadi tiga setelah Lebaran. Upaya Pemkot Tasikmalya menahan laju penyebaranCovid-19terus ditekankan WaliKotaBudi Budiman. Dalam apel gabungan di halaman BalaiKotaTasikmalayapada Selasa (26 Mei 2020), kegiatan halal bihalal dengan saling bersalaman tak dilakukan. Baca Juga:Ridwan Kamil Sebut New Normal Jabar Akan Dimulai 1 Juni 2020, Ini Arahan Gubernur "Hari Raya Idul Fitri kali ini tidak diadakan musafaha (bersalaman) di lingkungan PemerintahKotaTasikmalayakarena untuk menjauhkan kontak fisik atau phisycal distancing sehingga lingkungan PemerintahKotaTasikmalayabersih dari penyakit," kata Budi dalam keterangan tertulis di Instagram Diskominfo. PIKIRAN RAKYAT -Selepas Lebaran, peningkatan kasus warga yang positif terjangkitCovid-19terjadi kembali diKotaTasikmalaya. Padahal nyaris sepekan, pambahan kasus baru sempat tertahan. Berdasarkan data dalam Instagram Dinas Komunikasi dan Informatika yang bersumber dari Dinas KesehatanKotaTasikmalayapada Rabu 27 Mei 2020, jumlah warga positif corona mencapai 50 kasus dengan 23 terkonfirmasi melalui tes polymerase chain reaction (PCR) dan 27 rapid diagnostic test (RDT). Dari 23 yang terkonfirmasi positif melaluiPCR, 10 orang/kasus sembuh, 11 aktif (masih terjangkit) dan 2 meninggal. Sedangkan 27 kasus positif RDT, 20 negatifPCR, 6 menunggu hasilPCR/swab dan 1 meninggal. Baca Juga:Gebrakan New Normal, Pos Indonesia Luncurkan Apps Video Conference dengan Kilobyte Rendah Angka tersebut menunjukkan adanya kenaikkan 3 kasus/orang yang positifCovid-19dibanding data sebelumnya. Pada Selasa 26 Mei 2020, data Diskomnfo menunjukkan jumlah warga positif mencapai 47 kasus dengan 23 terkonfirmasi dari tesPCRdan 24 RDT. Dari 23 yang terkonfirmasiPCR, 7 sembuh, 14 aktif, 2 meninggal. Untuk 24 RDT, 18 negatif, 5 proses (menungguPCR) dan 1 meninggal. Dengan demikian, penambahan tiga kasus baru terkonfirmasi melalui rapid test. Laju penambahan warga yang positif sempat tertahan di angka 47 kasus selama 5 hari dari Jumat 22 Mei 2020 hingga Selasa 26 Mei 2020. Tak pelak, penambahan kasus kembali terjadi tiga setelah Lebaran. Upaya Pemkot Tasikmalya menahan laju penyebaranCovid-19terus ditekankan WaliKotaBudi Budiman. Dalam apel gabungan di halaman BalaiKotaTasikmalayapada Selasa (26 Mei 2020), kegiatan halal bihalal dengan saling bersalaman tak dilakukan. Baca Juga:Ridwan Kamil Sebut New Normal Jabar Akan Dimulai 1 Juni 2020, Ini Arahan Gubernur "Hari Raya Idul Fitri kali ini tidak diadakan musafaha (bersalaman) di lingkungan PemerintahKotaTasikmalayakarena untuk menjauhkan kontak fisik atau phisycal distancing sehingga lingkungan PemerintahKotaTasikmalayabersih dari penyakit," kata Budi dalam keterangan tertulis di Instagram Diskominfo.Ia juga meminta seluruh aparatur sipil negara (ASN) Pemkot tetap menjalankan kewajiban melayani masyarakat dengan menerapkan aturan protokol kesehatan seperti menjaga jarak, mencuci tangan dengan sabun dan menggunakan masker. Seperti diketahui,KotaTasikmalayatelah menerapkanPSBBtahap awal dari Rabu-Selasa (6-19/5/2020). Sedangkan tahap kedua atau kelanjutanPSBBberlangsung dari Rabu- Jumat (20-29 Mei 2020). Budi meyakini laju penyebaran bisa lebih tertahan selama penerapa aturan itu. Baca Juga:Tunggu Kabar Baik, Pelatih Persib Beberkan Sejumlah Opsi yang Bisa Diambil "Relatif saya katakan itu kita mampu untuk mengerem bisa meredam ‎percepatan daripada penyebaranCovid-19, walaupun demikian bahwa kita sekarang masih dalam posisi di zona merah," kata Budi beberapa waktu lalu. Meskipun berlanjut, Budi menyatakan ada pembatasan kegiatan yang dikecualikan padaPSBBtahap kedua.‎ "Yang kemarin ditutup untuk kegiatan UMKM, toko, mal dan sebagainya, kami mempertimbangkan dari sisi, ekonomi,sosial budaya lalu juga wilayah-wilayah yang kemarin kami fokuskan di tiga kecamatan yang kemarin relatif landai, maka diberikan waktu beroperas dari jam (pukul) 10-16.00," ucapnya. Para pelaku usaha yang mendapat kesempatan beraktivitas kembali itu berada di Kecamatan Tawang, Cihideung dan Cipedes. Kendati demikian, Budi mewajibkan mereka melaksanakan dan mematuhi protokol kesehatan di tengah pandemi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01385502/di-hari-terakhir-pelaksanaan-psbb-kota-tasikmalaya-terjadi-lonjakan-kasus-positif-covid-19</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Di Hari Terakhir Pelaksanaan PSBB Kota Tasikmalaya, Terjadi Lonjakan Kasus Positif Covid-19</t>
-        </is>
-      </c>
-      <c r="C340" s="2" t="n">
-        <v>43970.70347222222</v>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PIKIRAN RAKYAT –Penambahan kasus positif Covid-19 terjadi ‎pada hari terakhir pelaksanaan Pembatasan Berskala Besar (PSBB) tahap awal diKota Tasikmalaya, Selasa 19 Mei 2020. Jumlahnya mencapai 41 kasus. Jumlah tersebut‎ terkonfirmasi melalui tes PCR 23 orang dan rapid test 18 orang. Dari 41 kasus itu, 11 orang telah sembuh, 27 dalam perawatan dan 3 meninggal. Baca Juga:Latihan Normal saat Puasa, Pemain Persib Ghozali Siregar Sebut Minuman Favoritnya untuk Berbuka Data tersebut disajikan dalam Instagram Dinas Komunikasi dan‎ InformatikaKota Tasikmalaya. Sehari sebelumnya, jumlah kasus baru 37 kasus yang terkonfirmasi dari tes PCR 23 orang dan rapid test 14 orang. Dari 37 kasus, 11 sembuh, 23 dalam perawatan dan 3 meninggal. ‎Tak pelak terjadi lonjakan jumlah penderita yang dirawat sebanyak empat orang. Baca Juga:Di Tengah Covid-19, Penerimaan Zakat Selama Ramadan Naik 97 Persen Seperti diketahui, pelaksanaan PSBB tahap awal berlangsung dari Rabu-Selasa, 6- 19 Mei 2020. Pemkot bakal kembali melanjutkan PSBB dari Rabu-Jumat 20-29 Mei 2020. Sementara itu, bantuan untuk penanggulangan wabah terus mengalir diKota Tasikmalaya.‎PIKIRAN RAKYAT –Penambahan kasus positif Covid-19 terjadi ‎pada hari terakhir pelaksanaan Pembatasan Berskala Besar (PSBB) tahap awal diKota Tasikmalaya, Selasa 19 Mei 2020. Jumlahnya mencapai 41 kasus. Jumlah tersebut‎ terkonfirmasi melalui tes PCR 23 orang dan rapid test 18 orang. Dari 41 kasus itu, 11 orang telah sembuh, 27 dalam perawatan dan 3 meninggal. Baca Juga:Latihan Normal saat Puasa, Pemain Persib Ghozali Siregar Sebut Minuman Favoritnya untuk Berbuka Data tersebut disajikan dalam Instagram Dinas Komunikasi dan‎ InformatikaKota Tasikmalaya. Sehari sebelumnya, jumlah kasus baru 37 kasus yang terkonfirmasi dari tes PCR 23 orang dan rapid test 14 orang. Dari 37 kasus, 11 sembuh, 23 dalam perawatan dan 3 meninggal. ‎Tak pelak terjadi lonjakan jumlah penderita yang dirawat sebanyak empat orang. Baca Juga:Di Tengah Covid-19, Penerimaan Zakat Selama Ramadan Naik 97 Persen Seperti diketahui, pelaksanaan PSBB tahap awal berlangsung dari Rabu-Selasa, 6- 19 Mei 2020. Pemkot bakal kembali melanjutkan PSBB dari Rabu-Jumat 20-29 Mei 2020. Sementara itu, bantuan untuk penanggulangan wabah terus mengalir diKota Tasikmalaya.‎Badan Amil Zakat Nasional (Baznas)Kota Tasikmalayamenyerahkan bantuan sosial guna penanggulangan pandemi Covid-19 kepada PemerintahKota Tasikmalayadi BalaiKota Tasikmalaya, Jalan Letnan Harun, Selasa 19 Mei 2020. Baca Juga:3 Alasan Penting Mengapa Wajib Membersihkan Kuas Makeup Bantuan yang diberikan berupa sejumlah alat pelindung diri (APD) untuk tenaga medis dan program aksi gugus tugasKota Tasikmalayaserta bantuan warga untuk warga terdampak wabah berupa 5 ton beras, 12.500 paket Sembako untuk jompo, santunan untuk 1.100 guru ngaji, santunan 100 pasien kelas III RSUD dr Soekardjo, santunan 4.000 yatim piatu dan santunan 1670 santri. "Semoga dengan adanya bantuan dari Baznas dapat membantu masyarakatKota Tasikmalayayang sangat membutuhkan," kata WaliKota TasikmalayaBudi Budiman dalam keterangan tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Selasa siang. Baca Juga:Pemerintah Terkesan 'Plin Plan', Kebijakan yang Membingungkan Bisa Korbankan Masyarakat Ketua BaznasKota TasikmalayaH. Wawan mengatakan Baznas akan siap membantu masyarakat di tengah merebaknya pandemi. Ia meminta RT/RaW yang mendapati warganya membutuhkan bantuan agar segera melapor kke BaznasKota Tasikmalaya. *** Selengkapnya cek YouTube Pikiran Rakyat  </t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01384975/kasus-covid-19-bertambah-psbb-kota-tasikmalaya-wajib-dievaluasi</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Kasus Covid-19 Bertambah, PSBB Kota Tasikmalaya Wajib Dievaluasi</t>
-        </is>
-      </c>
-      <c r="C341" s="2" t="n">
-        <v>43969.80972222222</v>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Eki Sirojul Baehaqi, pengamat sosial dan ‎ Dosen Sekolah Tinggi Agama Islam Nahdlatul Ulama (STAINU) Tasikmalaya meminta Pemkot melakukan evaluAsi secara menyeluruh terkait signifikasi dan efektivitas penerapan PSBB. "Sejak awal saya amati, konsep PSBB yang diterapkanKota Tasikmalayayang paling kentara adalah menutup akses jalan di beberapa titik saja, dan faktanya lalu lintas/ mobilitas orang masih saja terjadi dan kasus tetap bertambah, artinya tidak efektif," kata Eki dalam pesan WhatsApp, Senin 18 Mei 2020. ‎Selain itu, lanjutnya,  Pemkot tidak cukup tegas  menegakkan aturan. Kerumuman juga masih terjadi. Baca Juga:Diambil dari 3 Bahasa, Nama Anak Kedua Andien Aisyah Panen Pujian "Dalam hal ini perlu disiplin yang tinggi dri seluruh stakeholder agar masyarakat pun disiplin," ucapnya. Eki menilai, ‎ PSBB belum terkonsolidasi secara teknis dan massif hingga ke lapisan bawah. Jika PSBB masih berlangsung seperti tahap awal pelaksanaan tanpa perubahan konsep dari evaluasi, ia menyebut aturan itu tak perlu dilakukan dan hanya menghamburkan anggaran. "Wajib (evaluasi) serius, jangan reaksioner lihat daerah lain PSBB kita latah PSBB tanpa perencanaan yang matang, tidak holistik pertimbangannya," kata Eki. Baca Juga:Dua Pelaku Pencurian di Probolinggo Diringkus Polisi, Mengaku Terdesak Kebutuhan Lebaran Seperti diketahui,Kota Tasikmalayatelah menerapkan PSBB tahap awal dari Rabu-Selasa 6-19 Mei 2020. Tahap kedua atau kelanjutan PSBB berlangsung dari Rabu- Jumat, 20-29 Mei 2020 dan dipastikan oleh Wali Kota Budi Budiman.PIKIRAN RAKYAT –Eki Sirojul Baehaqi, pengamat sosial dan ‎ Dosen Sekolah Tinggi Agama Islam Nahdlatul Ulama (STAINU) Tasikmalaya meminta Pemkot melakukan evaluAsi secara menyeluruh terkait signifikasi dan efektivitas penerapan PSBB. "Sejak awal saya amati, konsep PSBB yang diterapkanKota Tasikmalayayang paling kentara adalah menutup akses jalan di beberapa titik saja, dan faktanya lalu lintas/ mobilitas orang masih saja terjadi dan kasus tetap bertambah, artinya tidak efektif," kata Eki dalam pesan WhatsApp, Senin 18 Mei 2020. ‎Selain itu, lanjutnya,  Pemkot tidak cukup tegas  menegakkan aturan. Kerumuman juga masih terjadi. Baca Juga:Diambil dari 3 Bahasa, Nama Anak Kedua Andien Aisyah Panen Pujian "Dalam hal ini perlu disiplin yang tinggi dri seluruh stakeholder agar masyarakat pun disiplin," ucapnya. Eki menilai, ‎ PSBB belum terkonsolidasi secara teknis dan massif hingga ke lapisan bawah. Jika PSBB masih berlangsung seperti tahap awal pelaksanaan tanpa perubahan konsep dari evaluasi, ia menyebut aturan itu tak perlu dilakukan dan hanya menghamburkan anggaran. "Wajib (evaluasi) serius, jangan reaksioner lihat daerah lain PSBB kita latah PSBB tanpa perencanaan yang matang, tidak holistik pertimbangannya," kata Eki. Baca Juga:Dua Pelaku Pencurian di Probolinggo Diringkus Polisi, Mengaku Terdesak Kebutuhan Lebaran Seperti diketahui,Kota Tasikmalayatelah menerapkan PSBB tahap awal dari Rabu-Selasa 6-19 Mei 2020. Tahap kedua atau kelanjutan PSBB berlangsung dari Rabu- Jumat, 20-29 Mei 2020 dan dipastikan oleh Wali Kota Budi Budiman.Kepastian berlanjutnya PSBB dikemukakan Wali Kota Budi Budiman dalam wawancaranya di BalaiKota Tasikmalayayang ditayangkan di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Senin, 18 Mei 2020. Baca Juga:Persib &amp; Omid Nazari: Gantikan Artur Gevorkyan, Ini Perjalanan Karier Pemain Asing Asal Swedia Budi tak menampik adanya penambahan kasus positif Covid-19 selama tahap awal PSBB. Namun, laju penyebaran bisa lebih tertahan selama penerapa aturan itu. "Relatif saya katakan itu kita mampu untuk mengerem bisa meredam ‎percepatan daripada penyebaran Covid-19, walaupun demikian bahwa kita sekarang masih dalam posisi di zona merah," kata Budi. Hal tersebut terlihat dari masih adanya klaster baru di sebuah Puskesmas diKota Tasikmalaya. "Kemarin ada yang klaster terakhir yang di Puskesmas yang sekarang (kami) tutup dulu ," ucapnya. Sebanyak 50 lebih petugas Puskesmas tersebut juga menjalani tes Swab dan ditelusuri rekam jejak kontak sosial mereka serta dilakukan pembersihan ruangan. Baca Juga:Islamofobia di Tengah Pandemi COVID-19, Muslimah Inggris Tewas Ditembak kala Berbelanja Meskipun berlanjut, Budi menyatakan ada pembatasan kegiatan yang dikecualikan pada PSBB tahap kedua.‎ "Yang kemarin ditutup untuk kegiatan UMKM, toko, mal dan sebagainya, kami mempertimbangkan dari sisi, ekonomi,sosial budaya lalu juga wilayah-wilayah yang kemarin kami fokuskan di tiga kecamatan yang kemarin relatif landai, maka diberikan waktu beroperas dari jam (pukul) 10-16.00," ucapnya. Para pelaku usaha yang mendapat kesempatan beraktivitas kembali itu berada di Kecamatan Tawang, Cihideung dan Cipedes. Walau begitu, Budi mewajibkan mereka melaksanakan dan mematuhi protokol kesehatan di tengah pandemi.‎ "Kalau tidak mengindahkan kami akan tutup langsung oleh petugas," tuturnya. Selain penyebaran yang landai, pertimbangan lain membuka kembali aktivitas pertokoan atau pusat perbelanjaan tersebut, menurut Budi, yakni menjaga pertumbuhan ekonomi, kebutuhan ekonomi dan sosial. Budi membantah kebijakan tersebut melonggarkan PSBB yang berlaku. Ia mengatakan bakal membentuk tim gabungan guna melakukan pengawasan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01384936/psbb-dilanjut-pemkot-tasikmalaya-beri-izin-toko-dan-mal-buka-di-3-kecamatan</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>PSBB Dilanjut, Pemkot Tasikmalaya Beri Izin Toko dan Mal Buka di 3 Kecamatan</t>
-        </is>
-      </c>
-      <c r="C342" s="2" t="n">
-        <v>43969.76875</v>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –PemerintahKota Tasikmalayamemastikan melanjutkan kembali Pembatasan Sosial Berskala Besar setelah tahap awal pelaksanaannya berakhir pada Rabu 19 Mei 2020. Pemkot menilaiPSBBmampu menahan laju penyebaran Covid-19 di wilayahnya. Dalam kelanjutanPSBBini, Pemkot Tasikmalaya mengizinkantokodanmalbuka di jam tertentu, dengan pertimbangan sosial dan ekonomi. Baca Juga:Persib Bandung Berharap RUPS PT. LIB Bisa Tuntaskan Kekisruhan Kepastian berlanjutnyaPSBBdikemukakan Wali Kota Budi Budiman dalam wawancaranya di BalaiKota Tasikmalayayang ditayangkan di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Senin, 18 Mei 2020. Seperti diketahui,Kota Tasikmalayatelah menerapkanPSBBtahap awal dari Rabu-Selasa 6-19 Mei 2020. Tahap kedua atau kelanjutanPSBBberlangsung dari Rabu- Jumat 20-29 Mei 2020. Budi tak menampik adanya penambahan kasus positif Covid-19 selama tahap awalPSBB. Namun, laju penyebaran bisa lebih tertahan selama penerapa aturan itu. Baca Juga:Sudah Jenuh dengan Kemunafikan Kota, Hotman Paris Beri Kode Keras Segera Pensiun Pindah ke Bali "Relatif saya katakan itu kita mampu untuk mengerem bisa meredam ‎percepatan daripada penyebaran Covid-19, walaupun demikian bahwa kita sekarang masih dalam posisi di zona merah," kata Budi.PIKIRAN RAKYAT –PemerintahKota Tasikmalayamemastikan melanjutkan kembali Pembatasan Sosial Berskala Besar setelah tahap awal pelaksanaannya berakhir pada Rabu 19 Mei 2020. Pemkot menilaiPSBBmampu menahan laju penyebaran Covid-19 di wilayahnya. Dalam kelanjutanPSBBini, Pemkot Tasikmalaya mengizinkantokodanmalbuka di jam tertentu, dengan pertimbangan sosial dan ekonomi. Baca Juga:Persib Bandung Berharap RUPS PT. LIB Bisa Tuntaskan Kekisruhan Kepastian berlanjutnyaPSBBdikemukakan Wali Kota Budi Budiman dalam wawancaranya di BalaiKota Tasikmalayayang ditayangkan di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Senin, 18 Mei 2020. Seperti diketahui,Kota Tasikmalayatelah menerapkanPSBBtahap awal dari Rabu-Selasa 6-19 Mei 2020. Tahap kedua atau kelanjutanPSBBberlangsung dari Rabu- Jumat 20-29 Mei 2020. Budi tak menampik adanya penambahan kasus positif Covid-19 selama tahap awalPSBB. Namun, laju penyebaran bisa lebih tertahan selama penerapa aturan itu. Baca Juga:Sudah Jenuh dengan Kemunafikan Kota, Hotman Paris Beri Kode Keras Segera Pensiun Pindah ke Bali "Relatif saya katakan itu kita mampu untuk mengerem bisa meredam ‎percepatan daripada penyebaran Covid-19, walaupun demikian bahwa kita sekarang masih dalam posisi di zona merah," kata Budi.Hal tersebut terlihat dari masih adanya klaster baru di sebuah Puskesmas diKota Tasikmalaya. "Kemarin ada yang klaster terakhir yang di Puskesmas yang sekarang (kami) tutup dulu ," ucapnya. Baca Juga:Pengamat Unpad Minta Pemerintah Tidak Gegabah dalam Rencana Pemulihan Ekonomi Domestik Sebanyak 50 lebih petugas Puskesmas tersebut juga menjalani tes Swab dan ditelusuri rekam jejak kontak sosial mereka serta dilakukan pembersihan ruangan. Meskipun berlanjut, Budi menyatakan ada pembatasan kegiatan yang dikecualikan padaPSBBtahap kedua.‎ "Yang kemarin ditutup untuk kegiatan UMKM,toko,maldan sebagainya, kami mempertimbangkan dari sisi, ekonomi,sosial budaya lalu juga wilayah-wilayah yang kemarin kami fokuskan di tiga kecamatan yang kemarin relatif landai, maka diberikan waktu beroperas dari jam (pukul) 10-16.00," ucapnya. Para pelaku usaha yang mendapat kesempatan beraktivitas kembali itu berada di Kecamatan Tawang, Cihideung, dan Cipedes. Baca Juga:Mengaku Pegawai PLN di Medsos, Pelaku Bullying Anak Penjual Jalangkote Ternyata Tenaga Outsourcing Walau begitu, Budi mewajibkan mereka melaksanakan dan mematuhi protokol kesehatan di tengah pandemi.‎ "Kalau tidak mengindahkan kami akan tutup langsung oleh petugas," tuturnya. Selain penyebaran yang landai, pertimbangan lain membuka kembali aktivitas pertokoan atau pusat perbelanjaan tersebut, menurut Budi, yakni menjaga pertumbuhan ekonomi, kebutuhan ekonomi dan sosial. Budi membantah kebijakan tersebut melonggarkanPSBByang berlaku. Ia mengatakan bakal membentuk tim gabungan guna melakukan pengawasan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/nasional/pr-01384350/salat-ied-di-kota-tasimalaya-tetap-dilaksanakan-sebut-sesuai-fatwa-mui-terkait-pandemi-virus-corona</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Salat Ied di Kota Tasimalaya Tetap Dilaksanakan, Sebut Sesuai Fatwa MUI Terkait Pandemi Virus Corona</t>
-        </is>
-      </c>
-      <c r="C343" s="2" t="n">
-        <v>43969.15625</v>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Meski wabah virus corona baru atauCOVID-19masih menjangkit di Indonesia, umatmuslimtetap mampu melaksanakan ibadah selama bulan suci Ramadhan di rumah masing-masing. Terkait pelaksanaansalat Idul Fitri(Ied) 1441 H mendatang, banyak pula bermacam pendapat dari pemuka agama. Namun diketahui, KotaTasikmalayatetap melaksanakansalat Idul Fitridi sejumlah masjid termasukMasjidAgung KotaTasikmalaya. Baca Juga:24.914 Kepala Keluarga di Indramayu Akan Dapatkan Bantuan Senilai Rp 500 Ribu Pelaksanaan tersebut juga akan dilakukan dengan tetap mengedepankan protokol kesehatan. Hal itu sesuai Fatwa Mazelis Ulama Indonesia (MUI) Nomor 28 Tahun 2020 yang mengatur jalannyaSalatIed di saat pandemi virus coronaCOVID-19. SekretarisMUIKotaTasikmalaya, KH Aminuddin Bustomi turut menanggapi bahwa keputusan yang dituangkan melalui fatwaMUIKotaTasikmalayasejauh ini dikarekan curva penyebaranCOVID-19di KotaTasikmalayamenunjukan tren penurunan (landai). Baca Juga:KPU: Pelaksanaan Pilkada Bergantung Pada Situasi Pandemi Covid-19 "Dari data yang didapatkan dari sumber kredibel, curva penyebaranCOVID-19di KotaTasikmalayamenunjukan penurunan atau landai," ujarnya. PIKIRAN RAKYAT- Meski wabah virus corona baru atauCOVID-19masih menjangkit di Indonesia, umatmuslimtetap mampu melaksanakan ibadah selama bulan suci Ramadhan di rumah masing-masing. Terkait pelaksanaansalat Idul Fitri(Ied) 1441 H mendatang, banyak pula bermacam pendapat dari pemuka agama. Namun diketahui, KotaTasikmalayatetap melaksanakansalat Idul Fitridi sejumlah masjid termasukMasjidAgung KotaTasikmalaya. Baca Juga:24.914 Kepala Keluarga di Indramayu Akan Dapatkan Bantuan Senilai Rp 500 Ribu Pelaksanaan tersebut juga akan dilakukan dengan tetap mengedepankan protokol kesehatan. Hal itu sesuai Fatwa Mazelis Ulama Indonesia (MUI) Nomor 28 Tahun 2020 yang mengatur jalannyaSalatIed di saat pandemi virus coronaCOVID-19. SekretarisMUIKotaTasikmalaya, KH Aminuddin Bustomi turut menanggapi bahwa keputusan yang dituangkan melalui fatwaMUIKotaTasikmalayasejauh ini dikarekan curva penyebaranCOVID-19di KotaTasikmalayamenunjukan tren penurunan (landai). Baca Juga:KPU: Pelaksanaan Pilkada Bergantung Pada Situasi Pandemi Covid-19 "Dari data yang didapatkan dari sumber kredibel, curva penyebaranCOVID-19di KotaTasikmalayamenunjukan penurunan atau landai," ujarnya.Artikel ini pernah tayang sebelumnya di Pikiranrakyat-Tasikmalaya.com dengan judul 'Ikuti Protokol Kesehatan, Umat Muslim Kota Tasikmalaya akan Tetap Laksanakan Salat Idul Fitri' KH Aminuddin Bustomi menambahkan, kemungkinan salat Ied tetap akan dilaksanakan di sejumlah masjid KotaTasikmalaya. Baca Juga:Statistik Persib: Catatan Menterang Geoffrey Castillion di Liga-liga Eropa "Sehingga memungkinkan untuk melaksanakan salat Ied tetap di masjid dengan mengedepankan protokol kesehatan atau upaya medis," ujar Amin kepada wartawan, Minggu 17 Mei 2020. Menurutnya, dalam fatwaMUItersebut terdapat pernyatan yang membolehkan pelaksanaanSalatIed di rumah terutama bagi masyarakat yang berada pada wilayah dengan curva penyebaranCOVID-19yang belum terkendali. Baca Juga:Geger Pesan Berantai Pemprov Jateng Izinkan Salat Idulfitri, Ganjar Pranowo Buka Suara Aminuddin berharap, umatmuslimKotaTasikmalayatetap selalu istiqomah beribadah dan terus mendekatkan diri kepada Allah SWT di bulan suci Ramadhan yang hanya tinggal hitungan hari. "Kebijakan yang dikeluarkanMUIpusat melalui fatwanya sebagai langkah antisipatif serta tanggung jawabMUIsebagai mitra pemerintah, jelasnya.*** (Asep M Saefuloh/Pikiranrakyat-Tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01384273/jelang-berakhirnya-psbb-kasus-positif-covid-19-di-kota-tasikmalaya-kembali-bertambah</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Jelang Berakhirnya PSBB, Kasus Positif Covid-19 di Kota Tasikmalaya Kembali Bertambah</t>
-        </is>
-      </c>
-      <c r="C344" s="2" t="n">
-        <v>43968.72569444445</v>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Menjelang berakhirnya Pembatasan Sosial Berskala Besar (PSBB) pada Selasa (19 Mei 2020), kenaikkan kasus positifCovid-19kembali terjadi di KotaTasikmalaya. Terdapat penambahan empat warga positif yang menjalani perawatan. Berdasarkan data dalam Instagram Dinas Komunikasi dan Informatika KotaTasikmalayapada Minggu (17 Mei 2020), jumlah kasus warga yang terkonfirmasi positif corona mencapai 37orangdengan 23 terkonfirmasi positif melalui tes PCR/laboratorium dan 14 rapid test. Dari 37 kasus/orangyang terjangkitCovid-19tersebut, 11orangdinyatakan sembuh, 23 dalam perawatan dan 3 meninggal dunia. Sedangkan kategori Pasien Dalam Pengawasan (PDP) 35orangdengan 30 selesai pengawasan, 0 dalam pengawasan, 5 meninggal. Orang Dalam Pemantauan (ODP) 1180orangdengan 952 selesai pemantauan, 228 dalam pemantauan, Orang Tanpa Gejala (OTG) 448 dengan 333 selesai pemantauan, 115 dalam pemantauan. Baca Juga:800 Karyawan Garuda Indonesia Ternyata Telah Dirumahkan hingga Tiga Bulan Sedangkan pada Sabtu (16 Mei 2020) atau selang sehari sebelumnya, jumlahnya positif corona baru 33 kasus dengan 11 sembuh, 19 dalam perawatan dan 3 meninggal. ‎Angka tersebut bertahan atau tak mengalami penambahan sejak lima hari lalu. BahkanPSBBKotaTasikmalayayang berlangsung sejak 6-19 Mei 2020 sempat mampu menahan laju penambahan warga yang positif di awal penerapannya. "PR" mencatat sejak penerapan perdanaPSBBpada Rabu-Minggu (6-10 Mei 2020) atau 5 hari berjalan, jumlah kasus mandek di 31orangpositif dengan rincian ‎11 dinyatakan sembuh, 17 dalam perawatan, 3 meninggal. Wali Kota Budi Budiman sempat pula memuji perkembangan yang menggembirakan tersebut di awal penerapaPSBB. Ia meminta kondisi itu tetap harus dipertahankan.‎ Baca Juga:5 Hal Baru di Bundesliga Usai Jeda Efek COVID-19, Selebrasi Seorang Diri hingga Bola Disemprot "Kuncinya adalah kesadaran bersama seluruh masyarakat KotaTasikmalayauntuk mematuhi semua yang terkait dengan pembatasan-pembatasan selama pelaksanaanPSBB," kata Budi dalam keterangan tertulis di Instagramnya beberapa waktu lalu. PIKIRAN RAKYAT -Menjelang berakhirnya Pembatasan Sosial Berskala Besar (PSBB) pada Selasa (19 Mei 2020), kenaikkan kasus positifCovid-19kembali terjadi di KotaTasikmalaya. Terdapat penambahan empat warga positif yang menjalani perawatan. Berdasarkan data dalam Instagram Dinas Komunikasi dan Informatika KotaTasikmalayapada Minggu (17 Mei 2020), jumlah kasus warga yang terkonfirmasi positif corona mencapai 37orangdengan 23 terkonfirmasi positif melalui tes PCR/laboratorium dan 14 rapid test. Dari 37 kasus/orangyang terjangkitCovid-19tersebut, 11orangdinyatakan sembuh, 23 dalam perawatan dan 3 meninggal dunia. Sedangkan kategori Pasien Dalam Pengawasan (PDP) 35orangdengan 30 selesai pengawasan, 0 dalam pengawasan, 5 meninggal. Orang Dalam Pemantauan (ODP) 1180orangdengan 952 selesai pemantauan, 228 dalam pemantauan, Orang Tanpa Gejala (OTG) 448 dengan 333 selesai pemantauan, 115 dalam pemantauan. Baca Juga:800 Karyawan Garuda Indonesia Ternyata Telah Dirumahkan hingga Tiga Bulan Sedangkan pada Sabtu (16 Mei 2020) atau selang sehari sebelumnya, jumlahnya positif corona baru 33 kasus dengan 11 sembuh, 19 dalam perawatan dan 3 meninggal. ‎Angka tersebut bertahan atau tak mengalami penambahan sejak lima hari lalu. BahkanPSBBKotaTasikmalayayang berlangsung sejak 6-19 Mei 2020 sempat mampu menahan laju penambahan warga yang positif di awal penerapannya. "PR" mencatat sejak penerapan perdanaPSBBpada Rabu-Minggu (6-10 Mei 2020) atau 5 hari berjalan, jumlah kasus mandek di 31orangpositif dengan rincian ‎11 dinyatakan sembuh, 17 dalam perawatan, 3 meninggal. Wali Kota Budi Budiman sempat pula memuji perkembangan yang menggembirakan tersebut di awal penerapaPSBB. Ia meminta kondisi itu tetap harus dipertahankan.‎ Baca Juga:5 Hal Baru di Bundesliga Usai Jeda Efek COVID-19, Selebrasi Seorang Diri hingga Bola Disemprot "Kuncinya adalah kesadaran bersama seluruh masyarakat KotaTasikmalayauntuk mematuhi semua yang terkait dengan pembatasan-pembatasan selama pelaksanaanPSBB," kata Budi dalam keterangan tertulis di Instagramnya beberapa waktu lalu.Ia juga berharap, warga bisa melewati masa pandemi dan kembali menjalani kehidupan normal.  Budi pun meminta warga mendukung pelaksanaanPSBB. "PSBBdilakukan untuk keselamatan kita semua. Mari kita dukung dengan modal utama adalah kesadaran masyarakat secara kolektif," katanya. Seperti diketahui, pelaksanaanPSBBKotaTasikmalayaberjalan sebagaiamana penerapan aturan serupa oleh Pemerintah Provinsi Jawa Barat.PSBBberlangsung dari 6-19 Mei 2020. Tahap awalPSBBdi KotaTasikmalayatak sepenuhnya berlangsung mulus. Beberapa warga justru berkerumun memanfaatkan jalan yang kosong akibat penerapan aturan tersebut untuk tempat bermain sepak bola dan juga diwarnai insiden penerobosan kendaraan di jalur yang ditutup.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01383738/upaya-ungkap-jaringan-teroris-tim-densus-88-geledah-tempat-futsal-dan-temukan-puluhan-senjata</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Upaya Ungkap Jaringan Teroris, Tim Densus 88 Geledah Tempat Futsal dan Temukan Puluhan Senjata</t>
-        </is>
-      </c>
-      <c r="C345" s="2" t="n">
-        <v>43967.825</v>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Detasemen Khusus (Densus) Antiteror 88 Mabes Polri dibantu petugas Inafis Satreskrim PolresTasikmalayaKota menggeledah sebuah tempat olahraga futsal di Cicariang, Kelurahan Kersamenak, Kecamatan Kawalu. Dari hasil penggeledahan, ditemukan sebuah ruangan di tempat olahraga itu yang difungsikan layaknya gudang senjata, pada Jumat 15 Mei 2020 malam. Densus 88mendapati senjata tajam dalam jumlah mencapai puluhan di dalamnya dan alat-alat lainnya yang diduga kerap digunakan terduga teroris untuk berlatih militer. Baca Juga:Beda Waktu Dua Jam, Bek Persebaya Tak Bisa Sama-sama Latihan Online di Masa Ramadhan 1441 H Densus 88terus mengungkap sepak terjang terduga jaringan teroris berinisial MR (45) di KotaTasikmalaya. Hal ini pun dibenarkan oleh KapolresTasikmalayaKota, AKBP Anom Karibianto yang ditemui di Mapolres usai penggeledahan. “Jadi memang benar malam ini kita melakukan penggeledahan di suatu tempat di Kawalu. Kita membantu tugasDensus 88di wilayah kita setelah sebelumnya, tersangka sudah kita amankan,” katanya. Baca Juga:Statistik Persib: Fakta Ini Tak Bisa Pisahkan Djadjang Nurdjaman dan Maung Bandung Penggeledahan tersebut lanjut Anom, didapati barang bukti sejumlah peralatan untuk latihan semi militer seperti senjata tajam jenis parang sebanyak 28 buah, pisau lempar 6 buah, dan lain sebagainya. PIKIRAN RAKYAT- Detasemen Khusus (Densus) Antiteror 88 Mabes Polri dibantu petugas Inafis Satreskrim PolresTasikmalayaKota menggeledah sebuah tempat olahraga futsal di Cicariang, Kelurahan Kersamenak, Kecamatan Kawalu. Dari hasil penggeledahan, ditemukan sebuah ruangan di tempat olahraga itu yang difungsikan layaknya gudang senjata, pada Jumat 15 Mei 2020 malam. Densus 88mendapati senjata tajam dalam jumlah mencapai puluhan di dalamnya dan alat-alat lainnya yang diduga kerap digunakan terduga teroris untuk berlatih militer. Baca Juga:Beda Waktu Dua Jam, Bek Persebaya Tak Bisa Sama-sama Latihan Online di Masa Ramadhan 1441 H Densus 88terus mengungkap sepak terjang terduga jaringan teroris berinisial MR (45) di KotaTasikmalaya. Hal ini pun dibenarkan oleh KapolresTasikmalayaKota, AKBP Anom Karibianto yang ditemui di Mapolres usai penggeledahan. “Jadi memang benar malam ini kita melakukan penggeledahan di suatu tempat di Kawalu. Kita membantu tugasDensus 88di wilayah kita setelah sebelumnya, tersangka sudah kita amankan,” katanya. Baca Juga:Statistik Persib: Fakta Ini Tak Bisa Pisahkan Djadjang Nurdjaman dan Maung Bandung Penggeledahan tersebut lanjut Anom, didapati barang bukti sejumlah peralatan untuk latihan semi militer seperti senjata tajam jenis parang sebanyak 28 buah, pisau lempar 6 buah, dan lain sebagainya.Anom menambahkan, penyelidikan kasus ini akan terus dilakukan pihak Densus dan dibantu pihak Polres untuk dilakukan pengembangan sampai dengan waktu yang tidak ditentukan. “Pelakunya sendiri masih dalam pengembangan penyidik,” terangnya. Baca Juga:BERITA BAIK Pasien COVID-19 yang Sembuh di Indonesia Hari Ini Tiga Kali Lipat Kasus Kematian Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Densus 88 Geledah Tempat Futsal di Tasikmalaya, Ditemukan Ruangan bak Gudang Senjata" Anom menambahkan, barang bukti dari sebuah kamar di lokasi tempat olahraga futsal itu adalah milik tersangka terduga teroris MR. “Aktivitas MR ini memang telah diikuti pihak Densus. Karena ada kaitannya dengan salah satu terduga teroris yang memang sedang kita cari,” jelasnya. Baca Juga:Sakit Hati Sering Dimarahi, Mertua Tikam Menantu hingga Tewas Barang-bukti yang diamankan di antaranya: - 2 buah lampu tenda (lampu darurat) - 5 buah busur / Penggaris peta- 28 buah golok - 5 helai tali waibing - 1 buah matras - 6 pisau lempar - 3 buah tenda dum - 1 buah flysheet Baca Juga:Jelang Tamat, Pemain 'The World of the Married' Ucapkan Salam Perpisahan - 2 buah sleeping bag - 1 buah hammock - 2 nesting- Beberapa lembaran peta - 10 buah kompas - 9 buah kompor gas kecil - 2 buah senter - 2 buah headlamp.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01383692/pengprov-taekwondo-jabar-berikan-sk-legalitas-keberadaan-unit-untuk-49-pelatih-di-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Pengprov Taekwondo Jabar Berikan SK Legalitas Keberadaan Unit untuk 49 Pelatih di Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C346" s="2" t="n">
-        <v>43967.82430555556</v>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Sebanyak 49 pelatih utama unit yang berada di bawah naungan Pengcab Taekwondo Indonesia KotaTasikmalayamendapat Surat Keputusan (SK) terkaitlegalitaskeberadaan unit dari Pengurus Provinsi (Pengrov) Jawa Barat. Momen penyerahanSKdilaksanakan di kediaman Ketua Pengcab Taekwondo Indonesia KotaTasikmalaya, Sabeumnim Agus Rolex pada Kamis, 14 Mei 2020 malam yang dihadiri oleh Coach Taufik Krisna, mantan pelatih pelatnas. Tampak hadir pula Sekretaris Pengcab Taekwondo Indonesia KotaTasikmalaya, Sabeum Odoy, Wakil Ketua KONI KotaTasikmalaya, Sabeumnim Erry Jauhari, Mantan Keta Pencab Taekwondo Indonesia Kota Tasik Sabeumnim Slamet, Sabeum Ryan Yunandar, Sabeum Windi serta Sabeum Ilyas. Baca Juga:Perasaan dan Ambisi Wander Luiz Bersama Persib Bandung di Tengah Pandemi COVID-19 Acara bertambah spesial karena para pengurus Pengcab Taekwondo Indonesia juga berkesematan berbagi kebahagiaan karena bisa menyumbangkan bantuan berupa sembako untuk para pelatih utama di setiap unit itu. "Pengcab dan seluruh stakeholder yang peduli perkembangan taekwondo berkewajiban untuk tetap memberi perhatian dan kepedulian bagi para pelatih yang cukup terdampak Pandemi COVID-19. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Bentuk Legalitas Keberadaan Unit, 49 Pelatih Taekwondo Kota Tasikmalaya Terima SK" Baca Juga:Wabah COVID-19 Mereda di Malaysia, Perebutan Kursi Perdana Menteri Kembali Jadi Perhatian "Nah salah satunya dengan meberi sembako bagi para pelatih setelah sebelumnya jga kami membagikan sembako untuk puluhan pemulung," ujar Agus Rolex. PIKIRAN RAKYAT- Sebanyak 49 pelatih utama unit yang berada di bawah naungan Pengcab Taekwondo Indonesia KotaTasikmalayamendapat Surat Keputusan (SK) terkaitlegalitaskeberadaan unit dari Pengurus Provinsi (Pengrov) Jawa Barat. Momen penyerahanSKdilaksanakan di kediaman Ketua Pengcab Taekwondo Indonesia KotaTasikmalaya, Sabeumnim Agus Rolex pada Kamis, 14 Mei 2020 malam yang dihadiri oleh Coach Taufik Krisna, mantan pelatih pelatnas. Tampak hadir pula Sekretaris Pengcab Taekwondo Indonesia KotaTasikmalaya, Sabeum Odoy, Wakil Ketua KONI KotaTasikmalaya, Sabeumnim Erry Jauhari, Mantan Keta Pencab Taekwondo Indonesia Kota Tasik Sabeumnim Slamet, Sabeum Ryan Yunandar, Sabeum Windi serta Sabeum Ilyas. Baca Juga:Perasaan dan Ambisi Wander Luiz Bersama Persib Bandung di Tengah Pandemi COVID-19 Acara bertambah spesial karena para pengurus Pengcab Taekwondo Indonesia juga berkesematan berbagi kebahagiaan karena bisa menyumbangkan bantuan berupa sembako untuk para pelatih utama di setiap unit itu. "Pengcab dan seluruh stakeholder yang peduli perkembangan taekwondo berkewajiban untuk tetap memberi perhatian dan kepedulian bagi para pelatih yang cukup terdampak Pandemi COVID-19. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Bentuk Legalitas Keberadaan Unit, 49 Pelatih Taekwondo Kota Tasikmalaya Terima SK" Baca Juga:Wabah COVID-19 Mereda di Malaysia, Perebutan Kursi Perdana Menteri Kembali Jadi Perhatian "Nah salah satunya dengan meberi sembako bagi para pelatih setelah sebelumnya jga kami membagikan sembako untuk puluhan pemulung," ujar Agus Rolex.Meski nilainya tidak terlalu besar, akan tetapi minimal bisa meringankan beban para pelatih. Sebagaimana diketahui aktivitas para pelatih terhenti akibat pandemi, sehingga keamanan dapur para pelatih juga ikut goyah karena tidak ada lagi honor.*** (Aris Mohammad Fitrian/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01383255/sidak-daging-pasar-cikurubuk-berikut-temuan-satgas-pangan-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Sidak Daging Pasar Cikurubuk, Berikut Temuan Satgas Pangan Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="n">
-        <v>43967.15625</v>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Satuan Tugas (Satgas) PanganKota Tasikmalayamelakukan inspeksi mendadak (sidak) di Pasa Cikurubuk pada Kamis 14 Mei 2020. Hasilnya, terdapat indikasi penjualan daging sapi impor dengan hargadaging sapi lokaloleh sejumlah pedagang. Praktik tersebut melanggar ketentuan karena pembeli tak tahu asal-usul daging dan membayar lebih mahal dari seharusnya. Baca Juga:Penggunaan Air Meningkat Selama Pandemi Covid-19, PDAM Tirtaraharja Imbau Pelanggan Bijak Daging sapi impor sebenarnya jauh lebih murah daripadadaging sapi lokal. Kendati demikian, menurut Perwakilan Satgas PanganKota TasikmalayaAiptu Hamid, temuan itu masih harus diselidiki lebih lanjut. "Kita akan terus dalami untuk mencari bukti, karena jika terbukti ini merupakan pelanggaran hukum yang jelas, harus ditindak," katanya dikutipPikiran-Rakyat.comdariPikiranrakyat-Tasikmalaya.com. Baca Juga:BERITA BAIK, Kesembuhan Pasien Covid-19 di Kota Bandung Lampaui Angka Kematian Untuk sementara, ia mengimbau pedagang daging sapi diPasar Cikurubukagar berlaku jujur dalam transaksi jual-beli. PIKIRAN RAKYAT- Satuan Tugas (Satgas) PanganKota Tasikmalayamelakukan inspeksi mendadak (sidak) di Pasa Cikurubuk pada Kamis 14 Mei 2020. Hasilnya, terdapat indikasi penjualan daging sapi impor dengan hargadaging sapi lokaloleh sejumlah pedagang. Praktik tersebut melanggar ketentuan karena pembeli tak tahu asal-usul daging dan membayar lebih mahal dari seharusnya. Baca Juga:Penggunaan Air Meningkat Selama Pandemi Covid-19, PDAM Tirtaraharja Imbau Pelanggan Bijak Daging sapi impor sebenarnya jauh lebih murah daripadadaging sapi lokal. Kendati demikian, menurut Perwakilan Satgas PanganKota TasikmalayaAiptu Hamid, temuan itu masih harus diselidiki lebih lanjut. "Kita akan terus dalami untuk mencari bukti, karena jika terbukti ini merupakan pelanggaran hukum yang jelas, harus ditindak," katanya dikutipPikiran-Rakyat.comdariPikiranrakyat-Tasikmalaya.com. Baca Juga:BERITA BAIK, Kesembuhan Pasien Covid-19 di Kota Bandung Lampaui Angka Kematian Untuk sementara, ia mengimbau pedagang daging sapi diPasar Cikurubukagar berlaku jujur dalam transaksi jual-beli.Pedagang diminta untuk tak mencari kesempatan yang merugikan pembeli menjelang momen lebaran, salah satunya dengan menaikkan harga secara tak wajar. "Juga, jangan coba-coba menimbun barang, termasuk daging," tegas dia. Baca Juga:Indonesia Diprediksi Menjadi Salah Satu Kiblat Ekosistem Blockchain di Asia Tenggara Namun, untuk kasus penimbunan belum ada indikasi yang mengarah ke sana diPasar Cikurubuk. Satgas akan terus memantauPasar Cikurubuksetiap hari untuk menjamin kebutuhan pokok tetap aman. Hamid mengatakan bahwa pihaknya tak segan menindak tegas setiap pelakukecuranganataupun penimbunan. Baca Juga:Komitmen Mencegah Covid-19, Kota Bandung Akan Lanjutkan Pembatasan Aktivitas Masyarakat "Jika ditemukan seperti itu kita akan tindak dan proses sesuai hukum yang berlaku," tegas Hamid.*** (Asep M Saefulloh/Pikiran Rakyat Tasikmalaya.com) Sumber artikel ini dariPikiranrakyat-Tasikmalaya.comdengan judulSatgas Pangan Kota Tasikmalaya Gelar Sidak, Temukan Indikasi Daging Sapi Impor di Pasar Cikurubuk</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01383151/bansos-provinsi-untuk-35243-keluarga-didistribusikan-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Bansos Provinsi untuk 35.243 Keluarga Didistribusikan di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C348" s="2" t="n">
-        <v>43966.78194444445</v>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Pendistribusian Bantuan Sosial Non Data Terpadu Kesejahteraan Sosial (DTKS) Pemerintah ProvinsiJawa Baratberlangsung diKota Tasikmalaya, Jumat 15 Mei 2020. Sebanyak 35.243 keluarga (KK) diKota Tasikmalayabantuan dari anggaran provinsi tersebut. Wali Kota Budi Budiman hadir dalam‎ kegiatan penyaluran Bansos yang digelar di Kantor PosKota Tasikmalaya. Baca Juga:Pertemuan Online Paling Banyak Diakses Pelanggan Indihome Selama Pandemi Covid-19 Dalam sambutannya, Budi mengatakan pemerintah telah berupaya semaksimal mungkin mencegah penyebaran Covid-19. Dampak wabah terhadap persoalan sosial dan ekonomi tak kalah penting untuk diperhatikan. Untuk itu, pemerintah memberikan dukungan sosial yang terbagi dari pemerintah pusat melalui Kementerian Sosial, Pemprov dan Pemkot Tasikmalaya. Pemkot,lanjut Budi, telah mendistribusikan Bansosnya untuk 17.590 keluarga Non DTKS sejak 11 Mei 2020 melalui Kantor Pos. Kini, bantuan tersebut baru terealisasi 89 persen. "Kalau kita lihat kemarin, kita evaluasi dari 17.590 hanya 527 saja yang dobel. Rekan-rekan dari petugas Pos dan Gojek kalau ternyata di lapangan menemukan penerima double bantuan, sudah stop saja, tidak boleh ada yang menerima dobel dari bantuan ini," ucap Budi dalam keterangan tertulis dalam Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Jumat. Baca Juga:Suporter Bundesliga Akan Tetap Bergemuruh di Stadion, Begini Cara yang Dilakukan Budi pun berharap, para petugas distribusi Bansos turut memberikan informasi jika mendapati warga yang menerima bantuan ganda. Pasalnya, sumber bantuan berasal dari pemerintah pusat, provinsi dan daerah. Tak lupa, ia berpesan para petugas tetap menjaga keselamatannya dengan tetap memakai masker, helm dan menjaga jarak. Pendistribusian Bansos Provinsi berlangsung sejak 14-20 Mei 2020 secara bertahap per kecamatan. Dari jumlah keseluruhan penerima bantuan yang mencapai 35.243 KK, rincian setiap kecamatannya yakni Tawang 2.632 KK, Indihiang 2.300 KK, Cihideung 3.881 KK, Cipedes 4.606 KK, Purbaratu 2.357 KK, Bungursari 3.106 KK, Cibeureum 5.429 KK, Kawalu 3.858 KK, Tamansari 3.040 KK dan Mangkubumi 4.034 KK.***PIKIRAN RAKYAT –Pendistribusian Bantuan Sosial Non Data Terpadu Kesejahteraan Sosial (DTKS) Pemerintah ProvinsiJawa Baratberlangsung diKota Tasikmalaya, Jumat 15 Mei 2020. Sebanyak 35.243 keluarga (KK) diKota Tasikmalayabantuan dari anggaran provinsi tersebut. Wali Kota Budi Budiman hadir dalam‎ kegiatan penyaluran Bansos yang digelar di Kantor PosKota Tasikmalaya. Baca Juga:Pertemuan Online Paling Banyak Diakses Pelanggan Indihome Selama Pandemi Covid-19 Dalam sambutannya, Budi mengatakan pemerintah telah berupaya semaksimal mungkin mencegah penyebaran Covid-19. Dampak wabah terhadap persoalan sosial dan ekonomi tak kalah penting untuk diperhatikan. Untuk itu, pemerintah memberikan dukungan sosial yang terbagi dari pemerintah pusat melalui Kementerian Sosial, Pemprov dan Pemkot Tasikmalaya. Pemkot,lanjut Budi, telah mendistribusikan Bansosnya untuk 17.590 keluarga Non DTKS sejak 11 Mei 2020 melalui Kantor Pos. Kini, bantuan tersebut baru terealisasi 89 persen. "Kalau kita lihat kemarin, kita evaluasi dari 17.590 hanya 527 saja yang dobel. Rekan-rekan dari petugas Pos dan Gojek kalau ternyata di lapangan menemukan penerima double bantuan, sudah stop saja, tidak boleh ada yang menerima dobel dari bantuan ini," ucap Budi dalam keterangan tertulis dalam Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Jumat. Baca Juga:Suporter Bundesliga Akan Tetap Bergemuruh di Stadion, Begini Cara yang Dilakukan Budi pun berharap, para petugas distribusi Bansos turut memberikan informasi jika mendapati warga yang menerima bantuan ganda. Pasalnya, sumber bantuan berasal dari pemerintah pusat, provinsi dan daerah. Tak lupa, ia berpesan para petugas tetap menjaga keselamatannya dengan tetap memakai masker, helm dan menjaga jarak. Pendistribusian Bansos Provinsi berlangsung sejak 14-20 Mei 2020 secara bertahap per kecamatan. Dari jumlah keseluruhan penerima bantuan yang mencapai 35.243 KK, rincian setiap kecamatannya yakni Tawang 2.632 KK, Indihiang 2.300 KK, Cihideung 3.881 KK, Cipedes 4.606 KK, Purbaratu 2.357 KK, Bungursari 3.106 KK, Cibeureum 5.429 KK, Kawalu 3.858 KK, Tamansari 3.040 KK dan Mangkubumi 4.034 KK.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01382605/pasar-cikurubuk-kota-tasikmalaya-bebas-dari-peredaran-daging-babi</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Pasar Cikurubuk Kota Tasikmalaya Bebas dari Peredaran Daging Babi</t>
-        </is>
-      </c>
-      <c r="C349" s="2" t="n">
-        <v>43965.79444444444</v>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PIKIRAN RAKYAT –Tim Ketahanan PanganKota Tasikmalayamemastikan tidak ada peredarandaging babi/celeng diPasar Cikurubuk. Warga pun tak perlu khawatir berbelanja di sana. Kepala Dinas Ketahanan Pangan, Pertanian dan PeternakanKota TasikmalayaTedi Setiadi mengatakan, pengujian telah dilakukan terhadap penjualan daging sapi diPasar Cikurubuk. Pengujian dilakukan menyusulnya merebaknya kabar beredarnyadaging babiyang dijual seakan daging sapi di Bandung. Baca Juga:Obat Rindu Saat Wabah Corona, BTS Siap Gelar Konser Virtual 'Bang Bang Con the Live' Juni Mendatang Tedi mengatakan, hasil pengujian oleh Loka PomKota Tasikmalayamenunjukkan daging sapi di Cikurubuk benar-benar asli atau bukandaging babi. "Jadi masyarakat diimbau jangan khawatir, bahwa daging yang berada diPasar CikurubukKota Tasikmalayamerupakan asli daging sapi," ucapnya dalam keteranga tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalayaterkait operasi pasar menjelang Lebaran oleh Tim Ketahanan Pangan, Kamis 14 Mei 2020. Tedi juga memastikan stok daging sapi dengan dengan hari Idul Fitri masih aman. Demikian pula dengan harganya yang berada di kisaran Rp 110.000-120.000. Sedangkan untuk komoditas sayuran seperti bawang putih dan cabai cenderung harganya menurun. Baca Juga:THR Wajib Dibayarkan, Disnaker Cimahi: Penundaan Harus Hasil Bipartit yang Dilaporkan Sebelumnya, di tengah pandemi Covid-19,harga‎ emas perhiasan menyumbang tekanan inflasi diKota Tasikmalayapada April 2020. Meski demikian, inflasi di kota santri tersebut dinilai masih terjaga.***PIKIRAN RAKYAT –Tim Ketahanan PanganKota Tasikmalayamemastikan tidak ada peredarandaging babi/celeng diPasar Cikurubuk. Warga pun tak perlu khawatir berbelanja di sana. Kepala Dinas Ketahanan Pangan, Pertanian dan PeternakanKota TasikmalayaTedi Setiadi mengatakan, pengujian telah dilakukan terhadap penjualan daging sapi diPasar Cikurubuk. Pengujian dilakukan menyusulnya merebaknya kabar beredarnyadaging babiyang dijual seakan daging sapi di Bandung. Baca Juga:Obat Rindu Saat Wabah Corona, BTS Siap Gelar Konser Virtual 'Bang Bang Con the Live' Juni Mendatang Tedi mengatakan, hasil pengujian oleh Loka PomKota Tasikmalayamenunjukkan daging sapi di Cikurubuk benar-benar asli atau bukandaging babi. "Jadi masyarakat diimbau jangan khawatir, bahwa daging yang berada diPasar CikurubukKota Tasikmalayamerupakan asli daging sapi," ucapnya dalam keteranga tertulis di Instagram Dinas Komunikasi dan InformatikaKota Tasikmalayaterkait operasi pasar menjelang Lebaran oleh Tim Ketahanan Pangan, Kamis 14 Mei 2020. Tedi juga memastikan stok daging sapi dengan dengan hari Idul Fitri masih aman. Demikian pula dengan harganya yang berada di kisaran Rp 110.000-120.000. Sedangkan untuk komoditas sayuran seperti bawang putih dan cabai cenderung harganya menurun. Baca Juga:THR Wajib Dibayarkan, Disnaker Cimahi: Penundaan Harus Hasil Bipartit yang Dilaporkan Sebelumnya, di tengah pandemi Covid-19,harga‎ emas perhiasan menyumbang tekanan inflasi diKota Tasikmalayapada April 2020. Meski demikian, inflasi di kota santri tersebut dinilai masih terjaga.***Selengkapnya cek YouTube Pikiran Rakyat  </t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01381366/tertahan-sepekan-kenaikan-kasus-warga-yang-positif-covid-19-kembali-terjadi-di-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Tertahan Sepekan, Kenaikan Kasus Warga Yang Positif Covid-19 Kembali Terjadi di Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C350" s="2" t="n">
-        <v>43963.78333333333</v>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Jumlah kasus warga yang positif Covid-19 kembali mengalami kenaikan diKota Tasikmalaya, Selasa 12 Mei 2020. Padahal kenaikan jumlah penderita corona sempat tertahan selama sepekan setelah  pemberlakuan Pembatasan Sosial Berskala Besar (PSBB). Dalam data terbaru Dinas Komunikasi dan InformatikaKota Tasikmalayadalam instagramnya, jumlah positif Covid-19 bertambah menjadi 33 kasus dengan 11 telah sembuh, 19 dalam perawatan dan 3 meninggal. Baca Juga:5 Tanda Pasangan Masih Mencintai Mantan dan Kamu Hanya Dijadikan Pelampiasan Sebelumnya, selama sepekan pelaksanaa PSBB, jumlahnya tertahan di 31 kasus dengan 11 sembuh, 17 dalam perawatan dan 3 meninggal. Tak pelak, terjadi penambahan dua warga positif corona yang menjalani perawatan. Sebelumnya,‎ tertahannya kasus baru warga yang positif Covid-19 mendapat apresiasi Wali Kota Budi Budiman yang menulis dalam Instagramnya saat PSBB telah bergulir tiga hari. "Kondisi ini yang harus kita pertahankan, dan kuncinya adalah kesadaran bersama seluruh masyarakatKota Tasikmalayauntuk mematuhi semua yang terkait dengan pembatasan-pembatasan selama pelaksanaan PSBB," kata Budi dalam keteranga tertulis di Instagramnya. Baca Juga:Satu Pekan PSBB, Jabar Berhasil Tekan Angka Penularan Kasus COVID-19 Ia berharap, warga bisa melewati masa pandemi dan kembali menjalani kehidupan normal. Untuk itu, Budi meminta warga mendukung pelaksanaan PSBB. "PSBB dilakukan untuk keselamatan kita semua. Mari kita dukung dengan modal utama adalah kesadaran masyarakat secara kolektif,” katanya.PIKIRAN RAKYAT –Jumlah kasus warga yang positif Covid-19 kembali mengalami kenaikan diKota Tasikmalaya, Selasa 12 Mei 2020. Padahal kenaikan jumlah penderita corona sempat tertahan selama sepekan setelah  pemberlakuan Pembatasan Sosial Berskala Besar (PSBB). Dalam data terbaru Dinas Komunikasi dan InformatikaKota Tasikmalayadalam instagramnya, jumlah positif Covid-19 bertambah menjadi 33 kasus dengan 11 telah sembuh, 19 dalam perawatan dan 3 meninggal. Baca Juga:5 Tanda Pasangan Masih Mencintai Mantan dan Kamu Hanya Dijadikan Pelampiasan Sebelumnya, selama sepekan pelaksanaa PSBB, jumlahnya tertahan di 31 kasus dengan 11 sembuh, 17 dalam perawatan dan 3 meninggal. Tak pelak, terjadi penambahan dua warga positif corona yang menjalani perawatan. Sebelumnya,‎ tertahannya kasus baru warga yang positif Covid-19 mendapat apresiasi Wali Kota Budi Budiman yang menulis dalam Instagramnya saat PSBB telah bergulir tiga hari. "Kondisi ini yang harus kita pertahankan, dan kuncinya adalah kesadaran bersama seluruh masyarakatKota Tasikmalayauntuk mematuhi semua yang terkait dengan pembatasan-pembatasan selama pelaksanaan PSBB," kata Budi dalam keteranga tertulis di Instagramnya. Baca Juga:Satu Pekan PSBB, Jabar Berhasil Tekan Angka Penularan Kasus COVID-19 Ia berharap, warga bisa melewati masa pandemi dan kembali menjalani kehidupan normal. Untuk itu, Budi meminta warga mendukung pelaksanaan PSBB. "PSBB dilakukan untuk keselamatan kita semua. Mari kita dukung dengan modal utama adalah kesadaran masyarakat secara kolektif,” katanya.Seperti diketahui, pelaksanaan PSBBKota Tasikmalayaberjalan sebagaiaman penerapan aturan serupa oleh Pemerintah Provinsi Jawa Barat. Baca Juga:Jual Stiker 'Lolos Check Point PSBB', 5 Pelaku Diringkus Satgas Saber Pungli PSBB berlangsung dari 6-19 Mei 2020. Tahap awal PSBB diKota Tasikmalayatak sepenuhnya berlangsung mulus. Beberapa warga justru berkerumun memanfaatkan jalan yang kosong akibat penerapan aturan tersebut untuk tempat bermain sepak bola dan juga diwarnai insiden penerobosan kendaraan di jalur yang ditutup. Budi juga memaklumi kondisi yang terjadi dalam pemberlakuan perdana PSBB di wilayahnya. Baca Juga:Kasus Covid-19 Turun, Uu Nyatakan PSBB Jawa Barat Tidak Akan Diperpanjang "Pelaksanaan berjalan lancar, walaupun masih banyak warga yang belum terinformasikan secara utuh, dan ada juga warga sudah tahu PSBB tetapi berupaya melanggar," kata Budi saat itu. Terkait aksi warga yang bermain bola, ia pun masih menganggapnya masih wajar.‎ "Karena mereka belum memahami apa, dan untuk apa PSBB diterapkan," ucapnya. Penerapan PSBB yang berlangsung pada 6-19 Mei 2020 memang membuat sejumlah ruas jalan diKota Tasikmalayaditutup. Beberapa jalan yang ditutup itu berada di pusat kota seperti area Taman Kota, Cihideung, Selakaso, RAA Wiratanuningrat, Cimulu, Cieunteung.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01380148/efektivitas-psbb-mulai-terlihat-laju-kasus-positif-corona-di-tasikmalaya-tertahan</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Efektivitas PSBB Mulai Terlihat, Laju Kasus Positif Corona di Tasikmalaya Tertahan</t>
-        </is>
-      </c>
-      <c r="C351" s="2" t="n">
-        <v>43961.72430555556</v>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Setelah lima hari berjalannya Pembatasan Sosial Berskala Besar (PSBB) Di KotaTasikmalaya, jumlah kasus warga yang positifCovid-19tak mengalami penambahan. Hal tersebut terlihat dari data Dinas Komunikasi dan Informatika KotaTasikmalayadalam Instagramnya. Dari Rabu-Minggu 6-10 Mei 2020, jumlah warga yang positif corona masih 31 orang dengan rincian ‎11 dinyatakan sembuh, 17 dalam perawatan, 3 meninggal. Angka-angka itu menunjukkan angka penyebaranCovid-19mandek atau tertahan selama berlangsungnyaPSBByang dimulai sejak Rabu 6 Mei 2020. Baca Juga:Persib dalam Sejarah: Makna di Balik Semboyan Nista, Maja, Utama Diskominfo juga menyajikan data warga yang masuk kategori Pasien Dalam Pengawasan (PDP) dan Orang Dalam Pemantauan (ODP). Lima hari lalu,PDPmencapai 33 orang dengan 27 selesai pengawasan, 2 dalam pengawasan, 4 meninggal.ODP1133 orang dengan 869 selesai pemantauan, 264 dalam pemantauan. Pada Minggu 10 Mei 2020,PDP34 orang dengan 29 selesai pengawasan, 0 dalam pengawasan dan 5 meninggal. SedangkanODP1161 orang dengan 914 selesai pemantauan dan 247 dalam pemantauan. Tertahannya kasus baru warga yang positifCovid-19mendapat apresiasi Wali Kota Budi Budiman yang menulis dalam Instagramnya saatPSBBtelah bergulir tiga hari. Baca Juga:Menangis, Seorang Perawat AS Klaim Beberapa Pasien COVID-19 Meninggal karena Kelalaian Tenaga Medis "Kondisi ini yang harus kita pertahankan, dan kuncinya adalah kesadaran bersama seluruh masyarakat KotaTasikmalayauntuk mematuhi semua yang terkait dengan pembatasan-pembatasan selama pelaksanaanPSBB," kata Budi. PIKIRAN RAKYAT -Setelah lima hari berjalannya Pembatasan Sosial Berskala Besar (PSBB) Di KotaTasikmalaya, jumlah kasus warga yang positifCovid-19tak mengalami penambahan. Hal tersebut terlihat dari data Dinas Komunikasi dan Informatika KotaTasikmalayadalam Instagramnya. Dari Rabu-Minggu 6-10 Mei 2020, jumlah warga yang positif corona masih 31 orang dengan rincian ‎11 dinyatakan sembuh, 17 dalam perawatan, 3 meninggal. Angka-angka itu menunjukkan angka penyebaranCovid-19mandek atau tertahan selama berlangsungnyaPSBByang dimulai sejak Rabu 6 Mei 2020. Baca Juga:Persib dalam Sejarah: Makna di Balik Semboyan Nista, Maja, Utama Diskominfo juga menyajikan data warga yang masuk kategori Pasien Dalam Pengawasan (PDP) dan Orang Dalam Pemantauan (ODP). Lima hari lalu,PDPmencapai 33 orang dengan 27 selesai pengawasan, 2 dalam pengawasan, 4 meninggal.ODP1133 orang dengan 869 selesai pemantauan, 264 dalam pemantauan. Pada Minggu 10 Mei 2020,PDP34 orang dengan 29 selesai pengawasan, 0 dalam pengawasan dan 5 meninggal. SedangkanODP1161 orang dengan 914 selesai pemantauan dan 247 dalam pemantauan. Tertahannya kasus baru warga yang positifCovid-19mendapat apresiasi Wali Kota Budi Budiman yang menulis dalam Instagramnya saatPSBBtelah bergulir tiga hari. Baca Juga:Menangis, Seorang Perawat AS Klaim Beberapa Pasien COVID-19 Meninggal karena Kelalaian Tenaga Medis "Kondisi ini yang harus kita pertahankan, dan kuncinya adalah kesadaran bersama seluruh masyarakat KotaTasikmalayauntuk mematuhi semua yang terkait dengan pembatasan-pembatasan selama pelaksanaanPSBB," kata Budi.Ia berharap, warga bisa melewati masa pandemi dan kembali menjalani kehidupan normal. Untuk itu, Budi meminta warga mendukung pelaksanaanPSBB. "PSBBdilakukan untuk keselamatan kita semua. Mari kita dukung dengan modal utama adalah kesadaran masyarakat secara kolektif. Seperti diketahui, pelaksanaanPSBBKotaTasikmalayaberjalan sebagaimana penerapan aturan serupa oleh Pemerintah Provinsi Jawa Barat," katanya. Baca Juga:Pantau Langsung PSBB di Purwakarta, Dedi Mulyadi: Kalau Seperti Ini Esensinya Tidak Tercapai PSBBberlangsung dari 6-19 Mei 2020. Tahap awalPSBBdi KotaTasikmalayatak sepenuhnya berlangsung mulus. Beberapa warga justru berkerumun memanfaatkan jalan yang kosong akibat penerapan aturan tersebut untuk tempat bermain sepak bola dan juga diwarnai insiden penerobosan kendaraan di jalur yang ditutup. Budi juga memaklumi kondisi yang terjadi dalam pemberlakuan perdanaPSBBdi wilayahnya. "Pelaksanaan berjalan lancar, walaupun masih banyak warga yang belum terinformasikan secara utuh, dan ada juga warga sudah tahuPSBBtetapi berupaya melanggar," kata Budi saat itu. Baca Juga:Pelaku UMKM Kota Serang Akan Dapat Bantuan Stimulus, Besarannya Rp 500.000 per Sasaran Terkait aksi warga yang bermain bola, ia pun masih menganggapnya masih wajar.‎ "Karena mereka belum memahami apa, dan untuk apaPSBBditerapkan," ucapnya. PenerapanPSBByang berlangsung pada 6-19 Mei 2020 memang membuat sejumlah ruas jalan di KotaTasikmalayaditutup. Beberapa jalan yang ditutup itu berada di pusat kota seperti area Taman Kota, Cihideung, Selakaso, RAA Wiratanuningrat, Cimulu, Cieunteung. Dalam Apel Gelar Pasukan untukPSBBdi halaman Balai KotaTasikmalaya, Selasa 5 Mei 2020, Budi berharap, pemberlakuanPSBBdapat membuat masyarakat lebih sadar untuk berdiam di rumah saja selama pemberlakuanPSBBguna menahan lajur penyebaranCovid-19. DalamPSBB, petugas yang diterjunkan mencapai 500 orang dari gabungan TNI, Polri, Satpol PP, Dinas Perhubungan dan BPBD KotaTasikmalaya. Terdapat 45 chekpoint dengan 15 diantaranya untuk pengontrolan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01380070/wali-kota-tasikmalaya-sebut-ada-3-mekanisme-bantuan-sosial-saat-pelaksanaan-psbb</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Wali Kota Tasikmalaya Sebut Ada 3 Mekanisme Bantuan Sosial saat Pelaksanaan PSBB</t>
-        </is>
-      </c>
-      <c r="C352" s="2" t="n">
-        <v>43961.65972222222</v>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wali KotaTasikmalaya, Budi Budiman menginformasikan mengenai penyaluran bantuan sosial dalam pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) untuk dibagikan ke-10 kecamatan yang ada di KotaTasikmalaya. Kabarnya, bantuan tersebut datang dari sejumlah pihak, seperti Kementerian Sosial (Kemensos), provinsi, maupun daerah mulai Senin, 11 Mei 2020. Budi menuturkan, mekasinesme bantuan sosial pun dapat dilakukan melalui tiga cara yaitu, distribusibansosdiantar langsung oleh petugas pos ke alamat secara langsung dilingkungan RW setempat secara terjadwal dan untuk jadwalnya akan diprioritaskan yang banyak KPM-nya. Baca Juga:Cek Fakta: Beredar Pesan bahwa Pemerintah Gratiskan 100 GB Internet selama Pandemi COVID-19 "Untuk pembayaran di kantor pos, ada beberapa tim yang akan melakukan pembayaran di kantor pos. Termasuk petugas juga kordinasi dengan lurah,RW dan RT dan aparatur keamanan sesuai dengan wilayah yang telah dijadwalkan," paparnya. Adapun terkait teknis pembayaran dana bantuan, lanjut Budi, pertama KRTS mendatangi RW setempat membawa RS 2, e-KTP asli, e-KTP Fotocopy, dan KK fotocopy. Petugas pos melakukan verifikasi e-KTP, KK dengan danom, jika telah cocok maka KRTS menyerahkan potocopy e-KTP dan kartu keluarga, menandatangani danom, dan menerima uang dengan jumlah yang sesuai dengan danom. Baca Juga:Disebut Ayah Angkat Syahrini, Pria Belanda Bongkar Kemarahan Incess hingga Hubungannya Renggang "Jika KRTS tidak mempunyai e-KTP maka bisa menggunakan surat keterangan dari kelurahan," katanya. PIKIRAN RAKYAT- Wali KotaTasikmalaya, Budi Budiman menginformasikan mengenai penyaluran bantuan sosial dalam pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) untuk dibagikan ke-10 kecamatan yang ada di KotaTasikmalaya. Kabarnya, bantuan tersebut datang dari sejumlah pihak, seperti Kementerian Sosial (Kemensos), provinsi, maupun daerah mulai Senin, 11 Mei 2020. Budi menuturkan, mekasinesme bantuan sosial pun dapat dilakukan melalui tiga cara yaitu, distribusibansosdiantar langsung oleh petugas pos ke alamat secara langsung dilingkungan RW setempat secara terjadwal dan untuk jadwalnya akan diprioritaskan yang banyak KPM-nya. Baca Juga:Cek Fakta: Beredar Pesan bahwa Pemerintah Gratiskan 100 GB Internet selama Pandemi COVID-19 "Untuk pembayaran di kantor pos, ada beberapa tim yang akan melakukan pembayaran di kantor pos. Termasuk petugas juga kordinasi dengan lurah,RW dan RT dan aparatur keamanan sesuai dengan wilayah yang telah dijadwalkan," paparnya. Adapun terkait teknis pembayaran dana bantuan, lanjut Budi, pertama KRTS mendatangi RW setempat membawa RS 2, e-KTP asli, e-KTP Fotocopy, dan KK fotocopy. Petugas pos melakukan verifikasi e-KTP, KK dengan danom, jika telah cocok maka KRTS menyerahkan potocopy e-KTP dan kartu keluarga, menandatangani danom, dan menerima uang dengan jumlah yang sesuai dengan danom. Baca Juga:Disebut Ayah Angkat Syahrini, Pria Belanda Bongkar Kemarahan Incess hingga Hubungannya Renggang "Jika KRTS tidak mempunyai e-KTP maka bisa menggunakan surat keterangan dari kelurahan," katanya.Jika KRTS tidak ada di tempat saat penyerahan bantuan, maka bantuan bisa diserahkan kepada anggota keluarga lainnya dirumah dengan syarat NIK e-KTP yang anggota keluarga tersebut tercantum pada KK yang sama dan menyerahkan RS2 asli, e-KTP, dan KK serta photocopy e-KTP penerima bantuan sosial. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Mulai Disalurkan Besok, Begini Mekanisme Penyerahan Bansos saat Pelaksanaan PSBB di Kota Tasikmalaya" Dalam hal KRTS pindah alamat, jelas Budi, yang bersangkutan dapat mengambil haknya sepanjang ada e-KTP yang sealamat dengan daftar nominatif. Baca Juga:Sidak Disperdaginkop dan UKM Tak Menemukan Pelanggaran, Lotte Serang Pastikan Keamanan Produk Apabila KRTS yang tercantum pada danom meninggal, dana bantuan dapat dibayarkan ke anggota keluarganya yang NIK e-KTP-nya tercantum pada KK KRTS yang bertalian dengan melampirkan copy surat keterangan KRTS yang berlainan. Termasuk apabila KRTS tidak datang untuk mengambil dana batuan, maka setelah batas waktu, dinyatakan wesel pos kadaluawarsa sesuai dengan ketentuan yang berlaku. Dan untuk selanjutnya dana wesel pos bantuan sosial kotaTasikmalayayang tidak dapat diserahkan tersebut, akan dikembalikan ke pemkotTasikmalayamelaluiSLP. Baca Juga:Bandara Dibuka hingga Angkutan Beroperasi tapi Masjid Sepi, MUI Minta Pemerintah Tegas Budi menjelaskan, bantuan tersebut merupakan bantuan non DTKS baik yang dari kementrian sosial, Pemerintah Provinsi dan Kota juga akan segera disalurkan. Dari Kemensos, kata Budi, sudah mencatat sebanyak 51828 KK di KotaTasikmalayayang akan mendapatkan bantuan non DTKS, Pemerintah Provinsi sebanyak 35 ribu KK dan pemerintah KotaTasikmalayasebanyak 17.590 KK."Data tersebut berdasarkan eksisting data baru yang dilakukan RT/RW dengan pihak Dinsos KotaTasikmalaya. Baca Juga:Real Madrid Intip Kemungkinan Boyong Pemain Muda Ajax, Kepala Eksekutif: Tidak Ada Diskon 50 persen "Mudah mudahan semua berjalan lancar dan saya meminta kepada masyarakat agar tertib, menjalankan sesuai aturan dan bersabar bahwa semua yang sudah terdata akan mendapatkannya," kata Budi.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01378426/penerapan-awal-psbb-kota-tasikmalaya-jalan-kosong-jadi-tempat-main-sepak-bola</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Penerapan Awal PSBB Kota Tasikmalaya, Jalan Kosong Jadi Tempat Main Sepak Bola</t>
-        </is>
-      </c>
-      <c r="C353" s="2" t="n">
-        <v>43958.82361111111</v>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Pelaksanaan awal Pembatasan Sosial Berskala Besar (PSBB) guna penanggulangan penyebaran virus Covid-19 di Kota Tasikmalaya tak sepenuhnya berjalan mulus. Beberapa warga bahkan memanfaatkan jalan yang kosong akibat penerapan aturan tersebut untuk tempat bermainsepak bola. Hal tersebut dikemukakan Wali Kota Tasikmalaya Budi Budiman terkait awal pelaksanaanPSBBdi wilayahnya pada Rabu 6 Mei 2020. Baca Juga:Cetar Ramadhan 1441 H Edisi 15: Belajar dari si Buta agar Tak Berburuk Sangka "Pelaksanaan berjalan lancar, walaupun masih banyak warga yang belum terinformasikan secara utuh, dan ada juga warga sudah tahuPSBBtetapi berupaya melanggar," kata Budi dalam keterangan tertulis di Instagramnya pada hari perdana penerapanPSBBtersebut. Budi juga menyinggung perilaku sejumlah warga yang memanfaatkan kosongnya jalan untuk tempat bermainsepak bola. "Tapi saya anggap masih wajar karena mereka belum memahami apa, dan untuk apaPSBBditerapkan," ucapnya. Baca Juga:Soal Eksploitasi ABK WNI dan Penangkapan Ikan Ilegal, Susi: Saya Sudah Teriak dari 2005 Dalam penilaian Budi, kinerja seluruh petugas lapangan di 45 titik pemantauan dan pengawasan lapangan cukup sigap dan semangat. Ia tak lupa mengapresiasi para petugas. "Kita perlu bersama-sama agar tampil sebagai pemenang perang melawan virus corona," ujarnyaPIKIRAN RAKYAT –Pelaksanaan awal Pembatasan Sosial Berskala Besar (PSBB) guna penanggulangan penyebaran virus Covid-19 di Kota Tasikmalaya tak sepenuhnya berjalan mulus. Beberapa warga bahkan memanfaatkan jalan yang kosong akibat penerapan aturan tersebut untuk tempat bermainsepak bola. Hal tersebut dikemukakan Wali Kota Tasikmalaya Budi Budiman terkait awal pelaksanaanPSBBdi wilayahnya pada Rabu 6 Mei 2020. Baca Juga:Cetar Ramadhan 1441 H Edisi 15: Belajar dari si Buta agar Tak Berburuk Sangka "Pelaksanaan berjalan lancar, walaupun masih banyak warga yang belum terinformasikan secara utuh, dan ada juga warga sudah tahuPSBBtetapi berupaya melanggar," kata Budi dalam keterangan tertulis di Instagramnya pada hari perdana penerapanPSBBtersebut. Budi juga menyinggung perilaku sejumlah warga yang memanfaatkan kosongnya jalan untuk tempat bermainsepak bola. "Tapi saya anggap masih wajar karena mereka belum memahami apa, dan untuk apaPSBBditerapkan," ucapnya. Baca Juga:Soal Eksploitasi ABK WNI dan Penangkapan Ikan Ilegal, Susi: Saya Sudah Teriak dari 2005 Dalam penilaian Budi, kinerja seluruh petugas lapangan di 45 titik pemantauan dan pengawasan lapangan cukup sigap dan semangat. Ia tak lupa mengapresiasi para petugas. "Kita perlu bersama-sama agar tampil sebagai pemenang perang melawan virus corona," ujarnyaSeperti diketahui, imbas penerapanPSBByang berlangsung pada 6-19 Mei 2020 membuat sejumlah ruas jalan di Kota Tasikmalaya ditutup. Baca Juga:Pemain Atletico Madrid Kembali ke Tempat Latihan, Alvaro Morata: Lima Menit yang Spesial Beberapa jalan yang ditutup itu berada di pusat kota seperti area Taman Kota, Cihideung, Selakaso, RAA Wiratanuningrat, Cimulu, Cieunteung. Dalam Apel Gelar Pasukan untuk PSBBB di halaman Balai Kota Tasikmalaya, Selasa 5 Mei 2020, Budi berharap, pemberlakuanPSBBdapat membuat masyarakat lebih sadar untuk berdiam di rumah saja selama pemberlakuanPSBBguna menahan lajur penyebaran Covid-19. DalamPSBB, petugas yang diterjunkan mencapai 500 orang dari gabungan TNI, Polri, Satpol PP, Dinas Perhubungan dan BPBD Kota Tasikmalaya. Terdapat 45 chekpoint dengan 15 diantaranya untuk pengontrolan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01377687/1-pleton-pasukan-brigif-13-galuh-siap-terjun-bantu-pelaksanaan-psbb-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>1 Pleton Pasukan Brigif 13 Galuh Siap Terjun Bantu Pelaksanaan PSBB Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C354" s="2" t="n">
-        <v>43957.78055555555</v>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT-  KotaTasikmalayamemberlakukan Pembatasan Sosial Berskala Besar (PSBB) pada Rabu, 6 Mei 2020 dengan melibatkan anggota Brigif Raider 13/Galuh untuk di sejumlah titik wilayahTasikmalaya. Satu pleton pasukan Brigif Raider 13/Galuh atau sekitar 30 sampai 50 orang pasukan, siap membantu Pemerintah KotaTasikmalayadalam penerapannya dipimpin langsung Letda Inf Aming Kiki Romansyah. Kasbrigif Raider 13/Galuh Letkol Inf Ryzadly Syahrazzy Themba menyebutkan pihaknya mendapat dukungan dari rekan yang memberikan bantuan APD berupa Hazmat Suit, Masker dan Face Shield masing-masing berjumlah 500 buah. Baca Juga:Usai Lockdown 40 Hari, Pemerintah India Buka Lebih Awal Toko Miras dengan Dalih 'Pajak' Bantuan APD diterima di Mako Brigif Raider 13/Galuh Jalan Siliwangi Nomor 109 KotaTasikmalayapada Selasa 5 Mei 2020 kemarin. "Dalam mengatasi pandemi COVID-19 di wilayahTasikmalaya, Brigif Raider 13/Galuh merangkul beberapa rekanan diantaranya seperti Direktur BKL dan Taman Wisata KarangresikTasikmalaya," lanjutnya. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Siap Sukseskan PSBB Kota Tasikmalaya, Satu Pleton Pasukan Brigif 13/Galuh Diterjunkan" Baca Juga:Dikenal Sebagai Artis Muda Bertalenta, Maudy Ayunda Jadi Trending Topic di Twitter Pihaknya berharap, bantuan APD ini bisa digunakan dengan baik oleh pasukannya saat menjalankan tugas negara. Selain itu, bantuan juga bisa terus berlanjut selama kondisi wilayah belum dinyatakan aman oleh Pemerintah. PIKIRAN RAKYAT-  KotaTasikmalayamemberlakukan Pembatasan Sosial Berskala Besar (PSBB) pada Rabu, 6 Mei 2020 dengan melibatkan anggota Brigif Raider 13/Galuh untuk di sejumlah titik wilayahTasikmalaya. Satu pleton pasukan Brigif Raider 13/Galuh atau sekitar 30 sampai 50 orang pasukan, siap membantu Pemerintah KotaTasikmalayadalam penerapannya dipimpin langsung Letda Inf Aming Kiki Romansyah. Kasbrigif Raider 13/Galuh Letkol Inf Ryzadly Syahrazzy Themba menyebutkan pihaknya mendapat dukungan dari rekan yang memberikan bantuan APD berupa Hazmat Suit, Masker dan Face Shield masing-masing berjumlah 500 buah. Baca Juga:Usai Lockdown 40 Hari, Pemerintah India Buka Lebih Awal Toko Miras dengan Dalih 'Pajak' Bantuan APD diterima di Mako Brigif Raider 13/Galuh Jalan Siliwangi Nomor 109 KotaTasikmalayapada Selasa 5 Mei 2020 kemarin. "Dalam mengatasi pandemi COVID-19 di wilayahTasikmalaya, Brigif Raider 13/Galuh merangkul beberapa rekanan diantaranya seperti Direktur BKL dan Taman Wisata KarangresikTasikmalaya," lanjutnya. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Siap Sukseskan PSBB Kota Tasikmalaya, Satu Pleton Pasukan Brigif 13/Galuh Diterjunkan" Baca Juga:Dikenal Sebagai Artis Muda Bertalenta, Maudy Ayunda Jadi Trending Topic di Twitter Pihaknya berharap, bantuan APD ini bisa digunakan dengan baik oleh pasukannya saat menjalankan tugas negara. Selain itu, bantuan juga bisa terus berlanjut selama kondisi wilayah belum dinyatakan aman oleh Pemerintah."Saya beserta segenap keluarga besar Brigif Raider 13/Galuh mengucapkan terima kasih adanya bantuan APD ini. "Jelas ini sangat membantu kami dalam bertugas di lapangan. Sehingga kami tidak perlu merasa cemas akan kekurangan perlengkapan saat bertugas," ucapnya.*** (Aris Mohamad Fitrian/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01377651/terapkan-psbb-pemkot-tasikmalaya-kerahkan-500-personel-gabungan-di-45-titik-pos-penjagaan</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Terapkan PSBB, Pemkot Tasikmalaya Kerahkan 500 Personel Gabungan di 45 Titik Pos Penjagaan</t>
-        </is>
-      </c>
-      <c r="C355" s="2" t="n">
-        <v>43957.78125</v>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Terkait pemberlakukan Pembatasan Sosial Berskala Besar (PSBB) di KotaTasikmalayayang telah berlaku pada Rabu 6 Mei 2020 pukul 00.00 WIB. Wali KotaTasikmalaya, Budi Budiman mengatakan, pihaknya telah mempersiapkan sekira 500 personel yang terlibat, mulai dari TNI, Polri, Satpol PP, Dinas Perhubungan, dan BPBD. Budi menuturkan, akan ada 45 titik pos penjagaan yang tersebar di berbagai wilayah kecamatan. Baca Juga:Jangan Salah, Simak Cara Menggunakan Lampu High Beam dengan Benar Menurutnya, kata Budi, tolak ukur keberhasilanPSBBadalah tak adanya penambahan kasus pasien positifCOVID-19. Petugas di lapangan akan bertindak tegas jika masih ada masyarakat yang melanggar aturan selamaPSBB. Budi mencontohkan, jika ada kerumunan lebih dari lima orang akan dibubarkan. Masyarakat diminta bersama-sama menumbuhkan kesadaran kolektif. "Saya tahu, banyak yang akan terganggu dariPSBB. Kegiatan ekonomi, sosial, agama, semua terganggu. Tapi kalau kita ingin mengakhiri ini, kita harus patuh," lanjutnya. Baca Juga:Selama PSBB, Suami Istri Boleh Duduk Berdampingan Asal di Rumah Masing-masing Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "500 Personel Gabungan Dikerahkan dalam Pelaksanaan PSBB Kota Tasikmalaya" PIKIRAN RAKYAT- Terkait pemberlakukan Pembatasan Sosial Berskala Besar (PSBB) di KotaTasikmalayayang telah berlaku pada Rabu 6 Mei 2020 pukul 00.00 WIB. Wali KotaTasikmalaya, Budi Budiman mengatakan, pihaknya telah mempersiapkan sekira 500 personel yang terlibat, mulai dari TNI, Polri, Satpol PP, Dinas Perhubungan, dan BPBD. Budi menuturkan, akan ada 45 titik pos penjagaan yang tersebar di berbagai wilayah kecamatan. Baca Juga:Jangan Salah, Simak Cara Menggunakan Lampu High Beam dengan Benar Menurutnya, kata Budi, tolak ukur keberhasilanPSBBadalah tak adanya penambahan kasus pasien positifCOVID-19. Petugas di lapangan akan bertindak tegas jika masih ada masyarakat yang melanggar aturan selamaPSBB. Budi mencontohkan, jika ada kerumunan lebih dari lima orang akan dibubarkan. Masyarakat diminta bersama-sama menumbuhkan kesadaran kolektif. "Saya tahu, banyak yang akan terganggu dariPSBB. Kegiatan ekonomi, sosial, agama, semua terganggu. Tapi kalau kita ingin mengakhiri ini, kita harus patuh," lanjutnya. Baca Juga:Selama PSBB, Suami Istri Boleh Duduk Berdampingan Asal di Rumah Masing-masing Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "500 Personel Gabungan Dikerahkan dalam Pelaksanaan PSBB Kota Tasikmalaya"Selain kesiapan personil, Pemerintah Kota juga telah memetakan peta pergerakan lalu lintas selama pemberlakukanPSBBdengan memetakan jalan atau arus lalu lintas yang terkena dampakPSBBdan arus lalu lintas yang tidak terkena dampakPSBB. "Termasuk menentukan mana saja jalan yang masih bisa dilalui kendaraan dengan yang tidak bisa dilalui semua kendaraan," kataya.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01377076/simak-sejumlah-ketentuan-pelaksanaan-psbb-kota-tasikmalaya-siap-berlaku-6-mei-besok</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Simak Sejumlah Ketentuan Pelaksanaan PSBB Kota Tasikmalaya, Siap Berlaku 6 Mei Besok</t>
-        </is>
-      </c>
-      <c r="C356" s="2" t="n">
-        <v>43956.72916666666</v>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Jelang pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) di Tasikmalaya, mulai Rabu, 6 Mei 2020. Pemerintah pun telah merancang 7 pembatasan, seperti pendidikan, tempat kerja, sarana keagamaan, tempat umum, jam operasional, budaya serta pembatasan sarana transportasi. Namun, terdapat beberapa pengecualian yang tetap bisa berjalan seperti biasa, seperti fungsi pelayanan langsung kepada masyarakat, pelayanan pencari keadilan atau penegakan hukum dan seluruh kantor atau instansi pemerintahan berdasarkan pengaturan dari kementerian terkait. Selain itu, sejumlah Badan Usaha Milik Negara/Daerah (BUMN/BUMD) pun turut serta dalam penangananCOVID-19dalam pemenuhan kebutuhan pokok masyarakat. Baca Juga:Selama Pandemi Covid-19, Jumlah Kasus Hoaks Alami Peningkatan Selanjutnya, Kantor Notaris atau Pejabat Pembuat Akta Tanah, pelaku usaha yang bergerak pada sektor kesehatan, bahan pangan, makanan dan minuman, energi, komunikasi dan teknologi informasi, keuangan, logistik, perhotelan, konstruksi dan industri dan pelayanan dasar utilitas publik. Termasuk juga yang masih tetap berjalan atau pengecualian, yaitu industri yang ditetapkan sebagai objek vital nasional dan objek tertentu atau kebutuhan sehari-hari. Lalu, organisasi kemasyarakatan lokal dan internasional yang bergerak pada sektor kebencanaan atau sosial, lahan pertanian tanaman pangan, hortikultura, perkebunan, peternakan dan perikanan. Baca Juga:Dikenal Seluruh Rakyat Suriname, Media Setempat Kabarkan Wafatnya Didi Kempot Wali Kota Tasikmalaya Budi Budiman mengatakan, untuk beberapa yang mendapatkan pengecualian tersebut, masih tetap berjalan seperti biasanya. PIKIRAN RAKYAT- Jelang pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) di Tasikmalaya, mulai Rabu, 6 Mei 2020. Pemerintah pun telah merancang 7 pembatasan, seperti pendidikan, tempat kerja, sarana keagamaan, tempat umum, jam operasional, budaya serta pembatasan sarana transportasi. Namun, terdapat beberapa pengecualian yang tetap bisa berjalan seperti biasa, seperti fungsi pelayanan langsung kepada masyarakat, pelayanan pencari keadilan atau penegakan hukum dan seluruh kantor atau instansi pemerintahan berdasarkan pengaturan dari kementerian terkait. Selain itu, sejumlah Badan Usaha Milik Negara/Daerah (BUMN/BUMD) pun turut serta dalam penangananCOVID-19dalam pemenuhan kebutuhan pokok masyarakat. Baca Juga:Selama Pandemi Covid-19, Jumlah Kasus Hoaks Alami Peningkatan Selanjutnya, Kantor Notaris atau Pejabat Pembuat Akta Tanah, pelaku usaha yang bergerak pada sektor kesehatan, bahan pangan, makanan dan minuman, energi, komunikasi dan teknologi informasi, keuangan, logistik, perhotelan, konstruksi dan industri dan pelayanan dasar utilitas publik. Termasuk juga yang masih tetap berjalan atau pengecualian, yaitu industri yang ditetapkan sebagai objek vital nasional dan objek tertentu atau kebutuhan sehari-hari. Lalu, organisasi kemasyarakatan lokal dan internasional yang bergerak pada sektor kebencanaan atau sosial, lahan pertanian tanaman pangan, hortikultura, perkebunan, peternakan dan perikanan. Baca Juga:Dikenal Seluruh Rakyat Suriname, Media Setempat Kabarkan Wafatnya Didi Kempot Wali Kota Tasikmalaya Budi Budiman mengatakan, untuk beberapa yang mendapatkan pengecualian tersebut, masih tetap berjalan seperti biasanya.Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Diberlakukan Mulai 6 Mei 2020, Berikut Pengecualian Pelaksanaan PSBB di Kota Tasikmalaya" "Hanya saja harus tetap berpedoman pada aturan yang ditetapkan baik oleh pemerintah pusat, provinsi maupun daerah. Misalnya terhadap kegiatan industri, pimpinan tempat kerja harus mengurangi kegiatan sampai batas minimal, baik terhadap jumlah karyawan, waktu kegiatan dan fasilitas operasional," ujar Budi. Termasuk kata dia, pimpinan harus mendorong sebanyak mungkin karyawan bekerja dari rumah (work from home), dengan mempertimbangkan kelangsungan usaha dan melakukan pembayaran upah pekerja atau buruh sesuai dengan kesepakatan. Baca Juga:Limbah Infeksius Ancam Sungai Ciliwung, Pemkot Bogor Baru Tangani Sampah ODP "Terhadap rencana pengurangan kegiatan tersebut pimpinan perusahaan juga harus melaporkan kepada Dinas Koperasi, Usaha Mikro, Kecil Menengah, Perindustrian dan Perdagangan dan Dinas Tenaga Kerja," kata Budi. Intinya lanjut Budi, walau pun ada sejumlah pembatasan terkait pelaksanaan penerapan PSBB di Kota Tasikmalaya, layanan terhadap kepentingan masyarakat tetap berjalan. "Di sisi lain upaya pemerintah dalam mempercepat penanganan wabah Covid-19 di Kota Tasikmalaya juga berhasil," ujar Budi.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)  </t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01376578/7-poin-psbb-kota-tasikmalaya-dari-pembatasan-kerja-hingga-kegiatan-tempat-ibadah</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>7 Poin PSBB Kota Tasikmalaya, dari Pembatasan Kerja hingga Kegiatan Tempat Ibadah</t>
-        </is>
-      </c>
-      <c r="C357" s="2" t="n">
-        <v>43956.26041666666</v>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Jelang pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) di wilayah KotaTasikmalayadi 10 kecamatan pada Minggu, 19 Mei 2020 mendatang, Pemerintah Kota (Pemkot)Tasikmalayamenuturkan akan ada tujuh poin penting yang akan diterapkan. Wali KotaTasikmalayaBudi Budiman mengatakan, selamaPSBBsegala aktivitas di lingkungan sekolah atau institusi pendidikan lainnya ditiadakan. Semua siswa wajib belajar di rumah selamaPSBB. Pembatasan kedua, lanjut Budi, akan dilakukan di tempat kerja. Selama ini, sejumlah instansi sudah mulai membatasi kerja para karyawannya atau kerja dari rumah (work from home). Baca Juga:Imbas Corona, Kelompok Rock Rage Against The Machine Terpaksa Tunda Tur Reuni 2020 Namun, ketikaPSBBdiberlakukan, perusahaan lainnya harus mulai membatasi aktivitas di kantor. Menurut Budi, terdapat pengecualian untuk beberapa instansi yang tetap harus memberikan pelayanan kepada warga selamaPSBB. Di antaranya seperti penegak hukum, BUMN dan BUMD, pelaku usaha kesehatan, makanan, energi, pertanian, komunikasi, keuangan, logistik, perhotelan, konstruksi, dan pelayanan dasar. "Selain itu, terdapat pengecualian juga kepada organinsasi kebencanaan dan sosial untuk tetap bisa beroperasi," katanya. Baca Juga:Pura-pura Membantu, Dua Pria Kuras Saldo ATM Warga Ciamis PIKIRAN RAKYAT- Jelang pelaksanaan Pembatasan Sosial Berskala Besar (PSBB) di wilayah KotaTasikmalayadi 10 kecamatan pada Minggu, 19 Mei 2020 mendatang, Pemerintah Kota (Pemkot)Tasikmalayamenuturkan akan ada tujuh poin penting yang akan diterapkan. Wali KotaTasikmalayaBudi Budiman mengatakan, selamaPSBBsegala aktivitas di lingkungan sekolah atau institusi pendidikan lainnya ditiadakan. Semua siswa wajib belajar di rumah selamaPSBB. Pembatasan kedua, lanjut Budi, akan dilakukan di tempat kerja. Selama ini, sejumlah instansi sudah mulai membatasi kerja para karyawannya atau kerja dari rumah (work from home). Baca Juga:Imbas Corona, Kelompok Rock Rage Against The Machine Terpaksa Tunda Tur Reuni 2020 Namun, ketikaPSBBdiberlakukan, perusahaan lainnya harus mulai membatasi aktivitas di kantor. Menurut Budi, terdapat pengecualian untuk beberapa instansi yang tetap harus memberikan pelayanan kepada warga selamaPSBB. Di antaranya seperti penegak hukum, BUMN dan BUMD, pelaku usaha kesehatan, makanan, energi, pertanian, komunikasi, keuangan, logistik, perhotelan, konstruksi, dan pelayanan dasar. "Selain itu, terdapat pengecualian juga kepada organinsasi kebencanaan dan sosial untuk tetap bisa beroperasi," katanya. Baca Juga:Pura-pura Membantu, Dua Pria Kuras Saldo ATM Warga CiamisArtikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Pemkot Tasikmalaya Berlakukan PSBB, Budi Budiman Beberkan 7 Poin Pembatasannya" Lebih lanjut kata Budi, pembatasan selanjutnya adalah pembatasan kegiatan keagamaan di rumah ibadah. Ia menegaskan, selamaPSBBberlangsung, dilakukan penghentian sementara seluruh kegiatan di tempat-tempat ibadah. Hanya kegiatan berupa penanda ibadah yang diperbolehkan, seperti azan atau mendentangkan lonceng. Baca Juga:Biar Paham, ini Fungsi dan Keunggulan Standar Tengah Pada Motor "Ini demi keselamatan kita bersama. Ibadah di tempat masing-masing dahulu dan pembinaan dapat dilakukan secara virtual," kata Budi. Pembatasan keempat yang dilakukan adalah pembatasan di tempat umum. Menurut Budi, penduduk dilarang berkerumun lebih dari lima orang di tempat umum, kecuali untuk mencari kebutuhan pokok, logistik, energi, dan lainnya. Baca Juga:Manchester City Terancam Tak Tampil di Laga Eropa, Kevin De Bruyne Pikirkan Masa Depannya PemkotTasikmalayajuga melakukan pembatasan jam operasional pusat-pusat perbelanjaan. Pasar tradisional misalnya, hanya diperbolehkan beroperasi pada pukul 04.00-12.00 WIB.Sementara kegiatan di pasar tradisional yang beroperasi pada malam hari dibatasi hanya pada pukul 19.00-23.00 WIB. Sedangkan untuk minimarket dan supermarket operasionalnya dibatasi pada pukul 10.00-18.00 WIB. "Diutamakan pemesanan secara daring," katanya. Pembatasan keenam yaitu pembatasan kegiatan sosial dan budaya. Pembatasan ini termasuk juga kegiatan pertemuan politik, olahraga, hiburan, akademi, dan budaya. Baca Juga:Akibat Pandemi Covid-19, Petani Sayuran Sulit Jual Hasil Panen Terdapat tiga kegiatan sosial yang masih dapat pengecualian, yaitu khitanan, pernikahan, dan pemakaman. Namun, tiga kegiatan itu mesti dilakukan dengan mengikuti protokol kesehatan. Terakhir, lanjut Budi, pemabatasan trasportasi. Ia mengatakan, semua pergerakan orang dan barang dihentikan sementara, kecuali angkutan medis, bahan pokok, peredaran uang, energi, barang impor, bus jemputan karyawan, pertahanan dan keamanan. Sementara transportasi orang yang masih diperbolehkan adalah kendaraan bernomor pribadi, angkutan umum, dan kereta api, tapi dilakukan pembatasan. Dalam satu mobil misalnya, maksimal mobil tiga orang atau empat orang. Sementara untuk angkutan umum diisi maksimal 50 persen dari kapasitas. Baca Juga:Lima Warganya Positif Covid-19, Dusun Cumbut Purbalingga PSBB Lokal Sedangkan pengguna motor juga wajib mengenakan masker. Terakhir, angkutan daring hanya diperbolehkan untuk mengangkut barang.Budi menambahkan, selamaPSBBpihaknya akan terus melakukan penyekatan di beberapa wilayah. Intinya, kata dia, guna membatasi orang masuk ke KotaTasikmalaya. PSBBsendiri ujar Budi berlaku selama 14 hari, tapi bisa diperpanjang dengan berbagai pertimbangan. "Kita berharap, kebijakan ini berdampak baik, grafik Covid-19 kita juga mulai landai. Karena itu, kita harus semua mematuhi anjuran pemerintah," kata dia. *** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)  </t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01375883/jelang-psbb-jabar-wali-kota-tasikmalaya-harus-optimis-semua-capek-dengan-covid-19-ini</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Jelang PSBB Jabar, Wali Kota Tasikmalaya: Harus Optimis, Semua Capek dengan COVID-19 Ini</t>
-        </is>
-      </c>
-      <c r="C358" s="2" t="n">
-        <v>43954.675</v>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Penerapan Pembatasan Sosial Berskala Besar (PSBB) tingkat provinsi Jawa Barat rencananya akan dimulai pada Rabu, 6 Mei 2020 mendatang. Hal tersebut tertuang dalam  Surat Keputusan (SK) Nomor HK.01.07//MENKES/289/2O2O tentang penetapan PSBB wilayah Provinsi Jawa Barat dalam rangka percepatan penanganan Coronavirus Disease. Terkait itu, Pemerintah Provinsi Jawa Barat juga diminta berkoodinasi terkait anggaran dan operasionalisasi jaring pengaman sosial untuk kabupaten/kota yang belum memiliki persiapan. Selanjutnya Gubernur Jabar Ridwan Kamil harus melaporkan pelaksanaan PSBB keMenkesuntuk digunakan dasar penilaian keberhasilan PSBB. Melalui surat tersebut,Menkesmeminta Pemprov Jabar agar melaksanakan PSBB sesuai dengan undang-undangn dan secara konsisten menyosialisasikan pola hidup bersih kepasa masyarakat. Bahkan dalam surat yang sama, menkes menyebutkan PSBB bisa diperpanjang jika penyebaran COVID-19 masih besar. Baca Juga:Pemprov Jatim Beri Edukasi Siswa Lewat Game Dawn of Civilization: Solve Corona Terkait rencana penerapan PSBB, Pemerintah Kota Tasikmakaya mulai melakukan persiapan persiapan dan terus berkordinasi baik dengan aparat kepolisian dan TNI,  Dishub, Indag dan lembaga yang terkait lainnya guna mempersiapkan PSBB. "Kita juga akan segera menysusun masalah penerapan sanksi sesuai yang diatur dalam perundang-undangan," ujar Wali KotaTasikmalayaBudi Budiman, Minggu 3 Mei 2020. PIKIRAN RAKYAT- Penerapan Pembatasan Sosial Berskala Besar (PSBB) tingkat provinsi Jawa Barat rencananya akan dimulai pada Rabu, 6 Mei 2020 mendatang. Hal tersebut tertuang dalam  Surat Keputusan (SK) Nomor HK.01.07//MENKES/289/2O2O tentang penetapan PSBB wilayah Provinsi Jawa Barat dalam rangka percepatan penanganan Coronavirus Disease. Terkait itu, Pemerintah Provinsi Jawa Barat juga diminta berkoodinasi terkait anggaran dan operasionalisasi jaring pengaman sosial untuk kabupaten/kota yang belum memiliki persiapan. Selanjutnya Gubernur Jabar Ridwan Kamil harus melaporkan pelaksanaan PSBB keMenkesuntuk digunakan dasar penilaian keberhasilan PSBB. Melalui surat tersebut,Menkesmeminta Pemprov Jabar agar melaksanakan PSBB sesuai dengan undang-undangn dan secara konsisten menyosialisasikan pola hidup bersih kepasa masyarakat. Bahkan dalam surat yang sama, menkes menyebutkan PSBB bisa diperpanjang jika penyebaran COVID-19 masih besar. Baca Juga:Pemprov Jatim Beri Edukasi Siswa Lewat Game Dawn of Civilization: Solve Corona Terkait rencana penerapan PSBB, Pemerintah Kota Tasikmakaya mulai melakukan persiapan persiapan dan terus berkordinasi baik dengan aparat kepolisian dan TNI,  Dishub, Indag dan lembaga yang terkait lainnya guna mempersiapkan PSBB. "Kita juga akan segera menysusun masalah penerapan sanksi sesuai yang diatur dalam perundang-undangan," ujar Wali KotaTasikmalayaBudi Budiman, Minggu 3 Mei 2020.Dengan penerapan PSBB dalam rangka mencegah mata rantai penyebaran covid-19 kata Budi, di KotaTasikmalayaakan dilakukan pembatasan-pembatasan seperti pembatasan pelaksanaan pendidikan atau proses belajar mengajar, juga pembatasan aktivitas tempat kerja, termasuk pembatasan kegiatan aktivitas keagamaan. Baca Juga:7.000 Cuitan #UndipKokJahatSih Trending di Twitter, Akibat UKT Undip yang Naik "Di kita sebenarnya pembatasan-pembatasan tersebut sudah berjalan seperti pembatasan pendidikan sudah berjalan yaitu murid belajar dari rumah, terus pembatasan tempat kerja di pemkot juga sudah diberlakukan serta tinggal nanti kita atur pembatasan kerja di tempat atau perusahaan lain melalui pengaturan jam kerja sehingga perkumpulan orangnya bisa dikurangi," ujar Budi. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Jelang PSBB, Wali Kota Mohon Dukungan Seluruh Masyarakat Kota Tasikmalaya" Termasuk juga kata dia, pembatasan kegiatan keagamaan di Kota Tasik sudah diterapkan dan sudah mendapatkan persetujuan dari MUI dan ulama seperti pelaksanan jumatan di Masjid Agung dihentikan sementara, pengajian dan tablig akbar juga dihentikan sementara termasuk kegiatan keagamaan di Bulan Ramadan selerti tarawih dirumah. Baca Juga:Tak Pernah Ganti Alat Mandi Selama Pandemi Corona? Hati-hati, Virus Bisa Saja Menempel Juga lanjut Budi, pembatasan modal transportasi seperti pengaturan jam operasional angkutan di terminal, pembatasan jumlah penumpang angkutan, termasuk pengaturan ojol. Termasuk pembatasan jam operasional ekonomi seperti pembatasan jam operasional pasar tradisional, mal, supermarket dan mini market. Juga pembatasan kegiatan seni dan budaya dan pembatasan fasilitas fasilitas umum lainnya. "Jadi pembatasan pembatasn tadi yang kini sedang kita siapkan, walaupun pada dasarnya hampir 70 persen pembatasan tersebut di KotaTasikmalayasudah berjalan, tinggal kita lakukan penyempurnaan penyempurnaan pada saatnya nanti," ujar Budi. Baca Juga:3 Pelatih Persib yang Pernah Diteror Bobotoh, dari Karangan Bunga Duka hingga Bogem MentahDengan diterapkannya PSBB di KotaTasikmalayaujar Budi, pihaknya yakin penyebaran virus covid-19 di KotaTasikmalayabisa terselesaikan. Oleh karena itu, Budi memohon dukungan semua elemen masyarakat untuk membuat sukses program ini. "Harus optimis, semua capek dengan covid ini, untuk itu saya minta dukungan seluruh masyarakat KotaTasikmalayaagar mendukung penuh penerapan PSBB, semoga dengan upaya yang terus kita lakukan, keadaan kembali normal," ujar Budi.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01374991/jeritan-perajin-kue-tasikmalaya-omzet-turun-hingga-menganggur-imbas-pandemi-covid-19</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Jeritan Perajin Kue Tasikmalaya, Omzet Turun Hingga Menganggur Imbas Pandemi COVID-19</t>
-        </is>
-      </c>
-      <c r="C359" s="2" t="n">
-        <v>43953.27083333334</v>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Pandemi COVID-19 tampaknya semakin menggerus perekonomian di Indonesia khususnya pada pemilik usaha. Salah satunya adalah para pengusaha perajin kue yang berada d KotaTasikmalaya, di bulan suciRamadhanini seharusnya mereka mendapatkan keuntungan. Namun, kenyataan berbalik harga gula pasir yang melonjak tak terkendali telah memukul para perajin kue rumahan menjelanglebaranRamadhantahun ini. Baca Juga:May Day 1 Mei 2020, 5 Film Berikut Angkat Kisah Perjuangan Buruh Dengan naiknya harga bahan pokok olahan, membuat para perajin kue ini tidak dapat memproduksi dalam jumlah yang banyak. DikabarkanPikiranrakyat-Tasikmalaya.com,perlu modal yang besar jika para perajin kue ini memaksa produksi lebih banyak dengan harga gula pasir maupun tepung yang harganya saat ini cukup tinggi. "Belum lagi biaya produksi juga cukup tinggi sehingga keuntungan dari pembuatan kue pun pas-pasan," kata Etet Nuryatin, pemilik usaha kue karakter warga Pamijahan, Kelurahan Sukarindik, Kecamatan Bungursari, KotaTasikmalaya, pada Kamsi 30 April 2020 kemarin. Artikel ini telah tayang di Pikiran RakatTasikmalayadengan judul: 'Jerit Perajin Kue Tasikmalaya, Harga Bahan Baku Melonjak hingga Pesanan Tersendat Corona' Menurutnya, kebutuhan untuk pembuatan kue berkarakter per harinya rata-rata membutuhkan gula pasir sebanyak 50 kilogram. PIKIRAN RAKYAT- Pandemi COVID-19 tampaknya semakin menggerus perekonomian di Indonesia khususnya pada pemilik usaha. Salah satunya adalah para pengusaha perajin kue yang berada d KotaTasikmalaya, di bulan suciRamadhanini seharusnya mereka mendapatkan keuntungan. Namun, kenyataan berbalik harga gula pasir yang melonjak tak terkendali telah memukul para perajin kue rumahan menjelanglebaranRamadhantahun ini. Baca Juga:May Day 1 Mei 2020, 5 Film Berikut Angkat Kisah Perjuangan Buruh Dengan naiknya harga bahan pokok olahan, membuat para perajin kue ini tidak dapat memproduksi dalam jumlah yang banyak. DikabarkanPikiranrakyat-Tasikmalaya.com,perlu modal yang besar jika para perajin kue ini memaksa produksi lebih banyak dengan harga gula pasir maupun tepung yang harganya saat ini cukup tinggi. "Belum lagi biaya produksi juga cukup tinggi sehingga keuntungan dari pembuatan kue pun pas-pasan," kata Etet Nuryatin, pemilik usaha kue karakter warga Pamijahan, Kelurahan Sukarindik, Kecamatan Bungursari, KotaTasikmalaya, pada Kamsi 30 April 2020 kemarin. Artikel ini telah tayang di Pikiran RakatTasikmalayadengan judul: 'Jerit Perajin Kue Tasikmalaya, Harga Bahan Baku Melonjak hingga Pesanan Tersendat Corona' Menurutnya, kebutuhan untuk pembuatan kue berkarakter per harinya rata-rata membutuhkan gula pasir sebanyak 50 kilogram.Jika dibandingkan dengan tahun lalu, dengan harga gula pasir Rp 11.000 per kilogram, biaya yang dibutuhkan sekitar Rp 550.000. "Sekarang dengan harga gula pasir mencapai Rp 18.000 per kg, untuk kebutuhan gula pasir sebanyak itu dibutuhkan modal sebesar Rp 900.000. Belum lagi bahan lain seperti guna tepung yang juga harganya naik," tutur Etet. Baca Juga:Cetar Edisi 9: Kesempatan Bertaubat saat Ramadhan, Perhatikan 4 Syarat Ini Etet mengatakan, untuk menyesuaikan harga penjualan kue lantaran dengan melonjaknya harga sejumlah bahan olahan, pihaknya tidak berani untuk menaikkan harga penjualan karena khawatir tidak laku dijual. Ia khawatir jika harga kue yang dijualnya ikut naik, usaha yang telah dirintis puluhan tahun itu akan berhenti beroperasi. Bukan hanya bahan baku, tantangan yang dihadapi para perajin kue jelanglebarantahun ini adalah adanya wabah virus corona. Baca Juga:Kartu Prakerja Dinilai Bukan Solusi yang Efektif Bagi Buruh Akibat dari pandemi tersebut, Etet mengatakan bahwa pesanan kue buatannya telah dipastikan mengalami penurunan. Ia juga mengatakan, pada tahun-tahun sebelumnya, jika menjelanglebaranpesanan kue karakter yang dibuatnya datang dari berbagai daerah seperti Bandung, Bogor, Cirebon bahkan Jakarta, hingga beberapa daerah di Jawa Tengah dan Jawa Timur. Pesanan kue biasanya datang jauh jauh hari sebelumlebaranbahkan ada juga yang memesan sebelumRamadhantiba dengan jumlah yang cukup banyak hingga kuintalan.Baca Juga:May Day 2020, Pemerintah Upayakan Tidak Melakukan PHK Namun, padaRamadhantahun ini pesanan tidak sebanyak sebelumnya, karena adanya pandemi COVID-19 yang tengah mewabah. Etet juga mengungkapkan, jika sebelumnya saat menjelanglebarania bisa mempekerjakan karyawan untuk membantunya. Kini ia hanya bisa mempekerjakan setidaknya 5 orang pegawai itu pun masih anggota keluarganya. Baca Juga:May Day 2020, Pemerintah Upayakan Tidak Melakukan PHK "Sekarang paling lima orang, itu juga keluarga semua," katanya. Senada dengan Etet, pengusaha kue rumahan lainnya di KotaTasikmalayacukup merasakan hal yang sama. Di tengah pandemi ini mereka kesulitan atas kenaikan bahan pokok olahan yang dirasakan sejak satu bulan belakangan ini. "Tak heran jika kini puluhan perajin kue jelang Lebaran tidak lagi memproduksi kue alias nganggur," ujar Dedi, salah seorang perajin kue di Jalan Padasuka, Kelurahan Tawang Sari, Kecamatan Tawang, KotaTasikmalaya.*** (Asep M Saefulloh/ PRTasikmalaya).</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01374041/kpu-kota-tasikmalaya-serahkan-bantuan-pencegahan-virus-corona</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>KPU Kota Tasikmalaya Serahkan Bantuan Pencegahan Virus Corona</t>
-        </is>
-      </c>
-      <c r="C360" s="2" t="n">
-        <v>43951.35138888889</v>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT -Komisi Pemilihan Umum (KPU)Kota TasikmalayamenyerahkanbantuanpenanggulanganCovid-19kepada PemerintahKota Tasikmalaya. Bantuan tersebut bakal kembali disalurkan kepada masyarakat dan tenaga medis guna pencegahan penyebaran virus tersebut. Penyerahanbantuanditerima langsung Wali Kota Budi Budiman dan wakilnya, Muhammad Yusuf di Gedung BalaiKota Tasikmalaya, Jalan Letnan Harun, Rabu 29 April 2020. Baca Juga:Kisah Baing Yusuf, Dianugerahi Karamah Berperang Gunakan Sapu Merang Di hari dan tempat yang sama, Pemkot juga mendapatbantuandari perusahaan perkayuan, Bineatama Kayone Lestari (BKL). Budi mengapresiasi berbagaibantuantersebut. "Hari inibantuanyang diterima dari PT BKL berupa APD Hazmat sebanyak 500 pcs, masker 1500 pcs, face shield 500 dan dariKPU(berupa) hand sanitizer 50 botol dan masker sebanyak 30 lusin," kata Budi dalam keterangan tertulis Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Rabu 29 April 2020 sore. Baca Juga:Lowongan Kerja Mandiri Syariah April 2020, sebagai Staf Bank Budi berharapbantuantersebut bisa membantu para tenaga medis dan masyarakat dalam penanganan wabah. Berdasarkan data Diskominfo hingga Rabu jumlah wargaKota Tasikmalayayang positifCovid-19mencapai 29 orang dengan rincian 13 terkonfirmasi tes laboratorium dan 16 rapid test. Dari jumlah tersebut, 10 dinyatakan sembuh, 16 dalam perawatan, 3 meninggal. Untuk Pasien Dalam Pengawasan (PDP) 32 orang dengan 23 selesai pengawasan, 6 dalam pengawasan, 3 meninggal. Orang Dalam Pemantauan (ODP) 1108 orang dengan 844 selesai pemantauan, 264 dalam pemantauan.PIKIRAN RAKYAT -Komisi Pemilihan Umum (KPU)Kota TasikmalayamenyerahkanbantuanpenanggulanganCovid-19kepada PemerintahKota Tasikmalaya. Bantuan tersebut bakal kembali disalurkan kepada masyarakat dan tenaga medis guna pencegahan penyebaran virus tersebut. Penyerahanbantuanditerima langsung Wali Kota Budi Budiman dan wakilnya, Muhammad Yusuf di Gedung BalaiKota Tasikmalaya, Jalan Letnan Harun, Rabu 29 April 2020. Baca Juga:Kisah Baing Yusuf, Dianugerahi Karamah Berperang Gunakan Sapu Merang Di hari dan tempat yang sama, Pemkot juga mendapatbantuandari perusahaan perkayuan, Bineatama Kayone Lestari (BKL). Budi mengapresiasi berbagaibantuantersebut. "Hari inibantuanyang diterima dari PT BKL berupa APD Hazmat sebanyak 500 pcs, masker 1500 pcs, face shield 500 dan dariKPU(berupa) hand sanitizer 50 botol dan masker sebanyak 30 lusin," kata Budi dalam keterangan tertulis Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya, Rabu 29 April 2020 sore. Baca Juga:Lowongan Kerja Mandiri Syariah April 2020, sebagai Staf Bank Budi berharapbantuantersebut bisa membantu para tenaga medis dan masyarakat dalam penanganan wabah. Berdasarkan data Diskominfo hingga Rabu jumlah wargaKota Tasikmalayayang positifCovid-19mencapai 29 orang dengan rincian 13 terkonfirmasi tes laboratorium dan 16 rapid test. Dari jumlah tersebut, 10 dinyatakan sembuh, 16 dalam perawatan, 3 meninggal. Untuk Pasien Dalam Pengawasan (PDP) 32 orang dengan 23 selesai pengawasan, 6 dalam pengawasan, 3 meninggal. Orang Dalam Pemantauan (ODP) 1108 orang dengan 844 selesai pemantauan, 264 dalam pemantauan.Orang Tanpa Gejala (OTG) 335 orang dengan 233 selesai pemantauan dan 102 dalam pemantauan.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01373071/kader-pdip-di-tasikmalaya-dianiaya-orang-tak-dikenal-dicegat-di-jalan-hingga-luka-luka</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Kader PDIP di Tasikmalaya Dianiaya Orang Tak Dikenal, Dicegat di Jalan hingga Luka-luka</t>
-        </is>
-      </c>
-      <c r="C361" s="2" t="n">
-        <v>43949.60625</v>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Asep Nurdiana (53) selaku Ketua PAC PDI Perjuangan KecamatanKawalu, KotaTasikmalaya, pada Selasa 28 April 2020 dini haridianiayaOrang Tidak Dikenal(OTK) saat sedang melintas di wilayah Jalan Gubernur Swaka MangkubumiTasikmalaya. Diketahui, Asep merupakan warga Kampung Cicariang, Kelurahan Kersamenak, KecamatanKawalu, KotaTasikmalaya. Kasat Reskrim PolresTasikmalayaKota, AKP Yusuf Ruhiman membenarkan hal tersebut. Ia mengatakan, kini korban mengalami luka cukup serius pada bagian lengan dan sementara OTK kabur melarikan diri meninggalkan korban dalam kondisi terluka. Baca Juga:Virus Corona: Aturan Baru FIFA Jika Kompetisi Bergulir, Bisa 6 Kali Pergantian Pemain Yusuf menuturkan, saat ini kasus tersebut masih dalam penyelidikan dan pelaku pun hingga kini masih belum diketahui identitasnya. Kejadian itu kata dia, terjadi di Jalan Gubernur Swaka tepatnya Kampung Mancagar, Kelurahan Sambongpari, Kecamatan Mangkubumi, KotaTasikmalaya. Saat itu, korban yang menggunakan sepeda motor melintas dari arah Bundaran Linggajaya menuju Cisumur. Tepat di lokasi kejadian, ada seorang pria yang berdiri di pinggir jalan sebelah kiri. Tiba-tiba saat korban hendak melintas, OTK itu berjalan ke tengah jalan sehingga korban melambatkan sepeda motornya. Baca Juga:Beri Klarifikasi Bupati Klaten Sri Mulyani Angkat Bicara Soal Viral Foto di Hand Sanitizer PIKIRAN RAKYAT- Asep Nurdiana (53) selaku Ketua PAC PDI Perjuangan KecamatanKawalu, KotaTasikmalaya, pada Selasa 28 April 2020 dini haridianiayaOrang Tidak Dikenal(OTK) saat sedang melintas di wilayah Jalan Gubernur Swaka MangkubumiTasikmalaya. Diketahui, Asep merupakan warga Kampung Cicariang, Kelurahan Kersamenak, KecamatanKawalu, KotaTasikmalaya. Kasat Reskrim PolresTasikmalayaKota, AKP Yusuf Ruhiman membenarkan hal tersebut. Ia mengatakan, kini korban mengalami luka cukup serius pada bagian lengan dan sementara OTK kabur melarikan diri meninggalkan korban dalam kondisi terluka. Baca Juga:Virus Corona: Aturan Baru FIFA Jika Kompetisi Bergulir, Bisa 6 Kali Pergantian Pemain Yusuf menuturkan, saat ini kasus tersebut masih dalam penyelidikan dan pelaku pun hingga kini masih belum diketahui identitasnya. Kejadian itu kata dia, terjadi di Jalan Gubernur Swaka tepatnya Kampung Mancagar, Kelurahan Sambongpari, Kecamatan Mangkubumi, KotaTasikmalaya. Saat itu, korban yang menggunakan sepeda motor melintas dari arah Bundaran Linggajaya menuju Cisumur. Tepat di lokasi kejadian, ada seorang pria yang berdiri di pinggir jalan sebelah kiri. Tiba-tiba saat korban hendak melintas, OTK itu berjalan ke tengah jalan sehingga korban melambatkan sepeda motornya. Baca Juga:Beri Klarifikasi Bupati Klaten Sri Mulyani Angkat Bicara Soal Viral Foto di Hand SanitizerTanpa sepatah kata pun, OTK tersebut langsung memukul korban menggunakan benda keras. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Dianiaya Orang Tak Dikenal, Ketua PAC PDIP Kawalu Tasikmalaya Dilarikan ke Rumah Sakit" Mendapat serangan secara tiba-tiba, korban yang masih berada di atas motor masih bisa menangkis pukulan tersebut dengan tangan kirinya. "Korban berhasil menangkis serangan pelaku dan tak sampai terjatuh dari motornya, bahkan berupaya menyelamatkan diri. Sedangkan pelaku melarikan diri, namun korban tidak mengetahui arah larinya kemana," ucapnya. Baca Juga:Video yang Mengklaim Kim Jong Un Meninggal Dunia Menyebar Cepat di Korea Utara Menurutnya, usai mengalami penganiayaan, korban masih bisa pulang ke rumahnya meski dalam kondisi terluka. Sesampainya ke rumah, korban langsung dibawa keluarganya ke rumah sakit untuk penanganan medis. "Korban mengalami luka di tangan, jari tengahnya robek dan mendapatkan 10 jahitan," tuturnya. Dijelaskan AKP Yusuf, sejauh ini belum diketahui motif pelaku melakukan penganiayaan tersebut. Baca Juga:PDP Virus Corona di Kota Tasikmalaya yang Meninggal Bertambah Jadi 3 OrangPihaknya masih melakukan penyelidikan dengan mengumpulkan bukti dan memintai keterangan sejumlah saksi termasuk saksi korban. Namun korban masih menjalani penanganan medis, sehingga belum bisa dimintai keterangan lebih jauh. Pihaknya juga belum bisa menyimpulkan, apakah motif kejadian tersebut pembegalan atau ada indikasi kejahatan lain. Baca Juga:Ambil Sample Pasien, Tenaga Medis di Kota Sukabumi Terpapar Covid-19 Berdasarkan keterangan saksi dan penyelidikan sementara, tidak ada harta benda korban yang diambil oleh pelaku. "Kami belum bisa menduga secara pasti apakah ini pembegalan atau tindak pidana lain. Kami masih melakukan penyelidikan, mengumpulkan alat bukti dan memeriksa saksi," ungkapnya.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01373057/pendistribusian-bantuan-covid-19-dinilai-tidak-merata-dinsos-tasikmalaya-beri-tanggapan</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>Pendistribusian Bantuan COVID-19 Dinilai Tidak Merata, Dinsos Tasikmalaya Beri Tanggapan</t>
-        </is>
-      </c>
-      <c r="C362" s="2" t="n">
-        <v>43949.60625</v>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Ief Sofwan selaku ketua RW 2 Kelurahan Tugujaya, Kecamatan Cihideung, KotaTasikmalayamenjelaskan mengenai keresahan warga yang menerima bantuan dari Pemerintah Provinsi (Pemprov) Jawa Barat bagi warga terdampak COVID-19. Seperti yang diketahuiPemprov Jabarmemberikan bantuan berupa uang tunai maupun sembako.  guna membantu warga terdampak akibat COVID-19, Namun kata Ief, warga yang sudah menerima bantuan tersebut justru menjadi bahan pembicaraan dari warga lain yang tidak menerima. Baca Juga:Statistik Persib: Catatan Unik Zalnando yang Tak Pernah Kalah sat Berlaga Bahkan, Ief menuturkan ada sejumlah warga yang datang dan tidak berani membuka bantuan dan berniat untuk mengembalikannya karena merasa tidak enak dengan masyarakat lain yang tidak mendapatkan bantuan. Hal itu kata Ief, dikarenakan masyarakat mengetahui tujuan dari bantuan pemerintah tersebut adalah bantuan untuk masyarakat terdampak COVID-19. Sementara kata Ief, masyarakat yang mendapatkan merupakan warga yang sudah biasa menerima bantuan dari pemerintah saja, bahkan warga yang sudah meninggal pun masih mendapatkan bantuan. Baca Juga:1 Juta Masker Non Medis dari API untuk Palang Merah Indonesia "Padahal kan kalau judulnya bantuan tersebut untuk masyarakat terdampak COVID-19, ya hampir semuanya terdampak. Termasuk masyarakat yang ekonominya cukup baik juga semua terdampak," katanya. PIKIRAN RAKYAT- Ief Sofwan selaku ketua RW 2 Kelurahan Tugujaya, Kecamatan Cihideung, KotaTasikmalayamenjelaskan mengenai keresahan warga yang menerima bantuan dari Pemerintah Provinsi (Pemprov) Jawa Barat bagi warga terdampak COVID-19. Seperti yang diketahuiPemprov Jabarmemberikan bantuan berupa uang tunai maupun sembako.  guna membantu warga terdampak akibat COVID-19, Namun kata Ief, warga yang sudah menerima bantuan tersebut justru menjadi bahan pembicaraan dari warga lain yang tidak menerima. Baca Juga:Statistik Persib: Catatan Unik Zalnando yang Tak Pernah Kalah sat Berlaga Bahkan, Ief menuturkan ada sejumlah warga yang datang dan tidak berani membuka bantuan dan berniat untuk mengembalikannya karena merasa tidak enak dengan masyarakat lain yang tidak mendapatkan bantuan. Hal itu kata Ief, dikarenakan masyarakat mengetahui tujuan dari bantuan pemerintah tersebut adalah bantuan untuk masyarakat terdampak COVID-19. Sementara kata Ief, masyarakat yang mendapatkan merupakan warga yang sudah biasa menerima bantuan dari pemerintah saja, bahkan warga yang sudah meninggal pun masih mendapatkan bantuan. Baca Juga:1 Juta Masker Non Medis dari API untuk Palang Merah Indonesia "Padahal kan kalau judulnya bantuan tersebut untuk masyarakat terdampak COVID-19, ya hampir semuanya terdampak. Termasuk masyarakat yang ekonominya cukup baik juga semua terdampak," katanya.Untuk itu lanjut dia, daripada dengan bantuan tersebut bisa menimbulkan kesan tidak baik atau menimbulkan keresahan di masyarakat, lebih baik bantuan tersebut dikaji ulang. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Merasa Tidak Enak, Bantuan Terdampak Covid-19 Timbulkan Masalah hingga Dikembalikan Warga" Sebagai opsi lain kata dia, pemberiannya dibarengkan antara bantuan DTKS dan non DTKS, minimal tidak terlalu jauh, karena jika judulnya warga terdampak COVID-19, semua warga sama-sama merasakannya saat ini. Baca Juga:Menghilangnya Kim Jong Un Disebut Berhubungan dengan Virus Corona "Ya dari pada masyarakat dibikin resah, lebih baik tidak harus ada bantuan. Menjaga kerukunan masyarakat itu tidak mudah," katanya. Namun demikian, sebagai aparat yang paling dekat dengan masyarakat, pihaknya terus mengedukasi masyarakat sehingga hal yang tidak diinginkan tidak terjadi. "Kalau untuk kerukunan masyarakat kita terus berupaya," katanya. Kepala Dinas Sosial KotaTasikmalayaNana Rosadi saat dikonfirmasi terkait permasalahan tersebut mengatakan, pihaknya telah memprediksi akan adanya permasalahan di masyarakat akibat pembagian dilakukan terburu-buru tanpa menunggu data baru yang akan dikeluarkan oleh Dinas Sosial KotaTasikmalaya. Baca Juga:Miliki Masalah PHK atau Utang saat Pandemi Corona, Bisa Hubungi Peradi Bandung Gratis "Kami ini kan masih dalam proses eksisting data, sementara oleh pihak pos tiba-tiba dibagikan dengan menggunakan data lama dari pemerintah provinsi. Ya pastilah jika ada orang yang sudah meninggal dunia masih kebagian," ujar Nana.Sehingga kata dia, terjadilah kesalahpahaman antara pendataan yang dilakukan RT/RW dengan realisasi pendistribusian bantuan dariPemprov Jabaryang disalurkan sejak Jumat, 24 April 2020 kepada masyarakat. "Pihak RT/RW kan sudah melakukan pendataan untuk bantuan sesuai Non Data Terpadu Kesejahteraan Sosial (DTKS), namunPemprov Jabarmalah lebih dulu mendistribusikan bantuan untuk masyarakat berdasarkan DTKS, ya tidak akan nyambung," katanya. Baca Juga:Menu Makan Pemain Persib Selama Ramadhan 1441 H, Erwin: Ada Kurma dan Teh Hangat Padahal lanjut Nana, berdasarkan eksisting data yang dilakukan RT/RW, pihaknya mengajukan sebanyak 175 KK non DTKS di KotaTasikmalayayang layak mendapatkan bantuan. "Nah, kalau data itu yang digunakan, saya kira tidak akan ada permasalahan terkait bantuan warga terdampak COVID-19 ini," katanya. Sementara itu Wali KotaTasikmalayaBudi Budiman mengatakan, bantuan didistribusikan secara bertahap atau tidak sekaligus, sehingga masyarakat yang belum mendapatkan diminta untuk bersabar. Baca Juga:Pemerintah Siapkan 10.000 Tempat Tidur di 1.000 RS Khusus Pasien Covid-19 "Sebelum dibagikan saya sudah menginstruksikan camat, lurah, RW dan RT untu mengedukasi masyarakat soal bantuan dari pusat, provinsi dan daerah. Supaya tidak terjadi persoalan, karena bantuan ini didistribusikan secara bertahap tidak sekaligus," kata Budi, pada Selasa, 28 April 2020. Dikatakan Budi, bantuan yang disalurkan pemerintah itu beragam, salah satunya DTKS dan non DTKS. "Yang DTKS itu beragam, ada yang PKH, bantuan tunai Kartu Prakerja, KartuSembako, Bantuan Stimulasi, dan yang lainnya," tutur Budi.Baca Juga:Tak Ada Akomodasi Kebutuhan Pendamping, Pasien Disabilitas Corona Ditolak RSD Wisma Atlet Budi menegaskan, agar tidak terjadi kesalahpahaman antara masyarakat yang sudah menerima dengan yang belum, camat, lurah dan RT/RW harus terus menyosialisasikan bahwa calon penerima bantuan yang sudah didata di setiap wilayah sedang diproses supaya segera menerima bantuan dari pemerintah. "Pada waktunya nanti, semua akan menerima dari sumber pintu bantuan yang beragam. Termasuk bantuan dari kota nanti untuk menyisir mana yang belum, baik DTKS mau pun Non DTKS,” kata Budi. "Saya jamin seluruh masyarakat yang didata dan sudah ter-input serta terverifikasi diklasifikasikan menjadi sembilan pintu untuk penerima bantuan semua akan terakomodir. Masyarakat harus paham, yang belum menerima sekarang karena mereka akan mendapatkan bantuan dari sumber keuangannya berbeda,” ujar Budi menambahkan.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01373029/pdp-virus-corona-di-kota-tasikmalaya-yang-meninggal-bertambah-jadi-3-orang</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>PDP Virus Corona di Kota Tasikmalaya yang Meninggal Bertambah Jadi 3 Orang</t>
-        </is>
-      </c>
-      <c r="C363" s="2" t="n">
-        <v>43949.58611111111</v>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Juru Bicara Crisis Center COVID-19 KotaTasikmalaya, Uus Supangat menginformasikan adanya Pasien Dalam Pengawasan (PDP) telah meninggal dunia di ruang isolasi Rumah Sakit Islam (RSI) Gobras, Kecamatan Tamansari,Tasikmalayausai menjalani perawatan, pada Senin 27 April 2020. Uus menjelaskan, PDP berinisial TS (63) merupakan warga Kampung Cihideung, KotaTasikmalaya. Kabarnya, selama 4 bulan pasien tersebut tinggal di panti jompo sehingga tidak pernah kontak dan tinggal bersama keluarganya. "Memang pasien berjenis kelamin laki-laki itu selama empat bulan tinggal di Panti Jompo Welas Asih Cikunir. Pasien tersebut mendapatkan perawatan secara intensif setelah mengalami demam, batuk dan sesak napas dan menggigil," ujar Uus, Selasa, 28 April 2020. Baca Juga:Ilmuan Tiongkok: Virus Corona 'Primitif' Mungkin Muncul Pertama Kali di AS Selain itu, kata Uus, berdasarkan hasil pemeriksaan tim medis melalui uji rapid test (RDT) hasilnya negatif, tapi terindikasipneumonia. Uus juga mengatakan, dengan kasus meninggal tersebut, berarti pasien dalam pengawasan (PDP) di KotaTasikmalayayang meninggal dunia bertambah menjadi tiga orang. Sementara 2 pasien lainnya masih mendapat perawatan secara intensif berada di ruang isolasi. Setelah dinyatakan meninggal oleh tim medis, pasien tersebut langsung dibawa ke instalasi pemulasaraan jenazah RSUD dr Soekardjo. Baca Juga:Gelandang Persib Ngabuburit Plus Olahraga, Pesan Zola Ini yang Harus Dijaga Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Kabar Duka, Korban Meninggal PDP Covid-19 di Kota Tasikmalaya Jadi Tiga Orang" PIKIRAN RAKYAT- Juru Bicara Crisis Center COVID-19 KotaTasikmalaya, Uus Supangat menginformasikan adanya Pasien Dalam Pengawasan (PDP) telah meninggal dunia di ruang isolasi Rumah Sakit Islam (RSI) Gobras, Kecamatan Tamansari,Tasikmalayausai menjalani perawatan, pada Senin 27 April 2020. Uus menjelaskan, PDP berinisial TS (63) merupakan warga Kampung Cihideung, KotaTasikmalaya. Kabarnya, selama 4 bulan pasien tersebut tinggal di panti jompo sehingga tidak pernah kontak dan tinggal bersama keluarganya. "Memang pasien berjenis kelamin laki-laki itu selama empat bulan tinggal di Panti Jompo Welas Asih Cikunir. Pasien tersebut mendapatkan perawatan secara intensif setelah mengalami demam, batuk dan sesak napas dan menggigil," ujar Uus, Selasa, 28 April 2020. Baca Juga:Ilmuan Tiongkok: Virus Corona 'Primitif' Mungkin Muncul Pertama Kali di AS Selain itu, kata Uus, berdasarkan hasil pemeriksaan tim medis melalui uji rapid test (RDT) hasilnya negatif, tapi terindikasipneumonia. Uus juga mengatakan, dengan kasus meninggal tersebut, berarti pasien dalam pengawasan (PDP) di KotaTasikmalayayang meninggal dunia bertambah menjadi tiga orang. Sementara 2 pasien lainnya masih mendapat perawatan secara intensif berada di ruang isolasi. Setelah dinyatakan meninggal oleh tim medis, pasien tersebut langsung dibawa ke instalasi pemulasaraan jenazah RSUD dr Soekardjo. Baca Juga:Gelandang Persib Ngabuburit Plus Olahraga, Pesan Zola Ini yang Harus Dijaga Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Kabar Duka, Korban Meninggal PDP Covid-19 di Kota Tasikmalaya Jadi Tiga Orang"Selanjutnya jenazah langsung di makamkan di pemakanan Kampung Cisapi, Kelurahan Gunung Gede, Kecamatan Kawalu. "Jenazah sudah dimakamkan dengan Standar Operasional Prosedur (SOP) yang dilakukan para petugas yaitu di pemakaman khusus bagi umat non muslim. Baca Juga:Bantuan Rawan Konflik, Banyak Nama Penerima di Majalengka Sudah Meninggal dan Data Invalid "Pelaksanaan pemakaman sendiri, tidak di kremasi tapi dikuburkan secara langsung oleh petugas atas kemauan keluarga dan semua prosesnya berjalan lancar," ujarnya. Dikatakan Uus, atas kasus tersebut pihaknya kembali mengingatkan agar warga tetap menjaga pola hidup bersih dan sehat (PHBS) di lingkungan rumahnya sesuai anjuran pemerintah. Termasuk tetap menjaga jarak, hindari kerumunan, rajin mencuci tangan dengan sabun dan menggunakan masker baik didalam rumah apalagi kalau mau keluar rumah. Baca Juga:Tembak hingga Buang Jasad Eep ke Sungai Citarum, Tomy Terancam Bui Seumur Hidup "Alhamdulilah walau tadi malam ada yang meninggal, tapi saat ini sudah ada 10 pasien virus corona yang sembuh. Harapan kami virus COVID-19 ini segera hilang," ujar Uus.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01372864/gedung-kreatif-janji-ridwan-kamil-untuk-kota-tasikmalaya-pembangunannya-mangkrak</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Gedung Kreatif Janji Ridwan Kamil untuk Kota Tasikmalaya, Pembangunannya Mangkrak</t>
-        </is>
-      </c>
-      <c r="C364" s="2" t="n">
-        <v>43949.36736111111</v>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Janji Gubernur Ridwan Kamil menghadiahiKota Tasikmalayadengan Gedung Creative Center jauh panggang dari api. Alih-alih terealisasi, pembangunan gedung tersebut justru mangkrak atau tak berlanjut. Mangkraknya pembangunan terlihat dari tak adanya aktivitas pengerjaan bangunan oleh para pekerjanya. ‎ Baca Juga:Dirjen WHO Tegaskan Pandemi Virus Corona Jauh dari Kata Selesai Bangunan yang baru terwujud hanya berupa tiang-tiang pondasi dan konstruksi lantai. Bagian depan bangunnan yang bersebelahan dengan Gedung Olah Raga Sukapura di Kompleks Dadaha,Kota Tasikmalayaterlihat dipagari seng. Agus, juru parkir di GOR Sukapura mengamini pembangunan Gedung Creative Center terhenti. Sementara itu, Sekretaris DaerahKota TasikmalayaIvan Dicksan juga mengonfirmasi terhentinya pengerjaan gedung hadiah Pemprov Jabar tersebut. Baca Juga:19 Provinsi di Indonesia Nihil Penambahan Kasus Positif COVID-19 "Tahun sekarang kebetulan memang enggak masuk bantuan keuangan provinsi," kata Ivan dalam pesan WhatsApp, Senin, 27 April 2020. Menurutnya, ada miskomunikasi atau kesalahpahaman terkait mekanisme pengucuran dana pembangunan gedung yang dibiayai Pemprov itu. Akibatnya, pagu anggaran pada 2019 sebagian besar menjadi sisa lebih pembiayaan anggaran (Silpa) Provinsi.PIKIRAN RAKYAT –Janji Gubernur Ridwan Kamil menghadiahiKota Tasikmalayadengan Gedung Creative Center jauh panggang dari api. Alih-alih terealisasi, pembangunan gedung tersebut justru mangkrak atau tak berlanjut. Mangkraknya pembangunan terlihat dari tak adanya aktivitas pengerjaan bangunan oleh para pekerjanya. ‎ Baca Juga:Dirjen WHO Tegaskan Pandemi Virus Corona Jauh dari Kata Selesai Bangunan yang baru terwujud hanya berupa tiang-tiang pondasi dan konstruksi lantai. Bagian depan bangunnan yang bersebelahan dengan Gedung Olah Raga Sukapura di Kompleks Dadaha,Kota Tasikmalayaterlihat dipagari seng. Agus, juru parkir di GOR Sukapura mengamini pembangunan Gedung Creative Center terhenti. Sementara itu, Sekretaris DaerahKota TasikmalayaIvan Dicksan juga mengonfirmasi terhentinya pengerjaan gedung hadiah Pemprov Jabar tersebut. Baca Juga:19 Provinsi di Indonesia Nihil Penambahan Kasus Positif COVID-19 "Tahun sekarang kebetulan memang enggak masuk bantuan keuangan provinsi," kata Ivan dalam pesan WhatsApp, Senin, 27 April 2020. Menurutnya, ada miskomunikasi atau kesalahpahaman terkait mekanisme pengucuran dana pembangunan gedung yang dibiayai Pemprov itu. Akibatnya, pagu anggaran pada 2019 sebagian besar menjadi sisa lebih pembiayaan anggaran (Silpa) Provinsi.Pemkot awalnya memperkirakan program tersebut merupakan salah satu prioritas Pemprov dan penganggaran terus dilakukan. Baca Juga:Pengalaman Pahit Furry Setya saat Casting, Disebut Wajahnya Hanya Cocok Perankan Pengamen "‎Dikira alokasi anggaran untuk lanjutan secara otomatis dianggarkan, ternyata tetap harus mengikuti mekanisme usulan dari daerah," ucap Ivan. Karena tak dianggarkan pada 2020, Pemkot bakal mengusulkan kelanjutan pembangungananya pada 2021 melalui mekanisme e-planning. Meski demikian merebaknya pandemi Covid-19 juga mengganjal penyelesaian gedung janji gubernur tersebut. Soalnya, banyak anggaran pemerintah yang dialihkan guna mengatasi wabah. Baca Juga:Selama PSBB, 800 Orang Warga Kota Cimahi Makan Nasi ‘Gasibu’ "‎Kepastian Banprov yang dapat dilaksanakan, masih menunggu keputusan dari provinsi," ujar Ivan. Mangkraknya gedung tersebut bertolak belakang denga gembor-gembor Ridwan Kamil dalam Instagramnya beberapa waktu lalu yang menyebut gedung itu merupakan hadiah Pemprov untuk menampung energi dan kreativitas anak mudaKota Tasikmalaya. "Semoga beres Desember 2019," tulisnya. Nyatanya, proyek hadiah tersebut tak kunjung rampung hingga kini.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01372567/kabar-baik-7-pasien-positif-covid-19-di-kota-tasikmalaya-dinyatakan-sembuh</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>KABAR BAIK, 7 Pasien Positif COVID-19 di Kota Tasikmalaya Dinyatakan Sembuh</t>
-        </is>
-      </c>
-      <c r="C365" s="2" t="n">
-        <v>43948.69305555556</v>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Kepala Dinas Kesehatan (Dinkes) KotaTasikmalaya,Uus Supangatmenginformasikan, sebanyak 7 pasien positif COVID-19 dinyatakan sembuh setelah menjalani serangkaian perawatan intensif. Uus mengatakan, selain pasien positif, pasien sembuh juga terjadi untuk Pasien Dalam Pengawasan (PDP). Dari jumlah 27 pasien PDP, 22 diantaranya sudah selesai pengawasan atau dinyatakan sembuh. "Yang masih dalam perawatan tinggal tiga pasien dan dua orang pasien PDP meninggal dunia," ujarnya. Baca Juga:Update COVID-19 Per Senin 25 April, Yurianto: 19 Provinsi Tak Laporkan Kasus Baru Adapun yang masih dirawat kata Uus, sebanyak 19 orang dan tiga lainnya meninggal dunia. "Mereka yang terkonfirmasi positif, semua terpapar di wilayah lain setelah dilakukan pemeriksaan hasil uji rapid test sebanyak 21 orang dan 8 sisanya terkonfirmasi melalui swab," kata Uus. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Kabar Gembira, Tujuh Pasien Positif Covid-19 di Kota Tasikmalaya Dinyatakan Sembuh" Baca Juga:Kelanjutan Serie A Italia Mulai Menemui Kejelasan, Begini Skemanya Uus juga mengatakan, kenaikan angka yang cukup signifikan di KotaTasikmalayaterjadi pada Orang Dalam Pemantauan (ODP) yang jumlahnya kini telah mencapai 1.094 orang dalam pemantauan (ODP), di mana 273 orang masih dalam pemantauan dan 821 orang telah selesai pemantauan. PIKIRAN RAKYAT- Kepala Dinas Kesehatan (Dinkes) KotaTasikmalaya,Uus Supangatmenginformasikan, sebanyak 7 pasien positif COVID-19 dinyatakan sembuh setelah menjalani serangkaian perawatan intensif. Uus mengatakan, selain pasien positif, pasien sembuh juga terjadi untuk Pasien Dalam Pengawasan (PDP). Dari jumlah 27 pasien PDP, 22 diantaranya sudah selesai pengawasan atau dinyatakan sembuh. "Yang masih dalam perawatan tinggal tiga pasien dan dua orang pasien PDP meninggal dunia," ujarnya. Baca Juga:Update COVID-19 Per Senin 25 April, Yurianto: 19 Provinsi Tak Laporkan Kasus Baru Adapun yang masih dirawat kata Uus, sebanyak 19 orang dan tiga lainnya meninggal dunia. "Mereka yang terkonfirmasi positif, semua terpapar di wilayah lain setelah dilakukan pemeriksaan hasil uji rapid test sebanyak 21 orang dan 8 sisanya terkonfirmasi melalui swab," kata Uus. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Kabar Gembira, Tujuh Pasien Positif Covid-19 di Kota Tasikmalaya Dinyatakan Sembuh" Baca Juga:Kelanjutan Serie A Italia Mulai Menemui Kejelasan, Begini Skemanya Uus juga mengatakan, kenaikan angka yang cukup signifikan di KotaTasikmalayaterjadi pada Orang Dalam Pemantauan (ODP) yang jumlahnya kini telah mencapai 1.094 orang dalam pemantauan (ODP), di mana 273 orang masih dalam pemantauan dan 821 orang telah selesai pemantauan.Dikatakan Uus, ODP bisa saja menjadi pasien dalam pengawasan (PDP) maupun positif, sehingga dinas kesehatan termasuk petugas puskesmas terus melakukan pemantauan setelah mereka menjalani isolasi mandiri. "Meningkatnya angka ODP selama ini disebabkan karena masih banyaknya pemudik yang berasal dari zona merah yang puncaknya diprediksi akan terjadi sebelum hari raya. Baca Juga:Keluhkan Besarnya Potongan Gaji Pemain Persib jadi Alasan Ingi Liga 1 2020 kembali Berguli Uus mengatakan, walaupun pasien positif terus mengalami peningkatan, KotaTasikmalayabelum masuk zona merah COVID-19, karena penyebaran coronavirus di KotaTasikmalayabukan dari transmisi lokal atau penularan langsung di KotaTasikmalaya. "Seluruhnya tertular di luar wilayah, termasuk untuk pasien positif baik hasil uji rapid melalui swab, semua terpapar diluar. "Hanya saja saat ini memang KotaTasikmalayastatusnya telah menjadi kejadian luar biasa (KLB) COVID-19. Masyarakat harus tetap mewaspadai terutama selalu menjaga jarak, pakai masker, jangan berkerumun dan harus mematuhi anjuran pemerintah. Karena, virus ini sangat mematikan dan tidak memilih batas usia semua berpotensi kena," ujar Uus.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com) </t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01372310/tambang-ilegal-di-kota-tasikmalaya-tak-kunjung-ditindak-mata-air-cihejo-semakin-terancam</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Tambang Ilegal di Kota Tasikmalaya Tak Kunjung Ditindak, Mata Air Cihejo Semakin Terancam</t>
-        </is>
-      </c>
-      <c r="C366" s="2" t="n">
-        <v>43948.36111111111</v>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PIKIRAN RAKYAT -Praktikpenambangan ilegalyang menggerus  Bukit Gunung Putri dan mengancam kelestarian mata airnya terus berlangsung di tengah pandemiCovid-19dan momen bulan suci Ramadhan. Mata air yang terletak di Kampung Cihejo, Kelurahan Cibunigeulis, Kecamatan Bungursari, KotaTasikmalayaharus segera diselamatkan. Hingga Minggu 26 April 2020, praktik penambangan tanpa izin tersebut terus berlangsung. "Masih (tetap berlangsung) dari sejak subuh (aktivitas dimulai)," kata Asep Bagus Maulana, warga Cihejo dalam sambungan telefon, Minggu sore. Ia mengatakan, Lurah Bungursari sempat menyampaikan padanya melalui pesan WhatsApp terkait adanya inspeksi mendadak Dinas ESDM Provinsi Jabar ‎pada Kamis  23 April 2020. Baca Juga:Pangandaran Konfirmasi Kasus Pertama Covid-19, Seorang Perempuan Bergejala Lumpuh Dalam pengamatan Asep, aktvitas penambangan sempat terhenti keesokan‎ harinya atau Jumat, 24 April 2020. Namun, alasan terhentinya praktik tambang itu lantaran adanya Sidak atau karena hari pertama Ramadan tidak diketahui. Akan tetapi, pada hari-hari berikutnya penambangan yang melibatkan alat berat tersebut kembali berjalan sebagaimana biasa. Seperti diketahui,‎ penambangan bukit tersebut bakal berdampak pada pasokan air untuk warga. Mata air di bawah bukit yang telah terkelupas oleh aktivitas pengerukan tersebut menjadi sumber pemenuhan kebutuhan air warga untuk aktivitas mandi, mencuci, kebutuhan wudu di masjid hingga mengairi sawah dan balong/kolam ikan sejak lama. Peneliti Geologi asalTasikmalayaIrev Jundulloh mengingatkan pentingnya untuk menjaga keberadaan bukit-bukit sebagai sumber air diTasikmalaya. Baca Juga:ITB Kembangkan Ventilator Portabel yang Lebih Murah dan Praktis "‎Bukit Gunung Putri masih merupakan bagian dari perbukitan sepuluh ribu (hasil letusan Gunung Galunggung), karakter batuan tersebut disusun oleh material gunung api yang berasal dari Galunggung yang memiliki sifat porous (dapat menyimpan air)," kata Irev saat dihubungi, Rabu 22 April 2020. Tak heran, pasir di sekitar Galunggug dikenal memiliki kualitas yang sangat sebagai bahan campuran bangunan. Namun, kegiatan penambangan ‎di daerah tersebut jelas akan mengganggu sistem air tanah.PIKIRAN RAKYAT -Praktikpenambangan ilegalyang menggerus  Bukit Gunung Putri dan mengancam kelestarian mata airnya terus berlangsung di tengah pandemiCovid-19dan momen bulan suci Ramadhan. Mata air yang terletak di Kampung Cihejo, Kelurahan Cibunigeulis, Kecamatan Bungursari, KotaTasikmalayaharus segera diselamatkan. Hingga Minggu 26 April 2020, praktik penambangan tanpa izin tersebut terus berlangsung. "Masih (tetap berlangsung) dari sejak subuh (aktivitas dimulai)," kata Asep Bagus Maulana, warga Cihejo dalam sambungan telefon, Minggu sore. Ia mengatakan, Lurah Bungursari sempat menyampaikan padanya melalui pesan WhatsApp terkait adanya inspeksi mendadak Dinas ESDM Provinsi Jabar ‎pada Kamis  23 April 2020. Baca Juga:Pangandaran Konfirmasi Kasus Pertama Covid-19, Seorang Perempuan Bergejala Lumpuh Dalam pengamatan Asep, aktvitas penambangan sempat terhenti keesokan‎ harinya atau Jumat, 24 April 2020. Namun, alasan terhentinya praktik tambang itu lantaran adanya Sidak atau karena hari pertama Ramadan tidak diketahui. Akan tetapi, pada hari-hari berikutnya penambangan yang melibatkan alat berat tersebut kembali berjalan sebagaimana biasa. Seperti diketahui,‎ penambangan bukit tersebut bakal berdampak pada pasokan air untuk warga. Mata air di bawah bukit yang telah terkelupas oleh aktivitas pengerukan tersebut menjadi sumber pemenuhan kebutuhan air warga untuk aktivitas mandi, mencuci, kebutuhan wudu di masjid hingga mengairi sawah dan balong/kolam ikan sejak lama. Peneliti Geologi asalTasikmalayaIrev Jundulloh mengingatkan pentingnya untuk menjaga keberadaan bukit-bukit sebagai sumber air diTasikmalaya. Baca Juga:ITB Kembangkan Ventilator Portabel yang Lebih Murah dan Praktis "‎Bukit Gunung Putri masih merupakan bagian dari perbukitan sepuluh ribu (hasil letusan Gunung Galunggung), karakter batuan tersebut disusun oleh material gunung api yang berasal dari Galunggung yang memiliki sifat porous (dapat menyimpan air)," kata Irev saat dihubungi, Rabu 22 April 2020. Tak heran, pasir di sekitar Galunggug dikenal memiliki kualitas yang sangat sebagai bahan campuran bangunan. Namun, kegiatan penambangan ‎di daerah tersebut jelas akan mengganggu sistem air tanah."Karena batuan yang ditambang adalah batuan yang porous tersebut," ujarnya. Penambangan, lanjut Irev, bukan hanya sekadar mengeringkan mata air tersebut. Lebih dari itu, mata air itu bisa menghilang karena batuan tempat tersimpannya air sudah ditambang atau lenyap karena aktivitas penambangan. Irev mengungkapkan, keberadaan bukit-bukit penting untuk dilestarikan untuk menjaga keberadaan resapan air diTasikmalaya. Baca Juga:Selama PSBB, Sektor Usaha di Luar Pengecualian Masih Beraktivitas "‎Dalam sistem cekungan air tanah di daerahTasikmalaya, perbukitan sepuluh ribu memiliki peran penting sebagai daerah resapan air yang membentuk air tanah, jadi harus dilakukan penyelamatan dan perlindungan terhadap Bukit Gunung Putri," tuturnya. Irev menegaskan, bukit tersebut bukan hanya penting bagi warga yang bermukim di kawasan mata air tersebut.‎ "Berbicara air tanah daerah Gunung Putri berarti berbicara kebutuhan air untuk masyarakat kotaTasikmalaya, artinya bukan hanya masyarakat (sekitar) Gunung Putri yang memiliki tanggung jawab tersebut, tetapi kita semua sebagai warga kotaTasikmalayakhususnya," ucapnya. Hal senada dikemukakan T Bachtiar, Anggota Masyarakat Geografi Nasional Indonesia dan Kelompok Riset Cekungan Bandung. "Bukit habis, ya mata airnya juga akan menghilang," ujar Bachtiar.  Warga bakal merasakan dampak langsung akibat hancur bukit oleh penambangan berupa sawah mengalami kekeringan hingga sulit mendapatkan air untuk berwudu. Ia juga mempertanyakan keberanian institusi pemerintah terkait urusan tersebut untuk melakukan penindakan. Baca Juga:Lowongan Kerja Danone Indonesia April 2020, Program Management Trainee Kembali Dibuka Dalam pemberitaan "PR" sebelumnya, persoalanpenambangan ilegalBukit Gunung Putri sebenarnya telah bergulir dan dibahas oleh Dinas Lingkungan Hidup, Satpol PP KotaTasikmalaya. PolresTasikmalayapun telah diminta untuk turun tangan. Akan tetapi, praktik penambangan di bukit resapan air tersebut tetap berlangsung tanpa adanya tindakan tegas atas pelanggaran kasat mata di sana. "PR" sempat mendatangi langsung lokasi mata air Cihejo yang berlokasi di Kampung Cihejo, Kelurahan Cibunigeulis, Selasa, 21 April 2020. Di sana, ada sejumlah mata air yang ditampung kolam/balong dengan posisi berderet. Lokasinya tepat di bawah Gunung Putri dan mepet dengan area penambangan. Ironisnya, penambangan dilakukan di bawah plang Pemkot yang menyatakan lahan di bukit tersebut merupakan miliknya. Seperti diketahui, lahan Gunung Putri sebagian telah dibebaskan dan dikuasai oleh Pemkot dan oleh pihak luar pemerintah. Lahan yang tak dikuasai pemerintah pun menjadi area penambangan.*** </t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01371183/putus-rantai-penularan-covid-19-pasar-cikurubuk-online-kota-tasikmalaya-diresmikan</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Putus Rantai Penularan Covid-19, Pasar Cikurubuk Online Kota Tasikmalaya Diresmikan</t>
-        </is>
-      </c>
-      <c r="C367" s="2" t="n">
-        <v>43945.71388888889</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Kantor PerwakilanBank IndonesiaTasikmalayadan Tim Pengendalian Inflasi Daerah (TPID)KotaTasikmalayamendirikan dan meresmikanPasarCikurubuk Online sebagai upaya‎ memutus rantai penularan virus corona serta pengendalian inflasi. Peresmian berlangsung di Kantor Perwakilan BITasikmalaya, Jalan Sutisna Senjaya,KotaTasikmalaya, Kamis 23 April 2020 sore. BI dan TPID juga mengajak warga berbelanja di rumah saja secara digital. Peresmian berlangsung dengan sederhana dan peserta terbatas serta ‎tetap mengikuti standard protokol pencegahanCovid-19berupa pembatasan jarak dan penggunaan masker. Kegiatan itu ditandai dengan pesanan secara tematik WaliKotaTasikmalayaBudi Budiman sekaligus memonitoring penyelesaian pesanan tersebut secara virtual oleh pengelolanya. Baca Juga:Ganjar Pranowo Tetap Ingin Hindari Aturan PSBB di Tengah COVID-19 PasarCikurubuk Online dikelola oleh Koperasi PedagangPasarCikurubuk sebagai mitra PemkotTasikmalayayang menyediakan kebutuhan pangan masyarakatKotaTasikmalaya. Koperasi tersebut merupakan binaan Dinas KUMKM PerindagKotaTasikmalayadan mendapat pendampingan dari Kantor Perwakilan BITasikmalaya yang mendorong suatu mekanisme baru bagi warga dalam pemenuhan kebutuhan pangannya. Dengan layanan belanja digital tersebut, masyarakat dapat dengan tenang mendukung kebijakan pemerintah untuk di rumah saja, belajar dari rumah, bekerja dari rumah dan belanja dari rumah. ‎ “Dengan belanja secara digital, masyarakat tidak perlu langsung ke pasar, namun tetap dapat memenuhi kebutuhan pangannya dan terhindar dari penularanCovid-19dengan tetap di rumah saja sehingga mematuhi himbauan pemerintah pusat dan daerah," kata Kepala PerwakilanBank IndonesiaTasikmalaya, Bapak Heru Saptaji dalam keterangan tertulisnya, Kamis malam. Baca Juga:Meluncur Tahun Depan, Ini Bocoroan Spesifikasi Toyota Yaris Crossover Tak hanya itu, Heru berharap belanja dalam jaringan (Daring) itu dapat‎ mendorong peningkatan pembayaran nontunai sebagai bentuk implementasi Gerakan Nasional Non-Tunai (GNNT), khususnya melalui dompet digital dan transfer. ‎Perputaran uang pun bakal meningkat dan mendorong terjadinya arus masuk uang dari luarKotaTasikmalaya. PIKIRAN RAKYAT -Kantor PerwakilanBank IndonesiaTasikmalayadan Tim Pengendalian Inflasi Daerah (TPID)KotaTasikmalayamendirikan dan meresmikanPasarCikurubuk Online sebagai upaya‎ memutus rantai penularan virus corona serta pengendalian inflasi. Peresmian berlangsung di Kantor Perwakilan BITasikmalaya, Jalan Sutisna Senjaya,KotaTasikmalaya, Kamis 23 April 2020 sore. BI dan TPID juga mengajak warga berbelanja di rumah saja secara digital. Peresmian berlangsung dengan sederhana dan peserta terbatas serta ‎tetap mengikuti standard protokol pencegahanCovid-19berupa pembatasan jarak dan penggunaan masker. Kegiatan itu ditandai dengan pesanan secara tematik WaliKotaTasikmalayaBudi Budiman sekaligus memonitoring penyelesaian pesanan tersebut secara virtual oleh pengelolanya. Baca Juga:Ganjar Pranowo Tetap Ingin Hindari Aturan PSBB di Tengah COVID-19 PasarCikurubuk Online dikelola oleh Koperasi PedagangPasarCikurubuk sebagai mitra PemkotTasikmalayayang menyediakan kebutuhan pangan masyarakatKotaTasikmalaya. Koperasi tersebut merupakan binaan Dinas KUMKM PerindagKotaTasikmalayadan mendapat pendampingan dari Kantor Perwakilan BITasikmalaya yang mendorong suatu mekanisme baru bagi warga dalam pemenuhan kebutuhan pangannya. Dengan layanan belanja digital tersebut, masyarakat dapat dengan tenang mendukung kebijakan pemerintah untuk di rumah saja, belajar dari rumah, bekerja dari rumah dan belanja dari rumah. ‎ “Dengan belanja secara digital, masyarakat tidak perlu langsung ke pasar, namun tetap dapat memenuhi kebutuhan pangannya dan terhindar dari penularanCovid-19dengan tetap di rumah saja sehingga mematuhi himbauan pemerintah pusat dan daerah," kata Kepala PerwakilanBank IndonesiaTasikmalaya, Bapak Heru Saptaji dalam keterangan tertulisnya, Kamis malam. Baca Juga:Meluncur Tahun Depan, Ini Bocoroan Spesifikasi Toyota Yaris Crossover Tak hanya itu, Heru berharap belanja dalam jaringan (Daring) itu dapat‎ mendorong peningkatan pembayaran nontunai sebagai bentuk implementasi Gerakan Nasional Non-Tunai (GNNT), khususnya melalui dompet digital dan transfer. ‎Perputaran uang pun bakal meningkat dan mendorong terjadinya arus masuk uang dari luarKotaTasikmalaya.“PasarCikurubuk Online telah didampingi olehBank Indonesiauntuk mengoptimalkan marketplace Tokopedia yang telah settle sebagai perantara jualbeli online di Indonesia, sehingga memungkinkan terjadinya transaksi belanja dari luarKotaTasikmalaya," ujarnya. Heru mencontohkan sempat diinformasikan oleh pengelola adanya pemesanan dari warga di Jakarta untuk Ibunya diKotaTasikmalaya. "Dan ada pemesanan dari Jambi untuk keluarganya juga diKotaTasikmalaya," tutur Heru. Melalui inovasi tersebut, penyebaran corona diharapkan bisa diputus serta akan mendorong‎ pertumbuhan ekonomi yang tinggi.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01370066/komunitas-bola-basket-tasikmalaya-bagikan-sembako-bantu-warga-terdampak-covid-19</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Komunitas Bola Basket Tasikmalaya Bagikan Sembako, Bantu Warga Terdampak COVID-19</t>
-        </is>
-      </c>
-      <c r="C368" s="2" t="n">
-        <v>43943.72013888889</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT-Komunitasdan penggemar bola basketTasikmalayamenggelar kegiatan bakti sosial dengan membagikan sejumlah kebutuhan bahan pokok, berupa sembako dan masker di beberapa titik di wilayah KotaTasikmalaya, guna membantu warga terdampak COVID-19. Kegiatan bakti sosial ini berlangsung di bawah naungan Persatuan BolaBasketSeluruh Indonesia (Perbasi) KotaTasikmalaya. M Salim Bayangkara selaku koordinator kegiatan mengatakan, pihaknya dari komunitas olahraga basket KotaTasikmalayaingin merasakan indahnya berbagi untuk warga yang membutuhkan. Baca Juga:Belajar Tangani Virus Corona dari Vietnam, Negara yang Nihil Kematian COVID-19 "Untuk itu kita inisiasi kegiatan ini. Apalagi dampak Covid-19 sungguh sudah sangat terasa termasuk kita ikut merasakannya,salahsatunya tak bisa main basket," kata Salim. Adapun lanjut Salim, titik pembagian menyisir jalan aktif, kemudian warga di internal komunitas basket yang juga terdampak. Perbasi Kota Tasikmalaya bagikan ratusan paket sembako dan masker pada masyarakat terdampak Covid-19.* /KP/ ASEP MS "Kita harap, melalui kegiatan berbagi ini bisa meringankan beban masyarakat khususnya yang terdampak virus corona. Selain di KotaTasikmalaya, kegiatan seperti ini juga akan dilakukan di KabupatenTasikmalaya," Baca Juga:Minat Mudik Masih Tinggi, Transportasi Umum atau Pribadi Mustinya Tak Diberi Izin PIKIRAN RAKYAT-Komunitasdan penggemar bola basketTasikmalayamenggelar kegiatan bakti sosial dengan membagikan sejumlah kebutuhan bahan pokok, berupa sembako dan masker di beberapa titik di wilayah KotaTasikmalaya, guna membantu warga terdampak COVID-19. Kegiatan bakti sosial ini berlangsung di bawah naungan Persatuan BolaBasketSeluruh Indonesia (Perbasi) KotaTasikmalaya. M Salim Bayangkara selaku koordinator kegiatan mengatakan, pihaknya dari komunitas olahraga basket KotaTasikmalayaingin merasakan indahnya berbagi untuk warga yang membutuhkan. Baca Juga:Belajar Tangani Virus Corona dari Vietnam, Negara yang Nihil Kematian COVID-19 "Untuk itu kita inisiasi kegiatan ini. Apalagi dampak Covid-19 sungguh sudah sangat terasa termasuk kita ikut merasakannya,salahsatunya tak bisa main basket," kata Salim. Adapun lanjut Salim, titik pembagian menyisir jalan aktif, kemudian warga di internal komunitas basket yang juga terdampak. Perbasi Kota Tasikmalaya bagikan ratusan paket sembako dan masker pada masyarakat terdampak Covid-19.* /KP/ ASEP MS "Kita harap, melalui kegiatan berbagi ini bisa meringankan beban masyarakat khususnya yang terdampak virus corona. Selain di KotaTasikmalaya, kegiatan seperti ini juga akan dilakukan di KabupatenTasikmalaya," Baca Juga:Minat Mudik Masih Tinggi, Transportasi Umum atau Pribadi Mustinya Tak Diberi IzinArtikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Tanggap Dampak Covid-19, Pecinta Basket Kota Tasikmalaya Bagikan Ratusan Paket Sembako" "Karena bantuan ini tak hanya dari pecinta basket di kota saja tapi hasil koordinasi juga dengan komunitas dan pecinta basket di kabupaten," ujarnya. Pihaknya juga akan terus berupaya untuk terus melakukan kegiatan yang sama selama wabah masih ada dimana wabah ini belum tahu kapan berakhirnya. Baca Juga:Lowongan Kerja BRI Syariah April 2020, Kesempatan untuk Fresh Graduate di Sukabumi "Puasa juga kita akan terus galang anggota dan pengurus serta pihak lain untuk kegiatan berbagi. Semoga banyak yang tergerak yang ingin tapi belum sempat dalam berbuat kepedulian," kata Salim. Sementara itu, Ketua Perbasi KotaTasikmalayaDedi Otoy mengatakan, pihaknya sangat mengapresiasi kegiatan yang dilakukan komunitas dan pencinta olahraga basket KotaTasikmalayatersebut. "Kami siap mendukung dan mensuport kegiatan ini, sehingga walaupun jumlahnya terbatas, setidaknya dapat membatu masyarakat khususnya yang terdampak Covid-19," ujar Dedi.*** Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)  </t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01369794/pemkot-dan-polres-tasikmalaya-kota-masih-tak-berdaya-untuk-hentikan-penambangan-ilegal</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Pemkot dan Polres Tasikmalaya Kota Masih Tak Berdaya untuk Hentikan Penambangan Ilegal</t>
-        </is>
-      </c>
-      <c r="C369" s="2" t="n">
-        <v>43943.32013888889</v>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Aktivitas penambangan pasir terus menggerus Bukit Gunung Putri hingga mendekati sumber mata airwargadi Kampung Cihejo, Kelurahan Cibunigeulis, Kecamatan Bungursari,KotaTasikmalaya. Kendati berstatus ilegal, PemerintahKotaTasikmalayadan Kepolisian ResortTasikmalayaKotatak kunjung melakukan tindakan tegas atas pelanggaran kasat mata tersebut. Pantauan "PR" pada Selasa 21 April 2020, area penambangan pasir dibukitresapan air tersebut tampak telah bergeser dari arah akses jalan Cihejo. Sebagianbukittelah terkelupas hingga berada di tepi kolam-kolam penampungan mata air Cihejo. Baca Juga:Karyawan Starbucks di Guangzhou Positif Terinfeksi, 2.300 Orang Jalani Tes COVID-19 Aktivitas pengerukan dan pengangkutan alat berat dan truk juga terlihat di sana. Asep Bagus Maulana,wargakampung tersebut mengeluhkan kondisi tersebut. Soalnya, mata air Cihejo penting bagi sejumlahwargaCibunigeulis untuk memenuhi kebutuhan sehari-hari hingga mengairi balong/kolam ikan dan sawah mereka. Sumber airwargaitu bahkan telah mulai menyusut saat musim kemarau tahun kemarin. Padahal, pasokan mata air Cihejo biasanya tetap ada dan berlimpah kendati tengah musim kemarau. Berkurangnya air dari mata air Cihejo membuat balong, bak  masjid pun kekeringan. Air untuk fasilitas MCK yang berada di dekat mata air ikut berkurang. Kondisi cuaca di Cihejo, lanjut Asep, juga dirasakan berbeda karena lebih panas. "Kalau ada hujan angin, dulu mah tertahan (keberadaanbukit)," tutur Asep. Kini jika cuaca buruk, bak penampungan air/toren di rumah Asep bahkan pernah terlontar karena tiupan angin. Baca Juga:Cerita dari Relawan Covid-19: Letihnya Menggunakan APD, hingga Harus Menahan Buang Air Menurutnya, rencana pengerukan/penambangan Gunung Putri sudah muncul sejak 2014. Saat itu, beredar surat yang ditanda tangani beberapawargayang mengaku setuju atas praktik penambangan itu. PIKIRAN RAKYAT -Aktivitas penambangan pasir terus menggerus Bukit Gunung Putri hingga mendekati sumber mata airwargadi Kampung Cihejo, Kelurahan Cibunigeulis, Kecamatan Bungursari,KotaTasikmalaya. Kendati berstatus ilegal, PemerintahKotaTasikmalayadan Kepolisian ResortTasikmalayaKotatak kunjung melakukan tindakan tegas atas pelanggaran kasat mata tersebut. Pantauan "PR" pada Selasa 21 April 2020, area penambangan pasir dibukitresapan air tersebut tampak telah bergeser dari arah akses jalan Cihejo. Sebagianbukittelah terkelupas hingga berada di tepi kolam-kolam penampungan mata air Cihejo. Baca Juga:Karyawan Starbucks di Guangzhou Positif Terinfeksi, 2.300 Orang Jalani Tes COVID-19 Aktivitas pengerukan dan pengangkutan alat berat dan truk juga terlihat di sana. Asep Bagus Maulana,wargakampung tersebut mengeluhkan kondisi tersebut. Soalnya, mata air Cihejo penting bagi sejumlahwargaCibunigeulis untuk memenuhi kebutuhan sehari-hari hingga mengairi balong/kolam ikan dan sawah mereka. Sumber airwargaitu bahkan telah mulai menyusut saat musim kemarau tahun kemarin. Padahal, pasokan mata air Cihejo biasanya tetap ada dan berlimpah kendati tengah musim kemarau. Berkurangnya air dari mata air Cihejo membuat balong, bak  masjid pun kekeringan. Air untuk fasilitas MCK yang berada di dekat mata air ikut berkurang. Kondisi cuaca di Cihejo, lanjut Asep, juga dirasakan berbeda karena lebih panas. "Kalau ada hujan angin, dulu mah tertahan (keberadaanbukit)," tutur Asep. Kini jika cuaca buruk, bak penampungan air/toren di rumah Asep bahkan pernah terlontar karena tiupan angin. Baca Juga:Cerita dari Relawan Covid-19: Letihnya Menggunakan APD, hingga Harus Menahan Buang Air Menurutnya, rencana pengerukan/penambangan Gunung Putri sudah muncul sejak 2014. Saat itu, beredar surat yang ditanda tangani beberapawargayang mengaku setuju atas praktik penambangan itu.Namun, sejumlahwargamenolak pengerukanbukitresapan air itu dan membuat surat yang diterima DPR‎DKotaTasikmalaya. Berkat penolakanwarga,Pemkotmelakukan pembebasan lahan dengan membeli sebagian Gunung Putri. Pembebasan guna menyelamatkanbukittersebut memang berlangsung secara bertahap. Sementara itu,‎ Didin Syarifudin selaku Kepala Bidang Kajian Lingkungan dan Konservasi Dinas Lingkungan HidupKotaTasikmalayamenegaskan, aktivitas penambangan di Gunung Putri ilegal. Baca Juga:Update Virus Corona di Dunia Rabu 22 April 2020, Total 2,5 Juta Kasus Positif COVID-19 "Itu kawasan konservasi sumber mata air, bahkan kami sudah melayangkan surat teguran tiga kali," ucap Didin saat dihubungi. DLH pun telah menggelar rapat dengan Satpol PPKotaTasikmalaya. Hasilnya, Satpol menyurati PolresTasikmalayaKotauntuk bekerjasama melakukan penindakan atas pratik penambangan itu. "Pol PP ngadugikeun (menyampaikan surat) ke Polres, dengan dasar itu bukan kawasan pertambangan tetapi kawasan konservasi karena kawasan tangkapan sumber mata air, itu sesuai RDTR (rencana detail tata ruang)," kata Didin. Baca Juga:Kapolres Cimahi : Jalan Tidak Ditutup, Warga Pelanggar PSBB Bakal Diberi Blangko Teguran DLH, lanjutnya, tak bisa apa-apa lantaran penegakkan Perda dan hukum merupakan wewenang Satpol dan kepolisian. Kendati permintaan penindakan telah disampaikan kepada Korps Bhayangkara, pantauan "PR" justru mendapati penambangan terus berlangsung dan cukup dekat dengan kawasan mata air Cihejo. Selain merusak lingkungan dan berdampak pada kelestarian mata air, aktivitas penambangan juga membahayakan para pekerjanya karena dilakukan secara vertikal sehingga rawan longsor. Sebelumnya, dalam catatan DLH, sudah 10bukityang telah dibebaskan dan dimilikiPemkotTasikmalaya. Sepuluhbukittersebut adalah Gunung Kokosan, Hanjuang, Kiara, Tengah, Pondok, Bondan, Jambore, Bubut, Cilamajang, Gunung Putri.Bukit-bukititu berada di wilayah Kecamatan Bungursari dan Mangkubumi‎. Namun, Gunung Putri baru sebagian yang telah dikuasaiPemkot. Didin mengaku anggaran untuk pembebasan kembali lahan Gunung Putri yang belum dimilikiPemkotterganjal merebaknya pandemi corona. Anggaran yang semestinya untuk pembebasanbukitresapan air kini dialokasikan untuk penanggulangan wabah.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01369523/jumlah-kasus-covid-19-kota-tasikmalaya-2-kecamatan-jadi-yang-tetinggi</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Jumlah Kasus COVID-19 Kota Tasikmalaya, 2 Kecamatan Jadi yang Tetinggi</t>
-        </is>
-      </c>
-      <c r="C370" s="2" t="n">
-        <v>43942.68680555555</v>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Berdasarkan data yang dirilis olehGugus Tugas Percepatan Penanganan COVID-19di KotaTasikmalaya, pada Selasa pagi 21 April 2020 menyebutkan penyebarannya virus corona kini sudah mulai merata di seluruh wilayah kecamatan. Wakil Wali KotaTasikmalaya, Muhammad Yusuf menuturkan, kasus tertinggi COVID-19 berada di wilayah Kecamatan Tawang dan Cihideung. Pasalnya, dua kecamatan tersebut berada di area pusat Kota. "Paling banyak kasus pasien positif virus corona, ada di Tawang dan Cihideung," kata Yusuf. Baca Juga:Kartini Masa Kini, Kenali Sosok Arni Susanti Sang Penggerak Ekonomi di Kota Padang Terdata, di Kecamatan Tawang terdapat 11 pasien positif COVID-19, di antaranya diketahui melalui tes swab dan sisanya melalui rapid test. Sementara di Kecamatan Cihideung terdapat sembilan orang pasien positif, yang seluruhnya diketahui melalui rapid test. Yusuf mengatakan, pihaknyak akan lebih fokus melakukan sosialisasi di dua wilayah itu. Diharapkan, warga dapat mengindahkan imbauan yang diarahkan pemerintah. Baca Juga:Lowongan Kerja PT MRT Jakarta April 2020, Posisi Khusus untuk Lulusan SMK Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Pusat Kota Jadi Penyebaran Pasien Covid-19 Tertinggi di Kota Tasikmalaya" PIKIRAN RAKYAT- Berdasarkan data yang dirilis olehGugus Tugas Percepatan Penanganan COVID-19di KotaTasikmalaya, pada Selasa pagi 21 April 2020 menyebutkan penyebarannya virus corona kini sudah mulai merata di seluruh wilayah kecamatan. Wakil Wali KotaTasikmalaya, Muhammad Yusuf menuturkan, kasus tertinggi COVID-19 berada di wilayah Kecamatan Tawang dan Cihideung. Pasalnya, dua kecamatan tersebut berada di area pusat Kota. "Paling banyak kasus pasien positif virus corona, ada di Tawang dan Cihideung," kata Yusuf. Baca Juga:Kartini Masa Kini, Kenali Sosok Arni Susanti Sang Penggerak Ekonomi di Kota Padang Terdata, di Kecamatan Tawang terdapat 11 pasien positif COVID-19, di antaranya diketahui melalui tes swab dan sisanya melalui rapid test. Sementara di Kecamatan Cihideung terdapat sembilan orang pasien positif, yang seluruhnya diketahui melalui rapid test. Yusuf mengatakan, pihaknyak akan lebih fokus melakukan sosialisasi di dua wilayah itu. Diharapkan, warga dapat mengindahkan imbauan yang diarahkan pemerintah. Baca Juga:Lowongan Kerja PT MRT Jakarta April 2020, Posisi Khusus untuk Lulusan SMK Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Pusat Kota Jadi Penyebaran Pasien Covid-19 Tertinggi di Kota Tasikmalaya"Berdasarkan data terakhir, terdapat 29 pasien positif di KotaTasikmalaya. Sebanyak tujuh orang dinyatakan positif setelah melaui tes swab dan 22 orang melalui rapid test. Dari data itu, lima orang pasien positifCovid-19telah dinyatakan sembuh, dua meninggal dunia, dan sisanya masih menjali perawatan.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01368875/petugas-pemulasaraan-jenazah-rsud-kota-tasikmalaya-buat-peti-mati-khusus-muslim</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Petugas Pemulasaraan Jenazah RSUD Kota Tasikmalaya Buat Peti Mati Khusus Muslim</t>
-        </is>
-      </c>
-      <c r="C371" s="2" t="n">
-        <v>43941.58263888889</v>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Petugas pemulasaraan jenazah di Rumah Sakit Umum Daerah (RSUD) dr Soekardjo KotaTasikmalayaberinisiatif membuatpeti matikhusus untuk korban meninggal dunia akibat COVID-19 yang beragama Islam. Seperti yang telah diberitakan olehPikiranrakyat-Tasikmalaya.comsebelumnya, hal tersebut mengacu pada pedoman pengurusan jenazah atau Tajhiz Al-jana’iz Muslim yang terinfeksi COVID-19. Dalam pedoman tersebut, salah satunya disebutkan bahwa setelah proses pengafanan selesai, jenazah akan dimasukkan ke dalampeti matiyang tidak tembus air dan udara dengan dimiringkan ke arah kanan. Baca Juga:Menjadi PSBB Pertama di Jatim, 3 Daerah Tengah Siapkan Berkas Pengajuan ke Kemenkes Hal tersebut bertujuan agar jenazah yang dikebumikan menghadap ke arah kiblat. Peti mati buatan para petugas pemulasaraan jenazah tersebut didesain khusus untuk jenazah muslim. Diketahui, pengurusan jenazah pasien COVID-19 sendiri diharuskan untuk mengikuti protokol kesehatan khusus. Salah satunya adalah melapisi jenazah menggunakan plastik atau dapat juga dikubur menggunakanpeti mati. Baca Juga:Simak Fitur Spesial di Suzuki XL7 yang Pesaingnya Gak Punya Artikel Ini Sebelumnya Pernah Tayang di Pikiranrakyat-Tasikmalaya.com dengan Judul 'Posisi Jenazah Harus Menghadap Kiblat, RSUD Kota Tasikmalaya Buat Peti Mati Khusus Muslim' PIKIRAN RAKYAT- Petugas pemulasaraan jenazah di Rumah Sakit Umum Daerah (RSUD) dr Soekardjo KotaTasikmalayaberinisiatif membuatpeti matikhusus untuk korban meninggal dunia akibat COVID-19 yang beragama Islam. Seperti yang telah diberitakan olehPikiranrakyat-Tasikmalaya.comsebelumnya, hal tersebut mengacu pada pedoman pengurusan jenazah atau Tajhiz Al-jana’iz Muslim yang terinfeksi COVID-19. Dalam pedoman tersebut, salah satunya disebutkan bahwa setelah proses pengafanan selesai, jenazah akan dimasukkan ke dalampeti matiyang tidak tembus air dan udara dengan dimiringkan ke arah kanan. Baca Juga:Menjadi PSBB Pertama di Jatim, 3 Daerah Tengah Siapkan Berkas Pengajuan ke Kemenkes Hal tersebut bertujuan agar jenazah yang dikebumikan menghadap ke arah kiblat. Peti mati buatan para petugas pemulasaraan jenazah tersebut didesain khusus untuk jenazah muslim. Diketahui, pengurusan jenazah pasien COVID-19 sendiri diharuskan untuk mengikuti protokol kesehatan khusus. Salah satunya adalah melapisi jenazah menggunakan plastik atau dapat juga dikubur menggunakanpeti mati. Baca Juga:Simak Fitur Spesial di Suzuki XL7 yang Pesaingnya Gak Punya Artikel Ini Sebelumnya Pernah Tayang di Pikiranrakyat-Tasikmalaya.com dengan Judul 'Posisi Jenazah Harus Menghadap Kiblat, RSUD Kota Tasikmalaya Buat Peti Mati Khusus Muslim'Kendati demikian, ukuranpeti matiyang normal akan membuat posisi jenazah sulit untuk menghadap kiblat. Sementara itu, koordinator tim pemulasaraan jenazah COVID-19 RSUD dr Soekardjo, Ajat Sudrajat menyebut, pada awalnya terdapat beberapa warga yang menyarankan pihaknya untuk memakamkan jenazah pasien COVID-19, khususnya yang beragama muslim agar menghadap ke arah kiblat. Menurutnya, mengatur posisi jenazah ke arah kiblat akan cukup sulit jika menggunakanpeti matiukuran normal. Baca Juga:Polisi Gagalkan Peredaran Serbuk Kratom, Tanaman Herbal yang Berefek Seperti Morfin "Kita ada bantuanpeti matiukuran normal. Tetapi, agar mayat bisa diposisikan menghadap kiblat, harus ditopang. Jadi kita agak kesulitan saat menggotong peti," ujar Ajat. Kemudian, pihaknya memiliki inisiatif membuatpeti matiyang dikhususkan untuk jenazah pasien COVID-19 yang beragama Islam. Ukuranpeti matitersebut dibuat dengan panjang 200 sentimeter, dengan lebar 45 sentimeter, dan tinggi 60 sentimeter. Baca Juga:Simak 5 Mobil Terkencang di Dunia, Ada yang Mencapai 5.000 Tenaga Kuda Maka dari itu,peti matiakan menjadi lebih tinggi sehingga jenazah dapat menghadap ke arah kiblat. "Jadi kita buat memanjang ke atas agar mayat dapat diletakkan menghadap kiblat lebih mudah. Kita berusaha agar mayat itu sempurna dimakamkannya," ucapnya.Ajat menambahkan,peti matitersebut tidak pernah digunakan sama sekali. Baca Juga:Banyak Dapat Keuntungan, Australia akan Paksa Google dan Facebook Membayar Konten Berita Pasalnya, petugas pemulasaraan jenazah di RSUD dr Soekardjo selalu menggunakanpeti matiukuran normal yang telah disediakan. Ajat berharap,peti matitersebut dapat membuat penguburan jenazah pasien COVID-19 lebih sempurna dari sisi agama.*** (Asep M Saefuloh)</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01368555/1-pasien-positif-covid-19-hasil-rapid-test-di-tasikmalaya-meninggal-dunia</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>1 Pasien Positif COVID-19 Hasil Rapid Test di Tasikmalaya Meninggal Dunia</t>
-        </is>
-      </c>
-      <c r="C372" s="2" t="n">
-        <v>43940.77569444444</v>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Gugus Tugas Percepatan Penanganan COVID-19 KotaTasikmalaya, mengungkap adanya 1 pasien positif corona yang meninggal dunia, pada Minggu 19 April 2020. Wali KotaTasikmalaya, Budi Budiman menjelaskan, pasien berjenis kelamin laki-laki ini meninggal di salah satu Rumah Sakit rujukan di KotaTasikmalayasetelah sebelumnya sudah mengikuti rangkaianrapid diagnostic test(RDT). Budi mengatakan, istrinya pun kini sedang menjalani perawatan intensif karena didiagnosis terpapar COVID-19. Baca Juga:Ridwan Kamil: Kota Cimahi Seharusnya Paling Siap Jelang PSBB Budi menambahkan, pasien yang meninggal telah dimakamkan di pemakaman milik keluarganya di KotaTasikmalaya. Saat proses pemakaman, ujar Budi, berjalan dengan lancar atau tidak ada penolakan dari warga sekitar. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Kabar Duka, Satu Lagi Pasien Positif Covid-19 di Kota Tasikmalaya Tutup Usia" "Penerimaan masyarakat Alhamdulillah cukup bagus. Tidak ada penolakan masyarakat, tidak masalah.Hanya saja pelaksanaan pemakaman tetap sesuai protokol kesehatan," kata Budi. Baca Juga:Simak Kisah Desa Wonorejo Kalimantan Selatan yang Kini Resmi Tak Lagi Berpenghuni Bedasarkan data terakhir, di KotaTasikmalayatotal saat ini terdapat 27 pasien positif di KotaTasikmalaya. PIKIRAN RAKYAT- Gugus Tugas Percepatan Penanganan COVID-19 KotaTasikmalaya, mengungkap adanya 1 pasien positif corona yang meninggal dunia, pada Minggu 19 April 2020. Wali KotaTasikmalaya, Budi Budiman menjelaskan, pasien berjenis kelamin laki-laki ini meninggal di salah satu Rumah Sakit rujukan di KotaTasikmalayasetelah sebelumnya sudah mengikuti rangkaianrapid diagnostic test(RDT). Budi mengatakan, istrinya pun kini sedang menjalani perawatan intensif karena didiagnosis terpapar COVID-19. Baca Juga:Ridwan Kamil: Kota Cimahi Seharusnya Paling Siap Jelang PSBB Budi menambahkan, pasien yang meninggal telah dimakamkan di pemakaman milik keluarganya di KotaTasikmalaya. Saat proses pemakaman, ujar Budi, berjalan dengan lancar atau tidak ada penolakan dari warga sekitar. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Kabar Duka, Satu Lagi Pasien Positif Covid-19 di Kota Tasikmalaya Tutup Usia" "Penerimaan masyarakat Alhamdulillah cukup bagus. Tidak ada penolakan masyarakat, tidak masalah.Hanya saja pelaksanaan pemakaman tetap sesuai protokol kesehatan," kata Budi. Baca Juga:Simak Kisah Desa Wonorejo Kalimantan Selatan yang Kini Resmi Tak Lagi Berpenghuni Bedasarkan data terakhir, di KotaTasikmalayatotal saat ini terdapat 27 pasien positif di KotaTasikmalaya.Lima orang pasien diketahui positif melalui tes swab sementara 22 orang diketahui hasilnya melalui RDT. Dari 27 pasien positif, lima orang telah dinyatakan sembuh, dua orang meninggal dunia, dan sisanya masih menjalani perawatan.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01368519/menjelang-ramadhan-wali-kota-tasikmalaya-imbau-masyarakat-soal-tradisi-munggahan</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>Menjelang Ramadhan, Wali Kota Tasikmalaya Imbau Masyarakat Soal Tradisi Munggahan</t>
-        </is>
-      </c>
-      <c r="C373" s="2" t="n">
-        <v>43940.73263888889</v>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Mengingat tinggal menghitung hari memasuki bulan suci Ramadhan, Pemerintah Kota (Pemkot)Tasikmalayameminta semua elemen masyarakat untuk tidak melakukan kegiatan munggahan atau tradisi makan-makan. Selain itu, Wali KotaTasikmalaya, Budi Budiman pun mengingatkan agar masyarakat tidak perlu nekat mudik untuk sementara waktu. Berdasarkan laporan Gugus Tugas Percepatan Penanganan Covid-19 KotaTasikmalaya, tren penyebaran virus corona di kotaTasikmalayamasih naik terus. Baca Juga:Sterilisasi Jabar dan Banten, 3 Hari 1.497 Orang Masuk ke Sukabumi Hingga Minggu siang, tercatat ada 27 pasien positif di KotaTasikmalaya. Dari jumlah tersebut, sebanyak lima orang diketahui melalui tes swab dan 22 orang melalui rapid diagnostic test (RDT). Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Teruntuk Warga Tasikmalaya, Berikut Imbauan Wali Kota soal Munggahan di Awal Ramadhan" Sementara itu, lanjut Budi, arus mudik ke KotaTasikmalayajelang bulan puasa terus meningkat. Akibatnya, jumlah orang dalam pemantauan (ODP) juga ikut meningkat. Baca Juga:BERITA BAIK dari Kota Sukabumi, 1 Orang Lagi Sembuh dari COVID-19 Budi menyebutkan, saat ini tercatat 1.030 kasus ODP di KotaTasikmalaya, di mana 711 orang telah selesai pemantauan dan 319 orang masih dipantau. Sedangkan pasien dalam pemantauan (PDP) tercatat 25 orang, yaitu 20 orang telah selesai pengawasan, tiga orang masih dirawat, dan dua orang meninggal dunia. PIKIRAN RAKYAT- Mengingat tinggal menghitung hari memasuki bulan suci Ramadhan, Pemerintah Kota (Pemkot)Tasikmalayameminta semua elemen masyarakat untuk tidak melakukan kegiatan munggahan atau tradisi makan-makan. Selain itu, Wali KotaTasikmalaya, Budi Budiman pun mengingatkan agar masyarakat tidak perlu nekat mudik untuk sementara waktu. Berdasarkan laporan Gugus Tugas Percepatan Penanganan Covid-19 KotaTasikmalaya, tren penyebaran virus corona di kotaTasikmalayamasih naik terus. Baca Juga:Sterilisasi Jabar dan Banten, 3 Hari 1.497 Orang Masuk ke Sukabumi Hingga Minggu siang, tercatat ada 27 pasien positif di KotaTasikmalaya. Dari jumlah tersebut, sebanyak lima orang diketahui melalui tes swab dan 22 orang melalui rapid diagnostic test (RDT). Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Teruntuk Warga Tasikmalaya, Berikut Imbauan Wali Kota soal Munggahan di Awal Ramadhan" Sementara itu, lanjut Budi, arus mudik ke KotaTasikmalayajelang bulan puasa terus meningkat. Akibatnya, jumlah orang dalam pemantauan (ODP) juga ikut meningkat. Baca Juga:BERITA BAIK dari Kota Sukabumi, 1 Orang Lagi Sembuh dari COVID-19 Budi menyebutkan, saat ini tercatat 1.030 kasus ODP di KotaTasikmalaya, di mana 711 orang telah selesai pemantauan dan 319 orang masih dipantau. Sedangkan pasien dalam pemantauan (PDP) tercatat 25 orang, yaitu 20 orang telah selesai pengawasan, tiga orang masih dirawat, dan dua orang meninggal dunia.Selain itu, lanjut dia, terdapat 302 orang tanpa gejala (OTG). Sebanyak 153 orang selesai pemantauan dan 149 orang masih dipantau. Budi menegaskan, OTG harus benar-benar dieprhatikan. Sebab, OTG bisa jadi tak terpapar Covid-19, tapi berpotensi menjadi penyebar virus itu ke orang lain. "Itu terus kita tracing," kata dia.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01367502/di-kota-tasikmalaya-kasus-positif-covid-19-dan-yang-sembuh-sama-sama-alami-peningkatan</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>Di Kota Tasikmalaya, Kasus Positif COVID-19 dan yang Sembuh Sama-Sama Alami Peningkatan</t>
-        </is>
-      </c>
-      <c r="C374" s="2" t="n">
-        <v>43938.68958333333</v>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Jumlah warga yangpositifCOVID-19 di KotaTasikmalayasemakin merangkak naik. Meski demikian, jumlah warga pengidap virus tersebut yangsembuhjuga bertambah. Berdasarkan data yang tercatat dalam Instagram Dinas Komunikasi dan Informatika KotaTasikmalayapada Jumat 17 April 2020, jumlah warga yang terkonfirmaipositifCOVID-19 mencapai 25 orang dengan rincian, 19 dalam perawatan, 5sembuhdan 1 meninggal. Baca Juga:Cek Asrama Mahasiswa Perantauan di Semarang, Ganjar Pranowo Kirim Bantuan Dua puluh lima yangpositiftersebut diketahui masing-masing 5 dari tes laboratorium dan 20 rapid diagnostic test (RDT). Data tersebut menunjukkan adanya lonjakan penderita COVID-19 di KotaTasikmalaya. Sedangkan dalam kategori Pasien Dalam Perawatan (PDP) COVID-19, jumlahnya 23 orang dengan 18 selesai pengawasan, 3 dalam pengawasan, 2 meninggal. Baca Juga:Hyundai Pastikan Tetap Bangun Pabrik di Indonesia Meski Pandemi Covid-19 Untuk Orang Dalam Pemantauan (ODP) COVID-19 1014 orang yang terdiri 687 selesai dan 327 dalam pemantauan. Kategori lain, Orang Tanpa Gejala (OTG) sebanyak 263 orang dengan 131 selesai pemantauan, 132 dalam pemantauan. Pada Kamis 16 April 2020, jumlah wargapositifhanya 21 orang dengan 15 dalam perawatan, 5sembuhdan 1 meninggal. PDP 23 dengan 18 selesai pengawasan, 3 dalam pengawasan, 2 meninggal. Baca Juga:Pegawai OJK Sepakat Potong Gaji Selama 9 Bulan untuk Membantu Penanganan Covid-19 PIKIRAN RAKYAT- Jumlah warga yangpositifCOVID-19 di KotaTasikmalayasemakin merangkak naik. Meski demikian, jumlah warga pengidap virus tersebut yangsembuhjuga bertambah. Berdasarkan data yang tercatat dalam Instagram Dinas Komunikasi dan Informatika KotaTasikmalayapada Jumat 17 April 2020, jumlah warga yang terkonfirmaipositifCOVID-19 mencapai 25 orang dengan rincian, 19 dalam perawatan, 5sembuhdan 1 meninggal. Baca Juga:Cek Asrama Mahasiswa Perantauan di Semarang, Ganjar Pranowo Kirim Bantuan Dua puluh lima yangpositiftersebut diketahui masing-masing 5 dari tes laboratorium dan 20 rapid diagnostic test (RDT). Data tersebut menunjukkan adanya lonjakan penderita COVID-19 di KotaTasikmalaya. Sedangkan dalam kategori Pasien Dalam Perawatan (PDP) COVID-19, jumlahnya 23 orang dengan 18 selesai pengawasan, 3 dalam pengawasan, 2 meninggal. Baca Juga:Hyundai Pastikan Tetap Bangun Pabrik di Indonesia Meski Pandemi Covid-19 Untuk Orang Dalam Pemantauan (ODP) COVID-19 1014 orang yang terdiri 687 selesai dan 327 dalam pemantauan. Kategori lain, Orang Tanpa Gejala (OTG) sebanyak 263 orang dengan 131 selesai pemantauan, 132 dalam pemantauan. Pada Kamis 16 April 2020, jumlah wargapositifhanya 21 orang dengan 15 dalam perawatan, 5sembuhdan 1 meninggal. PDP 23 dengan 18 selesai pengawasan, 3 dalam pengawasan, 2 meninggal. Baca Juga:Pegawai OJK Sepakat Potong Gaji Selama 9 Bulan untuk Membantu Penanganan Covid-19ODP 1001 dengan 679 selesai pengawasan, 322 dalam pemantauan. OTG 210 dengan 131 selesai pemantauan, 79 dalam pemantauan. Kendati jumlah pengidap corona meningkat, angka kesembuhan juga naik jika dibandingkan dengan data dua hari sebelumnya atau Rabu 15 April 2020. Saat itu, wargapositifyangsembuhbaru dua orang. Baca Juga:Mendadak Terjatuh saat Berbelanja, Seorang Ibu Rumah Tangga Meninggal Sekretaris Daerah KotaTasikmalayaIvan Dicksan mengungkapkan, kenaikkan terjadi setelah dilakukan tracing atau penelusuran dari klaster Lembang. "Ada juga yang memang kontak erat dengn pasien konfirmasipositifnonklaster, termasuk ada yang memang dari daerah terjangkit," kata Ivan saat dihubungi, Jumat 17 April 2020. Beberapa pasienpositifyang masih dalam peratawatan lain kini tengah menunggu hasil tes PCR (laboratorium). Baca Juga:200 Hari Lebih di Luar Angkasa, 3 Astronot ISS Tiba di Bumi di Tengah Pandemi COVID-19 "Kondisi pasien optimal, mudah-mudahan hasil PCR negatif sehingga bisa segera dipulangkan," tuturnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01367385/upaya-perangi-covid-19-pemkot-tasikmalaya-ajak-seluruh-masyarakat-doa-bersama</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Upaya Perangi Covid-19, Pemkot Tasikmalaya Ajak Seluruh Masyarakat Doa Bersama</t>
-        </is>
-      </c>
-      <c r="C375" s="2" t="n">
-        <v>43938.60277777778</v>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Pemerintah KotaTasikmalayasecara resmi menerbitkan surat edaran untuk seluruh umat, perihal upaya atau ikhtiar dalam percepatan penanganan Covid-19 khususnya pemeluk agama Islam untuk melaksanakan doa dan tadarus serentak setiap Kamis, di rumah masing-masing. Budi Budiman selaku WalikotaTasikmalayamenjelaskan bahwa anjuran tersebut akan digelar mulai hari Kamis, 16 April hingga 23 April 2020 sekira pukul 18.00 WIB sampai selesai. Budi pun mengatakan doa dan tadarus ini akan dipandu masing-masing Ketua DKM atau tokoh yang dituakan di masing-masing wilayah. Baca Juga:Cara Download Resume atau CV dari LinkedIn Bagi masyarakat non-muslim, kata Budi, pelaksanaan doa bersama pun berlaku sama, yakni diselenggarakan mulai pukul 18.00 WIB sampai dengan selesai di rumah masing-masing. "Kegiatan ini dilaksanakan serentak, dikomandoi Ketua Tim Gugus Tugas dengan melibatkan seluruh media informasi," kata Budi. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Bentuk Ikhtiar Hindari Corona, Pemkot Ajak Seluruh Ummat di Kota Tasikmalaya untuk Berdoa" Baca Juga:Kurangi Risiko Kerusakan Paru-paru, Ilmuwan Temukan Obat Baru COVID-19 Lanjut Budi, pelaksanaan doa bersama juga akan dipandu dari pengeras suara di perempatan-perempatan jalan. PIKIRAN RAKYAT- Pemerintah KotaTasikmalayasecara resmi menerbitkan surat edaran untuk seluruh umat, perihal upaya atau ikhtiar dalam percepatan penanganan Covid-19 khususnya pemeluk agama Islam untuk melaksanakan doa dan tadarus serentak setiap Kamis, di rumah masing-masing. Budi Budiman selaku WalikotaTasikmalayamenjelaskan bahwa anjuran tersebut akan digelar mulai hari Kamis, 16 April hingga 23 April 2020 sekira pukul 18.00 WIB sampai selesai. Budi pun mengatakan doa dan tadarus ini akan dipandu masing-masing Ketua DKM atau tokoh yang dituakan di masing-masing wilayah. Baca Juga:Cara Download Resume atau CV dari LinkedIn Bagi masyarakat non-muslim, kata Budi, pelaksanaan doa bersama pun berlaku sama, yakni diselenggarakan mulai pukul 18.00 WIB sampai dengan selesai di rumah masing-masing. "Kegiatan ini dilaksanakan serentak, dikomandoi Ketua Tim Gugus Tugas dengan melibatkan seluruh media informasi," kata Budi. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Bentuk Ikhtiar Hindari Corona, Pemkot Ajak Seluruh Ummat di Kota Tasikmalaya untuk Berdoa" Baca Juga:Kurangi Risiko Kerusakan Paru-paru, Ilmuwan Temukan Obat Baru COVID-19 Lanjut Budi, pelaksanaan doa bersama juga akan dipandu dari pengeras suara di perempatan-perempatan jalan."Semua diharapkan memanjatkan doa terhadap Allah SWT," katanya. Dikonfirmasi secara terpisah, Ketua Harian DKM Masjid Agung KH Aminudin Bustomi menuturkan, doa bersama pada Kamis malam itu dipandu secara serempak satu komando se-KotaTasikmalaya. Masyarakat diimbau untuk bermunajat kepada Allah SWT dengan maqro-maqro yang sudah dipersiapkan. “Ini dilaksanakan dua kali, Kamis ini (16 April 2020) dan 23 April mendatang bagi seluruh warga kota,” tuturnya.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/nasional/pr-01366757/di-kota-tasikmalaya-demam-berdarah-renggut-lebih-banyak-nyawa-dibanding-virus-corona</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Di Kota Tasikmalaya, Demam Berdarah Renggut Lebih Banyak Nyawa Dibanding Virus Corona</t>
-        </is>
-      </c>
-      <c r="C376" s="2" t="n">
-        <v>43937.54375</v>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Di tengah pandemi virus corona yang masih harus ditangani oleh pemerintah, terdapat kasus kematian akibat penyakit demam berdarahdenguediTasikmalaya. Kasus tersebut dianggap sama menakutkannya dengan COVID-19 yang saat ini memiliki jumlah cukup melonjak dibandingkan saat pertama kali muncul. Dinas Kesehatan KotaTasikmalayamencatat, sebanyak enam orangmeninggaldunia akibat demam berdarahdengue(DBD) selama kurun waktu Januari hingga pertengahan April 2020. Baca Juga:Kebutuhan Beras di Kabupaten Karawang Selama Ramadhan Dipastikan Aman Angkat tersebut cukup tinggi dari jumlah korban yang diakibatkan oleh virus corona (COVID-19) di wilayah KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat membuka suara pada Kamis, 16 April 2020 malam terkait hal itu. Ia melaporkan ada enam orang yangmeninggaldunia, empat di antaranya terkonfirmasi akibat penyakitDBD. Baca Juga:Petani di Majalengka Terpaksa Panen Padi yang Terendam Banjir Sementara dua korban lainnya masih belum sempat dikonfirmasi melalui pemeriksaan laboratorium. PIKIRAN RAKYAT- Di tengah pandemi virus corona yang masih harus ditangani oleh pemerintah, terdapat kasus kematian akibat penyakit demam berdarahdenguediTasikmalaya. Kasus tersebut dianggap sama menakutkannya dengan COVID-19 yang saat ini memiliki jumlah cukup melonjak dibandingkan saat pertama kali muncul. Dinas Kesehatan KotaTasikmalayamencatat, sebanyak enam orangmeninggaldunia akibat demam berdarahdengue(DBD) selama kurun waktu Januari hingga pertengahan April 2020. Baca Juga:Kebutuhan Beras di Kabupaten Karawang Selama Ramadhan Dipastikan Aman Angkat tersebut cukup tinggi dari jumlah korban yang diakibatkan oleh virus corona (COVID-19) di wilayah KotaTasikmalaya. Kepala Dinas Kesehatan KotaTasikmalaya, Uus Supangat membuka suara pada Kamis, 16 April 2020 malam terkait hal itu. Ia melaporkan ada enam orang yangmeninggaldunia, empat di antaranya terkonfirmasi akibat penyakitDBD. Baca Juga:Petani di Majalengka Terpaksa Panen Padi yang Terendam Banjir Sementara dua korban lainnya masih belum sempat dikonfirmasi melalui pemeriksaan laboratorium.Artikel ini pernah tayang di Pikiranrakyat.Tasikmalaya.com dengan judul 'Korban DBD Lebih Tinggi Dibanding Covid-19, Kadinkes Tasikmalaya Minta Warga Waspada' "Selain trombosit turun, empat pasien yangmeninggalsudah terkonfirmasi akibatDBDmelalui pemeriksaan lab. Sementara dua pasien lain hanya trombosit turun, tapi belum tentu karenaDBD," ujar Uus. KEPALA Dinas Kesehatan Kota Tasikmalaya Uus Supangat. /Pikiran Rakyat Tasikmalaya Berdasarkan data yang dimiliki Dinas Kesehatan, sejak awal 2020 tercatat ada 251 kasusDBDdi KotaTasikmalaya. Baca Juga:Imbas Pandemi Covid-19, Harga Jahe Merah Sentuh Angka Rp 110.000 per Kilogram Kasus tersebut cukup merata di 10 kecamatan yang ada di kota tersebut setiap tahunnya. Uus menambahkan, warga diimbau untuk tetap waspada terhadap penyakitDBD, selain juga COVID-19 yang saat ini turut mewabah. Ia meminta warga memanfaatkan waktu berada di rumah untuk membersihkan genangan air dan memberantas sarang nyamukaedes aegypti. Baca Juga:Hamil di Tengah Pandemi COVID-19, Mona Ratuliu Ungkap Kesulitannya Persiapkan Persalinan Bahkan bila diperlukan dapat mengontak puskesmas setempat untuk melakukan pemberantasan sarang nyamuk.Kita tak boleh lupa, ada kasus lain yang punya potensi untuk jadi wabah, selainCovid-19yaituDBD. Mudah-mudahan tidak bertambah lagi korbannya," pungkasnya.  (Asep M Saefuloh / Pikiranrakyat.Tasikmalaya.com) ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01365391/guna-cegah-penyebaran-covid-19-masjid-agung-tasikmalaya-tak-gelar-salat-jumat</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>Guna Cegah Penyebaran COVID-19, Masjid Agung Tasikmalaya Tak Gelar Salat Jumat</t>
-        </is>
-      </c>
-      <c r="C377" s="2" t="n">
-        <v>43934.86944444444</v>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Guna menyikapi kondisiCOVID-19, Wali KotaTasikmalaya, Budi Budiman menyebutkan telah membuat keputusan untuk Masjid Agung tidak akan melaksanakan kegiatan Salat Jumat dalam kurun waktu dua minggu kedepan. Menurutnya, tipikal karakter masyarakat KotaTasikmalayamasih perlu terus diberikan edukasi mengenai masalah kedisiplinan. "Mohon maaf kalau dilihat persentase kematian dengan yang sembuh, 9 persen lebih tinggi dan ini sangat berisiko. Bahkan di KotaTasikmalayaini sudah 2 meninggal, yaitu satu positif dan satu PDP," kata Budi pada kegiatan pembentukan gugus tugas ulama, Senin 13 April 2020. Baca Juga:Pemkab Kudus Siapkan Rusunawa Bakalankrapyak untuk Dijadikan Tempat Karantina Pemudik Untuk itu, lanjut Budi, edukasi publik perlu terus ditingkatkan. Utamanya bagaimana masyarakat agar tak keluar rumah dengan melakukan physical distancing. Apalagi menurutnya, perkembangan hari ini, Orang Tanpa Gejala (OTG) semakin banyak di KotaTasikmalaya. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Tekan Corona, Masjid Agung Kota Tasikmalaya Tak Gelar Salat Jumat Selama 14 Hari ke Depan" Baca Juga:Pasien Positif COVID-19 Bagikan Kisahnya Alami 'Second Week Crash' Saat Jalani Perawatan Hal ini merupakan dampak dari arus mudik yang belum bisa terbendung dan dikhawatirkan mereka dimanapun berada bisa menyebarkan virus tersebut. PIKIRAN RAKYAT- Guna menyikapi kondisiCOVID-19, Wali KotaTasikmalaya, Budi Budiman menyebutkan telah membuat keputusan untuk Masjid Agung tidak akan melaksanakan kegiatan Salat Jumat dalam kurun waktu dua minggu kedepan. Menurutnya, tipikal karakter masyarakat KotaTasikmalayamasih perlu terus diberikan edukasi mengenai masalah kedisiplinan. "Mohon maaf kalau dilihat persentase kematian dengan yang sembuh, 9 persen lebih tinggi dan ini sangat berisiko. Bahkan di KotaTasikmalayaini sudah 2 meninggal, yaitu satu positif dan satu PDP," kata Budi pada kegiatan pembentukan gugus tugas ulama, Senin 13 April 2020. Baca Juga:Pemkab Kudus Siapkan Rusunawa Bakalankrapyak untuk Dijadikan Tempat Karantina Pemudik Untuk itu, lanjut Budi, edukasi publik perlu terus ditingkatkan. Utamanya bagaimana masyarakat agar tak keluar rumah dengan melakukan physical distancing. Apalagi menurutnya, perkembangan hari ini, Orang Tanpa Gejala (OTG) semakin banyak di KotaTasikmalaya. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Tekan Corona, Masjid Agung Kota Tasikmalaya Tak Gelar Salat Jumat Selama 14 Hari ke Depan" Baca Juga:Pasien Positif COVID-19 Bagikan Kisahnya Alami 'Second Week Crash' Saat Jalani Perawatan Hal ini merupakan dampak dari arus mudik yang belum bisa terbendung dan dikhawatirkan mereka dimanapun berada bisa menyebarkan virus tersebut.Dari sisi pengadaan anggaran pun, kata dia, upaya pemerintah saat ini untuk penanggulanganCovid-19diperhitungkan 65 persen anggaran pemerintah habis. "Apalagi dana bantuan pusat, baik DAK maupun DAU dipotong 10 persen," kata Budi. Baca Juga:Mulai Besok, Pertamina Beri Cashback 50% Isi Bensin Untuk 10 Ribu Ojol Belum lagi, kata dia, alat perlindungan diri (APD) yang terbatas. "Walaupun Ahamdulillah sekarang mulai mengalir bantuan bantuan APD khususnya guna membantu pengamanan keselamatan tim medis," tuturnya. Untuk mengedukasi kedisiplinan masyarakat, ujar dia, pemerintah perlu dukungan ormas ormas Islam termasuk MUI dalam posisi darurat bagaimana supaya masyarakat mau mematuhi edaran pemerintah. "Alhamdulillah kita juga terbantu dengan adanya fatwa MUI tentang bagaimana umat bersikap dalam menghadapi virus corona ini," ujar Budi. Baca Juga:Merasa Bersalah Umumkan Lockdown Tiba-tiba, Mendagri Turki Mundur Sekali lagi, ujar dia, terkait kegiatan keagamaan, walaupun dengan perasaan pilu dan sedih, demi menghindari kedaruratan akibatCovid-19, tidak melaksanakan kegiatan Isro Miraj di Masjid Agung, kemudian pelaksanaan Salat Jumat juga harus dilaksanakan dengan cara pembatasan. Namun hari ini, lanjut Budi, karena penyebaran virus corona di KotaTasikmalayasemakin memprihatinkan, pihaknya meminta dukungan dan persetujuan alim ulama agar untuk 14 hari kedepan, Masjid Agung KotaTasikmalayatidak digunakan dahulu untuk melaksanakan Salat Jumat.Baca Juga:Anak-anak Penyandang Disabilitas Produksi Masker untuk Dibagikan "Kita berupaya putus mata rantai dari kegiatan bersifat besar. Tak cuma kegiatan di masjid agung tapi kegiatan keagamaan lainnya. Sudah ada arahan dari pusat terkait ini semua demi keselamatan umat. "Memang berat. Namun ini butuh pemikiran rasional dan yakin wajib ihtiar semaksimal mungkin dari semua unsyur supaya penanganan virus ini cepat selesai. Bila setengah-setengah akan lama," kata Budi menambahkan.*** (Asep M Saefuloh/ Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01364846/pasien-positif-covid-19-bertambah-wali-kota-tasikmalaya-kembali-beri-imbauan</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>Pasien Positif Covid 19 Bertambah, Wali Kota Tasikmalaya Kembali Beri Imbauan</t>
-        </is>
-      </c>
-      <c r="C378" s="2" t="n">
-        <v>43933.84652777778</v>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wali KotaTasikmalayasekaligus Ketua Crisis CenterCovid-19, Budi Budiman memberikan update terbaru mengenai adanya penambahan pasien positif terinfeksi menjadi sebelas orang. Ia pun mengatakan kini mencoba upaya mengeluarkan edaran agar angkutan umum tidak beroperasi sementara waktu, agar warga yang diluar tidak nekat melakukan mudik atau pulang kampung. Budi pun menuturkan bahwa merasa cukup sulit dalam membendung pendatang dari daerah-daerah yang terjangkit. Baca Juga:Pemkab Bandung Jadikan PKK Sebagai Barisan Terdepan Penanganan Covid-19 Pihaknya juga terus menyerukan masyarakat agar mengikuti apa yang telah dianjurkan oleh pemerintah, seperti melakukan penyemprotan disinfektan, social dan physical distancing, cuci tangan menggunakan sabun dan menggunakan masker. "Penggunaan masker ini sudah kita wajibkan untuk masyarakat yang mau keluar rumah, tapi tetap saja banyak masyarakat yang tak peduli dengan tidak menggunakan masker manakala bepergian keluar rumah," ujar Budi. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Positif Covid-19 Jadi 11 Orang, Wali Kota Tasikmalaya: Masih Banyak Warga yang Tak Peduli" Baca Juga:Bapeten Buka Suara Terkait Kabar Penyelundupan 7 Truk Bahan Nuklir ke Bangka Belitung Budi menuturkan, indikasi peningkatan warga terjangkitCovid-19di KotaTasikmalaya, juga terlihat dari angka Orang Tanpa Gejala (OTG) yang naik cukup signifikan. PIKIRAN RAKYAT- Wali KotaTasikmalayasekaligus Ketua Crisis CenterCovid-19, Budi Budiman memberikan update terbaru mengenai adanya penambahan pasien positif terinfeksi menjadi sebelas orang. Ia pun mengatakan kini mencoba upaya mengeluarkan edaran agar angkutan umum tidak beroperasi sementara waktu, agar warga yang diluar tidak nekat melakukan mudik atau pulang kampung. Budi pun menuturkan bahwa merasa cukup sulit dalam membendung pendatang dari daerah-daerah yang terjangkit. Baca Juga:Pemkab Bandung Jadikan PKK Sebagai Barisan Terdepan Penanganan Covid-19 Pihaknya juga terus menyerukan masyarakat agar mengikuti apa yang telah dianjurkan oleh pemerintah, seperti melakukan penyemprotan disinfektan, social dan physical distancing, cuci tangan menggunakan sabun dan menggunakan masker. "Penggunaan masker ini sudah kita wajibkan untuk masyarakat yang mau keluar rumah, tapi tetap saja banyak masyarakat yang tak peduli dengan tidak menggunakan masker manakala bepergian keluar rumah," ujar Budi. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Positif Covid-19 Jadi 11 Orang, Wali Kota Tasikmalaya: Masih Banyak Warga yang Tak Peduli" Baca Juga:Bapeten Buka Suara Terkait Kabar Penyelundupan 7 Truk Bahan Nuklir ke Bangka Belitung Budi menuturkan, indikasi peningkatan warga terjangkitCovid-19di KotaTasikmalaya, juga terlihat dari angka Orang Tanpa Gejala (OTG) yang naik cukup signifikan.Sebelumnya OTG di Kota Resik ini hanya berjumlah 75 orang, sekarang naik cukup tinggi hampir mencapai angka 200 OTG. "Ini yang perlu kita sangat waspadai, karena OTG ini tanpa gejala, dia tidak batuk, tidak demam tapi dia bisa membawa virus dan menyebarkannya," katanya. Baca Juga:Kurangi Kasus Impor Covid-19, Tiongkok Deportasi Warga Asing Pelanggar Karantina Untuk itu lanjut Budi, selain jaga jarak, hindari kerumunan massa, diam di rumah, yang paling penting sekarang harus dilakukan guna menghindari penyebaran virus corona ini adalah dengan menggunakan masker baik dirumah apalagi keluar rumah. "Saya katakan dari kemarin, mulai sekarang kita nyatakan perang melawan virus corona, sehingga semua kemampuan yang bisa kita lakukan untuk melawan virus itu kita lakukan," katanya. Untuk itu, pihaknya sangat mengapresiasi pihak kepolisian yang mewajibkan pengguna kendaraan baik motor maupun mobil untuk menggunakan masker dalam upaya memutus mata rantai penyebaranCovid-19. Baca Juga:Terinspirasi Film Joker, Tiga Pemuda Terancam 10 Tahun Penjara usai Lakukan Vandalisme "Saya juga mengapresiasi seluruh elemen masyarakat di Kota Tasik ini mulai dari muspika, tokoh agama, tokoh pemuda, dan yang lainnya yang kini sudah keliatan bergerak bersama sama untuk memerangi virus corona ini dengan berbagai cara. "Seperti menutup akses masuk wilayah, penyemprotan di lingkungan masing masing, sampai kepedulian menyumbangkan APD seperti masker dan yang lainnya," kata Budi. Dengan begitu, lanjut Budi, kewaspadaan dari seluruh masyarakat terhadap penyebaran virus corona itu perlu terus dilaksanakan sampai pemerintah mengumumkan bahwa negara ini sudah benar benar bebas dari virus corona."Selama pemerintah belum mengumumkan itu, saya kira kewaspadaan itu perlu terus kita lakukan," ucap Budi.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01364284/upaya-perangi-covid-19-wali-kota-tasikmalaya-ajak-masyarakat-untuk-bisa-bekerjasama</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Upaya Perangi COVID-19, Wali Kota Tasikmalaya Ajak Masyarakat untuk Bisa Bekerjasama</t>
-        </is>
-      </c>
-      <c r="C379" s="2" t="n">
-        <v>43932.78055555555</v>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Wali KotaTasikmalaya, Budi Budiman tak henti-hentinya memberikan imbauan kepada seluruh masyarakatnya untuk bersama-sama memerangi penyebaran virus corona. Hal tersebut disampaikannya saat sedang melakukan kegiatan membagikan 4.000 masker di Pasar Cikurubuk, KotaTasikmalaya, pada Sabtu 11 April 2020. Pada kegiatan tersebut, Budi menaiki mobil pick up terbuka beserta Tim Gugus Tugas Percepatan PenangananCovid-19KotaTasikmalayamenggunakan pengeras suara menegaskan pada masyarakat untuk dapat bekerjasama dalam memutus rantai penyebaran virus corona ini. Baca Juga:Persib Menunggu Kabar Gembira, Menanti Hasil Tes Virus Corona Kedua Milik Wander Luiz Tak hanya itu, Budi pun menuturkan mengenai pentingnya mengikuti langkah-langkah yang sudah ditetapkan pemerintah dalam mencegah penyebaran, seperti menggunakan masker, jaga jarak, dan menjauhi kerumunan. "Mulai hari ini kita semua harus siap perangi virus corona. Perang bukan dalam arti mengangkat senjata, akan tetapi perangiCovid-19dengan jauhi hal-hal yang bisa mengundang penyebaran virus, yaitu dengan menggunakan masker, cuci tangan dengan sabun, jaga jarak, jauhi kerumunan, dan jangan keluar rumah," ujarnya. Menurut Budi, kondisi penyebaran corona di KotaTasikmalayasudah dikategorikan 'gawat' karena jumlah warganya yang positif corona sudah mencapai 10 orang. Baca Juga:Lockdown COVID-19, Ibu Hamil Tewas Usai Jalan Kaki ke Rumah Sakit demi Lahirkan Bayinya "Apa yang kita lakukan hari ini adalah salah satu bentuk upaya kita untuk kembali mengingatkan masyarakat bahwa mulai saat ini masyarakat wajib menggunakan masker," ujar Budi. PIKIRAN RAKYAT- Wali KotaTasikmalaya, Budi Budiman tak henti-hentinya memberikan imbauan kepada seluruh masyarakatnya untuk bersama-sama memerangi penyebaran virus corona. Hal tersebut disampaikannya saat sedang melakukan kegiatan membagikan 4.000 masker di Pasar Cikurubuk, KotaTasikmalaya, pada Sabtu 11 April 2020. Pada kegiatan tersebut, Budi menaiki mobil pick up terbuka beserta Tim Gugus Tugas Percepatan PenangananCovid-19KotaTasikmalayamenggunakan pengeras suara menegaskan pada masyarakat untuk dapat bekerjasama dalam memutus rantai penyebaran virus corona ini. Baca Juga:Persib Menunggu Kabar Gembira, Menanti Hasil Tes Virus Corona Kedua Milik Wander Luiz Tak hanya itu, Budi pun menuturkan mengenai pentingnya mengikuti langkah-langkah yang sudah ditetapkan pemerintah dalam mencegah penyebaran, seperti menggunakan masker, jaga jarak, dan menjauhi kerumunan. "Mulai hari ini kita semua harus siap perangi virus corona. Perang bukan dalam arti mengangkat senjata, akan tetapi perangiCovid-19dengan jauhi hal-hal yang bisa mengundang penyebaran virus, yaitu dengan menggunakan masker, cuci tangan dengan sabun, jaga jarak, jauhi kerumunan, dan jangan keluar rumah," ujarnya. Menurut Budi, kondisi penyebaran corona di KotaTasikmalayasudah dikategorikan 'gawat' karena jumlah warganya yang positif corona sudah mencapai 10 orang. Baca Juga:Lockdown COVID-19, Ibu Hamil Tewas Usai Jalan Kaki ke Rumah Sakit demi Lahirkan Bayinya "Apa yang kita lakukan hari ini adalah salah satu bentuk upaya kita untuk kembali mengingatkan masyarakat bahwa mulai saat ini masyarakat wajib menggunakan masker," ujar Budi.Dikatakan Budi, pihaknya sudah mengeluarkan surat edaran serta mengingatkan masyarakat untuk menggunakan masker ketika beraktivitas. Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Serius Perangi Corona, Pemkot Tasikmalaya Pertegas Warga di Pasar-pasar" Baca Juga:5 Ketakutan yang Bisa Buat Hubungan Cinta Rusak "Yang keluar rumah wajib pakai masker. Apalagi grafik penyebaran semakin tinggi saja. Bahkan kita tertinggi penyebaranCovid-19di Priangan Timur," terangnya. "Hari ini yang positif sudah 10 orang, yang Orang dalam Pemantauan (ODP) malah mencapai seribuan orang (954 orang)," ujar Budi menambahkan. Belum lagi, tambah Budi, saat ini sudah ada Orang Tanpa Gejala (OTG) sebanyak 75 orang dan Pasien dalam Pengawasan (PDP) 18 orang. Baca Juga:Selamatkan Pelaku UMKM, Teten Masduki Luncurkan Program Belanja di Warung Tetangga Saja "Makanya mulai sekarang, harus kita putus mata rantai penyebarannya dengan disiplin mengikuti anjuran pemerintah dan keluar rumah menggunakan masker," tambahnya. Hal yang sama juga dilakukan Wakil Wali KotaTasikmalaya, HM Yusuf. Didampingi tim gugus tugas, Yusuf juga membagi bagikan masker di pasar tradisional lainnya sekitar pukul 11.00 WIB, dimulai dari Pasar Pancasila, Pasar Padayungan dan yang lainnya.Baca Juga:Pos Pemantauan Gunung Anak Krakatau di Sukabumi Sebutkan Dugaan Sumber Dentuman Dalam kegiatan tersebut, sambil membagikan masker, Wakil Wali Kota sempat menegur sejumlah warga baik pedagang maupun pendatang yang tidak menggunakan masker. "Ibu takut tidak dengan virus? Ibu takut tidak mati karena virus? Walau mati itu kehendak Allah tapi kita diwajibkan untuk menjaga diri kita agar tetap sehat," kata Yusuf. Yusup mengatakan, bersama tim gugus tugas, pihaknya akan terus membagikan masker kepada masyarakat sambil mengedukasi agar mereka mau mengikuti anjuran pemerintah untuk bersama-sama memutus mata rantai penyebaran virus corona. "Kalau perlu jika penduduk kota ada 600 ribu jiwa, kita pesan masker sebanyak itu dan kita bagikan," katanya.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01362034/tasikmalaya-klb-virus-corona-solidaritas-perangi-pandemi-covid-19-meningkat</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Tasikmalaya KLB Virus Corona, Solidaritas Perangi Pandemi COVID-19 Meningkat</t>
-        </is>
-      </c>
-      <c r="C380" s="2" t="n">
-        <v>43928.575</v>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Sejak ditetapkannya status Kejadian Luar Biasa (KLB) COVID-19 di wilayah KotaTasikmalaya, upaya penanganan pun terus-menerus ditingkatkan. Hal ini pun turut menarik perhatian berbagai elemen masyarakat untuk ikut membantu pemerintah dalam menangani pandemi COVID-19 di KotaTasikmalaya. Pemerintah juga sudah menyerukan mengenai pentingnya dukungan dan solidaritas dari semua masyarakat dalam memerangi virus corona ini. Baca Juga:Dianggap Berisiko Terpapar Covid-19, Sejumlah Wartawan Sukabumi Jalani Rapid Test Sejak ditetapkan status KLB COVID-19 di KotaTasikmalaya, banyak bantuan dari berbagai elemen pun mengalir. Pada Senin 6 April 2020 kemarin, AKBP Anom Karibianto menerima bantuan kebutuhan pangan berupa satu ton beras dari salah seorang agnia yang kemudian diserahkan langsung pada Dinas Sosial (Dinsos) KotaTasikmalaya. "Bantuan beras ini diperuntukan untuk warga KotaTasikmalayakhususnya yang perekonomiannya terdampak akibatCovid-19," ujar Anom. Baca Juga:5 Manfaat Kesehatan dari Teh Rooibos, Minuman Sehat dari Afrika Selatan Di tempat yang berbeda,  bantuan juga dilakukan Forum Badan Usaha Milik Negara (BUMN) Provinsi Jawa Barat dengan menyerahkan bantuan sebuah alat ventilator yang diterima langsung oleh Wali KotaTasikmalaya, Budi Budiman, Senin 6 April 2020 di posko gugus tugas covid -19 BalaikotaTasikmalaya. PIKIRAN RAKYAT- Sejak ditetapkannya status Kejadian Luar Biasa (KLB) COVID-19 di wilayah KotaTasikmalaya, upaya penanganan pun terus-menerus ditingkatkan. Hal ini pun turut menarik perhatian berbagai elemen masyarakat untuk ikut membantu pemerintah dalam menangani pandemi COVID-19 di KotaTasikmalaya. Pemerintah juga sudah menyerukan mengenai pentingnya dukungan dan solidaritas dari semua masyarakat dalam memerangi virus corona ini. Baca Juga:Dianggap Berisiko Terpapar Covid-19, Sejumlah Wartawan Sukabumi Jalani Rapid Test Sejak ditetapkan status KLB COVID-19 di KotaTasikmalaya, banyak bantuan dari berbagai elemen pun mengalir. Pada Senin 6 April 2020 kemarin, AKBP Anom Karibianto menerima bantuan kebutuhan pangan berupa satu ton beras dari salah seorang agnia yang kemudian diserahkan langsung pada Dinas Sosial (Dinsos) KotaTasikmalaya. "Bantuan beras ini diperuntukan untuk warga KotaTasikmalayakhususnya yang perekonomiannya terdampak akibatCovid-19," ujar Anom. Baca Juga:5 Manfaat Kesehatan dari Teh Rooibos, Minuman Sehat dari Afrika Selatan Di tempat yang berbeda,  bantuan juga dilakukan Forum Badan Usaha Milik Negara (BUMN) Provinsi Jawa Barat dengan menyerahkan bantuan sebuah alat ventilator yang diterima langsung oleh Wali KotaTasikmalaya, Budi Budiman, Senin 6 April 2020 di posko gugus tugas covid -19 BalaikotaTasikmalaya.Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Status KLB Virus Corona di Kota Tasikmalaya Menggugah Dermawan, Bantuan Terus Berdatangan" Alat tersebut dibutuhkan dalam membantu percepatan penanganan pasien covid-19 dimana RSUD dr. Soekardjo  pun selama ini belum memiliki alat tersebut. Baca Juga:Pemulihan Ekonomi Sangat Bergantung pada Keberhasilan Pencegahan Covid-19 Sementara di Jalan Sutisna Senjaya, KotaTasikmalaya, belasan pengusaha muda KotaTasikmalayajuga memberikan bantuan berupa pangan yang diserahkan kepada yayasan-yayasan sosial seperti Mentari Hati dan Talasemia. "Ini kita lakukan agar dari segala sisi soal corona tertangani. Tahap awal ini kita bagikan 100 Kg beras, 200 masker, disinfektan dan bingkisan mie instan," ungkap pemilik Rumah Makan Hj Ocoh, Iksan BZN.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01361534/ada-539-odp-di-tasikmalaya-kasus-positif-covid-19-kian-bertambah</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Ada 539 ODP di Tasikmalaya, Kasus Positif COVID-19 Kian Bertambah</t>
-        </is>
-      </c>
-      <c r="C381" s="2" t="n">
-        <v>43927.60625</v>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Jumlah pasien positifCOVID-19dikabarkan meningkat di wilayah Tasikmalaya. Kabar kembali bertambahnya pasien positif Covid-19 ini diinformasikan oleh juru bicara Crisis CenterCOVID-19Kota Tasikmalaya, Uus Supangat. Uus mengatakan hingga Minggu 5 April 2020 ini, jumlah pasien positifCOVID-19bertambah menjadi tujuh orang. Baca Juga:BERITA BAIK, Penyu Langka Bermunculan setelah Lockdown Pandemi COVID-19 Diberlakukan Menurutnya, penyebaran virus corona diKota Tasikmalayaini terbilang mengalami peningkatan yang cukup drastis. Sekarang ini, terdapat tujuh orang pasien telah dinyatakan positif, 15 Pasien dalam Pengawasan (PDP), dan Orang dalam Pemantauan (ODP) sejumlah 539 jiwa. Tercatat, sudah terdapat dua pasien yang meninggal dunia akibat virus corona di Tasikmalaya, satu pasien dinyatakan positif dan satu lagi pada kategori PDP. Baca Juga:Penegakan Hukum Terkait COVID-19 Jangan Buat Ketegangan Baru di Masyarakat Uus mengatakan, adapun satu orang pasien yang positifCOVID-19sudah dinyatakan sembuh. PIKIRAN RAKYAT- Jumlah pasien positifCOVID-19dikabarkan meningkat di wilayah Tasikmalaya. Kabar kembali bertambahnya pasien positif Covid-19 ini diinformasikan oleh juru bicara Crisis CenterCOVID-19Kota Tasikmalaya, Uus Supangat. Uus mengatakan hingga Minggu 5 April 2020 ini, jumlah pasien positifCOVID-19bertambah menjadi tujuh orang. Baca Juga:BERITA BAIK, Penyu Langka Bermunculan setelah Lockdown Pandemi COVID-19 Diberlakukan Menurutnya, penyebaran virus corona diKota Tasikmalayaini terbilang mengalami peningkatan yang cukup drastis. Sekarang ini, terdapat tujuh orang pasien telah dinyatakan positif, 15 Pasien dalam Pengawasan (PDP), dan Orang dalam Pemantauan (ODP) sejumlah 539 jiwa. Tercatat, sudah terdapat dua pasien yang meninggal dunia akibat virus corona di Tasikmalaya, satu pasien dinyatakan positif dan satu lagi pada kategori PDP. Baca Juga:Penegakan Hukum Terkait COVID-19 Jangan Buat Ketegangan Baru di Masyarakat Uus mengatakan, adapun satu orang pasien yang positifCOVID-19sudah dinyatakan sembuh.Artikel ini sebelumnya telah tayang diPikiranrakyat-tasikmalaya.comdengan judul "Pasien Positif Virus Corona di Kota Tasikmalaya Kembali Bertambah" "Untuk sekarang ini pasien positifCOVID-19yang masih tetap dirawat di rumah sakit 5 orang, satu meninggal dunia dan seorang lagi sembuh," ujar Uus, Minggu 5 April 2020. Baca Juga:Apple Merancang dan Mengirim 20 Juta Masker untuk Tenaga Medis Uus pun menginformasikan bahwa jumlah orang dalam pemantauan (ODP) di Tasikmalaya meningkat cukup tajam. "Saat ini jumlahnya telah mencapai 539 (ODP), 378 masih dalam pemantauan dan 161 selesai pemantauan," kata Uus. Namun Uus berharap dengan adanya salah seorang pasien positifCOVID-19yang telah dinyatakan sembuh ini dapat menjadi spirit bagi warga Kota Tasik. Baca Juga:RSUD Pandega Pangandaran Melayani Warga Miskin Tanpa BPJS Kesehatan Selain itu, Uus pun mengharapkan agar seluruh masyarakat tetap optimis bahwa permasalahan Covid-19 ini akan segera berlalu. "Kami meminta agar masyarakat tetap berdoa demi bangsa Indonesia termasuk semua pasien dalam pengawasan (PDP) dan orang dalam pemantauan (ODP) yang telah terpapar di seluruh dunia bisa secepatnya bisa sembuh dan virus tersebut cepat berlalu," ujarnya. PemerintahKota Tasikmalayapun akhirnya memberlakukan kebijakan pembatasan wilayah dengan status Kejadian Luar Biasa (KLB).Baca Juga:BERITA BAIK, Sudah Ada 2 Artis Indonesia yang Sembuh dari Virus Corona Selain itu, melalui bantuan gugus tugas Covid-19 kini pemerintah mendirikan delapan posko di sejumlah titik pembatasan. Budi Budiman, WaliKota Tasikmalayasekaligus ketua krisis center Covid-19 pun membenarkan mengenai informasi bertambahnya jumlah pasien yang dinyatakan positif terjangkit virus corona. Budi pun menghimbau kepada seluruh elemen masyarakat di Kota Tasik agar waspada dengan mengikuti arahan dan anjuran dari pemerintah. Baca Juga:Kehabisan Peti Mati akibat Pandemi COVID-19, Pemerintah Kota di Ekuador Siapkan Kardus "Saya tetap minta cegah virus ini salah satunya lakukan sosial dan physical distancing atau jaga jarak dengan tetap berada dirumah," ujar Budi. Budi pun mengaku senang melihat banyak masyarakatKota Tasikmalayayang turut serta membantu melawan virus corona ini dengan menyumbangkan alat pelindung diri (APD) dan masker. "Saya tetap minta cegah virus ini salah satunya lakukan sosial danphysical distancingatau jaga jarak dengan tetap berada dirumah," ujar Budi. Rencananya masker tersebut akan dibagikan kepada semua pedagang yang ada di pasar tradisional sekitar, mulai dari Cikurubuk, Pancasila, dan lainnya.*** (Asep M Saefuloh/Pikiranrakyat-tasikmalaya.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01361332/bantuan-penanganan-corona-terus-mengalir-ke-pemkot-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>Bantuan Penanganan Corona Terus Mengalir ke Pemkot Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C382" s="2" t="n">
-        <v>43927.29236111111</v>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Bantuan untuk penangananwabah coronaterus mengalir dari masyarakat kepada PemerintahKota Tasikmalaya. Kali ini, Pemkot menerimabantuandari alumni SMA Negeri 1 Tasikmalaya angkatan 1990/1996. Bantuan berupa 96 alat pelindung diri (APD) dan 100 paket sembako diterima langsung oleh Wali Kota Budi Budiman di Gedung BalaiKota Tasikmalaya, Minggu 5 April 2020 sebagaima tertulis dalam unggahan Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Baca Juga:Mantan Perdana Menteri Libya Meninggal Dunia akibat Virus Corona Perwakilan alumni, Zenzen Zainudin S.Ag mengatakan,bantuantersebut merupakan bentuk kepedulian dan dukungan dalam upaya menangkal penyebaran Covid-19 diKota Tasikmalaya. Budi juga menerimabantuanberupa masker danAPDdari Relawan 1 Juta Masker. Relawan yang terdiri dari beberapa pengusaha konveksi asalKota Tasikmalayatersebut memberikanbantuansecara simbolis berupa 10APDdan 200 masker dari target 1 juta masker dan 5 ribuAPD. Baca Juga:Angsana Sampai Tabebuya Siap Ditanam di Kota Bandung, Penghijauan dan Nilai Estetis Budi mengapresiasi pemberianbantuantersebut. "Ini merupakan bentuk kepedulian dan salah satu solusi penanganan wabah Covid-19 diKota Tasikmalaya," kata Budi. Sebelumnya, sebanyak 700 kendaraan masuk keKota Tasikmalayamelalui Pos Karangresik pada Rabu, 1 April 2020.PIKIRAN RAKYAT –Bantuan untuk penangananwabah coronaterus mengalir dari masyarakat kepada PemerintahKota Tasikmalaya. Kali ini, Pemkot menerimabantuandari alumni SMA Negeri 1 Tasikmalaya angkatan 1990/1996. Bantuan berupa 96 alat pelindung diri (APD) dan 100 paket sembako diterima langsung oleh Wali Kota Budi Budiman di Gedung BalaiKota Tasikmalaya, Minggu 5 April 2020 sebagaima tertulis dalam unggahan Instagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Baca Juga:Mantan Perdana Menteri Libya Meninggal Dunia akibat Virus Corona Perwakilan alumni, Zenzen Zainudin S.Ag mengatakan,bantuantersebut merupakan bentuk kepedulian dan dukungan dalam upaya menangkal penyebaran Covid-19 diKota Tasikmalaya. Budi juga menerimabantuanberupa masker danAPDdari Relawan 1 Juta Masker. Relawan yang terdiri dari beberapa pengusaha konveksi asalKota Tasikmalayatersebut memberikanbantuansecara simbolis berupa 10APDdan 200 masker dari target 1 juta masker dan 5 ribuAPD. Baca Juga:Angsana Sampai Tabebuya Siap Ditanam di Kota Bandung, Penghijauan dan Nilai Estetis Budi mengapresiasi pemberianbantuantersebut. "Ini merupakan bentuk kepedulian dan salah satu solusi penanganan wabah Covid-19 diKota Tasikmalaya," kata Budi. Sebelumnya, sebanyak 700 kendaraan masuk keKota Tasikmalayamelalui Pos Karangresik pada Rabu, 1 April 2020.Para awak kendaraan pun mesti mengikuti pemeriksaan identitas dan kondisi kesehatan yang dlakukan petugas pos tersebut. Baca Juga:GBDI dan Podcast Progresif Galang Dana Bantu PKL Terdampak Wabah Covid-19 Jumlah kendaraan yang masuk tersebut terungkap dalam monitoring pergerakan orang keKota Tasikmalayayang dilakukan Wali Kota Budi Budiman hari itu di Pos Karangresik. Kendaraan yang masuk dan menjalani pemeriksaan berasal dari luarKota Tasikmalaya. Untuk awak kendaraan yang berasal dari zona merah akan didata dan diserahkan ke kelurahan dan kecamatan serta ditetapkan sebagai Orang Dalam Pemantauan (ODP). Budi berharap, masyarakat memahami dan mendukung langkah Pemkot dalam mencegah penyebaran corona ke wilayahnya. Perkembangan positif juga terjadi diKota Tasikmalayadalam upaya menangkal virus tersebut. Baca Juga:Banyak Jenazah COVID-19 Dibiarkan Tergeletak di Jalanan, Wapres Ekuador Meminta Maaf "Alhamdulillah, hari ini kami dapat informasi dari Dinas Kesehatan dan dari rumah sakit bahwa satu pasien positif sudah dinyatakan sembuh," ucap Budi dalam keterangan tertulis diInstagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Di tempat terpisah, Wakil WaliKota TasikmalayaM Yusuf melakukan monitoring di Pos Mangkubumi. Tak hanya ikut terjun mengecek kesehatan, Yusuf juga memberikan edukasi dan informasi dengan membagi brosur tentang pencegahan corona. Seperti diketahui,Tim Gugus Tugas Percepatan Penanganan Covid-19Kota Tasikmalayamembentuk pos di delapan titik yakni, Pos RPH Indihiang, Karang Resik, Mangin, Awipari, Urug, Jembatan Asta, Bojongjengkol, Pos pengalihan di Cibunigeulis Bungursari. Di sana, pemeriksaan identitas dan kendaraan awak kendaraan yang masuk berlangsung. Baca Juga:Kabar Baik, Nol Tambahan Kematian Karena Corona di Banten per 5 April"Kepada setiap kepala pos yang ditunjuk, saya harap mampu mengkoordinir rekan-rekannya, dan mampu berkoordinasi dengan efektif dengan pihak-pihak terkait," kata Budi Budiman dalam apel gelar pasukan Tim Gugus TugasPercepatan Penanganan Covid-19Kota Tasikmalayabelum lama ini. Sebelumnya,‎ akibat lonjakan jumlah warga yang terjangkit  virus corona membuat PemerintahKota Tasikmalayamenerapkan karantina wilayah terbatas pada Selasa 31 Maret 2020. Dampaknya, akses keluar masukKota Tasikmalayapun dibatasi. Karantina wilayah atau pembatasan wilayah berlangsung selama satu bulan penuh. Pemkot meminimalisir akses keluar masuk dari dan keluar dariKota Tasikmalayaguna mencegah semakin parahnya penyebaran virus corona. Baca Juga:Diduga Hendak Bunuh Diri, Seorang Honorer Asal Kota Banjar Nyaris Tewas Terseret Ombak "‎Akan melarang beroperasinya angkutan-angkutan umum baik darat, udara termasuk PJKA (kereta api) yang datang masuk keKota Tasikmalayadari daerah-daerah yang terjangkit," ucap Budi. Hal serupa dilakukan terhadap angkutan-angkutan yang keluar dari Kota Tasikmayala. Meski demikian, Pemkot masih memperbolehkan kendaraan-kendaraan pengangkut Sembako atau kebutuhan pokok masyarakat masuk ke wilayahnya. Sedangkan, warga yang punya tugas atau berdinas di luarKota Tasikmalayamesti memiliki dan membawa surat tugas dari masing-masing kantor kerjanya. Budi menegaskan, upaya-upaya yang dilakukan dalam menangkal penyebaran corona tersebut demi melindungi keselamatan wargaKota Tasikmalaya. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01359801/hari-kedua-karantina-wilayah-terbatas-700-kendaraan-masuk-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Hari Kedua Karantina Wilayah Terbatas, 700 Kendaraan Masuk Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C383" s="2" t="n">
-        <v>43923.67222222222</v>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Sebanyak 700 kendaraanmasukkeKota Tasikmalayamelalui Pos Karangresik pada Rabu 1 April 2020. Para awak kendaraan pun mesti mengikuti pemeriksaan identitas dan kondisi kesehatan yang dlakukan petugas pos tersebut. Jumlah kendaraan yangmasuktersebut terungkap dalam monitoring pergerakan orang keKota Tasikmalayayang dilakukan Wali Kota Budi Budiman hari itu di Pos Karangresik. Baca Juga:Adu Kapasitas Bagasi 4 Mobil SUV di Indonesia, Mana Lebih Luas? Kendaraanyangmasukdan menjalani pemeriksaan berasal dari luarKota Tasikmalaya. Untuk awak kendaraan yang berasal dari zona merah akan didata dan diserahkan ke kelurahan dan kecamatan serta ditetapkan sebagai Orang Dalam Pemantauan (ODP). Budi berharap, masyarakat memahami dan mendukung langkah Pemkot dalam mencegah penyebaran corona ke wilayahnya. Baca Juga:Renggut 5.112 Nyawa, Virus Corona Jadi Pembunuh Terbesar Ketiga di Amerika Serikat Perkembangan positif juga terjadi diKota Tasikmalayadalam upaya menangkal virus tersebut. PIKIRAN RAKYAT- Sebanyak 700 kendaraanmasukkeKota Tasikmalayamelalui Pos Karangresik pada Rabu 1 April 2020. Para awak kendaraan pun mesti mengikuti pemeriksaan identitas dan kondisi kesehatan yang dlakukan petugas pos tersebut. Jumlah kendaraan yangmasuktersebut terungkap dalam monitoring pergerakan orang keKota Tasikmalayayang dilakukan Wali Kota Budi Budiman hari itu di Pos Karangresik. Baca Juga:Adu Kapasitas Bagasi 4 Mobil SUV di Indonesia, Mana Lebih Luas? Kendaraanyangmasukdan menjalani pemeriksaan berasal dari luarKota Tasikmalaya. Untuk awak kendaraan yang berasal dari zona merah akan didata dan diserahkan ke kelurahan dan kecamatan serta ditetapkan sebagai Orang Dalam Pemantauan (ODP). Budi berharap, masyarakat memahami dan mendukung langkah Pemkot dalam mencegah penyebaran corona ke wilayahnya. Baca Juga:Renggut 5.112 Nyawa, Virus Corona Jadi Pembunuh Terbesar Ketiga di Amerika Serikat Perkembangan positif juga terjadi diKota Tasikmalayadalam upaya menangkal virus tersebut."Alhamdulillah, hari ini kami dapat informasi dari Dinas Kesehatan dan dari rumah sakit bahwa satu pasien positif sudah dinyatakan sembuh," ucap Budi dalam keterangan tertulis diInstagram Dinas Komunikasi dan InformatikaKota Tasikmalaya. Di tempat terpisah, Wakil WaliKota TasikmalayaM Yusuf melakukan monitoring di Pos Mangkubumi. Baca Juga:Penumpukan Jenazah PDP COVID-19 karena Penolakan Warga, RSHS Berikan Bantahan Tak hanya ikut terjun mengecek kesehatan, Yusuf juga memberikan edukasi dan informasi dengan membagi brosur tentang pencegahan corona. Seperti diketahui, Tim Gugus Tugas Percepatan Penanganan Covid-19Kota Tasikmalayamembentuk pos di delapan titik yakni, Pos RPH Indihiang, Karang Resik, Mangin, Awipari, Urug, Jembatan Asta, Bojongjengkol, Pos pengalihan di Cibunigeulis Bungursari. Di sana, pemeriksaan identitas dan kendaraan awak kendaraan yangmasukberlangsung. Baca Juga:Seorang Staf Kedubes Amerika Serikat di Jakarta Meninggal Dunia, Positif Covid-19 "Kepada setiap kepala pos yang ditunjuk, saya harap mampu mengkoordinir rekan-rekannya, dan mampu berkoordinasi dengan efektif dengan pihak-pihak terkait," kata Budi Budiman dalam apel gelar pasukan Tim Gugus TugasPercepatan Penanganan COVID-19Kota Tasikmalayabelum lama ini. Sebelumnya,‎ akibat lonjakan jumlah warga yang terjangkit virus corona membuat PemerintahKota Tasikmalayamenerapkan karantina wilayahterbataspada Selasa 31 Maret 2020. Baca Juga:Pilih Kartu Berikut dan Lihat Bagaimana Peruntungan Cintamu Bulan IniDampaknya, akses keluarmasukKota Tasikmalayapun dibatasi.Karantina wilayah atau pembatasan wilayah berlangsung selama satu bulan penuh. Pemkot meminimalisir akses keluarmasukdari dan keluar dariKota Tasikmalayaguna mencegah semakin parahnya penyebaran virus corona. "‎Akan melarang beroperasinya angkutan-angkutan umum baik darat, udara termasuk PJKA (kereta api) yang datangmasukkeKota Tasikmalayadari daerah-daerah yang terjangkit," ucap Budi. Baca Juga:Jadi Pemain Terbaik Persib Bulan Maret, Wander Luiz Ucapkan Terima Kasih Hal serupa dilakukan terhadap angkutan-angkutan yang keluar dari Kota Tasikmayala. Meski demikian, Pemkot masih memperbolehkan kendaraan-kendaraan pengangkut Sembako atau kebutuhan pokok masyarakatmasukke wilayahnya.Sedangkan, warga yang punya tugas atau berdinas di luarKota Tasikmalayamesti memiliki dan membawa surat tugas dari masing-masing kantor kerjanya. Budi menegaskan, upaya-upaya yang dilakukan dalam menangkal penyebaran corona tersebut demi melindungi keselamatan wargaKota Tasikmalaya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01359055/karantina-wilayah-jumlah-kendaraan-dan-penumpang-angkutan-umum-kota-tasikmalaya-anjlok</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Karantina Wilayah, Jumlah Kendaraan dan Penumpang Angkutan Umum Kota Tasikmalaya Anjlok</t>
-        </is>
-      </c>
-      <c r="C384" s="2" t="n">
-        <v>43922.35138888889</v>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT –Penerapan karantina wilayah guna menangkal penyebaran corona diKota Tasikmalayamembuat jumlah penumpang dan armadaangkutan umumjenis antarkota antarprovinsi (AKAP) dan antarkota dalam provinsi (AKDP), yang tiba di Terminal Indihiang semakin anjlok. Meski demikian, terminal terminal tersebut tetap bakal beroperasi. Penurunan tersebut dikemukakan Koordinator Satuan Pelayanan Terminal Tipe A Indihiang Tasikmalaya Jenny Maria Wirandani dalam pesan WhatsApp-nya, Selasa 31 Maret 2020. Baca Juga:Positif COVID-19, Seorang Nenek Meninggal Usai Pilih Selamatkan Pasien yang Lebih Muda "Kendaraan yang beroperasi sedikit sekali," kata Jenny. Para pengusaha kendaraanangkutan umumtersebut tak mengoperasikan semua kendaraanya. Dalam data UPTD Terminal Indihiang, jumlah kedatangan bus dan penumpang sudah mulai anjlok sejak Minggu 29 Maret 2020. Di hari itu, jumlah armada angkutan AKAP hanya tercatat 72 kendaraan dengan 14 penumpang. Baca Juga:Wakil Wali Kota Cilegon Sumbang Seluruh Gaji untuk Petugas Medis Pada Senin 30 Maret 2020, jumlah armada hanya 4 kendaraan dengan 8 penumpang. Kondisi serupa terjadi pada kedatangan kendaraan  AKDP. Pada Minggu, jumlah armada masuk cuma 12 kendaraan dengan 38 penumpang. Pada Senin, armada masuk 9 unit dengan 10 penumpang. PIKIRAN RAKYAT –Penerapan karantina wilayah guna menangkal penyebaran corona diKota Tasikmalayamembuat jumlah penumpang dan armadaangkutan umumjenis antarkota antarprovinsi (AKAP) dan antarkota dalam provinsi (AKDP), yang tiba di Terminal Indihiang semakin anjlok. Meski demikian, terminal terminal tersebut tetap bakal beroperasi. Penurunan tersebut dikemukakan Koordinator Satuan Pelayanan Terminal Tipe A Indihiang Tasikmalaya Jenny Maria Wirandani dalam pesan WhatsApp-nya, Selasa 31 Maret 2020. Baca Juga:Positif COVID-19, Seorang Nenek Meninggal Usai Pilih Selamatkan Pasien yang Lebih Muda "Kendaraan yang beroperasi sedikit sekali," kata Jenny. Para pengusaha kendaraanangkutan umumtersebut tak mengoperasikan semua kendaraanya. Dalam data UPTD Terminal Indihiang, jumlah kedatangan bus dan penumpang sudah mulai anjlok sejak Minggu 29 Maret 2020. Di hari itu, jumlah armada angkutan AKAP hanya tercatat 72 kendaraan dengan 14 penumpang. Baca Juga:Wakil Wali Kota Cilegon Sumbang Seluruh Gaji untuk Petugas Medis Pada Senin 30 Maret 2020, jumlah armada hanya 4 kendaraan dengan 8 penumpang. Kondisi serupa terjadi pada kedatangan kendaraan  AKDP. Pada Minggu, jumlah armada masuk cuma 12 kendaraan dengan 38 penumpang. Pada Senin, armada masuk 9 unit dengan 10 penumpang.Seperti diketahui, Pemkot Tasikmalaya mulai menerapkan karantina wilayah pada Selasa. Pemkot telah meminta penguasa/pengelola bus menghentikan kegiatan operasionalnya dari dan menujuKota Tasikmalaya. Baca Juga:Harga Karet Lesu, PTPN VIII Konversi Lahan Karet Menjadi Sawit di Sukabumi Meski mulai ada penyekatan kendaraan, Jenny menyebut hal tersebut baru langkah persiapan dan belu berupa larangan. Ia menyatakan, petugas terminal pun tetap beraktivitas seperti biasa. Apalagi surat dari Kementerian Perhubungan guna menutup aktivitas Terminal Indihiang pun belum ada. "Selagi belum ada surat perintah untuk menutup terminal, kami tetap bertugas seperti biasa," ujarnya. Jenny juga menyatakan pencegahan virus corona tetap berlangsung di area terminal. "Penyemprotan disinfektan tiap hari, dan kita menyiapkan wastafel di pintu masuk penumpang dan di area kedatangan, juga menyiapkan handa sanitizer di area kedatangan dan keberangkatan," ujarnya. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/bandung-raya/pr-01358496/minta-dikremasi-pasien-positif-corona-di-kota-tasikmalaya-meninggal</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Minta Dikremasi, Pasien Positif Corona di Kota Tasikmalaya Meninggal</t>
-        </is>
-      </c>
-      <c r="C385" s="2" t="n">
-        <v>43920.88402777778</v>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Satu warga Kota Tasikmalaya yangpositifcoronameninggaldunia. Jasad warga tersebutdikremasisesuai permintaan keluarga. Hal tersebut diungkapkan Kepala Dinas Kesehatan Kota Tasikmalaya Uus Supangat saat dihubungi, Senin 30 Maret 2020. "Data terakhir 6 (warga)positifcorona,meninggal1, (tersisa) 5," kata Uus. Lima warga yang postif terjangkt COVID-19 masih menjalani perawatan di rumah-rumah sakit yang tersebar di Kota Tasikmalaya. Uus juga menyebut adanya penambahan Orang Dalam Pemantauan (ODP) terkait penyebaran virus tersebut. Namun, Uus tak hafal pasti jumlah detail penambahan itu. Baca Juga:BOPI Minta Bantuan untuk Olahraga Profesional, Kemenpora Tak Setuju Dari informasi yang dihimpun Pikiran Rakyat hingga Senin 30 Maret 2020, jumlah ODP di Kota Tasikmalaya mencapai 295 orang dan Pasien Dalam Pengawasan (PDP) 10 orang. Satu warga berstatus PDP pun telahmeninggal. Sebelumnya, akibat lonjakan jumlah warga yang terjangkit virus corona membuat Pemerintah Kota Tasikmalaya bakal menerapkan karantina wilayah pada Selasa 31 Maret 2020. Dampaknya, akses keluar masuk Kota Tasikmalaya pun dibatasi. Rencana penerapan karantina wilayah disampaikan langsung Wali Kota Budi Budiman dalam tayangan video Instagram Dinas Komunikasi dan Informatika Kota Tasikmalaya, Sabtu 28 Maret 2020. Baca Juga:Olimpiade Tokyo 2020 Ditunda, Anggaran Tambahan Disiapkan Kemenpora PIKIRAN RAKYAT- Satu warga Kota Tasikmalaya yangpositifcoronameninggaldunia. Jasad warga tersebutdikremasisesuai permintaan keluarga. Hal tersebut diungkapkan Kepala Dinas Kesehatan Kota Tasikmalaya Uus Supangat saat dihubungi, Senin 30 Maret 2020. "Data terakhir 6 (warga)positifcorona,meninggal1, (tersisa) 5," kata Uus. Lima warga yang postif terjangkt COVID-19 masih menjalani perawatan di rumah-rumah sakit yang tersebar di Kota Tasikmalaya. Uus juga menyebut adanya penambahan Orang Dalam Pemantauan (ODP) terkait penyebaran virus tersebut. Namun, Uus tak hafal pasti jumlah detail penambahan itu. Baca Juga:BOPI Minta Bantuan untuk Olahraga Profesional, Kemenpora Tak Setuju Dari informasi yang dihimpun Pikiran Rakyat hingga Senin 30 Maret 2020, jumlah ODP di Kota Tasikmalaya mencapai 295 orang dan Pasien Dalam Pengawasan (PDP) 10 orang. Satu warga berstatus PDP pun telahmeninggal. Sebelumnya, akibat lonjakan jumlah warga yang terjangkit virus corona membuat Pemerintah Kota Tasikmalaya bakal menerapkan karantina wilayah pada Selasa 31 Maret 2020. Dampaknya, akses keluar masuk Kota Tasikmalaya pun dibatasi. Rencana penerapan karantina wilayah disampaikan langsung Wali Kota Budi Budiman dalam tayangan video Instagram Dinas Komunikasi dan Informatika Kota Tasikmalaya, Sabtu 28 Maret 2020. Baca Juga:Olimpiade Tokyo 2020 Ditunda, Anggaran Tambahan Disiapkan KemenporaKarantina wilayah atau pembatasan wilayah mulai diberlakukan pada Selasa 31 Maret 2020 selama satu bulan penuh. Pemkot meminimalisir akses keluar masuk dari dan keluar dari Kota Tasikmalaya guna mencegah semakin parahnya penyebaran virus corona. "‎Akan melarang beroperasinya angkutan-angkutan umum baik darat, udara termasuk PJKA (kereta api) yang datang masuk ke Kota Tasikmalaya dari daerah-daerah yang terjangkit," ucap Budi. Hal serupa dilakukan terhadap angkutan-angkutan yang keluar dari Kota Tasikmayala. Pemkot, lanjut Budi, akan ‎membangun posko-posko di perbatasan guna memeriksa kendaraan-kendaraan pribadi yang melintas. Baca Juga:Bantu Strategikan Anak Belajar di Rumah, Disdik Kabupaten Bandung Buka Parenting Online "Kendaraan-kendaraan pribadi akan dicek di Posko, akan kami siapkan pengecekan, apakah kesehatan (awak kendaran) baik, kalau kurang baik ‎untuk segera dikonfrimasikan kepada pelayanan kesehatan yang ada di Kota Tasikmalaya," ucapnya. Meski demikian, Pemkot masih memperbolehkan kendaraan-kendaraan pengangkut Sembako atau kebutuhan pokok masyarakat masuk ke wilayahnya. Sedangkan, warga yang punya tugas atau berdinas di luar Kota Tasikmalaya mesti memiliki dan membawa surat tugas dari masing-masing kantor kerjanya. Budi menegaskan, upaya-upaya yang dilakukan dalam menangkal penyebaran corona tersebut demi melindungi keselamatan warga Kota Tasikmalaya. Baca Juga:Tiga PDP COVID-19 Meninggal di Indramayu, Hasil Tes Swab Belum Keluar Walau begitu Budi menampik Pemkot menerapkan lockdown. "‎Kalau lockdown itu mengunci semua, tetapi ini namanya karantina wilayah atau pembatasan wilayah," ucapnya.Ia berharap warga mematuhi berbagai langkah pemerintah mencegah penularan serta tak menganggap sepele penyebaran virus itu. Soalnya, ia mengakui keterbatasan Pemkot dalam penyediaan fasilitas/pelayanan medis dalam menghadapi pandemi corona. "‎Kami sudah mendata, berapa jumlah rumah sakit di Kota Tasikmalaya yang mampu untukk menyediakan ruang isolasi, sangat terbatas sekali," ucapnya. Demikian pula dengan keberadaan dokter, perawat serta alat pelindung diri.‎***</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01358009/kota-tasikmalaya-lockdown-dampak-karantina-wilayah-pada-warga-miskin-disoroti</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Kota Tasikmalaya Lockdown, Dampak Karantina Wilayah pada Warga Miskin Disoroti</t>
-        </is>
-      </c>
-      <c r="C386" s="2" t="n">
-        <v>43919.77986111111</v>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Keputusan PemerintahKota Tasikmalayamenerapkan karantina wilayah menuai sorotan. Sejumlah pihak menyoroti dampaklockdown, terutama terkait jaminan kehidupan warga dan legalitas pemerintah daerah berlakukan aturan tersebut. "Perlu diperhatikan bagaimana dengan pekerja yang mendapatkan upah dengan kerja harian atau warga yang profesinya bergerak di sektor informal, seperti PKL. Negara perlu menjamin hajat hidup seluruh warga dalam wilayah karantina , terutamawarga miskinselama minimal 2 minggu karena kegiatan perekonomian akan lumpuh total," kata Nandang Suherman, peneliti‎ Forum Indonesia untuk Transparansi Anggaran Jawa Barat (Fitra Jabar). Baca Juga:5 Manfaat Sawi bagi Kesehatan, Salah satunya Cegah Pertumbuhan Sel Kanker Baca Juga:Cara Warga Eropa Atasi Depresi saat Lockdown Virus Corona yang Bisa Ditiru Dalam keterangan tertulisnya, Sabtu 28 Maret 2020, Nandang juga mengkalkulasi kebutuhan dasar warga jikaKota Tasikmalaya, dalam penerapan karantina wilayah dengan jumlah penduduk sekitar 900.000 jiwa. "Kebutuhan dasar yaitu makan harian yang harus dipenuhi oleh Pemkot Tasikmalaya dengan jumlah penduduk sekitar 900 ribu jiwa dan yang ditanggung makan hariannya sekira 320.000 jiwa (sesuai dengan data BDT) , maka dibutuhkan anggaran sebesar Rp 8 miliar. Untuk 30 hari dibutuhkan Rp 240 miliar," ucapnya. Bagaimana dengan kebutuhan untuk listrik dan air bersihnya? Nandang kembali merincinya. Baca Juga:Lowongan Kerja BUMN Bank Mandiri, Fresh Graduate Lulusan D3 Bisa Ikut Daftar "Kebutuhan listrik/orang/hari kira-kira Rp 4.000, untuk 1 hari, Rp 320 ribu x Rp 4.000 =  Rp. 1.280.000.000, Untuk 30 hari,  Rp 38.400.000.000, sementara Kebutuhan air/orang/hari kira-kira Rp 700, untuk 1 hari, Rp 320 x Rp 700 =‎ Rp. 224.000.000, untuk 30 hari = Rp 6.720.000.000, total anggaran yang dibutuhkan untuk satu bulan sekitar Rp. 285.120.000.000," ujarnya.PIKIRAN RAKYAT –Keputusan PemerintahKota Tasikmalayamenerapkan karantina wilayah menuai sorotan. Sejumlah pihak menyoroti dampaklockdown, terutama terkait jaminan kehidupan warga dan legalitas pemerintah daerah berlakukan aturan tersebut. "Perlu diperhatikan bagaimana dengan pekerja yang mendapatkan upah dengan kerja harian atau warga yang profesinya bergerak di sektor informal, seperti PKL. Negara perlu menjamin hajat hidup seluruh warga dalam wilayah karantina , terutamawarga miskinselama minimal 2 minggu karena kegiatan perekonomian akan lumpuh total," kata Nandang Suherman, peneliti‎ Forum Indonesia untuk Transparansi Anggaran Jawa Barat (Fitra Jabar). Baca Juga:5 Manfaat Sawi bagi Kesehatan, Salah satunya Cegah Pertumbuhan Sel Kanker Baca Juga:Cara Warga Eropa Atasi Depresi saat Lockdown Virus Corona yang Bisa Ditiru Dalam keterangan tertulisnya, Sabtu 28 Maret 2020, Nandang juga mengkalkulasi kebutuhan dasar warga jikaKota Tasikmalaya, dalam penerapan karantina wilayah dengan jumlah penduduk sekitar 900.000 jiwa. "Kebutuhan dasar yaitu makan harian yang harus dipenuhi oleh Pemkot Tasikmalaya dengan jumlah penduduk sekitar 900 ribu jiwa dan yang ditanggung makan hariannya sekira 320.000 jiwa (sesuai dengan data BDT) , maka dibutuhkan anggaran sebesar Rp 8 miliar. Untuk 30 hari dibutuhkan Rp 240 miliar," ucapnya. Bagaimana dengan kebutuhan untuk listrik dan air bersihnya? Nandang kembali merincinya. Baca Juga:Lowongan Kerja BUMN Bank Mandiri, Fresh Graduate Lulusan D3 Bisa Ikut Daftar "Kebutuhan listrik/orang/hari kira-kira Rp 4.000, untuk 1 hari, Rp 320 ribu x Rp 4.000 =  Rp. 1.280.000.000, Untuk 30 hari,  Rp 38.400.000.000, sementara Kebutuhan air/orang/hari kira-kira Rp 700, untuk 1 hari, Rp 320 x Rp 700 =‎ Rp. 224.000.000, untuk 30 hari = Rp 6.720.000.000, total anggaran yang dibutuhkan untuk satu bulan sekitar Rp. 285.120.000.000," ujarnya.Anggaran tersebut berasal dari APBDKota Tasikmalayasebagai salah satu sumbernya. Untuk itu, Nandang menilai, harus ada pergeseran anggaran secepatany untuk APBD 2020. "Dan potensi anggaran yang bisa di realokasi adalah sebesar Rp. 271.299.830.796," ucapnya. Baca Juga:Pilkada 2020 Bisa Ditunda Sampai Setahun Karena Pandemi Virus Corona Sementara itu, pengamat sosial sekaligus Dosen Sekolah Tinggi Agama Islam Nahdlatul Ulama (STAINU) Tasikmalaya Eki Sirojul Baehaqi meminta Pemkot memperjelas dulu dua aspek terkait keputusan penerapan karantina wilayah. "Pertama, terkait kewenangan itu (karantina wilayah) sebenarnya pemerintah pusat, jangan ujug-ujug secara sepihak mengambil keputusan seblum ada approval (persetujuan) dari pusat," kata Eki dalam pesan WhatsApp kepada "PR" pada Minggu 29 Maret 2020.‎ Pasalnya,belum tentu pemerintah pusat juga setuju. "Seandainya memaksa, apalagi merealokasi anggaran itu bisa dianggap penyalahgunaan wewenang," ucapnya. Baca Juga:Indonesia Patut Tiru Singapura, Negara dengan Jumlah Tenaga Medis Terinfeksi Virus Corona Terendah Tak hanya itu,  aspek pemenuhan hak dasar orang/warga harus benar-benar terjamin. "Seberapa sanggup pemkot/ pemerintah pusat memenuhikebutuhan pokokmsyarakatnya," ujar Eki. Ia merujuk ‎ pasal 55 UU 6/2018 tentang Kekarantinaan Kesehatan. Apalagi, Peraturan Pemerintah (PP) mengenai persoalan tersebut belum terbit dan masih dikaji. "Optimalkan dulu upaya pencegahan dan penanganannya," kata Eki.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01357595/cegah-virus-corona-dishub-kota-tasikmalaya-mulai-larang-angkutan-umum-keluar-masuk-daerah</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>Cegah Virus Corona, Dishub Kota Tasikmalaya Mulai Larang Angkutan Umum Keluar Masuk Daerah</t>
-        </is>
-      </c>
-      <c r="C387" s="2" t="n">
-        <v>43918.83125</v>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT– Pergerakan virus corona makin hari makin meningkat, dan hal ini menjadikan beberapa daerah membuat kebijakannya masing-masing untuk mencegah penyebaran COVID-19. Dari mulai melakukan gerakanWork From Home(WFH), sekolah dengan sistem daring, hingga larangan untuk pulang kampung perahan-lahan mulai muncul. Selain imbauan yang sudah disebutkan tadi,Kota Tasikmalayajuga melakukan kebijakan baru yang berkaitan dengan kendaraan umum. Baca Juga:Denda Rp 103 Juta hingga Kurungan Penjara Menanti jika Warga Langgar Aturan Baru di Hong Kong DikutipPikiran-Rakyat.comdari akun Instagram ATCS DISHUBKota Tasikmalaya@atcs.kotatasikmalaya, pihak Dinas PerhubunganKota Tasikmalayatelah mengeluarkan surat edaran baru.  Surat Edaran tersebut merupakan tindak lanjut dari hasil rapat tertutup Tim Crisis Center COVID-19 bersama Tim Gugus Tugas Percepatan Penanganan COVID-19. Surat yang diedarkan pada Sabtu, 28 Maret 2020 ini berisi tentang operasional angkutan umum yang ada di DaerahKota Tasikmalaya. Baca Juga:30.000 Orang dari Suku Pedalaman Amazon Terancam Usai Dokter yang Bertugas Positif Virus Corona PIKIRAN RAKYAT– Pergerakan virus corona makin hari makin meningkat, dan hal ini menjadikan beberapa daerah membuat kebijakannya masing-masing untuk mencegah penyebaran COVID-19. Dari mulai melakukan gerakanWork From Home(WFH), sekolah dengan sistem daring, hingga larangan untuk pulang kampung perahan-lahan mulai muncul. Selain imbauan yang sudah disebutkan tadi,Kota Tasikmalayajuga melakukan kebijakan baru yang berkaitan dengan kendaraan umum. Baca Juga:Denda Rp 103 Juta hingga Kurungan Penjara Menanti jika Warga Langgar Aturan Baru di Hong Kong DikutipPikiran-Rakyat.comdari akun Instagram ATCS DISHUBKota Tasikmalaya@atcs.kotatasikmalaya, pihak Dinas PerhubunganKota Tasikmalayatelah mengeluarkan surat edaran baru.  Surat Edaran tersebut merupakan tindak lanjut dari hasil rapat tertutup Tim Crisis Center COVID-19 bersama Tim Gugus Tugas Percepatan Penanganan COVID-19. Surat yang diedarkan pada Sabtu, 28 Maret 2020 ini berisi tentang operasional angkutan umum yang ada di DaerahKota Tasikmalaya. Baca Juga:30.000 Orang dari Suku Pedalaman Amazon Terancam Usai Dokter yang Bertugas Positif Virus CoronaSurat ini menjelaskan mengenai peningkatan kewaspadaan terhadap risiko penularan infeksicoronavirus disease(COVID-19). Sebagai salah satu upaya untuk mencegah penyebaran tersebutm DishubKota Tasikmalayamulai mencoba membatasi mobilitas penduduk yang akan masuk dan keluar dari wilayah Kota. DishubKota Tasikmalayamenegaskan hal ini akan diberlakukan mulai Minggu 29 Maret 2020 pada pukul 00.00 WIB esok. PemerintahKota Tasikmalayajuga memerintahkan kepada perusahaan angkutan untuk menghentikan operasional angkutan umum AKAP, AKDP dan angkutan berbatasan baik yang masuk maupun keluar wilayahKota Tasikmalaya. Tak cuma angkutan umum tersebut, pihak Dishub juga melarang kereta api untuk berhenti di stasiunKota Tasikmalaya. "Kami atas nama PemerintahKota Tasikmalaya, memerintahkan kepada PT. Kereta Api Indonesia (Stasiun Tasikmalaya) agar kereta api yang melalui wilayahKota Tasikmalayatak berhenti di stasiun di wilayahKota Tasikmalaya," begitu bunyi surat edaran tersebut. Selamat sore Tindak lanjut hasil Rapat tertutup Tim Crisis Center Covid -19 bersama Tim Gugus Tugas Percepatan Penanganan Covid - 19, Dinas Perhubungan mengeluarkan Surat terkait Operasional Angkutan Umum yang ada di daerah Kota Tasikmalaya. #socialdistancing A post shared byATCS DISHUB Kota Tasikmalaya(@atcs.kotatasikmalaya) onMar 28, 2020 at 2:41am PDT</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01356271/ironis-pemkot-tasikmalaya-malah-bikin-kerumunan-orang-saat-umumkan-satu-warga-positif-corona</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>Ironis, Pemkot Tasikmalaya Malah Bikin Kerumunan Orang Saat Umumkan Satu Warga Positif Corona</t>
-        </is>
-      </c>
-      <c r="C388" s="2" t="n">
-        <v>43915.79166666666</v>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman mengumumkan satu warga KotaTasikmalayapositifCOVID-19 atau terjangkit virus corona dalam konferensi pers di Kantor Wali KotaTasikmalaya, Jalan Letnan Harun, Rabu 25 Maret 2020. Ironisnya, pengumuman dan konferensi pers itu berlangsung di tempat terbuka dan menjadi ajag berkumpul para pewarta dan pejabat daerah. Budi mengungkapkan, Pemkot telah menerima tiga hasil sampling warga yang telah diteliti oleh laboratorium Rumah Sakit Hasan Sadikin Kota Bandung. "Dari 3 ini dua negatif dan satu dinyatakanpositif," kata Budi dalam siaran langsung Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya, Rabu pagi. Dua sampel lain saat ini masih dalam penelitian laboratorium.‎ Baca Juga:Tetap Layani Masyarakat DKI Jakarta di Tengah Pandemi Virus Corona, Berat Badan Tina Toon Turun Atas temuan tersebut, Pemkot pun menetapkan status kejadian luar biasa (KLB) untuk KotaTasikmalaya. "Setelah KLB, tidak siaga lagi, tetapi tanggap darurat," ucapnya. Budi menambahkan, jumlah Orang Dalam Pemantauan (ODP) mencapai 116 orang. Dari jumlah itu, 18 orang dinyatakan sehat dan masih menyisakan 98ODP. Sedangkan Pasien Dalam Pengawasan (PDP) sebanyak 10 orang. Budi menuturkan, 1PDPtelah selesai (berangsur sehat) dan 3 lainnya bakal segera pulang. Baca Juga:Beri Semangat untuk Dokter Indonesia, Dahlan Iskan: Semua akan Dikenang Sebagai Pejuang Paling Depan Kendati demikian,PDPyang telah sehat dan pulang ke rumah itu tetap akan mendapat pemantauan tim medis. Kini, lanjut Budi, tinggal enamPDPyang masih menjalani perawatan di Rumah Sakit Umum Daerah (RSUD) Dokter Soekardjo dan RS swasta. PIKIRAN RAKYAT -Wali KotaTasikmalayaBudi Budiman mengumumkan satu warga KotaTasikmalayapositifCOVID-19 atau terjangkit virus corona dalam konferensi pers di Kantor Wali KotaTasikmalaya, Jalan Letnan Harun, Rabu 25 Maret 2020. Ironisnya, pengumuman dan konferensi pers itu berlangsung di tempat terbuka dan menjadi ajag berkumpul para pewarta dan pejabat daerah. Budi mengungkapkan, Pemkot telah menerima tiga hasil sampling warga yang telah diteliti oleh laboratorium Rumah Sakit Hasan Sadikin Kota Bandung. "Dari 3 ini dua negatif dan satu dinyatakanpositif," kata Budi dalam siaran langsung Instagram Dinas Komunikasi dan Informatika KotaTasikmalaya, Rabu pagi. Dua sampel lain saat ini masih dalam penelitian laboratorium.‎ Baca Juga:Tetap Layani Masyarakat DKI Jakarta di Tengah Pandemi Virus Corona, Berat Badan Tina Toon Turun Atas temuan tersebut, Pemkot pun menetapkan status kejadian luar biasa (KLB) untuk KotaTasikmalaya. "Setelah KLB, tidak siaga lagi, tetapi tanggap darurat," ucapnya. Budi menambahkan, jumlah Orang Dalam Pemantauan (ODP) mencapai 116 orang. Dari jumlah itu, 18 orang dinyatakan sehat dan masih menyisakan 98ODP. Sedangkan Pasien Dalam Pengawasan (PDP) sebanyak 10 orang. Budi menuturkan, 1PDPtelah selesai (berangsur sehat) dan 3 lainnya bakal segera pulang. Baca Juga:Beri Semangat untuk Dokter Indonesia, Dahlan Iskan: Semua akan Dikenang Sebagai Pejuang Paling Depan Kendati demikian,PDPyang telah sehat dan pulang ke rumah itu tetap akan mendapat pemantauan tim medis. Kini, lanjut Budi, tinggal enamPDPyang masih menjalani perawatan di Rumah Sakit Umum Daerah (RSUD) Dokter Soekardjo dan RS swasta.Sekretaris Daerah Ivan Dicksan menambahkan, satu warga yangpositifCorona untuk sementara masih dirawat diRSUDKotaTasikmalaya. "Dinkes (Dinas Kesehatan) sedangan konsultasi dengan RS-RS rujukan, kalau bisa dirujuk," ucap Ivan dalam keterangan WhatsApp-nya. Baca Juga:Trump Menentang Anjuran Sejumlah Ahli Kesehatan, Keukeuh Ingin Cabut Lockdown AS Lebih Cepat Upaya lain dilakukan dengan melacak kontak atau interaksipasienpositiftersebut dengan warga lainnya guna mencegah penyebaran virus. Pemkot, lanjutnya, juga tengah mengupayakan adanya gedung perawatan khusus untuk warga yangpositifcorona. "‎Kami sedang menyiapkan di salah satu bangunan RS swasta, juga sedang menjajaki gedung-gedung lain yang memungkinkan untuk digunakan," kata Ivan. Ironisnya, konferensi pers terkait pengumuman informasi perkembangan penyebaran corona di KotaTasikmalayaitu justru berlangsung terbuka dan membuat sejumlah wartawan dan pejabat daerah berkumpul. Hal tersebut jelas-jelas bertentangan dengan instruksi pemerintah agar masyarakat menghindari kerumunan dan menjaga jarak dalam upaya menangkal penyebaran corona. Baca Juga:Bek Persib Singgung Kerugian Tim Saat Liga 1 Berhenti, Fabiano: Risiko Lebih Besar Jika Ada Laga "Sebaiknya wali kota dan jajarannya juga konsisten agar menghindari forum yang melibatkan banyak orang termasuk konprensi pers, karena sekecil apapun forum itu berpotensi jadi media penyebaran yang efektif," kata pengamat sosial sekaligus Dosen Sekolah Tinggi Agama Islam Nahdlatul Ulama (STAINU) TasikmalayaEki Sirojul Baehaqi. Eki tak menampik konferensi pers perlu sebagai upaya sosialisasi kepada masyarakat. Namun, Pemkot bisa menggunakan media sosial semaksimal mungkin sebagai upaya penyampaian informasi dan sosialisasi pencegahan corona. ‎ "Dan itu jauh lebih efektif serta menghindari resiko terpapar virus," ujarnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01355278/cegah-penyebaran-virus-corona-pemkot-tasikmalaya-imbau-warga-tunda-resepsi-pernikahan</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>Cegah Penyebaran Virus Corona, Pemkot Tasikmalaya Imbau Warga Tunda Resepsi Pernikahan</t>
-        </is>
-      </c>
-      <c r="C389" s="2" t="n">
-        <v>43913.68194444444</v>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Pemerintah Kota Tasikmalaya mengimbau warganya menunda acararesepsipernikahan di tengah merebaknyapandemivirus corona. Hal tersebut merupakan langkah antisipasi mencegah penyebaran virus tersebut pada masyarakat. Sekretaris Daerah Kota Tasikmalaya Ivan Dicksan mengungkapkan, Pemkot telah melakukan teleconference dengan seluruh camat dan Muspika Kota Tasikmalaya. Baca Juga:Bantuan Tiongkok untuk Corona di Indonesia Tiba di Halim, Menhan Prabowo Serahkan kepada Gugus Tugas Dalam acara tersebut, Pemkot meminta pihak kecamatan menyebarkan imbauan itu kepada masyarakat. ‎ "Kalaupun terpaksa (tetap menggelarresepsi) agar menerapkan prosedur kesehatan. Untuk itu dinas pariwisata sudah minta ke perusahaan WO (wedding organizer) untuk menerapkan standar kesehatan," kata Ivan dalam pesan WhatsApp kepada "PR" pada Senin, 23 Maret 2020. Tak hanya pihak penyelenggara pernikahan, sosialisasi pencegahan virus  bakal pula disampaikan MC atau pembawa acaranya. Baca Juga:Situs Terkait COVID-19 Berisi Malware, Badan Siber Sandi Negara Berikan Tips "Pemkot juga akan segera menerbitkan surat edaran (agar) untuk sementara gedung-gedung pertemuan tidak menyelenggarakan kegiatan," tutur Ivan. Ia meminta masyarakat memahami pentingnya upaya pencegahan penyebaran virus tersebut dengan saling menjaga jarak, mengurangi seminimal mungkin interaksi.PIKIRAN RAKYAT –Pemerintah Kota Tasikmalaya mengimbau warganya menunda acararesepsipernikahan di tengah merebaknyapandemivirus corona. Hal tersebut merupakan langkah antisipasi mencegah penyebaran virus tersebut pada masyarakat. Sekretaris Daerah Kota Tasikmalaya Ivan Dicksan mengungkapkan, Pemkot telah melakukan teleconference dengan seluruh camat dan Muspika Kota Tasikmalaya. Baca Juga:Bantuan Tiongkok untuk Corona di Indonesia Tiba di Halim, Menhan Prabowo Serahkan kepada Gugus Tugas Dalam acara tersebut, Pemkot meminta pihak kecamatan menyebarkan imbauan itu kepada masyarakat. ‎ "Kalaupun terpaksa (tetap menggelarresepsi) agar menerapkan prosedur kesehatan. Untuk itu dinas pariwisata sudah minta ke perusahaan WO (wedding organizer) untuk menerapkan standar kesehatan," kata Ivan dalam pesan WhatsApp kepada "PR" pada Senin, 23 Maret 2020. Tak hanya pihak penyelenggara pernikahan, sosialisasi pencegahan virus  bakal pula disampaikan MC atau pembawa acaranya. Baca Juga:Situs Terkait COVID-19 Berisi Malware, Badan Siber Sandi Negara Berikan Tips "Pemkot juga akan segera menerbitkan surat edaran (agar) untuk sementara gedung-gedung pertemuan tidak menyelenggarakan kegiatan," tutur Ivan. Ia meminta masyarakat memahami pentingnya upaya pencegahan penyebaran virus tersebut dengan saling menjaga jarak, mengurangi seminimal mungkin interaksi.Dengan cara itu, mata rantai penyebaran corona akan putus. Terkait prosesi akad nikah, Ivan menyatakan, Kementerian Agama sudah menerapkan prosedur kesehatannya. Baca Juga:Maskapai Merugi Akibat Wabah Covid-19, Semua Pesawat Berhenti Beroperasi di Bandara Kertajati Ke depan, Pemkot bersama TNI dan kepolisian juga akan memantau warga-warga yang menggelar acara pernikahan. "‎Pak wali (Wali Kota Budi Budiman) tadi sudah minta kepada camat lurah dibantu Kapolsek, Danramil dengan Babinsa dan Babinkamtibmas (melakukan pemantauan dan sosialisasi pencegahan)," ujar Ivan. Hal senada dikemukakan Kepala Pelaksana Badan Penanggulangan Bencana Daerah (BPBD) Kota Tasikmalaya Ucu Anwar. Baca Juga:Batal Gelar Hajatan Sunat Rafathar, Nagita Slavina: Aku Kasihan, Dia Belum Ketemu Temen-temennya "Untuk pengelola gedung diharapkan tidak menerima pesanan/booking tempat (resepsipernikahan)," ucap Ucu. Pengelola yang kadung menerima pesanan tanpa bisa dibatalkan wajib memberikan fasilitas pencegahan berupa penyediaan hand sanitizer, penyemprotan cairan disinfektan, mengatur jarak para undangan dalam antrian dan melarang adanya kontak fisik. Guna mencegah dan menangkal virus corona, Polres Tasikmalaya juga menggelar penyuluhan ‎kepada para anggotanya di halaman Mapolres Tasikmalaya, Mangunreja, Kabupaten Tasikmalaya, Selasa, 17 Maret 2020, pukul 07.45 WIB. Penyuluhan dilakukan oleh Dinas Kesehatan Kabupaten Tasikmalaya. ‎ Baca Juga:Imbas Virus Corona, 14 Hotel di Kota Bogor Tutup Sementara, Yuno : PHRI Minta Tunda Penagihan Kewajiban PajakKepala Bidang P2P Dinas kesehatan Kabupaten Tasikmalaya Atang menjelaskan tentang ciri-ciri orang yang terjangkit corona yang ditandai flu, batuk dan sesak nafas serta suhu badan mencapai 38 derajat atau lebih. " Apabila suhu kurang dari 38 derajat maka orang tersebut tidak dapat dinyatakan positif Corona," kata Atang dalam keterangan tertulis Polres Tasikmalaya, Selasa. Melacak jejak perjalanan orang yang diduga corona pun penting. " Menanyakan kemana saja orang tersebut berpergian selama 2 minggu, apabila bepergian ke tempat yang terdapat virus corona baru bisa dinyatakan positif serta harus sesuai dengan gejala-gejalanya yaitu flu, batuk dan sesak nafas dan suhu badan diatas 38 derajat," ucapnya. Baca Juga:Satu PDP Covid-19 Cimahi Meninggal Dunia, Hasil Lab Belum Muncul Meski Sudah Dikirim Sejak 14 Maret 2020 Namun apabila tidak ada ciri ciri batuk, flu dan sesak dan suhu mencapai 38 tapi tidak pernah bepergian ke tempat yang terdapat virus corona, orang tersebut negatf corona. Kapolres Tasikmalaya AKBP Hendria Lesmana mengapresiasi kegiatan itu. "Dengan adanya penyuluhan ini diharapkan seluruh personil Polres Tasikmalaya dapat mengetahui tentang ciri ciri dan cara pencegahan terhadap penyebaran virus covid19, untuk dapat mengantisipasi terjadinya penyebaran virus dilingkungan kantor, lingkungan keluarganya ataupun dilingkungan umum," ucap Hendria.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01351679/tasikmalaya-tetap-gelar-kegiatan-ramai-di-tengah-wabah-corona-sekda-dan-bupati-angkat-bicara</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Tasikmalaya Tetap Gelar Kegiatan Ramai di Tengah Wabah Corona, Sekda dan Bupati Angkat Bicara</t>
-        </is>
-      </c>
-      <c r="C390" s="2" t="n">
-        <v>43905.72013888889</v>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Masih berlangsungnya sejumlah kegiatan yang melibatkan banyak warga di wilayah Tasikmalaya, kalawabah coronamerebak, ditanggapi oleh Sekretaris DaerahKota TasikmalayaIvan Dicksan, danBupati TasikmalayaAde Sugianto. Untuk sementara, menurut Ivan, Pemkot memang menugaskan sejumlah dinas terkait guna melakukan sosialisasi pencegahan penyebaran virus di lokasi-lokasi ramaiKota Tasikmalaya. Ivan tak menampik, Pemkot bisa melarang kegiatan-kegiatan yang melibatkan banyak warga untuk sementara ke depan. Baca Juga:6 Tips Hadapi Virus Corona, Simak Cara Lindungi Orangtua, Keluarga, dan Saudara dari COVID-19 "Dipertimbangkan ke arah sana (penutupan sementara), menunggu kajian yang komprehensif dari Dinkes dan lain-lain," tutur Ivan dalam pesan WhatsApp, Sabtu ‎14 Maret 2020 malam. Sementara ituAde Sugiantomenyatakan, CFD Gebu pada Minggu, 15 Maret 2020 menjadi kegiatan terakhir. "Karena sosalisasi ke masyarakat, terus pedagang terlambat," ucapnya mengenai alasan belum segera menyetop kegiatan massal itu. Baca Juga:Buruh Akan Kembali Berdemo Soal Penolakan RUU Cipta Kerja Omnibus Law Ade menambahkan, sosialisasi hidup bersih juga digencarkan diKabupaten Tasikmalayadengan melibatkan para ajengan guna menyampaikan pesan-pesan sosialisasi kepada masyarakarakat. Ade mengimbau, warganya untuk tidak bepergian dan menghadiri kumpulan banyak orang.PIKIRAN RAKYAT –Masih berlangsungnya sejumlah kegiatan yang melibatkan banyak warga di wilayah Tasikmalaya, kalawabah coronamerebak, ditanggapi oleh Sekretaris DaerahKota TasikmalayaIvan Dicksan, danBupati TasikmalayaAde Sugianto. Untuk sementara, menurut Ivan, Pemkot memang menugaskan sejumlah dinas terkait guna melakukan sosialisasi pencegahan penyebaran virus di lokasi-lokasi ramaiKota Tasikmalaya. Ivan tak menampik, Pemkot bisa melarang kegiatan-kegiatan yang melibatkan banyak warga untuk sementara ke depan. Baca Juga:6 Tips Hadapi Virus Corona, Simak Cara Lindungi Orangtua, Keluarga, dan Saudara dari COVID-19 "Dipertimbangkan ke arah sana (penutupan sementara), menunggu kajian yang komprehensif dari Dinkes dan lain-lain," tutur Ivan dalam pesan WhatsApp, Sabtu ‎14 Maret 2020 malam. Sementara ituAde Sugiantomenyatakan, CFD Gebu pada Minggu, 15 Maret 2020 menjadi kegiatan terakhir. "Karena sosalisasi ke masyarakat, terus pedagang terlambat," ucapnya mengenai alasan belum segera menyetop kegiatan massal itu. Baca Juga:Buruh Akan Kembali Berdemo Soal Penolakan RUU Cipta Kerja Omnibus Law Ade menambahkan, sosialisasi hidup bersih juga digencarkan diKabupaten Tasikmalayadengan melibatkan para ajengan guna menyampaikan pesan-pesan sosialisasi kepada masyarakarakat. Ade mengimbau, warganya untuk tidak bepergian dan menghadiri kumpulan banyak orang.Seperti diketahui, ‎meskipun pagebluk atauwabah coronatengah merebak, sejumlah kegiatan yang dihadiri atau mengerahkan massa tetap berlangsung di Kota/Kabupaten Tasikmalaya. Baca Juga:Disdik Bogor Imbau Orang Tua Ambil Peran saat Sekolah Diliburkan Pemkot dan Pemkab Tasikmalaya pun dinilai terlalu santai menyikapi pandemi yang membuat sejumlah daerah lain telah melarang dan menghentikan kegiatan dengan banyak warganya. Hal tersebut tampak pada Minggu, 15 Maret 2020. Di hari itu, sejumlah kegiatan yangdihadiri banyak warga berlangsung di wilayah Kota danKabupaten Tasikmalaya. Di Lapangan Dadaha,Kota Tasikmalaya, banyak warga yang tumplek menghadiri kegiatan sebuah produk minuman susu dan sereal pada Minggu pagi. Lapangan pun penuh dijejali warga yang ikut dalam kegiatan tersebut. Baca Juga:Cristiano Ronaldo Ubah Hotel Pribadi Jadi Rumah Sakit Darurat Khusus Pasien Virus Corona Sebagian dari perserta terlihat mengikuti gerakan-gerakan tubuh semacam senam dengan pemandu di atas panggung. Imbas kegiatan pun menjalar kepada kemacetan di jalan area kompleks olah raga tersebut. Aam Aris, 65 tahun, salah satu peserta kegiatan asal Kawalu mengungkapkan  kekhawatirannya saat mengikuti kegiatan massal itu. "Hawatos mah hawatos(khawatir sih khawatir)," ucapnya di temui "PR" di lokasi acara, Minggu pagi. Baca Juga:Jajaran Menteri Dites Setelah Menhub Budi Karya Sumadi Positif Corona, Hasil Tes Covid-19 Erick Thohir DiungkapMeski risau penyebaran coronan, Aam tetap mengikuti acara tersebut untuk sekadar berolahraga. Usianya yang sudah lanjut menjadi alasan dirinya tertarik mengikuti jalan sehat dan senam dalam kegiatan itu. Namun, Aam menilai Pemkot seharusnya mempertimbangkan penyelenggaraan acara dengan begitu banyak warga yang hadir dalam kondisi cepatnya penyebaran virus di tengah kerumunan orang. Baca Juga:Layanan Publik BUMN Tetap Beroperasi, Erick : Pegawai Berusia Lebih dari 50 Tahun agar Bekerja di Rumah Masing-masing Ia tak menampik, adanya pemberian hand sanitizer atau pembersih tangan dalam acara bagi peserta. Persoalannya, begitu banya warga yang hadir dan berpotensi tak mencuci tangannya serta berinteraksi atau bersentuhan dengan warga lainnya. Aam pun tak keberatan jika Pemkot menghentikan sementara acara-acara dengan peserta massal semacam itu. Ia mengaku masih bisa berolahraga di sekitar tempat tinggalnya. Hal senada dikemukakan peserta sekaligus warga Kawalu lainnya, Nanang Siswanto, 67 tahun. Baca Juga:VIDEO Detik-detik Chevrolet Camaro Lakukan Manuver Donat Ilegal, Malah Tabrakan Setelah Dikejar Polisi Ia menambahkan, kegiatan itu sempat dihadiri Wali Kota Budi Budiman yang memberikan sambutan. "Dikurangi saja (kegiatan dengan banyak massa)," ucap Nanang berharap kepada Pemkot. Selain di Dadaha, acara lain yang melibatkan banyak warga terjadi dalam Car Free Day (CFD) atau hari bebas kendaraan di kawasan Cilembang,Kota Tasikmalaya. Kegiatan tersebut berlangsung dengan menutup ruas Jalan KH EZ Muttaqin. Sari, 22 tahun, warga  asal Purbaratu mengaku miris dengan penyikapan Pemkot terhadapwabah corona."Kok pemerintahsesantuy(sesantai) ini," ucapnya. Ia tak habis berbagai acara dengan jumlah pengunjung yang  banyak seperti CFD masih diperbolehkan berjalan. "Padahal yang lain (daerah lain) sudah tutup (tak menggelar kegiatan massal)," ujarnya. Baca Juga:Live Streaming Persib vs PSS di Vidio.com: Target Menangi Duel Sayap, Robert Alberts Ubah Skema Interaksi pengunjung CFD Cilembang serta pedagang kaki lima yang mangkal bisa berpotensi menularkan virus tersebut. Apalagi tak terlihat adanya  pemberian atau fasilitas  cairan pembersih tangan serta penyemprotan disinfektan di CFD Cilembang. Kondisi serupa tampak di CFDKabupaten Tasikmalayayang berlangsung di area Gedung Bupati (Gebu) Tasikmalaya di Singaparna. Risma Amaliah, salah satu santriwati yang mengunjungi CFD Gebu menyebut fasilitas untuk cuci tangan tak tersedia di sana. Jika ingin cuci tangan, lanjut Risma, pengunjung mesti mendatangi masjid yang itu pun belum tentu memiliki sabun. Baca Juga:Sindir Anak Muda yang Masih Party di Tengah Wabah Virus Corona, Sophia Latjuba: Hinaan untuk Dokter dan Perawat yang Bertaruh Nyawa Selain pengunjung CFD, kawasan Gebu juga ramai oleh kegiatan peragaaan manasik haji TK/TPA dan TAAM di Gedung Islamic Center pada Minggu pagi. Suasana pun begitu hiruk pikuk lantaran sejumlah peserta lomba diantar orang tuanya masing-masing.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/olahraga/pr-01350930/npci-jawa-barat-buka-peluang-jadikan-kota-bandung-tuan-rumah-peparda-2022</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>NPCI Jawa Barat Buka Peluang Jadikan Kota Bandung Tuan Rumah Peparda 2022</t>
-        </is>
-      </c>
-      <c r="C391" s="2" t="n">
-        <v>43903.87569444445</v>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -National Paralympic Comittee Indonesia (NPCI) Jawa Barat membuka peluang bagi Kota Bandung untuk menjadi tuan rumah Pekan Paralimpik Daerah (Peparda) Jawa Barat 2022. Ketua Umum NPCI Jabar Supriatna Gumilar menuturkan peluang itu terbuka usai Pemerintah KotaTasikmalayamasih berpikir ulang perihal penunjukan tuan rumah Peparda 2022."Saya sudah beberapa kali berdiskusi dengan Pak Wali KotaTasikmalaya(Budi Budiman). Beliau sempat menanyakan mengenai berapa anggaran yang diperlukan jika menjadi tuan rumah Peparda," ucap Supriatna di Bandung Jumat 13 Maret 2020. Baca Juga:Softball dan Baseball Wali Kota Cup 2020 Digelar Mulai Hari IniDia menambahkan, selain menanyakan soal anggaran, Wali KotaTasikmalayasempat berbicara mengenai minimnya veneu serta aksesibilitas untuk para disabilitas. Pada tahap itulah kemudian Wali KotaTasikmalayamerasa pihaknya kurang sanggup menggelar Peparda 2022."Dari pertemuan empat sampai lima kali itu, Pak Wali Kota merasa terbentur oleh aksesibilitas dan veneu yang ada diTasikmalaya. Jadi disitulah ada pertimbangan kami untuk melihat peluang kota lain untuk menjadi tuan rumah Peparda 2022," ujarnya.Supriatna mengatakan jika melihat aksesibilitas serta veneu maka Kota Bandung lah yang dinilai paling layak dan siap menggelar Peparda 2022. Sebab, fasilitas lengkap itu ada di Kota Bandung karena sebelumnya sukses menggelar Peparnas 2016. Baca Juga:Sejumlah Kompetisi di Eropa Ditunda Akibat Corona, Begini Komentar Ridwan Kamil hingga Pelatih Persib"Kita akan memberikan waktu kepada KotaTasikmalayauntuk mempertimbangkan peluang menjadi tuan rumah setidaknya hingga pertengahan tahun ini. Setelah itu mungkin saya akan berdiskusi dengan Pak Wali Kota Bandung untuk tuan rumah Peparda 2022," katanya.Menanggapi keinginan NPCI Jabar tersebut, Wali Kota Bandung Oded M Danial mengaku siap jika ditunjuk menjadi tuan rumah Peparda 2022. Menurut Oded, Kota Bandung akan menjadi tuan rumah yang baik bagi para atlet disabilitas Jawa Barat.Oded menuturkan jika KotaTasikmalayatidak siap maka Kota Bandung akan menggantikannya. Dan perihal anggaran hal tersebut tentunya akan dipersiapkan. Baca Juga:Masuk Kategori ODP Virus Corona, Bima Arya Ajak Warga Jaga kesehatan dan Batasi Aktivitas di Tempat Ramai"Sesungguhnya jika KotaTasikmalayatidak siap dan dipindahkan ke Kota Bandung kami akan mempersiapkan diri sebaik-baiknya menjadi tuan rumah. Tentunya harus siap," katanya.Hal senada dikatakan Ketua Umum NPCI Kota Bandung Adik Fachroji. Menurut Adik, Kota Bandung memang dinilai layak untuk menjadi tuan rumah Peparda 2022."Alhamdulillah jika Kota Bandung diberi kepercayaan menjadi tuan rumah Peparda 2022. Secara fasilitas, veneu, aksesibilitas hingga panitia penyelenggara kami akan siapkan," tuturnya.*** PIKIRAN RAKYAT -National Paralympic Comittee Indonesia (NPCI) Jawa Barat membuka peluang bagi Kota Bandung untuk menjadi tuan rumah Pekan Paralimpik Daerah (Peparda) Jawa Barat 2022. Ketua Umum NPCI Jabar Supriatna Gumilar menuturkan peluang itu terbuka usai Pemerintah KotaTasikmalayamasih berpikir ulang perihal penunjukan tuan rumah Peparda 2022."Saya sudah beberapa kali berdiskusi dengan Pak Wali KotaTasikmalaya(Budi Budiman). Beliau sempat menanyakan mengenai berapa anggaran yang diperlukan jika menjadi tuan rumah Peparda," ucap Supriatna di Bandung Jumat 13 Maret 2020. Baca Juga:Softball dan Baseball Wali Kota Cup 2020 Digelar Mulai Hari IniDia menambahkan, selain menanyakan soal anggaran, Wali KotaTasikmalayasempat berbicara mengenai minimnya veneu serta aksesibilitas untuk para disabilitas. Pada tahap itulah kemudian Wali KotaTasikmalayamerasa pihaknya kurang sanggup menggelar Peparda 2022."Dari pertemuan empat sampai lima kali itu, Pak Wali Kota merasa terbentur oleh aksesibilitas dan veneu yang ada diTasikmalaya. Jadi disitulah ada pertimbangan kami untuk melihat peluang kota lain untuk menjadi tuan rumah Peparda 2022," ujarnya.Supriatna mengatakan jika melihat aksesibilitas serta veneu maka Kota Bandung lah yang dinilai paling layak dan siap menggelar Peparda 2022. Sebab, fasilitas lengkap itu ada di Kota Bandung karena sebelumnya sukses menggelar Peparnas 2016. Baca Juga:Sejumlah Kompetisi di Eropa Ditunda Akibat Corona, Begini Komentar Ridwan Kamil hingga Pelatih Persib"Kita akan memberikan waktu kepada KotaTasikmalayauntuk mempertimbangkan peluang menjadi tuan rumah setidaknya hingga pertengahan tahun ini. Setelah itu mungkin saya akan berdiskusi dengan Pak Wali Kota Bandung untuk tuan rumah Peparda 2022," katanya.Menanggapi keinginan NPCI Jabar tersebut, Wali Kota Bandung Oded M Danial mengaku siap jika ditunjuk menjadi tuan rumah Peparda 2022. Menurut Oded, Kota Bandung akan menjadi tuan rumah yang baik bagi para atlet disabilitas Jawa Barat.Oded menuturkan jika KotaTasikmalayatidak siap maka Kota Bandung akan menggantikannya. Dan perihal anggaran hal tersebut tentunya akan dipersiapkan. Baca Juga:Masuk Kategori ODP Virus Corona, Bima Arya Ajak Warga Jaga kesehatan dan Batasi Aktivitas di Tempat Ramai"Sesungguhnya jika KotaTasikmalayatidak siap dan dipindahkan ke Kota Bandung kami akan mempersiapkan diri sebaik-baiknya menjadi tuan rumah. Tentunya harus siap," katanya.Hal senada dikatakan Ketua Umum NPCI Kota Bandung Adik Fachroji. Menurut Adik, Kota Bandung memang dinilai layak untuk menjadi tuan rumah Peparda 2022."Alhamdulillah jika Kota Bandung diberi kepercayaan menjadi tuan rumah Peparda 2022. Secara fasilitas, veneu, aksesibilitas hingga panitia penyelenggara kami akan siapkan," tuturnya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01350550/ayah-pembunuh-anak-kandung-di-tasikmalaya-terancam-hukuman-mati-sang-ibu-merasa-lega</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>Ayah Pembunuh Anak Kandung di Tasikmalaya Terancam Hukuman Mati, sang Ibu Merasa Lega</t>
-        </is>
-      </c>
-      <c r="C392" s="2" t="n">
-        <v>43903.31944444445</v>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Pelakupembunuhananak kandung di KotaTasikmalayamendapat ancamanhukuman matiatas tindak pidananya. Wati Canrawati (46) yang merupakan ibu kandung korban, warga Kampung Sidangjaya, Kelurahan Linggajaya, Kecamatan Mangkubumi KotaTasikmalayamengaku lega mendengar ancamanhukuman matikepada pelaku. Pelaku sendiri merupakan mantan suami dari Wati ini dengan tega membunuh anak sulung yang merupakan buah hatinya itu dengan sadis dan kejam. Baca Juga:Sebulan Menuju UTBK, Berikut 5 Rekomendasi Hotel Dekat UIN Bandung dengan Harga di Bawah Rp 200.000 Menurut Wati, ancamanhukuman matiyang diberikan kepada pelaku sudah sangat sesuai dengan apa yang telah ia lakukan. Ia juga mengatakan bahwa telah memiliki firasat bahwa kematian dari anaknya ini bukan sebuah kecelakaan. "Dari awal hati kecil saya mengatakan bahwa anak saya meninggal karena dibunuh bukan kecelakaan," ujarnya. Baca Juga:Pasien dalam Pengawasan Asal Garut dan Seorang TKA Tiongkok Dinyatakan Negatif Virus Corona Meskipun pelaku merupakan ayah dari sang korban dan mantan suaminya, Wati tetap meminta hukuman yang seberat-beratnya. PIKIRAN RAKYAT- Pelakupembunuhananak kandung di KotaTasikmalayamendapat ancamanhukuman matiatas tindak pidananya. Wati Canrawati (46) yang merupakan ibu kandung korban, warga Kampung Sidangjaya, Kelurahan Linggajaya, Kecamatan Mangkubumi KotaTasikmalayamengaku lega mendengar ancamanhukuman matikepada pelaku. Pelaku sendiri merupakan mantan suami dari Wati ini dengan tega membunuh anak sulung yang merupakan buah hatinya itu dengan sadis dan kejam. Baca Juga:Sebulan Menuju UTBK, Berikut 5 Rekomendasi Hotel Dekat UIN Bandung dengan Harga di Bawah Rp 200.000 Menurut Wati, ancamanhukuman matiyang diberikan kepada pelaku sudah sangat sesuai dengan apa yang telah ia lakukan. Ia juga mengatakan bahwa telah memiliki firasat bahwa kematian dari anaknya ini bukan sebuah kecelakaan. "Dari awal hati kecil saya mengatakan bahwa anak saya meninggal karena dibunuh bukan kecelakaan," ujarnya. Baca Juga:Pasien dalam Pengawasan Asal Garut dan Seorang TKA Tiongkok Dinyatakan Negatif Virus Corona Meskipun pelaku merupakan ayah dari sang korban dan mantan suaminya, Wati tetap meminta hukuman yang seberat-beratnya."Harusnya sebagai ayah dia yang bisa melindungi anak saya yang juga anak kandungnya, ini malah dia yang justru membunuhnya dengan sadis dan kejam.Sagalak-galakna oge maung moalsampai membunuh anaknya sendiri (Segalak-galaknya harimau, tidak akan membunuh anaknya sendiri)," tutur Wati. Diberitakan Pikiran RakyatTasikmalayasebelumnya, pihak kepolisian telah melakukan rekonstruksi atau gelar perkarapembunuhanyang dilakukan seorang ayah kepada anak kandungnya. Baca Juga:Hal yang Paling Tidak Disukai Guru Ketika Kegiatan Belajar Mengajar Tengah Berlangsung Korban yang merupakan siswa SMPN 6 Cilembang KotaTasikmalaya, berdasarkan hasil rekonstrusi didapatkan dua lokasi yang berbeda dengan 36 adegan. Dari hasil rekonstruksi tersebut PolresTasikmalayaKota menemukan fakta baru di mana lokasipembunuhanyang dilakukan oleh tersangka BR. Fakta tersebut mengungkapkan bahwa BR yang semula hanyapembunuhantidak direncakan menjadipembunuhanberencana. Baca Juga:Lokasi SIM Keliling Wilayah Bandung Raya Hari Ini, Jumat 13 Maret 2020 Atas temuan tersebut polisi menambahkan pasalpembunuhanberencana pada BR dengan ancaman hukuman maksimal hukum mati. Berdasarkan keterangan dari KapolresTasikmalayaKota, AKBP Anom Karibianto mengatakan bahwa pelaksanaan rekonstruksi sudah sesuai dengan apa yang disampaikan pelaku BR. Hal itu juga termasuk kesaksian para saksi dengan yang terjadi di lapangan yang telah diperagakan oleh pelaku sebanyak 36 adegan di KP rumah kosong maupun di depan sekolah korban.Baca Juga:17 Orang Meninggal Dunia Akibat DBD di Jawa Tengah, Ganjar Pranowo Ingatkan Pemda Waspada Dari hasil peragaan berita acara dengan yang terjadi di lapangan, pihak kepolisian menemukan fakta di mana pada adegan ke 14 dan 15, pelaku membekap dan membunuh korban dengan cara mencekik. Ia juga menyampaikan, terdapat jeda yang memungkinkan pelaku mengurungkan niatnya untuk membunuh. "Nah karena si tersangka ini tetap melakukanpembunuhantersebut, maka kategorinya bukan lagipembunuhanyang dilakukan spontanitas, tetapi menjadipembunuhanberencana dengan ancaman hukuman minimal 20 tahun penjara dan maksimalhukuman mati," ujar AKBP Anom Karibianto.*** (Asep M Saefuloh/PR Tasik). Artikel ini sebelumnya telah tayang di Pikiran RakyatTasikmalayadengan judul; 'Pelaku Pembunuhan Siswi Delis Terancam Hukuman Mati, Ibu Kandung Korban Merasa Lega'</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/nasional/pr-01349468/petugas-medis-rsud-dr-soekardjo-jadikan-jas-hujan-sebagai-pelindung-dari-virus-corona-wali-kota-tasikmalaya-alat-pelindung-ruang-isolasi-masih-minim</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Petugas Medis RSUD dr. Soekardjo Jadikan Jas Hujan Sebagai Pelindung dari Virus Corona, Wali Kota Tasikmalaya: Alat Pelindung Ruang Isolasi Masih Minim</t>
-        </is>
-      </c>
-      <c r="C393" s="2" t="n">
-        <v>43900.77638888889</v>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT- Sebagai tim pelindung virus corona atau COVID-19, terdapat hal menarik yang terjadi dariRSUDdr.Soekadjo, KotaTasikmalaya, Jawa Barat. Para petugas medisRSUDdr.Soekadjo terpaksa menggunakanjashujan disertai dengan masker untuk menutupi wajah, karena minimnya peralatan ketika melakukan penanganan diduga suspect corona. Sementara itu, pemerintah KotaTasikmalayamelalui Dinas Kesehatan, dikabarkan belum mampu menyediakan alat pelindung diri di ruang isolasi khususRSUDdr.Soekardjo. Baca Juga:Pembunuh Mahasiswa di Bandung Divonis 19 Tahun Bui, Keluarga Tak Terima dan Keluarkan Sumpah Serapah Pasien Dalam Perawatan (PDP) memang pernah dirawat di ruang isolasiRSUDdr.Soekardjo pada Sabtu, 7 Maret 2020. Saat itulah semua petugas terlihat menggunakanjashujan ketika berlalu-lalang. Setelah itu, pasien dirujuk ke RSU Gunung Jati Kota Cirebon. Namun ketika petugas medis hendak berangkat ke Cirebon untuk mengantar tiga orang pasien ODP COVID-19 tersebut, mereka terpaksa hanya bisa menggunakanjashujan sebagai alat pelindung diri karena ketersediaan alat yang minim. Senada dengan pernyataan tersebut, Wali KotaTasikmalaya, Budi Budiman mengatakan bahwa pihaknya membenarkan selama ini tim medis ruang isolasiRSUDdr.Soekardjo memang hanya menggunakanjashujan sebagai pelindung diri. Baca Juga:Kronologi Kecelakaan 4 Buruh Korban PHK di Pasuruan, Ditabrak Mobil saat Perjuangkan Haknya Lewat Aksi Mogok Budi juga menambahkan, bahwa alat berupajasdi ruang isolasi tersebut hanya boleh dipergunakan satu kali sehingga membuat stok menjadi minim. PIKIRAN RAKYAT- Sebagai tim pelindung virus corona atau COVID-19, terdapat hal menarik yang terjadi dariRSUDdr.Soekadjo, KotaTasikmalaya, Jawa Barat. Para petugas medisRSUDdr.Soekadjo terpaksa menggunakanjashujan disertai dengan masker untuk menutupi wajah, karena minimnya peralatan ketika melakukan penanganan diduga suspect corona. Sementara itu, pemerintah KotaTasikmalayamelalui Dinas Kesehatan, dikabarkan belum mampu menyediakan alat pelindung diri di ruang isolasi khususRSUDdr.Soekardjo. Baca Juga:Pembunuh Mahasiswa di Bandung Divonis 19 Tahun Bui, Keluarga Tak Terima dan Keluarkan Sumpah Serapah Pasien Dalam Perawatan (PDP) memang pernah dirawat di ruang isolasiRSUDdr.Soekardjo pada Sabtu, 7 Maret 2020. Saat itulah semua petugas terlihat menggunakanjashujan ketika berlalu-lalang. Setelah itu, pasien dirujuk ke RSU Gunung Jati Kota Cirebon. Namun ketika petugas medis hendak berangkat ke Cirebon untuk mengantar tiga orang pasien ODP COVID-19 tersebut, mereka terpaksa hanya bisa menggunakanjashujan sebagai alat pelindung diri karena ketersediaan alat yang minim. Senada dengan pernyataan tersebut, Wali KotaTasikmalaya, Budi Budiman mengatakan bahwa pihaknya membenarkan selama ini tim medis ruang isolasiRSUDdr.Soekardjo memang hanya menggunakanjashujan sebagai pelindung diri. Baca Juga:Kronologi Kecelakaan 4 Buruh Korban PHK di Pasuruan, Ditabrak Mobil saat Perjuangkan Haknya Lewat Aksi Mogok Budi juga menambahkan, bahwa alat berupajasdi ruang isolasi tersebut hanya boleh dipergunakan satu kali sehingga membuat stok menjadi minim.PETUGAS medis corona menggunakan jas hujan. "Memang untuk alat pelindung diri di ruang isolasi masih minim. Mengingatjastersebut dipergunakannya hanya satu kali. "Dengan keterbatasanjaspelindung diri itu tim petugas terpaksa harus membelijashujan yang sederhana. Tapi kita tetap berupaya meminta bantuan kepada Kementerian Kesehatan untuk mengirimkan alat pelindung diri (APD)," ujar Budi Budiman, Minggu 8 Maret 2020. Baca Juga:MA Batalkan Iuran BPJS Kesehatan Naik, Hidayat Nur Wahid: Ini Tamparan Buat Pemerintahan Jokowi Selain itu, ia mengatakan bahwa alat pelindung sangat diperlukan dalam kewaspadaan menghindari penyebaran COVID-19 khususnya KotaTasikmalaya. Termasuk alat pendeteksi suhu badan atau thermal scanner yang masih terbatas berjumlah empat buah. "Untuk alat pendeteksi suhu badan memang sekarang ini sulit didapatkan karena banyak yang memborong, tetapi kami terus berupaya agar Kementerian Kesehatan bisa mengirimkan alat tersebut," ujar Budi. Berjumlah empat, alat tersebut juga telah ditempatkan di Stasiun KA, Bandara Wiriadinata,RSUDdr.Soekardjo dan Pemerintah KotaTasikmalaya. Baca Juga:Cukup Ketik Lagu Favorit, Situs Wash Your Lyrics Bisa Buat Mencuci Tangan untuk Hindari Virus Corona Lebih Menyenangkan Sementara itu, Kepala Dinas Kesehatan KotaTasikmalayasebagai juru bicara Crisis Centre COVID-19, Uus Supangkat mengatakan bahwa ketiga pasien yang dirawat telah dirujuk ke Cirebon. Tapi, hasil diagnosa dari tim dokter menunjukkan bahwa salah satu pasien warga negara Filipina mengalami radang amandel akut dan bukannya COVID-19.Baca Juga:Warga Gaza Palestina Ditangkap Polisi Usai Curi Mobil, Modusnya dengan Ucap Salam dengan Bahasa Arab Lalu Pukul Mulut Korbannya Membenarkan pernyataan sebelumnya, Uus mengatakan bahwa petugas yang menangani tiga pasien di ruang isolasi khususRSUDdr.Soekardjo semuanya memakaijashujan dan alat pelindung (APD) karena minimnya peralatan. "Memang sangat terbatas. Kami juga telah berupaya agar ada bantuan dari pemerintah pusat, untuk segera mengirimkan alat pelindung tersebut mengingat pakaian itu sangat dibutuhkan. Apalagi SOP nya hanya bisa digunakan sekali pakai sehingga ketersediannya harus banyak," pungkas Uus.***  (Asep M Saefuloh / Pikiran Rakyat Tasik) Artikel ini pernah tayang sebelumny di tasikmalaya.pikiran-rakyat.com dengan judul'Minim Alat Pelindung Diri, Tim Isolasi Virus Corona RSUD dr Soekardjo Gunakan Jas Hujan'</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01349033/dua-meninggal-akibat-demam-berdarah-di-kota-tasikmalaya-sepanjang-2020</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Dua Meninggal Akibat Demam Berdarah di Kota Tasikmalaya Sepanjang 2020</t>
-        </is>
-      </c>
-      <c r="C394" s="2" t="n">
-        <v>43899.79305555556</v>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PIKIRAN RAKYAT -Dua warga KotaTasikmalayameninggal akibat demam berdarah sepanjang 2020. Sementara di KabupatenTasikmalaya, ‎sejumlah warganya juga terserang penyakit tersebut. Berdasarkan data Dinas Kesehatan KotaTasikmalayadalam kurun Januari-Februari 2020, jumlah yang mengidap demam berdarah mencapai 127 orang. Rinciannya, Januari sebanyak 35 laki-laki, 43 perempuan. Pada Februari, 22 laki-laki dan 27 perempuan. Di luar jumlah total tersebut, dua warga telah meninggal lantaran penyakit yang ditularkan melalui gigitan nyamuk tersebut. Nila selaku Pengelola ProgramDBDDinkes KotaTasikmalayamengatakan, dua korban demam berdarah itu masih berusia sekira empat tahun. Kedua anak perempuan itu masing-masing bernama Nadira Khoerunisa asal Kampung Sengkol Kulon, RT 2 RW 5, Kelurahan Kersamenak, Kecamatan Kawalu dan  Siti Maryam Izatunnisa, Jalan Letjen Haji Mashudi Nomor 3, Kampung Babakan Tengah, RT 01 RW 03, Kelurahan Kersamenak, Kecamat Kawalu. Baca Juga:Dua Pasien dalam Pengawasan RSHS Bandung Usai Miliki Riwayat Kontak dengan Kasus Positif Covid-19 di Jakarta Siti yang meninggal pada Februari sempat menjalani perawatan di Rumah Sakit Jasa Kartini. Di hari kelima perawatan, Siti pulang ke rumah bergantian dengan neneknya yang masuk dan dirawat di rumah sakit karena penyakit serupa. "Di rumah hanya semalam, (Siti) masuk (lagi rumah sakit) langsung drop, masuk IGD," kata Nila di Kantor Dinkes KotaTasikmalayaJalan Ir H Juanda, Senin 9 Maret 2020. Bocah itu pun akhirnya mengembuskan napas terakhirnya setelah masuk rumah sakit untuk kedua kalinya. Sedangkan Nadira langsung dalam kondisi syok saat pertama kali masuk RSUD Dokter Soekardjo pada Januari 2020. Lima belas menit kemudian Nadira meninggal. Hingga Februari, Tamansari dan Kawalu merupakan dua kecamatan yang paling banyak kasus deman berdarahnya. Untuk Tamansari, jumlahnya mencapai 38 kasus dan Kawalu 39 kasus. Baca Juga:19 Orang Positif Virus Corona di Indonesia Ternyata Tak Hanya di Jakarta Saja Nila menuturkan, penyebab terjangkitnya demam berdarah karena masih kurangnya kesadaran warga dalam menjaga kebersihan di dalam dan luar rumahnya. Jentik-jentiknyamuk bisa ditemukan di lingkungan kediaman warga yang terserang penyakit itu. Ia mencontohkan,jentiknyamuk didapati di tempat penampungan dispenser galonair minum, pot-pot tanaman bahkan gelas yang menampung air. PIKIRAN RAKYAT -Dua warga KotaTasikmalayameninggal akibat demam berdarah sepanjang 2020. Sementara di KabupatenTasikmalaya, ‎sejumlah warganya juga terserang penyakit tersebut. Berdasarkan data Dinas Kesehatan KotaTasikmalayadalam kurun Januari-Februari 2020, jumlah yang mengidap demam berdarah mencapai 127 orang. Rinciannya, Januari sebanyak 35 laki-laki, 43 perempuan. Pada Februari, 22 laki-laki dan 27 perempuan. Di luar jumlah total tersebut, dua warga telah meninggal lantaran penyakit yang ditularkan melalui gigitan nyamuk tersebut. Nila selaku Pengelola ProgramDBDDinkes KotaTasikmalayamengatakan, dua korban demam berdarah itu masih berusia sekira empat tahun. Kedua anak perempuan itu masing-masing bernama Nadira Khoerunisa asal Kampung Sengkol Kulon, RT 2 RW 5, Kelurahan Kersamenak, Kecamatan Kawalu dan  Siti Maryam Izatunnisa, Jalan Letjen Haji Mashudi Nomor 3, Kampung Babakan Tengah, RT 01 RW 03, Kelurahan Kersamenak, Kecamat Kawalu. Baca Juga:Dua Pasien dalam Pengawasan RSHS Bandung Usai Miliki Riwayat Kontak dengan Kasus Positif Covid-19 di Jakarta Siti yang meninggal pada Februari sempat menjalani perawatan di Rumah Sakit Jasa Kartini. Di hari kelima perawatan, Siti pulang ke rumah bergantian dengan neneknya yang masuk dan dirawat di rumah sakit karena penyakit serupa. "Di rumah hanya semalam, (Siti) masuk (lagi rumah sakit) langsung drop, masuk IGD," kata Nila di Kantor Dinkes KotaTasikmalayaJalan Ir H Juanda, Senin 9 Maret 2020. Bocah itu pun akhirnya mengembuskan napas terakhirnya setelah masuk rumah sakit untuk kedua kalinya. Sedangkan Nadira langsung dalam kondisi syok saat pertama kali masuk RSUD Dokter Soekardjo pada Januari 2020. Lima belas menit kemudian Nadira meninggal. Hingga Februari, Tamansari dan Kawalu merupakan dua kecamatan yang paling banyak kasus deman berdarahnya. Untuk Tamansari, jumlahnya mencapai 38 kasus dan Kawalu 39 kasus. Baca Juga:19 Orang Positif Virus Corona di Indonesia Ternyata Tak Hanya di Jakarta Saja Nila menuturkan, penyebab terjangkitnya demam berdarah karena masih kurangnya kesadaran warga dalam menjaga kebersihan di dalam dan luar rumahnya. Jentik-jentiknyamuk bisa ditemukan di lingkungan kediaman warga yang terserang penyakit itu. Ia mencontohkan,jentiknyamuk didapati di tempat penampungan dispenser galonair minum, pot-pot tanaman bahkan gelas yang menampung air.Untuk itu, Dinkes mengimbau warga membersihkan berbagai macam tempat penampungan seperti bak mandi, ember, pot, kolam hias seminggu satu kali untuk mencegak berkembang biaknyajentiknyamuk. Sedangkan untuk area permukiman yang warganya terserang deman berdarah, upaya penanganan yang dilakukan Dinkes berupa pengasapan atau fogging.*** </t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01347015/telusuri-korban-longsor-santamekar-kabupaten-tasikmalaya-anjing-pelacak-dikerahkan</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>Telusuri Korban Longsor Santamekar Kabupaten Tasikmalaya, Anjing Pelacak Dikerahkan</t>
-        </is>
-      </c>
-      <c r="C395" s="2" t="n">
-        <v>43894.62361111111</v>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –BPBD Kota Tasikmalaya ikut terjun membantu pencarian korban longsor di Desa Santanamekar,Kabupaten Tasikmalayayang terjadi pada Jumat, 28 Februari 2020. Sementara itu, Polres Tasikmalaya Kota mengerahkan anjing pelacak dalam pencarian tersebut. Kepala Pelaksana BPBD Kota Tasikmalaya Ucu Anwar mengatakan, ada 12 petugas Satgas BPBD Kota Tasikmalaya yang terlibat dalam pencarian. Hingga Rabu siang, lanjut Ucu, Kepolisian Resort Kota Tasikmalaya Kota mengerahkan pula anjing-anjing pelacak. Baca Juga:Presiden Jokowi Imbau Lindungi Hak Pribadi WNI yang Positif Terinfeksi Virus Corona "AnjingK-9 tiga ekor," ucapnya saat dihububungi, Rabu 4 Maret 2020. Namun, keberadaan korban bernama Didi, 63 tahun asal Kampung Palasari, Desa Santanamekar belum terdeteksi. Hal serupa dikemukakan Kepala KantorSARBandung‎‎ Deden Ridwansah dalam keterangan tertulisnya, Rabu siang. ‎"TimSARGabungan memulai pencarian korban atas nama Didi sejak pukul 08.00 WIB pagi," ucapnya. Di hari itu, TimSARgabungan juga melakukan pencarian dengan membagi para petugas dalam dua SRU (SARunit). ‎ Baca Juga:Ramai Pemberitaan Hoaks Virus Corona, Tommy Kurniawan: Harus Diatasi "SRU 1 melakukan pencarian di bagian atas titik duga korban tertimbun menggunakan 1 unit alkon (alat sedot air) dan mencangkul secara manual dan SRU 2 melakukan pencarian di bagian bawah titik duga korban tertimbun menggunakan 1 unit alkon dan mencangkul secara manual," ucapnya. Kendala cuaca dan tebalnya tanah masih dialami petugas di hari kelima pencarian.PIKIRAN RAKYAT –BPBD Kota Tasikmalaya ikut terjun membantu pencarian korban longsor di Desa Santanamekar,Kabupaten Tasikmalayayang terjadi pada Jumat, 28 Februari 2020. Sementara itu, Polres Tasikmalaya Kota mengerahkan anjing pelacak dalam pencarian tersebut. Kepala Pelaksana BPBD Kota Tasikmalaya Ucu Anwar mengatakan, ada 12 petugas Satgas BPBD Kota Tasikmalaya yang terlibat dalam pencarian. Hingga Rabu siang, lanjut Ucu, Kepolisian Resort Kota Tasikmalaya Kota mengerahkan pula anjing-anjing pelacak. Baca Juga:Presiden Jokowi Imbau Lindungi Hak Pribadi WNI yang Positif Terinfeksi Virus Corona "AnjingK-9 tiga ekor," ucapnya saat dihububungi, Rabu 4 Maret 2020. Namun, keberadaan korban bernama Didi, 63 tahun asal Kampung Palasari, Desa Santanamekar belum terdeteksi. Hal serupa dikemukakan Kepala KantorSARBandung‎‎ Deden Ridwansah dalam keterangan tertulisnya, Rabu siang. ‎"TimSARGabungan memulai pencarian korban atas nama Didi sejak pukul 08.00 WIB pagi," ucapnya. Di hari itu, TimSARgabungan juga melakukan pencarian dengan membagi para petugas dalam dua SRU (SARunit). ‎ Baca Juga:Ramai Pemberitaan Hoaks Virus Corona, Tommy Kurniawan: Harus Diatasi "SRU 1 melakukan pencarian di bagian atas titik duga korban tertimbun menggunakan 1 unit alkon (alat sedot air) dan mencangkul secara manual dan SRU 2 melakukan pencarian di bagian bawah titik duga korban tertimbun menggunakan 1 unit alkon dan mencangkul secara manual," ucapnya. Kendala cuaca dan tebalnya tanah masih dialami petugas di hari kelima pencarian.Tebal tanah yang mencapi 6-7 meter menyulitkan petugas yang melakukan pengerukan. Hujan yang terkadang turun pun menjadi ganjalan pencarian. Baca Juga:Ranking 3 Nasional, Kedokteran Unpad Masuk Peringkat Antara 551-600 Dunia Seperti diketahui,  longsor yang terjadi pada Jumat, 28 Februari pagi itu membuat Didi raib ketika sedang mengolah sawahnya. Saat itu, korban tengah menuju hulu irigasi untuk melihat menambah debit air.  Namun selang beberapa menit kemudian terjadi bencana longsor dari arah Kampung Peundeuy dengan jarak sekitar 1,5 kilometer.  Area longsor terbilang cukup luas. Dalam data BPBDKabupaten Tasikmalaya, panjang longsor dari lidah longsor Santanamekar kurang lebih1,5 km, ketebalan rata-rata 5-7 meter. Petugas penyelamat juga mesti bertaruh keselamatan dirinya lantara potensi longsor susulan masih bisa terjadi lantaran cuaca yang tak menentu dan adanya pergerakan tanah.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01347002/longsor-timbun-jalan-penghubung-leuwiliang-urug-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>Longsor Timbun Jalan Penghubung Leuwiliang-Urug Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C396" s="2" t="n">
-        <v>43894.6125</v>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Longsor terjadi di Kampung Nusalaksana Pamipiran, Kelurahan Leuwiliang, Kecamatan Kawalu,Kota Tasikmalaya. Akibatnya, akses jalan penghubung Leuwiliang-Urug sempat terputus. Kepala Pelaksana Badan Penanggulangan Bencana Daerah (BPBD)Kota TasikmalayaUcu Anwar menuturkan, peristiwa tersebut terjadi Selasa, 3 Maret 2020, pukul 14.35 WIB. Baca Juga:Pikiran Rakyat dan Uninus Kerja Sama Tingkatkan SDM Materiallongsorpun menimbun badan jalan. "Akses jalan dari Leuwiliang ke Urug tertutup," ucap Ucu saat dihubungi, Rabu, 4 Maret 2020. Petugas BPBD dan warg kemudian turun untuk membuka kembali akses penghubung tersebut pada pukul 16-30 WIB. Mereka bahu membahu membersihkan timbunan tanah hingga pukul 22.00 WIB. Terdapat 15 petugas BPBDKota Tasikmalayayang turut serta dalam pengerukan timbunanlongsor. Ucu bahkan ikut serta dalam upaya pembersihan tersebut. Baca Juga:Gandeng Lady Gaga, BLACKPINK Gebrak Kembali Dunia Musik Selain mencangkul dan menggunakan peralatan manual lain, BPBD juga mengerahkan alat berat jenis eksavator untuk pengerukan. Akhirnya, kerja bersama itu membuahkan hasil. Akses jalan kembali normal dan warga bisa melintasinya.PIKIRAN RAKYAT –Longsor terjadi di Kampung Nusalaksana Pamipiran, Kelurahan Leuwiliang, Kecamatan Kawalu,Kota Tasikmalaya. Akibatnya, akses jalan penghubung Leuwiliang-Urug sempat terputus. Kepala Pelaksana Badan Penanggulangan Bencana Daerah (BPBD)Kota TasikmalayaUcu Anwar menuturkan, peristiwa tersebut terjadi Selasa, 3 Maret 2020, pukul 14.35 WIB. Baca Juga:Pikiran Rakyat dan Uninus Kerja Sama Tingkatkan SDM Materiallongsorpun menimbun badan jalan. "Akses jalan dari Leuwiliang ke Urug tertutup," ucap Ucu saat dihubungi, Rabu, 4 Maret 2020. Petugas BPBD dan warg kemudian turun untuk membuka kembali akses penghubung tersebut pada pukul 16-30 WIB. Mereka bahu membahu membersihkan timbunan tanah hingga pukul 22.00 WIB. Terdapat 15 petugas BPBDKota Tasikmalayayang turut serta dalam pengerukan timbunanlongsor. Ucu bahkan ikut serta dalam upaya pembersihan tersebut. Baca Juga:Gandeng Lady Gaga, BLACKPINK Gebrak Kembali Dunia Musik Selain mencangkul dan menggunakan peralatan manual lain, BPBD juga mengerahkan alat berat jenis eksavator untuk pengerukan. Akhirnya, kerja bersama itu membuahkan hasil. Akses jalan kembali normal dan warga bisa melintasinya."Sekarang sudah selesai," ucapnya. Ucu menyebut tingginya intensitas hujan menjadi penyebab peristiwa itu. Baca Juga:Masker dan Hand Sanitizer Masih Tersedia di Kimia Farma, Erick : Harganya Tidak Naik, Rp 2.000 untuk Masker "Hujan dengan intensitas tinggi dan elevasi perbukitan yang curam ditambah dengan kontur tanah yang gembur," ujarnya. Seperti diketahui, bencana hidrometeorologi masih mendominasi bencana alam yang terjadi diKota Tasikmalayapada Februari 2020. Bencana tersebut ditandai tingginya intensitas hujan akan disertai angin dan sambaran petir. Kepala Pelaksana Badan Penanggulangan Bencana Daerah (BPBD)Kota TasikmalayaUcu Anwar menuturkan, kondisi tersebut berdampak terjadinya genangan air danpohon tumbang. Baca Juga:Hutan Gundul di Majalengka, Lereng Gunung Miring pun Jadi Lahan Tanam Cabai Rawit dan Bawang Genangan air, lanjut Ucu, terjadi akibat tersumbatnya aliran sungai oleh sampah, sedimentasi sungai dan alih fungsi lahan. Titik genangan air, lanjutnya, berada di Jalan KHZ Mustafa, Karangresik, Indihiang dan Cipedes. Alih fungsi lahan, lanjut Ucu, ikut andil terhadap munculnya genangan. "Alih fungsi lahan mengakibatkan resapan air berkurang dan semakin masifnya pembangunan infrastruktur yang tidak ramah lingkungan," kata Ucu dalam keterangan WhatsApp-nya, Senin, 10 Februari 2020. Baca Juga:Raih Tiga Penghargaan pada Debutnya Bersama Persib di Liga 1 2020, Wander Luiz: Saya Tidak Boleh Puas dengan Ini SemuaGenangan air membuat petugas BPBD pun turun tangan dengan menyedotnya mengunakan tiga pompa setiap hujan mengguyur. "PR" juga sempat merasakan langsung genangan yang bermunculan di ruas jalanKota Tasikmalayasetiap hujan. Jalan KHZ Mustafa hingga SL Tobing berubah menjadi sungai lantaran air yang tak tertampung di drainase masuk ke badan jalan. Tak hanya genangan, bahaya lain yang mengintai warga di musim hujan adalahpohon tumbangdan sambaran petir. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01346276/sepeda-motor-tertabrak-truk-pns-tewas-di-jalan-gubernur-sewaka-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Sepeda Motor Tertabrak Truk, PNS Tewas di Jalan Gubernur Sewaka Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C397" s="2" t="n">
-        <v>43892.71527777778</v>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Yana Nuryana Sidik, 59 tahun, pegawai negeri sipil asal Kampung Cigantang Hilir, RT 03 RW 01, Kelurahan Cigantang, Kecamatan Mangkubumi tewas setelah sepeda motornya tertabrak truk di Jalan Gubernur Sewaka,Kota Tasikmalaya, Senin, 2 Maret 2020. Peristiwa nahas tersebut bermula saat Yana melintasi jalan itu menggunakan sepedamotorjenis Yamaha Jupiter MX NRKB nomor polisi Z 5947 LK pada pukul 06.00 WIB. Yana melintas dengan membonceng Ai Nurhamidah, 54 tahun. Baca Juga:Intip Fitur Terbaru dari TikTok, Salah Satunya Penggunaan Stiker Buat Video Jadi Lebih Menarik "(Korban) datang dari arah Jalan Babakan Kadu,‎ ketika berbelok ke kanan jalan untuk memutar arah menuju ke arah Cisumur, sesaat di tempat kejadian bagian belakangnya tertabrak oleh kendaraan Light Truck Mitsubishi Colt Diesel (nomor polisi) Z 8635 DG yang dikemudikan oleh Saudara Deni," ucap Kepala Unit Laka Lantas Polres Tasikmalaya Kota Ipda Zezen Zaenal M, SH dalam keterangan tertulisnya, Senin siang. Truk tersebut melaju dari arah Cisumur menuju Linggajaya. Akibatnya, Yana meninggal dan Ai hanya menderita luka ringan. Korban diduga tidak memerhatikan situasi arus lalu lintas sebelum mengubah/memutar arah. Baca Juga:Guru Besar ITB Sri Widiyantoro Jabat Rektor Universitas Kristen Maranatha Sedangkan pengemudi truk diduga menjalankan kendaraanya dengan kecepata tinggi serta tak memperhatikan adanya sepedamotoryang tengah mengubah arah. Kondisi kedua kendaraan yang terlibat kecelakaan tersebut diketahui laik jalan.PIKIRAN RAKYAT –Yana Nuryana Sidik, 59 tahun, pegawai negeri sipil asal Kampung Cigantang Hilir, RT 03 RW 01, Kelurahan Cigantang, Kecamatan Mangkubumi tewas setelah sepeda motornya tertabrak truk di Jalan Gubernur Sewaka,Kota Tasikmalaya, Senin, 2 Maret 2020. Peristiwa nahas tersebut bermula saat Yana melintasi jalan itu menggunakan sepedamotorjenis Yamaha Jupiter MX NRKB nomor polisi Z 5947 LK pada pukul 06.00 WIB. Yana melintas dengan membonceng Ai Nurhamidah, 54 tahun. Baca Juga:Intip Fitur Terbaru dari TikTok, Salah Satunya Penggunaan Stiker Buat Video Jadi Lebih Menarik "(Korban) datang dari arah Jalan Babakan Kadu,‎ ketika berbelok ke kanan jalan untuk memutar arah menuju ke arah Cisumur, sesaat di tempat kejadian bagian belakangnya tertabrak oleh kendaraan Light Truck Mitsubishi Colt Diesel (nomor polisi) Z 8635 DG yang dikemudikan oleh Saudara Deni," ucap Kepala Unit Laka Lantas Polres Tasikmalaya Kota Ipda Zezen Zaenal M, SH dalam keterangan tertulisnya, Senin siang. Truk tersebut melaju dari arah Cisumur menuju Linggajaya. Akibatnya, Yana meninggal dan Ai hanya menderita luka ringan. Korban diduga tidak memerhatikan situasi arus lalu lintas sebelum mengubah/memutar arah. Baca Juga:Guru Besar ITB Sri Widiyantoro Jabat Rektor Universitas Kristen Maranatha Sedangkan pengemudi truk diduga menjalankan kendaraanya dengan kecepata tinggi serta tak memperhatikan adanya sepedamotoryang tengah mengubah arah. Kondisi kedua kendaraan yang terlibat kecelakaan tersebut diketahui laik jalan.Sementara kondisi jalan yang menjadi tempat kejadian berlangsung beraspal baik, kering dan datang. Cuaca pun saat itu cerah dengan arus lalu lintas tak terlalu ramai. Baca Juga:Butuh Uang Tunai, Lebih Baik Menggunakan Kartu Kredit atau KTA? Kerugian material lantaran kecelakaan ditaksir mencapai Rp 1 juta. Sebelumnya, kecelakaan sepedamotoryang makan korban jiwa pun terjadi di Jalan Brigjen Wasita Kusumah, dekat Terminal Indihiang. Arif, pemuda 23 tahun asal Indihiang tewas kecelakaan saat mengendarai sepeda motornya melewati jalan itu, Minggu, 2 Februari 2020 pagi. Ia tewas setelah sepedamotoryang dikendarainya menabrak pohon pembatas jalan. Baca Juga:Setelah 62 Tahun Mengaspal, GM Hentikan Produksi Chevrolet Impala Peristiwa bermula saat Arif melaju dari arah Parakan Honje (Parhon) menuju Simpang Empat Gunung Tujuh mengendaraimotorjenis Suzuki Satria Fu nomor polisi Z-3860-UJ.‎ Saat itu, Arif membonceng Ai Meli Adawiyah, perempuan 23 tahun asal Mangkubumi,Kota Tasikmalaya. Kondisi cuaca terbilang bagus lantaran tengah tak turun hujan dengan medan jalan lurus dan mendatang. Demikian pula arus lalu lintas dalam kondisi ramai lancar. Nahas kecelakaan pun terjadi di lokasi yang berdekatan dengan Terminal Indihiang tersebut. Baca Juga:RUU Omnibus Law Cipta Kerja Buka Peluang Investasi Pertanian"Diduga sepedamotor(korban) berserempetan dengan bagian belakang  sepedamotorlain sehingga mengalami hilang kendali dan menabrak pohon yang ada di pembatas jalan," kata Kepala Unit Laka Lantas Polres Tasikmalaya Kota Ipda Zezen Zaenal M, SH waktu itu. Akibat kejadian tersebut, Arif meninggal di tempat kejadian perkara. Sedangkan Ai mengalami luka berat serta dibawa ke RSUD Dokter Soekardjo untuk mendapat perawatan. Baca Juga:Dua WNI Positif Terjangkit, Presiden Tegaskan Keseriusan Pemerintah Tangani Wabah Virus Corona Kondisi sepedamotorkorban pun mengalami kerusakan. Atas peristiwa itu, Zezen mengimbau para pengendara, terutama pengemudi sepedamotortak memacu kendaraannya dengan kecepatan tinggi. Potensi kecelakaan semakin tinggi apalagi hujan kerap mengguyurKota Tasikmalaya.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01344076/pengendara-motor-kritis-setelah-tertimpa-dahan-pohon-yang-patah-di-purbaratu-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>Pengendara Motor Kritis, Setelah Tertimpa Dahan Pohon yang Patah di Purbaratu Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C398" s="2" t="n">
-        <v>43886.80347222222</v>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT- Seorang warga terluka dan kritis setelah tertimpa dahanpohonyang patah di kawasanPurbaratu, KotaTasikmalaya, Selasa, 25 Februari 2020, sekira pukul 15.30 WIB. Pohon tersebut patah setelahangin kencangmelanda kawasan tersebut. Kepala Pelaksana Badan Penanggulangan Bencana Daerah (BPBD) KotaTasikmalayaUcu Anwar menuturkan, peristiwa nahas itu bermula saat warga bernama Dani, 35 tahun, pulang selepas mencari ikan di sungai dan sawah pada sekira pukul 15.30 WIB. Baca Juga:Sudah Tua dan Keropos, Ratusan Pohon di Bandung Utara Rawan Tumbang Warga Bojongnangka, Kelurahan Sukamenak tersebut pulang ke rumah dengan menggunakan sepeda motor. "Tiba-tibaangin kencangdan mematahkan dahan besar lalu menimpanya," kata Ucu saat dihubungi. Korban pun terkapar di jalan kawasanPurbaratudengan darah mengucur dari kepalanya. Warga segera berdatangan untuk menolong korban yang tertimpapohonjenis trembesi tersebut. Petugas BPBD, lanjut Ucu, ikut turun tangan membantu. "Kami mengantar dan memfasilitasi penanganan medis oleh pihak RSUD (Rumah Sakit Umum Daerah Dokter Soekardjo)," ujarnya. Baca Juga:Jelang Kick-Off Liga 1 2020, Pelatih Persib Pandang Lini Pertahanannya Sudah Stabil Akibat peristiwa itu, kondisi korban kritis dan dirawat di ruang instalasi gawat darurat (IGD). "Dan harus di CT scan," kata Ucu. Selain bagian kepala, korban mengalami robek bibir serta mendapat jahitan luar dalam. Ucu menambahkan,pohontrembesi memang relatif rapuh dan mudah patah. Peristiwapohontumbangatau dahan patah bukanlah pertama kali terjadi di wilayah KotaTasikmalaya. Bahkan seorang warga tewas setelah tertimpapohontumbangdi Kompleks Olah Raga Dadaha pada awal November 2019.PIKIRAN RAKYAT- Seorang warga terluka dan kritis setelah tertimpa dahanpohonyang patah di kawasanPurbaratu, KotaTasikmalaya, Selasa, 25 Februari 2020, sekira pukul 15.30 WIB. Pohon tersebut patah setelahangin kencangmelanda kawasan tersebut. Kepala Pelaksana Badan Penanggulangan Bencana Daerah (BPBD) KotaTasikmalayaUcu Anwar menuturkan, peristiwa nahas itu bermula saat warga bernama Dani, 35 tahun, pulang selepas mencari ikan di sungai dan sawah pada sekira pukul 15.30 WIB. Baca Juga:Sudah Tua dan Keropos, Ratusan Pohon di Bandung Utara Rawan Tumbang Warga Bojongnangka, Kelurahan Sukamenak tersebut pulang ke rumah dengan menggunakan sepeda motor. "Tiba-tibaangin kencangdan mematahkan dahan besar lalu menimpanya," kata Ucu saat dihubungi. Korban pun terkapar di jalan kawasanPurbaratudengan darah mengucur dari kepalanya. Warga segera berdatangan untuk menolong korban yang tertimpapohonjenis trembesi tersebut. Petugas BPBD, lanjut Ucu, ikut turun tangan membantu. "Kami mengantar dan memfasilitasi penanganan medis oleh pihak RSUD (Rumah Sakit Umum Daerah Dokter Soekardjo)," ujarnya. Baca Juga:Jelang Kick-Off Liga 1 2020, Pelatih Persib Pandang Lini Pertahanannya Sudah Stabil Akibat peristiwa itu, kondisi korban kritis dan dirawat di ruang instalasi gawat darurat (IGD). "Dan harus di CT scan," kata Ucu. Selain bagian kepala, korban mengalami robek bibir serta mendapat jahitan luar dalam. Ucu menambahkan,pohontrembesi memang relatif rapuh dan mudah patah. Peristiwapohontumbangatau dahan patah bukanlah pertama kali terjadi di wilayah KotaTasikmalaya. Bahkan seorang warga tewas setelah tertimpapohontumbangdi Kompleks Olah Raga Dadaha pada awal November 2019.Kejadian tersebut membuat pengelola Dadaha melakukan pemotongan atau penebanganpohon-pohonyang rawantumbangdi area olah raga KotaTasikmalayatersebut. BPBD pun turut melakukan pemotongan guna mengantisipasi kejadian serupa. Baca Juga:Hati-hati Travel “Nakal” dan Tak Berizin, Sekira 150.000 Warga Jawa Barat Umrah Tiap Tahun Ucu sempat berbagi tips agar warga terhindar dari bahayatumbangyang kerap terjadi di musim hujan. "Hindari berteduh di bawahpohon, kalau sedang dalam perjalanan, baiknya menunggu hingga hujan reda," kata Ucu. Ia meminta warga tak memaksakan diri keluar rumah jika cuaca sedang buruk.‎ "Kurangi aktivitas yang tidak penting, jangan keluar rumah," ucapnya. ***</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/nasional/pr-01339655/rumah-ambruk-satu-orang-terluka-di-cipedes-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>Rumah Ambruk, Satu Orang Terluka di Cipedes Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C399" s="2" t="n">
-        <v>43874.26041666666</v>
-      </c>
-      <c r="D399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01339599/kisah-pasar-rel-kota-tasikmalaya-dan-deru-si-kuik-yang-melintas</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>Kisah Pasar Rel Kota Tasikmalaya dan Deru Si Kuik Yang Melintas</t>
-        </is>
-      </c>
-      <c r="C400" s="2" t="n">
-        <v>43873.91666666666</v>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Jalan lempeng kecil itu terimpit kios-kios pedagang yang berderet di kanan kirinya. Lalu lalang kendaraan berpadu dengan hiruk pikuk aktivitas jual beli pedagang pembeli menjadi pemandangan jamak saban hari di sana. Terletak di Kelurahan Cilembang, Kecamatan Cihideung, Kota Tasimalaya, warga mengenal tempat tersebut dengan namaPasarRel. Baca Juga:Program Smart City Kota Cirebon Tak Berjalan Mulus, Sejumlah Aplikasi Tak Dimanfaatkan oleh Warga Ya, kegiatan jual beli dan keberadaan kios-kios sudah menjadi bukti lokasi itu memang pasar. Tetapi kenapa ada istilahrelyang dilekatkan sebagai identitas atau nama pasar? Kalau memang betul ada jalur kereta di mana jejak-jejaknya? Pertanyan itu membawa Pikiran-Rakyat.com menyambangiPasarRel, Rabu, 12 Februari 2020. Baca Juga:Coldiac Rilis Single No Make Up, Kolaborasi dengan Musisi Malaysia NYK Ternyata, jalan lurus diapit deretan kios itu sudah tak menyisakan batang-batang besi yang menjadi landasan jalur kereta api. Meskipun jejak jalur kereta telah lenyap, kisahPasarRel masih terpatri dalam diri warga dan pedagang yang bermukim dan berjualan di tempat tersebut.PIKIRAN RAKYAT –Jalan lempeng kecil itu terimpit kios-kios pedagang yang berderet di kanan kirinya. Lalu lalang kendaraan berpadu dengan hiruk pikuk aktivitas jual beli pedagang pembeli menjadi pemandangan jamak saban hari di sana. Terletak di Kelurahan Cilembang, Kecamatan Cihideung, Kota Tasimalaya, warga mengenal tempat tersebut dengan namaPasarRel. Baca Juga:Program Smart City Kota Cirebon Tak Berjalan Mulus, Sejumlah Aplikasi Tak Dimanfaatkan oleh Warga Ya, kegiatan jual beli dan keberadaan kios-kios sudah menjadi bukti lokasi itu memang pasar. Tetapi kenapa ada istilahrelyang dilekatkan sebagai identitas atau nama pasar? Kalau memang betul ada jalur kereta di mana jejak-jejaknya? Pertanyan itu membawa Pikiran-Rakyat.com menyambangiPasarRel, Rabu, 12 Februari 2020. Baca Juga:Coldiac Rilis Single No Make Up, Kolaborasi dengan Musisi Malaysia NYK Ternyata, jalan lurus diapit deretan kios itu sudah tak menyisakan batang-batang besi yang menjadi landasan jalur kereta api. Meskipun jejak jalur kereta telah lenyap, kisahPasarRel masih terpatri dalam diri warga dan pedagang yang bermukim dan berjualan di tempat tersebut.Baca Juga:Terima Penghargaan Internasional, Novel Baswedan Singgung Pelemahan KPK PenamaanPasarRel memang terkait erat dengan jalur kereta apiKota Tasikmalaya-Singaparna tempo dulu. NamaPasarRel pun muncul lantaran lokasi para pedagang menggelar barang-barang jualannya berada di tepi jalur kereta tersebut. Baca Juga:Sejumlah Aplikasi Kencan Dituding Kerap Curi Data Para Pengguna Dedi, 58, warga yang bermukim di kawasanPasarRel  masih ingat betul saat jalur kereta itu masih ada puluhan tahun lalu. Di masa kecilnya, Dedi mengaku kerap bermain-main dengan meletakkan paku agar tergilas kereta yang lewat. "Jadipepedangan(jadi pedang mainan)," ucapnya Dedi terkekeh. Baca Juga:Sayangkan Konflik Rumah Ibadah Masih Terjadi, Wakil Ketua Komisi VIII DPR RI Nilai Moderasi Agama Harus Diimplementasikan Seingatnya, pada 1970-an jalurreltersebut masih tampak. Namun, aktivitas kereta api sudah jarang melintas. Bila pun melintas, kereta hanya mengangkut batu barat dari halte di Padayungan yang saat itu menjadi gudang penampungan batu bara.Konon, batu bara tersebut berasal dari wilayah Karangnunggal, selatan Tasikmalaya. Batu bara kemudian diangkut ke Stasiun Tasikmalaya. Saat itu, para pedagangPasarRel hanya menggelar dagangannya atau masih berupa jongko-jongko di tepi jalur kereta. Berbeda dengan kondisinya kini yang telah berupa kios-kios. Baca Juga:Inter Milan Menangkan Gugatan atas Klub Milik David Beckham, Bermula dari Nama yang Dianggap Mirip Dedi menuturkan, kereta yang lewat tersebut membawa muatan batu bara di gerbong bak terbuka. Keretaitu akrab dipanggil warga dengan nama Si Kuik. Engkos, 65 tahun, warga Kampung Babakan Selakaso, Kelurahan Cilembang mengungkapkan, penamaan Si Kuik lantaran bunyi klakson keretanya yang khas. Di telinga warga, klakson tersebut berbunyi, kuik, kuik. Ketika Si Kuik lewat, beberapa pedagang yang berjualan di atasrelbergegas mengemasi dagangannya dan menepi dahulu. Baca Juga:Musim Kedua di Persib, Esteban Vizcarra Gunakan Nomor 10 dan Bicara Soal Dua Pemain Asing Anyar Selain di tepi, rupanya ada pula beberapa pedagang yang berjual‎an di atasrel. Hal lain yang unik, Si Kuik tak hanya memiliki masinis.Keretaitu juga memiliki kenek atau kernet yang membantu tugas masinis.Saat berbelok dari arah Jalan Gunung Ladu yang sekarang bernama Jalan Yudanegara ke arah Padayungan, sang kernet turun untuk menyetop kendaran terlebih dahulu. "Turun dahulu bawa bendera merah," ujar Engkos. Baca Juga:Musim Kedua di Persib, Esteban Vizcarra Gunakan Nomor 10 dan Bicara Soal Dua Pemain Asing Anyar Dengan mengibar-ibarkan bendera tersebut, kendaraan berhenti sehingga kereta melintas dengan aman. Masa itu memang belum ada palang pintu yang mengatur lalu lalang persilangan kereta dan kendaraan warga. Pada suatu waktu, Engkos pernah menumpang Si Kuik dari kota dan turun di Padayungan. Bekas halte Padayungan, lanjutnnya, kini menjadi kantorPDAM. Untuk menumpang, ia hanya cukup memberitahu kernet. Baca Juga:Alasan Lucinta Luna Gunakan Narkoba, Diduga untuk Atasi Depresi hingga Insomnia Riwayat Si Kuik terentang panjang sejak lama sebagai moda transportasi umumKota Tasikmalaya-Singaparna. Dari penelusuran "PR" beberapa warga yang berusia lanjut dengan umur 80 tahun ke atas mengonfirmasi keberadaan kereta atau trem uap yang beroperasi sejak zaman Kolonial Belanda tersebut. Bahkan bangunan Polsek Singaparna Kabupaten Tasikmalaya pun merupakan bekas stasiun.Baca Juga:Mulyana : Stadion Si Jalak Harupat Siap Jadi Venue Liga 1 Dalam beritanya pada 16 Agustus 1911,‎ koran berbahasa Belanda  De Preanger Bode menyebut pembukaan jalur trem uapKota Tasikmalaya-Singaparna berlangsung pada 1 Juni 1911. Koran tersebut juga menulis pada 29 Maret 2011 tentang halte-halte yang dilalui trem. Dua halte dikatakan berada di kawasan Cibanjaran dan Singaparna. Baca Juga:Sudah Telan 1.116 Korban Jiwa, WHO Ubah Nama Novel Coronavirus Wuhan Sebuah sketsa lama tentang situasi penyerbuan markas Kempeitai oleh pemuda Tasikmalaya pada 18 September 1945 secara jelas mencantumkan keberadaan jalur kereta itu. Sketsa yang termuat dalam dokumen Risalah Berakhirnya Kekuasan Pemerintahan Tentara Jepang di Kabupaten Tasikmalaya tersebut memperlihatkan jalur kereta bermula dari arah Stasiun Tasikmalaya kemudan masuk ke JalanPasarKolot yang sekarang bernama Jalan Dokter Soekardjo kemudian membelah kawasan Masjid Agung dan Tennis Ban sertaPasarCeplak. Kedua tempat itu saat ini dikenal dengan TamanKota Tasikmalaya. Jalurrelkemudian berbelok Jalan Gunung Ladu dan mulai mengarah ke Padayungan hingga Singaparna melewatiPasarRel.***</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>https://www.pikiran-rakyat.com/jawa-barat/pr-01338553/mayat-pria-ditemukan-di-kolam-warga-kawalu-kota-tasikmalaya</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>Mayat Pria Ditemukan di Kolam Warga Kawalu Kota Tasikmalaya</t>
-        </is>
-      </c>
-      <c r="C401" s="2" t="n">
-        <v>43870.61111111111</v>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>PIKIRAN RAKYAT –Jasad pria ditemukan di sebuahkolamdi Kampung Cibuyut, RT 05 RW 01, Kelurahan Karanganyar, KecamatanKawalu,Kota Tasikmalaya. Musabab kematiannya masih dalam proses penyelidikan. Penemuanmayatterkuak saat petugas Badan Penanggulangan Bencana Daerah (BPBD)Kota Tasikmalayamenerima laporan Babinsa. Baca Juga:Boy Band Smash Gandeng Oomleo sang Pionir Karaoke Massal dalam Single Barunya Dalam laporan,jasadditemukan pada Sabtu, 8 Februari 2020, pukul 18.00 WIB. Dari hasil penelusuran satu jam kemudian,jasadkorban berada dikolammilik warga bernama Herdi di kampung tersebut. Korban diketahui bernama Supyan, 55 tahun, seorang buruh asal Kampung Cijerah RT 04 RW 03, Kelurahan Karanganyar, KecamatanKawalu. Baca Juga:1.000 Peserta Ikuti 5K Colour Run yang Digelar untuk Peringati Hari Kanker Sedunia "Pukul 19.30 WIB Korban dievakuasi oleh tim BPBDKota Tasikmalayadan Polres Tasikmalaya Kota menuju RSUD Dokter SoekardjoKota Tasikmalaya," kata Kepala Pelaksana BPBDKota TasikmalayaUcu Anwar dalam keterangan tertulisnya, Sabtu malam. Musabab kematian korban pun dalam pemeriksaan tim dokter.PIKIRAN RAKYAT –Jasad pria ditemukan di sebuahkolamdi Kampung Cibuyut, RT 05 RW 01, Kelurahan Karanganyar, KecamatanKawalu,Kota Tasikmalaya. Musabab kematiannya masih dalam proses penyelidikan. Penemuanmayatterkuak saat petugas Badan Penanggulangan Bencana Daerah (BPBD)Kota Tasikmalayamenerima laporan Babinsa. Baca Juga:Boy Band Smash Gandeng Oomleo sang Pionir Karaoke Massal dalam Single Barunya Dalam laporan,jasadditemukan pada Sabtu, 8 Februari 2020, pukul 18.00 WIB. Dari hasil penelusuran satu jam kemudian,jasadkorban berada dikolammilik warga bernama Herdi di kampung tersebut. Korban diketahui bernama Supyan, 55 tahun, seorang buruh asal Kampung Cijerah RT 04 RW 03, Kelurahan Karanganyar, KecamatanKawalu. Baca Juga:1.000 Peserta Ikuti 5K Colour Run yang Digelar untuk Peringati Hari Kanker Sedunia "Pukul 19.30 WIB Korban dievakuasi oleh tim BPBDKota Tasikmalayadan Polres Tasikmalaya Kota menuju RSUD Dokter SoekardjoKota Tasikmalaya," kata Kepala Pelaksana BPBDKota TasikmalayaUcu Anwar dalam keterangan tertulisnya, Sabtu malam. Musabab kematian korban pun dalam pemeriksaan tim dokter.Ucu menuturkan, BPBD menerjunkan 1 regu yang terdiri dari 6 anggotanya guna membantu proses evakuasi. Baca Juga:Sempat Renggang karena Dipersunting Partai Lain, Ridwan Kamil Bagi Momen Bersama Prabowo Subianto Jasad korban, lanjut Ucu, berada di dalamkolamyang tak terlalu dalam sehingga dapat terlihat. Penemuanmayatbukanlah kejadian pertama diKota Tasikmalaya. Pada 10 Desember 2019, ‎warga Perumahan Pondok Jati Indah, Panyingkiran, Indihiang,Kota Tasikmalayadkejutkan penemuanmayatperempuan di salah satu rumah di perumahan tersebut. Baca Juga:Warna Terang Jadi Incaran untuk Tren Rambut Pria Masa Kini Kapolsek Indihiang Basori membenarkan temuanmayattersebut. Identitas perempuan tersebut bernama Aktris Mulyati, 54 tahun. "Kayaknya tadi siang," ucap Basori terkait dugaan waktu kematian korban saat dihubungi Pikiran Rakyat. Saat ditemukan, posisimayatdalam posisi duduk dan tak berbau. Basori tak menjelaskan lebih lanjut kronologis penemuanjasaddan musaban kematiannya. Polisi pun masih melakukan penyelidikan. Baca Juga:Fabiano Intip Kekuatan Tim Pesaing Persib Nanti di Musim 2020Ia hanya  mengatakan,mayatditemukan berdasarkan laporan dari warga. Sementara itu, Novi, salah satu warga di lokasi penemuanjasadmengatakan, korban berstatus pengontrak rumah di perumahan tersebut. Karena pendatang, ia dinilai agak kurang bersosialisasi dengan tetangganya. "Barusan dibawa ke RSUD (Dokter Soekardjo)," ucap Novi terkait posisi korban saat ini. Rupanya,jasadAktris dibawa untuk menjalani visum.***</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
